--- a/mathhammer.xlsx
+++ b/mathhammer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Users\Adam\Games\Warhammer 40k\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\users\adam\games\warhammer\mathhammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="112">
   <si>
     <t>D</t>
   </si>
@@ -355,6 +355,12 @@
   <si>
     <t>combo</t>
   </si>
+  <si>
+    <t>triggers</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
 </sst>
 </file>
 
@@ -678,7 +684,7 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1189,118 +1195,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1333,6 +1228,12 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1350,6 +1251,130 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1543,22 +1568,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.8888888888888892E-2</c:v>
+                  <c:v>-4.4444444444444446E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>-3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4444444444444446E-2</c:v>
+                  <c:v>-2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4444444444444446E-2</c:v>
+                  <c:v>-2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4444444444444446E-2</c:v>
+                  <c:v>-2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2222222222222223E-2</c:v>
+                  <c:v>-1.1111111111111112E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1637,22 +1662,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.29629629629629634</c:v>
+                  <c:v>0.37037037037037041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22222222222222224</c:v>
+                  <c:v>0.27777777777777785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14814814814814817</c:v>
+                  <c:v>0.1851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14814814814814817</c:v>
+                  <c:v>0.1851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14814814814814817</c:v>
+                  <c:v>0.1851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4074074074074084E-2</c:v>
+                  <c:v>9.2592592592592601E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1731,22 +1756,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.14814814814814817</c:v>
+                  <c:v>0.1851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11111111111111112</c:v>
+                  <c:v>0.13888888888888892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4074074074074084E-2</c:v>
+                  <c:v>9.2592592592592601E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4074074074074084E-2</c:v>
+                  <c:v>9.2592592592592601E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4074074074074084E-2</c:v>
+                  <c:v>9.2592592592592601E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7037037037037042E-2</c:v>
+                  <c:v>4.6296296296296301E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,22 +1850,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1851851851851853</c:v>
+                  <c:v>1.4814814814814816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88888888888888895</c:v>
+                  <c:v>1.1111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59259259259259267</c:v>
+                  <c:v>0.74074074074074081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59259259259259267</c:v>
+                  <c:v>0.74074074074074081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59259259259259267</c:v>
+                  <c:v>0.74074074074074081</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29629629629629634</c:v>
+                  <c:v>0.37037037037037041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,22 +1944,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.34722222222222227</c:v>
+                  <c:v>0.46296296296296308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34722222222222227</c:v>
+                  <c:v>0.46296296296296308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.37037037037037041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.37037037037037041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.37037037037037041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20833333333333334</c:v>
+                  <c:v>0.27777777777777785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,22 +2038,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.4074074074074084E-2</c:v>
+                  <c:v>9.2592592592592601E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5555555555555559E-2</c:v>
+                  <c:v>6.9444444444444461E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7037037037037042E-2</c:v>
+                  <c:v>4.6296296296296301E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7037037037037042E-2</c:v>
+                  <c:v>4.6296296296296301E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7037037037037042E-2</c:v>
+                  <c:v>4.6296296296296301E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8518518518518521E-2</c:v>
+                  <c:v>2.314814814814815E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2298,11 +2323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439411856"/>
-        <c:axId val="439414992"/>
+        <c:axId val="384802800"/>
+        <c:axId val="384801232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439411856"/>
+        <c:axId val="384802800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -2415,14 +2440,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439414992"/>
+        <c:crossAx val="384801232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439414992"/>
+        <c:axId val="384801232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,7 +2562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439411856"/>
+        <c:crossAx val="384802800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2793,22 +2818,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.3333333333333335</c:v>
+                  <c:v>-0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>-0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>-0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>-0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33333333333333337</c:v>
+                  <c:v>-0.16666666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2887,22 +2912,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.59259259259259267</c:v>
+                  <c:v>0.74074074074074081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44444444444444448</c:v>
+                  <c:v>0.55555555555555569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29629629629629634</c:v>
+                  <c:v>0.37037037037037041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29629629629629634</c:v>
+                  <c:v>0.37037037037037041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29629629629629634</c:v>
+                  <c:v>0.37037037037037041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14814814814814817</c:v>
+                  <c:v>0.1851851851851852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2988,22 +3013,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.29629629629629634</c:v>
+                  <c:v>0.37037037037037041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22222222222222224</c:v>
+                  <c:v>0.27777777777777785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14814814814814817</c:v>
+                  <c:v>0.1851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14814814814814817</c:v>
+                  <c:v>0.1851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14814814814814817</c:v>
+                  <c:v>0.1851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4074074074074084E-2</c:v>
+                  <c:v>9.2592592592592601E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3090,22 +3115,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.3703703703703707</c:v>
+                  <c:v>2.9629629629629632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7777777777777779</c:v>
+                  <c:v>2.2222222222222228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1851851851851853</c:v>
+                  <c:v>1.4814814814814816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1851851851851853</c:v>
+                  <c:v>1.4814814814814816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1851851851851853</c:v>
+                  <c:v>1.4814814814814816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59259259259259267</c:v>
+                  <c:v>0.74074074074074081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,22 +3217,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.69444444444444453</c:v>
+                  <c:v>0.92592592592592615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69444444444444453</c:v>
+                  <c:v>0.92592592592592615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.74074074074074081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.74074074074074081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.74074074074074081</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>0.55555555555555569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3294,22 +3319,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.14814814814814817</c:v>
+                  <c:v>0.1851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11111111111111112</c:v>
+                  <c:v>0.13888888888888892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4074074074074084E-2</c:v>
+                  <c:v>9.2592592592592601E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4074074074074084E-2</c:v>
+                  <c:v>9.2592592592592601E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4074074074074084E-2</c:v>
+                  <c:v>9.2592592592592601E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7037037037037042E-2</c:v>
+                  <c:v>4.6296296296296301E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3579,11 +3604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439414600"/>
-        <c:axId val="439415384"/>
+        <c:axId val="384801624"/>
+        <c:axId val="384802016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439414600"/>
+        <c:axId val="384801624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -3696,14 +3721,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439415384"/>
+        <c:crossAx val="384802016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439415384"/>
+        <c:axId val="384802016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3818,7 +3843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439414600"/>
+        <c:crossAx val="384801624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7077,7 +7102,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10524,16 +10549,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>52928</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>108054</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>293404</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>109786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>280883</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>101402</xdr:rowOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>104486</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>300562</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10542,10 +10567,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9873203" y="108054"/>
-          <a:ext cx="10810230" cy="11147123"/>
-          <a:chOff x="-7731576" y="75127434"/>
-          <a:chExt cx="11454441" cy="11020390"/>
+          <a:off x="5885940" y="21078393"/>
+          <a:ext cx="35420975" cy="10967633"/>
+          <a:chOff x="-13147729" y="86352496"/>
+          <a:chExt cx="11454442" cy="11020392"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -10554,8 +10579,8 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="-7731576" y="75127434"/>
-          <a:ext cx="11443606" cy="5495102"/>
+          <a:off x="-13147729" y="86352496"/>
+          <a:ext cx="11443605" cy="5495102"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10571,7 +10596,7 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="-7720744" y="80652722"/>
+          <a:off x="-13136896" y="91877786"/>
           <a:ext cx="11443609" cy="5495102"/>
         </xdr:xfrm>
         <a:graphic>
@@ -10585,16 +10610,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>169203</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>146676</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431140</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>122864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>94686</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>126587</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>547123</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>102775</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10603,8 +10628,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9989478" y="6166476"/>
-          <a:ext cx="687483" cy="4609061"/>
+          <a:off x="4853461" y="17471971"/>
+          <a:ext cx="701091" cy="4579125"/>
           <a:chOff x="10019633" y="628312"/>
           <a:chExt cx="728235" cy="3042727"/>
         </a:xfrm>
@@ -10618,7 +10643,7 @@
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
                 <a:extLst>
                   <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                    <a14:cameraTool cellRange="$CJ$141:$CJ$149" spid="_x0000_s6317"/>
+                    <a14:cameraTool cellRange="$CJ$141:$CJ$149" spid="_x0000_s6357"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPicPr>
@@ -10980,7 +11005,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
@@ -12827,16 +12852,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>164986</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>52023</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>426923</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>28212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>92149</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>31934</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>544586</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>8123</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -12845,8 +12870,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9985261" y="556848"/>
-          <a:ext cx="689163" cy="4609061"/>
+          <a:off x="4849244" y="11866426"/>
+          <a:ext cx="702771" cy="4606340"/>
           <a:chOff x="10019633" y="628312"/>
           <a:chExt cx="728234" cy="3042727"/>
         </a:xfrm>
@@ -12860,7 +12885,7 @@
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
                 <a:extLst>
                   <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                    <a14:cameraTool cellRange="$CI$141:$CI$149" spid="_x0000_s6318"/>
+                    <a14:cameraTool cellRange="$CI$141:$CI$149" spid="_x0000_s6358"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPicPr>
@@ -13223,8 +13248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FA1055"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -13238,8 +13263,8 @@
     <col min="14" max="19" width="8.7109375" style="1"/>
     <col min="20" max="20" width="2.7109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="2.7109375" style="17" customWidth="1"/>
-    <col min="22" max="61" width="8.7109375" style="18" hidden="1" customWidth="1"/>
-    <col min="62" max="63" width="8.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="22" max="61" width="8.7109375" style="18" customWidth="1"/>
+    <col min="62" max="63" width="8.7109375" style="13" customWidth="1"/>
     <col min="64" max="65" width="8.7109375" style="26"/>
     <col min="66" max="66" width="5.7109375" style="26" customWidth="1"/>
     <col min="67" max="68" width="8.7109375" style="26"/>
@@ -13627,14 +13652,14 @@
       <c r="R17" s="183"/>
       <c r="S17" s="183"/>
       <c r="T17" s="183"/>
-      <c r="V17" s="192"/>
-      <c r="W17" s="192"/>
-      <c r="X17" s="192"/>
-      <c r="Y17" s="192"/>
-      <c r="Z17" s="192"/>
-      <c r="AA17" s="192"/>
-      <c r="AB17" s="192"/>
-      <c r="AC17" s="192"/>
+      <c r="V17" s="204"/>
+      <c r="W17" s="204"/>
+      <c r="X17" s="204"/>
+      <c r="Y17" s="204"/>
+      <c r="Z17" s="204"/>
+      <c r="AA17" s="204"/>
+      <c r="AB17" s="204"/>
+      <c r="AC17" s="204"/>
     </row>
     <row r="18" spans="1:157" hidden="1">
       <c r="A18" s="183"/>
@@ -13813,14 +13838,14 @@
       <c r="R25" s="183"/>
       <c r="S25" s="183"/>
       <c r="T25" s="183"/>
-      <c r="V25" s="192"/>
-      <c r="W25" s="192"/>
-      <c r="X25" s="192"/>
-      <c r="Y25" s="192"/>
-      <c r="Z25" s="192"/>
-      <c r="AA25" s="192"/>
-      <c r="AB25" s="192"/>
-      <c r="AC25" s="192"/>
+      <c r="V25" s="204"/>
+      <c r="W25" s="204"/>
+      <c r="X25" s="204"/>
+      <c r="Y25" s="204"/>
+      <c r="Z25" s="204"/>
+      <c r="AA25" s="204"/>
+      <c r="AB25" s="204"/>
+      <c r="AC25" s="204"/>
     </row>
     <row r="26" spans="1:157" hidden="1">
       <c r="A26" s="183"/>
@@ -14005,11 +14030,11 @@
     </row>
     <row r="28" spans="1:157" ht="15" customHeight="1">
       <c r="A28" s="121"/>
-      <c r="B28" s="193" t="str">
+      <c r="B28" s="242" t="str">
         <f>IF(I30="","",I30)</f>
         <v>Weapon 1</v>
       </c>
-      <c r="C28" s="193"/>
+      <c r="C28" s="242"/>
       <c r="D28" s="6"/>
       <c r="E28" s="15" t="s">
         <v>11</v>
@@ -14017,95 +14042,95 @@
       <c r="F28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="195"/>
+      <c r="G28" s="244"/>
       <c r="H28" s="82"/>
-      <c r="I28" s="197" t="str">
+      <c r="I28" s="214" t="str">
         <f>IF(I30="","",I30)</f>
         <v>Weapon 1</v>
       </c>
-      <c r="J28" s="197"/>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="197"/>
-      <c r="N28" s="197"/>
-      <c r="O28" s="197"/>
-      <c r="P28" s="197"/>
+      <c r="J28" s="214"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="214"/>
+      <c r="M28" s="214"/>
+      <c r="N28" s="214"/>
+      <c r="O28" s="214"/>
+      <c r="P28" s="214"/>
       <c r="Q28" s="93"/>
-      <c r="R28" s="197"/>
-      <c r="S28" s="197"/>
+      <c r="R28" s="214"/>
+      <c r="S28" s="214"/>
       <c r="T28" s="83"/>
-      <c r="V28" s="198" t="s">
+      <c r="V28" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="W28" s="199"/>
-      <c r="X28" s="199"/>
-      <c r="Y28" s="199"/>
-      <c r="Z28" s="199"/>
-      <c r="AA28" s="199"/>
-      <c r="AB28" s="199"/>
-      <c r="AC28" s="199"/>
-      <c r="AD28" s="199" t="s">
+      <c r="W28" s="240"/>
+      <c r="X28" s="240"/>
+      <c r="Y28" s="240"/>
+      <c r="Z28" s="240"/>
+      <c r="AA28" s="240"/>
+      <c r="AB28" s="240"/>
+      <c r="AC28" s="240"/>
+      <c r="AD28" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="AE28" s="199"/>
-      <c r="AF28" s="199"/>
-      <c r="AG28" s="199"/>
+      <c r="AE28" s="240"/>
+      <c r="AF28" s="240"/>
+      <c r="AG28" s="240"/>
       <c r="AH28" s="184"/>
       <c r="AI28" s="184"/>
-      <c r="AJ28" s="199" t="s">
+      <c r="AJ28" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="AK28" s="199"/>
-      <c r="AL28" s="199"/>
-      <c r="AM28" s="199"/>
-      <c r="AN28" s="199"/>
-      <c r="AO28" s="199" t="s">
+      <c r="AK28" s="240"/>
+      <c r="AL28" s="240"/>
+      <c r="AM28" s="240"/>
+      <c r="AN28" s="240"/>
+      <c r="AO28" s="240" t="s">
         <v>89</v>
       </c>
-      <c r="AP28" s="199"/>
-      <c r="AQ28" s="199"/>
-      <c r="AR28" s="199"/>
-      <c r="AS28" s="199"/>
-      <c r="AT28" s="199"/>
-      <c r="AU28" s="199"/>
-      <c r="AV28" s="199"/>
-      <c r="AW28" s="199"/>
-      <c r="AX28" s="199"/>
-      <c r="AY28" s="199"/>
-      <c r="AZ28" s="199"/>
-      <c r="BA28" s="199"/>
-      <c r="BB28" s="199" t="s">
+      <c r="AP28" s="240"/>
+      <c r="AQ28" s="240"/>
+      <c r="AR28" s="240"/>
+      <c r="AS28" s="240"/>
+      <c r="AT28" s="240"/>
+      <c r="AU28" s="240"/>
+      <c r="AV28" s="240"/>
+      <c r="AW28" s="240"/>
+      <c r="AX28" s="240"/>
+      <c r="AY28" s="240"/>
+      <c r="AZ28" s="240"/>
+      <c r="BA28" s="240"/>
+      <c r="BB28" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="BC28" s="199"/>
-      <c r="BD28" s="199"/>
-      <c r="BE28" s="199"/>
-      <c r="BF28" s="199"/>
-      <c r="BG28" s="199"/>
-      <c r="BH28" s="199"/>
-      <c r="BI28" s="199"/>
-      <c r="BJ28" s="199" t="s">
+      <c r="BC28" s="240"/>
+      <c r="BD28" s="240"/>
+      <c r="BE28" s="240"/>
+      <c r="BF28" s="240"/>
+      <c r="BG28" s="240"/>
+      <c r="BH28" s="240"/>
+      <c r="BI28" s="240"/>
+      <c r="BJ28" s="240" t="s">
         <v>91</v>
       </c>
-      <c r="BK28" s="202"/>
+      <c r="BK28" s="241"/>
       <c r="CJ28" s="94"/>
     </row>
     <row r="29" spans="1:157" ht="15" customHeight="1">
       <c r="A29" s="122"/>
-      <c r="B29" s="194"/>
-      <c r="C29" s="194"/>
+      <c r="B29" s="243"/>
+      <c r="C29" s="243"/>
       <c r="D29" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="165">
         <f>IF(AND(AD29,AF36),BD29+BF29,NA())</f>
-        <v>1.3333333333333335</v>
+        <v>-0.66666666666666674</v>
       </c>
       <c r="F29" s="30">
         <f>IFERROR(E29/P30,NA())</f>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="G29" s="196"/>
+        <v>-4.4444444444444446E-2</v>
+      </c>
+      <c r="G29" s="245"/>
       <c r="H29" s="84"/>
       <c r="I29" s="78" t="s">
         <v>13</v>
@@ -14143,8 +14168,8 @@
         <v>34</v>
       </c>
       <c r="X29" s="12">
-        <f>IF(V30=1,0,IF(J32="D3",5/6,IF(J32="2D3",3/6,IF(J32="D6",3.5/6,IF(J32="2D6",1,J32/6)))))</f>
-        <v>0</v>
+        <f>IF((V30+IF(J32="D3",5/6,IF(J32="2D3",3/6,IF(J32="D6",3.5/6,IF(J32="2D6",1,J32/6)))))&gt;=1,(5/6)-V30,IF(J32="D3",5/6,IF(J32="2D3",3/6,IF(J32="D6",3.5/6,IF(J32="2D6",1,J32/6)))))</f>
+        <v>-0.66666666666666663</v>
       </c>
       <c r="Y29" s="14" t="str">
         <f>"+- to hit rolls"</f>
@@ -14184,7 +14209,7 @@
       </c>
       <c r="AJ29" s="20">
         <f>IF(OR(AF29,AF30),V31*V30,(V30+X29)*V31)</f>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="AK29" s="20" t="s">
         <v>77</v>
@@ -14205,77 +14230,77 @@
       </c>
       <c r="AP29" s="21">
         <f>IF(OR(AF31,AF32),AL34*AN29,AL34*(AN29+X30))</f>
-        <v>4</v>
-      </c>
-      <c r="AQ29" s="203" t="s">
+        <v>-2</v>
+      </c>
+      <c r="AQ29" s="221" t="s">
         <v>77</v>
       </c>
       <c r="AR29" s="20">
         <f>IF(AF35,AL34*IF(OR(AF31,AF32),AB29,AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AS29" s="203" t="s">
+      <c r="AS29" s="221" t="s">
         <v>64</v>
       </c>
       <c r="AT29" s="20">
         <f>IF(AF32,AL34-(AL34*AN29),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU29" s="203" t="s">
+      <c r="AU29" s="221" t="s">
         <v>60</v>
       </c>
       <c r="AV29" s="20">
         <f>(AN29+X30)*AT29</f>
         <v>0</v>
       </c>
-      <c r="AW29" s="203" t="s">
+      <c r="AW29" s="221" t="s">
         <v>78</v>
       </c>
       <c r="AX29" s="20">
         <f>IF(AF35,AT29*(AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AY29" s="203" t="s">
+      <c r="AY29" s="221" t="s">
         <v>65</v>
       </c>
       <c r="AZ29" s="20">
         <f>AV29+AP29</f>
-        <v>4</v>
-      </c>
-      <c r="BA29" s="203" t="s">
+        <v>-2</v>
+      </c>
+      <c r="BA29" s="221" t="s">
         <v>63</v>
       </c>
       <c r="BB29" s="20">
         <f>IF(AB32&lt;0,((AZ29-(AR29+AX29))*(1-(V33+V29)))+((AX29+AR29)*(1-(V29+AB32))),AZ29*(1-(V29+V33)))</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="BC29" s="203" t="s">
+        <v>-0.66666666666666674</v>
+      </c>
+      <c r="BC29" s="221" t="s">
         <v>68</v>
       </c>
       <c r="BD29" s="18">
         <f>IF(AB31&gt;0,((BB29-(AR29+AX29))*V34)+((AR29+AX29)*AB31),BB29*V34)</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="BE29" s="203" t="s">
+        <v>-0.66666666666666674</v>
+      </c>
+      <c r="BE29" s="221" t="s">
         <v>76</v>
       </c>
       <c r="BF29" s="18">
         <f>(Z32*(AJ30+AJ33+AL30+AL33))+((AR29+AX29)*AB30)</f>
         <v>0</v>
       </c>
-      <c r="BG29" s="203" t="s">
+      <c r="BG29" s="221" t="s">
         <v>69</v>
       </c>
       <c r="BH29" s="181">
         <f t="shared" ref="BH29:BH34" si="0">IF(AD29,BD29+BF29,NA())</f>
-        <v>1.3333333333333335</v>
+        <v>-0.66666666666666674</v>
       </c>
       <c r="BI29" s="124" t="s">
         <v>46</v>
       </c>
       <c r="BJ29" s="18">
         <f>IFERROR(IF(AD29,E29,0)+IF(AD30,E30,0)+IF(AD31,E31,0)+IF(AD32,E32,0)+IF(AD33,E33,0)+IF(AD34,E34,0),NA())</f>
-        <v>4.666666666666667</v>
+        <v>-2.3333333333333335</v>
       </c>
       <c r="BK29" s="161" t="s">
         <v>82</v>
@@ -14284,20 +14309,20 @@
     </row>
     <row r="30" spans="1:157" ht="15" customHeight="1">
       <c r="A30" s="122"/>
-      <c r="B30" s="194"/>
-      <c r="C30" s="194"/>
+      <c r="B30" s="243"/>
+      <c r="C30" s="243"/>
       <c r="D30" s="54" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="165">
         <f>IF(AND(AD30,AF36),BD30+BF30,NA())</f>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="F30" s="30">
         <f>IFERROR(E30/P30,NA())</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="G30" s="196"/>
+        <v>-3.3333333333333333E-2</v>
+      </c>
+      <c r="G30" s="245"/>
       <c r="H30" s="84"/>
       <c r="I30" s="4" t="s">
         <v>103</v>
@@ -14306,10 +14331,10 @@
         <v>20</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L30" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M30" s="5">
         <v>4</v>
@@ -14329,7 +14354,7 @@
       <c r="T30" s="85"/>
       <c r="V30" s="160">
         <f>(IF(K30="D3",5/6,IF(K30="2D3",3/6,IF(K30="D6",3.5/6,IF(K30="Auto Hit",1,IF(K30="2+",5/6,IF(K30="3+",4/6,IF(K30="4+",3/6,IF(K30="5+",2/6,IF(K30="6+",1/6,0))))))))))</f>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="W30" s="12" t="s">
         <v>35</v>
@@ -14370,20 +14395,10 @@
       </c>
       <c r="AH30" s="14"/>
       <c r="AI30" s="14"/>
-      <c r="AJ30" s="20">
-        <f>IF(AF34,V31*IF(OR(AF29,AF30),Z29,Z29+X29),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL30" s="20">
-        <f>IF(AF34,AJ34*IF(OR(AF29,AF30),Z29,Z29+X29),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM30" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
       <c r="AN30" s="20">
         <f>IF(X31&gt;0,X31,IF(AND(X32&gt;0,4&gt;V32),X32,IF(V32&gt;=2*4,5/6,IF(V32&gt;4,4/6,IF(V32=4,3/6,IF(V32&lt;=4/2,1/6,IF(V32&lt;4,2/6)))))))</f>
         <v>0.5</v>
@@ -14393,59 +14408,59 @@
       </c>
       <c r="AP30" s="21">
         <f>IF(OR(AF31,AF32),AL34*AN30,AL34*(AN30+X30))</f>
-        <v>3</v>
-      </c>
-      <c r="AQ30" s="203"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AQ30" s="221"/>
       <c r="AR30" s="20">
         <f>IF(AF35,AL34*IF(OR(AF31,AF32),AB29,AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AS30" s="203"/>
+      <c r="AS30" s="221"/>
       <c r="AT30" s="20">
         <f>IF(AF32,AL34-(AL34*AN30),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU30" s="203"/>
+      <c r="AU30" s="221"/>
       <c r="AV30" s="20">
         <f>(AN30+X30)*AT30</f>
         <v>0</v>
       </c>
-      <c r="AW30" s="203"/>
+      <c r="AW30" s="221"/>
       <c r="AX30" s="20">
         <f>IF(AF35,AT30*(AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AY30" s="203"/>
+      <c r="AY30" s="221"/>
       <c r="AZ30" s="20">
         <f t="shared" ref="AZ30:AZ34" si="1">AV30+AP30</f>
-        <v>3</v>
-      </c>
-      <c r="BA30" s="203"/>
+        <v>-1.5</v>
+      </c>
+      <c r="BA30" s="221"/>
       <c r="BB30" s="20">
         <f>IF(AB32&lt;0,((AZ30-(AR30+AX30))*(1-(V33+V29)))+((AX30+AR30)*(1-(V29+AB32))),AZ30*(1-(V29+V33)))</f>
-        <v>1</v>
-      </c>
-      <c r="BC30" s="203"/>
+        <v>-0.5</v>
+      </c>
+      <c r="BC30" s="221"/>
       <c r="BD30" s="18">
         <f>IF(AB31&gt;0,((BB30-(AR30+AX30))*V34)+((AR30+AX30)*AB31),BB30*V34)</f>
-        <v>1</v>
-      </c>
-      <c r="BE30" s="203"/>
+        <v>-0.5</v>
+      </c>
+      <c r="BE30" s="221"/>
       <c r="BF30" s="18">
         <f>(Z32*(AJ30+AJ33+AL30+AL33))+((AR30+AX30)*AB30)</f>
         <v>0</v>
       </c>
-      <c r="BG30" s="203"/>
+      <c r="BG30" s="221"/>
       <c r="BH30" s="181">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="BI30" s="124" t="s">
         <v>47</v>
       </c>
       <c r="BJ30" s="18">
         <f>IFERROR(BJ29/AD35,NA())</f>
-        <v>0.77777777777777779</v>
+        <v>-0.3888888888888889</v>
       </c>
       <c r="BK30" s="161" t="s">
         <v>11</v>
@@ -14454,36 +14469,36 @@
     </row>
     <row r="31" spans="1:157" ht="15" customHeight="1">
       <c r="A31" s="122"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="194"/>
+      <c r="B31" s="243"/>
+      <c r="C31" s="243"/>
       <c r="D31" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="165">
         <f>IF(AND(AD31,AF36),BD31+BF31,NA())</f>
-        <v>0.66666666666666674</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="F31" s="30">
         <f>IFERROR(E31/P30,NA())</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="G31" s="196"/>
+        <v>-2.2222222222222223E-2</v>
+      </c>
+      <c r="G31" s="245"/>
       <c r="H31" s="84"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="208"/>
-      <c r="L31" s="208"/>
-      <c r="M31" s="208"/>
-      <c r="N31" s="208"/>
-      <c r="O31" s="208"/>
-      <c r="P31" s="208"/>
-      <c r="Q31" s="208"/>
-      <c r="R31" s="208"/>
-      <c r="S31" s="208"/>
+      <c r="I31" s="222"/>
+      <c r="J31" s="222"/>
+      <c r="K31" s="222"/>
+      <c r="L31" s="222"/>
+      <c r="M31" s="222"/>
+      <c r="N31" s="222"/>
+      <c r="O31" s="222"/>
+      <c r="P31" s="222"/>
+      <c r="Q31" s="222"/>
+      <c r="R31" s="222"/>
+      <c r="S31" s="222"/>
       <c r="T31" s="85"/>
       <c r="V31" s="162">
         <f>(IF(L30="D3",2,IF(L30="2D3",4,IF(L30="D6",3.5,IF(L30="2D6",7,IF(L30="3D6",10.5,L30))))))</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="W31" s="12" t="s">
         <v>36</v>
@@ -14546,52 +14561,52 @@
       </c>
       <c r="AP31" s="21">
         <f>IF(OR(AF31,AF32),AL34*AN31,AL34*(AN31+X30))</f>
-        <v>2</v>
-      </c>
-      <c r="AQ31" s="203"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ31" s="221"/>
       <c r="AR31" s="20">
         <f>IF(AF35,AL34*IF(OR(AF31,AF32),AB29,AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AS31" s="203"/>
+      <c r="AS31" s="221"/>
       <c r="AT31" s="20">
         <f>IF(AF32,AL34-(AL34*AN31),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU31" s="203"/>
+      <c r="AU31" s="221"/>
       <c r="AV31" s="20">
         <f>(AN31+X30)*AT31</f>
         <v>0</v>
       </c>
-      <c r="AW31" s="203"/>
+      <c r="AW31" s="221"/>
       <c r="AX31" s="20">
         <f>IF(AF35,AT31*(AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AY31" s="203"/>
+      <c r="AY31" s="221"/>
       <c r="AZ31" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BA31" s="203"/>
+        <v>-1</v>
+      </c>
+      <c r="BA31" s="221"/>
       <c r="BB31" s="20">
         <f>IF(AB32&lt;0,((AZ31-(AR31+AX31))*(1-(V33+V29)))+((AX31+AR31)*(1-(V29+AB32))),AZ31*(1-(V29+V33)))</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="BC31" s="203"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="BC31" s="221"/>
       <c r="BD31" s="18">
         <f>IF(AB31&gt;0,((BB31-(AR31+AX31))*V34)+((AR31+AX31)*AB31),BB31*V34)</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="BE31" s="203"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="BE31" s="221"/>
       <c r="BF31" s="18">
         <f>(Z32*(AJ30+AJ33+AL30+AL33))+((AR31+AX31)*AB30)</f>
         <v>0</v>
       </c>
-      <c r="BG31" s="203"/>
+      <c r="BG31" s="221"/>
       <c r="BH31" s="181">
         <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="BI31" s="124" t="s">
         <v>48</v>
@@ -14607,20 +14622,20 @@
       </c>
       <c r="E32" s="165">
         <f>IF(AND(AD32,AF36),BD32+BF32,NA())</f>
-        <v>0.66666666666666674</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="F32" s="30">
         <f>IFERROR(E32/P30,NA())</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="G32" s="196"/>
+        <v>-2.2222222222222223E-2</v>
+      </c>
+      <c r="G32" s="245"/>
       <c r="H32" s="84"/>
       <c r="I32" s="185" t="str">
         <f>"+- to hit"</f>
         <v>+- to hit</v>
       </c>
       <c r="J32" s="5">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K32" s="79"/>
       <c r="L32" s="185" t="str">
@@ -14630,17 +14645,17 @@
       <c r="M32" s="5">
         <v>0</v>
       </c>
-      <c r="N32" s="201" t="s">
+      <c r="N32" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="O32" s="201"/>
+      <c r="O32" s="212"/>
       <c r="P32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="201" t="s">
+      <c r="Q32" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="R32" s="201"/>
+      <c r="R32" s="212"/>
       <c r="S32" s="5" t="s">
         <v>19</v>
       </c>
@@ -14710,52 +14725,52 @@
       </c>
       <c r="AP32" s="21">
         <f>IF(OR(AF31,AF32),AL34*AN32,AL34*(AN32+X30))</f>
-        <v>2</v>
-      </c>
-      <c r="AQ32" s="203"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ32" s="221"/>
       <c r="AR32" s="20">
         <f>IF(AF35,AL34*IF(OR(AF31,AF32),AB29,AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AS32" s="203"/>
+      <c r="AS32" s="221"/>
       <c r="AT32" s="20">
         <f>IF(AF32,AL34-(AL34*AN32),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU32" s="203"/>
+      <c r="AU32" s="221"/>
       <c r="AV32" s="20">
         <f>(AN32+X30)*AT32</f>
         <v>0</v>
       </c>
-      <c r="AW32" s="203"/>
+      <c r="AW32" s="221"/>
       <c r="AX32" s="20">
         <f>IF(AF35,AT32*(AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AY32" s="203"/>
+      <c r="AY32" s="221"/>
       <c r="AZ32" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BA32" s="203"/>
+        <v>-1</v>
+      </c>
+      <c r="BA32" s="221"/>
       <c r="BB32" s="20">
         <f>IF(AB32&lt;0,((AZ32-(AR32+AX32))*(1-(V33+V29)))+((AX32+AR32)*(1-(V29+AB32))),AZ32*(1-(V29+V33)))</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="BC32" s="203"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="BC32" s="221"/>
       <c r="BD32" s="18">
         <f>IF(AB31&gt;0,((BB32-(AR32+AX32))*V34)+((AR32+AX32)*AB31),BB32*V34)</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="BE32" s="203"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="BE32" s="221"/>
       <c r="BF32" s="18">
         <f>(Z32*(AJ30+AJ33+AL30+AL33))+((AR32+AX32)*AB30)</f>
         <v>0</v>
       </c>
-      <c r="BG32" s="203"/>
+      <c r="BG32" s="221"/>
       <c r="BH32" s="181">
         <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="BI32" s="124" t="s">
         <v>49</v>
@@ -14771,34 +14786,34 @@
       </c>
       <c r="E33" s="165">
         <f>IF(AND(AD33,AF36),BD33+BF33,NA())</f>
-        <v>0.66666666666666674</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="F33" s="30">
         <f>IFERROR(E33/P30,NA())</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="G33" s="196"/>
+        <v>-2.2222222222222223E-2</v>
+      </c>
+      <c r="G33" s="245"/>
       <c r="H33" s="87"/>
       <c r="I33" s="80"/>
       <c r="J33" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="201" t="s">
+      <c r="K33" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="201"/>
-      <c r="M33" s="201"/>
-      <c r="N33" s="201" t="s">
+      <c r="L33" s="212"/>
+      <c r="M33" s="212"/>
+      <c r="N33" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="201"/>
+      <c r="O33" s="212"/>
       <c r="P33" s="5">
         <v>0</v>
       </c>
-      <c r="Q33" s="201" t="s">
+      <c r="Q33" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="R33" s="201"/>
+      <c r="R33" s="212"/>
       <c r="S33" s="5">
         <v>0</v>
       </c>
@@ -14830,19 +14845,14 @@
       </c>
       <c r="AH33" s="14"/>
       <c r="AI33" s="14"/>
-      <c r="AJ33" s="20">
-        <f>IF(AF34,AJ31*(Z29+X29),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK33" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="24"/>
       <c r="AL33" s="24">
-        <f>IF(AF34,AL31*(Z29+X29),0)</f>
+        <f>IF(AF34,(Z29+X29)*(V31+AJ31+AJ34+AL31),0)</f>
         <v>0</v>
       </c>
       <c r="AM33" s="25" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AN33" s="20">
         <f>IF(X31&gt;0,X31,IF(AND(X32&gt;0,7&gt;V32),X32,IF(V32&gt;=2*7,5/6,IF(V32&gt;7,4/6,IF(V32=7,3/6,IF(V32&lt;=7/2,1/6,IF(V32&lt;7,2/6)))))))</f>
@@ -14853,52 +14863,52 @@
       </c>
       <c r="AP33" s="21">
         <f>IF(OR(AF31,AF32),AL34*AN33,AL34*(AN33+X30))</f>
-        <v>2</v>
-      </c>
-      <c r="AQ33" s="203"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ33" s="221"/>
       <c r="AR33" s="20">
         <f>IF(AF35,AL34*IF(OR(AF31,AF32),AB29,AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AS33" s="203"/>
+      <c r="AS33" s="221"/>
       <c r="AT33" s="20">
         <f>IF(AF32,AL34-(AL34*AN33),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU33" s="203"/>
+      <c r="AU33" s="221"/>
       <c r="AV33" s="20">
         <f>(AN33+X30)*AT33</f>
         <v>0</v>
       </c>
-      <c r="AW33" s="203"/>
+      <c r="AW33" s="221"/>
       <c r="AX33" s="20">
         <f>IF(AF35,AT33*(AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AY33" s="203"/>
+      <c r="AY33" s="221"/>
       <c r="AZ33" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BA33" s="203"/>
+        <v>-1</v>
+      </c>
+      <c r="BA33" s="221"/>
       <c r="BB33" s="20">
         <f>IF(AB32&lt;0,((AZ33-(AR33+AX33))*(1-(V33+V29)))+((AX33+AR33)*(1-(V29+AB32))),AZ33*(1-(V29+V33)))</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="BC33" s="203"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="BC33" s="221"/>
       <c r="BD33" s="18">
         <f>IF(AB31&gt;0,((BB33-(AR33+AX33))*V34)+((AR33+AX33)*AB31),BB33*V34)</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="BE33" s="203"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="BE33" s="221"/>
       <c r="BF33" s="18">
         <f>(Z32*(AJ30+AJ33+AL30+AL33))+((AR33+AX33)*AB30)</f>
         <v>0</v>
       </c>
-      <c r="BG33" s="203"/>
+      <c r="BG33" s="221"/>
       <c r="BH33" s="181">
         <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="BI33" s="124" t="s">
         <v>50</v>
@@ -14914,34 +14924,34 @@
       </c>
       <c r="E34" s="165">
         <f>IF(AND(AD34,AF36),BD34+BF34,NA())</f>
-        <v>0.33333333333333337</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="F34" s="30">
         <f>IFERROR(E34/P30,NA())</f>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="G34" s="196"/>
+        <v>-1.1111111111111112E-2</v>
+      </c>
+      <c r="G34" s="245"/>
       <c r="H34" s="84"/>
-      <c r="I34" s="200" t="s">
+      <c r="I34" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="200"/>
-      <c r="K34" s="200" t="s">
+      <c r="J34" s="223"/>
+      <c r="K34" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L34" s="200"/>
-      <c r="M34" s="200"/>
-      <c r="N34" s="201" t="s">
+      <c r="L34" s="223"/>
+      <c r="M34" s="223"/>
+      <c r="N34" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="O34" s="201"/>
+      <c r="O34" s="212"/>
       <c r="P34" s="5">
         <v>0</v>
       </c>
-      <c r="Q34" s="201" t="s">
+      <c r="Q34" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="R34" s="201"/>
+      <c r="R34" s="212"/>
       <c r="S34" s="5">
         <v>0</v>
       </c>
@@ -14982,8 +14992,8 @@
         <v>+attacks</v>
       </c>
       <c r="AL34" s="20">
-        <f>IF(V30=1,AJ29,(SUM(AJ29,AJ32,AL29,AL32))+(Z31*(SUM(AJ30,AJ33,AL30,AL33)))-(Z32*(AJ30+AJ33+AL30+AL33)))</f>
-        <v>6</v>
+        <f>IF(V30=1,V31,(SUM(AJ29,AJ32,AL29,AL32))+(Z31*(SUM(AJ30,AJ33,AL30,AL33)))-(Z32*(AJ30+AJ33+AL30+AL33)))</f>
+        <v>-3</v>
       </c>
       <c r="AM34" s="20" t="s">
         <v>62</v>
@@ -14997,52 +15007,52 @@
       </c>
       <c r="AP34" s="20">
         <f>IF(OR(AF31,AF32),AL34*AN34,AL34*(AN34+X30))</f>
-        <v>1</v>
-      </c>
-      <c r="AQ34" s="203"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AQ34" s="221"/>
       <c r="AR34" s="20">
         <f>IF(AF35,AL34*IF(OR(AF31,AF32),AB29,AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AS34" s="203"/>
+      <c r="AS34" s="221"/>
       <c r="AT34" s="20">
         <f>IF(AF32,AL34-(AL34*AN34),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU34" s="203"/>
+      <c r="AU34" s="221"/>
       <c r="AV34" s="20">
         <f>(AN34+X30)*AT34</f>
         <v>0</v>
       </c>
-      <c r="AW34" s="203"/>
+      <c r="AW34" s="221"/>
       <c r="AX34" s="20">
         <f>IF(AF35,AT34*(AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="203"/>
+      <c r="AY34" s="221"/>
       <c r="AZ34" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BA34" s="203"/>
+        <v>-0.5</v>
+      </c>
+      <c r="BA34" s="221"/>
       <c r="BB34" s="20">
         <f>IF(AB32&lt;0,((AZ34-(AR34+AX34))*(1-(V33+V29)))+((AX34+AR34)*(1-(V29+AB32))),AZ34*(1-(V29+V33)))</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="BC34" s="203"/>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="BC34" s="221"/>
       <c r="BD34" s="18">
         <f>IF(AB31&gt;0,((BB34-(AR34+AX34))*V34)+((AR34+AX34)*AB31),BB34*V34)</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="BE34" s="203"/>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="BE34" s="221"/>
       <c r="BF34" s="18">
         <f>(Z32*(AJ30+AJ33+AL30+AL33))+((AR34+AX34)*AB30)</f>
         <v>0</v>
       </c>
-      <c r="BG34" s="203"/>
+      <c r="BG34" s="221"/>
       <c r="BH34" s="181">
         <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="BI34" s="124" t="s">
         <v>51</v>
@@ -15056,7 +15066,7 @@
       <c r="D35" s="53"/>
       <c r="E35" s="166"/>
       <c r="F35" s="53"/>
-      <c r="G35" s="196"/>
+      <c r="G35" s="245"/>
       <c r="H35" s="84"/>
       <c r="I35" s="185"/>
       <c r="J35" s="185"/>
@@ -15069,17 +15079,17 @@
       <c r="M35" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N35" s="201" t="s">
+      <c r="N35" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="201"/>
+      <c r="O35" s="212"/>
       <c r="P35" s="5">
         <v>0</v>
       </c>
-      <c r="Q35" s="211" t="s">
+      <c r="Q35" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="R35" s="211"/>
+      <c r="R35" s="213"/>
       <c r="S35" s="5">
         <v>0</v>
       </c>
@@ -15151,13 +15161,13 @@
       </c>
       <c r="E36" s="180">
         <f>IFERROR(BJ30,NA())</f>
-        <v>0.77777777777777779</v>
+        <v>-0.3888888888888889</v>
       </c>
       <c r="F36" s="3">
         <f>IFERROR(E36/P30,NA())</f>
-        <v>5.185185185185185E-2</v>
-      </c>
-      <c r="G36" s="196"/>
+        <v>-2.5925925925925925E-2</v>
+      </c>
+      <c r="G36" s="245"/>
       <c r="H36" s="84"/>
       <c r="I36" s="80"/>
       <c r="J36" s="80"/>
@@ -15240,33 +15250,56 @@
       <c r="R37" s="77"/>
       <c r="S37" s="77"/>
       <c r="T37" s="85"/>
-      <c r="V37" s="163"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="187"/>
-      <c r="AG37" s="187"/>
-      <c r="AH37" s="187"/>
-      <c r="AI37" s="187"/>
-      <c r="AJ37" s="20"/>
-      <c r="AK37" s="20"/>
-      <c r="AL37" s="20"/>
-      <c r="AM37" s="20"/>
-      <c r="BK37" s="117"/>
+      <c r="V37" s="247"/>
+      <c r="W37" s="248"/>
+      <c r="X37" s="248"/>
+      <c r="Y37" s="249"/>
+      <c r="Z37" s="248"/>
+      <c r="AA37" s="248"/>
+      <c r="AB37" s="248"/>
+      <c r="AC37" s="248"/>
+      <c r="AD37" s="248"/>
+      <c r="AE37" s="248"/>
+      <c r="AF37" s="250"/>
+      <c r="AG37" s="250"/>
+      <c r="AH37" s="250"/>
+      <c r="AI37" s="250"/>
+      <c r="AJ37" s="248"/>
+      <c r="AK37" s="248"/>
+      <c r="AL37" s="248"/>
+      <c r="AM37" s="248"/>
+      <c r="AN37" s="251"/>
+      <c r="AO37" s="251"/>
+      <c r="AP37" s="251"/>
+      <c r="AQ37" s="251"/>
+      <c r="AR37" s="251"/>
+      <c r="AS37" s="251"/>
+      <c r="AT37" s="251"/>
+      <c r="AU37" s="251"/>
+      <c r="AV37" s="251"/>
+      <c r="AW37" s="251"/>
+      <c r="AX37" s="251"/>
+      <c r="AY37" s="251"/>
+      <c r="AZ37" s="251"/>
+      <c r="BA37" s="251"/>
+      <c r="BB37" s="251"/>
+      <c r="BC37" s="251"/>
+      <c r="BD37" s="251"/>
+      <c r="BE37" s="251"/>
+      <c r="BF37" s="251"/>
+      <c r="BG37" s="251"/>
+      <c r="BH37" s="251"/>
+      <c r="BI37" s="251"/>
+      <c r="BJ37" s="141"/>
+      <c r="BK37" s="119"/>
     </row>
     <row r="38" spans="1:63" ht="15" customHeight="1">
       <c r="A38" s="126"/>
-      <c r="B38" s="204" t="str">
+      <c r="B38" s="236" t="str">
         <f>IF(I40="","",I40)</f>
         <v>Weapon 2</v>
       </c>
-      <c r="C38" s="204"/>
+      <c r="C38" s="236"/>
       <c r="D38" s="8"/>
       <c r="E38" s="168" t="s">
         <v>11</v>
@@ -15274,94 +15307,94 @@
       <c r="F38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="206"/>
+      <c r="G38" s="238"/>
       <c r="H38" s="82"/>
-      <c r="I38" s="197" t="str">
+      <c r="I38" s="214" t="str">
         <f>IF(I40="","",I40)</f>
         <v>Weapon 2</v>
       </c>
-      <c r="J38" s="197"/>
-      <c r="K38" s="197"/>
-      <c r="L38" s="197"/>
-      <c r="M38" s="197"/>
-      <c r="N38" s="197"/>
-      <c r="O38" s="197"/>
-      <c r="P38" s="197"/>
-      <c r="Q38" s="197"/>
-      <c r="R38" s="197"/>
-      <c r="S38" s="197"/>
+      <c r="J38" s="214"/>
+      <c r="K38" s="214"/>
+      <c r="L38" s="214"/>
+      <c r="M38" s="214"/>
+      <c r="N38" s="214"/>
+      <c r="O38" s="214"/>
+      <c r="P38" s="214"/>
+      <c r="Q38" s="214"/>
+      <c r="R38" s="214"/>
+      <c r="S38" s="214"/>
       <c r="T38" s="83"/>
-      <c r="V38" s="209" t="s">
+      <c r="V38" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="W38" s="192"/>
-      <c r="X38" s="192"/>
-      <c r="Y38" s="192"/>
-      <c r="Z38" s="192"/>
-      <c r="AA38" s="192"/>
-      <c r="AB38" s="192"/>
-      <c r="AC38" s="192"/>
-      <c r="AD38" s="192" t="s">
+      <c r="W38" s="204"/>
+      <c r="X38" s="204"/>
+      <c r="Y38" s="204"/>
+      <c r="Z38" s="204"/>
+      <c r="AA38" s="204"/>
+      <c r="AB38" s="204"/>
+      <c r="AC38" s="204"/>
+      <c r="AD38" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="AE38" s="192"/>
-      <c r="AF38" s="192"/>
-      <c r="AG38" s="192"/>
+      <c r="AE38" s="204"/>
+      <c r="AF38" s="204"/>
+      <c r="AG38" s="204"/>
       <c r="AH38" s="187"/>
       <c r="AI38" s="187"/>
-      <c r="AJ38" s="192" t="s">
+      <c r="AJ38" s="204" t="s">
         <v>88</v>
       </c>
-      <c r="AK38" s="192"/>
-      <c r="AL38" s="192"/>
-      <c r="AM38" s="192"/>
-      <c r="AN38" s="192"/>
-      <c r="AO38" s="192" t="s">
+      <c r="AK38" s="204"/>
+      <c r="AL38" s="204"/>
+      <c r="AM38" s="204"/>
+      <c r="AN38" s="204"/>
+      <c r="AO38" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="AP38" s="192"/>
-      <c r="AQ38" s="192"/>
-      <c r="AR38" s="192"/>
-      <c r="AS38" s="192"/>
-      <c r="AT38" s="192"/>
-      <c r="AU38" s="192"/>
-      <c r="AV38" s="192"/>
-      <c r="AW38" s="192"/>
-      <c r="AX38" s="192"/>
-      <c r="AY38" s="192"/>
-      <c r="AZ38" s="192"/>
-      <c r="BA38" s="192"/>
-      <c r="BB38" s="192" t="s">
+      <c r="AP38" s="204"/>
+      <c r="AQ38" s="204"/>
+      <c r="AR38" s="204"/>
+      <c r="AS38" s="204"/>
+      <c r="AT38" s="204"/>
+      <c r="AU38" s="204"/>
+      <c r="AV38" s="204"/>
+      <c r="AW38" s="204"/>
+      <c r="AX38" s="204"/>
+      <c r="AY38" s="204"/>
+      <c r="AZ38" s="204"/>
+      <c r="BA38" s="204"/>
+      <c r="BB38" s="204" t="s">
         <v>90</v>
       </c>
-      <c r="BC38" s="192"/>
-      <c r="BD38" s="192"/>
-      <c r="BE38" s="192"/>
-      <c r="BF38" s="192"/>
-      <c r="BG38" s="192"/>
-      <c r="BH38" s="192"/>
-      <c r="BI38" s="192"/>
-      <c r="BJ38" s="192" t="s">
+      <c r="BC38" s="204"/>
+      <c r="BD38" s="204"/>
+      <c r="BE38" s="204"/>
+      <c r="BF38" s="204"/>
+      <c r="BG38" s="204"/>
+      <c r="BH38" s="204"/>
+      <c r="BI38" s="204"/>
+      <c r="BJ38" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="BK38" s="210"/>
+      <c r="BK38" s="211"/>
     </row>
     <row r="39" spans="1:63" ht="15" customHeight="1">
       <c r="A39" s="127"/>
-      <c r="B39" s="205"/>
-      <c r="C39" s="205"/>
+      <c r="B39" s="237"/>
+      <c r="C39" s="237"/>
       <c r="D39" s="38" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="165">
         <f>IF(AND(AD39,AF46),BD39+BF39,NA())</f>
-        <v>0.59259259259259267</v>
+        <v>0.74074074074074081</v>
       </c>
       <c r="F39" s="30">
         <f>IFERROR(E39/P40,NA())</f>
-        <v>0.29629629629629634</v>
-      </c>
-      <c r="G39" s="207"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="G39" s="239"/>
       <c r="H39" s="84"/>
       <c r="I39" s="78" t="s">
         <v>13</v>
@@ -15440,7 +15473,7 @@
       </c>
       <c r="AJ39" s="20">
         <f>IF(OR(AF39,AF40),V41*V40,(V40+X39)*V41)</f>
-        <v>2.6666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AK39" s="20" t="s">
         <v>77</v>
@@ -15461,77 +15494,77 @@
       </c>
       <c r="AP39" s="21">
         <f>IF(OR(AF41,AF42),AL44*AN39,AL44*(AN39+X40))</f>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="AQ39" s="203" t="s">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="AQ39" s="221" t="s">
         <v>77</v>
       </c>
       <c r="AR39" s="20">
         <f>IF(AF45,AL44*IF(OR(AF41,AF42),AB39,AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AS39" s="203" t="s">
+      <c r="AS39" s="221" t="s">
         <v>64</v>
       </c>
       <c r="AT39" s="20">
         <f>IF(AF42,AL44-(AL44*AN39),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU39" s="203" t="s">
+      <c r="AU39" s="221" t="s">
         <v>60</v>
       </c>
       <c r="AV39" s="20">
         <f>(AN39+X40)*AT39</f>
         <v>0</v>
       </c>
-      <c r="AW39" s="203" t="s">
+      <c r="AW39" s="221" t="s">
         <v>78</v>
       </c>
       <c r="AX39" s="20">
         <f>IF(AF45,AT39*(AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="203" t="s">
+      <c r="AY39" s="221" t="s">
         <v>65</v>
       </c>
       <c r="AZ39" s="20">
         <f>AV39+AP39</f>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="BA39" s="203" t="s">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="BA39" s="221" t="s">
         <v>63</v>
       </c>
       <c r="BB39" s="20">
         <f>IF(AB42&lt;0,((AZ39-(AR39+AX39))*(1-(V43+V39)))+((AX39+AR39)*(1-(V39+AB42))),AZ39*(1-(V39+V43)))</f>
-        <v>0.59259259259259267</v>
-      </c>
-      <c r="BC39" s="203" t="s">
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="BC39" s="221" t="s">
         <v>68</v>
       </c>
       <c r="BD39" s="18">
         <f>IF(AB41&gt;0,((BB39-(AR39+AX39))*V44)+((AR39+AX39)*AB41),BB39*V44)</f>
-        <v>0.59259259259259267</v>
-      </c>
-      <c r="BE39" s="203" t="s">
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="BE39" s="221" t="s">
         <v>76</v>
       </c>
       <c r="BF39" s="18">
         <f>(Z42*(AJ40+AJ43+AL40+AL43))+((AR39+AX39)*AB40)</f>
         <v>0</v>
       </c>
-      <c r="BG39" s="203" t="s">
+      <c r="BG39" s="221" t="s">
         <v>69</v>
       </c>
       <c r="BH39" s="181">
         <f t="shared" ref="BH39:BH44" si="2">IF(AD39,BD39+BF39,NA())</f>
-        <v>0.59259259259259267</v>
+        <v>0.74074074074074081</v>
       </c>
       <c r="BI39" s="124" t="s">
         <v>46</v>
       </c>
       <c r="BJ39" s="18">
         <f>IFERROR(IF(AD39,E39,0)+IF(AD40,E40,0)+IF(AD41,E41,0)+IF(AD42,E42,0)+IF(AD43,E43,0)+IF(AD44,E44,0),NA())</f>
-        <v>2.0740740740740744</v>
+        <v>2.5925925925925926</v>
       </c>
       <c r="BK39" s="161" t="s">
         <v>82</v>
@@ -15539,20 +15572,20 @@
     </row>
     <row r="40" spans="1:63" ht="15" customHeight="1">
       <c r="A40" s="127"/>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
+      <c r="B40" s="237"/>
+      <c r="C40" s="237"/>
       <c r="D40" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="165">
         <f>IF(AND(AD40,AF46),BD40+BF40,NA())</f>
-        <v>0.44444444444444448</v>
+        <v>0.55555555555555569</v>
       </c>
       <c r="F40" s="30">
         <f>IFERROR(E40/P40,NA())</f>
-        <v>0.22222222222222224</v>
-      </c>
-      <c r="G40" s="207"/>
+        <v>0.27777777777777785</v>
+      </c>
+      <c r="G40" s="239"/>
       <c r="H40" s="84"/>
       <c r="I40" s="4" t="s">
         <v>104</v>
@@ -15561,7 +15594,7 @@
         <v>20</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="L40" s="5">
         <v>4</v>
@@ -15584,7 +15617,7 @@
       <c r="T40" s="85"/>
       <c r="V40" s="160">
         <f>(IF(K40="D3",5/6,IF(K40="2D3",3/6,IF(K40="D6",3.5/6,IF(K40="Auto Hit",1,IF(K40="2+",5/6,IF(K40="3+",4/6,IF(K40="4+",3/6,IF(K40="5+",2/6,IF(K40="6+",1/6,0))))))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W40" s="12" t="s">
         <v>35</v>
@@ -15648,59 +15681,59 @@
       </c>
       <c r="AP40" s="21">
         <f>IF(OR(AF41,AF42),AL44*AN40,AL44*(AN40+X40))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AQ40" s="203"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AQ40" s="221"/>
       <c r="AR40" s="20">
         <f>IF(AF45,AL44*IF(OR(AF41,AF42),AB39,AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AS40" s="203"/>
+      <c r="AS40" s="221"/>
       <c r="AT40" s="20">
         <f>IF(AF42,AL44-(AL44*AN40),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU40" s="203"/>
+      <c r="AU40" s="221"/>
       <c r="AV40" s="20">
         <f>(AN40+X40)*AT40</f>
         <v>0</v>
       </c>
-      <c r="AW40" s="203"/>
+      <c r="AW40" s="221"/>
       <c r="AX40" s="20">
         <f>IF(AF45,AT40*(AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AY40" s="203"/>
+      <c r="AY40" s="221"/>
       <c r="AZ40" s="20">
         <f t="shared" ref="AZ40:AZ44" si="3">AV40+AP40</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="BA40" s="203"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="BA40" s="221"/>
       <c r="BB40" s="20">
         <f>IF(AB42&lt;0,((AZ40-(AR40+AX40))*(1-(V43+V39)))+((AX40+AR40)*(1-(V39+AB42))),AZ40*(1-(V39+V43)))</f>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="BC40" s="203"/>
+        <v>0.55555555555555569</v>
+      </c>
+      <c r="BC40" s="221"/>
       <c r="BD40" s="18">
         <f>IF(AB41&gt;0,((BB40-(AR40+AX40))*V44)+((AR40+AX40)*AB41),BB40*V44)</f>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="BE40" s="203"/>
+        <v>0.55555555555555569</v>
+      </c>
+      <c r="BE40" s="221"/>
       <c r="BF40" s="18">
         <f>(Z42*(AJ40+AJ43+AL40+AL43))+((AR40+AX40)*AB40)</f>
         <v>0</v>
       </c>
-      <c r="BG40" s="203"/>
+      <c r="BG40" s="221"/>
       <c r="BH40" s="181">
         <f t="shared" si="2"/>
-        <v>0.44444444444444448</v>
+        <v>0.55555555555555569</v>
       </c>
       <c r="BI40" s="124" t="s">
         <v>47</v>
       </c>
       <c r="BJ40" s="18">
         <f>IFERROR(BJ39/AD45,NA())</f>
-        <v>0.34567901234567905</v>
+        <v>0.43209876543209874</v>
       </c>
       <c r="BK40" s="161" t="s">
         <v>11</v>
@@ -15708,32 +15741,32 @@
     </row>
     <row r="41" spans="1:63" ht="15" customHeight="1">
       <c r="A41" s="127"/>
-      <c r="B41" s="205"/>
-      <c r="C41" s="205"/>
+      <c r="B41" s="237"/>
+      <c r="C41" s="237"/>
       <c r="D41" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="165">
         <f>IF(AND(AD41,AF46),BD41+BF41,NA())</f>
-        <v>0.29629629629629634</v>
+        <v>0.37037037037037041</v>
       </c>
       <c r="F41" s="30">
         <f>IFERROR(E41/P40,NA())</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="G41" s="207"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="G41" s="239"/>
       <c r="H41" s="84"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="208"/>
-      <c r="L41" s="208"/>
-      <c r="M41" s="208"/>
-      <c r="N41" s="208"/>
-      <c r="O41" s="208"/>
-      <c r="P41" s="208"/>
-      <c r="Q41" s="208"/>
-      <c r="R41" s="208"/>
-      <c r="S41" s="208"/>
+      <c r="I41" s="222"/>
+      <c r="J41" s="222"/>
+      <c r="K41" s="222"/>
+      <c r="L41" s="222"/>
+      <c r="M41" s="222"/>
+      <c r="N41" s="222"/>
+      <c r="O41" s="222"/>
+      <c r="P41" s="222"/>
+      <c r="Q41" s="222"/>
+      <c r="R41" s="222"/>
+      <c r="S41" s="222"/>
       <c r="T41" s="85"/>
       <c r="V41" s="162">
         <f>(IF(L40="D3",2,IF(L40="2D3",4,IF(L40="D6",3.5,IF(L40="2D6",7,IF(L40="3D6",10.5,L40))))))</f>
@@ -15800,52 +15833,52 @@
       </c>
       <c r="AP41" s="21">
         <f>IF(OR(AF41,AF42),AL44*AN41,AL44*(AN41+X40))</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="AQ41" s="203"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AQ41" s="221"/>
       <c r="AR41" s="20">
         <f>IF(AF45,AL44*IF(OR(AF41,AF42),AB39,AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AS41" s="203"/>
+      <c r="AS41" s="221"/>
       <c r="AT41" s="20">
         <f>IF(AF42,AL44-(AL44*AN41),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU41" s="203"/>
+      <c r="AU41" s="221"/>
       <c r="AV41" s="20">
         <f>(AN41+X40)*AT41</f>
         <v>0</v>
       </c>
-      <c r="AW41" s="203"/>
+      <c r="AW41" s="221"/>
       <c r="AX41" s="20">
         <f>IF(AF45,AT41*(AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AY41" s="203"/>
+      <c r="AY41" s="221"/>
       <c r="AZ41" s="20">
         <f t="shared" si="3"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="BA41" s="203"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="BA41" s="221"/>
       <c r="BB41" s="20">
         <f>IF(AB42&lt;0,((AZ41-(AR41+AX41))*(1-(V43+V39)))+((AX41+AR41)*(1-(V39+AB42))),AZ41*(1-(V39+V43)))</f>
-        <v>0.29629629629629634</v>
-      </c>
-      <c r="BC41" s="203"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="BC41" s="221"/>
       <c r="BD41" s="18">
         <f>IF(AB41&gt;0,((BB41-(AR41+AX41))*V44)+((AR41+AX41)*AB41),BB41*V44)</f>
-        <v>0.29629629629629634</v>
-      </c>
-      <c r="BE41" s="203"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="BE41" s="221"/>
       <c r="BF41" s="18">
         <f>(Z42*(AJ40+AJ43+AL40+AL43))+((AR41+AX41)*AB40)</f>
         <v>0</v>
       </c>
-      <c r="BG41" s="203"/>
+      <c r="BG41" s="221"/>
       <c r="BH41" s="181">
         <f t="shared" si="2"/>
-        <v>0.29629629629629634</v>
+        <v>0.37037037037037041</v>
       </c>
       <c r="BI41" s="124" t="s">
         <v>48</v>
@@ -15861,13 +15894,13 @@
       </c>
       <c r="E42" s="165">
         <f>IF(AND(AD42,AF46),BD42+BF42,NA())</f>
-        <v>0.29629629629629634</v>
+        <v>0.37037037037037041</v>
       </c>
       <c r="F42" s="30">
         <f>IFERROR(E42/P40,NA())</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="G42" s="207"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="G42" s="239"/>
       <c r="H42" s="84"/>
       <c r="I42" s="185" t="str">
         <f>"+- to hit"</f>
@@ -15884,17 +15917,17 @@
       <c r="M42" s="5">
         <v>0</v>
       </c>
-      <c r="N42" s="201" t="s">
+      <c r="N42" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="201"/>
+      <c r="O42" s="212"/>
       <c r="P42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="201" t="s">
+      <c r="Q42" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="R42" s="201"/>
+      <c r="R42" s="212"/>
       <c r="S42" s="5" t="s">
         <v>19</v>
       </c>
@@ -15964,52 +15997,52 @@
       </c>
       <c r="AP42" s="21">
         <f>IF(OR(AF41,AF42),AL44*AN42,AL44*(AN42+X40))</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="AQ42" s="203"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AQ42" s="221"/>
       <c r="AR42" s="20">
         <f>IF(AF45,AL44*IF(OR(AF41,AF42),AB39,AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AS42" s="203"/>
+      <c r="AS42" s="221"/>
       <c r="AT42" s="20">
         <f>IF(AF42,AL44-(AL44*AN42),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU42" s="203"/>
+      <c r="AU42" s="221"/>
       <c r="AV42" s="20">
         <f>(AN42+X40)*AT42</f>
         <v>0</v>
       </c>
-      <c r="AW42" s="203"/>
+      <c r="AW42" s="221"/>
       <c r="AX42" s="20">
         <f>IF(AF45,AT42*(AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AY42" s="203"/>
+      <c r="AY42" s="221"/>
       <c r="AZ42" s="20">
         <f t="shared" si="3"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="BA42" s="203"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="BA42" s="221"/>
       <c r="BB42" s="20">
         <f>IF(AB42&lt;0,((AZ42-(AR42+AX42))*(1-(V43+V39)))+((AX42+AR42)*(1-(V39+AB42))),AZ42*(1-(V39+V43)))</f>
-        <v>0.29629629629629634</v>
-      </c>
-      <c r="BC42" s="203"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="BC42" s="221"/>
       <c r="BD42" s="18">
         <f>IF(AB41&gt;0,((BB42-(AR42+AX42))*V44)+((AR42+AX42)*AB41),BB42*V44)</f>
-        <v>0.29629629629629634</v>
-      </c>
-      <c r="BE42" s="203"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="BE42" s="221"/>
       <c r="BF42" s="18">
         <f>(Z42*(AJ40+AJ43+AL40+AL43))+((AR42+AX42)*AB40)</f>
         <v>0</v>
       </c>
-      <c r="BG42" s="203"/>
+      <c r="BG42" s="221"/>
       <c r="BH42" s="181">
         <f t="shared" si="2"/>
-        <v>0.29629629629629634</v>
+        <v>0.37037037037037041</v>
       </c>
       <c r="BI42" s="124" t="s">
         <v>49</v>
@@ -16025,34 +16058,34 @@
       </c>
       <c r="E43" s="165">
         <f>IF(AND(AD43,AF46),BD43+BF43,NA())</f>
-        <v>0.29629629629629634</v>
+        <v>0.37037037037037041</v>
       </c>
       <c r="F43" s="30">
         <f>IFERROR(E43/P40,NA())</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="G43" s="207"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="G43" s="239"/>
       <c r="H43" s="87"/>
       <c r="I43" s="80"/>
       <c r="J43" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="201" t="s">
+      <c r="K43" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="201"/>
-      <c r="M43" s="201"/>
-      <c r="N43" s="201" t="s">
+      <c r="L43" s="212"/>
+      <c r="M43" s="212"/>
+      <c r="N43" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="201"/>
+      <c r="O43" s="212"/>
       <c r="P43" s="5">
         <v>0</v>
       </c>
-      <c r="Q43" s="201" t="s">
+      <c r="Q43" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="R43" s="201"/>
+      <c r="R43" s="212"/>
       <c r="S43" s="5">
         <v>1</v>
       </c>
@@ -16107,52 +16140,52 @@
       </c>
       <c r="AP43" s="21">
         <f>IF(OR(AF41,AF42),AL44*AN43,AL44*(AN43+X40))</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="AQ43" s="203"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AQ43" s="221"/>
       <c r="AR43" s="20">
         <f>IF(AF45,AL44*IF(OR(AF41,AF42),AB39,AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AS43" s="203"/>
+      <c r="AS43" s="221"/>
       <c r="AT43" s="20">
         <f>IF(AF42,AL44-(AL44*AN43),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU43" s="203"/>
+      <c r="AU43" s="221"/>
       <c r="AV43" s="20">
         <f>(AN43+X40)*AT43</f>
         <v>0</v>
       </c>
-      <c r="AW43" s="203"/>
+      <c r="AW43" s="221"/>
       <c r="AX43" s="20">
         <f>IF(AF45,AT43*(AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AY43" s="203"/>
+      <c r="AY43" s="221"/>
       <c r="AZ43" s="20">
         <f t="shared" si="3"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="BA43" s="203"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="BA43" s="221"/>
       <c r="BB43" s="20">
         <f>IF(AB42&lt;0,((AZ43-(AR43+AX43))*(1-(V43+V39)))+((AX43+AR43)*(1-(V39+AB42))),AZ43*(1-(V39+V43)))</f>
-        <v>0.29629629629629634</v>
-      </c>
-      <c r="BC43" s="203"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="BC43" s="221"/>
       <c r="BD43" s="18">
         <f>IF(AB41&gt;0,((BB43-(AR43+AX43))*V44)+((AR43+AX43)*AB41),BB43*V44)</f>
-        <v>0.29629629629629634</v>
-      </c>
-      <c r="BE43" s="203"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="BE43" s="221"/>
       <c r="BF43" s="18">
         <f>(Z42*(AJ40+AJ43+AL40+AL43))+((AR43+AX43)*AB40)</f>
         <v>0</v>
       </c>
-      <c r="BG43" s="203"/>
+      <c r="BG43" s="221"/>
       <c r="BH43" s="181">
         <f t="shared" si="2"/>
-        <v>0.29629629629629634</v>
+        <v>0.37037037037037041</v>
       </c>
       <c r="BI43" s="124" t="s">
         <v>50</v>
@@ -16168,34 +16201,34 @@
       </c>
       <c r="E44" s="165">
         <f>IF(AND(AD44,AF46),BD44+BF44,NA())</f>
-        <v>0.14814814814814817</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="F44" s="30">
         <f>IFERROR(E44/P40,NA())</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="G44" s="207"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="G44" s="239"/>
       <c r="H44" s="84"/>
-      <c r="I44" s="200" t="s">
+      <c r="I44" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="200"/>
-      <c r="K44" s="200" t="s">
+      <c r="J44" s="223"/>
+      <c r="K44" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="200"/>
-      <c r="M44" s="200"/>
-      <c r="N44" s="201" t="s">
+      <c r="L44" s="223"/>
+      <c r="M44" s="223"/>
+      <c r="N44" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="O44" s="201"/>
+      <c r="O44" s="212"/>
       <c r="P44" s="5">
         <v>0</v>
       </c>
-      <c r="Q44" s="201" t="s">
+      <c r="Q44" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="R44" s="201"/>
+      <c r="R44" s="212"/>
       <c r="S44" s="5">
         <v>0</v>
       </c>
@@ -16237,7 +16270,7 @@
       </c>
       <c r="AL44" s="20">
         <f>IF(V40=1,AJ39,(SUM(AJ39,AJ42,AL39,AL42))+(Z41*(SUM(AJ40,AJ43,AL40,AL43)))-(Z42*(AJ40+AJ43+AL40+AL43)))</f>
-        <v>2.6666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AM44" s="20" t="s">
         <v>62</v>
@@ -16251,52 +16284,52 @@
       </c>
       <c r="AP44" s="20">
         <f>IF(OR(AF41,AF42),AL44*AN44,AL44*(AN44+X40))</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="AQ44" s="203"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AQ44" s="221"/>
       <c r="AR44" s="20">
         <f>IF(AF45,AL44*IF(OR(AF41,AF42),AB39,AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AS44" s="203"/>
+      <c r="AS44" s="221"/>
       <c r="AT44" s="20">
         <f>IF(AF42,AL44-(AL44*AN44),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU44" s="203"/>
+      <c r="AU44" s="221"/>
       <c r="AV44" s="20">
         <f>(AN44+X40)*AT44</f>
         <v>0</v>
       </c>
-      <c r="AW44" s="203"/>
+      <c r="AW44" s="221"/>
       <c r="AX44" s="20">
         <f>IF(AF45,AT44*(AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AY44" s="203"/>
+      <c r="AY44" s="221"/>
       <c r="AZ44" s="20">
         <f t="shared" si="3"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="BA44" s="203"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="BA44" s="221"/>
       <c r="BB44" s="20">
         <f>IF(AB42&lt;0,((AZ44-(AR44+AX44))*(1-(V43+V39)))+((AX44+AR44)*(1-(V39+AB42))),AZ44*(1-(V39+V43)))</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="BC44" s="203"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="BC44" s="221"/>
       <c r="BD44" s="18">
         <f>IF(AB41&gt;0,((BB44-(AR44+AX44))*V44)+((AR44+AX44)*AB41),BB44*V44)</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="BE44" s="203"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="BE44" s="221"/>
       <c r="BF44" s="18">
         <f>(Z42*(AJ40+AJ43+AL40+AL43))+((AR44+AX44)*AB40)</f>
         <v>0</v>
       </c>
-      <c r="BG44" s="203"/>
+      <c r="BG44" s="221"/>
       <c r="BH44" s="181">
         <f t="shared" si="2"/>
-        <v>0.14814814814814817</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="BI44" s="124" t="s">
         <v>51</v>
@@ -16310,7 +16343,7 @@
       <c r="D45" s="52"/>
       <c r="E45" s="169"/>
       <c r="F45" s="52"/>
-      <c r="G45" s="207"/>
+      <c r="G45" s="239"/>
       <c r="H45" s="84"/>
       <c r="I45" s="185"/>
       <c r="J45" s="185"/>
@@ -16323,17 +16356,17 @@
       <c r="M45" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N45" s="201" t="s">
+      <c r="N45" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="O45" s="201"/>
+      <c r="O45" s="212"/>
       <c r="P45" s="5">
         <v>0</v>
       </c>
-      <c r="Q45" s="211" t="s">
+      <c r="Q45" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="R45" s="211"/>
+      <c r="R45" s="213"/>
       <c r="S45" s="5">
         <v>0</v>
       </c>
@@ -16405,13 +16438,13 @@
       </c>
       <c r="E46" s="180">
         <f>IFERROR(BJ40,NA())</f>
-        <v>0.34567901234567905</v>
+        <v>0.43209876543209874</v>
       </c>
       <c r="F46" s="3">
         <f>IFERROR(E46/P40,NA())</f>
-        <v>0.17283950617283952</v>
-      </c>
-      <c r="G46" s="207"/>
+        <v>0.21604938271604937</v>
+      </c>
+      <c r="G46" s="239"/>
       <c r="H46" s="84"/>
       <c r="I46" s="80"/>
       <c r="J46" s="80"/>
@@ -16516,11 +16549,11 @@
     </row>
     <row r="48" spans="1:63" ht="15" customHeight="1">
       <c r="A48" s="129"/>
-      <c r="B48" s="212" t="str">
+      <c r="B48" s="232" t="str">
         <f>IF(I50="","",I50)</f>
         <v>Weapon 3</v>
       </c>
-      <c r="C48" s="212"/>
+      <c r="C48" s="232"/>
       <c r="D48" s="10"/>
       <c r="E48" s="171" t="s">
         <v>11</v>
@@ -16528,94 +16561,94 @@
       <c r="F48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="214"/>
+      <c r="G48" s="234"/>
       <c r="H48" s="82"/>
-      <c r="I48" s="197" t="str">
+      <c r="I48" s="214" t="str">
         <f>IF(I50="","",I50)</f>
         <v>Weapon 3</v>
       </c>
-      <c r="J48" s="197"/>
-      <c r="K48" s="197"/>
-      <c r="L48" s="197"/>
-      <c r="M48" s="197"/>
-      <c r="N48" s="197"/>
-      <c r="O48" s="197"/>
-      <c r="P48" s="197"/>
-      <c r="Q48" s="197"/>
-      <c r="R48" s="197"/>
-      <c r="S48" s="197"/>
+      <c r="J48" s="214"/>
+      <c r="K48" s="214"/>
+      <c r="L48" s="214"/>
+      <c r="M48" s="214"/>
+      <c r="N48" s="214"/>
+      <c r="O48" s="214"/>
+      <c r="P48" s="214"/>
+      <c r="Q48" s="214"/>
+      <c r="R48" s="214"/>
+      <c r="S48" s="214"/>
       <c r="T48" s="83"/>
-      <c r="V48" s="209" t="s">
+      <c r="V48" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="W48" s="192"/>
-      <c r="X48" s="192"/>
-      <c r="Y48" s="192"/>
-      <c r="Z48" s="192"/>
-      <c r="AA48" s="192"/>
-      <c r="AB48" s="192"/>
-      <c r="AC48" s="192"/>
-      <c r="AD48" s="192" t="s">
+      <c r="W48" s="240"/>
+      <c r="X48" s="240"/>
+      <c r="Y48" s="240"/>
+      <c r="Z48" s="240"/>
+      <c r="AA48" s="240"/>
+      <c r="AB48" s="240"/>
+      <c r="AC48" s="240"/>
+      <c r="AD48" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="AE48" s="192"/>
-      <c r="AF48" s="192"/>
-      <c r="AG48" s="192"/>
-      <c r="AH48" s="187"/>
-      <c r="AI48" s="187"/>
-      <c r="AJ48" s="192" t="s">
+      <c r="AE48" s="240"/>
+      <c r="AF48" s="240"/>
+      <c r="AG48" s="240"/>
+      <c r="AH48" s="192"/>
+      <c r="AI48" s="192"/>
+      <c r="AJ48" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="AK48" s="192"/>
-      <c r="AL48" s="192"/>
-      <c r="AM48" s="192"/>
-      <c r="AN48" s="192"/>
-      <c r="AO48" s="192" t="s">
+      <c r="AK48" s="240"/>
+      <c r="AL48" s="240"/>
+      <c r="AM48" s="240"/>
+      <c r="AN48" s="240"/>
+      <c r="AO48" s="240" t="s">
         <v>89</v>
       </c>
-      <c r="AP48" s="192"/>
-      <c r="AQ48" s="192"/>
-      <c r="AR48" s="192"/>
-      <c r="AS48" s="192"/>
-      <c r="AT48" s="192"/>
-      <c r="AU48" s="192"/>
-      <c r="AV48" s="192"/>
-      <c r="AW48" s="192"/>
-      <c r="AX48" s="192"/>
-      <c r="AY48" s="192"/>
-      <c r="AZ48" s="192"/>
-      <c r="BA48" s="192"/>
-      <c r="BB48" s="192" t="s">
+      <c r="AP48" s="240"/>
+      <c r="AQ48" s="240"/>
+      <c r="AR48" s="240"/>
+      <c r="AS48" s="240"/>
+      <c r="AT48" s="240"/>
+      <c r="AU48" s="240"/>
+      <c r="AV48" s="240"/>
+      <c r="AW48" s="240"/>
+      <c r="AX48" s="240"/>
+      <c r="AY48" s="240"/>
+      <c r="AZ48" s="240"/>
+      <c r="BA48" s="240"/>
+      <c r="BB48" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="BC48" s="192"/>
-      <c r="BD48" s="192"/>
-      <c r="BE48" s="192"/>
-      <c r="BF48" s="192"/>
-      <c r="BG48" s="192"/>
-      <c r="BH48" s="192"/>
-      <c r="BI48" s="192"/>
-      <c r="BJ48" s="192" t="s">
+      <c r="BC48" s="240"/>
+      <c r="BD48" s="240"/>
+      <c r="BE48" s="240"/>
+      <c r="BF48" s="240"/>
+      <c r="BG48" s="240"/>
+      <c r="BH48" s="240"/>
+      <c r="BI48" s="240"/>
+      <c r="BJ48" s="240" t="s">
         <v>91</v>
       </c>
-      <c r="BK48" s="210"/>
+      <c r="BK48" s="241"/>
     </row>
     <row r="49" spans="1:63" ht="15" customHeight="1">
       <c r="A49" s="130"/>
-      <c r="B49" s="213"/>
-      <c r="C49" s="213"/>
+      <c r="B49" s="233"/>
+      <c r="C49" s="233"/>
       <c r="D49" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E49" s="165">
         <f>IF(AND(AD49,AF56),BD49+BF49,NA())</f>
-        <v>0.29629629629629634</v>
+        <v>0.37037037037037041</v>
       </c>
       <c r="F49" s="30">
         <f>IFERROR(E49/P50,NA())</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="G49" s="215"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="G49" s="235"/>
       <c r="H49" s="84"/>
       <c r="I49" s="78" t="s">
         <v>13</v>
@@ -16694,7 +16727,7 @@
       </c>
       <c r="AJ49" s="20">
         <f>IF(OR(AF49,AF50),V51*V50,(V50+X49)*V51)</f>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AK49" s="20" t="s">
         <v>77</v>
@@ -16715,77 +16748,77 @@
       </c>
       <c r="AP49" s="21">
         <f>IF(OR(AF51,AF52),AL54*AN49,AL54*(AN49+X50))</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="AQ49" s="203" t="s">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AQ49" s="221" t="s">
         <v>77</v>
       </c>
       <c r="AR49" s="20">
         <f>IF(AF55,AL54*IF(OR(AF51,AF52),AB49,AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AS49" s="203" t="s">
+      <c r="AS49" s="221" t="s">
         <v>64</v>
       </c>
       <c r="AT49" s="20">
         <f>IF(AF52,AL54-(AL54*AN49),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU49" s="203" t="s">
+      <c r="AU49" s="221" t="s">
         <v>60</v>
       </c>
       <c r="AV49" s="20">
         <f>(AN49+X50)*AT49</f>
         <v>0</v>
       </c>
-      <c r="AW49" s="203" t="s">
+      <c r="AW49" s="221" t="s">
         <v>78</v>
       </c>
       <c r="AX49" s="20">
         <f>IF(AF55,AT49*(AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AY49" s="203" t="s">
+      <c r="AY49" s="221" t="s">
         <v>65</v>
       </c>
       <c r="AZ49" s="20">
         <f>AV49+AP49</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="BA49" s="203" t="s">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="BA49" s="221" t="s">
         <v>63</v>
       </c>
       <c r="BB49" s="20">
         <f>IF(AB52&lt;0,((AZ49-(AR49+AX49))*(1-(V53+V49)))+((AX49+AR49)*(1-(V49+AB52))),AZ49*(1-(V49+V53)))</f>
-        <v>0.29629629629629634</v>
-      </c>
-      <c r="BC49" s="203" t="s">
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="BC49" s="221" t="s">
         <v>68</v>
       </c>
       <c r="BD49" s="18">
         <f>IF(AB51&gt;0,((BB49-(AR49+AX49))*V54)+((AR49+AX49)*AB51),BB49*V54)</f>
-        <v>0.29629629629629634</v>
-      </c>
-      <c r="BE49" s="203" t="s">
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="BE49" s="221" t="s">
         <v>76</v>
       </c>
       <c r="BF49" s="18">
         <f>(Z52*(AJ50+AJ53+AL50+AL53))+((AR49+AX49)*AB50)</f>
         <v>0</v>
       </c>
-      <c r="BG49" s="203" t="s">
+      <c r="BG49" s="221" t="s">
         <v>69</v>
       </c>
       <c r="BH49" s="181">
         <f t="shared" ref="BH49:BH54" si="4">IF(AD49,BD49+BF49,NA())</f>
-        <v>0.29629629629629634</v>
+        <v>0.37037037037037041</v>
       </c>
       <c r="BI49" s="124" t="s">
         <v>46</v>
       </c>
       <c r="BJ49" s="18">
         <f>IFERROR(IF(AD49,E49,0)+IF(AD50,E50,0)+IF(AD51,E51,0)+IF(AD52,E52,0)+IF(AD53,E53,0)+IF(AD54,E54,0),NA())</f>
-        <v>1.0370370370370372</v>
+        <v>1.2962962962962963</v>
       </c>
       <c r="BK49" s="161" t="s">
         <v>82</v>
@@ -16793,20 +16826,20 @@
     </row>
     <row r="50" spans="1:63" ht="15" customHeight="1">
       <c r="A50" s="130"/>
-      <c r="B50" s="213"/>
-      <c r="C50" s="213"/>
+      <c r="B50" s="233"/>
+      <c r="C50" s="233"/>
       <c r="D50" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="165">
         <f>IF(AND(AD50,AF56),BD50+BF50,NA())</f>
-        <v>0.22222222222222224</v>
+        <v>0.27777777777777785</v>
       </c>
       <c r="F50" s="30">
         <f>IFERROR(E50/P50,NA())</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="G50" s="215"/>
+        <v>0.13888888888888892</v>
+      </c>
+      <c r="G50" s="235"/>
       <c r="H50" s="84"/>
       <c r="I50" s="4" t="s">
         <v>105</v>
@@ -16815,7 +16848,7 @@
         <v>20</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="L50" s="5">
         <v>2</v>
@@ -16838,7 +16871,7 @@
       <c r="T50" s="85"/>
       <c r="V50" s="160">
         <f>(IF(K50="D3",5/6,IF(K50="2D3",3/6,IF(K50="D6",3.5/6,IF(K50="Auto Hit",1,IF(K50="2+",5/6,IF(K50="3+",4/6,IF(K50="4+",3/6,IF(K50="5+",2/6,IF(K50="6+",1/6,0))))))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W50" s="12" t="s">
         <v>35</v>
@@ -16902,59 +16935,59 @@
       </c>
       <c r="AP50" s="21">
         <f>IF(OR(AF51,AF52),AL54*AN50,AL54*(AN50+X50))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AQ50" s="203"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AQ50" s="221"/>
       <c r="AR50" s="20">
         <f>IF(AF55,AL54*IF(OR(AF51,AF52),AB49,AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AS50" s="203"/>
+      <c r="AS50" s="221"/>
       <c r="AT50" s="20">
         <f>IF(AF52,AL54-(AL54*AN50),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU50" s="203"/>
+      <c r="AU50" s="221"/>
       <c r="AV50" s="20">
         <f>(AN50+X50)*AT50</f>
         <v>0</v>
       </c>
-      <c r="AW50" s="203"/>
+      <c r="AW50" s="221"/>
       <c r="AX50" s="20">
         <f>IF(AF55,AT50*(AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="203"/>
+      <c r="AY50" s="221"/>
       <c r="AZ50" s="20">
         <f t="shared" ref="AZ50:AZ54" si="5">AV50+AP50</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="BA50" s="203"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BA50" s="221"/>
       <c r="BB50" s="20">
         <f>IF(AB52&lt;0,((AZ50-(AR50+AX50))*(1-(V53+V49)))+((AX50+AR50)*(1-(V49+AB52))),AZ50*(1-(V49+V53)))</f>
-        <v>0.22222222222222224</v>
-      </c>
-      <c r="BC50" s="203"/>
+        <v>0.27777777777777785</v>
+      </c>
+      <c r="BC50" s="221"/>
       <c r="BD50" s="18">
         <f>IF(AB51&gt;0,((BB50-(AR50+AX50))*V54)+((AR50+AX50)*AB51),BB50*V54)</f>
-        <v>0.22222222222222224</v>
-      </c>
-      <c r="BE50" s="203"/>
+        <v>0.27777777777777785</v>
+      </c>
+      <c r="BE50" s="221"/>
       <c r="BF50" s="18">
         <f>(Z52*(AJ50+AJ53+AL50+AL53))+((AR50+AX50)*AB50)</f>
         <v>0</v>
       </c>
-      <c r="BG50" s="203"/>
+      <c r="BG50" s="221"/>
       <c r="BH50" s="181">
         <f t="shared" si="4"/>
-        <v>0.22222222222222224</v>
+        <v>0.27777777777777785</v>
       </c>
       <c r="BI50" s="124" t="s">
         <v>47</v>
       </c>
       <c r="BJ50" s="18">
         <f>IFERROR(BJ49/AD55,NA())</f>
-        <v>0.17283950617283952</v>
+        <v>0.21604938271604937</v>
       </c>
       <c r="BK50" s="161" t="s">
         <v>11</v>
@@ -16962,32 +16995,32 @@
     </row>
     <row r="51" spans="1:63" ht="15" customHeight="1">
       <c r="A51" s="130"/>
-      <c r="B51" s="213"/>
-      <c r="C51" s="213"/>
+      <c r="B51" s="233"/>
+      <c r="C51" s="233"/>
       <c r="D51" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="165">
         <f>IF(AND(AD51,AF56),BD51+BF51,NA())</f>
-        <v>0.14814814814814817</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="F51" s="30">
         <f>IFERROR(E51/P50,NA())</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="G51" s="215"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="G51" s="235"/>
       <c r="H51" s="84"/>
-      <c r="I51" s="208"/>
-      <c r="J51" s="208"/>
-      <c r="K51" s="208"/>
-      <c r="L51" s="208"/>
-      <c r="M51" s="208"/>
-      <c r="N51" s="208"/>
-      <c r="O51" s="208"/>
-      <c r="P51" s="208"/>
-      <c r="Q51" s="208"/>
-      <c r="R51" s="208"/>
-      <c r="S51" s="208"/>
+      <c r="I51" s="222"/>
+      <c r="J51" s="222"/>
+      <c r="K51" s="222"/>
+      <c r="L51" s="222"/>
+      <c r="M51" s="222"/>
+      <c r="N51" s="222"/>
+      <c r="O51" s="222"/>
+      <c r="P51" s="222"/>
+      <c r="Q51" s="222"/>
+      <c r="R51" s="222"/>
+      <c r="S51" s="222"/>
       <c r="T51" s="85"/>
       <c r="V51" s="162">
         <f>(IF(L50="D3",2,IF(L50="2D3",4,IF(L50="D6",3.5,IF(L50="2D6",7,IF(L50="3D6",10.5,L50))))))</f>
@@ -17054,52 +17087,52 @@
       </c>
       <c r="AP51" s="21">
         <f>IF(OR(AF51,AF52),AL54*AN51,AL54*(AN51+X50))</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="AQ51" s="203"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AQ51" s="221"/>
       <c r="AR51" s="20">
         <f>IF(AF55,AL54*IF(OR(AF51,AF52),AB49,AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AS51" s="203"/>
+      <c r="AS51" s="221"/>
       <c r="AT51" s="20">
         <f>IF(AF52,AL54-(AL54*AN51),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU51" s="203"/>
+      <c r="AU51" s="221"/>
       <c r="AV51" s="20">
         <f>(AN51+X50)*AT51</f>
         <v>0</v>
       </c>
-      <c r="AW51" s="203"/>
+      <c r="AW51" s="221"/>
       <c r="AX51" s="20">
         <f>IF(AF55,AT51*(AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="203"/>
+      <c r="AY51" s="221"/>
       <c r="AZ51" s="20">
         <f t="shared" si="5"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="BA51" s="203"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="BA51" s="221"/>
       <c r="BB51" s="20">
         <f>IF(AB52&lt;0,((AZ51-(AR51+AX51))*(1-(V53+V49)))+((AX51+AR51)*(1-(V49+AB52))),AZ51*(1-(V49+V53)))</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="BC51" s="203"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="BC51" s="221"/>
       <c r="BD51" s="18">
         <f>IF(AB51&gt;0,((BB51-(AR51+AX51))*V54)+((AR51+AX51)*AB51),BB51*V54)</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="BE51" s="203"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="BE51" s="221"/>
       <c r="BF51" s="18">
         <f>(Z52*(AJ50+AJ53+AL50+AL53))+((AR51+AX51)*AB50)</f>
         <v>0</v>
       </c>
-      <c r="BG51" s="203"/>
+      <c r="BG51" s="221"/>
       <c r="BH51" s="181">
         <f t="shared" si="4"/>
-        <v>0.14814814814814817</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="BI51" s="124" t="s">
         <v>48</v>
@@ -17115,13 +17148,13 @@
       </c>
       <c r="E52" s="165">
         <f>IF(AND(AD52,AF56),BD52+BF52,NA())</f>
-        <v>0.14814814814814817</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="F52" s="30">
         <f>IFERROR(E52/P50,NA())</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="G52" s="215"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="G52" s="235"/>
       <c r="H52" s="84"/>
       <c r="I52" s="185" t="str">
         <f>"+- to hit"</f>
@@ -17138,17 +17171,17 @@
       <c r="M52" s="5">
         <v>0</v>
       </c>
-      <c r="N52" s="201" t="s">
+      <c r="N52" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="O52" s="201"/>
+      <c r="O52" s="212"/>
       <c r="P52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q52" s="201" t="s">
+      <c r="Q52" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="R52" s="201"/>
+      <c r="R52" s="212"/>
       <c r="S52" s="5" t="s">
         <v>18</v>
       </c>
@@ -17218,52 +17251,52 @@
       </c>
       <c r="AP52" s="21">
         <f>IF(OR(AF51,AF52),AL54*AN52,AL54*(AN52+X50))</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="AQ52" s="203"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AQ52" s="221"/>
       <c r="AR52" s="20">
         <f>IF(AF55,AL54*IF(OR(AF51,AF52),AB49,AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AS52" s="203"/>
+      <c r="AS52" s="221"/>
       <c r="AT52" s="20">
         <f>IF(AF52,AL54-(AL54*AN52),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU52" s="203"/>
+      <c r="AU52" s="221"/>
       <c r="AV52" s="20">
         <f>(AN52+X50)*AT52</f>
         <v>0</v>
       </c>
-      <c r="AW52" s="203"/>
+      <c r="AW52" s="221"/>
       <c r="AX52" s="20">
         <f>IF(AF55,AT52*(AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="203"/>
+      <c r="AY52" s="221"/>
       <c r="AZ52" s="20">
         <f t="shared" si="5"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="BA52" s="203"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="BA52" s="221"/>
       <c r="BB52" s="20">
         <f>IF(AB52&lt;0,((AZ52-(AR52+AX52))*(1-(V53+V49)))+((AX52+AR52)*(1-(V49+AB52))),AZ52*(1-(V49+V53)))</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="BC52" s="203"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="BC52" s="221"/>
       <c r="BD52" s="18">
         <f>IF(AB51&gt;0,((BB52-(AR52+AX52))*V54)+((AR52+AX52)*AB51),BB52*V54)</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="BE52" s="203"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="BE52" s="221"/>
       <c r="BF52" s="18">
         <f>(Z52*(AJ50+AJ53+AL50+AL53))+((AR52+AX52)*AB50)</f>
         <v>0</v>
       </c>
-      <c r="BG52" s="203"/>
+      <c r="BG52" s="221"/>
       <c r="BH52" s="181">
         <f t="shared" si="4"/>
-        <v>0.14814814814814817</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="BI52" s="124" t="s">
         <v>49</v>
@@ -17279,34 +17312,34 @@
       </c>
       <c r="E53" s="165">
         <f>IF(AND(AD53,AF56),BD53+BF53,NA())</f>
-        <v>0.14814814814814817</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="F53" s="30">
         <f>IFERROR(E53/P50,NA())</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="G53" s="215"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="G53" s="235"/>
       <c r="H53" s="87"/>
       <c r="I53" s="80"/>
       <c r="J53" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K53" s="201" t="s">
+      <c r="K53" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="201" t="s">
+      <c r="L53" s="212"/>
+      <c r="M53" s="212"/>
+      <c r="N53" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="O53" s="201"/>
+      <c r="O53" s="212"/>
       <c r="P53" s="5">
         <v>0</v>
       </c>
-      <c r="Q53" s="201" t="s">
+      <c r="Q53" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="R53" s="201"/>
+      <c r="R53" s="212"/>
       <c r="S53" s="5">
         <v>0</v>
       </c>
@@ -17361,52 +17394,52 @@
       </c>
       <c r="AP53" s="21">
         <f>IF(OR(AF51,AF52),AL54*AN53,AL54*(AN53+X50))</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="AQ53" s="203"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AQ53" s="221"/>
       <c r="AR53" s="20">
         <f>IF(AF55,AL54*IF(OR(AF51,AF52),AB49,AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AS53" s="203"/>
+      <c r="AS53" s="221"/>
       <c r="AT53" s="20">
         <f>IF(AF52,AL54-(AL54*AN53),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU53" s="203"/>
+      <c r="AU53" s="221"/>
       <c r="AV53" s="20">
         <f>(AN53+X50)*AT53</f>
         <v>0</v>
       </c>
-      <c r="AW53" s="203"/>
+      <c r="AW53" s="221"/>
       <c r="AX53" s="20">
         <f>IF(AF55,AT53*(AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AY53" s="203"/>
+      <c r="AY53" s="221"/>
       <c r="AZ53" s="20">
         <f t="shared" si="5"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="BA53" s="203"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="BA53" s="221"/>
       <c r="BB53" s="20">
         <f>IF(AB52&lt;0,((AZ53-(AR53+AX53))*(1-(V53+V49)))+((AX53+AR53)*(1-(V49+AB52))),AZ53*(1-(V49+V53)))</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="BC53" s="203"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="BC53" s="221"/>
       <c r="BD53" s="18">
         <f>IF(AB51&gt;0,((BB53-(AR53+AX53))*V54)+((AR53+AX53)*AB51),BB53*V54)</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="BE53" s="203"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="BE53" s="221"/>
       <c r="BF53" s="18">
         <f>(Z52*(AJ50+AJ53+AL50+AL53))+((AR53+AX53)*AB50)</f>
         <v>0</v>
       </c>
-      <c r="BG53" s="203"/>
+      <c r="BG53" s="221"/>
       <c r="BH53" s="181">
         <f t="shared" si="4"/>
-        <v>0.14814814814814817</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="BI53" s="124" t="s">
         <v>50</v>
@@ -17422,34 +17455,34 @@
       </c>
       <c r="E54" s="165">
         <f>IF(AND(AD54,AF56),BD54+BF54,NA())</f>
-        <v>7.4074074074074084E-2</v>
+        <v>9.2592592592592601E-2</v>
       </c>
       <c r="F54" s="30">
         <f>IFERROR(E54/P50,NA())</f>
-        <v>3.7037037037037042E-2</v>
-      </c>
-      <c r="G54" s="215"/>
+        <v>4.6296296296296301E-2</v>
+      </c>
+      <c r="G54" s="235"/>
       <c r="H54" s="84"/>
-      <c r="I54" s="200" t="s">
+      <c r="I54" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="J54" s="200"/>
-      <c r="K54" s="200" t="s">
+      <c r="J54" s="223"/>
+      <c r="K54" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L54" s="200"/>
-      <c r="M54" s="200"/>
-      <c r="N54" s="201" t="s">
+      <c r="L54" s="223"/>
+      <c r="M54" s="223"/>
+      <c r="N54" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="O54" s="201"/>
+      <c r="O54" s="212"/>
       <c r="P54" s="5">
         <v>0</v>
       </c>
-      <c r="Q54" s="201" t="s">
+      <c r="Q54" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="R54" s="201"/>
+      <c r="R54" s="212"/>
       <c r="S54" s="5">
         <v>0</v>
       </c>
@@ -17491,7 +17524,7 @@
       </c>
       <c r="AL54" s="20">
         <f>IF(V50=1,AJ49,(SUM(AJ49,AJ52,AL49,AL52))+(Z51*(SUM(AJ50,AJ53,AL50,AL53)))-(Z52*(AJ50+AJ53+AL50+AL53)))</f>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AM54" s="20" t="s">
         <v>62</v>
@@ -17505,52 +17538,52 @@
       </c>
       <c r="AP54" s="20">
         <f>IF(OR(AF51,AF52),AL54*AN54,AL54*(AN54+X50))</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="AQ54" s="203"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AQ54" s="221"/>
       <c r="AR54" s="20">
         <f>IF(AF55,AL54*IF(OR(AF51,AF52),AB49,AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AS54" s="203"/>
+      <c r="AS54" s="221"/>
       <c r="AT54" s="20">
         <f>IF(AF52,AL54-(AL54*AN54),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU54" s="203"/>
+      <c r="AU54" s="221"/>
       <c r="AV54" s="20">
         <f>(AN54+X50)*AT54</f>
         <v>0</v>
       </c>
-      <c r="AW54" s="203"/>
+      <c r="AW54" s="221"/>
       <c r="AX54" s="20">
         <f>IF(AF55,AT54*(AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AY54" s="203"/>
+      <c r="AY54" s="221"/>
       <c r="AZ54" s="20">
         <f t="shared" si="5"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="BA54" s="203"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="BA54" s="221"/>
       <c r="BB54" s="20">
         <f>IF(AB52&lt;0,((AZ54-(AR54+AX54))*(1-(V53+V49)))+((AX54+AR54)*(1-(V49+AB52))),AZ54*(1-(V49+V53)))</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="BC54" s="203"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="BC54" s="221"/>
       <c r="BD54" s="18">
         <f>IF(AB51&gt;0,((BB54-(AR54+AX54))*V54)+((AR54+AX54)*AB51),BB54*V54)</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="BE54" s="203"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="BE54" s="221"/>
       <c r="BF54" s="18">
         <f>(Z52*(AJ50+AJ53+AL50+AL53))+((AR54+AX54)*AB50)</f>
         <v>0</v>
       </c>
-      <c r="BG54" s="203"/>
+      <c r="BG54" s="221"/>
       <c r="BH54" s="181">
         <f t="shared" si="4"/>
-        <v>7.4074074074074084E-2</v>
+        <v>9.2592592592592601E-2</v>
       </c>
       <c r="BI54" s="124" t="s">
         <v>51</v>
@@ -17564,7 +17597,7 @@
       <c r="D55" s="50"/>
       <c r="E55" s="172"/>
       <c r="F55" s="50"/>
-      <c r="G55" s="215"/>
+      <c r="G55" s="235"/>
       <c r="H55" s="84"/>
       <c r="I55" s="185"/>
       <c r="J55" s="185"/>
@@ -17577,17 +17610,17 @@
       <c r="M55" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N55" s="201" t="s">
+      <c r="N55" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="O55" s="201"/>
+      <c r="O55" s="212"/>
       <c r="P55" s="5">
         <v>0</v>
       </c>
-      <c r="Q55" s="211" t="s">
+      <c r="Q55" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="R55" s="211"/>
+      <c r="R55" s="213"/>
       <c r="S55" s="5">
         <v>0</v>
       </c>
@@ -17659,13 +17692,13 @@
       </c>
       <c r="E56" s="180">
         <f>IFERROR(BJ50,NA())</f>
-        <v>0.17283950617283952</v>
+        <v>0.21604938271604937</v>
       </c>
       <c r="F56" s="3">
         <f>IFERROR(E56/P50,NA())</f>
-        <v>8.6419753086419762E-2</v>
-      </c>
-      <c r="G56" s="215"/>
+        <v>0.10802469135802469</v>
+      </c>
+      <c r="G56" s="235"/>
       <c r="H56" s="84"/>
       <c r="I56" s="80"/>
       <c r="J56" s="80"/>
@@ -17770,11 +17803,11 @@
     </row>
     <row r="58" spans="1:63" ht="15" customHeight="1">
       <c r="A58" s="132"/>
-      <c r="B58" s="216" t="str">
+      <c r="B58" s="228" t="str">
         <f>IF(I60="","",I60)</f>
         <v>Weapon 4</v>
       </c>
-      <c r="C58" s="216"/>
+      <c r="C58" s="228"/>
       <c r="D58" s="32"/>
       <c r="E58" s="174" t="s">
         <v>11</v>
@@ -17782,94 +17815,94 @@
       <c r="F58" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="218"/>
+      <c r="G58" s="230"/>
       <c r="H58" s="82"/>
-      <c r="I58" s="197" t="str">
+      <c r="I58" s="214" t="str">
         <f>IF(I60="","",I60)</f>
         <v>Weapon 4</v>
       </c>
-      <c r="J58" s="197"/>
-      <c r="K58" s="197"/>
-      <c r="L58" s="197"/>
-      <c r="M58" s="197"/>
-      <c r="N58" s="197"/>
-      <c r="O58" s="197"/>
-      <c r="P58" s="197"/>
-      <c r="Q58" s="197"/>
-      <c r="R58" s="197"/>
-      <c r="S58" s="197"/>
+      <c r="J58" s="214"/>
+      <c r="K58" s="214"/>
+      <c r="L58" s="214"/>
+      <c r="M58" s="214"/>
+      <c r="N58" s="214"/>
+      <c r="O58" s="214"/>
+      <c r="P58" s="214"/>
+      <c r="Q58" s="214"/>
+      <c r="R58" s="214"/>
+      <c r="S58" s="214"/>
       <c r="T58" s="83"/>
-      <c r="V58" s="209" t="s">
+      <c r="V58" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="W58" s="192"/>
-      <c r="X58" s="192"/>
-      <c r="Y58" s="192"/>
-      <c r="Z58" s="192"/>
-      <c r="AA58" s="192"/>
-      <c r="AB58" s="192"/>
-      <c r="AC58" s="192"/>
-      <c r="AD58" s="192" t="s">
+      <c r="W58" s="240"/>
+      <c r="X58" s="240"/>
+      <c r="Y58" s="240"/>
+      <c r="Z58" s="240"/>
+      <c r="AA58" s="240"/>
+      <c r="AB58" s="240"/>
+      <c r="AC58" s="240"/>
+      <c r="AD58" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="AE58" s="192"/>
-      <c r="AF58" s="192"/>
-      <c r="AG58" s="192"/>
-      <c r="AH58" s="187"/>
-      <c r="AI58" s="187"/>
-      <c r="AJ58" s="192" t="s">
+      <c r="AE58" s="240"/>
+      <c r="AF58" s="240"/>
+      <c r="AG58" s="240"/>
+      <c r="AH58" s="192"/>
+      <c r="AI58" s="192"/>
+      <c r="AJ58" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="AK58" s="192"/>
-      <c r="AL58" s="192"/>
-      <c r="AM58" s="192"/>
-      <c r="AN58" s="192"/>
-      <c r="AO58" s="192" t="s">
+      <c r="AK58" s="240"/>
+      <c r="AL58" s="240"/>
+      <c r="AM58" s="240"/>
+      <c r="AN58" s="240"/>
+      <c r="AO58" s="240" t="s">
         <v>89</v>
       </c>
-      <c r="AP58" s="192"/>
-      <c r="AQ58" s="192"/>
-      <c r="AR58" s="192"/>
-      <c r="AS58" s="192"/>
-      <c r="AT58" s="192"/>
-      <c r="AU58" s="192"/>
-      <c r="AV58" s="192"/>
-      <c r="AW58" s="192"/>
-      <c r="AX58" s="192"/>
-      <c r="AY58" s="192"/>
-      <c r="AZ58" s="192"/>
-      <c r="BA58" s="192"/>
-      <c r="BB58" s="192" t="s">
+      <c r="AP58" s="240"/>
+      <c r="AQ58" s="240"/>
+      <c r="AR58" s="240"/>
+      <c r="AS58" s="240"/>
+      <c r="AT58" s="240"/>
+      <c r="AU58" s="240"/>
+      <c r="AV58" s="240"/>
+      <c r="AW58" s="240"/>
+      <c r="AX58" s="240"/>
+      <c r="AY58" s="240"/>
+      <c r="AZ58" s="240"/>
+      <c r="BA58" s="240"/>
+      <c r="BB58" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="BC58" s="192"/>
-      <c r="BD58" s="192"/>
-      <c r="BE58" s="192"/>
-      <c r="BF58" s="192"/>
-      <c r="BG58" s="192"/>
-      <c r="BH58" s="192"/>
-      <c r="BI58" s="192"/>
-      <c r="BJ58" s="192" t="s">
+      <c r="BC58" s="240"/>
+      <c r="BD58" s="240"/>
+      <c r="BE58" s="240"/>
+      <c r="BF58" s="240"/>
+      <c r="BG58" s="240"/>
+      <c r="BH58" s="240"/>
+      <c r="BI58" s="240"/>
+      <c r="BJ58" s="240" t="s">
         <v>91</v>
       </c>
-      <c r="BK58" s="210"/>
+      <c r="BK58" s="241"/>
     </row>
     <row r="59" spans="1:63" ht="15" customHeight="1">
       <c r="A59" s="133"/>
-      <c r="B59" s="217"/>
-      <c r="C59" s="217"/>
+      <c r="B59" s="229"/>
+      <c r="C59" s="229"/>
       <c r="D59" s="40" t="s">
         <v>1</v>
       </c>
       <c r="E59" s="165">
         <f>IF(AND(AD59,AF66),BD59+BF59,NA())</f>
-        <v>2.3703703703703707</v>
+        <v>2.9629629629629632</v>
       </c>
       <c r="F59" s="30">
         <f>IFERROR(E59/P60,NA())</f>
-        <v>1.1851851851851853</v>
-      </c>
-      <c r="G59" s="219"/>
+        <v>1.4814814814814816</v>
+      </c>
+      <c r="G59" s="231"/>
       <c r="H59" s="84"/>
       <c r="I59" s="78" t="s">
         <v>13</v>
@@ -17948,7 +17981,7 @@
       </c>
       <c r="AJ59" s="20">
         <f>IF(OR(AF59,AF60),V61*V60,(V60+X59)*V61)</f>
-        <v>5.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AK59" s="20" t="s">
         <v>77</v>
@@ -17969,77 +18002,77 @@
       </c>
       <c r="AP59" s="21">
         <f>IF(OR(AF61,AF62),AL64*AN59,AL64*(AN59+X60))</f>
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="AQ59" s="203" t="s">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="AQ59" s="221" t="s">
         <v>77</v>
       </c>
       <c r="AR59" s="20">
         <f>IF(AF65,AL64*IF(OR(AF61,AF62),AB59,AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AS59" s="203" t="s">
+      <c r="AS59" s="221" t="s">
         <v>64</v>
       </c>
       <c r="AT59" s="20">
         <f>IF(AF62,AL64-(AL64*AN59),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU59" s="203" t="s">
+      <c r="AU59" s="221" t="s">
         <v>60</v>
       </c>
       <c r="AV59" s="20">
         <f>(AN59+X60)*AT59</f>
         <v>0</v>
       </c>
-      <c r="AW59" s="203" t="s">
+      <c r="AW59" s="221" t="s">
         <v>78</v>
       </c>
       <c r="AX59" s="20">
         <f>IF(AF65,AT59*(AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AY59" s="203" t="s">
+      <c r="AY59" s="221" t="s">
         <v>65</v>
       </c>
       <c r="AZ59" s="20">
         <f>AV59+AP59</f>
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="BA59" s="203" t="s">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="BA59" s="221" t="s">
         <v>63</v>
       </c>
       <c r="BB59" s="20">
         <f>IF(AB62&lt;0,((AZ59-(AR59+AX59))*(1-(V63+V59)))+((AX59+AR59)*(1-(V59+AB62))),AZ59*(1-(V59+V63)))</f>
-        <v>2.3703703703703707</v>
-      </c>
-      <c r="BC59" s="203" t="s">
+        <v>2.9629629629629632</v>
+      </c>
+      <c r="BC59" s="221" t="s">
         <v>68</v>
       </c>
       <c r="BD59" s="18">
         <f>IF(AB61&gt;0,((BB59-(AR59+AX59))*V64)+((AR59+AX59)*AB61),BB59*V64)</f>
-        <v>2.3703703703703707</v>
-      </c>
-      <c r="BE59" s="203" t="s">
+        <v>2.9629629629629632</v>
+      </c>
+      <c r="BE59" s="221" t="s">
         <v>76</v>
       </c>
       <c r="BF59" s="18">
         <f>(Z62*(AJ60+AJ63+AL60+AL63))+((AR59+AX59)*AB60)</f>
         <v>0</v>
       </c>
-      <c r="BG59" s="203" t="s">
+      <c r="BG59" s="221" t="s">
         <v>69</v>
       </c>
       <c r="BH59" s="181">
         <f t="shared" ref="BH59:BH64" si="6">IF(AD59,BD59+BF59,NA())</f>
-        <v>2.3703703703703707</v>
+        <v>2.9629629629629632</v>
       </c>
       <c r="BI59" s="124" t="s">
         <v>46</v>
       </c>
       <c r="BJ59" s="18">
         <f>IFERROR(IF(AD59,E59,0)+IF(AD60,E60,0)+IF(AD61,E61,0)+IF(AD62,E62,0)+IF(AD63,E63,0)+IF(AD64,E64,0),NA())</f>
-        <v>8.2962962962962976</v>
+        <v>10.37037037037037</v>
       </c>
       <c r="BK59" s="161" t="s">
         <v>82</v>
@@ -18047,20 +18080,20 @@
     </row>
     <row r="60" spans="1:63" ht="15" customHeight="1">
       <c r="A60" s="133"/>
-      <c r="B60" s="217"/>
-      <c r="C60" s="217"/>
+      <c r="B60" s="229"/>
+      <c r="C60" s="229"/>
       <c r="D60" s="40" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="165">
         <f>IF(AND(AD60,AF66),BD60+BF60,NA())</f>
-        <v>1.7777777777777779</v>
+        <v>2.2222222222222228</v>
       </c>
       <c r="F60" s="30">
         <f>IFERROR(E60/P60,NA())</f>
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="G60" s="219"/>
+        <v>1.1111111111111114</v>
+      </c>
+      <c r="G60" s="231"/>
       <c r="H60" s="84"/>
       <c r="I60" s="4" t="s">
         <v>106</v>
@@ -18069,7 +18102,7 @@
         <v>20</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="L60" s="5">
         <v>8</v>
@@ -18092,7 +18125,7 @@
       <c r="T60" s="85"/>
       <c r="V60" s="160">
         <f>(IF(K60="D3",5/6,IF(K60="2D3",3/6,IF(K60="D6",3.5/6,IF(K60="Auto Hit",1,IF(K60="2+",5/6,IF(K60="3+",4/6,IF(K60="4+",3/6,IF(K60="5+",2/6,IF(K60="6+",1/6,0))))))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W60" s="12" t="s">
         <v>35</v>
@@ -18156,59 +18189,59 @@
       </c>
       <c r="AP60" s="21">
         <f>IF(OR(AF61,AF62),AL64*AN60,AL64*(AN60+X60))</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AQ60" s="203"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AQ60" s="221"/>
       <c r="AR60" s="20">
         <f>IF(AF65,AL64*IF(OR(AF61,AF62),AB59,AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AS60" s="203"/>
+      <c r="AS60" s="221"/>
       <c r="AT60" s="20">
         <f>IF(AF62,AL64-(AL64*AN60),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU60" s="203"/>
+      <c r="AU60" s="221"/>
       <c r="AV60" s="20">
         <f>(AN60+X60)*AT60</f>
         <v>0</v>
       </c>
-      <c r="AW60" s="203"/>
+      <c r="AW60" s="221"/>
       <c r="AX60" s="20">
         <f>IF(AF65,AT60*(AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AY60" s="203"/>
+      <c r="AY60" s="221"/>
       <c r="AZ60" s="20">
         <f t="shared" ref="AZ60:AZ64" si="7">AV60+AP60</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BA60" s="203"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="BA60" s="221"/>
       <c r="BB60" s="20">
         <f>IF(AB62&lt;0,((AZ60-(AR60+AX60))*(1-(V63+V59)))+((AX60+AR60)*(1-(V59+AB62))),AZ60*(1-(V59+V63)))</f>
-        <v>1.7777777777777779</v>
-      </c>
-      <c r="BC60" s="203"/>
+        <v>2.2222222222222228</v>
+      </c>
+      <c r="BC60" s="221"/>
       <c r="BD60" s="18">
         <f>IF(AB61&gt;0,((BB60-(AR60+AX60))*V64)+((AR60+AX60)*AB61),BB60*V64)</f>
-        <v>1.7777777777777779</v>
-      </c>
-      <c r="BE60" s="203"/>
+        <v>2.2222222222222228</v>
+      </c>
+      <c r="BE60" s="221"/>
       <c r="BF60" s="18">
         <f>(Z62*(AJ60+AJ63+AL60+AL63))+((AR60+AX60)*AB60)</f>
         <v>0</v>
       </c>
-      <c r="BG60" s="203"/>
+      <c r="BG60" s="221"/>
       <c r="BH60" s="181">
         <f t="shared" si="6"/>
-        <v>1.7777777777777779</v>
+        <v>2.2222222222222228</v>
       </c>
       <c r="BI60" s="124" t="s">
         <v>47</v>
       </c>
       <c r="BJ60" s="18">
         <f>IFERROR(BJ59/AD65,NA())</f>
-        <v>1.3827160493827162</v>
+        <v>1.728395061728395</v>
       </c>
       <c r="BK60" s="161" t="s">
         <v>11</v>
@@ -18216,32 +18249,32 @@
     </row>
     <row r="61" spans="1:63" ht="15" customHeight="1">
       <c r="A61" s="133"/>
-      <c r="B61" s="217"/>
-      <c r="C61" s="217"/>
+      <c r="B61" s="229"/>
+      <c r="C61" s="229"/>
       <c r="D61" s="40" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="165">
         <f>IF(AND(AD61,AF66),BD61+BF61,NA())</f>
-        <v>1.1851851851851853</v>
+        <v>1.4814814814814816</v>
       </c>
       <c r="F61" s="30">
         <f>IFERROR(E61/P60,NA())</f>
-        <v>0.59259259259259267</v>
-      </c>
-      <c r="G61" s="219"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="G61" s="231"/>
       <c r="H61" s="84"/>
-      <c r="I61" s="208"/>
-      <c r="J61" s="208"/>
-      <c r="K61" s="208"/>
-      <c r="L61" s="208"/>
-      <c r="M61" s="208"/>
-      <c r="N61" s="208"/>
-      <c r="O61" s="208"/>
-      <c r="P61" s="208"/>
-      <c r="Q61" s="208"/>
-      <c r="R61" s="208"/>
-      <c r="S61" s="208"/>
+      <c r="I61" s="222"/>
+      <c r="J61" s="222"/>
+      <c r="K61" s="222"/>
+      <c r="L61" s="222"/>
+      <c r="M61" s="222"/>
+      <c r="N61" s="222"/>
+      <c r="O61" s="222"/>
+      <c r="P61" s="222"/>
+      <c r="Q61" s="222"/>
+      <c r="R61" s="222"/>
+      <c r="S61" s="222"/>
       <c r="T61" s="85"/>
       <c r="V61" s="162">
         <f>(IF(L60="D3",2,IF(L60="2D3",4,IF(L60="D6",3.5,IF(L60="2D6",7,IF(L60="3D6",10.5,L60))))))</f>
@@ -18308,52 +18341,52 @@
       </c>
       <c r="AP61" s="21">
         <f>IF(OR(AF61,AF62),AL64*AN61,AL64*(AN61+X60))</f>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="AQ61" s="203"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="AQ61" s="221"/>
       <c r="AR61" s="20">
         <f>IF(AF65,AL64*IF(OR(AF61,AF62),AB59,AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AS61" s="203"/>
+      <c r="AS61" s="221"/>
       <c r="AT61" s="20">
         <f>IF(AF62,AL64-(AL64*AN61),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU61" s="203"/>
+      <c r="AU61" s="221"/>
       <c r="AV61" s="20">
         <f>(AN61+X60)*AT61</f>
         <v>0</v>
       </c>
-      <c r="AW61" s="203"/>
+      <c r="AW61" s="221"/>
       <c r="AX61" s="20">
         <f>IF(AF65,AT61*(AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AY61" s="203"/>
+      <c r="AY61" s="221"/>
       <c r="AZ61" s="20">
         <f t="shared" si="7"/>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="BA61" s="203"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="BA61" s="221"/>
       <c r="BB61" s="20">
         <f>IF(AB62&lt;0,((AZ61-(AR61+AX61))*(1-(V63+V59)))+((AX61+AR61)*(1-(V59+AB62))),AZ61*(1-(V59+V63)))</f>
-        <v>1.1851851851851853</v>
-      </c>
-      <c r="BC61" s="203"/>
+        <v>1.4814814814814816</v>
+      </c>
+      <c r="BC61" s="221"/>
       <c r="BD61" s="18">
         <f>IF(AB61&gt;0,((BB61-(AR61+AX61))*V64)+((AR61+AX61)*AB61),BB61*V64)</f>
-        <v>1.1851851851851853</v>
-      </c>
-      <c r="BE61" s="203"/>
+        <v>1.4814814814814816</v>
+      </c>
+      <c r="BE61" s="221"/>
       <c r="BF61" s="18">
         <f>(Z62*(AJ60+AJ63+AL60+AL63))+((AR61+AX61)*AB60)</f>
         <v>0</v>
       </c>
-      <c r="BG61" s="203"/>
+      <c r="BG61" s="221"/>
       <c r="BH61" s="181">
         <f t="shared" si="6"/>
-        <v>1.1851851851851853</v>
+        <v>1.4814814814814816</v>
       </c>
       <c r="BI61" s="124" t="s">
         <v>48</v>
@@ -18369,13 +18402,13 @@
       </c>
       <c r="E62" s="165">
         <f>IF(AND(AD62,AF66),BD62+BF62,NA())</f>
-        <v>1.1851851851851853</v>
+        <v>1.4814814814814816</v>
       </c>
       <c r="F62" s="30">
         <f>IFERROR(E62/P60,NA())</f>
-        <v>0.59259259259259267</v>
-      </c>
-      <c r="G62" s="219"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="G62" s="231"/>
       <c r="H62" s="84"/>
       <c r="I62" s="185" t="str">
         <f>"+- to hit"</f>
@@ -18392,17 +18425,17 @@
       <c r="M62" s="5">
         <v>0</v>
       </c>
-      <c r="N62" s="201" t="s">
+      <c r="N62" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="O62" s="201"/>
+      <c r="O62" s="212"/>
       <c r="P62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q62" s="201" t="s">
+      <c r="Q62" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="R62" s="201"/>
+      <c r="R62" s="212"/>
       <c r="S62" s="5" t="s">
         <v>19</v>
       </c>
@@ -18472,52 +18505,52 @@
       </c>
       <c r="AP62" s="21">
         <f>IF(OR(AF61,AF62),AL64*AN62,AL64*(AN62+X60))</f>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="AQ62" s="203"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="AQ62" s="221"/>
       <c r="AR62" s="20">
         <f>IF(AF65,AL64*IF(OR(AF61,AF62),AB59,AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AS62" s="203"/>
+      <c r="AS62" s="221"/>
       <c r="AT62" s="20">
         <f>IF(AF62,AL64-(AL64*AN62),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU62" s="203"/>
+      <c r="AU62" s="221"/>
       <c r="AV62" s="20">
         <f>(AN62+X60)*AT62</f>
         <v>0</v>
       </c>
-      <c r="AW62" s="203"/>
+      <c r="AW62" s="221"/>
       <c r="AX62" s="20">
         <f>IF(AF65,AT62*(AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AY62" s="203"/>
+      <c r="AY62" s="221"/>
       <c r="AZ62" s="20">
         <f t="shared" si="7"/>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="BA62" s="203"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="BA62" s="221"/>
       <c r="BB62" s="20">
         <f>IF(AB62&lt;0,((AZ62-(AR62+AX62))*(1-(V63+V59)))+((AX62+AR62)*(1-(V59+AB62))),AZ62*(1-(V59+V63)))</f>
-        <v>1.1851851851851853</v>
-      </c>
-      <c r="BC62" s="203"/>
+        <v>1.4814814814814816</v>
+      </c>
+      <c r="BC62" s="221"/>
       <c r="BD62" s="18">
         <f>IF(AB61&gt;0,((BB62-(AR62+AX62))*V64)+((AR62+AX62)*AB61),BB62*V64)</f>
-        <v>1.1851851851851853</v>
-      </c>
-      <c r="BE62" s="203"/>
+        <v>1.4814814814814816</v>
+      </c>
+      <c r="BE62" s="221"/>
       <c r="BF62" s="18">
         <f>(Z62*(AJ60+AJ63+AL60+AL63))+((AR62+AX62)*AB60)</f>
         <v>0</v>
       </c>
-      <c r="BG62" s="203"/>
+      <c r="BG62" s="221"/>
       <c r="BH62" s="181">
         <f t="shared" si="6"/>
-        <v>1.1851851851851853</v>
+        <v>1.4814814814814816</v>
       </c>
       <c r="BI62" s="124" t="s">
         <v>49</v>
@@ -18533,34 +18566,34 @@
       </c>
       <c r="E63" s="165">
         <f>IF(AND(AD63,AF66),BD63+BF63,NA())</f>
-        <v>1.1851851851851853</v>
+        <v>1.4814814814814816</v>
       </c>
       <c r="F63" s="30">
         <f>IFERROR(E63/P60,NA())</f>
-        <v>0.59259259259259267</v>
-      </c>
-      <c r="G63" s="219"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="G63" s="231"/>
       <c r="H63" s="87"/>
       <c r="I63" s="80"/>
       <c r="J63" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K63" s="201" t="s">
+      <c r="K63" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="L63" s="201"/>
-      <c r="M63" s="201"/>
-      <c r="N63" s="201" t="s">
+      <c r="L63" s="212"/>
+      <c r="M63" s="212"/>
+      <c r="N63" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="O63" s="201"/>
+      <c r="O63" s="212"/>
       <c r="P63" s="5">
         <v>0</v>
       </c>
-      <c r="Q63" s="201" t="s">
+      <c r="Q63" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="201"/>
+      <c r="R63" s="212"/>
       <c r="S63" s="5">
         <v>0</v>
       </c>
@@ -18615,52 +18648,52 @@
       </c>
       <c r="AP63" s="21">
         <f>IF(OR(AF61,AF62),AL64*AN63,AL64*(AN63+X60))</f>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="AQ63" s="203"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="AQ63" s="221"/>
       <c r="AR63" s="20">
         <f>IF(AF65,AL64*IF(OR(AF61,AF62),AB59,AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AS63" s="203"/>
+      <c r="AS63" s="221"/>
       <c r="AT63" s="20">
         <f>IF(AF62,AL64-(AL64*AN63),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU63" s="203"/>
+      <c r="AU63" s="221"/>
       <c r="AV63" s="20">
         <f>(AN63+X60)*AT63</f>
         <v>0</v>
       </c>
-      <c r="AW63" s="203"/>
+      <c r="AW63" s="221"/>
       <c r="AX63" s="20">
         <f>IF(AF65,AT63*(AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AY63" s="203"/>
+      <c r="AY63" s="221"/>
       <c r="AZ63" s="20">
         <f t="shared" si="7"/>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="BA63" s="203"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="BA63" s="221"/>
       <c r="BB63" s="20">
         <f>IF(AB62&lt;0,((AZ63-(AR63+AX63))*(1-(V63+V59)))+((AX63+AR63)*(1-(V59+AB62))),AZ63*(1-(V59+V63)))</f>
-        <v>1.1851851851851853</v>
-      </c>
-      <c r="BC63" s="203"/>
+        <v>1.4814814814814816</v>
+      </c>
+      <c r="BC63" s="221"/>
       <c r="BD63" s="18">
         <f>IF(AB61&gt;0,((BB63-(AR63+AX63))*V64)+((AR63+AX63)*AB61),BB63*V64)</f>
-        <v>1.1851851851851853</v>
-      </c>
-      <c r="BE63" s="203"/>
+        <v>1.4814814814814816</v>
+      </c>
+      <c r="BE63" s="221"/>
       <c r="BF63" s="18">
         <f>(Z62*(AJ60+AJ63+AL60+AL63))+((AR63+AX63)*AB60)</f>
         <v>0</v>
       </c>
-      <c r="BG63" s="203"/>
+      <c r="BG63" s="221"/>
       <c r="BH63" s="181">
         <f t="shared" si="6"/>
-        <v>1.1851851851851853</v>
+        <v>1.4814814814814816</v>
       </c>
       <c r="BI63" s="124" t="s">
         <v>50</v>
@@ -18676,34 +18709,34 @@
       </c>
       <c r="E64" s="165">
         <f>IF(AND(AD64,AF66),BD64+BF64,NA())</f>
-        <v>0.59259259259259267</v>
+        <v>0.74074074074074081</v>
       </c>
       <c r="F64" s="30">
         <f>IFERROR(E64/P60,NA())</f>
-        <v>0.29629629629629634</v>
-      </c>
-      <c r="G64" s="219"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="G64" s="231"/>
       <c r="H64" s="84"/>
-      <c r="I64" s="200" t="s">
+      <c r="I64" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="J64" s="200"/>
-      <c r="K64" s="200" t="s">
+      <c r="J64" s="223"/>
+      <c r="K64" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L64" s="200"/>
-      <c r="M64" s="200"/>
-      <c r="N64" s="201" t="s">
+      <c r="L64" s="223"/>
+      <c r="M64" s="223"/>
+      <c r="N64" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="O64" s="201"/>
+      <c r="O64" s="212"/>
       <c r="P64" s="5">
         <v>0</v>
       </c>
-      <c r="Q64" s="201" t="s">
+      <c r="Q64" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="R64" s="201"/>
+      <c r="R64" s="212"/>
       <c r="S64" s="5">
         <v>0</v>
       </c>
@@ -18745,7 +18778,7 @@
       </c>
       <c r="AL64" s="20">
         <f>IF(V60=1,AJ59,(SUM(AJ59,AJ62,AL59,AL62))+(Z61*(SUM(AJ60,AJ63,AL60,AL63)))-(Z62*(AJ60+AJ63+AL60+AL63)))</f>
-        <v>5.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AM64" s="20" t="s">
         <v>62</v>
@@ -18759,52 +18792,52 @@
       </c>
       <c r="AP64" s="20">
         <f>IF(OR(AF61,AF62),AL64*AN64,AL64*(AN64+X60))</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="AQ64" s="203"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AQ64" s="221"/>
       <c r="AR64" s="20">
         <f>IF(AF65,AL64*IF(OR(AF61,AF62),AB59,AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AS64" s="203"/>
+      <c r="AS64" s="221"/>
       <c r="AT64" s="20">
         <f>IF(AF62,AL64-(AL64*AN64),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU64" s="203"/>
+      <c r="AU64" s="221"/>
       <c r="AV64" s="20">
         <f>(AN64+X60)*AT64</f>
         <v>0</v>
       </c>
-      <c r="AW64" s="203"/>
+      <c r="AW64" s="221"/>
       <c r="AX64" s="20">
         <f>IF(AF65,AT64*(AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AY64" s="203"/>
+      <c r="AY64" s="221"/>
       <c r="AZ64" s="20">
         <f t="shared" si="7"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="BA64" s="203"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="BA64" s="221"/>
       <c r="BB64" s="20">
         <f>IF(AB62&lt;0,((AZ64-(AR64+AX64))*(1-(V63+V59)))+((AX64+AR64)*(1-(V59+AB62))),AZ64*(1-(V59+V63)))</f>
-        <v>0.59259259259259267</v>
-      </c>
-      <c r="BC64" s="203"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="BC64" s="221"/>
       <c r="BD64" s="18">
         <f>IF(AB61&gt;0,((BB64-(AR64+AX64))*V64)+((AR64+AX64)*AB61),BB64*V64)</f>
-        <v>0.59259259259259267</v>
-      </c>
-      <c r="BE64" s="203"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="BE64" s="221"/>
       <c r="BF64" s="18">
         <f>(Z62*(AJ60+AJ63+AL60+AL63))+((AR64+AX64)*AB60)</f>
         <v>0</v>
       </c>
-      <c r="BG64" s="203"/>
+      <c r="BG64" s="221"/>
       <c r="BH64" s="181">
         <f t="shared" si="6"/>
-        <v>0.59259259259259267</v>
+        <v>0.74074074074074081</v>
       </c>
       <c r="BI64" s="124" t="s">
         <v>51</v>
@@ -18818,7 +18851,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="175"/>
       <c r="F65" s="51"/>
-      <c r="G65" s="219"/>
+      <c r="G65" s="231"/>
       <c r="H65" s="84"/>
       <c r="I65" s="185"/>
       <c r="J65" s="185"/>
@@ -18831,17 +18864,17 @@
       <c r="M65" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N65" s="201" t="s">
+      <c r="N65" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="O65" s="201"/>
+      <c r="O65" s="212"/>
       <c r="P65" s="5">
         <v>0</v>
       </c>
-      <c r="Q65" s="211" t="s">
+      <c r="Q65" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="R65" s="211"/>
+      <c r="R65" s="213"/>
       <c r="S65" s="5">
         <v>0</v>
       </c>
@@ -18913,13 +18946,13 @@
       </c>
       <c r="E66" s="180">
         <f>IFERROR(BJ60,NA())</f>
-        <v>1.3827160493827162</v>
+        <v>1.728395061728395</v>
       </c>
       <c r="F66" s="3">
         <f>IFERROR(E66/P60,NA())</f>
-        <v>0.6913580246913581</v>
-      </c>
-      <c r="G66" s="219"/>
+        <v>0.86419753086419748</v>
+      </c>
+      <c r="G66" s="231"/>
       <c r="H66" s="84"/>
       <c r="I66" s="80"/>
       <c r="J66" s="80"/>
@@ -19024,11 +19057,11 @@
     </row>
     <row r="68" spans="1:63" ht="15" customHeight="1">
       <c r="A68" s="152"/>
-      <c r="B68" s="220" t="str">
+      <c r="B68" s="224" t="str">
         <f>IF(I70="","",I70)</f>
         <v>Weapon 5</v>
       </c>
-      <c r="C68" s="220"/>
+      <c r="C68" s="224"/>
       <c r="D68" s="34"/>
       <c r="E68" s="177" t="s">
         <v>11</v>
@@ -19036,94 +19069,94 @@
       <c r="F68" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G68" s="222"/>
+      <c r="G68" s="226"/>
       <c r="H68" s="82"/>
-      <c r="I68" s="197" t="str">
+      <c r="I68" s="214" t="str">
         <f>IF(I70="","",I70)</f>
         <v>Weapon 5</v>
       </c>
-      <c r="J68" s="197"/>
-      <c r="K68" s="197"/>
-      <c r="L68" s="197"/>
-      <c r="M68" s="197"/>
-      <c r="N68" s="197"/>
-      <c r="O68" s="197"/>
-      <c r="P68" s="197"/>
-      <c r="Q68" s="197"/>
-      <c r="R68" s="197"/>
-      <c r="S68" s="197"/>
+      <c r="J68" s="214"/>
+      <c r="K68" s="214"/>
+      <c r="L68" s="214"/>
+      <c r="M68" s="214"/>
+      <c r="N68" s="214"/>
+      <c r="O68" s="214"/>
+      <c r="P68" s="214"/>
+      <c r="Q68" s="214"/>
+      <c r="R68" s="214"/>
+      <c r="S68" s="214"/>
       <c r="T68" s="83"/>
-      <c r="V68" s="209" t="s">
+      <c r="V68" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="W68" s="192"/>
-      <c r="X68" s="192"/>
-      <c r="Y68" s="192"/>
-      <c r="Z68" s="192"/>
-      <c r="AA68" s="192"/>
-      <c r="AB68" s="192"/>
-      <c r="AC68" s="192"/>
-      <c r="AD68" s="192" t="s">
+      <c r="W68" s="240"/>
+      <c r="X68" s="240"/>
+      <c r="Y68" s="240"/>
+      <c r="Z68" s="240"/>
+      <c r="AA68" s="240"/>
+      <c r="AB68" s="240"/>
+      <c r="AC68" s="240"/>
+      <c r="AD68" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="AE68" s="192"/>
-      <c r="AF68" s="192"/>
-      <c r="AG68" s="192"/>
-      <c r="AH68" s="187"/>
-      <c r="AI68" s="187"/>
-      <c r="AJ68" s="192" t="s">
+      <c r="AE68" s="240"/>
+      <c r="AF68" s="240"/>
+      <c r="AG68" s="240"/>
+      <c r="AH68" s="192"/>
+      <c r="AI68" s="192"/>
+      <c r="AJ68" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="AK68" s="192"/>
-      <c r="AL68" s="192"/>
-      <c r="AM68" s="192"/>
-      <c r="AN68" s="192"/>
-      <c r="AO68" s="192" t="s">
+      <c r="AK68" s="240"/>
+      <c r="AL68" s="240"/>
+      <c r="AM68" s="240"/>
+      <c r="AN68" s="240"/>
+      <c r="AO68" s="240" t="s">
         <v>89</v>
       </c>
-      <c r="AP68" s="192"/>
-      <c r="AQ68" s="192"/>
-      <c r="AR68" s="192"/>
-      <c r="AS68" s="192"/>
-      <c r="AT68" s="192"/>
-      <c r="AU68" s="192"/>
-      <c r="AV68" s="192"/>
-      <c r="AW68" s="192"/>
-      <c r="AX68" s="192"/>
-      <c r="AY68" s="192"/>
-      <c r="AZ68" s="192"/>
-      <c r="BA68" s="192"/>
-      <c r="BB68" s="192" t="s">
+      <c r="AP68" s="240"/>
+      <c r="AQ68" s="240"/>
+      <c r="AR68" s="240"/>
+      <c r="AS68" s="240"/>
+      <c r="AT68" s="240"/>
+      <c r="AU68" s="240"/>
+      <c r="AV68" s="240"/>
+      <c r="AW68" s="240"/>
+      <c r="AX68" s="240"/>
+      <c r="AY68" s="240"/>
+      <c r="AZ68" s="240"/>
+      <c r="BA68" s="240"/>
+      <c r="BB68" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="BC68" s="192"/>
-      <c r="BD68" s="192"/>
-      <c r="BE68" s="192"/>
-      <c r="BF68" s="192"/>
-      <c r="BG68" s="192"/>
-      <c r="BH68" s="192"/>
-      <c r="BI68" s="192"/>
-      <c r="BJ68" s="192" t="s">
+      <c r="BC68" s="240"/>
+      <c r="BD68" s="240"/>
+      <c r="BE68" s="240"/>
+      <c r="BF68" s="240"/>
+      <c r="BG68" s="240"/>
+      <c r="BH68" s="240"/>
+      <c r="BI68" s="240"/>
+      <c r="BJ68" s="240" t="s">
         <v>91</v>
       </c>
-      <c r="BK68" s="210"/>
+      <c r="BK68" s="241"/>
     </row>
     <row r="69" spans="1:63" ht="15" customHeight="1">
       <c r="A69" s="153"/>
-      <c r="B69" s="221"/>
-      <c r="C69" s="221"/>
+      <c r="B69" s="225"/>
+      <c r="C69" s="225"/>
       <c r="D69" s="41" t="s">
         <v>1</v>
       </c>
       <c r="E69" s="165">
         <f>IF(AND(AD69,AF76),BD69+BF69,NA())</f>
-        <v>0.69444444444444453</v>
+        <v>0.92592592592592615</v>
       </c>
       <c r="F69" s="30">
         <f>IFERROR(E69/P70,NA())</f>
-        <v>0.34722222222222227</v>
-      </c>
-      <c r="G69" s="223"/>
+        <v>0.46296296296296308</v>
+      </c>
+      <c r="G69" s="227"/>
       <c r="H69" s="84"/>
       <c r="I69" s="78" t="s">
         <v>13</v>
@@ -19149,8 +19182,8 @@
       <c r="P69" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Q69" s="201"/>
-      <c r="R69" s="201"/>
+      <c r="Q69" s="212"/>
+      <c r="R69" s="212"/>
       <c r="S69" s="79"/>
       <c r="T69" s="85"/>
       <c r="V69" s="160">
@@ -19202,7 +19235,7 @@
       </c>
       <c r="AJ69" s="20">
         <f>IF(OR(AF69,AF70),V71*V70,(V70+X69)*V71)</f>
-        <v>1</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="AK69" s="20" t="s">
         <v>77</v>
@@ -19223,77 +19256,77 @@
       </c>
       <c r="AP69" s="21">
         <f>IF(OR(AF71,AF72),AL74*AN69,AL74*(AN69+X70))</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="AQ69" s="203" t="s">
+        <v>1.1111111111111114</v>
+      </c>
+      <c r="AQ69" s="221" t="s">
         <v>77</v>
       </c>
       <c r="AR69" s="20">
         <f>IF(AF75,AL74*IF(OR(AF71,AF72),AB69,AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AS69" s="203" t="s">
+      <c r="AS69" s="221" t="s">
         <v>64</v>
       </c>
       <c r="AT69" s="20">
         <f>IF(AF72,AL74-(AL74*AN69),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU69" s="203" t="s">
+      <c r="AU69" s="221" t="s">
         <v>60</v>
       </c>
       <c r="AV69" s="20">
         <f>(AN69+X70)*AT69</f>
         <v>0</v>
       </c>
-      <c r="AW69" s="203" t="s">
+      <c r="AW69" s="221" t="s">
         <v>78</v>
       </c>
       <c r="AX69" s="20">
         <f>IF(AF75,AT69*(AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AY69" s="203" t="s">
+      <c r="AY69" s="221" t="s">
         <v>65</v>
       </c>
       <c r="AZ69" s="20">
         <f>AV69+AP69</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="BA69" s="203" t="s">
+        <v>1.1111111111111114</v>
+      </c>
+      <c r="BA69" s="221" t="s">
         <v>63</v>
       </c>
       <c r="BB69" s="20">
         <f>IF(AB72&lt;0,((AZ69-(AR69+AX69))*(1-(V73+V69)))+((AX69+AR69)*(1-(V69+AB72))),AZ69*(1-(V69+V73)))</f>
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="BC69" s="203" t="s">
+        <v>0.92592592592592615</v>
+      </c>
+      <c r="BC69" s="221" t="s">
         <v>68</v>
       </c>
       <c r="BD69" s="18">
         <f>IF(AB71&gt;0,((BB69-(AR69+AX69))*V74)+((AR69+AX69)*AB71),BB69*V74)</f>
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="BE69" s="203" t="s">
+        <v>0.92592592592592615</v>
+      </c>
+      <c r="BE69" s="221" t="s">
         <v>76</v>
       </c>
       <c r="BF69" s="18">
         <f>(Z72*(AJ70+AJ73+AL70+AL73))+((AR69+AX69)*AB70)</f>
         <v>0</v>
       </c>
-      <c r="BG69" s="203" t="s">
+      <c r="BG69" s="221" t="s">
         <v>69</v>
       </c>
       <c r="BH69" s="181">
         <f t="shared" ref="BH69:BH74" si="8">IF(AD69,BD69+BF69,NA())</f>
-        <v>0.69444444444444453</v>
+        <v>0.92592592592592615</v>
       </c>
       <c r="BI69" s="124" t="s">
         <v>46</v>
       </c>
       <c r="BJ69" s="18">
         <f>IFERROR(IF(AD69,E69,0)+IF(AD70,E70,0)+IF(AD71,E71,0)+IF(AD72,E72,0)+IF(AD73,E73,0)+IF(AD74,E74,0),NA())</f>
-        <v>3.4722222222222219</v>
+        <v>4.6296296296296298</v>
       </c>
       <c r="BK69" s="161" t="s">
         <v>82</v>
@@ -19301,20 +19334,20 @@
     </row>
     <row r="70" spans="1:63" ht="15" customHeight="1">
       <c r="A70" s="153"/>
-      <c r="B70" s="221"/>
-      <c r="C70" s="221"/>
+      <c r="B70" s="225"/>
+      <c r="C70" s="225"/>
       <c r="D70" s="41" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="165">
         <f>IF(AND(AD70,AF76),BD70+BF70,NA())</f>
-        <v>0.69444444444444453</v>
+        <v>0.92592592592592615</v>
       </c>
       <c r="F70" s="30">
         <f>IFERROR(E70/P70,NA())</f>
-        <v>0.34722222222222227</v>
-      </c>
-      <c r="G70" s="223"/>
+        <v>0.46296296296296308</v>
+      </c>
+      <c r="G70" s="227"/>
       <c r="H70" s="84"/>
       <c r="I70" s="4" t="s">
         <v>107</v>
@@ -19323,7 +19356,7 @@
         <v>20</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="L70" s="5">
         <v>2</v>
@@ -19340,13 +19373,13 @@
       <c r="P70" s="5">
         <v>2</v>
       </c>
-      <c r="Q70" s="201"/>
-      <c r="R70" s="201"/>
+      <c r="Q70" s="212"/>
+      <c r="R70" s="212"/>
       <c r="S70" s="79"/>
       <c r="T70" s="85"/>
       <c r="V70" s="160">
         <f>(IF(K70="D3",5/6,IF(K70="2D3",3/6,IF(K70="D6",3.5/6,IF(K70="Auto Hit",1,IF(K70="2+",5/6,IF(K70="3+",4/6,IF(K70="4+",3/6,IF(K70="5+",2/6,IF(K70="6+",1/6,0))))))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W70" s="12" t="s">
         <v>35</v>
@@ -19410,59 +19443,59 @@
       </c>
       <c r="AP70" s="21">
         <f>IF(OR(AF71,AF72),AL74*AN70,AL74*(AN70+X70))</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="AQ70" s="203"/>
+        <v>1.1111111111111114</v>
+      </c>
+      <c r="AQ70" s="221"/>
       <c r="AR70" s="20">
         <f>IF(AF75,AL74*IF(OR(AF71,AF72),AB69,AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AS70" s="203"/>
+      <c r="AS70" s="221"/>
       <c r="AT70" s="20">
         <f>IF(AF72,AL74-(AL74*AN70),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU70" s="203"/>
+      <c r="AU70" s="221"/>
       <c r="AV70" s="20">
         <f>(AN70+X70)*AT70</f>
         <v>0</v>
       </c>
-      <c r="AW70" s="203"/>
+      <c r="AW70" s="221"/>
       <c r="AX70" s="20">
         <f>IF(AF75,AT70*(AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AY70" s="203"/>
+      <c r="AY70" s="221"/>
       <c r="AZ70" s="20">
         <f t="shared" ref="AZ70:AZ74" si="9">AV70+AP70</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="BA70" s="203"/>
+        <v>1.1111111111111114</v>
+      </c>
+      <c r="BA70" s="221"/>
       <c r="BB70" s="20">
         <f>IF(AB72&lt;0,((AZ70-(AR70+AX70))*(1-(V73+V69)))+((AX70+AR70)*(1-(V69+AB72))),AZ70*(1-(V69+V73)))</f>
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="BC70" s="203"/>
+        <v>0.92592592592592615</v>
+      </c>
+      <c r="BC70" s="221"/>
       <c r="BD70" s="18">
         <f>IF(AB71&gt;0,((BB70-(AR70+AX70))*V74)+((AR70+AX70)*AB71),BB70*V74)</f>
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="BE70" s="203"/>
+        <v>0.92592592592592615</v>
+      </c>
+      <c r="BE70" s="221"/>
       <c r="BF70" s="18">
         <f>(Z72*(AJ70+AJ73+AL70+AL73))+((AR70+AX70)*AB70)</f>
         <v>0</v>
       </c>
-      <c r="BG70" s="203"/>
+      <c r="BG70" s="221"/>
       <c r="BH70" s="181">
         <f t="shared" si="8"/>
-        <v>0.69444444444444453</v>
+        <v>0.92592592592592615</v>
       </c>
       <c r="BI70" s="124" t="s">
         <v>47</v>
       </c>
       <c r="BJ70" s="18">
         <f>IFERROR(BJ69/AD75,NA())</f>
-        <v>0.57870370370370361</v>
+        <v>0.77160493827160492</v>
       </c>
       <c r="BK70" s="161" t="s">
         <v>11</v>
@@ -19470,32 +19503,32 @@
     </row>
     <row r="71" spans="1:63" ht="15" customHeight="1">
       <c r="A71" s="153"/>
-      <c r="B71" s="221"/>
-      <c r="C71" s="221"/>
+      <c r="B71" s="225"/>
+      <c r="C71" s="225"/>
       <c r="D71" s="41" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="165">
         <f>IF(AND(AD71,AF76),BD71+BF71,NA())</f>
-        <v>0.55555555555555558</v>
+        <v>0.74074074074074081</v>
       </c>
       <c r="F71" s="30">
         <f>IFERROR(E71/P70,NA())</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="G71" s="223"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="G71" s="227"/>
       <c r="H71" s="84"/>
-      <c r="I71" s="208"/>
-      <c r="J71" s="208"/>
-      <c r="K71" s="208"/>
-      <c r="L71" s="208"/>
-      <c r="M71" s="208"/>
-      <c r="N71" s="208"/>
-      <c r="O71" s="208"/>
-      <c r="P71" s="208"/>
-      <c r="Q71" s="208"/>
-      <c r="R71" s="208"/>
-      <c r="S71" s="208"/>
+      <c r="I71" s="222"/>
+      <c r="J71" s="222"/>
+      <c r="K71" s="222"/>
+      <c r="L71" s="222"/>
+      <c r="M71" s="222"/>
+      <c r="N71" s="222"/>
+      <c r="O71" s="222"/>
+      <c r="P71" s="222"/>
+      <c r="Q71" s="222"/>
+      <c r="R71" s="222"/>
+      <c r="S71" s="222"/>
       <c r="T71" s="85"/>
       <c r="V71" s="162">
         <f>(IF(L70="D3",2,IF(L70="2D3",4,IF(L70="D6",3.5,IF(L70="2D6",7,IF(L70="3D6",10.5,L70))))))</f>
@@ -19562,52 +19595,52 @@
       </c>
       <c r="AP71" s="21">
         <f>IF(OR(AF71,AF72),AL74*AN71,AL74*(AN71+X70))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AQ71" s="203"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AQ71" s="221"/>
       <c r="AR71" s="20">
         <f>IF(AF75,AL74*IF(OR(AF71,AF72),AB69,AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AS71" s="203"/>
+      <c r="AS71" s="221"/>
       <c r="AT71" s="20">
         <f>IF(AF72,AL74-(AL74*AN71),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU71" s="203"/>
+      <c r="AU71" s="221"/>
       <c r="AV71" s="20">
         <f>(AN71+X70)*AT71</f>
         <v>0</v>
       </c>
-      <c r="AW71" s="203"/>
+      <c r="AW71" s="221"/>
       <c r="AX71" s="20">
         <f>IF(AF75,AT71*(AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AY71" s="203"/>
+      <c r="AY71" s="221"/>
       <c r="AZ71" s="20">
         <f t="shared" si="9"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="BA71" s="203"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="BA71" s="221"/>
       <c r="BB71" s="20">
         <f>IF(AB72&lt;0,((AZ71-(AR71+AX71))*(1-(V73+V69)))+((AX71+AR71)*(1-(V69+AB72))),AZ71*(1-(V69+V73)))</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="BC71" s="203"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="BC71" s="221"/>
       <c r="BD71" s="18">
         <f>IF(AB71&gt;0,((BB71-(AR71+AX71))*V74)+((AR71+AX71)*AB71),BB71*V74)</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="BE71" s="203"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="BE71" s="221"/>
       <c r="BF71" s="18">
         <f>(Z72*(AJ70+AJ73+AL70+AL73))+((AR71+AX71)*AB70)</f>
         <v>0</v>
       </c>
-      <c r="BG71" s="203"/>
+      <c r="BG71" s="221"/>
       <c r="BH71" s="181">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>0.74074074074074081</v>
       </c>
       <c r="BI71" s="124" t="s">
         <v>48</v>
@@ -19623,13 +19656,13 @@
       </c>
       <c r="E72" s="165">
         <f>IF(AND(AD72,AF76),BD72+BF72,NA())</f>
-        <v>0.55555555555555558</v>
+        <v>0.74074074074074081</v>
       </c>
       <c r="F72" s="30">
         <f>IFERROR(E72/P70,NA())</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="G72" s="223"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="G72" s="227"/>
       <c r="H72" s="84"/>
       <c r="I72" s="185" t="str">
         <f>"+- to hit"</f>
@@ -19646,17 +19679,17 @@
       <c r="M72" s="5">
         <v>0</v>
       </c>
-      <c r="N72" s="201" t="s">
+      <c r="N72" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="O72" s="201"/>
+      <c r="O72" s="212"/>
       <c r="P72" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q72" s="201" t="s">
+      <c r="Q72" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="R72" s="201"/>
+      <c r="R72" s="212"/>
       <c r="S72" s="5" t="s">
         <v>19</v>
       </c>
@@ -19726,52 +19759,52 @@
       </c>
       <c r="AP72" s="21">
         <f>IF(OR(AF71,AF72),AL74*AN72,AL74*(AN72+X70))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AQ72" s="203"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AQ72" s="221"/>
       <c r="AR72" s="20">
         <f>IF(AF75,AL74*IF(OR(AF71,AF72),AB69,AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AS72" s="203"/>
+      <c r="AS72" s="221"/>
       <c r="AT72" s="20">
         <f>IF(AF72,AL74-(AL74*AN72),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU72" s="203"/>
+      <c r="AU72" s="221"/>
       <c r="AV72" s="20">
         <f>(AN72+X70)*AT72</f>
         <v>0</v>
       </c>
-      <c r="AW72" s="203"/>
+      <c r="AW72" s="221"/>
       <c r="AX72" s="20">
         <f>IF(AF75,AT72*(AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AY72" s="203"/>
+      <c r="AY72" s="221"/>
       <c r="AZ72" s="20">
         <f t="shared" si="9"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="BA72" s="203"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="BA72" s="221"/>
       <c r="BB72" s="20">
         <f>IF(AB72&lt;0,((AZ72-(AR72+AX72))*(1-(V73+V69)))+((AX72+AR72)*(1-(V69+AB72))),AZ72*(1-(V69+V73)))</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="BC72" s="203"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="BC72" s="221"/>
       <c r="BD72" s="18">
         <f>IF(AB71&gt;0,((BB72-(AR72+AX72))*V74)+((AR72+AX72)*AB71),BB72*V74)</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="BE72" s="203"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="BE72" s="221"/>
       <c r="BF72" s="18">
         <f>(Z72*(AJ70+AJ73+AL70+AL73))+((AR72+AX72)*AB70)</f>
         <v>0</v>
       </c>
-      <c r="BG72" s="203"/>
+      <c r="BG72" s="221"/>
       <c r="BH72" s="181">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>0.74074074074074081</v>
       </c>
       <c r="BI72" s="124" t="s">
         <v>49</v>
@@ -19787,34 +19820,34 @@
       </c>
       <c r="E73" s="165">
         <f>IF(AND(AD73,AF76),BD73+BF73,NA())</f>
-        <v>0.55555555555555558</v>
+        <v>0.74074074074074081</v>
       </c>
       <c r="F73" s="30">
         <f>IFERROR(E73/P70,NA())</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="G73" s="223"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="G73" s="227"/>
       <c r="H73" s="87"/>
       <c r="I73" s="80"/>
       <c r="J73" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K73" s="201" t="s">
+      <c r="K73" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="L73" s="201"/>
-      <c r="M73" s="201"/>
-      <c r="N73" s="201" t="s">
+      <c r="L73" s="212"/>
+      <c r="M73" s="212"/>
+      <c r="N73" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="O73" s="201"/>
+      <c r="O73" s="212"/>
       <c r="P73" s="5">
         <v>0</v>
       </c>
-      <c r="Q73" s="201" t="s">
+      <c r="Q73" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="R73" s="201"/>
+      <c r="R73" s="212"/>
       <c r="S73" s="5">
         <v>0</v>
       </c>
@@ -19869,52 +19902,52 @@
       </c>
       <c r="AP73" s="21">
         <f>IF(OR(AF71,AF72),AL74*AN73,AL74*(AN73+X70))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AQ73" s="203"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AQ73" s="221"/>
       <c r="AR73" s="20">
         <f>IF(AF75,AL74*IF(OR(AF71,AF72),AB69,AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AS73" s="203"/>
+      <c r="AS73" s="221"/>
       <c r="AT73" s="20">
         <f>IF(AF72,AL74-(AL74*AN73),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU73" s="203"/>
+      <c r="AU73" s="221"/>
       <c r="AV73" s="20">
         <f>(AN73+X70)*AT73</f>
         <v>0</v>
       </c>
-      <c r="AW73" s="203"/>
+      <c r="AW73" s="221"/>
       <c r="AX73" s="20">
         <f>IF(AF75,AT73*(AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AY73" s="203"/>
+      <c r="AY73" s="221"/>
       <c r="AZ73" s="20">
         <f t="shared" si="9"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="BA73" s="203"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="BA73" s="221"/>
       <c r="BB73" s="20">
         <f>IF(AB72&lt;0,((AZ73-(AR73+AX73))*(1-(V73+V69)))+((AX73+AR73)*(1-(V69+AB72))),AZ73*(1-(V69+V73)))</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="BC73" s="203"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="BC73" s="221"/>
       <c r="BD73" s="18">
         <f>IF(AB71&gt;0,((BB73-(AR73+AX73))*V74)+((AR73+AX73)*AB71),BB73*V74)</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="BE73" s="203"/>
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="BE73" s="221"/>
       <c r="BF73" s="18">
         <f>(Z72*(AJ70+AJ73+AL70+AL73))+((AR73+AX73)*AB70)</f>
         <v>0</v>
       </c>
-      <c r="BG73" s="203"/>
+      <c r="BG73" s="221"/>
       <c r="BH73" s="181">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>0.74074074074074081</v>
       </c>
       <c r="BI73" s="124" t="s">
         <v>50</v>
@@ -19930,34 +19963,34 @@
       </c>
       <c r="E74" s="165">
         <f>IF(AND(AD74,AF76),BD74+BF74,NA())</f>
-        <v>0.41666666666666669</v>
+        <v>0.55555555555555569</v>
       </c>
       <c r="F74" s="30">
         <f>IFERROR(E74/P70,NA())</f>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="G74" s="223"/>
+        <v>0.27777777777777785</v>
+      </c>
+      <c r="G74" s="227"/>
       <c r="H74" s="84"/>
-      <c r="I74" s="200" t="s">
+      <c r="I74" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="J74" s="200"/>
-      <c r="K74" s="200" t="s">
+      <c r="J74" s="223"/>
+      <c r="K74" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L74" s="200"/>
-      <c r="M74" s="200"/>
-      <c r="N74" s="201" t="s">
+      <c r="L74" s="223"/>
+      <c r="M74" s="223"/>
+      <c r="N74" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="O74" s="201"/>
+      <c r="O74" s="212"/>
       <c r="P74" s="5">
         <v>0</v>
       </c>
-      <c r="Q74" s="201" t="s">
+      <c r="Q74" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="R74" s="201"/>
+      <c r="R74" s="212"/>
       <c r="S74" s="5">
         <v>0</v>
       </c>
@@ -19999,7 +20032,7 @@
       </c>
       <c r="AL74" s="20">
         <f>IF(V70=1,AJ69,(SUM(AJ69,AJ72,AL69,AL72))+(Z71*(SUM(AJ70,AJ73,AL70,AL73)))-(Z72*(AJ70+AJ73+AL70+AL73)))</f>
-        <v>1</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="AM74" s="20" t="s">
         <v>62</v>
@@ -20013,52 +20046,52 @@
       </c>
       <c r="AP74" s="20">
         <f>IF(OR(AF71,AF72),AL74*AN74,AL74*(AN74+X70))</f>
-        <v>0.5</v>
-      </c>
-      <c r="AQ74" s="203"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AQ74" s="221"/>
       <c r="AR74" s="20">
         <f>IF(AF75,AL74*IF(OR(AF71,AF72),AB69,AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AS74" s="203"/>
+      <c r="AS74" s="221"/>
       <c r="AT74" s="20">
         <f>IF(AF72,AL74-(AL74*AN74),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU74" s="203"/>
+      <c r="AU74" s="221"/>
       <c r="AV74" s="20">
         <f>(AN74+X70)*AT74</f>
         <v>0</v>
       </c>
-      <c r="AW74" s="203"/>
+      <c r="AW74" s="221"/>
       <c r="AX74" s="20">
         <f>IF(AF75,AT74*(AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AY74" s="203"/>
+      <c r="AY74" s="221"/>
       <c r="AZ74" s="20">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="BA74" s="203"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="BA74" s="221"/>
       <c r="BB74" s="20">
         <f>IF(AB72&lt;0,((AZ74-(AR74+AX74))*(1-(V73+V69)))+((AX74+AR74)*(1-(V69+AB72))),AZ74*(1-(V69+V73)))</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="BC74" s="203"/>
+        <v>0.55555555555555569</v>
+      </c>
+      <c r="BC74" s="221"/>
       <c r="BD74" s="18">
         <f>IF(AB71&gt;0,((BB74-(AR74+AX74))*V74)+((AR74+AX74)*AB71),BB74*V74)</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="BE74" s="203"/>
+        <v>0.55555555555555569</v>
+      </c>
+      <c r="BE74" s="221"/>
       <c r="BF74" s="18">
         <f>(Z72*(AJ70+AJ73+AL70+AL73))+((AR74+AX74)*AB70)</f>
         <v>0</v>
       </c>
-      <c r="BG74" s="203"/>
+      <c r="BG74" s="221"/>
       <c r="BH74" s="181">
         <f t="shared" si="8"/>
-        <v>0.41666666666666669</v>
+        <v>0.55555555555555569</v>
       </c>
       <c r="BI74" s="124" t="s">
         <v>51</v>
@@ -20072,7 +20105,7 @@
       <c r="D75" s="49"/>
       <c r="E75" s="178"/>
       <c r="F75" s="49"/>
-      <c r="G75" s="223"/>
+      <c r="G75" s="227"/>
       <c r="H75" s="84"/>
       <c r="I75" s="185"/>
       <c r="J75" s="185"/>
@@ -20085,17 +20118,17 @@
       <c r="M75" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N75" s="201" t="s">
+      <c r="N75" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="O75" s="201"/>
+      <c r="O75" s="212"/>
       <c r="P75" s="5">
         <v>0</v>
       </c>
-      <c r="Q75" s="211" t="s">
+      <c r="Q75" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="R75" s="211"/>
+      <c r="R75" s="213"/>
       <c r="S75" s="5">
         <v>0</v>
       </c>
@@ -20167,13 +20200,13 @@
       </c>
       <c r="E76" s="180">
         <f>IFERROR(BJ70,NA())</f>
-        <v>0.57870370370370361</v>
+        <v>0.77160493827160492</v>
       </c>
       <c r="F76" s="3">
         <f>IFERROR(E76/P70,NA())</f>
-        <v>0.2893518518518518</v>
-      </c>
-      <c r="G76" s="223"/>
+        <v>0.38580246913580246</v>
+      </c>
+      <c r="G76" s="227"/>
       <c r="H76" s="84"/>
       <c r="I76" s="80"/>
       <c r="J76" s="80"/>
@@ -20278,11 +20311,11 @@
     </row>
     <row r="78" spans="1:63" ht="15" customHeight="1">
       <c r="A78" s="155"/>
-      <c r="B78" s="230" t="str">
+      <c r="B78" s="193" t="str">
         <f>IF(I80="","",I80)</f>
         <v>Wapon 6</v>
       </c>
-      <c r="C78" s="230"/>
+      <c r="C78" s="193"/>
       <c r="D78" s="36"/>
       <c r="E78" s="37" t="s">
         <v>11</v>
@@ -20290,94 +20323,94 @@
       <c r="F78" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="232"/>
+      <c r="G78" s="195"/>
       <c r="H78" s="82"/>
-      <c r="I78" s="197" t="str">
+      <c r="I78" s="214" t="str">
         <f>IF(I80="","",I80)</f>
         <v>Wapon 6</v>
       </c>
-      <c r="J78" s="197"/>
-      <c r="K78" s="197"/>
-      <c r="L78" s="197"/>
-      <c r="M78" s="197"/>
-      <c r="N78" s="197"/>
-      <c r="O78" s="197"/>
-      <c r="P78" s="197"/>
-      <c r="Q78" s="197"/>
-      <c r="R78" s="197"/>
-      <c r="S78" s="197"/>
+      <c r="J78" s="214"/>
+      <c r="K78" s="214"/>
+      <c r="L78" s="214"/>
+      <c r="M78" s="214"/>
+      <c r="N78" s="214"/>
+      <c r="O78" s="214"/>
+      <c r="P78" s="214"/>
+      <c r="Q78" s="214"/>
+      <c r="R78" s="214"/>
+      <c r="S78" s="214"/>
       <c r="T78" s="83"/>
-      <c r="V78" s="209" t="s">
+      <c r="V78" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="W78" s="192"/>
-      <c r="X78" s="192"/>
-      <c r="Y78" s="192"/>
-      <c r="Z78" s="192"/>
-      <c r="AA78" s="192"/>
-      <c r="AB78" s="192"/>
-      <c r="AC78" s="192"/>
-      <c r="AD78" s="192" t="s">
+      <c r="W78" s="240"/>
+      <c r="X78" s="240"/>
+      <c r="Y78" s="240"/>
+      <c r="Z78" s="240"/>
+      <c r="AA78" s="240"/>
+      <c r="AB78" s="240"/>
+      <c r="AC78" s="240"/>
+      <c r="AD78" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="AE78" s="192"/>
-      <c r="AF78" s="192"/>
-      <c r="AG78" s="192"/>
-      <c r="AH78" s="187"/>
-      <c r="AI78" s="187"/>
-      <c r="AJ78" s="192" t="s">
+      <c r="AE78" s="240"/>
+      <c r="AF78" s="240"/>
+      <c r="AG78" s="240"/>
+      <c r="AH78" s="192"/>
+      <c r="AI78" s="192"/>
+      <c r="AJ78" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="AK78" s="192"/>
-      <c r="AL78" s="192"/>
-      <c r="AM78" s="192"/>
-      <c r="AN78" s="192"/>
-      <c r="AO78" s="192" t="s">
+      <c r="AK78" s="240"/>
+      <c r="AL78" s="240"/>
+      <c r="AM78" s="240"/>
+      <c r="AN78" s="240"/>
+      <c r="AO78" s="240" t="s">
         <v>89</v>
       </c>
-      <c r="AP78" s="192"/>
-      <c r="AQ78" s="192"/>
-      <c r="AR78" s="192"/>
-      <c r="AS78" s="192"/>
-      <c r="AT78" s="192"/>
-      <c r="AU78" s="192"/>
-      <c r="AV78" s="192"/>
-      <c r="AW78" s="192"/>
-      <c r="AX78" s="192"/>
-      <c r="AY78" s="192"/>
-      <c r="AZ78" s="192"/>
-      <c r="BA78" s="192"/>
-      <c r="BB78" s="192" t="s">
+      <c r="AP78" s="240"/>
+      <c r="AQ78" s="240"/>
+      <c r="AR78" s="240"/>
+      <c r="AS78" s="240"/>
+      <c r="AT78" s="240"/>
+      <c r="AU78" s="240"/>
+      <c r="AV78" s="240"/>
+      <c r="AW78" s="240"/>
+      <c r="AX78" s="240"/>
+      <c r="AY78" s="240"/>
+      <c r="AZ78" s="240"/>
+      <c r="BA78" s="240"/>
+      <c r="BB78" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="BC78" s="192"/>
-      <c r="BD78" s="192"/>
-      <c r="BE78" s="192"/>
-      <c r="BF78" s="192"/>
-      <c r="BG78" s="192"/>
-      <c r="BH78" s="192"/>
-      <c r="BI78" s="192"/>
-      <c r="BJ78" s="192" t="s">
+      <c r="BC78" s="240"/>
+      <c r="BD78" s="240"/>
+      <c r="BE78" s="240"/>
+      <c r="BF78" s="240"/>
+      <c r="BG78" s="240"/>
+      <c r="BH78" s="240"/>
+      <c r="BI78" s="240"/>
+      <c r="BJ78" s="240" t="s">
         <v>91</v>
       </c>
-      <c r="BK78" s="210"/>
+      <c r="BK78" s="241"/>
     </row>
     <row r="79" spans="1:63" ht="15" customHeight="1">
       <c r="A79" s="156"/>
-      <c r="B79" s="231"/>
-      <c r="C79" s="231"/>
+      <c r="B79" s="194"/>
+      <c r="C79" s="194"/>
       <c r="D79" s="48" t="s">
         <v>1</v>
       </c>
       <c r="E79" s="165">
         <f>IF(AND(AD79,AF86),BD79+BF79,NA())</f>
-        <v>0.14814814814814817</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="F79" s="30">
         <f>IFERROR(E79/P80,NA())</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="G79" s="233"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="G79" s="196"/>
       <c r="H79" s="84"/>
       <c r="I79" s="78" t="s">
         <v>13</v>
@@ -20403,8 +20436,8 @@
       <c r="P79" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Q79" s="201"/>
-      <c r="R79" s="201"/>
+      <c r="Q79" s="212"/>
+      <c r="R79" s="212"/>
       <c r="S79" s="79"/>
       <c r="T79" s="85"/>
       <c r="V79" s="160">
@@ -20456,7 +20489,7 @@
       </c>
       <c r="AJ79" s="20">
         <f>IF(OR(AF79,AF80),V81*V80,(V80+X79)*V81)</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AK79" s="20" t="s">
         <v>77</v>
@@ -20477,77 +20510,77 @@
       </c>
       <c r="AP79" s="21">
         <f>IF(OR(AF81,AF82),AL84*AN79,AL84*(AN79+X80))</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="AQ79" s="203" t="s">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AQ79" s="221" t="s">
         <v>77</v>
       </c>
       <c r="AR79" s="20">
         <f>IF(AF85,AL84*IF(OR(AF81,AF82),AB79,AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AS79" s="203" t="s">
+      <c r="AS79" s="221" t="s">
         <v>64</v>
       </c>
       <c r="AT79" s="20">
         <f>IF(AF82,AL84-(AL84*AN79),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU79" s="203" t="s">
+      <c r="AU79" s="221" t="s">
         <v>60</v>
       </c>
       <c r="AV79" s="20">
         <f>(AN79+X80)*AT79</f>
         <v>0</v>
       </c>
-      <c r="AW79" s="203" t="s">
+      <c r="AW79" s="221" t="s">
         <v>78</v>
       </c>
       <c r="AX79" s="20">
         <f>IF(AF85,AT79*(AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AY79" s="203" t="s">
+      <c r="AY79" s="221" t="s">
         <v>65</v>
       </c>
       <c r="AZ79" s="20">
         <f>AV79+AP79</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="BA79" s="203" t="s">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="BA79" s="221" t="s">
         <v>63</v>
       </c>
       <c r="BB79" s="20">
         <f>IF(AB82&lt;0,((AZ79-(AR79+AX79))*(1-(V83+V79)))+((AX79+AR79)*(1-(V79+AB82))),AZ79*(1-(V79+V83)))</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="BC79" s="203" t="s">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="BC79" s="221" t="s">
         <v>68</v>
       </c>
       <c r="BD79" s="18">
         <f>IF(AB81&gt;0,((BB79-(AR79+AX79))*V84)+((AR79+AX79)*AB81),BB79*V84)</f>
-        <v>0.14814814814814817</v>
-      </c>
-      <c r="BE79" s="203" t="s">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="BE79" s="221" t="s">
         <v>76</v>
       </c>
       <c r="BF79" s="18">
         <f>(Z82*(AJ80+AJ83+AL80+AL83))+((AR79+AX79)*AB80)</f>
         <v>0</v>
       </c>
-      <c r="BG79" s="203" t="s">
+      <c r="BG79" s="221" t="s">
         <v>69</v>
       </c>
       <c r="BH79" s="181">
         <f t="shared" ref="BH79:BH84" si="10">IF(AD79,BD79+BF79,NA())</f>
-        <v>0.14814814814814817</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="BI79" s="124" t="s">
         <v>46</v>
       </c>
       <c r="BJ79" s="18">
         <f>IFERROR(IF(AD79,E79,0)+IF(AD80,E80,0)+IF(AD81,E81,0)+IF(AD82,E82,0)+IF(AD83,E83,0)+IF(AD84,E84,0),NA())</f>
-        <v>0.5185185185185186</v>
+        <v>0.64814814814814814</v>
       </c>
       <c r="BK79" s="161" t="s">
         <v>82</v>
@@ -20555,20 +20588,20 @@
     </row>
     <row r="80" spans="1:63" ht="15" customHeight="1">
       <c r="A80" s="156"/>
-      <c r="B80" s="231"/>
-      <c r="C80" s="231"/>
+      <c r="B80" s="194"/>
+      <c r="C80" s="194"/>
       <c r="D80" s="48" t="s">
         <v>2</v>
       </c>
       <c r="E80" s="165">
         <f>IF(AND(AD80,AF86),BD80+BF80,NA())</f>
-        <v>0.11111111111111112</v>
+        <v>0.13888888888888892</v>
       </c>
       <c r="F80" s="30">
         <f>IFERROR(E80/P80,NA())</f>
-        <v>5.5555555555555559E-2</v>
-      </c>
-      <c r="G80" s="233"/>
+        <v>6.9444444444444461E-2</v>
+      </c>
+      <c r="G80" s="196"/>
       <c r="H80" s="84"/>
       <c r="I80" s="4" t="s">
         <v>108</v>
@@ -20577,7 +20610,7 @@
         <v>20</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="L80" s="5">
         <v>1</v>
@@ -20594,13 +20627,13 @@
       <c r="P80" s="5">
         <v>2</v>
       </c>
-      <c r="Q80" s="201"/>
-      <c r="R80" s="201"/>
+      <c r="Q80" s="212"/>
+      <c r="R80" s="212"/>
       <c r="S80" s="79"/>
       <c r="T80" s="85"/>
       <c r="V80" s="160">
         <f>(IF(K80="D3",5/6,IF(K80="2D3",3/6,IF(K80="D6",3.5/6,IF(K80="Auto Hit",1,IF(K80="2+",5/6,IF(K80="3+",4/6,IF(K80="4+",3/6,IF(K80="5+",2/6,IF(K80="6+",1/6,0))))))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W80" s="12" t="s">
         <v>35</v>
@@ -20664,59 +20697,59 @@
       </c>
       <c r="AP80" s="21">
         <f>IF(OR(AF81,AF82),AL84*AN80,AL84*(AN80+X80))</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AQ80" s="203"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AQ80" s="221"/>
       <c r="AR80" s="20">
         <f>IF(AF85,AL84*IF(OR(AF81,AF82),AB79,AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AS80" s="203"/>
+      <c r="AS80" s="221"/>
       <c r="AT80" s="20">
         <f>IF(AF82,AL84-(AL84*AN80),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU80" s="203"/>
+      <c r="AU80" s="221"/>
       <c r="AV80" s="20">
         <f>(AN80+X80)*AT80</f>
         <v>0</v>
       </c>
-      <c r="AW80" s="203"/>
+      <c r="AW80" s="221"/>
       <c r="AX80" s="20">
         <f>IF(AF85,AT80*(AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AY80" s="203"/>
+      <c r="AY80" s="221"/>
       <c r="AZ80" s="20">
         <f t="shared" ref="AZ80:AZ84" si="11">AV80+AP80</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="BA80" s="203"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="BA80" s="221"/>
       <c r="BB80" s="20">
         <f>IF(AB82&lt;0,((AZ80-(AR80+AX80))*(1-(V83+V79)))+((AX80+AR80)*(1-(V79+AB82))),AZ80*(1-(V79+V83)))</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="BC80" s="203"/>
+        <v>0.13888888888888892</v>
+      </c>
+      <c r="BC80" s="221"/>
       <c r="BD80" s="18">
         <f>IF(AB81&gt;0,((BB80-(AR80+AX80))*V84)+((AR80+AX80)*AB81),BB80*V84)</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="BE80" s="203"/>
+        <v>0.13888888888888892</v>
+      </c>
+      <c r="BE80" s="221"/>
       <c r="BF80" s="18">
         <f>(Z82*(AJ80+AJ83+AL80+AL83))+((AR80+AX80)*AB80)</f>
         <v>0</v>
       </c>
-      <c r="BG80" s="203"/>
+      <c r="BG80" s="221"/>
       <c r="BH80" s="181">
         <f t="shared" si="10"/>
-        <v>0.11111111111111112</v>
+        <v>0.13888888888888892</v>
       </c>
       <c r="BI80" s="124" t="s">
         <v>47</v>
       </c>
       <c r="BJ80" s="18">
         <f>IFERROR(BJ79/AD85,NA())</f>
-        <v>8.6419753086419762E-2</v>
+        <v>0.10802469135802469</v>
       </c>
       <c r="BK80" s="161" t="s">
         <v>11</v>
@@ -20724,32 +20757,32 @@
     </row>
     <row r="81" spans="1:75" ht="15" customHeight="1">
       <c r="A81" s="156"/>
-      <c r="B81" s="231"/>
-      <c r="C81" s="231"/>
+      <c r="B81" s="194"/>
+      <c r="C81" s="194"/>
       <c r="D81" s="48" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="165">
         <f>IF(AND(AD81,AF86),BD81+BF81,NA())</f>
-        <v>7.4074074074074084E-2</v>
+        <v>9.2592592592592601E-2</v>
       </c>
       <c r="F81" s="30">
         <f>IFERROR(E81/P80,NA())</f>
-        <v>3.7037037037037042E-2</v>
-      </c>
-      <c r="G81" s="233"/>
+        <v>4.6296296296296301E-2</v>
+      </c>
+      <c r="G81" s="196"/>
       <c r="H81" s="84"/>
-      <c r="I81" s="208"/>
-      <c r="J81" s="208"/>
-      <c r="K81" s="208"/>
-      <c r="L81" s="208"/>
-      <c r="M81" s="208"/>
-      <c r="N81" s="208"/>
-      <c r="O81" s="208"/>
-      <c r="P81" s="208"/>
-      <c r="Q81" s="208"/>
-      <c r="R81" s="208"/>
-      <c r="S81" s="208"/>
+      <c r="I81" s="222"/>
+      <c r="J81" s="222"/>
+      <c r="K81" s="222"/>
+      <c r="L81" s="222"/>
+      <c r="M81" s="222"/>
+      <c r="N81" s="222"/>
+      <c r="O81" s="222"/>
+      <c r="P81" s="222"/>
+      <c r="Q81" s="222"/>
+      <c r="R81" s="222"/>
+      <c r="S81" s="222"/>
       <c r="T81" s="85"/>
       <c r="V81" s="162">
         <f>(IF(L80="D3",2,IF(L80="2D3",4,IF(L80="D6",3.5,IF(L80="2D6",7,IF(L80="3D6",10.5,L80))))))</f>
@@ -20816,52 +20849,52 @@
       </c>
       <c r="AP81" s="21">
         <f>IF(OR(AF81,AF82),AL84*AN81,AL84*(AN81+X80))</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="AQ81" s="203"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AQ81" s="221"/>
       <c r="AR81" s="20">
         <f>IF(AF85,AL84*IF(OR(AF81,AF82),AB79,AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AS81" s="203"/>
+      <c r="AS81" s="221"/>
       <c r="AT81" s="20">
         <f>IF(AF82,AL84-(AL84*AN81),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU81" s="203"/>
+      <c r="AU81" s="221"/>
       <c r="AV81" s="20">
         <f>(AN81+X80)*AT81</f>
         <v>0</v>
       </c>
-      <c r="AW81" s="203"/>
+      <c r="AW81" s="221"/>
       <c r="AX81" s="20">
         <f>IF(AF85,AT81*(AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AY81" s="203"/>
+      <c r="AY81" s="221"/>
       <c r="AZ81" s="20">
         <f t="shared" si="11"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="BA81" s="203"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="BA81" s="221"/>
       <c r="BB81" s="20">
         <f>IF(AB82&lt;0,((AZ81-(AR81+AX81))*(1-(V83+V79)))+((AX81+AR81)*(1-(V79+AB82))),AZ81*(1-(V79+V83)))</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="BC81" s="203"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="BC81" s="221"/>
       <c r="BD81" s="18">
         <f>IF(AB81&gt;0,((BB81-(AR81+AX81))*V84)+((AR81+AX81)*AB81),BB81*V84)</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="BE81" s="203"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="BE81" s="221"/>
       <c r="BF81" s="18">
         <f>(Z82*(AJ80+AJ83+AL80+AL83))+((AR81+AX81)*AB80)</f>
         <v>0</v>
       </c>
-      <c r="BG81" s="203"/>
+      <c r="BG81" s="221"/>
       <c r="BH81" s="181">
         <f t="shared" si="10"/>
-        <v>7.4074074074074084E-2</v>
+        <v>9.2592592592592601E-2</v>
       </c>
       <c r="BI81" s="124" t="s">
         <v>48</v>
@@ -20877,13 +20910,13 @@
       </c>
       <c r="E82" s="165">
         <f>IF(AND(AD82,AF86),BD82+BF82,NA())</f>
-        <v>7.4074074074074084E-2</v>
+        <v>9.2592592592592601E-2</v>
       </c>
       <c r="F82" s="30">
         <f>IFERROR(E82/P80,NA())</f>
-        <v>3.7037037037037042E-2</v>
-      </c>
-      <c r="G82" s="233"/>
+        <v>4.6296296296296301E-2</v>
+      </c>
+      <c r="G82" s="196"/>
       <c r="H82" s="84"/>
       <c r="I82" s="185" t="str">
         <f>"+- to hit"</f>
@@ -20900,17 +20933,17 @@
       <c r="M82" s="5">
         <v>0</v>
       </c>
-      <c r="N82" s="201" t="s">
+      <c r="N82" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="O82" s="201"/>
+      <c r="O82" s="212"/>
       <c r="P82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q82" s="201" t="s">
+      <c r="Q82" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="R82" s="201"/>
+      <c r="R82" s="212"/>
       <c r="S82" s="5" t="s">
         <v>19</v>
       </c>
@@ -20980,52 +21013,52 @@
       </c>
       <c r="AP82" s="21">
         <f>IF(OR(AF81,AF82),AL84*AN82,AL84*(AN82+X80))</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="AQ82" s="203"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AQ82" s="221"/>
       <c r="AR82" s="20">
         <f>IF(AF85,AL84*IF(OR(AF81,AF82),AB79,AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AS82" s="203"/>
+      <c r="AS82" s="221"/>
       <c r="AT82" s="20">
         <f>IF(AF82,AL84-(AL84*AN82),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU82" s="203"/>
+      <c r="AU82" s="221"/>
       <c r="AV82" s="20">
         <f>(AN82+X80)*AT82</f>
         <v>0</v>
       </c>
-      <c r="AW82" s="203"/>
+      <c r="AW82" s="221"/>
       <c r="AX82" s="20">
         <f>IF(AF85,AT82*(AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AY82" s="203"/>
+      <c r="AY82" s="221"/>
       <c r="AZ82" s="20">
         <f t="shared" si="11"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="BA82" s="203"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="BA82" s="221"/>
       <c r="BB82" s="20">
         <f>IF(AB82&lt;0,((AZ82-(AR82+AX82))*(1-(V83+V79)))+((AX82+AR82)*(1-(V79+AB82))),AZ82*(1-(V79+V83)))</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="BC82" s="203"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="BC82" s="221"/>
       <c r="BD82" s="18">
         <f>IF(AB81&gt;0,((BB82-(AR82+AX82))*V84)+((AR82+AX82)*AB81),BB82*V84)</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="BE82" s="203"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="BE82" s="221"/>
       <c r="BF82" s="18">
         <f>(Z82*(AJ80+AJ83+AL80+AL83))+((AR82+AX82)*AB80)</f>
         <v>0</v>
       </c>
-      <c r="BG82" s="203"/>
+      <c r="BG82" s="221"/>
       <c r="BH82" s="181">
         <f t="shared" si="10"/>
-        <v>7.4074074074074084E-2</v>
+        <v>9.2592592592592601E-2</v>
       </c>
       <c r="BI82" s="124" t="s">
         <v>49</v>
@@ -21041,34 +21074,34 @@
       </c>
       <c r="E83" s="165">
         <f>IF(AND(AD83,AF86),BD83+BF83,NA())</f>
-        <v>7.4074074074074084E-2</v>
+        <v>9.2592592592592601E-2</v>
       </c>
       <c r="F83" s="30">
         <f>IFERROR(E83/P80,NA())</f>
-        <v>3.7037037037037042E-2</v>
-      </c>
-      <c r="G83" s="233"/>
+        <v>4.6296296296296301E-2</v>
+      </c>
+      <c r="G83" s="196"/>
       <c r="H83" s="87"/>
       <c r="I83" s="80"/>
       <c r="J83" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="201" t="s">
+      <c r="K83" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="L83" s="201"/>
-      <c r="M83" s="201"/>
-      <c r="N83" s="201" t="s">
+      <c r="L83" s="212"/>
+      <c r="M83" s="212"/>
+      <c r="N83" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="O83" s="201"/>
+      <c r="O83" s="212"/>
       <c r="P83" s="5">
         <v>0</v>
       </c>
-      <c r="Q83" s="201" t="s">
+      <c r="Q83" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="R83" s="201"/>
+      <c r="R83" s="212"/>
       <c r="S83" s="5">
         <v>0</v>
       </c>
@@ -21123,52 +21156,52 @@
       </c>
       <c r="AP83" s="21">
         <f>IF(OR(AF81,AF82),AL84*AN83,AL84*(AN83+X80))</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="AQ83" s="203"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AQ83" s="221"/>
       <c r="AR83" s="20">
         <f>IF(AF85,AL84*IF(OR(AF81,AF82),AB79,AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AS83" s="203"/>
+      <c r="AS83" s="221"/>
       <c r="AT83" s="20">
         <f>IF(AF82,AL84-(AL84*AN83),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU83" s="203"/>
+      <c r="AU83" s="221"/>
       <c r="AV83" s="20">
         <f>(AN83+X80)*AT83</f>
         <v>0</v>
       </c>
-      <c r="AW83" s="203"/>
+      <c r="AW83" s="221"/>
       <c r="AX83" s="20">
         <f>IF(AF85,AT83*(AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AY83" s="203"/>
+      <c r="AY83" s="221"/>
       <c r="AZ83" s="20">
         <f t="shared" si="11"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="BA83" s="203"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="BA83" s="221"/>
       <c r="BB83" s="20">
         <f>IF(AB82&lt;0,((AZ83-(AR83+AX83))*(1-(V83+V79)))+((AX83+AR83)*(1-(V79+AB82))),AZ83*(1-(V79+V83)))</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="BC83" s="203"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="BC83" s="221"/>
       <c r="BD83" s="18">
         <f>IF(AB81&gt;0,((BB83-(AR83+AX83))*V84)+((AR83+AX83)*AB81),BB83*V84)</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="BE83" s="203"/>
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="BE83" s="221"/>
       <c r="BF83" s="18">
         <f>(Z82*(AJ80+AJ83+AL80+AL83))+((AR83+AX83)*AB80)</f>
         <v>0</v>
       </c>
-      <c r="BG83" s="203"/>
+      <c r="BG83" s="221"/>
       <c r="BH83" s="181">
         <f t="shared" si="10"/>
-        <v>7.4074074074074084E-2</v>
+        <v>9.2592592592592601E-2</v>
       </c>
       <c r="BI83" s="124" t="s">
         <v>50</v>
@@ -21184,34 +21217,34 @@
       </c>
       <c r="E84" s="165">
         <f>IF(AND(AD84,AF86),BD84+BF84,NA())</f>
-        <v>3.7037037037037042E-2</v>
+        <v>4.6296296296296301E-2</v>
       </c>
       <c r="F84" s="30">
         <f>IFERROR(E84/P80,NA())</f>
-        <v>1.8518518518518521E-2</v>
-      </c>
-      <c r="G84" s="233"/>
+        <v>2.314814814814815E-2</v>
+      </c>
+      <c r="G84" s="196"/>
       <c r="H84" s="84"/>
-      <c r="I84" s="200" t="s">
+      <c r="I84" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="J84" s="200"/>
-      <c r="K84" s="200" t="s">
+      <c r="J84" s="223"/>
+      <c r="K84" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L84" s="200"/>
-      <c r="M84" s="200"/>
-      <c r="N84" s="201" t="s">
+      <c r="L84" s="223"/>
+      <c r="M84" s="223"/>
+      <c r="N84" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="O84" s="201"/>
+      <c r="O84" s="212"/>
       <c r="P84" s="5">
         <v>0</v>
       </c>
-      <c r="Q84" s="201" t="s">
+      <c r="Q84" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="R84" s="201"/>
+      <c r="R84" s="212"/>
       <c r="S84" s="5">
         <v>0</v>
       </c>
@@ -21253,7 +21286,7 @@
       </c>
       <c r="AL84" s="20">
         <f>IF(V80=1,AJ79,(SUM(AJ79,AJ82,AL79,AL82))+(Z81*(SUM(AJ80,AJ83,AL80,AL83)))-(Z82*(AJ80+AJ83+AL80+AL83)))</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AM84" s="20" t="s">
         <v>62</v>
@@ -21267,52 +21300,52 @@
       </c>
       <c r="AP84" s="20">
         <f>IF(OR(AF81,AF82),AL84*AN84,AL84*(AN84+X80))</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AQ84" s="203"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="AQ84" s="221"/>
       <c r="AR84" s="20">
         <f>IF(AF85,AL84*IF(OR(AF81,AF82),AB79,AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AS84" s="203"/>
+      <c r="AS84" s="221"/>
       <c r="AT84" s="20">
         <f>IF(AF82,AL84-(AL84*AN84),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU84" s="203"/>
+      <c r="AU84" s="221"/>
       <c r="AV84" s="20">
         <f>(AN84+X80)*AT84</f>
         <v>0</v>
       </c>
-      <c r="AW84" s="203"/>
+      <c r="AW84" s="221"/>
       <c r="AX84" s="20">
         <f>IF(AF85,AT84*(AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AY84" s="203"/>
+      <c r="AY84" s="221"/>
       <c r="AZ84" s="20">
         <f t="shared" si="11"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="BA84" s="203"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="BA84" s="221"/>
       <c r="BB84" s="20">
         <f>IF(AB82&lt;0,((AZ84-(AR84+AX84))*(1-(V83+V79)))+((AX84+AR84)*(1-(V79+AB82))),AZ84*(1-(V79+V83)))</f>
-        <v>3.7037037037037042E-2</v>
-      </c>
-      <c r="BC84" s="203"/>
+        <v>4.6296296296296301E-2</v>
+      </c>
+      <c r="BC84" s="221"/>
       <c r="BD84" s="18">
         <f>IF(AB81&gt;0,((BB84-(AR84+AX84))*V84)+((AR84+AX84)*AB81),BB84*V84)</f>
-        <v>3.7037037037037042E-2</v>
-      </c>
-      <c r="BE84" s="203"/>
+        <v>4.6296296296296301E-2</v>
+      </c>
+      <c r="BE84" s="221"/>
       <c r="BF84" s="18">
         <f>(Z82*(AJ80+AJ83+AL80+AL83))+((AR84+AX84)*AB80)</f>
         <v>0</v>
       </c>
-      <c r="BG84" s="203"/>
+      <c r="BG84" s="221"/>
       <c r="BH84" s="181">
         <f t="shared" si="10"/>
-        <v>3.7037037037037042E-2</v>
+        <v>4.6296296296296301E-2</v>
       </c>
       <c r="BI84" s="124" t="s">
         <v>51</v>
@@ -21326,7 +21359,7 @@
       <c r="D85" s="48"/>
       <c r="E85" s="48"/>
       <c r="F85" s="48"/>
-      <c r="G85" s="233"/>
+      <c r="G85" s="196"/>
       <c r="H85" s="84"/>
       <c r="I85" s="185"/>
       <c r="J85" s="185"/>
@@ -21339,17 +21372,17 @@
       <c r="M85" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N85" s="201" t="s">
+      <c r="N85" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="O85" s="201"/>
+      <c r="O85" s="212"/>
       <c r="P85" s="5">
         <v>0</v>
       </c>
-      <c r="Q85" s="211" t="s">
+      <c r="Q85" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="R85" s="211"/>
+      <c r="R85" s="213"/>
       <c r="S85" s="5">
         <v>0</v>
       </c>
@@ -21421,13 +21454,13 @@
       </c>
       <c r="E86" s="180">
         <f>IFERROR(BJ80,NA())</f>
-        <v>8.6419753086419762E-2</v>
+        <v>0.10802469135802469</v>
       </c>
       <c r="F86" s="3">
         <f>IFERROR(E86/P80,NA())</f>
-        <v>4.3209876543209881E-2</v>
-      </c>
-      <c r="G86" s="233"/>
+        <v>5.4012345679012343E-2</v>
+      </c>
+      <c r="G86" s="196"/>
       <c r="H86" s="84"/>
       <c r="I86" s="80"/>
       <c r="J86" s="80"/>
@@ -21510,25 +21543,48 @@
       <c r="R87" s="90"/>
       <c r="S87" s="90"/>
       <c r="T87" s="91"/>
-      <c r="V87" s="163"/>
-      <c r="W87" s="20"/>
-      <c r="X87" s="20"/>
-      <c r="Y87" s="23"/>
-      <c r="Z87" s="20"/>
-      <c r="AA87" s="20"/>
-      <c r="AB87" s="20"/>
-      <c r="AC87" s="20"/>
-      <c r="AD87" s="20"/>
-      <c r="AE87" s="20"/>
-      <c r="AF87" s="187"/>
-      <c r="AG87" s="187"/>
-      <c r="AH87" s="187"/>
-      <c r="AI87" s="187"/>
-      <c r="AJ87" s="20"/>
-      <c r="AK87" s="20"/>
-      <c r="AL87" s="20"/>
-      <c r="AM87" s="20"/>
-      <c r="BK87" s="117"/>
+      <c r="V87" s="247"/>
+      <c r="W87" s="248"/>
+      <c r="X87" s="248"/>
+      <c r="Y87" s="249"/>
+      <c r="Z87" s="248"/>
+      <c r="AA87" s="248"/>
+      <c r="AB87" s="248"/>
+      <c r="AC87" s="248"/>
+      <c r="AD87" s="248"/>
+      <c r="AE87" s="248"/>
+      <c r="AF87" s="250"/>
+      <c r="AG87" s="250"/>
+      <c r="AH87" s="250"/>
+      <c r="AI87" s="250"/>
+      <c r="AJ87" s="248"/>
+      <c r="AK87" s="248"/>
+      <c r="AL87" s="248"/>
+      <c r="AM87" s="248"/>
+      <c r="AN87" s="251"/>
+      <c r="AO87" s="251"/>
+      <c r="AP87" s="251"/>
+      <c r="AQ87" s="251"/>
+      <c r="AR87" s="251"/>
+      <c r="AS87" s="251"/>
+      <c r="AT87" s="251"/>
+      <c r="AU87" s="251"/>
+      <c r="AV87" s="251"/>
+      <c r="AW87" s="251"/>
+      <c r="AX87" s="251"/>
+      <c r="AY87" s="251"/>
+      <c r="AZ87" s="251"/>
+      <c r="BA87" s="251"/>
+      <c r="BB87" s="251"/>
+      <c r="BC87" s="251"/>
+      <c r="BD87" s="251"/>
+      <c r="BE87" s="251"/>
+      <c r="BF87" s="251"/>
+      <c r="BG87" s="251"/>
+      <c r="BH87" s="251"/>
+      <c r="BI87" s="251"/>
+      <c r="BJ87" s="141"/>
+      <c r="BK87" s="119"/>
     </row>
     <row r="88" spans="1:75" s="13" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A88" s="43"/>
@@ -21555,11 +21611,11 @@
       <c r="BW88" s="26"/>
     </row>
     <row r="89" spans="1:75" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A89" s="224" t="s">
+      <c r="A89" s="215" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="225"/>
-      <c r="C89" s="225"/>
+      <c r="B89" s="216"/>
+      <c r="C89" s="216"/>
       <c r="D89" s="96"/>
       <c r="E89" s="97" t="s">
         <v>11</v>
@@ -21567,7 +21623,7 @@
       <c r="F89" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="228"/>
+      <c r="G89" s="219"/>
       <c r="I89" s="78" t="s">
         <v>13</v>
       </c>
@@ -21580,26 +21636,26 @@
       <c r="N89" s="95"/>
       <c r="O89" s="95"/>
       <c r="U89" s="17"/>
-      <c r="V89" s="209" t="s">
+      <c r="V89" s="203" t="s">
         <v>92</v>
       </c>
-      <c r="W89" s="192"/>
-      <c r="X89" s="192"/>
-      <c r="Y89" s="192"/>
-      <c r="Z89" s="192"/>
-      <c r="AA89" s="192"/>
-      <c r="AB89" s="192"/>
-      <c r="AC89" s="192"/>
-      <c r="AD89" s="192" t="s">
+      <c r="W89" s="204"/>
+      <c r="X89" s="204"/>
+      <c r="Y89" s="204"/>
+      <c r="Z89" s="204"/>
+      <c r="AA89" s="204"/>
+      <c r="AB89" s="204"/>
+      <c r="AC89" s="204"/>
+      <c r="AD89" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="AE89" s="192"/>
-      <c r="AF89" s="192"/>
-      <c r="AG89" s="192"/>
-      <c r="AH89" s="192" t="s">
+      <c r="AE89" s="204"/>
+      <c r="AF89" s="204"/>
+      <c r="AG89" s="204"/>
+      <c r="AH89" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="AI89" s="192"/>
+      <c r="AI89" s="204"/>
       <c r="BK89" s="117"/>
       <c r="BL89" s="26"/>
       <c r="BM89" s="26"/>
@@ -21615,9 +21671,9 @@
       <c r="BW89" s="26"/>
     </row>
     <row r="90" spans="1:75" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A90" s="226"/>
-      <c r="B90" s="227"/>
-      <c r="C90" s="227"/>
+      <c r="A90" s="217"/>
+      <c r="B90" s="218"/>
+      <c r="C90" s="218"/>
       <c r="D90" s="98" t="s">
         <v>1</v>
       </c>
@@ -21629,7 +21685,7 @@
         <f>IFERROR(E90/J90,NA())</f>
         <v>0</v>
       </c>
-      <c r="G90" s="229"/>
+      <c r="G90" s="220"/>
       <c r="I90" s="4"/>
       <c r="J90" s="5">
         <v>118</v>
@@ -21675,9 +21731,9 @@
       <c r="BW90" s="26"/>
     </row>
     <row r="91" spans="1:75" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A91" s="226"/>
-      <c r="B91" s="227"/>
-      <c r="C91" s="227"/>
+      <c r="A91" s="217"/>
+      <c r="B91" s="218"/>
+      <c r="C91" s="218"/>
       <c r="D91" s="98" t="s">
         <v>2</v>
       </c>
@@ -21689,7 +21745,7 @@
         <f>IFERROR(E91/J90,NA())</f>
         <v>0</v>
       </c>
-      <c r="G91" s="229"/>
+      <c r="G91" s="220"/>
       <c r="U91" s="17"/>
       <c r="V91" s="163">
         <f>SUM(IF(V35=1,IFERROR(BH30,0),0),IF(V45=1,IFERROR(BH40,0),0),IF(V55=1,IFERROR(BH50,0),0),IF(V65=1,IFERROR(BH60,0),0),IF(V75=1,IFERROR(BH70,0),0),IF(V85=1,IFERROR(BH80,0),0))</f>
@@ -21726,9 +21782,9 @@
       <c r="BW91" s="26"/>
     </row>
     <row r="92" spans="1:75" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A92" s="226"/>
-      <c r="B92" s="227"/>
-      <c r="C92" s="227"/>
+      <c r="A92" s="217"/>
+      <c r="B92" s="218"/>
+      <c r="C92" s="218"/>
       <c r="D92" s="98" t="s">
         <v>3</v>
       </c>
@@ -21740,7 +21796,7 @@
         <f>IFERROR(E92/J90,NA())</f>
         <v>0</v>
       </c>
-      <c r="G92" s="229"/>
+      <c r="G92" s="220"/>
       <c r="U92" s="17"/>
       <c r="V92" s="163">
         <f>SUM(IF(V35=1,IFERROR(BH31,0),0),IF(V45=1,IFERROR(BH41,0),0),IF(V55=1,IFERROR(BH51,0),0),IF(V65=1,IFERROR(BH61,0),0),IF(V75=1,IFERROR(BH71,0),0),IF(V85=1,IFERROR(BH81,0),0))</f>
@@ -21770,9 +21826,9 @@
       <c r="BW92" s="26"/>
     </row>
     <row r="93" spans="1:75" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A93" s="226"/>
-      <c r="B93" s="227"/>
-      <c r="C93" s="227"/>
+      <c r="A93" s="217"/>
+      <c r="B93" s="218"/>
+      <c r="C93" s="218"/>
       <c r="D93" s="98" t="s">
         <v>4</v>
       </c>
@@ -21784,7 +21840,7 @@
         <f>IFERROR(E93/J90,NA())</f>
         <v>0</v>
       </c>
-      <c r="G93" s="229"/>
+      <c r="G93" s="220"/>
       <c r="U93" s="17"/>
       <c r="V93" s="163">
         <f>SUM(IF(V35=1,IFERROR(BH32,0),0),IF(V45=1,IFERROR(BH42,0),0),IF(V55=1,IFERROR(BH52,0),0),IF(V65=1,IFERROR(BH62,0),0),IF(V75=1,IFERROR(BH72,0),0),IF(V85=1,IFERROR(BH82,0),0))</f>
@@ -21814,9 +21870,9 @@
       <c r="BW93" s="26"/>
     </row>
     <row r="94" spans="1:75" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A94" s="226"/>
-      <c r="B94" s="227"/>
-      <c r="C94" s="227"/>
+      <c r="A94" s="217"/>
+      <c r="B94" s="218"/>
+      <c r="C94" s="218"/>
       <c r="D94" s="98" t="s">
         <v>5</v>
       </c>
@@ -21828,7 +21884,7 @@
         <f>IFERROR(E94/J90,NA())</f>
         <v>0</v>
       </c>
-      <c r="G94" s="229"/>
+      <c r="G94" s="220"/>
       <c r="U94" s="17"/>
       <c r="V94" s="163">
         <f>SUM(IF(V35=1,IFERROR(BH33,0),0),IF(V45=1,IFERROR(BH43,0),0),IF(V55=1,IFERROR(BH53,0),0),IF(V65=1,IFERROR(BH63,0),0),IF(V75=1,IFERROR(BH73,0),0),IF(V85=1,IFERROR(BH83,0),0))</f>
@@ -21872,7 +21928,7 @@
         <f>IFERROR(E95/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G95" s="229"/>
+      <c r="G95" s="220"/>
       <c r="U95" s="17"/>
       <c r="V95" s="163">
         <f>SUM(IF(V35=1,IFERROR(BH34,0),0),IF(V45=1,IFERROR(BH44,0),0),IF(V55=1,IFERROR(BH54,0),0),IF(V65=1,IFERROR(BH64,0),0),IF(V75=1,IFERROR(BH74,0),0),IF(V85=1,IFERROR(BH84,0),0))</f>
@@ -21908,7 +21964,7 @@
       <c r="D96" s="98"/>
       <c r="E96" s="98"/>
       <c r="F96" s="98"/>
-      <c r="G96" s="229"/>
+      <c r="G96" s="220"/>
       <c r="U96" s="17"/>
       <c r="V96" s="116"/>
       <c r="AD96" s="18">
@@ -21953,7 +22009,7 @@
         <f>IFERROR(E97/J90,NA())</f>
         <v>0</v>
       </c>
-      <c r="G97" s="229"/>
+      <c r="G97" s="220"/>
       <c r="U97" s="17"/>
       <c r="V97" s="116"/>
       <c r="BK97" s="117"/>
@@ -21995,11 +22051,11 @@
       <c r="BW98" s="26"/>
     </row>
     <row r="99" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A99" s="240" t="s">
+      <c r="A99" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="B99" s="241"/>
-      <c r="C99" s="241"/>
+      <c r="B99" s="206"/>
+      <c r="C99" s="206"/>
       <c r="D99" s="106"/>
       <c r="E99" s="107" t="s">
         <v>11</v>
@@ -22007,7 +22063,7 @@
       <c r="F99" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="244"/>
+      <c r="G99" s="209"/>
       <c r="I99" s="78" t="s">
         <v>13</v>
       </c>
@@ -22015,27 +22071,54 @@
         <v>8</v>
       </c>
       <c r="U99" s="17"/>
-      <c r="V99" s="209" t="s">
+      <c r="V99" s="246" t="s">
         <v>92</v>
       </c>
-      <c r="W99" s="192"/>
-      <c r="X99" s="192"/>
-      <c r="Y99" s="192"/>
-      <c r="Z99" s="192"/>
-      <c r="AA99" s="192"/>
-      <c r="AB99" s="192"/>
-      <c r="AC99" s="192"/>
-      <c r="AD99" s="192" t="s">
+      <c r="W99" s="240"/>
+      <c r="X99" s="240"/>
+      <c r="Y99" s="240"/>
+      <c r="Z99" s="240"/>
+      <c r="AA99" s="240"/>
+      <c r="AB99" s="240"/>
+      <c r="AC99" s="240"/>
+      <c r="AD99" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="AE99" s="192"/>
-      <c r="AF99" s="192"/>
-      <c r="AG99" s="192"/>
-      <c r="AH99" s="192" t="s">
+      <c r="AE99" s="240"/>
+      <c r="AF99" s="240"/>
+      <c r="AG99" s="240"/>
+      <c r="AH99" s="240" t="s">
         <v>91</v>
       </c>
-      <c r="AI99" s="192"/>
-      <c r="BK99" s="117"/>
+      <c r="AI99" s="240"/>
+      <c r="AJ99" s="43"/>
+      <c r="AK99" s="43"/>
+      <c r="AL99" s="43"/>
+      <c r="AM99" s="43"/>
+      <c r="AN99" s="43"/>
+      <c r="AO99" s="43"/>
+      <c r="AP99" s="43"/>
+      <c r="AQ99" s="43"/>
+      <c r="AR99" s="43"/>
+      <c r="AS99" s="43"/>
+      <c r="AT99" s="43"/>
+      <c r="AU99" s="43"/>
+      <c r="AV99" s="43"/>
+      <c r="AW99" s="43"/>
+      <c r="AX99" s="43"/>
+      <c r="AY99" s="43"/>
+      <c r="AZ99" s="43"/>
+      <c r="BA99" s="43"/>
+      <c r="BB99" s="43"/>
+      <c r="BC99" s="43"/>
+      <c r="BD99" s="43"/>
+      <c r="BE99" s="43"/>
+      <c r="BF99" s="43"/>
+      <c r="BG99" s="43"/>
+      <c r="BH99" s="43"/>
+      <c r="BI99" s="43"/>
+      <c r="BJ99" s="43"/>
+      <c r="BK99" s="252"/>
       <c r="BL99" s="26"/>
       <c r="BM99" s="26"/>
       <c r="BN99" s="26"/>
@@ -22050,9 +22133,9 @@
       <c r="BW99" s="26"/>
     </row>
     <row r="100" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A100" s="242"/>
-      <c r="B100" s="243"/>
-      <c r="C100" s="243"/>
+      <c r="A100" s="207"/>
+      <c r="B100" s="208"/>
+      <c r="C100" s="208"/>
       <c r="D100" s="108" t="s">
         <v>1</v>
       </c>
@@ -22064,7 +22147,7 @@
         <f>IFERROR(E100/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G100" s="245"/>
+      <c r="G100" s="210"/>
       <c r="I100" s="4"/>
       <c r="J100" s="5">
         <v>138</v>
@@ -22105,9 +22188,9 @@
       <c r="BW100" s="26"/>
     </row>
     <row r="101" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A101" s="242"/>
-      <c r="B101" s="243"/>
-      <c r="C101" s="243"/>
+      <c r="A101" s="207"/>
+      <c r="B101" s="208"/>
+      <c r="C101" s="208"/>
       <c r="D101" s="108" t="s">
         <v>2</v>
       </c>
@@ -22119,7 +22202,7 @@
         <f>IFERROR(E101/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G101" s="245"/>
+      <c r="G101" s="210"/>
       <c r="U101" s="17"/>
       <c r="V101" s="163">
         <f>SUM(IF(V35=2,IFERROR(BH30,0),0),IF(V45=2,IFERROR(BH40,0),0),IF(V55=2,IFERROR(BH50,0),0),IF(V65=2,IFERROR(BH60,0),0),IF(V75=2,IFERROR(BH70,0),0),IF(V85=2,IFERROR(BH80,0),0))</f>
@@ -22156,9 +22239,9 @@
       <c r="BW101" s="26"/>
     </row>
     <row r="102" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A102" s="242"/>
-      <c r="B102" s="243"/>
-      <c r="C102" s="243"/>
+      <c r="A102" s="207"/>
+      <c r="B102" s="208"/>
+      <c r="C102" s="208"/>
       <c r="D102" s="108" t="s">
         <v>3</v>
       </c>
@@ -22170,7 +22253,7 @@
         <f>IFERROR(E102/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G102" s="245"/>
+      <c r="G102" s="210"/>
       <c r="U102" s="17"/>
       <c r="V102" s="163">
         <f>SUM(IF(V35=2,IFERROR(BH31,0),0),IF(V45=2,IFERROR(BH41,0),0),IF(V55=2,IFERROR(BH51,0),0),IF(V65=2,IFERROR(BH61,0),0),IF(V75=2,IFERROR(BH71,0),0),IF(V85=2,IFERROR(BH81,0),0))</f>
@@ -22200,9 +22283,9 @@
       <c r="BW102" s="26"/>
     </row>
     <row r="103" spans="1:88" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A103" s="242"/>
-      <c r="B103" s="243"/>
-      <c r="C103" s="243"/>
+      <c r="A103" s="207"/>
+      <c r="B103" s="208"/>
+      <c r="C103" s="208"/>
       <c r="D103" s="108" t="s">
         <v>4</v>
       </c>
@@ -22214,7 +22297,7 @@
         <f>IFERROR(E103/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G103" s="245"/>
+      <c r="G103" s="210"/>
       <c r="U103" s="45"/>
       <c r="V103" s="163">
         <f>SUM(IF(V35=2,IFERROR(BH32,0),0),IF(V45=2,IFERROR(BH42,0),0),IF(V55=2,IFERROR(BH52,0),0),IF(V65=2,IFERROR(BH62,0),0),IF(V75=2,IFERROR(BH72,0),0),IF(V85=2,IFERROR(BH82,0),0))</f>
@@ -22245,9 +22328,9 @@
       <c r="CI103" s="46"/>
     </row>
     <row r="104" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A104" s="242"/>
-      <c r="B104" s="243"/>
-      <c r="C104" s="243"/>
+      <c r="A104" s="207"/>
+      <c r="B104" s="208"/>
+      <c r="C104" s="208"/>
       <c r="D104" s="108" t="s">
         <v>5</v>
       </c>
@@ -22259,7 +22342,7 @@
         <f>IFERROR(E104/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G104" s="245"/>
+      <c r="G104" s="210"/>
       <c r="U104" s="17"/>
       <c r="V104" s="163">
         <f>SUM(IF(V35=2,IFERROR(BH33,0),0),IF(V45=2,IFERROR(BH43,0),0),IF(V55=2,IFERROR(BH53,0),0),IF(V65=2,IFERROR(BH63,0),0),IF(V75=2,IFERROR(BH73,0),0),IF(V85=2,IFERROR(BH83,0),0))</f>
@@ -22306,7 +22389,7 @@
         <f>IFERROR(E105/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G105" s="245"/>
+      <c r="G105" s="210"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
@@ -22357,7 +22440,7 @@
       <c r="D106" s="108"/>
       <c r="E106" s="108"/>
       <c r="F106" s="108"/>
-      <c r="G106" s="245"/>
+      <c r="G106" s="210"/>
       <c r="I106" s="17"/>
       <c r="J106" s="26"/>
       <c r="K106" s="26"/>
@@ -22417,7 +22500,7 @@
         <f>IFERROR(E107/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G107" s="245"/>
+      <c r="G107" s="210"/>
       <c r="I107" s="17"/>
       <c r="J107" s="26"/>
       <c r="K107" s="26"/>
@@ -22489,11 +22572,11 @@
       <c r="CJ108" s="47"/>
     </row>
     <row r="109" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A109" s="234" t="s">
+      <c r="A109" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="235"/>
-      <c r="C109" s="235"/>
+      <c r="B109" s="198"/>
+      <c r="C109" s="198"/>
       <c r="D109" s="142"/>
       <c r="E109" s="143" t="s">
         <v>11</v>
@@ -22501,7 +22584,7 @@
       <c r="F109" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="G109" s="238"/>
+      <c r="G109" s="201"/>
       <c r="I109" s="78" t="s">
         <v>13</v>
       </c>
@@ -22519,27 +22602,54 @@
       <c r="S109" s="26"/>
       <c r="T109" s="26"/>
       <c r="U109" s="17"/>
-      <c r="V109" s="209" t="s">
+      <c r="V109" s="246" t="s">
         <v>92</v>
       </c>
-      <c r="W109" s="192"/>
-      <c r="X109" s="192"/>
-      <c r="Y109" s="192"/>
-      <c r="Z109" s="192"/>
-      <c r="AA109" s="192"/>
-      <c r="AB109" s="192"/>
-      <c r="AC109" s="192"/>
-      <c r="AD109" s="192" t="s">
+      <c r="W109" s="240"/>
+      <c r="X109" s="240"/>
+      <c r="Y109" s="240"/>
+      <c r="Z109" s="240"/>
+      <c r="AA109" s="240"/>
+      <c r="AB109" s="240"/>
+      <c r="AC109" s="240"/>
+      <c r="AD109" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="AE109" s="192"/>
-      <c r="AF109" s="192"/>
-      <c r="AG109" s="192"/>
-      <c r="AH109" s="192" t="s">
+      <c r="AE109" s="240"/>
+      <c r="AF109" s="240"/>
+      <c r="AG109" s="240"/>
+      <c r="AH109" s="240" t="s">
         <v>91</v>
       </c>
-      <c r="AI109" s="192"/>
-      <c r="BK109" s="117"/>
+      <c r="AI109" s="240"/>
+      <c r="AJ109" s="43"/>
+      <c r="AK109" s="43"/>
+      <c r="AL109" s="43"/>
+      <c r="AM109" s="43"/>
+      <c r="AN109" s="43"/>
+      <c r="AO109" s="43"/>
+      <c r="AP109" s="43"/>
+      <c r="AQ109" s="43"/>
+      <c r="AR109" s="43"/>
+      <c r="AS109" s="43"/>
+      <c r="AT109" s="43"/>
+      <c r="AU109" s="43"/>
+      <c r="AV109" s="43"/>
+      <c r="AW109" s="43"/>
+      <c r="AX109" s="43"/>
+      <c r="AY109" s="43"/>
+      <c r="AZ109" s="43"/>
+      <c r="BA109" s="43"/>
+      <c r="BB109" s="43"/>
+      <c r="BC109" s="43"/>
+      <c r="BD109" s="43"/>
+      <c r="BE109" s="43"/>
+      <c r="BF109" s="43"/>
+      <c r="BG109" s="43"/>
+      <c r="BH109" s="43"/>
+      <c r="BI109" s="43"/>
+      <c r="BJ109" s="43"/>
+      <c r="BK109" s="252"/>
       <c r="BL109" s="26"/>
       <c r="BM109" s="26"/>
       <c r="BN109" s="26"/>
@@ -22557,9 +22667,9 @@
       <c r="CJ109" s="47"/>
     </row>
     <row r="110" spans="1:88" s="13" customFormat="1">
-      <c r="A110" s="236"/>
-      <c r="B110" s="237"/>
-      <c r="C110" s="237"/>
+      <c r="A110" s="199"/>
+      <c r="B110" s="200"/>
+      <c r="C110" s="200"/>
       <c r="D110" s="144" t="s">
         <v>1</v>
       </c>
@@ -22571,7 +22681,7 @@
         <f>IFERROR(E110/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G110" s="239"/>
+      <c r="G110" s="202"/>
       <c r="I110" s="4"/>
       <c r="J110" s="5">
         <v>12</v>
@@ -22622,9 +22732,9 @@
       <c r="BW110" s="26"/>
     </row>
     <row r="111" spans="1:88" s="13" customFormat="1">
-      <c r="A111" s="236"/>
-      <c r="B111" s="237"/>
-      <c r="C111" s="237"/>
+      <c r="A111" s="199"/>
+      <c r="B111" s="200"/>
+      <c r="C111" s="200"/>
       <c r="D111" s="144" t="s">
         <v>2</v>
       </c>
@@ -22636,7 +22746,7 @@
         <f>IFERROR(E111/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G111" s="239"/>
+      <c r="G111" s="202"/>
       <c r="I111" s="17"/>
       <c r="J111" s="26"/>
       <c r="K111" s="17"/>
@@ -22685,9 +22795,9 @@
       <c r="BW111" s="26"/>
     </row>
     <row r="112" spans="1:88" s="13" customFormat="1">
-      <c r="A112" s="236"/>
-      <c r="B112" s="237"/>
-      <c r="C112" s="237"/>
+      <c r="A112" s="199"/>
+      <c r="B112" s="200"/>
+      <c r="C112" s="200"/>
       <c r="D112" s="144" t="s">
         <v>3</v>
       </c>
@@ -22699,7 +22809,7 @@
         <f>IFERROR(E112/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G112" s="239"/>
+      <c r="G112" s="202"/>
       <c r="I112" s="17"/>
       <c r="J112" s="26"/>
       <c r="K112" s="17"/>
@@ -22741,9 +22851,9 @@
       <c r="BW112" s="26"/>
     </row>
     <row r="113" spans="1:75" s="13" customFormat="1">
-      <c r="A113" s="236"/>
-      <c r="B113" s="237"/>
-      <c r="C113" s="237"/>
+      <c r="A113" s="199"/>
+      <c r="B113" s="200"/>
+      <c r="C113" s="200"/>
       <c r="D113" s="144" t="s">
         <v>4</v>
       </c>
@@ -22755,7 +22865,7 @@
         <f>IFERROR(E113/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G113" s="239"/>
+      <c r="G113" s="202"/>
       <c r="I113" s="17"/>
       <c r="J113" s="26"/>
       <c r="K113" s="17"/>
@@ -22807,9 +22917,9 @@
       <c r="BW113" s="26"/>
     </row>
     <row r="114" spans="1:75" s="13" customFormat="1">
-      <c r="A114" s="236"/>
-      <c r="B114" s="237"/>
-      <c r="C114" s="237"/>
+      <c r="A114" s="199"/>
+      <c r="B114" s="200"/>
+      <c r="C114" s="200"/>
       <c r="D114" s="144" t="s">
         <v>5</v>
       </c>
@@ -22821,7 +22931,7 @@
         <f>IFERROR(E114/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G114" s="239"/>
+      <c r="G114" s="202"/>
       <c r="U114" s="17"/>
       <c r="V114" s="163">
         <f>SUM(IF(V35=3,IFERROR(BH33,0),0),IF(V45=3,IFERROR(BH43,0),0),IF(V55=3,IFERROR(BH53,0),0),IF(V65=3,IFERROR(BH63,0),0),IF(V75=3,IFERROR(BH73,0),0),IF(V85=3,IFERROR(BH83,0),0))</f>
@@ -22865,7 +22975,7 @@
         <f>IFERROR(E115/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G115" s="239"/>
+      <c r="G115" s="202"/>
       <c r="U115" s="17"/>
       <c r="V115" s="163">
         <f>SUM(IF(V35=3,IFERROR(BH34,0),0),IF(V45=3,IFERROR(BH44,0),0),IF(V55=3,IFERROR(BH54,0),0),IF(V65=3,IFERROR(BH64,0),0),IF(V75=3,IFERROR(BH74,0),0),IF(V85=3,IFERROR(BH84,0),0))</f>
@@ -22901,7 +23011,7 @@
       <c r="D116" s="144"/>
       <c r="E116" s="144"/>
       <c r="F116" s="144"/>
-      <c r="G116" s="239"/>
+      <c r="G116" s="202"/>
       <c r="U116" s="17"/>
       <c r="V116" s="116"/>
       <c r="AD116" s="18">
@@ -22946,7 +23056,7 @@
         <f>IFERROR(E117/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G117" s="239"/>
+      <c r="G117" s="202"/>
       <c r="U117" s="17"/>
       <c r="V117" s="116"/>
       <c r="AG117" s="14"/>
@@ -23377,11 +23487,11 @@
       <c r="CC141" s="138"/>
       <c r="CI141" s="139">
         <f>IFERROR(F36,"")</f>
-        <v>5.185185185185185E-2</v>
+        <v>-2.5925925925925925E-2</v>
       </c>
       <c r="CJ141" s="139">
         <f>IFERROR(E36,"")</f>
-        <v>0.77777777777777779</v>
+        <v>-0.3888888888888889</v>
       </c>
     </row>
     <row r="142" spans="21:88" s="13" customFormat="1" ht="39" customHeight="1">
@@ -23400,11 +23510,11 @@
       <c r="BW142" s="26"/>
       <c r="CI142" s="139">
         <f>IFERROR(F46,"")</f>
-        <v>0.17283950617283952</v>
+        <v>0.21604938271604937</v>
       </c>
       <c r="CJ142" s="139">
         <f>IFERROR(E46,"")</f>
-        <v>0.34567901234567905</v>
+        <v>0.43209876543209874</v>
       </c>
     </row>
     <row r="143" spans="21:88" s="13" customFormat="1" ht="39" customHeight="1">
@@ -23423,11 +23533,11 @@
       <c r="BW143" s="26"/>
       <c r="CI143" s="139">
         <f>IFERROR(F56,"")</f>
-        <v>8.6419753086419762E-2</v>
+        <v>0.10802469135802469</v>
       </c>
       <c r="CJ143" s="139">
         <f>IFERROR(E56,"")</f>
-        <v>0.17283950617283952</v>
+        <v>0.21604938271604937</v>
       </c>
     </row>
     <row r="144" spans="21:88" s="13" customFormat="1" ht="39" customHeight="1">
@@ -23446,11 +23556,11 @@
       <c r="BW144" s="26"/>
       <c r="CI144" s="139">
         <f>IFERROR(F66,"")</f>
-        <v>0.6913580246913581</v>
+        <v>0.86419753086419748</v>
       </c>
       <c r="CJ144" s="139">
         <f>IFERROR(E66,"")</f>
-        <v>1.3827160493827162</v>
+        <v>1.728395061728395</v>
       </c>
     </row>
     <row r="145" spans="21:88" s="13" customFormat="1" ht="39" customHeight="1">
@@ -23469,11 +23579,11 @@
       <c r="BW145" s="26"/>
       <c r="CI145" s="139">
         <f>IFERROR(F76,"")</f>
-        <v>0.2893518518518518</v>
+        <v>0.38580246913580246</v>
       </c>
       <c r="CJ145" s="139">
         <f>IFERROR(E76,"")</f>
-        <v>0.57870370370370361</v>
+        <v>0.77160493827160492</v>
       </c>
     </row>
     <row r="146" spans="21:88" s="13" customFormat="1" ht="39" customHeight="1">
@@ -23492,11 +23602,11 @@
       <c r="BW146" s="26"/>
       <c r="CI146" s="139">
         <f>IFERROR(F86,"")</f>
-        <v>4.3209876543209881E-2</v>
+        <v>5.4012345679012343E-2</v>
       </c>
       <c r="CJ146" s="139">
         <f>IFERROR(E86,"")</f>
-        <v>8.6419753086419762E-2</v>
+        <v>0.10802469135802469</v>
       </c>
     </row>
     <row r="147" spans="21:88" s="13" customFormat="1" ht="39" customHeight="1">
@@ -37160,20 +37270,164 @@
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="B78:C81"/>
-    <mergeCell ref="G78:G86"/>
-    <mergeCell ref="A109:C114"/>
-    <mergeCell ref="G109:G117"/>
-    <mergeCell ref="V109:AC109"/>
-    <mergeCell ref="AD109:AG109"/>
-    <mergeCell ref="AH109:AI109"/>
-    <mergeCell ref="AD89:AG89"/>
-    <mergeCell ref="AH89:AI89"/>
-    <mergeCell ref="A99:C104"/>
-    <mergeCell ref="G99:G107"/>
-    <mergeCell ref="V99:AC99"/>
-    <mergeCell ref="AD99:AG99"/>
-    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="V17:AC17"/>
+    <mergeCell ref="V25:AC25"/>
+    <mergeCell ref="B28:C31"/>
+    <mergeCell ref="G28:G36"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="V28:AC28"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AJ28:AN28"/>
+    <mergeCell ref="AO28:BA28"/>
+    <mergeCell ref="BB28:BI28"/>
+    <mergeCell ref="BJ28:BK28"/>
+    <mergeCell ref="AQ29:AQ34"/>
+    <mergeCell ref="AS29:AS34"/>
+    <mergeCell ref="AU29:AU34"/>
+    <mergeCell ref="AW29:AW34"/>
+    <mergeCell ref="AY29:AY34"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="G38:G46"/>
+    <mergeCell ref="I38:S38"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="BA29:BA34"/>
+    <mergeCell ref="BC29:BC34"/>
+    <mergeCell ref="I31:S31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="V38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AJ38:AN38"/>
+    <mergeCell ref="AO38:BA38"/>
+    <mergeCell ref="BB38:BI38"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="BJ38:BK38"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="BE29:BE34"/>
+    <mergeCell ref="BG29:BG34"/>
+    <mergeCell ref="BC39:BC44"/>
+    <mergeCell ref="BE39:BE44"/>
+    <mergeCell ref="BG39:BG44"/>
+    <mergeCell ref="I41:S41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="AQ39:AQ44"/>
+    <mergeCell ref="AS39:AS44"/>
+    <mergeCell ref="AU39:AU44"/>
+    <mergeCell ref="AW39:AW44"/>
+    <mergeCell ref="AY39:AY44"/>
+    <mergeCell ref="BA39:BA44"/>
+    <mergeCell ref="B48:C51"/>
+    <mergeCell ref="G48:G56"/>
+    <mergeCell ref="I48:S48"/>
+    <mergeCell ref="V48:AC48"/>
+    <mergeCell ref="AD48:AG48"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="I51:S51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="AJ48:AN48"/>
+    <mergeCell ref="AO48:BA48"/>
+    <mergeCell ref="BB48:BI48"/>
+    <mergeCell ref="BJ48:BK48"/>
+    <mergeCell ref="AQ49:AQ54"/>
+    <mergeCell ref="AS49:AS54"/>
+    <mergeCell ref="AU49:AU54"/>
+    <mergeCell ref="AW49:AW54"/>
+    <mergeCell ref="AY49:AY54"/>
+    <mergeCell ref="BA49:BA54"/>
+    <mergeCell ref="BC49:BC54"/>
+    <mergeCell ref="BE49:BE54"/>
+    <mergeCell ref="BG49:BG54"/>
+    <mergeCell ref="B58:C61"/>
+    <mergeCell ref="G58:G66"/>
+    <mergeCell ref="I58:S58"/>
+    <mergeCell ref="V58:AC58"/>
+    <mergeCell ref="AD58:AG58"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="I61:S61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="AJ58:AN58"/>
+    <mergeCell ref="AO58:BA58"/>
+    <mergeCell ref="BB58:BI58"/>
+    <mergeCell ref="BJ58:BK58"/>
+    <mergeCell ref="AQ59:AQ64"/>
+    <mergeCell ref="AS59:AS64"/>
+    <mergeCell ref="AU59:AU64"/>
+    <mergeCell ref="AW59:AW64"/>
+    <mergeCell ref="AY59:AY64"/>
+    <mergeCell ref="BA59:BA64"/>
+    <mergeCell ref="BC59:BC64"/>
+    <mergeCell ref="BE59:BE64"/>
+    <mergeCell ref="BG59:BG64"/>
+    <mergeCell ref="BJ68:BK68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="AQ69:AQ74"/>
+    <mergeCell ref="AS69:AS74"/>
+    <mergeCell ref="AU69:AU74"/>
+    <mergeCell ref="AW69:AW74"/>
+    <mergeCell ref="AY69:AY74"/>
+    <mergeCell ref="B68:C71"/>
+    <mergeCell ref="G68:G76"/>
+    <mergeCell ref="I68:S68"/>
+    <mergeCell ref="V68:AC68"/>
+    <mergeCell ref="AD68:AG68"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="AJ78:AN78"/>
+    <mergeCell ref="AO78:BA78"/>
+    <mergeCell ref="BB78:BI78"/>
+    <mergeCell ref="AW79:AW84"/>
+    <mergeCell ref="AY79:AY84"/>
+    <mergeCell ref="BA79:BA84"/>
+    <mergeCell ref="AJ68:AN68"/>
+    <mergeCell ref="AO68:BA68"/>
+    <mergeCell ref="BB68:BI68"/>
+    <mergeCell ref="BA69:BA74"/>
+    <mergeCell ref="BC69:BC74"/>
+    <mergeCell ref="BE69:BE74"/>
+    <mergeCell ref="BG69:BG74"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="I71:S71"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:O73"/>
     <mergeCell ref="BJ78:BK78"/>
     <mergeCell ref="Q74:R74"/>
     <mergeCell ref="N75:O75"/>
@@ -37198,170 +37452,26 @@
     <mergeCell ref="AQ79:AQ84"/>
     <mergeCell ref="AS79:AS84"/>
     <mergeCell ref="AU79:AU84"/>
+    <mergeCell ref="B78:C81"/>
+    <mergeCell ref="G78:G86"/>
+    <mergeCell ref="A109:C114"/>
+    <mergeCell ref="G109:G117"/>
+    <mergeCell ref="V109:AC109"/>
+    <mergeCell ref="AD109:AG109"/>
+    <mergeCell ref="AH109:AI109"/>
+    <mergeCell ref="AD89:AG89"/>
+    <mergeCell ref="AH89:AI89"/>
+    <mergeCell ref="A99:C104"/>
+    <mergeCell ref="G99:G107"/>
+    <mergeCell ref="V99:AC99"/>
+    <mergeCell ref="AD99:AG99"/>
+    <mergeCell ref="AH99:AI99"/>
     <mergeCell ref="Q79:R79"/>
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="K84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="BA69:BA74"/>
-    <mergeCell ref="BC69:BC74"/>
-    <mergeCell ref="BE69:BE74"/>
-    <mergeCell ref="BG69:BG74"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="I71:S71"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:O73"/>
     <mergeCell ref="V78:AC78"/>
     <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="AJ78:AN78"/>
-    <mergeCell ref="AO78:BA78"/>
-    <mergeCell ref="BB78:BI78"/>
-    <mergeCell ref="AW79:AW84"/>
-    <mergeCell ref="AY79:AY84"/>
-    <mergeCell ref="BA79:BA84"/>
-    <mergeCell ref="AJ68:AN68"/>
-    <mergeCell ref="AO68:BA68"/>
-    <mergeCell ref="BB68:BI68"/>
-    <mergeCell ref="BJ68:BK68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="AQ69:AQ74"/>
-    <mergeCell ref="AS69:AS74"/>
-    <mergeCell ref="AU69:AU74"/>
-    <mergeCell ref="AW69:AW74"/>
-    <mergeCell ref="AY69:AY74"/>
-    <mergeCell ref="B68:C71"/>
-    <mergeCell ref="G68:G76"/>
-    <mergeCell ref="I68:S68"/>
-    <mergeCell ref="V68:AC68"/>
-    <mergeCell ref="AD68:AG68"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="AJ58:AN58"/>
-    <mergeCell ref="AO58:BA58"/>
-    <mergeCell ref="BB58:BI58"/>
-    <mergeCell ref="BJ58:BK58"/>
-    <mergeCell ref="AQ59:AQ64"/>
-    <mergeCell ref="AS59:AS64"/>
-    <mergeCell ref="AU59:AU64"/>
-    <mergeCell ref="AW59:AW64"/>
-    <mergeCell ref="AY59:AY64"/>
-    <mergeCell ref="BA59:BA64"/>
-    <mergeCell ref="BC59:BC64"/>
-    <mergeCell ref="BE59:BE64"/>
-    <mergeCell ref="BG59:BG64"/>
-    <mergeCell ref="B58:C61"/>
-    <mergeCell ref="G58:G66"/>
-    <mergeCell ref="I58:S58"/>
-    <mergeCell ref="V58:AC58"/>
-    <mergeCell ref="AD58:AG58"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="I61:S61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="AJ48:AN48"/>
-    <mergeCell ref="AO48:BA48"/>
-    <mergeCell ref="BB48:BI48"/>
-    <mergeCell ref="BJ48:BK48"/>
-    <mergeCell ref="AQ49:AQ54"/>
-    <mergeCell ref="AS49:AS54"/>
-    <mergeCell ref="AU49:AU54"/>
-    <mergeCell ref="AW49:AW54"/>
-    <mergeCell ref="AY49:AY54"/>
-    <mergeCell ref="BA49:BA54"/>
-    <mergeCell ref="BC49:BC54"/>
-    <mergeCell ref="BE49:BE54"/>
-    <mergeCell ref="BG49:BG54"/>
-    <mergeCell ref="B48:C51"/>
-    <mergeCell ref="G48:G56"/>
-    <mergeCell ref="I48:S48"/>
-    <mergeCell ref="V48:AC48"/>
-    <mergeCell ref="AD48:AG48"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="I51:S51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="BJ38:BK38"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="BE29:BE34"/>
-    <mergeCell ref="BG29:BG34"/>
-    <mergeCell ref="BC39:BC44"/>
-    <mergeCell ref="BE39:BE44"/>
-    <mergeCell ref="BG39:BG44"/>
-    <mergeCell ref="I41:S41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="AQ39:AQ44"/>
-    <mergeCell ref="AS39:AS44"/>
-    <mergeCell ref="AU39:AU44"/>
-    <mergeCell ref="AW39:AW44"/>
-    <mergeCell ref="AY39:AY44"/>
-    <mergeCell ref="BA39:BA44"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="G38:G46"/>
-    <mergeCell ref="I38:S38"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="BA29:BA34"/>
-    <mergeCell ref="BC29:BC34"/>
-    <mergeCell ref="I31:S31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="V38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AJ38:AN38"/>
-    <mergeCell ref="AO38:BA38"/>
-    <mergeCell ref="BB38:BI38"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AJ28:AN28"/>
-    <mergeCell ref="AO28:BA28"/>
-    <mergeCell ref="BB28:BI28"/>
-    <mergeCell ref="BJ28:BK28"/>
-    <mergeCell ref="AQ29:AQ34"/>
-    <mergeCell ref="AS29:AS34"/>
-    <mergeCell ref="AU29:AU34"/>
-    <mergeCell ref="AW29:AW34"/>
-    <mergeCell ref="AY29:AY34"/>
-    <mergeCell ref="V17:AC17"/>
-    <mergeCell ref="V25:AC25"/>
-    <mergeCell ref="B28:C31"/>
-    <mergeCell ref="G28:G36"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="V28:AC28"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36 C46 C56 C66 C76 C86">
@@ -37372,9 +37482,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J30 S32:T32 M35 P32 J40 S42:T42 M45 P42 J50 S52:T52 M55 P52 J60 S62:T62 M65 P62 J70 S72:T72 M75 P72 J80 S82:T82 M85 P82">
       <formula1>"2+, 3+, 4+, 5+, 6+, 7+"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K30 K40 K50 K60 K70 K80">
-      <formula1>"D3, 2D3, D6, Auto Hit, 2+, 3+, 4+, 5+, 6+"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M30 M40 M50 M60 M70 M80">
       <formula1>"D3, 2D3, D6, 2D6, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12"</formula1>
@@ -37397,6 +37504,9 @@
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Maximum 18 characters" sqref="I30 I40 I50 I60 I70 I80 I90 I100 I110">
       <formula1>0</formula1>
       <formula2>18</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K30 K40 K50 K60 K70 K80">
+      <formula1>"Auto Hit, 2+, 3+, 4+, 5+, 6+, D3, 2D3, D6"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mathhammer.xlsx
+++ b/mathhammer.xlsx
@@ -1198,6 +1198,136 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1228,12 +1358,6 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1251,130 +1375,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1568,22 +1568,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-4.4444444444444446E-2</c:v>
+                  <c:v>9.3827160493827153E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.3333333333333333E-2</c:v>
+                  <c:v>7.0370370370370375E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.2222222222222223E-2</c:v>
+                  <c:v>4.6913580246913576E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.2222222222222223E-2</c:v>
+                  <c:v>4.6913580246913576E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.2222222222222223E-2</c:v>
+                  <c:v>4.6913580246913576E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1111111111111112E-2</c:v>
+                  <c:v>2.3456790123456788E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,11 +2323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="384802800"/>
-        <c:axId val="384801232"/>
+        <c:axId val="421559816"/>
+        <c:axId val="421555504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="384802800"/>
+        <c:axId val="421559816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -2440,14 +2440,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384801232"/>
+        <c:crossAx val="421555504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384801232"/>
+        <c:axId val="421555504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2562,7 +2562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384802800"/>
+        <c:crossAx val="421559816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2818,22 +2818,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.66666666666666674</c:v>
+                  <c:v>1.4074074074074072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.5</c:v>
+                  <c:v>1.0555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.33333333333333337</c:v>
+                  <c:v>0.70370370370370361</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.33333333333333337</c:v>
+                  <c:v>0.70370370370370361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.33333333333333337</c:v>
+                  <c:v>0.70370370370370361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.16666666666666669</c:v>
+                  <c:v>0.3518518518518518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3604,11 +3604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="384801624"/>
-        <c:axId val="384802016"/>
+        <c:axId val="421559032"/>
+        <c:axId val="421559424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="384801624"/>
+        <c:axId val="421559032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -3721,14 +3721,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384802016"/>
+        <c:crossAx val="421559424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384802016"/>
+        <c:axId val="421559424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,7 +3843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384801624"/>
+        <c:crossAx val="421559032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5158,7 +5158,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AF$34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AF$34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5202,7 +5202,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AF$30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AF$30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6205,8 +6205,8 @@
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7037,8 +7037,8 @@
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7869,8 +7869,8 @@
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8701,8 +8701,8 @@
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9533,8 +9533,8 @@
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10365,8 +10365,8 @@
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10634,8 +10634,8 @@
           <a:chExt cx="728235" cy="3042727"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:pic>
             <xdr:nvPicPr>
               <xdr:cNvPr id="84" name="Picture 83"/>
@@ -10643,7 +10643,7 @@
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
                 <a:extLst>
                   <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                    <a14:cameraTool cellRange="$CJ$141:$CJ$149" spid="_x0000_s6357"/>
+                    <a14:cameraTool cellRange="$CJ$141:$CJ$149" spid="_x0000_s6360"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPicPr>
@@ -10687,7 +10687,7 @@
             </xdr:spPr>
           </xdr:pic>
         </mc:Choice>
-        <mc:Fallback/>
+        <mc:Fallback xmlns=""/>
       </mc:AlternateContent>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
@@ -12732,8 +12732,8 @@
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>105</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -12876,8 +12876,8 @@
           <a:chExt cx="728234" cy="3042727"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:pic>
             <xdr:nvPicPr>
               <xdr:cNvPr id="123" name="Picture 122"/>
@@ -12885,7 +12885,7 @@
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
                 <a:extLst>
                   <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                    <a14:cameraTool cellRange="$CI$141:$CI$149" spid="_x0000_s6358"/>
+                    <a14:cameraTool cellRange="$CI$141:$CI$149" spid="_x0000_s6361"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPicPr>
@@ -12929,7 +12929,7 @@
             </xdr:spPr>
           </xdr:pic>
         </mc:Choice>
-        <mc:Fallback/>
+        <mc:Fallback xmlns=""/>
       </mc:AlternateContent>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
@@ -13249,7 +13249,7 @@
   <dimension ref="A1:FA1055"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -13652,14 +13652,14 @@
       <c r="R17" s="183"/>
       <c r="S17" s="183"/>
       <c r="T17" s="183"/>
-      <c r="V17" s="204"/>
-      <c r="W17" s="204"/>
-      <c r="X17" s="204"/>
-      <c r="Y17" s="204"/>
-      <c r="Z17" s="204"/>
-      <c r="AA17" s="204"/>
-      <c r="AB17" s="204"/>
-      <c r="AC17" s="204"/>
+      <c r="V17" s="199"/>
+      <c r="W17" s="199"/>
+      <c r="X17" s="199"/>
+      <c r="Y17" s="199"/>
+      <c r="Z17" s="199"/>
+      <c r="AA17" s="199"/>
+      <c r="AB17" s="199"/>
+      <c r="AC17" s="199"/>
     </row>
     <row r="18" spans="1:157" hidden="1">
       <c r="A18" s="183"/>
@@ -13838,14 +13838,14 @@
       <c r="R25" s="183"/>
       <c r="S25" s="183"/>
       <c r="T25" s="183"/>
-      <c r="V25" s="204"/>
-      <c r="W25" s="204"/>
-      <c r="X25" s="204"/>
-      <c r="Y25" s="204"/>
-      <c r="Z25" s="204"/>
-      <c r="AA25" s="204"/>
-      <c r="AB25" s="204"/>
-      <c r="AC25" s="204"/>
+      <c r="V25" s="199"/>
+      <c r="W25" s="199"/>
+      <c r="X25" s="199"/>
+      <c r="Y25" s="199"/>
+      <c r="Z25" s="199"/>
+      <c r="AA25" s="199"/>
+      <c r="AB25" s="199"/>
+      <c r="AC25" s="199"/>
     </row>
     <row r="26" spans="1:157" hidden="1">
       <c r="A26" s="183"/>
@@ -14030,11 +14030,11 @@
     </row>
     <row r="28" spans="1:157" ht="15" customHeight="1">
       <c r="A28" s="121"/>
-      <c r="B28" s="242" t="str">
+      <c r="B28" s="200" t="str">
         <f>IF(I30="","",I30)</f>
         <v>Weapon 1</v>
       </c>
-      <c r="C28" s="242"/>
+      <c r="C28" s="200"/>
       <c r="D28" s="6"/>
       <c r="E28" s="15" t="s">
         <v>11</v>
@@ -14042,95 +14042,95 @@
       <c r="F28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="244"/>
+      <c r="G28" s="202"/>
       <c r="H28" s="82"/>
-      <c r="I28" s="214" t="str">
+      <c r="I28" s="204" t="str">
         <f>IF(I30="","",I30)</f>
         <v>Weapon 1</v>
       </c>
-      <c r="J28" s="214"/>
-      <c r="K28" s="214"/>
-      <c r="L28" s="214"/>
-      <c r="M28" s="214"/>
-      <c r="N28" s="214"/>
-      <c r="O28" s="214"/>
-      <c r="P28" s="214"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="204"/>
+      <c r="L28" s="204"/>
+      <c r="M28" s="204"/>
+      <c r="N28" s="204"/>
+      <c r="O28" s="204"/>
+      <c r="P28" s="204"/>
       <c r="Q28" s="93"/>
-      <c r="R28" s="214"/>
-      <c r="S28" s="214"/>
+      <c r="R28" s="204"/>
+      <c r="S28" s="204"/>
       <c r="T28" s="83"/>
-      <c r="V28" s="246" t="s">
+      <c r="V28" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="W28" s="240"/>
-      <c r="X28" s="240"/>
-      <c r="Y28" s="240"/>
-      <c r="Z28" s="240"/>
-      <c r="AA28" s="240"/>
-      <c r="AB28" s="240"/>
-      <c r="AC28" s="240"/>
-      <c r="AD28" s="240" t="s">
+      <c r="W28" s="206"/>
+      <c r="X28" s="206"/>
+      <c r="Y28" s="206"/>
+      <c r="Z28" s="206"/>
+      <c r="AA28" s="206"/>
+      <c r="AB28" s="206"/>
+      <c r="AC28" s="206"/>
+      <c r="AD28" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE28" s="240"/>
-      <c r="AF28" s="240"/>
-      <c r="AG28" s="240"/>
+      <c r="AE28" s="206"/>
+      <c r="AF28" s="206"/>
+      <c r="AG28" s="206"/>
       <c r="AH28" s="184"/>
       <c r="AI28" s="184"/>
-      <c r="AJ28" s="240" t="s">
+      <c r="AJ28" s="206" t="s">
         <v>88</v>
       </c>
-      <c r="AK28" s="240"/>
-      <c r="AL28" s="240"/>
-      <c r="AM28" s="240"/>
-      <c r="AN28" s="240"/>
-      <c r="AO28" s="240" t="s">
+      <c r="AK28" s="206"/>
+      <c r="AL28" s="206"/>
+      <c r="AM28" s="206"/>
+      <c r="AN28" s="206"/>
+      <c r="AO28" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="AP28" s="240"/>
-      <c r="AQ28" s="240"/>
-      <c r="AR28" s="240"/>
-      <c r="AS28" s="240"/>
-      <c r="AT28" s="240"/>
-      <c r="AU28" s="240"/>
-      <c r="AV28" s="240"/>
-      <c r="AW28" s="240"/>
-      <c r="AX28" s="240"/>
-      <c r="AY28" s="240"/>
-      <c r="AZ28" s="240"/>
-      <c r="BA28" s="240"/>
-      <c r="BB28" s="240" t="s">
+      <c r="AP28" s="206"/>
+      <c r="AQ28" s="206"/>
+      <c r="AR28" s="206"/>
+      <c r="AS28" s="206"/>
+      <c r="AT28" s="206"/>
+      <c r="AU28" s="206"/>
+      <c r="AV28" s="206"/>
+      <c r="AW28" s="206"/>
+      <c r="AX28" s="206"/>
+      <c r="AY28" s="206"/>
+      <c r="AZ28" s="206"/>
+      <c r="BA28" s="206"/>
+      <c r="BB28" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="BC28" s="240"/>
-      <c r="BD28" s="240"/>
-      <c r="BE28" s="240"/>
-      <c r="BF28" s="240"/>
-      <c r="BG28" s="240"/>
-      <c r="BH28" s="240"/>
-      <c r="BI28" s="240"/>
-      <c r="BJ28" s="240" t="s">
+      <c r="BC28" s="206"/>
+      <c r="BD28" s="206"/>
+      <c r="BE28" s="206"/>
+      <c r="BF28" s="206"/>
+      <c r="BG28" s="206"/>
+      <c r="BH28" s="206"/>
+      <c r="BI28" s="206"/>
+      <c r="BJ28" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="BK28" s="241"/>
+      <c r="BK28" s="209"/>
       <c r="CJ28" s="94"/>
     </row>
     <row r="29" spans="1:157" ht="15" customHeight="1">
       <c r="A29" s="122"/>
-      <c r="B29" s="243"/>
-      <c r="C29" s="243"/>
+      <c r="B29" s="201"/>
+      <c r="C29" s="201"/>
       <c r="D29" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="165">
         <f>IF(AND(AD29,AF36),BD29+BF29,NA())</f>
-        <v>-0.66666666666666674</v>
+        <v>1.4074074074074072</v>
       </c>
       <c r="F29" s="30">
         <f>IFERROR(E29/P30,NA())</f>
-        <v>-4.4444444444444446E-2</v>
-      </c>
-      <c r="G29" s="245"/>
+        <v>9.3827160493827153E-2</v>
+      </c>
+      <c r="G29" s="203"/>
       <c r="H29" s="84"/>
       <c r="I29" s="78" t="s">
         <v>13</v>
@@ -14168,8 +14168,8 @@
         <v>34</v>
       </c>
       <c r="X29" s="12">
-        <f>IF((V30+IF(J32="D3",5/6,IF(J32="2D3",3/6,IF(J32="D6",3.5/6,IF(J32="2D6",1,J32/6)))))&gt;=1,(5/6)-V30,IF(J32="D3",5/6,IF(J32="2D3",3/6,IF(J32="D6",3.5/6,IF(J32="2D6",1,J32/6)))))</f>
-        <v>-0.66666666666666663</v>
+        <f>IF(V30=1,0,IF(J32="D3",5/6,IF(J32="2D3",3/6,IF(J32="D6",3.5/6,IF(J32="2D6",1,J32/6)))))</f>
+        <v>0.5</v>
       </c>
       <c r="Y29" s="14" t="str">
         <f>"+- to hit rolls"</f>
@@ -14177,7 +14177,7 @@
       </c>
       <c r="Z29" s="14">
         <f>IF(AF34,IF(P32="2+",5/6,IF(P32="3+",4/6,IF(P32="4+",3/6,IF(P32="5+",2/6,IF(P32="6+",1/6,IF(P32="7+",0/6)))))),0)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AA29" s="19" t="s">
         <v>57</v>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="AJ29" s="20">
         <f>IF(OR(AF29,AF30),V31*V30,(V30+X29)*V31)</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="AK29" s="20" t="s">
         <v>77</v>
@@ -14230,77 +14230,77 @@
       </c>
       <c r="AP29" s="21">
         <f>IF(OR(AF31,AF32),AL34*AN29,AL34*(AN29+X30))</f>
-        <v>-2</v>
-      </c>
-      <c r="AQ29" s="221" t="s">
+        <v>4.2222222222222214</v>
+      </c>
+      <c r="AQ29" s="210" t="s">
         <v>77</v>
       </c>
       <c r="AR29" s="20">
         <f>IF(AF35,AL34*IF(OR(AF31,AF32),AB29,AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AS29" s="221" t="s">
+      <c r="AS29" s="210" t="s">
         <v>64</v>
       </c>
       <c r="AT29" s="20">
         <f>IF(AF32,AL34-(AL34*AN29),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU29" s="221" t="s">
+      <c r="AU29" s="210" t="s">
         <v>60</v>
       </c>
       <c r="AV29" s="20">
         <f>(AN29+X30)*AT29</f>
         <v>0</v>
       </c>
-      <c r="AW29" s="221" t="s">
+      <c r="AW29" s="210" t="s">
         <v>78</v>
       </c>
       <c r="AX29" s="20">
         <f>IF(AF35,AT29*(AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AY29" s="221" t="s">
+      <c r="AY29" s="210" t="s">
         <v>65</v>
       </c>
       <c r="AZ29" s="20">
         <f>AV29+AP29</f>
-        <v>-2</v>
-      </c>
-      <c r="BA29" s="221" t="s">
+        <v>4.2222222222222214</v>
+      </c>
+      <c r="BA29" s="210" t="s">
         <v>63</v>
       </c>
       <c r="BB29" s="20">
         <f>IF(AB32&lt;0,((AZ29-(AR29+AX29))*(1-(V33+V29)))+((AX29+AR29)*(1-(V29+AB32))),AZ29*(1-(V29+V33)))</f>
-        <v>-0.66666666666666674</v>
-      </c>
-      <c r="BC29" s="221" t="s">
+        <v>1.4074074074074072</v>
+      </c>
+      <c r="BC29" s="210" t="s">
         <v>68</v>
       </c>
       <c r="BD29" s="18">
         <f>IF(AB31&gt;0,((BB29-(AR29+AX29))*V34)+((AR29+AX29)*AB31),BB29*V34)</f>
-        <v>-0.66666666666666674</v>
-      </c>
-      <c r="BE29" s="221" t="s">
+        <v>1.4074074074074072</v>
+      </c>
+      <c r="BE29" s="210" t="s">
         <v>76</v>
       </c>
       <c r="BF29" s="18">
         <f>(Z32*(AJ30+AJ33+AL30+AL33))+((AR29+AX29)*AB30)</f>
         <v>0</v>
       </c>
-      <c r="BG29" s="221" t="s">
+      <c r="BG29" s="210" t="s">
         <v>69</v>
       </c>
       <c r="BH29" s="181">
         <f t="shared" ref="BH29:BH34" si="0">IF(AD29,BD29+BF29,NA())</f>
-        <v>-0.66666666666666674</v>
+        <v>1.4074074074074072</v>
       </c>
       <c r="BI29" s="124" t="s">
         <v>46</v>
       </c>
       <c r="BJ29" s="18">
         <f>IFERROR(IF(AD29,E29,0)+IF(AD30,E30,0)+IF(AD31,E31,0)+IF(AD32,E32,0)+IF(AD33,E33,0)+IF(AD34,E34,0),NA())</f>
-        <v>-2.3333333333333335</v>
+        <v>4.9259259259259256</v>
       </c>
       <c r="BK29" s="161" t="s">
         <v>82</v>
@@ -14309,20 +14309,20 @@
     </row>
     <row r="30" spans="1:157" ht="15" customHeight="1">
       <c r="A30" s="122"/>
-      <c r="B30" s="243"/>
-      <c r="C30" s="243"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="201"/>
       <c r="D30" s="54" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="165">
         <f>IF(AND(AD30,AF36),BD30+BF30,NA())</f>
-        <v>-0.5</v>
+        <v>1.0555555555555556</v>
       </c>
       <c r="F30" s="30">
         <f>IFERROR(E30/P30,NA())</f>
-        <v>-3.3333333333333333E-2</v>
-      </c>
-      <c r="G30" s="245"/>
+        <v>7.0370370370370375E-2</v>
+      </c>
+      <c r="G30" s="203"/>
       <c r="H30" s="84"/>
       <c r="I30" s="4" t="s">
         <v>103</v>
@@ -14331,7 +14331,7 @@
         <v>20</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L30" s="5">
         <v>6</v>
@@ -14354,7 +14354,7 @@
       <c r="T30" s="85"/>
       <c r="V30" s="160">
         <f>(IF(K30="D3",5/6,IF(K30="2D3",3/6,IF(K30="D6",3.5/6,IF(K30="Auto Hit",1,IF(K30="2+",5/6,IF(K30="3+",4/6,IF(K30="4+",3/6,IF(K30="5+",2/6,IF(K30="6+",1/6,0))))))))))</f>
-        <v>0.16666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W30" s="12" t="s">
         <v>35</v>
@@ -14388,7 +14388,7 @@
         <v>47</v>
       </c>
       <c r="AF30" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30" s="14" t="s">
         <v>54</v>
@@ -14408,59 +14408,59 @@
       </c>
       <c r="AP30" s="21">
         <f>IF(OR(AF31,AF32),AL34*AN30,AL34*(AN30+X30))</f>
-        <v>-1.5</v>
-      </c>
-      <c r="AQ30" s="221"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="AQ30" s="210"/>
       <c r="AR30" s="20">
         <f>IF(AF35,AL34*IF(OR(AF31,AF32),AB29,AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AS30" s="221"/>
+      <c r="AS30" s="210"/>
       <c r="AT30" s="20">
         <f>IF(AF32,AL34-(AL34*AN30),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU30" s="221"/>
+      <c r="AU30" s="210"/>
       <c r="AV30" s="20">
         <f>(AN30+X30)*AT30</f>
         <v>0</v>
       </c>
-      <c r="AW30" s="221"/>
+      <c r="AW30" s="210"/>
       <c r="AX30" s="20">
         <f>IF(AF35,AT30*(AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AY30" s="221"/>
+      <c r="AY30" s="210"/>
       <c r="AZ30" s="20">
         <f t="shared" ref="AZ30:AZ34" si="1">AV30+AP30</f>
-        <v>-1.5</v>
-      </c>
-      <c r="BA30" s="221"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="BA30" s="210"/>
       <c r="BB30" s="20">
         <f>IF(AB32&lt;0,((AZ30-(AR30+AX30))*(1-(V33+V29)))+((AX30+AR30)*(1-(V29+AB32))),AZ30*(1-(V29+V33)))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="BC30" s="221"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="BC30" s="210"/>
       <c r="BD30" s="18">
         <f>IF(AB31&gt;0,((BB30-(AR30+AX30))*V34)+((AR30+AX30)*AB31),BB30*V34)</f>
-        <v>-0.5</v>
-      </c>
-      <c r="BE30" s="221"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="BE30" s="210"/>
       <c r="BF30" s="18">
         <f>(Z32*(AJ30+AJ33+AL30+AL33))+((AR30+AX30)*AB30)</f>
         <v>0</v>
       </c>
-      <c r="BG30" s="221"/>
+      <c r="BG30" s="210"/>
       <c r="BH30" s="181">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>1.0555555555555556</v>
       </c>
       <c r="BI30" s="124" t="s">
         <v>47</v>
       </c>
       <c r="BJ30" s="18">
         <f>IFERROR(BJ29/AD35,NA())</f>
-        <v>-0.3888888888888889</v>
+        <v>0.82098765432098764</v>
       </c>
       <c r="BK30" s="161" t="s">
         <v>11</v>
@@ -14469,32 +14469,32 @@
     </row>
     <row r="31" spans="1:157" ht="15" customHeight="1">
       <c r="A31" s="122"/>
-      <c r="B31" s="243"/>
-      <c r="C31" s="243"/>
+      <c r="B31" s="201"/>
+      <c r="C31" s="201"/>
       <c r="D31" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="165">
         <f>IF(AND(AD31,AF36),BD31+BF31,NA())</f>
-        <v>-0.33333333333333337</v>
+        <v>0.70370370370370361</v>
       </c>
       <c r="F31" s="30">
         <f>IFERROR(E31/P30,NA())</f>
-        <v>-2.2222222222222223E-2</v>
-      </c>
-      <c r="G31" s="245"/>
+        <v>4.6913580246913576E-2</v>
+      </c>
+      <c r="G31" s="203"/>
       <c r="H31" s="84"/>
-      <c r="I31" s="222"/>
-      <c r="J31" s="222"/>
-      <c r="K31" s="222"/>
-      <c r="L31" s="222"/>
-      <c r="M31" s="222"/>
-      <c r="N31" s="222"/>
-      <c r="O31" s="222"/>
-      <c r="P31" s="222"/>
-      <c r="Q31" s="222"/>
-      <c r="R31" s="222"/>
-      <c r="S31" s="222"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="215"/>
+      <c r="O31" s="215"/>
+      <c r="P31" s="215"/>
+      <c r="Q31" s="215"/>
+      <c r="R31" s="215"/>
+      <c r="S31" s="215"/>
       <c r="T31" s="85"/>
       <c r="V31" s="162">
         <f>(IF(L30="D3",2,IF(L30="2D3",4,IF(L30="D6",3.5,IF(L30="2D6",7,IF(L30="3D6",10.5,L30))))))</f>
@@ -14540,7 +14540,7 @@
       <c r="AI31" s="14"/>
       <c r="AJ31" s="20">
         <f>IF(AF30,V31-(V31*V30),IF(AF29,(1/6)*V31,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK31" s="20" t="s">
         <v>60</v>
@@ -14561,52 +14561,52 @@
       </c>
       <c r="AP31" s="21">
         <f>IF(OR(AF31,AF32),AL34*AN31,AL34*(AN31+X30))</f>
-        <v>-1</v>
-      </c>
-      <c r="AQ31" s="221"/>
+        <v>2.1111111111111107</v>
+      </c>
+      <c r="AQ31" s="210"/>
       <c r="AR31" s="20">
         <f>IF(AF35,AL34*IF(OR(AF31,AF32),AB29,AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AS31" s="221"/>
+      <c r="AS31" s="210"/>
       <c r="AT31" s="20">
         <f>IF(AF32,AL34-(AL34*AN31),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU31" s="221"/>
+      <c r="AU31" s="210"/>
       <c r="AV31" s="20">
         <f>(AN31+X30)*AT31</f>
         <v>0</v>
       </c>
-      <c r="AW31" s="221"/>
+      <c r="AW31" s="210"/>
       <c r="AX31" s="20">
         <f>IF(AF35,AT31*(AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AY31" s="221"/>
+      <c r="AY31" s="210"/>
       <c r="AZ31" s="20">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="BA31" s="221"/>
+        <v>2.1111111111111107</v>
+      </c>
+      <c r="BA31" s="210"/>
       <c r="BB31" s="20">
         <f>IF(AB32&lt;0,((AZ31-(AR31+AX31))*(1-(V33+V29)))+((AX31+AR31)*(1-(V29+AB32))),AZ31*(1-(V29+V33)))</f>
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="BC31" s="221"/>
+        <v>0.70370370370370361</v>
+      </c>
+      <c r="BC31" s="210"/>
       <c r="BD31" s="18">
         <f>IF(AB31&gt;0,((BB31-(AR31+AX31))*V34)+((AR31+AX31)*AB31),BB31*V34)</f>
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="BE31" s="221"/>
+        <v>0.70370370370370361</v>
+      </c>
+      <c r="BE31" s="210"/>
       <c r="BF31" s="18">
         <f>(Z32*(AJ30+AJ33+AL30+AL33))+((AR31+AX31)*AB30)</f>
         <v>0</v>
       </c>
-      <c r="BG31" s="221"/>
+      <c r="BG31" s="210"/>
       <c r="BH31" s="181">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333337</v>
+        <v>0.70370370370370361</v>
       </c>
       <c r="BI31" s="124" t="s">
         <v>48</v>
@@ -14622,20 +14622,20 @@
       </c>
       <c r="E32" s="165">
         <f>IF(AND(AD32,AF36),BD32+BF32,NA())</f>
-        <v>-0.33333333333333337</v>
+        <v>0.70370370370370361</v>
       </c>
       <c r="F32" s="30">
         <f>IFERROR(E32/P30,NA())</f>
-        <v>-2.2222222222222223E-2</v>
-      </c>
-      <c r="G32" s="245"/>
+        <v>4.6913580246913576E-2</v>
+      </c>
+      <c r="G32" s="203"/>
       <c r="H32" s="84"/>
       <c r="I32" s="185" t="str">
         <f>"+- to hit"</f>
         <v>+- to hit</v>
       </c>
       <c r="J32" s="5">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="K32" s="79"/>
       <c r="L32" s="185" t="str">
@@ -14645,17 +14645,17 @@
       <c r="M32" s="5">
         <v>0</v>
       </c>
-      <c r="N32" s="212" t="s">
+      <c r="N32" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="O32" s="212"/>
+      <c r="O32" s="208"/>
       <c r="P32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="212" t="s">
+      <c r="Q32" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R32" s="212"/>
+      <c r="R32" s="208"/>
       <c r="S32" s="5" t="s">
         <v>19</v>
       </c>
@@ -14704,7 +14704,7 @@
       <c r="AI32" s="14"/>
       <c r="AJ32" s="20">
         <f>(V30+X29)*AJ31</f>
-        <v>0</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AK32" s="14" t="s">
         <v>78</v>
@@ -14725,52 +14725,52 @@
       </c>
       <c r="AP32" s="21">
         <f>IF(OR(AF31,AF32),AL34*AN32,AL34*(AN32+X30))</f>
-        <v>-1</v>
-      </c>
-      <c r="AQ32" s="221"/>
+        <v>2.1111111111111107</v>
+      </c>
+      <c r="AQ32" s="210"/>
       <c r="AR32" s="20">
         <f>IF(AF35,AL34*IF(OR(AF31,AF32),AB29,AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AS32" s="221"/>
+      <c r="AS32" s="210"/>
       <c r="AT32" s="20">
         <f>IF(AF32,AL34-(AL34*AN32),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU32" s="221"/>
+      <c r="AU32" s="210"/>
       <c r="AV32" s="20">
         <f>(AN32+X30)*AT32</f>
         <v>0</v>
       </c>
-      <c r="AW32" s="221"/>
+      <c r="AW32" s="210"/>
       <c r="AX32" s="20">
         <f>IF(AF35,AT32*(AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AY32" s="221"/>
+      <c r="AY32" s="210"/>
       <c r="AZ32" s="20">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="BA32" s="221"/>
+        <v>2.1111111111111107</v>
+      </c>
+      <c r="BA32" s="210"/>
       <c r="BB32" s="20">
         <f>IF(AB32&lt;0,((AZ32-(AR32+AX32))*(1-(V33+V29)))+((AX32+AR32)*(1-(V29+AB32))),AZ32*(1-(V29+V33)))</f>
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="BC32" s="221"/>
+        <v>0.70370370370370361</v>
+      </c>
+      <c r="BC32" s="210"/>
       <c r="BD32" s="18">
         <f>IF(AB31&gt;0,((BB32-(AR32+AX32))*V34)+((AR32+AX32)*AB31),BB32*V34)</f>
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="BE32" s="221"/>
+        <v>0.70370370370370361</v>
+      </c>
+      <c r="BE32" s="210"/>
       <c r="BF32" s="18">
         <f>(Z32*(AJ30+AJ33+AL30+AL33))+((AR32+AX32)*AB30)</f>
         <v>0</v>
       </c>
-      <c r="BG32" s="221"/>
+      <c r="BG32" s="210"/>
       <c r="BH32" s="181">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333337</v>
+        <v>0.70370370370370361</v>
       </c>
       <c r="BI32" s="124" t="s">
         <v>49</v>
@@ -14786,34 +14786,34 @@
       </c>
       <c r="E33" s="165">
         <f>IF(AND(AD33,AF36),BD33+BF33,NA())</f>
-        <v>-0.33333333333333337</v>
+        <v>0.70370370370370361</v>
       </c>
       <c r="F33" s="30">
         <f>IFERROR(E33/P30,NA())</f>
-        <v>-2.2222222222222223E-2</v>
-      </c>
-      <c r="G33" s="245"/>
+        <v>4.6913580246913576E-2</v>
+      </c>
+      <c r="G33" s="203"/>
       <c r="H33" s="87"/>
       <c r="I33" s="80"/>
       <c r="J33" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="212" t="s">
+      <c r="K33" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="212"/>
-      <c r="M33" s="212"/>
-      <c r="N33" s="212" t="s">
+      <c r="L33" s="208"/>
+      <c r="M33" s="208"/>
+      <c r="N33" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="212"/>
+      <c r="O33" s="208"/>
       <c r="P33" s="5">
         <v>0</v>
       </c>
-      <c r="Q33" s="212" t="s">
+      <c r="Q33" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="R33" s="212"/>
+      <c r="R33" s="208"/>
       <c r="S33" s="5">
         <v>0</v>
       </c>
@@ -14849,7 +14849,7 @@
       <c r="AK33" s="24"/>
       <c r="AL33" s="24">
         <f>IF(AF34,(Z29+X29)*(V31+AJ31+AJ34+AL31),0)</f>
-        <v>0</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="AM33" s="25" t="s">
         <v>110</v>
@@ -14863,52 +14863,52 @@
       </c>
       <c r="AP33" s="21">
         <f>IF(OR(AF31,AF32),AL34*AN33,AL34*(AN33+X30))</f>
-        <v>-1</v>
-      </c>
-      <c r="AQ33" s="221"/>
+        <v>2.1111111111111107</v>
+      </c>
+      <c r="AQ33" s="210"/>
       <c r="AR33" s="20">
         <f>IF(AF35,AL34*IF(OR(AF31,AF32),AB29,AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AS33" s="221"/>
+      <c r="AS33" s="210"/>
       <c r="AT33" s="20">
         <f>IF(AF32,AL34-(AL34*AN33),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU33" s="221"/>
+      <c r="AU33" s="210"/>
       <c r="AV33" s="20">
         <f>(AN33+X30)*AT33</f>
         <v>0</v>
       </c>
-      <c r="AW33" s="221"/>
+      <c r="AW33" s="210"/>
       <c r="AX33" s="20">
         <f>IF(AF35,AT33*(AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AY33" s="221"/>
+      <c r="AY33" s="210"/>
       <c r="AZ33" s="20">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="BA33" s="221"/>
+        <v>2.1111111111111107</v>
+      </c>
+      <c r="BA33" s="210"/>
       <c r="BB33" s="20">
         <f>IF(AB32&lt;0,((AZ33-(AR33+AX33))*(1-(V33+V29)))+((AX33+AR33)*(1-(V29+AB32))),AZ33*(1-(V29+V33)))</f>
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="BC33" s="221"/>
+        <v>0.70370370370370361</v>
+      </c>
+      <c r="BC33" s="210"/>
       <c r="BD33" s="18">
         <f>IF(AB31&gt;0,((BB33-(AR33+AX33))*V34)+((AR33+AX33)*AB31),BB33*V34)</f>
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="BE33" s="221"/>
+        <v>0.70370370370370361</v>
+      </c>
+      <c r="BE33" s="210"/>
       <c r="BF33" s="18">
         <f>(Z32*(AJ30+AJ33+AL30+AL33))+((AR33+AX33)*AB30)</f>
         <v>0</v>
       </c>
-      <c r="BG33" s="221"/>
+      <c r="BG33" s="210"/>
       <c r="BH33" s="181">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333337</v>
+        <v>0.70370370370370361</v>
       </c>
       <c r="BI33" s="124" t="s">
         <v>50</v>
@@ -14924,34 +14924,34 @@
       </c>
       <c r="E34" s="165">
         <f>IF(AND(AD34,AF36),BD34+BF34,NA())</f>
-        <v>-0.16666666666666669</v>
+        <v>0.3518518518518518</v>
       </c>
       <c r="F34" s="30">
         <f>IFERROR(E34/P30,NA())</f>
-        <v>-1.1111111111111112E-2</v>
-      </c>
-      <c r="G34" s="245"/>
+        <v>2.3456790123456788E-2</v>
+      </c>
+      <c r="G34" s="203"/>
       <c r="H34" s="84"/>
-      <c r="I34" s="223" t="s">
+      <c r="I34" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="223"/>
-      <c r="K34" s="223" t="s">
+      <c r="J34" s="207"/>
+      <c r="K34" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="L34" s="223"/>
-      <c r="M34" s="223"/>
-      <c r="N34" s="212" t="s">
+      <c r="L34" s="207"/>
+      <c r="M34" s="207"/>
+      <c r="N34" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="O34" s="212"/>
+      <c r="O34" s="208"/>
       <c r="P34" s="5">
         <v>0</v>
       </c>
-      <c r="Q34" s="212" t="s">
+      <c r="Q34" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="R34" s="212"/>
+      <c r="R34" s="208"/>
       <c r="S34" s="5">
         <v>0</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>51</v>
       </c>
       <c r="AF34" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="19" t="s">
         <v>57</v>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="AL34" s="20">
         <f>IF(V30=1,V31,(SUM(AJ29,AJ32,AL29,AL32))+(Z31*(SUM(AJ30,AJ33,AL30,AL33)))-(Z32*(AJ30+AJ33+AL30+AL33)))</f>
-        <v>-3</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="AM34" s="20" t="s">
         <v>62</v>
@@ -15007,52 +15007,52 @@
       </c>
       <c r="AP34" s="20">
         <f>IF(OR(AF31,AF32),AL34*AN34,AL34*(AN34+X30))</f>
-        <v>-0.5</v>
-      </c>
-      <c r="AQ34" s="221"/>
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="AQ34" s="210"/>
       <c r="AR34" s="20">
         <f>IF(AF35,AL34*IF(OR(AF31,AF32),AB29,AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AS34" s="221"/>
+      <c r="AS34" s="210"/>
       <c r="AT34" s="20">
         <f>IF(AF32,AL34-(AL34*AN34),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU34" s="221"/>
+      <c r="AU34" s="210"/>
       <c r="AV34" s="20">
         <f>(AN34+X30)*AT34</f>
         <v>0</v>
       </c>
-      <c r="AW34" s="221"/>
+      <c r="AW34" s="210"/>
       <c r="AX34" s="20">
         <f>IF(AF35,AT34*(AB29+X30),0)</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="221"/>
+      <c r="AY34" s="210"/>
       <c r="AZ34" s="20">
         <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="BA34" s="221"/>
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="BA34" s="210"/>
       <c r="BB34" s="20">
         <f>IF(AB32&lt;0,((AZ34-(AR34+AX34))*(1-(V33+V29)))+((AX34+AR34)*(1-(V29+AB32))),AZ34*(1-(V29+V33)))</f>
-        <v>-0.16666666666666669</v>
-      </c>
-      <c r="BC34" s="221"/>
+        <v>0.3518518518518518</v>
+      </c>
+      <c r="BC34" s="210"/>
       <c r="BD34" s="18">
         <f>IF(AB31&gt;0,((BB34-(AR34+AX34))*V34)+((AR34+AX34)*AB31),BB34*V34)</f>
-        <v>-0.16666666666666669</v>
-      </c>
-      <c r="BE34" s="221"/>
+        <v>0.3518518518518518</v>
+      </c>
+      <c r="BE34" s="210"/>
       <c r="BF34" s="18">
         <f>(Z32*(AJ30+AJ33+AL30+AL33))+((AR34+AX34)*AB30)</f>
         <v>0</v>
       </c>
-      <c r="BG34" s="221"/>
+      <c r="BG34" s="210"/>
       <c r="BH34" s="181">
         <f t="shared" si="0"/>
-        <v>-0.16666666666666669</v>
+        <v>0.3518518518518518</v>
       </c>
       <c r="BI34" s="124" t="s">
         <v>51</v>
@@ -15066,7 +15066,7 @@
       <c r="D35" s="53"/>
       <c r="E35" s="166"/>
       <c r="F35" s="53"/>
-      <c r="G35" s="245"/>
+      <c r="G35" s="203"/>
       <c r="H35" s="84"/>
       <c r="I35" s="185"/>
       <c r="J35" s="185"/>
@@ -15079,17 +15079,17 @@
       <c r="M35" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N35" s="212" t="s">
+      <c r="N35" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="212"/>
+      <c r="O35" s="208"/>
       <c r="P35" s="5">
         <v>0</v>
       </c>
-      <c r="Q35" s="213" t="s">
+      <c r="Q35" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="R35" s="213"/>
+      <c r="R35" s="217"/>
       <c r="S35" s="5">
         <v>0</v>
       </c>
@@ -15161,13 +15161,13 @@
       </c>
       <c r="E36" s="180">
         <f>IFERROR(BJ30,NA())</f>
-        <v>-0.3888888888888889</v>
+        <v>0.82098765432098764</v>
       </c>
       <c r="F36" s="3">
         <f>IFERROR(E36/P30,NA())</f>
-        <v>-2.5925925925925925E-2</v>
-      </c>
-      <c r="G36" s="245"/>
+        <v>5.473251028806584E-2</v>
+      </c>
+      <c r="G36" s="203"/>
       <c r="H36" s="84"/>
       <c r="I36" s="80"/>
       <c r="J36" s="80"/>
@@ -15250,56 +15250,56 @@
       <c r="R37" s="77"/>
       <c r="S37" s="77"/>
       <c r="T37" s="85"/>
-      <c r="V37" s="247"/>
-      <c r="W37" s="248"/>
-      <c r="X37" s="248"/>
-      <c r="Y37" s="249"/>
-      <c r="Z37" s="248"/>
-      <c r="AA37" s="248"/>
-      <c r="AB37" s="248"/>
-      <c r="AC37" s="248"/>
-      <c r="AD37" s="248"/>
-      <c r="AE37" s="248"/>
-      <c r="AF37" s="250"/>
-      <c r="AG37" s="250"/>
-      <c r="AH37" s="250"/>
-      <c r="AI37" s="250"/>
-      <c r="AJ37" s="248"/>
-      <c r="AK37" s="248"/>
-      <c r="AL37" s="248"/>
-      <c r="AM37" s="248"/>
-      <c r="AN37" s="251"/>
-      <c r="AO37" s="251"/>
-      <c r="AP37" s="251"/>
-      <c r="AQ37" s="251"/>
-      <c r="AR37" s="251"/>
-      <c r="AS37" s="251"/>
-      <c r="AT37" s="251"/>
-      <c r="AU37" s="251"/>
-      <c r="AV37" s="251"/>
-      <c r="AW37" s="251"/>
-      <c r="AX37" s="251"/>
-      <c r="AY37" s="251"/>
-      <c r="AZ37" s="251"/>
-      <c r="BA37" s="251"/>
-      <c r="BB37" s="251"/>
-      <c r="BC37" s="251"/>
-      <c r="BD37" s="251"/>
-      <c r="BE37" s="251"/>
-      <c r="BF37" s="251"/>
-      <c r="BG37" s="251"/>
-      <c r="BH37" s="251"/>
-      <c r="BI37" s="251"/>
+      <c r="V37" s="193"/>
+      <c r="W37" s="194"/>
+      <c r="X37" s="194"/>
+      <c r="Y37" s="195"/>
+      <c r="Z37" s="194"/>
+      <c r="AA37" s="194"/>
+      <c r="AB37" s="194"/>
+      <c r="AC37" s="194"/>
+      <c r="AD37" s="194"/>
+      <c r="AE37" s="194"/>
+      <c r="AF37" s="196"/>
+      <c r="AG37" s="196"/>
+      <c r="AH37" s="196"/>
+      <c r="AI37" s="196"/>
+      <c r="AJ37" s="194"/>
+      <c r="AK37" s="194"/>
+      <c r="AL37" s="194"/>
+      <c r="AM37" s="194"/>
+      <c r="AN37" s="197"/>
+      <c r="AO37" s="197"/>
+      <c r="AP37" s="197"/>
+      <c r="AQ37" s="197"/>
+      <c r="AR37" s="197"/>
+      <c r="AS37" s="197"/>
+      <c r="AT37" s="197"/>
+      <c r="AU37" s="197"/>
+      <c r="AV37" s="197"/>
+      <c r="AW37" s="197"/>
+      <c r="AX37" s="197"/>
+      <c r="AY37" s="197"/>
+      <c r="AZ37" s="197"/>
+      <c r="BA37" s="197"/>
+      <c r="BB37" s="197"/>
+      <c r="BC37" s="197"/>
+      <c r="BD37" s="197"/>
+      <c r="BE37" s="197"/>
+      <c r="BF37" s="197"/>
+      <c r="BG37" s="197"/>
+      <c r="BH37" s="197"/>
+      <c r="BI37" s="197"/>
       <c r="BJ37" s="141"/>
       <c r="BK37" s="119"/>
     </row>
     <row r="38" spans="1:63" ht="15" customHeight="1">
       <c r="A38" s="126"/>
-      <c r="B38" s="236" t="str">
+      <c r="B38" s="211" t="str">
         <f>IF(I40="","",I40)</f>
         <v>Weapon 2</v>
       </c>
-      <c r="C38" s="236"/>
+      <c r="C38" s="211"/>
       <c r="D38" s="8"/>
       <c r="E38" s="168" t="s">
         <v>11</v>
@@ -15307,82 +15307,82 @@
       <c r="F38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="238"/>
+      <c r="G38" s="213"/>
       <c r="H38" s="82"/>
-      <c r="I38" s="214" t="str">
+      <c r="I38" s="204" t="str">
         <f>IF(I40="","",I40)</f>
         <v>Weapon 2</v>
       </c>
-      <c r="J38" s="214"/>
-      <c r="K38" s="214"/>
-      <c r="L38" s="214"/>
-      <c r="M38" s="214"/>
-      <c r="N38" s="214"/>
-      <c r="O38" s="214"/>
-      <c r="P38" s="214"/>
-      <c r="Q38" s="214"/>
-      <c r="R38" s="214"/>
-      <c r="S38" s="214"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="204"/>
+      <c r="L38" s="204"/>
+      <c r="M38" s="204"/>
+      <c r="N38" s="204"/>
+      <c r="O38" s="204"/>
+      <c r="P38" s="204"/>
+      <c r="Q38" s="204"/>
+      <c r="R38" s="204"/>
+      <c r="S38" s="204"/>
       <c r="T38" s="83"/>
-      <c r="V38" s="203" t="s">
+      <c r="V38" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="W38" s="204"/>
-      <c r="X38" s="204"/>
-      <c r="Y38" s="204"/>
-      <c r="Z38" s="204"/>
-      <c r="AA38" s="204"/>
-      <c r="AB38" s="204"/>
-      <c r="AC38" s="204"/>
-      <c r="AD38" s="204" t="s">
+      <c r="W38" s="199"/>
+      <c r="X38" s="199"/>
+      <c r="Y38" s="199"/>
+      <c r="Z38" s="199"/>
+      <c r="AA38" s="199"/>
+      <c r="AB38" s="199"/>
+      <c r="AC38" s="199"/>
+      <c r="AD38" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="AE38" s="204"/>
-      <c r="AF38" s="204"/>
-      <c r="AG38" s="204"/>
+      <c r="AE38" s="199"/>
+      <c r="AF38" s="199"/>
+      <c r="AG38" s="199"/>
       <c r="AH38" s="187"/>
       <c r="AI38" s="187"/>
-      <c r="AJ38" s="204" t="s">
+      <c r="AJ38" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="AK38" s="204"/>
-      <c r="AL38" s="204"/>
-      <c r="AM38" s="204"/>
-      <c r="AN38" s="204"/>
-      <c r="AO38" s="204" t="s">
+      <c r="AK38" s="199"/>
+      <c r="AL38" s="199"/>
+      <c r="AM38" s="199"/>
+      <c r="AN38" s="199"/>
+      <c r="AO38" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="AP38" s="204"/>
-      <c r="AQ38" s="204"/>
-      <c r="AR38" s="204"/>
-      <c r="AS38" s="204"/>
-      <c r="AT38" s="204"/>
-      <c r="AU38" s="204"/>
-      <c r="AV38" s="204"/>
-      <c r="AW38" s="204"/>
-      <c r="AX38" s="204"/>
-      <c r="AY38" s="204"/>
-      <c r="AZ38" s="204"/>
-      <c r="BA38" s="204"/>
-      <c r="BB38" s="204" t="s">
+      <c r="AP38" s="199"/>
+      <c r="AQ38" s="199"/>
+      <c r="AR38" s="199"/>
+      <c r="AS38" s="199"/>
+      <c r="AT38" s="199"/>
+      <c r="AU38" s="199"/>
+      <c r="AV38" s="199"/>
+      <c r="AW38" s="199"/>
+      <c r="AX38" s="199"/>
+      <c r="AY38" s="199"/>
+      <c r="AZ38" s="199"/>
+      <c r="BA38" s="199"/>
+      <c r="BB38" s="199" t="s">
         <v>90</v>
       </c>
-      <c r="BC38" s="204"/>
-      <c r="BD38" s="204"/>
-      <c r="BE38" s="204"/>
-      <c r="BF38" s="204"/>
-      <c r="BG38" s="204"/>
-      <c r="BH38" s="204"/>
-      <c r="BI38" s="204"/>
-      <c r="BJ38" s="204" t="s">
+      <c r="BC38" s="199"/>
+      <c r="BD38" s="199"/>
+      <c r="BE38" s="199"/>
+      <c r="BF38" s="199"/>
+      <c r="BG38" s="199"/>
+      <c r="BH38" s="199"/>
+      <c r="BI38" s="199"/>
+      <c r="BJ38" s="199" t="s">
         <v>91</v>
       </c>
-      <c r="BK38" s="211"/>
+      <c r="BK38" s="218"/>
     </row>
     <row r="39" spans="1:63" ht="15" customHeight="1">
       <c r="A39" s="127"/>
-      <c r="B39" s="237"/>
-      <c r="C39" s="237"/>
+      <c r="B39" s="212"/>
+      <c r="C39" s="212"/>
       <c r="D39" s="38" t="s">
         <v>1</v>
       </c>
@@ -15394,7 +15394,7 @@
         <f>IFERROR(E39/P40,NA())</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="G39" s="239"/>
+      <c r="G39" s="214"/>
       <c r="H39" s="84"/>
       <c r="I39" s="78" t="s">
         <v>13</v>
@@ -15496,63 +15496,63 @@
         <f>IF(OR(AF41,AF42),AL44*AN39,AL44*(AN39+X40))</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="AQ39" s="221" t="s">
+      <c r="AQ39" s="210" t="s">
         <v>77</v>
       </c>
       <c r="AR39" s="20">
         <f>IF(AF45,AL44*IF(OR(AF41,AF42),AB39,AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AS39" s="221" t="s">
+      <c r="AS39" s="210" t="s">
         <v>64</v>
       </c>
       <c r="AT39" s="20">
         <f>IF(AF42,AL44-(AL44*AN39),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU39" s="221" t="s">
+      <c r="AU39" s="210" t="s">
         <v>60</v>
       </c>
       <c r="AV39" s="20">
         <f>(AN39+X40)*AT39</f>
         <v>0</v>
       </c>
-      <c r="AW39" s="221" t="s">
+      <c r="AW39" s="210" t="s">
         <v>78</v>
       </c>
       <c r="AX39" s="20">
         <f>IF(AF45,AT39*(AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="221" t="s">
+      <c r="AY39" s="210" t="s">
         <v>65</v>
       </c>
       <c r="AZ39" s="20">
         <f>AV39+AP39</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="BA39" s="221" t="s">
+      <c r="BA39" s="210" t="s">
         <v>63</v>
       </c>
       <c r="BB39" s="20">
         <f>IF(AB42&lt;0,((AZ39-(AR39+AX39))*(1-(V43+V39)))+((AX39+AR39)*(1-(V39+AB42))),AZ39*(1-(V39+V43)))</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="BC39" s="221" t="s">
+      <c r="BC39" s="210" t="s">
         <v>68</v>
       </c>
       <c r="BD39" s="18">
         <f>IF(AB41&gt;0,((BB39-(AR39+AX39))*V44)+((AR39+AX39)*AB41),BB39*V44)</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="BE39" s="221" t="s">
+      <c r="BE39" s="210" t="s">
         <v>76</v>
       </c>
       <c r="BF39" s="18">
         <f>(Z42*(AJ40+AJ43+AL40+AL43))+((AR39+AX39)*AB40)</f>
         <v>0</v>
       </c>
-      <c r="BG39" s="221" t="s">
+      <c r="BG39" s="210" t="s">
         <v>69</v>
       </c>
       <c r="BH39" s="181">
@@ -15572,8 +15572,8 @@
     </row>
     <row r="40" spans="1:63" ht="15" customHeight="1">
       <c r="A40" s="127"/>
-      <c r="B40" s="237"/>
-      <c r="C40" s="237"/>
+      <c r="B40" s="212"/>
+      <c r="C40" s="212"/>
       <c r="D40" s="38" t="s">
         <v>2</v>
       </c>
@@ -15585,7 +15585,7 @@
         <f>IFERROR(E40/P40,NA())</f>
         <v>0.27777777777777785</v>
       </c>
-      <c r="G40" s="239"/>
+      <c r="G40" s="214"/>
       <c r="H40" s="84"/>
       <c r="I40" s="4" t="s">
         <v>104</v>
@@ -15683,47 +15683,47 @@
         <f>IF(OR(AF41,AF42),AL44*AN40,AL44*(AN40+X40))</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AQ40" s="221"/>
+      <c r="AQ40" s="210"/>
       <c r="AR40" s="20">
         <f>IF(AF45,AL44*IF(OR(AF41,AF42),AB39,AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AS40" s="221"/>
+      <c r="AS40" s="210"/>
       <c r="AT40" s="20">
         <f>IF(AF42,AL44-(AL44*AN40),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU40" s="221"/>
+      <c r="AU40" s="210"/>
       <c r="AV40" s="20">
         <f>(AN40+X40)*AT40</f>
         <v>0</v>
       </c>
-      <c r="AW40" s="221"/>
+      <c r="AW40" s="210"/>
       <c r="AX40" s="20">
         <f>IF(AF45,AT40*(AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AY40" s="221"/>
+      <c r="AY40" s="210"/>
       <c r="AZ40" s="20">
         <f t="shared" ref="AZ40:AZ44" si="3">AV40+AP40</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="BA40" s="221"/>
+      <c r="BA40" s="210"/>
       <c r="BB40" s="20">
         <f>IF(AB42&lt;0,((AZ40-(AR40+AX40))*(1-(V43+V39)))+((AX40+AR40)*(1-(V39+AB42))),AZ40*(1-(V39+V43)))</f>
         <v>0.55555555555555569</v>
       </c>
-      <c r="BC40" s="221"/>
+      <c r="BC40" s="210"/>
       <c r="BD40" s="18">
         <f>IF(AB41&gt;0,((BB40-(AR40+AX40))*V44)+((AR40+AX40)*AB41),BB40*V44)</f>
         <v>0.55555555555555569</v>
       </c>
-      <c r="BE40" s="221"/>
+      <c r="BE40" s="210"/>
       <c r="BF40" s="18">
         <f>(Z42*(AJ40+AJ43+AL40+AL43))+((AR40+AX40)*AB40)</f>
         <v>0</v>
       </c>
-      <c r="BG40" s="221"/>
+      <c r="BG40" s="210"/>
       <c r="BH40" s="181">
         <f t="shared" si="2"/>
         <v>0.55555555555555569</v>
@@ -15741,8 +15741,8 @@
     </row>
     <row r="41" spans="1:63" ht="15" customHeight="1">
       <c r="A41" s="127"/>
-      <c r="B41" s="237"/>
-      <c r="C41" s="237"/>
+      <c r="B41" s="212"/>
+      <c r="C41" s="212"/>
       <c r="D41" s="38" t="s">
         <v>3</v>
       </c>
@@ -15754,19 +15754,19 @@
         <f>IFERROR(E41/P40,NA())</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="G41" s="239"/>
+      <c r="G41" s="214"/>
       <c r="H41" s="84"/>
-      <c r="I41" s="222"/>
-      <c r="J41" s="222"/>
-      <c r="K41" s="222"/>
-      <c r="L41" s="222"/>
-      <c r="M41" s="222"/>
-      <c r="N41" s="222"/>
-      <c r="O41" s="222"/>
-      <c r="P41" s="222"/>
-      <c r="Q41" s="222"/>
-      <c r="R41" s="222"/>
-      <c r="S41" s="222"/>
+      <c r="I41" s="215"/>
+      <c r="J41" s="215"/>
+      <c r="K41" s="215"/>
+      <c r="L41" s="215"/>
+      <c r="M41" s="215"/>
+      <c r="N41" s="215"/>
+      <c r="O41" s="215"/>
+      <c r="P41" s="215"/>
+      <c r="Q41" s="215"/>
+      <c r="R41" s="215"/>
+      <c r="S41" s="215"/>
       <c r="T41" s="85"/>
       <c r="V41" s="162">
         <f>(IF(L40="D3",2,IF(L40="2D3",4,IF(L40="D6",3.5,IF(L40="2D6",7,IF(L40="3D6",10.5,L40))))))</f>
@@ -15835,47 +15835,47 @@
         <f>IF(OR(AF41,AF42),AL44*AN41,AL44*(AN41+X40))</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="AQ41" s="221"/>
+      <c r="AQ41" s="210"/>
       <c r="AR41" s="20">
         <f>IF(AF45,AL44*IF(OR(AF41,AF42),AB39,AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AS41" s="221"/>
+      <c r="AS41" s="210"/>
       <c r="AT41" s="20">
         <f>IF(AF42,AL44-(AL44*AN41),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU41" s="221"/>
+      <c r="AU41" s="210"/>
       <c r="AV41" s="20">
         <f>(AN41+X40)*AT41</f>
         <v>0</v>
       </c>
-      <c r="AW41" s="221"/>
+      <c r="AW41" s="210"/>
       <c r="AX41" s="20">
         <f>IF(AF45,AT41*(AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AY41" s="221"/>
+      <c r="AY41" s="210"/>
       <c r="AZ41" s="20">
         <f t="shared" si="3"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="BA41" s="221"/>
+      <c r="BA41" s="210"/>
       <c r="BB41" s="20">
         <f>IF(AB42&lt;0,((AZ41-(AR41+AX41))*(1-(V43+V39)))+((AX41+AR41)*(1-(V39+AB42))),AZ41*(1-(V39+V43)))</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="BC41" s="221"/>
+      <c r="BC41" s="210"/>
       <c r="BD41" s="18">
         <f>IF(AB41&gt;0,((BB41-(AR41+AX41))*V44)+((AR41+AX41)*AB41),BB41*V44)</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="BE41" s="221"/>
+      <c r="BE41" s="210"/>
       <c r="BF41" s="18">
         <f>(Z42*(AJ40+AJ43+AL40+AL43))+((AR41+AX41)*AB40)</f>
         <v>0</v>
       </c>
-      <c r="BG41" s="221"/>
+      <c r="BG41" s="210"/>
       <c r="BH41" s="181">
         <f t="shared" si="2"/>
         <v>0.37037037037037041</v>
@@ -15900,7 +15900,7 @@
         <f>IFERROR(E42/P40,NA())</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="G42" s="239"/>
+      <c r="G42" s="214"/>
       <c r="H42" s="84"/>
       <c r="I42" s="185" t="str">
         <f>"+- to hit"</f>
@@ -15917,17 +15917,17 @@
       <c r="M42" s="5">
         <v>0</v>
       </c>
-      <c r="N42" s="212" t="s">
+      <c r="N42" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="212"/>
+      <c r="O42" s="208"/>
       <c r="P42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="212" t="s">
+      <c r="Q42" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R42" s="212"/>
+      <c r="R42" s="208"/>
       <c r="S42" s="5" t="s">
         <v>19</v>
       </c>
@@ -15999,47 +15999,47 @@
         <f>IF(OR(AF41,AF42),AL44*AN42,AL44*(AN42+X40))</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="AQ42" s="221"/>
+      <c r="AQ42" s="210"/>
       <c r="AR42" s="20">
         <f>IF(AF45,AL44*IF(OR(AF41,AF42),AB39,AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AS42" s="221"/>
+      <c r="AS42" s="210"/>
       <c r="AT42" s="20">
         <f>IF(AF42,AL44-(AL44*AN42),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU42" s="221"/>
+      <c r="AU42" s="210"/>
       <c r="AV42" s="20">
         <f>(AN42+X40)*AT42</f>
         <v>0</v>
       </c>
-      <c r="AW42" s="221"/>
+      <c r="AW42" s="210"/>
       <c r="AX42" s="20">
         <f>IF(AF45,AT42*(AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AY42" s="221"/>
+      <c r="AY42" s="210"/>
       <c r="AZ42" s="20">
         <f t="shared" si="3"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="BA42" s="221"/>
+      <c r="BA42" s="210"/>
       <c r="BB42" s="20">
         <f>IF(AB42&lt;0,((AZ42-(AR42+AX42))*(1-(V43+V39)))+((AX42+AR42)*(1-(V39+AB42))),AZ42*(1-(V39+V43)))</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="BC42" s="221"/>
+      <c r="BC42" s="210"/>
       <c r="BD42" s="18">
         <f>IF(AB41&gt;0,((BB42-(AR42+AX42))*V44)+((AR42+AX42)*AB41),BB42*V44)</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="BE42" s="221"/>
+      <c r="BE42" s="210"/>
       <c r="BF42" s="18">
         <f>(Z42*(AJ40+AJ43+AL40+AL43))+((AR42+AX42)*AB40)</f>
         <v>0</v>
       </c>
-      <c r="BG42" s="221"/>
+      <c r="BG42" s="210"/>
       <c r="BH42" s="181">
         <f t="shared" si="2"/>
         <v>0.37037037037037041</v>
@@ -16064,28 +16064,28 @@
         <f>IFERROR(E43/P40,NA())</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="G43" s="239"/>
+      <c r="G43" s="214"/>
       <c r="H43" s="87"/>
       <c r="I43" s="80"/>
       <c r="J43" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="212" t="s">
+      <c r="K43" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="212"/>
-      <c r="M43" s="212"/>
-      <c r="N43" s="212" t="s">
+      <c r="L43" s="208"/>
+      <c r="M43" s="208"/>
+      <c r="N43" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="212"/>
+      <c r="O43" s="208"/>
       <c r="P43" s="5">
         <v>0</v>
       </c>
-      <c r="Q43" s="212" t="s">
+      <c r="Q43" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="R43" s="212"/>
+      <c r="R43" s="208"/>
       <c r="S43" s="5">
         <v>1</v>
       </c>
@@ -16142,47 +16142,47 @@
         <f>IF(OR(AF41,AF42),AL44*AN43,AL44*(AN43+X40))</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="AQ43" s="221"/>
+      <c r="AQ43" s="210"/>
       <c r="AR43" s="20">
         <f>IF(AF45,AL44*IF(OR(AF41,AF42),AB39,AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AS43" s="221"/>
+      <c r="AS43" s="210"/>
       <c r="AT43" s="20">
         <f>IF(AF42,AL44-(AL44*AN43),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU43" s="221"/>
+      <c r="AU43" s="210"/>
       <c r="AV43" s="20">
         <f>(AN43+X40)*AT43</f>
         <v>0</v>
       </c>
-      <c r="AW43" s="221"/>
+      <c r="AW43" s="210"/>
       <c r="AX43" s="20">
         <f>IF(AF45,AT43*(AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AY43" s="221"/>
+      <c r="AY43" s="210"/>
       <c r="AZ43" s="20">
         <f t="shared" si="3"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="BA43" s="221"/>
+      <c r="BA43" s="210"/>
       <c r="BB43" s="20">
         <f>IF(AB42&lt;0,((AZ43-(AR43+AX43))*(1-(V43+V39)))+((AX43+AR43)*(1-(V39+AB42))),AZ43*(1-(V39+V43)))</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="BC43" s="221"/>
+      <c r="BC43" s="210"/>
       <c r="BD43" s="18">
         <f>IF(AB41&gt;0,((BB43-(AR43+AX43))*V44)+((AR43+AX43)*AB41),BB43*V44)</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="BE43" s="221"/>
+      <c r="BE43" s="210"/>
       <c r="BF43" s="18">
         <f>(Z42*(AJ40+AJ43+AL40+AL43))+((AR43+AX43)*AB40)</f>
         <v>0</v>
       </c>
-      <c r="BG43" s="221"/>
+      <c r="BG43" s="210"/>
       <c r="BH43" s="181">
         <f t="shared" si="2"/>
         <v>0.37037037037037041</v>
@@ -16207,28 +16207,28 @@
         <f>IFERROR(E44/P40,NA())</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="G44" s="239"/>
+      <c r="G44" s="214"/>
       <c r="H44" s="84"/>
-      <c r="I44" s="223" t="s">
+      <c r="I44" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="223"/>
-      <c r="K44" s="223" t="s">
+      <c r="J44" s="207"/>
+      <c r="K44" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="223"/>
-      <c r="M44" s="223"/>
-      <c r="N44" s="212" t="s">
+      <c r="L44" s="207"/>
+      <c r="M44" s="207"/>
+      <c r="N44" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="O44" s="212"/>
+      <c r="O44" s="208"/>
       <c r="P44" s="5">
         <v>0</v>
       </c>
-      <c r="Q44" s="212" t="s">
+      <c r="Q44" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="R44" s="212"/>
+      <c r="R44" s="208"/>
       <c r="S44" s="5">
         <v>0</v>
       </c>
@@ -16286,47 +16286,47 @@
         <f>IF(OR(AF41,AF42),AL44*AN44,AL44*(AN44+X40))</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AQ44" s="221"/>
+      <c r="AQ44" s="210"/>
       <c r="AR44" s="20">
         <f>IF(AF45,AL44*IF(OR(AF41,AF42),AB39,AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AS44" s="221"/>
+      <c r="AS44" s="210"/>
       <c r="AT44" s="20">
         <f>IF(AF42,AL44-(AL44*AN44),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU44" s="221"/>
+      <c r="AU44" s="210"/>
       <c r="AV44" s="20">
         <f>(AN44+X40)*AT44</f>
         <v>0</v>
       </c>
-      <c r="AW44" s="221"/>
+      <c r="AW44" s="210"/>
       <c r="AX44" s="20">
         <f>IF(AF45,AT44*(AB39+X40),0)</f>
         <v>0</v>
       </c>
-      <c r="AY44" s="221"/>
+      <c r="AY44" s="210"/>
       <c r="AZ44" s="20">
         <f t="shared" si="3"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="BA44" s="221"/>
+      <c r="BA44" s="210"/>
       <c r="BB44" s="20">
         <f>IF(AB42&lt;0,((AZ44-(AR44+AX44))*(1-(V43+V39)))+((AX44+AR44)*(1-(V39+AB42))),AZ44*(1-(V39+V43)))</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="BC44" s="221"/>
+      <c r="BC44" s="210"/>
       <c r="BD44" s="18">
         <f>IF(AB41&gt;0,((BB44-(AR44+AX44))*V44)+((AR44+AX44)*AB41),BB44*V44)</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="BE44" s="221"/>
+      <c r="BE44" s="210"/>
       <c r="BF44" s="18">
         <f>(Z42*(AJ40+AJ43+AL40+AL43))+((AR44+AX44)*AB40)</f>
         <v>0</v>
       </c>
-      <c r="BG44" s="221"/>
+      <c r="BG44" s="210"/>
       <c r="BH44" s="181">
         <f t="shared" si="2"/>
         <v>0.1851851851851852</v>
@@ -16343,7 +16343,7 @@
       <c r="D45" s="52"/>
       <c r="E45" s="169"/>
       <c r="F45" s="52"/>
-      <c r="G45" s="239"/>
+      <c r="G45" s="214"/>
       <c r="H45" s="84"/>
       <c r="I45" s="185"/>
       <c r="J45" s="185"/>
@@ -16356,17 +16356,17 @@
       <c r="M45" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N45" s="212" t="s">
+      <c r="N45" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O45" s="212"/>
+      <c r="O45" s="208"/>
       <c r="P45" s="5">
         <v>0</v>
       </c>
-      <c r="Q45" s="213" t="s">
+      <c r="Q45" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="R45" s="213"/>
+      <c r="R45" s="217"/>
       <c r="S45" s="5">
         <v>0</v>
       </c>
@@ -16444,7 +16444,7 @@
         <f>IFERROR(E46/P40,NA())</f>
         <v>0.21604938271604937</v>
       </c>
-      <c r="G46" s="239"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="84"/>
       <c r="I46" s="80"/>
       <c r="J46" s="80"/>
@@ -16549,11 +16549,11 @@
     </row>
     <row r="48" spans="1:63" ht="15" customHeight="1">
       <c r="A48" s="129"/>
-      <c r="B48" s="232" t="str">
+      <c r="B48" s="219" t="str">
         <f>IF(I50="","",I50)</f>
         <v>Weapon 3</v>
       </c>
-      <c r="C48" s="232"/>
+      <c r="C48" s="219"/>
       <c r="D48" s="10"/>
       <c r="E48" s="171" t="s">
         <v>11</v>
@@ -16561,82 +16561,82 @@
       <c r="F48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="234"/>
+      <c r="G48" s="221"/>
       <c r="H48" s="82"/>
-      <c r="I48" s="214" t="str">
+      <c r="I48" s="204" t="str">
         <f>IF(I50="","",I50)</f>
         <v>Weapon 3</v>
       </c>
-      <c r="J48" s="214"/>
-      <c r="K48" s="214"/>
-      <c r="L48" s="214"/>
-      <c r="M48" s="214"/>
-      <c r="N48" s="214"/>
-      <c r="O48" s="214"/>
-      <c r="P48" s="214"/>
-      <c r="Q48" s="214"/>
-      <c r="R48" s="214"/>
-      <c r="S48" s="214"/>
+      <c r="J48" s="204"/>
+      <c r="K48" s="204"/>
+      <c r="L48" s="204"/>
+      <c r="M48" s="204"/>
+      <c r="N48" s="204"/>
+      <c r="O48" s="204"/>
+      <c r="P48" s="204"/>
+      <c r="Q48" s="204"/>
+      <c r="R48" s="204"/>
+      <c r="S48" s="204"/>
       <c r="T48" s="83"/>
-      <c r="V48" s="246" t="s">
+      <c r="V48" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="W48" s="240"/>
-      <c r="X48" s="240"/>
-      <c r="Y48" s="240"/>
-      <c r="Z48" s="240"/>
-      <c r="AA48" s="240"/>
-      <c r="AB48" s="240"/>
-      <c r="AC48" s="240"/>
-      <c r="AD48" s="240" t="s">
+      <c r="W48" s="206"/>
+      <c r="X48" s="206"/>
+      <c r="Y48" s="206"/>
+      <c r="Z48" s="206"/>
+      <c r="AA48" s="206"/>
+      <c r="AB48" s="206"/>
+      <c r="AC48" s="206"/>
+      <c r="AD48" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE48" s="240"/>
-      <c r="AF48" s="240"/>
-      <c r="AG48" s="240"/>
+      <c r="AE48" s="206"/>
+      <c r="AF48" s="206"/>
+      <c r="AG48" s="206"/>
       <c r="AH48" s="192"/>
       <c r="AI48" s="192"/>
-      <c r="AJ48" s="240" t="s">
+      <c r="AJ48" s="206" t="s">
         <v>88</v>
       </c>
-      <c r="AK48" s="240"/>
-      <c r="AL48" s="240"/>
-      <c r="AM48" s="240"/>
-      <c r="AN48" s="240"/>
-      <c r="AO48" s="240" t="s">
+      <c r="AK48" s="206"/>
+      <c r="AL48" s="206"/>
+      <c r="AM48" s="206"/>
+      <c r="AN48" s="206"/>
+      <c r="AO48" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="AP48" s="240"/>
-      <c r="AQ48" s="240"/>
-      <c r="AR48" s="240"/>
-      <c r="AS48" s="240"/>
-      <c r="AT48" s="240"/>
-      <c r="AU48" s="240"/>
-      <c r="AV48" s="240"/>
-      <c r="AW48" s="240"/>
-      <c r="AX48" s="240"/>
-      <c r="AY48" s="240"/>
-      <c r="AZ48" s="240"/>
-      <c r="BA48" s="240"/>
-      <c r="BB48" s="240" t="s">
+      <c r="AP48" s="206"/>
+      <c r="AQ48" s="206"/>
+      <c r="AR48" s="206"/>
+      <c r="AS48" s="206"/>
+      <c r="AT48" s="206"/>
+      <c r="AU48" s="206"/>
+      <c r="AV48" s="206"/>
+      <c r="AW48" s="206"/>
+      <c r="AX48" s="206"/>
+      <c r="AY48" s="206"/>
+      <c r="AZ48" s="206"/>
+      <c r="BA48" s="206"/>
+      <c r="BB48" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="BC48" s="240"/>
-      <c r="BD48" s="240"/>
-      <c r="BE48" s="240"/>
-      <c r="BF48" s="240"/>
-      <c r="BG48" s="240"/>
-      <c r="BH48" s="240"/>
-      <c r="BI48" s="240"/>
-      <c r="BJ48" s="240" t="s">
+      <c r="BC48" s="206"/>
+      <c r="BD48" s="206"/>
+      <c r="BE48" s="206"/>
+      <c r="BF48" s="206"/>
+      <c r="BG48" s="206"/>
+      <c r="BH48" s="206"/>
+      <c r="BI48" s="206"/>
+      <c r="BJ48" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="BK48" s="241"/>
+      <c r="BK48" s="209"/>
     </row>
     <row r="49" spans="1:63" ht="15" customHeight="1">
       <c r="A49" s="130"/>
-      <c r="B49" s="233"/>
-      <c r="C49" s="233"/>
+      <c r="B49" s="220"/>
+      <c r="C49" s="220"/>
       <c r="D49" s="39" t="s">
         <v>1</v>
       </c>
@@ -16648,7 +16648,7 @@
         <f>IFERROR(E49/P50,NA())</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="G49" s="235"/>
+      <c r="G49" s="222"/>
       <c r="H49" s="84"/>
       <c r="I49" s="78" t="s">
         <v>13</v>
@@ -16750,63 +16750,63 @@
         <f>IF(OR(AF51,AF52),AL54*AN49,AL54*(AN49+X50))</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="AQ49" s="221" t="s">
+      <c r="AQ49" s="210" t="s">
         <v>77</v>
       </c>
       <c r="AR49" s="20">
         <f>IF(AF55,AL54*IF(OR(AF51,AF52),AB49,AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AS49" s="221" t="s">
+      <c r="AS49" s="210" t="s">
         <v>64</v>
       </c>
       <c r="AT49" s="20">
         <f>IF(AF52,AL54-(AL54*AN49),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU49" s="221" t="s">
+      <c r="AU49" s="210" t="s">
         <v>60</v>
       </c>
       <c r="AV49" s="20">
         <f>(AN49+X50)*AT49</f>
         <v>0</v>
       </c>
-      <c r="AW49" s="221" t="s">
+      <c r="AW49" s="210" t="s">
         <v>78</v>
       </c>
       <c r="AX49" s="20">
         <f>IF(AF55,AT49*(AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AY49" s="221" t="s">
+      <c r="AY49" s="210" t="s">
         <v>65</v>
       </c>
       <c r="AZ49" s="20">
         <f>AV49+AP49</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="BA49" s="221" t="s">
+      <c r="BA49" s="210" t="s">
         <v>63</v>
       </c>
       <c r="BB49" s="20">
         <f>IF(AB52&lt;0,((AZ49-(AR49+AX49))*(1-(V53+V49)))+((AX49+AR49)*(1-(V49+AB52))),AZ49*(1-(V49+V53)))</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="BC49" s="221" t="s">
+      <c r="BC49" s="210" t="s">
         <v>68</v>
       </c>
       <c r="BD49" s="18">
         <f>IF(AB51&gt;0,((BB49-(AR49+AX49))*V54)+((AR49+AX49)*AB51),BB49*V54)</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="BE49" s="221" t="s">
+      <c r="BE49" s="210" t="s">
         <v>76</v>
       </c>
       <c r="BF49" s="18">
         <f>(Z52*(AJ50+AJ53+AL50+AL53))+((AR49+AX49)*AB50)</f>
         <v>0</v>
       </c>
-      <c r="BG49" s="221" t="s">
+      <c r="BG49" s="210" t="s">
         <v>69</v>
       </c>
       <c r="BH49" s="181">
@@ -16826,8 +16826,8 @@
     </row>
     <row r="50" spans="1:63" ht="15" customHeight="1">
       <c r="A50" s="130"/>
-      <c r="B50" s="233"/>
-      <c r="C50" s="233"/>
+      <c r="B50" s="220"/>
+      <c r="C50" s="220"/>
       <c r="D50" s="39" t="s">
         <v>2</v>
       </c>
@@ -16839,7 +16839,7 @@
         <f>IFERROR(E50/P50,NA())</f>
         <v>0.13888888888888892</v>
       </c>
-      <c r="G50" s="235"/>
+      <c r="G50" s="222"/>
       <c r="H50" s="84"/>
       <c r="I50" s="4" t="s">
         <v>105</v>
@@ -16937,47 +16937,47 @@
         <f>IF(OR(AF51,AF52),AL54*AN50,AL54*(AN50+X50))</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AQ50" s="221"/>
+      <c r="AQ50" s="210"/>
       <c r="AR50" s="20">
         <f>IF(AF55,AL54*IF(OR(AF51,AF52),AB49,AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AS50" s="221"/>
+      <c r="AS50" s="210"/>
       <c r="AT50" s="20">
         <f>IF(AF52,AL54-(AL54*AN50),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU50" s="221"/>
+      <c r="AU50" s="210"/>
       <c r="AV50" s="20">
         <f>(AN50+X50)*AT50</f>
         <v>0</v>
       </c>
-      <c r="AW50" s="221"/>
+      <c r="AW50" s="210"/>
       <c r="AX50" s="20">
         <f>IF(AF55,AT50*(AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="221"/>
+      <c r="AY50" s="210"/>
       <c r="AZ50" s="20">
         <f t="shared" ref="AZ50:AZ54" si="5">AV50+AP50</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="BA50" s="221"/>
+      <c r="BA50" s="210"/>
       <c r="BB50" s="20">
         <f>IF(AB52&lt;0,((AZ50-(AR50+AX50))*(1-(V53+V49)))+((AX50+AR50)*(1-(V49+AB52))),AZ50*(1-(V49+V53)))</f>
         <v>0.27777777777777785</v>
       </c>
-      <c r="BC50" s="221"/>
+      <c r="BC50" s="210"/>
       <c r="BD50" s="18">
         <f>IF(AB51&gt;0,((BB50-(AR50+AX50))*V54)+((AR50+AX50)*AB51),BB50*V54)</f>
         <v>0.27777777777777785</v>
       </c>
-      <c r="BE50" s="221"/>
+      <c r="BE50" s="210"/>
       <c r="BF50" s="18">
         <f>(Z52*(AJ50+AJ53+AL50+AL53))+((AR50+AX50)*AB50)</f>
         <v>0</v>
       </c>
-      <c r="BG50" s="221"/>
+      <c r="BG50" s="210"/>
       <c r="BH50" s="181">
         <f t="shared" si="4"/>
         <v>0.27777777777777785</v>
@@ -16995,8 +16995,8 @@
     </row>
     <row r="51" spans="1:63" ht="15" customHeight="1">
       <c r="A51" s="130"/>
-      <c r="B51" s="233"/>
-      <c r="C51" s="233"/>
+      <c r="B51" s="220"/>
+      <c r="C51" s="220"/>
       <c r="D51" s="39" t="s">
         <v>3</v>
       </c>
@@ -17008,19 +17008,19 @@
         <f>IFERROR(E51/P50,NA())</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="G51" s="235"/>
+      <c r="G51" s="222"/>
       <c r="H51" s="84"/>
-      <c r="I51" s="222"/>
-      <c r="J51" s="222"/>
-      <c r="K51" s="222"/>
-      <c r="L51" s="222"/>
-      <c r="M51" s="222"/>
-      <c r="N51" s="222"/>
-      <c r="O51" s="222"/>
-      <c r="P51" s="222"/>
-      <c r="Q51" s="222"/>
-      <c r="R51" s="222"/>
-      <c r="S51" s="222"/>
+      <c r="I51" s="215"/>
+      <c r="J51" s="215"/>
+      <c r="K51" s="215"/>
+      <c r="L51" s="215"/>
+      <c r="M51" s="215"/>
+      <c r="N51" s="215"/>
+      <c r="O51" s="215"/>
+      <c r="P51" s="215"/>
+      <c r="Q51" s="215"/>
+      <c r="R51" s="215"/>
+      <c r="S51" s="215"/>
       <c r="T51" s="85"/>
       <c r="V51" s="162">
         <f>(IF(L50="D3",2,IF(L50="2D3",4,IF(L50="D6",3.5,IF(L50="2D6",7,IF(L50="3D6",10.5,L50))))))</f>
@@ -17089,47 +17089,47 @@
         <f>IF(OR(AF51,AF52),AL54*AN51,AL54*(AN51+X50))</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AQ51" s="221"/>
+      <c r="AQ51" s="210"/>
       <c r="AR51" s="20">
         <f>IF(AF55,AL54*IF(OR(AF51,AF52),AB49,AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AS51" s="221"/>
+      <c r="AS51" s="210"/>
       <c r="AT51" s="20">
         <f>IF(AF52,AL54-(AL54*AN51),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU51" s="221"/>
+      <c r="AU51" s="210"/>
       <c r="AV51" s="20">
         <f>(AN51+X50)*AT51</f>
         <v>0</v>
       </c>
-      <c r="AW51" s="221"/>
+      <c r="AW51" s="210"/>
       <c r="AX51" s="20">
         <f>IF(AF55,AT51*(AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="221"/>
+      <c r="AY51" s="210"/>
       <c r="AZ51" s="20">
         <f t="shared" si="5"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="BA51" s="221"/>
+      <c r="BA51" s="210"/>
       <c r="BB51" s="20">
         <f>IF(AB52&lt;0,((AZ51-(AR51+AX51))*(1-(V53+V49)))+((AX51+AR51)*(1-(V49+AB52))),AZ51*(1-(V49+V53)))</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="BC51" s="221"/>
+      <c r="BC51" s="210"/>
       <c r="BD51" s="18">
         <f>IF(AB51&gt;0,((BB51-(AR51+AX51))*V54)+((AR51+AX51)*AB51),BB51*V54)</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="BE51" s="221"/>
+      <c r="BE51" s="210"/>
       <c r="BF51" s="18">
         <f>(Z52*(AJ50+AJ53+AL50+AL53))+((AR51+AX51)*AB50)</f>
         <v>0</v>
       </c>
-      <c r="BG51" s="221"/>
+      <c r="BG51" s="210"/>
       <c r="BH51" s="181">
         <f t="shared" si="4"/>
         <v>0.1851851851851852</v>
@@ -17154,7 +17154,7 @@
         <f>IFERROR(E52/P50,NA())</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="G52" s="235"/>
+      <c r="G52" s="222"/>
       <c r="H52" s="84"/>
       <c r="I52" s="185" t="str">
         <f>"+- to hit"</f>
@@ -17171,17 +17171,17 @@
       <c r="M52" s="5">
         <v>0</v>
       </c>
-      <c r="N52" s="212" t="s">
+      <c r="N52" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="O52" s="212"/>
+      <c r="O52" s="208"/>
       <c r="P52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q52" s="212" t="s">
+      <c r="Q52" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R52" s="212"/>
+      <c r="R52" s="208"/>
       <c r="S52" s="5" t="s">
         <v>18</v>
       </c>
@@ -17253,47 +17253,47 @@
         <f>IF(OR(AF51,AF52),AL54*AN52,AL54*(AN52+X50))</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AQ52" s="221"/>
+      <c r="AQ52" s="210"/>
       <c r="AR52" s="20">
         <f>IF(AF55,AL54*IF(OR(AF51,AF52),AB49,AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AS52" s="221"/>
+      <c r="AS52" s="210"/>
       <c r="AT52" s="20">
         <f>IF(AF52,AL54-(AL54*AN52),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU52" s="221"/>
+      <c r="AU52" s="210"/>
       <c r="AV52" s="20">
         <f>(AN52+X50)*AT52</f>
         <v>0</v>
       </c>
-      <c r="AW52" s="221"/>
+      <c r="AW52" s="210"/>
       <c r="AX52" s="20">
         <f>IF(AF55,AT52*(AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="221"/>
+      <c r="AY52" s="210"/>
       <c r="AZ52" s="20">
         <f t="shared" si="5"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="BA52" s="221"/>
+      <c r="BA52" s="210"/>
       <c r="BB52" s="20">
         <f>IF(AB52&lt;0,((AZ52-(AR52+AX52))*(1-(V53+V49)))+((AX52+AR52)*(1-(V49+AB52))),AZ52*(1-(V49+V53)))</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="BC52" s="221"/>
+      <c r="BC52" s="210"/>
       <c r="BD52" s="18">
         <f>IF(AB51&gt;0,((BB52-(AR52+AX52))*V54)+((AR52+AX52)*AB51),BB52*V54)</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="BE52" s="221"/>
+      <c r="BE52" s="210"/>
       <c r="BF52" s="18">
         <f>(Z52*(AJ50+AJ53+AL50+AL53))+((AR52+AX52)*AB50)</f>
         <v>0</v>
       </c>
-      <c r="BG52" s="221"/>
+      <c r="BG52" s="210"/>
       <c r="BH52" s="181">
         <f t="shared" si="4"/>
         <v>0.1851851851851852</v>
@@ -17318,28 +17318,28 @@
         <f>IFERROR(E53/P50,NA())</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="G53" s="235"/>
+      <c r="G53" s="222"/>
       <c r="H53" s="87"/>
       <c r="I53" s="80"/>
       <c r="J53" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K53" s="212" t="s">
+      <c r="K53" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="212"/>
-      <c r="M53" s="212"/>
-      <c r="N53" s="212" t="s">
+      <c r="L53" s="208"/>
+      <c r="M53" s="208"/>
+      <c r="N53" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O53" s="212"/>
+      <c r="O53" s="208"/>
       <c r="P53" s="5">
         <v>0</v>
       </c>
-      <c r="Q53" s="212" t="s">
+      <c r="Q53" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="R53" s="212"/>
+      <c r="R53" s="208"/>
       <c r="S53" s="5">
         <v>0</v>
       </c>
@@ -17396,47 +17396,47 @@
         <f>IF(OR(AF51,AF52),AL54*AN53,AL54*(AN53+X50))</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AQ53" s="221"/>
+      <c r="AQ53" s="210"/>
       <c r="AR53" s="20">
         <f>IF(AF55,AL54*IF(OR(AF51,AF52),AB49,AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AS53" s="221"/>
+      <c r="AS53" s="210"/>
       <c r="AT53" s="20">
         <f>IF(AF52,AL54-(AL54*AN53),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU53" s="221"/>
+      <c r="AU53" s="210"/>
       <c r="AV53" s="20">
         <f>(AN53+X50)*AT53</f>
         <v>0</v>
       </c>
-      <c r="AW53" s="221"/>
+      <c r="AW53" s="210"/>
       <c r="AX53" s="20">
         <f>IF(AF55,AT53*(AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AY53" s="221"/>
+      <c r="AY53" s="210"/>
       <c r="AZ53" s="20">
         <f t="shared" si="5"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="BA53" s="221"/>
+      <c r="BA53" s="210"/>
       <c r="BB53" s="20">
         <f>IF(AB52&lt;0,((AZ53-(AR53+AX53))*(1-(V53+V49)))+((AX53+AR53)*(1-(V49+AB52))),AZ53*(1-(V49+V53)))</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="BC53" s="221"/>
+      <c r="BC53" s="210"/>
       <c r="BD53" s="18">
         <f>IF(AB51&gt;0,((BB53-(AR53+AX53))*V54)+((AR53+AX53)*AB51),BB53*V54)</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="BE53" s="221"/>
+      <c r="BE53" s="210"/>
       <c r="BF53" s="18">
         <f>(Z52*(AJ50+AJ53+AL50+AL53))+((AR53+AX53)*AB50)</f>
         <v>0</v>
       </c>
-      <c r="BG53" s="221"/>
+      <c r="BG53" s="210"/>
       <c r="BH53" s="181">
         <f t="shared" si="4"/>
         <v>0.1851851851851852</v>
@@ -17461,28 +17461,28 @@
         <f>IFERROR(E54/P50,NA())</f>
         <v>4.6296296296296301E-2</v>
       </c>
-      <c r="G54" s="235"/>
+      <c r="G54" s="222"/>
       <c r="H54" s="84"/>
-      <c r="I54" s="223" t="s">
+      <c r="I54" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="J54" s="223"/>
-      <c r="K54" s="223" t="s">
+      <c r="J54" s="207"/>
+      <c r="K54" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="L54" s="223"/>
-      <c r="M54" s="223"/>
-      <c r="N54" s="212" t="s">
+      <c r="L54" s="207"/>
+      <c r="M54" s="207"/>
+      <c r="N54" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="O54" s="212"/>
+      <c r="O54" s="208"/>
       <c r="P54" s="5">
         <v>0</v>
       </c>
-      <c r="Q54" s="212" t="s">
+      <c r="Q54" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="R54" s="212"/>
+      <c r="R54" s="208"/>
       <c r="S54" s="5">
         <v>0</v>
       </c>
@@ -17540,47 +17540,47 @@
         <f>IF(OR(AF51,AF52),AL54*AN54,AL54*(AN54+X50))</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="AQ54" s="221"/>
+      <c r="AQ54" s="210"/>
       <c r="AR54" s="20">
         <f>IF(AF55,AL54*IF(OR(AF51,AF52),AB49,AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AS54" s="221"/>
+      <c r="AS54" s="210"/>
       <c r="AT54" s="20">
         <f>IF(AF52,AL54-(AL54*AN54),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU54" s="221"/>
+      <c r="AU54" s="210"/>
       <c r="AV54" s="20">
         <f>(AN54+X50)*AT54</f>
         <v>0</v>
       </c>
-      <c r="AW54" s="221"/>
+      <c r="AW54" s="210"/>
       <c r="AX54" s="20">
         <f>IF(AF55,AT54*(AB49+X50),0)</f>
         <v>0</v>
       </c>
-      <c r="AY54" s="221"/>
+      <c r="AY54" s="210"/>
       <c r="AZ54" s="20">
         <f t="shared" si="5"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="BA54" s="221"/>
+      <c r="BA54" s="210"/>
       <c r="BB54" s="20">
         <f>IF(AB52&lt;0,((AZ54-(AR54+AX54))*(1-(V53+V49)))+((AX54+AR54)*(1-(V49+AB52))),AZ54*(1-(V49+V53)))</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="BC54" s="221"/>
+      <c r="BC54" s="210"/>
       <c r="BD54" s="18">
         <f>IF(AB51&gt;0,((BB54-(AR54+AX54))*V54)+((AR54+AX54)*AB51),BB54*V54)</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="BE54" s="221"/>
+      <c r="BE54" s="210"/>
       <c r="BF54" s="18">
         <f>(Z52*(AJ50+AJ53+AL50+AL53))+((AR54+AX54)*AB50)</f>
         <v>0</v>
       </c>
-      <c r="BG54" s="221"/>
+      <c r="BG54" s="210"/>
       <c r="BH54" s="181">
         <f t="shared" si="4"/>
         <v>9.2592592592592601E-2</v>
@@ -17597,7 +17597,7 @@
       <c r="D55" s="50"/>
       <c r="E55" s="172"/>
       <c r="F55" s="50"/>
-      <c r="G55" s="235"/>
+      <c r="G55" s="222"/>
       <c r="H55" s="84"/>
       <c r="I55" s="185"/>
       <c r="J55" s="185"/>
@@ -17610,17 +17610,17 @@
       <c r="M55" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N55" s="212" t="s">
+      <c r="N55" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O55" s="212"/>
+      <c r="O55" s="208"/>
       <c r="P55" s="5">
         <v>0</v>
       </c>
-      <c r="Q55" s="213" t="s">
+      <c r="Q55" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="R55" s="213"/>
+      <c r="R55" s="217"/>
       <c r="S55" s="5">
         <v>0</v>
       </c>
@@ -17698,7 +17698,7 @@
         <f>IFERROR(E56/P50,NA())</f>
         <v>0.10802469135802469</v>
       </c>
-      <c r="G56" s="235"/>
+      <c r="G56" s="222"/>
       <c r="H56" s="84"/>
       <c r="I56" s="80"/>
       <c r="J56" s="80"/>
@@ -17803,11 +17803,11 @@
     </row>
     <row r="58" spans="1:63" ht="15" customHeight="1">
       <c r="A58" s="132"/>
-      <c r="B58" s="228" t="str">
+      <c r="B58" s="223" t="str">
         <f>IF(I60="","",I60)</f>
         <v>Weapon 4</v>
       </c>
-      <c r="C58" s="228"/>
+      <c r="C58" s="223"/>
       <c r="D58" s="32"/>
       <c r="E58" s="174" t="s">
         <v>11</v>
@@ -17815,82 +17815,82 @@
       <c r="F58" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="230"/>
+      <c r="G58" s="225"/>
       <c r="H58" s="82"/>
-      <c r="I58" s="214" t="str">
+      <c r="I58" s="204" t="str">
         <f>IF(I60="","",I60)</f>
         <v>Weapon 4</v>
       </c>
-      <c r="J58" s="214"/>
-      <c r="K58" s="214"/>
-      <c r="L58" s="214"/>
-      <c r="M58" s="214"/>
-      <c r="N58" s="214"/>
-      <c r="O58" s="214"/>
-      <c r="P58" s="214"/>
-      <c r="Q58" s="214"/>
-      <c r="R58" s="214"/>
-      <c r="S58" s="214"/>
+      <c r="J58" s="204"/>
+      <c r="K58" s="204"/>
+      <c r="L58" s="204"/>
+      <c r="M58" s="204"/>
+      <c r="N58" s="204"/>
+      <c r="O58" s="204"/>
+      <c r="P58" s="204"/>
+      <c r="Q58" s="204"/>
+      <c r="R58" s="204"/>
+      <c r="S58" s="204"/>
       <c r="T58" s="83"/>
-      <c r="V58" s="246" t="s">
+      <c r="V58" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="W58" s="240"/>
-      <c r="X58" s="240"/>
-      <c r="Y58" s="240"/>
-      <c r="Z58" s="240"/>
-      <c r="AA58" s="240"/>
-      <c r="AB58" s="240"/>
-      <c r="AC58" s="240"/>
-      <c r="AD58" s="240" t="s">
+      <c r="W58" s="206"/>
+      <c r="X58" s="206"/>
+      <c r="Y58" s="206"/>
+      <c r="Z58" s="206"/>
+      <c r="AA58" s="206"/>
+      <c r="AB58" s="206"/>
+      <c r="AC58" s="206"/>
+      <c r="AD58" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE58" s="240"/>
-      <c r="AF58" s="240"/>
-      <c r="AG58" s="240"/>
+      <c r="AE58" s="206"/>
+      <c r="AF58" s="206"/>
+      <c r="AG58" s="206"/>
       <c r="AH58" s="192"/>
       <c r="AI58" s="192"/>
-      <c r="AJ58" s="240" t="s">
+      <c r="AJ58" s="206" t="s">
         <v>88</v>
       </c>
-      <c r="AK58" s="240"/>
-      <c r="AL58" s="240"/>
-      <c r="AM58" s="240"/>
-      <c r="AN58" s="240"/>
-      <c r="AO58" s="240" t="s">
+      <c r="AK58" s="206"/>
+      <c r="AL58" s="206"/>
+      <c r="AM58" s="206"/>
+      <c r="AN58" s="206"/>
+      <c r="AO58" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="AP58" s="240"/>
-      <c r="AQ58" s="240"/>
-      <c r="AR58" s="240"/>
-      <c r="AS58" s="240"/>
-      <c r="AT58" s="240"/>
-      <c r="AU58" s="240"/>
-      <c r="AV58" s="240"/>
-      <c r="AW58" s="240"/>
-      <c r="AX58" s="240"/>
-      <c r="AY58" s="240"/>
-      <c r="AZ58" s="240"/>
-      <c r="BA58" s="240"/>
-      <c r="BB58" s="240" t="s">
+      <c r="AP58" s="206"/>
+      <c r="AQ58" s="206"/>
+      <c r="AR58" s="206"/>
+      <c r="AS58" s="206"/>
+      <c r="AT58" s="206"/>
+      <c r="AU58" s="206"/>
+      <c r="AV58" s="206"/>
+      <c r="AW58" s="206"/>
+      <c r="AX58" s="206"/>
+      <c r="AY58" s="206"/>
+      <c r="AZ58" s="206"/>
+      <c r="BA58" s="206"/>
+      <c r="BB58" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="BC58" s="240"/>
-      <c r="BD58" s="240"/>
-      <c r="BE58" s="240"/>
-      <c r="BF58" s="240"/>
-      <c r="BG58" s="240"/>
-      <c r="BH58" s="240"/>
-      <c r="BI58" s="240"/>
-      <c r="BJ58" s="240" t="s">
+      <c r="BC58" s="206"/>
+      <c r="BD58" s="206"/>
+      <c r="BE58" s="206"/>
+      <c r="BF58" s="206"/>
+      <c r="BG58" s="206"/>
+      <c r="BH58" s="206"/>
+      <c r="BI58" s="206"/>
+      <c r="BJ58" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="BK58" s="241"/>
+      <c r="BK58" s="209"/>
     </row>
     <row r="59" spans="1:63" ht="15" customHeight="1">
       <c r="A59" s="133"/>
-      <c r="B59" s="229"/>
-      <c r="C59" s="229"/>
+      <c r="B59" s="224"/>
+      <c r="C59" s="224"/>
       <c r="D59" s="40" t="s">
         <v>1</v>
       </c>
@@ -17902,7 +17902,7 @@
         <f>IFERROR(E59/P60,NA())</f>
         <v>1.4814814814814816</v>
       </c>
-      <c r="G59" s="231"/>
+      <c r="G59" s="226"/>
       <c r="H59" s="84"/>
       <c r="I59" s="78" t="s">
         <v>13</v>
@@ -18004,63 +18004,63 @@
         <f>IF(OR(AF61,AF62),AL64*AN59,AL64*(AN59+X60))</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="AQ59" s="221" t="s">
+      <c r="AQ59" s="210" t="s">
         <v>77</v>
       </c>
       <c r="AR59" s="20">
         <f>IF(AF65,AL64*IF(OR(AF61,AF62),AB59,AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AS59" s="221" t="s">
+      <c r="AS59" s="210" t="s">
         <v>64</v>
       </c>
       <c r="AT59" s="20">
         <f>IF(AF62,AL64-(AL64*AN59),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU59" s="221" t="s">
+      <c r="AU59" s="210" t="s">
         <v>60</v>
       </c>
       <c r="AV59" s="20">
         <f>(AN59+X60)*AT59</f>
         <v>0</v>
       </c>
-      <c r="AW59" s="221" t="s">
+      <c r="AW59" s="210" t="s">
         <v>78</v>
       </c>
       <c r="AX59" s="20">
         <f>IF(AF65,AT59*(AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AY59" s="221" t="s">
+      <c r="AY59" s="210" t="s">
         <v>65</v>
       </c>
       <c r="AZ59" s="20">
         <f>AV59+AP59</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="BA59" s="221" t="s">
+      <c r="BA59" s="210" t="s">
         <v>63</v>
       </c>
       <c r="BB59" s="20">
         <f>IF(AB62&lt;0,((AZ59-(AR59+AX59))*(1-(V63+V59)))+((AX59+AR59)*(1-(V59+AB62))),AZ59*(1-(V59+V63)))</f>
         <v>2.9629629629629632</v>
       </c>
-      <c r="BC59" s="221" t="s">
+      <c r="BC59" s="210" t="s">
         <v>68</v>
       </c>
       <c r="BD59" s="18">
         <f>IF(AB61&gt;0,((BB59-(AR59+AX59))*V64)+((AR59+AX59)*AB61),BB59*V64)</f>
         <v>2.9629629629629632</v>
       </c>
-      <c r="BE59" s="221" t="s">
+      <c r="BE59" s="210" t="s">
         <v>76</v>
       </c>
       <c r="BF59" s="18">
         <f>(Z62*(AJ60+AJ63+AL60+AL63))+((AR59+AX59)*AB60)</f>
         <v>0</v>
       </c>
-      <c r="BG59" s="221" t="s">
+      <c r="BG59" s="210" t="s">
         <v>69</v>
       </c>
       <c r="BH59" s="181">
@@ -18080,8 +18080,8 @@
     </row>
     <row r="60" spans="1:63" ht="15" customHeight="1">
       <c r="A60" s="133"/>
-      <c r="B60" s="229"/>
-      <c r="C60" s="229"/>
+      <c r="B60" s="224"/>
+      <c r="C60" s="224"/>
       <c r="D60" s="40" t="s">
         <v>2</v>
       </c>
@@ -18093,7 +18093,7 @@
         <f>IFERROR(E60/P60,NA())</f>
         <v>1.1111111111111114</v>
       </c>
-      <c r="G60" s="231"/>
+      <c r="G60" s="226"/>
       <c r="H60" s="84"/>
       <c r="I60" s="4" t="s">
         <v>106</v>
@@ -18191,47 +18191,47 @@
         <f>IF(OR(AF61,AF62),AL64*AN60,AL64*(AN60+X60))</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AQ60" s="221"/>
+      <c r="AQ60" s="210"/>
       <c r="AR60" s="20">
         <f>IF(AF65,AL64*IF(OR(AF61,AF62),AB59,AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AS60" s="221"/>
+      <c r="AS60" s="210"/>
       <c r="AT60" s="20">
         <f>IF(AF62,AL64-(AL64*AN60),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU60" s="221"/>
+      <c r="AU60" s="210"/>
       <c r="AV60" s="20">
         <f>(AN60+X60)*AT60</f>
         <v>0</v>
       </c>
-      <c r="AW60" s="221"/>
+      <c r="AW60" s="210"/>
       <c r="AX60" s="20">
         <f>IF(AF65,AT60*(AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AY60" s="221"/>
+      <c r="AY60" s="210"/>
       <c r="AZ60" s="20">
         <f t="shared" ref="AZ60:AZ64" si="7">AV60+AP60</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="BA60" s="221"/>
+      <c r="BA60" s="210"/>
       <c r="BB60" s="20">
         <f>IF(AB62&lt;0,((AZ60-(AR60+AX60))*(1-(V63+V59)))+((AX60+AR60)*(1-(V59+AB62))),AZ60*(1-(V59+V63)))</f>
         <v>2.2222222222222228</v>
       </c>
-      <c r="BC60" s="221"/>
+      <c r="BC60" s="210"/>
       <c r="BD60" s="18">
         <f>IF(AB61&gt;0,((BB60-(AR60+AX60))*V64)+((AR60+AX60)*AB61),BB60*V64)</f>
         <v>2.2222222222222228</v>
       </c>
-      <c r="BE60" s="221"/>
+      <c r="BE60" s="210"/>
       <c r="BF60" s="18">
         <f>(Z62*(AJ60+AJ63+AL60+AL63))+((AR60+AX60)*AB60)</f>
         <v>0</v>
       </c>
-      <c r="BG60" s="221"/>
+      <c r="BG60" s="210"/>
       <c r="BH60" s="181">
         <f t="shared" si="6"/>
         <v>2.2222222222222228</v>
@@ -18249,8 +18249,8 @@
     </row>
     <row r="61" spans="1:63" ht="15" customHeight="1">
       <c r="A61" s="133"/>
-      <c r="B61" s="229"/>
-      <c r="C61" s="229"/>
+      <c r="B61" s="224"/>
+      <c r="C61" s="224"/>
       <c r="D61" s="40" t="s">
         <v>3</v>
       </c>
@@ -18262,19 +18262,19 @@
         <f>IFERROR(E61/P60,NA())</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="G61" s="231"/>
+      <c r="G61" s="226"/>
       <c r="H61" s="84"/>
-      <c r="I61" s="222"/>
-      <c r="J61" s="222"/>
-      <c r="K61" s="222"/>
-      <c r="L61" s="222"/>
-      <c r="M61" s="222"/>
-      <c r="N61" s="222"/>
-      <c r="O61" s="222"/>
-      <c r="P61" s="222"/>
-      <c r="Q61" s="222"/>
-      <c r="R61" s="222"/>
-      <c r="S61" s="222"/>
+      <c r="I61" s="215"/>
+      <c r="J61" s="215"/>
+      <c r="K61" s="215"/>
+      <c r="L61" s="215"/>
+      <c r="M61" s="215"/>
+      <c r="N61" s="215"/>
+      <c r="O61" s="215"/>
+      <c r="P61" s="215"/>
+      <c r="Q61" s="215"/>
+      <c r="R61" s="215"/>
+      <c r="S61" s="215"/>
       <c r="T61" s="85"/>
       <c r="V61" s="162">
         <f>(IF(L60="D3",2,IF(L60="2D3",4,IF(L60="D6",3.5,IF(L60="2D6",7,IF(L60="3D6",10.5,L60))))))</f>
@@ -18343,47 +18343,47 @@
         <f>IF(OR(AF61,AF62),AL64*AN61,AL64*(AN61+X60))</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="AQ61" s="221"/>
+      <c r="AQ61" s="210"/>
       <c r="AR61" s="20">
         <f>IF(AF65,AL64*IF(OR(AF61,AF62),AB59,AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AS61" s="221"/>
+      <c r="AS61" s="210"/>
       <c r="AT61" s="20">
         <f>IF(AF62,AL64-(AL64*AN61),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU61" s="221"/>
+      <c r="AU61" s="210"/>
       <c r="AV61" s="20">
         <f>(AN61+X60)*AT61</f>
         <v>0</v>
       </c>
-      <c r="AW61" s="221"/>
+      <c r="AW61" s="210"/>
       <c r="AX61" s="20">
         <f>IF(AF65,AT61*(AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AY61" s="221"/>
+      <c r="AY61" s="210"/>
       <c r="AZ61" s="20">
         <f t="shared" si="7"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="BA61" s="221"/>
+      <c r="BA61" s="210"/>
       <c r="BB61" s="20">
         <f>IF(AB62&lt;0,((AZ61-(AR61+AX61))*(1-(V63+V59)))+((AX61+AR61)*(1-(V59+AB62))),AZ61*(1-(V59+V63)))</f>
         <v>1.4814814814814816</v>
       </c>
-      <c r="BC61" s="221"/>
+      <c r="BC61" s="210"/>
       <c r="BD61" s="18">
         <f>IF(AB61&gt;0,((BB61-(AR61+AX61))*V64)+((AR61+AX61)*AB61),BB61*V64)</f>
         <v>1.4814814814814816</v>
       </c>
-      <c r="BE61" s="221"/>
+      <c r="BE61" s="210"/>
       <c r="BF61" s="18">
         <f>(Z62*(AJ60+AJ63+AL60+AL63))+((AR61+AX61)*AB60)</f>
         <v>0</v>
       </c>
-      <c r="BG61" s="221"/>
+      <c r="BG61" s="210"/>
       <c r="BH61" s="181">
         <f t="shared" si="6"/>
         <v>1.4814814814814816</v>
@@ -18408,7 +18408,7 @@
         <f>IFERROR(E62/P60,NA())</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="G62" s="231"/>
+      <c r="G62" s="226"/>
       <c r="H62" s="84"/>
       <c r="I62" s="185" t="str">
         <f>"+- to hit"</f>
@@ -18425,17 +18425,17 @@
       <c r="M62" s="5">
         <v>0</v>
       </c>
-      <c r="N62" s="212" t="s">
+      <c r="N62" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="O62" s="212"/>
+      <c r="O62" s="208"/>
       <c r="P62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q62" s="212" t="s">
+      <c r="Q62" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R62" s="212"/>
+      <c r="R62" s="208"/>
       <c r="S62" s="5" t="s">
         <v>19</v>
       </c>
@@ -18507,47 +18507,47 @@
         <f>IF(OR(AF61,AF62),AL64*AN62,AL64*(AN62+X60))</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="AQ62" s="221"/>
+      <c r="AQ62" s="210"/>
       <c r="AR62" s="20">
         <f>IF(AF65,AL64*IF(OR(AF61,AF62),AB59,AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AS62" s="221"/>
+      <c r="AS62" s="210"/>
       <c r="AT62" s="20">
         <f>IF(AF62,AL64-(AL64*AN62),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU62" s="221"/>
+      <c r="AU62" s="210"/>
       <c r="AV62" s="20">
         <f>(AN62+X60)*AT62</f>
         <v>0</v>
       </c>
-      <c r="AW62" s="221"/>
+      <c r="AW62" s="210"/>
       <c r="AX62" s="20">
         <f>IF(AF65,AT62*(AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AY62" s="221"/>
+      <c r="AY62" s="210"/>
       <c r="AZ62" s="20">
         <f t="shared" si="7"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="BA62" s="221"/>
+      <c r="BA62" s="210"/>
       <c r="BB62" s="20">
         <f>IF(AB62&lt;0,((AZ62-(AR62+AX62))*(1-(V63+V59)))+((AX62+AR62)*(1-(V59+AB62))),AZ62*(1-(V59+V63)))</f>
         <v>1.4814814814814816</v>
       </c>
-      <c r="BC62" s="221"/>
+      <c r="BC62" s="210"/>
       <c r="BD62" s="18">
         <f>IF(AB61&gt;0,((BB62-(AR62+AX62))*V64)+((AR62+AX62)*AB61),BB62*V64)</f>
         <v>1.4814814814814816</v>
       </c>
-      <c r="BE62" s="221"/>
+      <c r="BE62" s="210"/>
       <c r="BF62" s="18">
         <f>(Z62*(AJ60+AJ63+AL60+AL63))+((AR62+AX62)*AB60)</f>
         <v>0</v>
       </c>
-      <c r="BG62" s="221"/>
+      <c r="BG62" s="210"/>
       <c r="BH62" s="181">
         <f t="shared" si="6"/>
         <v>1.4814814814814816</v>
@@ -18572,28 +18572,28 @@
         <f>IFERROR(E63/P60,NA())</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="G63" s="231"/>
+      <c r="G63" s="226"/>
       <c r="H63" s="87"/>
       <c r="I63" s="80"/>
       <c r="J63" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K63" s="212" t="s">
+      <c r="K63" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="L63" s="212"/>
-      <c r="M63" s="212"/>
-      <c r="N63" s="212" t="s">
+      <c r="L63" s="208"/>
+      <c r="M63" s="208"/>
+      <c r="N63" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O63" s="212"/>
+      <c r="O63" s="208"/>
       <c r="P63" s="5">
         <v>0</v>
       </c>
-      <c r="Q63" s="212" t="s">
+      <c r="Q63" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="212"/>
+      <c r="R63" s="208"/>
       <c r="S63" s="5">
         <v>0</v>
       </c>
@@ -18650,47 +18650,47 @@
         <f>IF(OR(AF61,AF62),AL64*AN63,AL64*(AN63+X60))</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="AQ63" s="221"/>
+      <c r="AQ63" s="210"/>
       <c r="AR63" s="20">
         <f>IF(AF65,AL64*IF(OR(AF61,AF62),AB59,AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AS63" s="221"/>
+      <c r="AS63" s="210"/>
       <c r="AT63" s="20">
         <f>IF(AF62,AL64-(AL64*AN63),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU63" s="221"/>
+      <c r="AU63" s="210"/>
       <c r="AV63" s="20">
         <f>(AN63+X60)*AT63</f>
         <v>0</v>
       </c>
-      <c r="AW63" s="221"/>
+      <c r="AW63" s="210"/>
       <c r="AX63" s="20">
         <f>IF(AF65,AT63*(AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AY63" s="221"/>
+      <c r="AY63" s="210"/>
       <c r="AZ63" s="20">
         <f t="shared" si="7"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="BA63" s="221"/>
+      <c r="BA63" s="210"/>
       <c r="BB63" s="20">
         <f>IF(AB62&lt;0,((AZ63-(AR63+AX63))*(1-(V63+V59)))+((AX63+AR63)*(1-(V59+AB62))),AZ63*(1-(V59+V63)))</f>
         <v>1.4814814814814816</v>
       </c>
-      <c r="BC63" s="221"/>
+      <c r="BC63" s="210"/>
       <c r="BD63" s="18">
         <f>IF(AB61&gt;0,((BB63-(AR63+AX63))*V64)+((AR63+AX63)*AB61),BB63*V64)</f>
         <v>1.4814814814814816</v>
       </c>
-      <c r="BE63" s="221"/>
+      <c r="BE63" s="210"/>
       <c r="BF63" s="18">
         <f>(Z62*(AJ60+AJ63+AL60+AL63))+((AR63+AX63)*AB60)</f>
         <v>0</v>
       </c>
-      <c r="BG63" s="221"/>
+      <c r="BG63" s="210"/>
       <c r="BH63" s="181">
         <f t="shared" si="6"/>
         <v>1.4814814814814816</v>
@@ -18715,28 +18715,28 @@
         <f>IFERROR(E64/P60,NA())</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="G64" s="231"/>
+      <c r="G64" s="226"/>
       <c r="H64" s="84"/>
-      <c r="I64" s="223" t="s">
+      <c r="I64" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="J64" s="223"/>
-      <c r="K64" s="223" t="s">
+      <c r="J64" s="207"/>
+      <c r="K64" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="L64" s="223"/>
-      <c r="M64" s="223"/>
-      <c r="N64" s="212" t="s">
+      <c r="L64" s="207"/>
+      <c r="M64" s="207"/>
+      <c r="N64" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="O64" s="212"/>
+      <c r="O64" s="208"/>
       <c r="P64" s="5">
         <v>0</v>
       </c>
-      <c r="Q64" s="212" t="s">
+      <c r="Q64" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="R64" s="212"/>
+      <c r="R64" s="208"/>
       <c r="S64" s="5">
         <v>0</v>
       </c>
@@ -18794,47 +18794,47 @@
         <f>IF(OR(AF61,AF62),AL64*AN64,AL64*(AN64+X60))</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="AQ64" s="221"/>
+      <c r="AQ64" s="210"/>
       <c r="AR64" s="20">
         <f>IF(AF65,AL64*IF(OR(AF61,AF62),AB59,AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AS64" s="221"/>
+      <c r="AS64" s="210"/>
       <c r="AT64" s="20">
         <f>IF(AF62,AL64-(AL64*AN64),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU64" s="221"/>
+      <c r="AU64" s="210"/>
       <c r="AV64" s="20">
         <f>(AN64+X60)*AT64</f>
         <v>0</v>
       </c>
-      <c r="AW64" s="221"/>
+      <c r="AW64" s="210"/>
       <c r="AX64" s="20">
         <f>IF(AF65,AT64*(AB59+X60),0)</f>
         <v>0</v>
       </c>
-      <c r="AY64" s="221"/>
+      <c r="AY64" s="210"/>
       <c r="AZ64" s="20">
         <f t="shared" si="7"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="BA64" s="221"/>
+      <c r="BA64" s="210"/>
       <c r="BB64" s="20">
         <f>IF(AB62&lt;0,((AZ64-(AR64+AX64))*(1-(V63+V59)))+((AX64+AR64)*(1-(V59+AB62))),AZ64*(1-(V59+V63)))</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="BC64" s="221"/>
+      <c r="BC64" s="210"/>
       <c r="BD64" s="18">
         <f>IF(AB61&gt;0,((BB64-(AR64+AX64))*V64)+((AR64+AX64)*AB61),BB64*V64)</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="BE64" s="221"/>
+      <c r="BE64" s="210"/>
       <c r="BF64" s="18">
         <f>(Z62*(AJ60+AJ63+AL60+AL63))+((AR64+AX64)*AB60)</f>
         <v>0</v>
       </c>
-      <c r="BG64" s="221"/>
+      <c r="BG64" s="210"/>
       <c r="BH64" s="181">
         <f t="shared" si="6"/>
         <v>0.74074074074074081</v>
@@ -18851,7 +18851,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="175"/>
       <c r="F65" s="51"/>
-      <c r="G65" s="231"/>
+      <c r="G65" s="226"/>
       <c r="H65" s="84"/>
       <c r="I65" s="185"/>
       <c r="J65" s="185"/>
@@ -18864,17 +18864,17 @@
       <c r="M65" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N65" s="212" t="s">
+      <c r="N65" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O65" s="212"/>
+      <c r="O65" s="208"/>
       <c r="P65" s="5">
         <v>0</v>
       </c>
-      <c r="Q65" s="213" t="s">
+      <c r="Q65" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="R65" s="213"/>
+      <c r="R65" s="217"/>
       <c r="S65" s="5">
         <v>0</v>
       </c>
@@ -18952,7 +18952,7 @@
         <f>IFERROR(E66/P60,NA())</f>
         <v>0.86419753086419748</v>
       </c>
-      <c r="G66" s="231"/>
+      <c r="G66" s="226"/>
       <c r="H66" s="84"/>
       <c r="I66" s="80"/>
       <c r="J66" s="80"/>
@@ -19057,11 +19057,11 @@
     </row>
     <row r="68" spans="1:63" ht="15" customHeight="1">
       <c r="A68" s="152"/>
-      <c r="B68" s="224" t="str">
+      <c r="B68" s="227" t="str">
         <f>IF(I70="","",I70)</f>
         <v>Weapon 5</v>
       </c>
-      <c r="C68" s="224"/>
+      <c r="C68" s="227"/>
       <c r="D68" s="34"/>
       <c r="E68" s="177" t="s">
         <v>11</v>
@@ -19069,82 +19069,82 @@
       <c r="F68" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G68" s="226"/>
+      <c r="G68" s="229"/>
       <c r="H68" s="82"/>
-      <c r="I68" s="214" t="str">
+      <c r="I68" s="204" t="str">
         <f>IF(I70="","",I70)</f>
         <v>Weapon 5</v>
       </c>
-      <c r="J68" s="214"/>
-      <c r="K68" s="214"/>
-      <c r="L68" s="214"/>
-      <c r="M68" s="214"/>
-      <c r="N68" s="214"/>
-      <c r="O68" s="214"/>
-      <c r="P68" s="214"/>
-      <c r="Q68" s="214"/>
-      <c r="R68" s="214"/>
-      <c r="S68" s="214"/>
+      <c r="J68" s="204"/>
+      <c r="K68" s="204"/>
+      <c r="L68" s="204"/>
+      <c r="M68" s="204"/>
+      <c r="N68" s="204"/>
+      <c r="O68" s="204"/>
+      <c r="P68" s="204"/>
+      <c r="Q68" s="204"/>
+      <c r="R68" s="204"/>
+      <c r="S68" s="204"/>
       <c r="T68" s="83"/>
-      <c r="V68" s="246" t="s">
+      <c r="V68" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="W68" s="240"/>
-      <c r="X68" s="240"/>
-      <c r="Y68" s="240"/>
-      <c r="Z68" s="240"/>
-      <c r="AA68" s="240"/>
-      <c r="AB68" s="240"/>
-      <c r="AC68" s="240"/>
-      <c r="AD68" s="240" t="s">
+      <c r="W68" s="206"/>
+      <c r="X68" s="206"/>
+      <c r="Y68" s="206"/>
+      <c r="Z68" s="206"/>
+      <c r="AA68" s="206"/>
+      <c r="AB68" s="206"/>
+      <c r="AC68" s="206"/>
+      <c r="AD68" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE68" s="240"/>
-      <c r="AF68" s="240"/>
-      <c r="AG68" s="240"/>
+      <c r="AE68" s="206"/>
+      <c r="AF68" s="206"/>
+      <c r="AG68" s="206"/>
       <c r="AH68" s="192"/>
       <c r="AI68" s="192"/>
-      <c r="AJ68" s="240" t="s">
+      <c r="AJ68" s="206" t="s">
         <v>88</v>
       </c>
-      <c r="AK68" s="240"/>
-      <c r="AL68" s="240"/>
-      <c r="AM68" s="240"/>
-      <c r="AN68" s="240"/>
-      <c r="AO68" s="240" t="s">
+      <c r="AK68" s="206"/>
+      <c r="AL68" s="206"/>
+      <c r="AM68" s="206"/>
+      <c r="AN68" s="206"/>
+      <c r="AO68" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="AP68" s="240"/>
-      <c r="AQ68" s="240"/>
-      <c r="AR68" s="240"/>
-      <c r="AS68" s="240"/>
-      <c r="AT68" s="240"/>
-      <c r="AU68" s="240"/>
-      <c r="AV68" s="240"/>
-      <c r="AW68" s="240"/>
-      <c r="AX68" s="240"/>
-      <c r="AY68" s="240"/>
-      <c r="AZ68" s="240"/>
-      <c r="BA68" s="240"/>
-      <c r="BB68" s="240" t="s">
+      <c r="AP68" s="206"/>
+      <c r="AQ68" s="206"/>
+      <c r="AR68" s="206"/>
+      <c r="AS68" s="206"/>
+      <c r="AT68" s="206"/>
+      <c r="AU68" s="206"/>
+      <c r="AV68" s="206"/>
+      <c r="AW68" s="206"/>
+      <c r="AX68" s="206"/>
+      <c r="AY68" s="206"/>
+      <c r="AZ68" s="206"/>
+      <c r="BA68" s="206"/>
+      <c r="BB68" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="BC68" s="240"/>
-      <c r="BD68" s="240"/>
-      <c r="BE68" s="240"/>
-      <c r="BF68" s="240"/>
-      <c r="BG68" s="240"/>
-      <c r="BH68" s="240"/>
-      <c r="BI68" s="240"/>
-      <c r="BJ68" s="240" t="s">
+      <c r="BC68" s="206"/>
+      <c r="BD68" s="206"/>
+      <c r="BE68" s="206"/>
+      <c r="BF68" s="206"/>
+      <c r="BG68" s="206"/>
+      <c r="BH68" s="206"/>
+      <c r="BI68" s="206"/>
+      <c r="BJ68" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="BK68" s="241"/>
+      <c r="BK68" s="209"/>
     </row>
     <row r="69" spans="1:63" ht="15" customHeight="1">
       <c r="A69" s="153"/>
-      <c r="B69" s="225"/>
-      <c r="C69" s="225"/>
+      <c r="B69" s="228"/>
+      <c r="C69" s="228"/>
       <c r="D69" s="41" t="s">
         <v>1</v>
       </c>
@@ -19156,7 +19156,7 @@
         <f>IFERROR(E69/P70,NA())</f>
         <v>0.46296296296296308</v>
       </c>
-      <c r="G69" s="227"/>
+      <c r="G69" s="230"/>
       <c r="H69" s="84"/>
       <c r="I69" s="78" t="s">
         <v>13</v>
@@ -19182,8 +19182,8 @@
       <c r="P69" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Q69" s="212"/>
-      <c r="R69" s="212"/>
+      <c r="Q69" s="208"/>
+      <c r="R69" s="208"/>
       <c r="S69" s="79"/>
       <c r="T69" s="85"/>
       <c r="V69" s="160">
@@ -19258,63 +19258,63 @@
         <f>IF(OR(AF71,AF72),AL74*AN69,AL74*(AN69+X70))</f>
         <v>1.1111111111111114</v>
       </c>
-      <c r="AQ69" s="221" t="s">
+      <c r="AQ69" s="210" t="s">
         <v>77</v>
       </c>
       <c r="AR69" s="20">
         <f>IF(AF75,AL74*IF(OR(AF71,AF72),AB69,AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AS69" s="221" t="s">
+      <c r="AS69" s="210" t="s">
         <v>64</v>
       </c>
       <c r="AT69" s="20">
         <f>IF(AF72,AL74-(AL74*AN69),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU69" s="221" t="s">
+      <c r="AU69" s="210" t="s">
         <v>60</v>
       </c>
       <c r="AV69" s="20">
         <f>(AN69+X70)*AT69</f>
         <v>0</v>
       </c>
-      <c r="AW69" s="221" t="s">
+      <c r="AW69" s="210" t="s">
         <v>78</v>
       </c>
       <c r="AX69" s="20">
         <f>IF(AF75,AT69*(AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AY69" s="221" t="s">
+      <c r="AY69" s="210" t="s">
         <v>65</v>
       </c>
       <c r="AZ69" s="20">
         <f>AV69+AP69</f>
         <v>1.1111111111111114</v>
       </c>
-      <c r="BA69" s="221" t="s">
+      <c r="BA69" s="210" t="s">
         <v>63</v>
       </c>
       <c r="BB69" s="20">
         <f>IF(AB72&lt;0,((AZ69-(AR69+AX69))*(1-(V73+V69)))+((AX69+AR69)*(1-(V69+AB72))),AZ69*(1-(V69+V73)))</f>
         <v>0.92592592592592615</v>
       </c>
-      <c r="BC69" s="221" t="s">
+      <c r="BC69" s="210" t="s">
         <v>68</v>
       </c>
       <c r="BD69" s="18">
         <f>IF(AB71&gt;0,((BB69-(AR69+AX69))*V74)+((AR69+AX69)*AB71),BB69*V74)</f>
         <v>0.92592592592592615</v>
       </c>
-      <c r="BE69" s="221" t="s">
+      <c r="BE69" s="210" t="s">
         <v>76</v>
       </c>
       <c r="BF69" s="18">
         <f>(Z72*(AJ70+AJ73+AL70+AL73))+((AR69+AX69)*AB70)</f>
         <v>0</v>
       </c>
-      <c r="BG69" s="221" t="s">
+      <c r="BG69" s="210" t="s">
         <v>69</v>
       </c>
       <c r="BH69" s="181">
@@ -19334,8 +19334,8 @@
     </row>
     <row r="70" spans="1:63" ht="15" customHeight="1">
       <c r="A70" s="153"/>
-      <c r="B70" s="225"/>
-      <c r="C70" s="225"/>
+      <c r="B70" s="228"/>
+      <c r="C70" s="228"/>
       <c r="D70" s="41" t="s">
         <v>2</v>
       </c>
@@ -19347,7 +19347,7 @@
         <f>IFERROR(E70/P70,NA())</f>
         <v>0.46296296296296308</v>
       </c>
-      <c r="G70" s="227"/>
+      <c r="G70" s="230"/>
       <c r="H70" s="84"/>
       <c r="I70" s="4" t="s">
         <v>107</v>
@@ -19373,8 +19373,8 @@
       <c r="P70" s="5">
         <v>2</v>
       </c>
-      <c r="Q70" s="212"/>
-      <c r="R70" s="212"/>
+      <c r="Q70" s="208"/>
+      <c r="R70" s="208"/>
       <c r="S70" s="79"/>
       <c r="T70" s="85"/>
       <c r="V70" s="160">
@@ -19445,47 +19445,47 @@
         <f>IF(OR(AF71,AF72),AL74*AN70,AL74*(AN70+X70))</f>
         <v>1.1111111111111114</v>
       </c>
-      <c r="AQ70" s="221"/>
+      <c r="AQ70" s="210"/>
       <c r="AR70" s="20">
         <f>IF(AF75,AL74*IF(OR(AF71,AF72),AB69,AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AS70" s="221"/>
+      <c r="AS70" s="210"/>
       <c r="AT70" s="20">
         <f>IF(AF72,AL74-(AL74*AN70),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU70" s="221"/>
+      <c r="AU70" s="210"/>
       <c r="AV70" s="20">
         <f>(AN70+X70)*AT70</f>
         <v>0</v>
       </c>
-      <c r="AW70" s="221"/>
+      <c r="AW70" s="210"/>
       <c r="AX70" s="20">
         <f>IF(AF75,AT70*(AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AY70" s="221"/>
+      <c r="AY70" s="210"/>
       <c r="AZ70" s="20">
         <f t="shared" ref="AZ70:AZ74" si="9">AV70+AP70</f>
         <v>1.1111111111111114</v>
       </c>
-      <c r="BA70" s="221"/>
+      <c r="BA70" s="210"/>
       <c r="BB70" s="20">
         <f>IF(AB72&lt;0,((AZ70-(AR70+AX70))*(1-(V73+V69)))+((AX70+AR70)*(1-(V69+AB72))),AZ70*(1-(V69+V73)))</f>
         <v>0.92592592592592615</v>
       </c>
-      <c r="BC70" s="221"/>
+      <c r="BC70" s="210"/>
       <c r="BD70" s="18">
         <f>IF(AB71&gt;0,((BB70-(AR70+AX70))*V74)+((AR70+AX70)*AB71),BB70*V74)</f>
         <v>0.92592592592592615</v>
       </c>
-      <c r="BE70" s="221"/>
+      <c r="BE70" s="210"/>
       <c r="BF70" s="18">
         <f>(Z72*(AJ70+AJ73+AL70+AL73))+((AR70+AX70)*AB70)</f>
         <v>0</v>
       </c>
-      <c r="BG70" s="221"/>
+      <c r="BG70" s="210"/>
       <c r="BH70" s="181">
         <f t="shared" si="8"/>
         <v>0.92592592592592615</v>
@@ -19503,8 +19503,8 @@
     </row>
     <row r="71" spans="1:63" ht="15" customHeight="1">
       <c r="A71" s="153"/>
-      <c r="B71" s="225"/>
-      <c r="C71" s="225"/>
+      <c r="B71" s="228"/>
+      <c r="C71" s="228"/>
       <c r="D71" s="41" t="s">
         <v>3</v>
       </c>
@@ -19516,19 +19516,19 @@
         <f>IFERROR(E71/P70,NA())</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="G71" s="227"/>
+      <c r="G71" s="230"/>
       <c r="H71" s="84"/>
-      <c r="I71" s="222"/>
-      <c r="J71" s="222"/>
-      <c r="K71" s="222"/>
-      <c r="L71" s="222"/>
-      <c r="M71" s="222"/>
-      <c r="N71" s="222"/>
-      <c r="O71" s="222"/>
-      <c r="P71" s="222"/>
-      <c r="Q71" s="222"/>
-      <c r="R71" s="222"/>
-      <c r="S71" s="222"/>
+      <c r="I71" s="215"/>
+      <c r="J71" s="215"/>
+      <c r="K71" s="215"/>
+      <c r="L71" s="215"/>
+      <c r="M71" s="215"/>
+      <c r="N71" s="215"/>
+      <c r="O71" s="215"/>
+      <c r="P71" s="215"/>
+      <c r="Q71" s="215"/>
+      <c r="R71" s="215"/>
+      <c r="S71" s="215"/>
       <c r="T71" s="85"/>
       <c r="V71" s="162">
         <f>(IF(L70="D3",2,IF(L70="2D3",4,IF(L70="D6",3.5,IF(L70="2D6",7,IF(L70="3D6",10.5,L70))))))</f>
@@ -19597,47 +19597,47 @@
         <f>IF(OR(AF71,AF72),AL74*AN71,AL74*(AN71+X70))</f>
         <v>0.88888888888888895</v>
       </c>
-      <c r="AQ71" s="221"/>
+      <c r="AQ71" s="210"/>
       <c r="AR71" s="20">
         <f>IF(AF75,AL74*IF(OR(AF71,AF72),AB69,AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AS71" s="221"/>
+      <c r="AS71" s="210"/>
       <c r="AT71" s="20">
         <f>IF(AF72,AL74-(AL74*AN71),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU71" s="221"/>
+      <c r="AU71" s="210"/>
       <c r="AV71" s="20">
         <f>(AN71+X70)*AT71</f>
         <v>0</v>
       </c>
-      <c r="AW71" s="221"/>
+      <c r="AW71" s="210"/>
       <c r="AX71" s="20">
         <f>IF(AF75,AT71*(AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AY71" s="221"/>
+      <c r="AY71" s="210"/>
       <c r="AZ71" s="20">
         <f t="shared" si="9"/>
         <v>0.88888888888888895</v>
       </c>
-      <c r="BA71" s="221"/>
+      <c r="BA71" s="210"/>
       <c r="BB71" s="20">
         <f>IF(AB72&lt;0,((AZ71-(AR71+AX71))*(1-(V73+V69)))+((AX71+AR71)*(1-(V69+AB72))),AZ71*(1-(V69+V73)))</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="BC71" s="221"/>
+      <c r="BC71" s="210"/>
       <c r="BD71" s="18">
         <f>IF(AB71&gt;0,((BB71-(AR71+AX71))*V74)+((AR71+AX71)*AB71),BB71*V74)</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="BE71" s="221"/>
+      <c r="BE71" s="210"/>
       <c r="BF71" s="18">
         <f>(Z72*(AJ70+AJ73+AL70+AL73))+((AR71+AX71)*AB70)</f>
         <v>0</v>
       </c>
-      <c r="BG71" s="221"/>
+      <c r="BG71" s="210"/>
       <c r="BH71" s="181">
         <f t="shared" si="8"/>
         <v>0.74074074074074081</v>
@@ -19662,7 +19662,7 @@
         <f>IFERROR(E72/P70,NA())</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="G72" s="227"/>
+      <c r="G72" s="230"/>
       <c r="H72" s="84"/>
       <c r="I72" s="185" t="str">
         <f>"+- to hit"</f>
@@ -19679,17 +19679,17 @@
       <c r="M72" s="5">
         <v>0</v>
       </c>
-      <c r="N72" s="212" t="s">
+      <c r="N72" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="O72" s="212"/>
+      <c r="O72" s="208"/>
       <c r="P72" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q72" s="212" t="s">
+      <c r="Q72" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R72" s="212"/>
+      <c r="R72" s="208"/>
       <c r="S72" s="5" t="s">
         <v>19</v>
       </c>
@@ -19761,47 +19761,47 @@
         <f>IF(OR(AF71,AF72),AL74*AN72,AL74*(AN72+X70))</f>
         <v>0.88888888888888895</v>
       </c>
-      <c r="AQ72" s="221"/>
+      <c r="AQ72" s="210"/>
       <c r="AR72" s="20">
         <f>IF(AF75,AL74*IF(OR(AF71,AF72),AB69,AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AS72" s="221"/>
+      <c r="AS72" s="210"/>
       <c r="AT72" s="20">
         <f>IF(AF72,AL74-(AL74*AN72),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU72" s="221"/>
+      <c r="AU72" s="210"/>
       <c r="AV72" s="20">
         <f>(AN72+X70)*AT72</f>
         <v>0</v>
       </c>
-      <c r="AW72" s="221"/>
+      <c r="AW72" s="210"/>
       <c r="AX72" s="20">
         <f>IF(AF75,AT72*(AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AY72" s="221"/>
+      <c r="AY72" s="210"/>
       <c r="AZ72" s="20">
         <f t="shared" si="9"/>
         <v>0.88888888888888895</v>
       </c>
-      <c r="BA72" s="221"/>
+      <c r="BA72" s="210"/>
       <c r="BB72" s="20">
         <f>IF(AB72&lt;0,((AZ72-(AR72+AX72))*(1-(V73+V69)))+((AX72+AR72)*(1-(V69+AB72))),AZ72*(1-(V69+V73)))</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="BC72" s="221"/>
+      <c r="BC72" s="210"/>
       <c r="BD72" s="18">
         <f>IF(AB71&gt;0,((BB72-(AR72+AX72))*V74)+((AR72+AX72)*AB71),BB72*V74)</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="BE72" s="221"/>
+      <c r="BE72" s="210"/>
       <c r="BF72" s="18">
         <f>(Z72*(AJ70+AJ73+AL70+AL73))+((AR72+AX72)*AB70)</f>
         <v>0</v>
       </c>
-      <c r="BG72" s="221"/>
+      <c r="BG72" s="210"/>
       <c r="BH72" s="181">
         <f t="shared" si="8"/>
         <v>0.74074074074074081</v>
@@ -19826,28 +19826,28 @@
         <f>IFERROR(E73/P70,NA())</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="G73" s="227"/>
+      <c r="G73" s="230"/>
       <c r="H73" s="87"/>
       <c r="I73" s="80"/>
       <c r="J73" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K73" s="212" t="s">
+      <c r="K73" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="L73" s="212"/>
-      <c r="M73" s="212"/>
-      <c r="N73" s="212" t="s">
+      <c r="L73" s="208"/>
+      <c r="M73" s="208"/>
+      <c r="N73" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O73" s="212"/>
+      <c r="O73" s="208"/>
       <c r="P73" s="5">
         <v>0</v>
       </c>
-      <c r="Q73" s="212" t="s">
+      <c r="Q73" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="R73" s="212"/>
+      <c r="R73" s="208"/>
       <c r="S73" s="5">
         <v>0</v>
       </c>
@@ -19904,47 +19904,47 @@
         <f>IF(OR(AF71,AF72),AL74*AN73,AL74*(AN73+X70))</f>
         <v>0.88888888888888895</v>
       </c>
-      <c r="AQ73" s="221"/>
+      <c r="AQ73" s="210"/>
       <c r="AR73" s="20">
         <f>IF(AF75,AL74*IF(OR(AF71,AF72),AB69,AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AS73" s="221"/>
+      <c r="AS73" s="210"/>
       <c r="AT73" s="20">
         <f>IF(AF72,AL74-(AL74*AN73),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU73" s="221"/>
+      <c r="AU73" s="210"/>
       <c r="AV73" s="20">
         <f>(AN73+X70)*AT73</f>
         <v>0</v>
       </c>
-      <c r="AW73" s="221"/>
+      <c r="AW73" s="210"/>
       <c r="AX73" s="20">
         <f>IF(AF75,AT73*(AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AY73" s="221"/>
+      <c r="AY73" s="210"/>
       <c r="AZ73" s="20">
         <f t="shared" si="9"/>
         <v>0.88888888888888895</v>
       </c>
-      <c r="BA73" s="221"/>
+      <c r="BA73" s="210"/>
       <c r="BB73" s="20">
         <f>IF(AB72&lt;0,((AZ73-(AR73+AX73))*(1-(V73+V69)))+((AX73+AR73)*(1-(V69+AB72))),AZ73*(1-(V69+V73)))</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="BC73" s="221"/>
+      <c r="BC73" s="210"/>
       <c r="BD73" s="18">
         <f>IF(AB71&gt;0,((BB73-(AR73+AX73))*V74)+((AR73+AX73)*AB71),BB73*V74)</f>
         <v>0.74074074074074081</v>
       </c>
-      <c r="BE73" s="221"/>
+      <c r="BE73" s="210"/>
       <c r="BF73" s="18">
         <f>(Z72*(AJ70+AJ73+AL70+AL73))+((AR73+AX73)*AB70)</f>
         <v>0</v>
       </c>
-      <c r="BG73" s="221"/>
+      <c r="BG73" s="210"/>
       <c r="BH73" s="181">
         <f t="shared" si="8"/>
         <v>0.74074074074074081</v>
@@ -19969,28 +19969,28 @@
         <f>IFERROR(E74/P70,NA())</f>
         <v>0.27777777777777785</v>
       </c>
-      <c r="G74" s="227"/>
+      <c r="G74" s="230"/>
       <c r="H74" s="84"/>
-      <c r="I74" s="223" t="s">
+      <c r="I74" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="J74" s="223"/>
-      <c r="K74" s="223" t="s">
+      <c r="J74" s="207"/>
+      <c r="K74" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="L74" s="223"/>
-      <c r="M74" s="223"/>
-      <c r="N74" s="212" t="s">
+      <c r="L74" s="207"/>
+      <c r="M74" s="207"/>
+      <c r="N74" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="O74" s="212"/>
+      <c r="O74" s="208"/>
       <c r="P74" s="5">
         <v>0</v>
       </c>
-      <c r="Q74" s="212" t="s">
+      <c r="Q74" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="R74" s="212"/>
+      <c r="R74" s="208"/>
       <c r="S74" s="5">
         <v>0</v>
       </c>
@@ -20048,47 +20048,47 @@
         <f>IF(OR(AF71,AF72),AL74*AN74,AL74*(AN74+X70))</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="AQ74" s="221"/>
+      <c r="AQ74" s="210"/>
       <c r="AR74" s="20">
         <f>IF(AF75,AL74*IF(OR(AF71,AF72),AB69,AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AS74" s="221"/>
+      <c r="AS74" s="210"/>
       <c r="AT74" s="20">
         <f>IF(AF72,AL74-(AL74*AN74),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU74" s="221"/>
+      <c r="AU74" s="210"/>
       <c r="AV74" s="20">
         <f>(AN74+X70)*AT74</f>
         <v>0</v>
       </c>
-      <c r="AW74" s="221"/>
+      <c r="AW74" s="210"/>
       <c r="AX74" s="20">
         <f>IF(AF75,AT74*(AB69+X70),0)</f>
         <v>0</v>
       </c>
-      <c r="AY74" s="221"/>
+      <c r="AY74" s="210"/>
       <c r="AZ74" s="20">
         <f t="shared" si="9"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BA74" s="221"/>
+      <c r="BA74" s="210"/>
       <c r="BB74" s="20">
         <f>IF(AB72&lt;0,((AZ74-(AR74+AX74))*(1-(V73+V69)))+((AX74+AR74)*(1-(V69+AB72))),AZ74*(1-(V69+V73)))</f>
         <v>0.55555555555555569</v>
       </c>
-      <c r="BC74" s="221"/>
+      <c r="BC74" s="210"/>
       <c r="BD74" s="18">
         <f>IF(AB71&gt;0,((BB74-(AR74+AX74))*V74)+((AR74+AX74)*AB71),BB74*V74)</f>
         <v>0.55555555555555569</v>
       </c>
-      <c r="BE74" s="221"/>
+      <c r="BE74" s="210"/>
       <c r="BF74" s="18">
         <f>(Z72*(AJ70+AJ73+AL70+AL73))+((AR74+AX74)*AB70)</f>
         <v>0</v>
       </c>
-      <c r="BG74" s="221"/>
+      <c r="BG74" s="210"/>
       <c r="BH74" s="181">
         <f t="shared" si="8"/>
         <v>0.55555555555555569</v>
@@ -20105,7 +20105,7 @@
       <c r="D75" s="49"/>
       <c r="E75" s="178"/>
       <c r="F75" s="49"/>
-      <c r="G75" s="227"/>
+      <c r="G75" s="230"/>
       <c r="H75" s="84"/>
       <c r="I75" s="185"/>
       <c r="J75" s="185"/>
@@ -20118,17 +20118,17 @@
       <c r="M75" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N75" s="212" t="s">
+      <c r="N75" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O75" s="212"/>
+      <c r="O75" s="208"/>
       <c r="P75" s="5">
         <v>0</v>
       </c>
-      <c r="Q75" s="213" t="s">
+      <c r="Q75" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="R75" s="213"/>
+      <c r="R75" s="217"/>
       <c r="S75" s="5">
         <v>0</v>
       </c>
@@ -20206,7 +20206,7 @@
         <f>IFERROR(E76/P70,NA())</f>
         <v>0.38580246913580246</v>
       </c>
-      <c r="G76" s="227"/>
+      <c r="G76" s="230"/>
       <c r="H76" s="84"/>
       <c r="I76" s="80"/>
       <c r="J76" s="80"/>
@@ -20311,11 +20311,11 @@
     </row>
     <row r="78" spans="1:63" ht="15" customHeight="1">
       <c r="A78" s="155"/>
-      <c r="B78" s="193" t="str">
+      <c r="B78" s="237" t="str">
         <f>IF(I80="","",I80)</f>
         <v>Wapon 6</v>
       </c>
-      <c r="C78" s="193"/>
+      <c r="C78" s="237"/>
       <c r="D78" s="36"/>
       <c r="E78" s="37" t="s">
         <v>11</v>
@@ -20323,82 +20323,82 @@
       <c r="F78" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="195"/>
+      <c r="G78" s="239"/>
       <c r="H78" s="82"/>
-      <c r="I78" s="214" t="str">
+      <c r="I78" s="204" t="str">
         <f>IF(I80="","",I80)</f>
         <v>Wapon 6</v>
       </c>
-      <c r="J78" s="214"/>
-      <c r="K78" s="214"/>
-      <c r="L78" s="214"/>
-      <c r="M78" s="214"/>
-      <c r="N78" s="214"/>
-      <c r="O78" s="214"/>
-      <c r="P78" s="214"/>
-      <c r="Q78" s="214"/>
-      <c r="R78" s="214"/>
-      <c r="S78" s="214"/>
+      <c r="J78" s="204"/>
+      <c r="K78" s="204"/>
+      <c r="L78" s="204"/>
+      <c r="M78" s="204"/>
+      <c r="N78" s="204"/>
+      <c r="O78" s="204"/>
+      <c r="P78" s="204"/>
+      <c r="Q78" s="204"/>
+      <c r="R78" s="204"/>
+      <c r="S78" s="204"/>
       <c r="T78" s="83"/>
-      <c r="V78" s="246" t="s">
+      <c r="V78" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="W78" s="240"/>
-      <c r="X78" s="240"/>
-      <c r="Y78" s="240"/>
-      <c r="Z78" s="240"/>
-      <c r="AA78" s="240"/>
-      <c r="AB78" s="240"/>
-      <c r="AC78" s="240"/>
-      <c r="AD78" s="240" t="s">
+      <c r="W78" s="206"/>
+      <c r="X78" s="206"/>
+      <c r="Y78" s="206"/>
+      <c r="Z78" s="206"/>
+      <c r="AA78" s="206"/>
+      <c r="AB78" s="206"/>
+      <c r="AC78" s="206"/>
+      <c r="AD78" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE78" s="240"/>
-      <c r="AF78" s="240"/>
-      <c r="AG78" s="240"/>
+      <c r="AE78" s="206"/>
+      <c r="AF78" s="206"/>
+      <c r="AG78" s="206"/>
       <c r="AH78" s="192"/>
       <c r="AI78" s="192"/>
-      <c r="AJ78" s="240" t="s">
+      <c r="AJ78" s="206" t="s">
         <v>88</v>
       </c>
-      <c r="AK78" s="240"/>
-      <c r="AL78" s="240"/>
-      <c r="AM78" s="240"/>
-      <c r="AN78" s="240"/>
-      <c r="AO78" s="240" t="s">
+      <c r="AK78" s="206"/>
+      <c r="AL78" s="206"/>
+      <c r="AM78" s="206"/>
+      <c r="AN78" s="206"/>
+      <c r="AO78" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="AP78" s="240"/>
-      <c r="AQ78" s="240"/>
-      <c r="AR78" s="240"/>
-      <c r="AS78" s="240"/>
-      <c r="AT78" s="240"/>
-      <c r="AU78" s="240"/>
-      <c r="AV78" s="240"/>
-      <c r="AW78" s="240"/>
-      <c r="AX78" s="240"/>
-      <c r="AY78" s="240"/>
-      <c r="AZ78" s="240"/>
-      <c r="BA78" s="240"/>
-      <c r="BB78" s="240" t="s">
+      <c r="AP78" s="206"/>
+      <c r="AQ78" s="206"/>
+      <c r="AR78" s="206"/>
+      <c r="AS78" s="206"/>
+      <c r="AT78" s="206"/>
+      <c r="AU78" s="206"/>
+      <c r="AV78" s="206"/>
+      <c r="AW78" s="206"/>
+      <c r="AX78" s="206"/>
+      <c r="AY78" s="206"/>
+      <c r="AZ78" s="206"/>
+      <c r="BA78" s="206"/>
+      <c r="BB78" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="BC78" s="240"/>
-      <c r="BD78" s="240"/>
-      <c r="BE78" s="240"/>
-      <c r="BF78" s="240"/>
-      <c r="BG78" s="240"/>
-      <c r="BH78" s="240"/>
-      <c r="BI78" s="240"/>
-      <c r="BJ78" s="240" t="s">
+      <c r="BC78" s="206"/>
+      <c r="BD78" s="206"/>
+      <c r="BE78" s="206"/>
+      <c r="BF78" s="206"/>
+      <c r="BG78" s="206"/>
+      <c r="BH78" s="206"/>
+      <c r="BI78" s="206"/>
+      <c r="BJ78" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="BK78" s="241"/>
+      <c r="BK78" s="209"/>
     </row>
     <row r="79" spans="1:63" ht="15" customHeight="1">
       <c r="A79" s="156"/>
-      <c r="B79" s="194"/>
-      <c r="C79" s="194"/>
+      <c r="B79" s="238"/>
+      <c r="C79" s="238"/>
       <c r="D79" s="48" t="s">
         <v>1</v>
       </c>
@@ -20410,7 +20410,7 @@
         <f>IFERROR(E79/P80,NA())</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="G79" s="196"/>
+      <c r="G79" s="240"/>
       <c r="H79" s="84"/>
       <c r="I79" s="78" t="s">
         <v>13</v>
@@ -20436,8 +20436,8 @@
       <c r="P79" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Q79" s="212"/>
-      <c r="R79" s="212"/>
+      <c r="Q79" s="208"/>
+      <c r="R79" s="208"/>
       <c r="S79" s="79"/>
       <c r="T79" s="85"/>
       <c r="V79" s="160">
@@ -20512,63 +20512,63 @@
         <f>IF(OR(AF81,AF82),AL84*AN79,AL84*(AN79+X80))</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AQ79" s="221" t="s">
+      <c r="AQ79" s="210" t="s">
         <v>77</v>
       </c>
       <c r="AR79" s="20">
         <f>IF(AF85,AL84*IF(OR(AF81,AF82),AB79,AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AS79" s="221" t="s">
+      <c r="AS79" s="210" t="s">
         <v>64</v>
       </c>
       <c r="AT79" s="20">
         <f>IF(AF82,AL84-(AL84*AN79),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU79" s="221" t="s">
+      <c r="AU79" s="210" t="s">
         <v>60</v>
       </c>
       <c r="AV79" s="20">
         <f>(AN79+X80)*AT79</f>
         <v>0</v>
       </c>
-      <c r="AW79" s="221" t="s">
+      <c r="AW79" s="210" t="s">
         <v>78</v>
       </c>
       <c r="AX79" s="20">
         <f>IF(AF85,AT79*(AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AY79" s="221" t="s">
+      <c r="AY79" s="210" t="s">
         <v>65</v>
       </c>
       <c r="AZ79" s="20">
         <f>AV79+AP79</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="BA79" s="221" t="s">
+      <c r="BA79" s="210" t="s">
         <v>63</v>
       </c>
       <c r="BB79" s="20">
         <f>IF(AB82&lt;0,((AZ79-(AR79+AX79))*(1-(V83+V79)))+((AX79+AR79)*(1-(V79+AB82))),AZ79*(1-(V79+V83)))</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="BC79" s="221" t="s">
+      <c r="BC79" s="210" t="s">
         <v>68</v>
       </c>
       <c r="BD79" s="18">
         <f>IF(AB81&gt;0,((BB79-(AR79+AX79))*V84)+((AR79+AX79)*AB81),BB79*V84)</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="BE79" s="221" t="s">
+      <c r="BE79" s="210" t="s">
         <v>76</v>
       </c>
       <c r="BF79" s="18">
         <f>(Z82*(AJ80+AJ83+AL80+AL83))+((AR79+AX79)*AB80)</f>
         <v>0</v>
       </c>
-      <c r="BG79" s="221" t="s">
+      <c r="BG79" s="210" t="s">
         <v>69</v>
       </c>
       <c r="BH79" s="181">
@@ -20588,8 +20588,8 @@
     </row>
     <row r="80" spans="1:63" ht="15" customHeight="1">
       <c r="A80" s="156"/>
-      <c r="B80" s="194"/>
-      <c r="C80" s="194"/>
+      <c r="B80" s="238"/>
+      <c r="C80" s="238"/>
       <c r="D80" s="48" t="s">
         <v>2</v>
       </c>
@@ -20601,7 +20601,7 @@
         <f>IFERROR(E80/P80,NA())</f>
         <v>6.9444444444444461E-2</v>
       </c>
-      <c r="G80" s="196"/>
+      <c r="G80" s="240"/>
       <c r="H80" s="84"/>
       <c r="I80" s="4" t="s">
         <v>108</v>
@@ -20627,8 +20627,8 @@
       <c r="P80" s="5">
         <v>2</v>
       </c>
-      <c r="Q80" s="212"/>
-      <c r="R80" s="212"/>
+      <c r="Q80" s="208"/>
+      <c r="R80" s="208"/>
       <c r="S80" s="79"/>
       <c r="T80" s="85"/>
       <c r="V80" s="160">
@@ -20699,47 +20699,47 @@
         <f>IF(OR(AF81,AF82),AL84*AN80,AL84*(AN80+X80))</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="AQ80" s="221"/>
+      <c r="AQ80" s="210"/>
       <c r="AR80" s="20">
         <f>IF(AF85,AL84*IF(OR(AF81,AF82),AB79,AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AS80" s="221"/>
+      <c r="AS80" s="210"/>
       <c r="AT80" s="20">
         <f>IF(AF82,AL84-(AL84*AN80),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU80" s="221"/>
+      <c r="AU80" s="210"/>
       <c r="AV80" s="20">
         <f>(AN80+X80)*AT80</f>
         <v>0</v>
       </c>
-      <c r="AW80" s="221"/>
+      <c r="AW80" s="210"/>
       <c r="AX80" s="20">
         <f>IF(AF85,AT80*(AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AY80" s="221"/>
+      <c r="AY80" s="210"/>
       <c r="AZ80" s="20">
         <f t="shared" ref="AZ80:AZ84" si="11">AV80+AP80</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="BA80" s="221"/>
+      <c r="BA80" s="210"/>
       <c r="BB80" s="20">
         <f>IF(AB82&lt;0,((AZ80-(AR80+AX80))*(1-(V83+V79)))+((AX80+AR80)*(1-(V79+AB82))),AZ80*(1-(V79+V83)))</f>
         <v>0.13888888888888892</v>
       </c>
-      <c r="BC80" s="221"/>
+      <c r="BC80" s="210"/>
       <c r="BD80" s="18">
         <f>IF(AB81&gt;0,((BB80-(AR80+AX80))*V84)+((AR80+AX80)*AB81),BB80*V84)</f>
         <v>0.13888888888888892</v>
       </c>
-      <c r="BE80" s="221"/>
+      <c r="BE80" s="210"/>
       <c r="BF80" s="18">
         <f>(Z82*(AJ80+AJ83+AL80+AL83))+((AR80+AX80)*AB80)</f>
         <v>0</v>
       </c>
-      <c r="BG80" s="221"/>
+      <c r="BG80" s="210"/>
       <c r="BH80" s="181">
         <f t="shared" si="10"/>
         <v>0.13888888888888892</v>
@@ -20757,8 +20757,8 @@
     </row>
     <row r="81" spans="1:75" ht="15" customHeight="1">
       <c r="A81" s="156"/>
-      <c r="B81" s="194"/>
-      <c r="C81" s="194"/>
+      <c r="B81" s="238"/>
+      <c r="C81" s="238"/>
       <c r="D81" s="48" t="s">
         <v>3</v>
       </c>
@@ -20770,19 +20770,19 @@
         <f>IFERROR(E81/P80,NA())</f>
         <v>4.6296296296296301E-2</v>
       </c>
-      <c r="G81" s="196"/>
+      <c r="G81" s="240"/>
       <c r="H81" s="84"/>
-      <c r="I81" s="222"/>
-      <c r="J81" s="222"/>
-      <c r="K81" s="222"/>
-      <c r="L81" s="222"/>
-      <c r="M81" s="222"/>
-      <c r="N81" s="222"/>
-      <c r="O81" s="222"/>
-      <c r="P81" s="222"/>
-      <c r="Q81" s="222"/>
-      <c r="R81" s="222"/>
-      <c r="S81" s="222"/>
+      <c r="I81" s="215"/>
+      <c r="J81" s="215"/>
+      <c r="K81" s="215"/>
+      <c r="L81" s="215"/>
+      <c r="M81" s="215"/>
+      <c r="N81" s="215"/>
+      <c r="O81" s="215"/>
+      <c r="P81" s="215"/>
+      <c r="Q81" s="215"/>
+      <c r="R81" s="215"/>
+      <c r="S81" s="215"/>
       <c r="T81" s="85"/>
       <c r="V81" s="162">
         <f>(IF(L80="D3",2,IF(L80="2D3",4,IF(L80="D6",3.5,IF(L80="2D6",7,IF(L80="3D6",10.5,L80))))))</f>
@@ -20851,47 +20851,47 @@
         <f>IF(OR(AF81,AF82),AL84*AN81,AL84*(AN81+X80))</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="AQ81" s="221"/>
+      <c r="AQ81" s="210"/>
       <c r="AR81" s="20">
         <f>IF(AF85,AL84*IF(OR(AF81,AF82),AB79,AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AS81" s="221"/>
+      <c r="AS81" s="210"/>
       <c r="AT81" s="20">
         <f>IF(AF82,AL84-(AL84*AN81),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU81" s="221"/>
+      <c r="AU81" s="210"/>
       <c r="AV81" s="20">
         <f>(AN81+X80)*AT81</f>
         <v>0</v>
       </c>
-      <c r="AW81" s="221"/>
+      <c r="AW81" s="210"/>
       <c r="AX81" s="20">
         <f>IF(AF85,AT81*(AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AY81" s="221"/>
+      <c r="AY81" s="210"/>
       <c r="AZ81" s="20">
         <f t="shared" si="11"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="BA81" s="221"/>
+      <c r="BA81" s="210"/>
       <c r="BB81" s="20">
         <f>IF(AB82&lt;0,((AZ81-(AR81+AX81))*(1-(V83+V79)))+((AX81+AR81)*(1-(V79+AB82))),AZ81*(1-(V79+V83)))</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="BC81" s="221"/>
+      <c r="BC81" s="210"/>
       <c r="BD81" s="18">
         <f>IF(AB81&gt;0,((BB81-(AR81+AX81))*V84)+((AR81+AX81)*AB81),BB81*V84)</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="BE81" s="221"/>
+      <c r="BE81" s="210"/>
       <c r="BF81" s="18">
         <f>(Z82*(AJ80+AJ83+AL80+AL83))+((AR81+AX81)*AB80)</f>
         <v>0</v>
       </c>
-      <c r="BG81" s="221"/>
+      <c r="BG81" s="210"/>
       <c r="BH81" s="181">
         <f t="shared" si="10"/>
         <v>9.2592592592592601E-2</v>
@@ -20916,7 +20916,7 @@
         <f>IFERROR(E82/P80,NA())</f>
         <v>4.6296296296296301E-2</v>
       </c>
-      <c r="G82" s="196"/>
+      <c r="G82" s="240"/>
       <c r="H82" s="84"/>
       <c r="I82" s="185" t="str">
         <f>"+- to hit"</f>
@@ -20933,17 +20933,17 @@
       <c r="M82" s="5">
         <v>0</v>
       </c>
-      <c r="N82" s="212" t="s">
+      <c r="N82" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="O82" s="212"/>
+      <c r="O82" s="208"/>
       <c r="P82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q82" s="212" t="s">
+      <c r="Q82" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R82" s="212"/>
+      <c r="R82" s="208"/>
       <c r="S82" s="5" t="s">
         <v>19</v>
       </c>
@@ -21015,47 +21015,47 @@
         <f>IF(OR(AF81,AF82),AL84*AN82,AL84*(AN82+X80))</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="AQ82" s="221"/>
+      <c r="AQ82" s="210"/>
       <c r="AR82" s="20">
         <f>IF(AF85,AL84*IF(OR(AF81,AF82),AB79,AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AS82" s="221"/>
+      <c r="AS82" s="210"/>
       <c r="AT82" s="20">
         <f>IF(AF82,AL84-(AL84*AN82),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU82" s="221"/>
+      <c r="AU82" s="210"/>
       <c r="AV82" s="20">
         <f>(AN82+X80)*AT82</f>
         <v>0</v>
       </c>
-      <c r="AW82" s="221"/>
+      <c r="AW82" s="210"/>
       <c r="AX82" s="20">
         <f>IF(AF85,AT82*(AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AY82" s="221"/>
+      <c r="AY82" s="210"/>
       <c r="AZ82" s="20">
         <f t="shared" si="11"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="BA82" s="221"/>
+      <c r="BA82" s="210"/>
       <c r="BB82" s="20">
         <f>IF(AB82&lt;0,((AZ82-(AR82+AX82))*(1-(V83+V79)))+((AX82+AR82)*(1-(V79+AB82))),AZ82*(1-(V79+V83)))</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="BC82" s="221"/>
+      <c r="BC82" s="210"/>
       <c r="BD82" s="18">
         <f>IF(AB81&gt;0,((BB82-(AR82+AX82))*V84)+((AR82+AX82)*AB81),BB82*V84)</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="BE82" s="221"/>
+      <c r="BE82" s="210"/>
       <c r="BF82" s="18">
         <f>(Z82*(AJ80+AJ83+AL80+AL83))+((AR82+AX82)*AB80)</f>
         <v>0</v>
       </c>
-      <c r="BG82" s="221"/>
+      <c r="BG82" s="210"/>
       <c r="BH82" s="181">
         <f t="shared" si="10"/>
         <v>9.2592592592592601E-2</v>
@@ -21080,28 +21080,28 @@
         <f>IFERROR(E83/P80,NA())</f>
         <v>4.6296296296296301E-2</v>
       </c>
-      <c r="G83" s="196"/>
+      <c r="G83" s="240"/>
       <c r="H83" s="87"/>
       <c r="I83" s="80"/>
       <c r="J83" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="212" t="s">
+      <c r="K83" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="L83" s="212"/>
-      <c r="M83" s="212"/>
-      <c r="N83" s="212" t="s">
+      <c r="L83" s="208"/>
+      <c r="M83" s="208"/>
+      <c r="N83" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O83" s="212"/>
+      <c r="O83" s="208"/>
       <c r="P83" s="5">
         <v>0</v>
       </c>
-      <c r="Q83" s="212" t="s">
+      <c r="Q83" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="R83" s="212"/>
+      <c r="R83" s="208"/>
       <c r="S83" s="5">
         <v>0</v>
       </c>
@@ -21158,47 +21158,47 @@
         <f>IF(OR(AF81,AF82),AL84*AN83,AL84*(AN83+X80))</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="AQ83" s="221"/>
+      <c r="AQ83" s="210"/>
       <c r="AR83" s="20">
         <f>IF(AF85,AL84*IF(OR(AF81,AF82),AB79,AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AS83" s="221"/>
+      <c r="AS83" s="210"/>
       <c r="AT83" s="20">
         <f>IF(AF82,AL84-(AL84*AN83),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU83" s="221"/>
+      <c r="AU83" s="210"/>
       <c r="AV83" s="20">
         <f>(AN83+X80)*AT83</f>
         <v>0</v>
       </c>
-      <c r="AW83" s="221"/>
+      <c r="AW83" s="210"/>
       <c r="AX83" s="20">
         <f>IF(AF85,AT83*(AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AY83" s="221"/>
+      <c r="AY83" s="210"/>
       <c r="AZ83" s="20">
         <f t="shared" si="11"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="BA83" s="221"/>
+      <c r="BA83" s="210"/>
       <c r="BB83" s="20">
         <f>IF(AB82&lt;0,((AZ83-(AR83+AX83))*(1-(V83+V79)))+((AX83+AR83)*(1-(V79+AB82))),AZ83*(1-(V79+V83)))</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="BC83" s="221"/>
+      <c r="BC83" s="210"/>
       <c r="BD83" s="18">
         <f>IF(AB81&gt;0,((BB83-(AR83+AX83))*V84)+((AR83+AX83)*AB81),BB83*V84)</f>
         <v>9.2592592592592601E-2</v>
       </c>
-      <c r="BE83" s="221"/>
+      <c r="BE83" s="210"/>
       <c r="BF83" s="18">
         <f>(Z82*(AJ80+AJ83+AL80+AL83))+((AR83+AX83)*AB80)</f>
         <v>0</v>
       </c>
-      <c r="BG83" s="221"/>
+      <c r="BG83" s="210"/>
       <c r="BH83" s="181">
         <f t="shared" si="10"/>
         <v>9.2592592592592601E-2</v>
@@ -21223,28 +21223,28 @@
         <f>IFERROR(E84/P80,NA())</f>
         <v>2.314814814814815E-2</v>
       </c>
-      <c r="G84" s="196"/>
+      <c r="G84" s="240"/>
       <c r="H84" s="84"/>
-      <c r="I84" s="223" t="s">
+      <c r="I84" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="J84" s="223"/>
-      <c r="K84" s="223" t="s">
+      <c r="J84" s="207"/>
+      <c r="K84" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="L84" s="223"/>
-      <c r="M84" s="223"/>
-      <c r="N84" s="212" t="s">
+      <c r="L84" s="207"/>
+      <c r="M84" s="207"/>
+      <c r="N84" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="O84" s="212"/>
+      <c r="O84" s="208"/>
       <c r="P84" s="5">
         <v>0</v>
       </c>
-      <c r="Q84" s="212" t="s">
+      <c r="Q84" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="R84" s="212"/>
+      <c r="R84" s="208"/>
       <c r="S84" s="5">
         <v>0</v>
       </c>
@@ -21302,47 +21302,47 @@
         <f>IF(OR(AF81,AF82),AL84*AN84,AL84*(AN84+X80))</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AQ84" s="221"/>
+      <c r="AQ84" s="210"/>
       <c r="AR84" s="20">
         <f>IF(AF85,AL84*IF(OR(AF81,AF82),AB79,AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AS84" s="221"/>
+      <c r="AS84" s="210"/>
       <c r="AT84" s="20">
         <f>IF(AF82,AL84-(AL84*AN84),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU84" s="221"/>
+      <c r="AU84" s="210"/>
       <c r="AV84" s="20">
         <f>(AN84+X80)*AT84</f>
         <v>0</v>
       </c>
-      <c r="AW84" s="221"/>
+      <c r="AW84" s="210"/>
       <c r="AX84" s="20">
         <f>IF(AF85,AT84*(AB79+X80),0)</f>
         <v>0</v>
       </c>
-      <c r="AY84" s="221"/>
+      <c r="AY84" s="210"/>
       <c r="AZ84" s="20">
         <f t="shared" si="11"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="BA84" s="221"/>
+      <c r="BA84" s="210"/>
       <c r="BB84" s="20">
         <f>IF(AB82&lt;0,((AZ84-(AR84+AX84))*(1-(V83+V79)))+((AX84+AR84)*(1-(V79+AB82))),AZ84*(1-(V79+V83)))</f>
         <v>4.6296296296296301E-2</v>
       </c>
-      <c r="BC84" s="221"/>
+      <c r="BC84" s="210"/>
       <c r="BD84" s="18">
         <f>IF(AB81&gt;0,((BB84-(AR84+AX84))*V84)+((AR84+AX84)*AB81),BB84*V84)</f>
         <v>4.6296296296296301E-2</v>
       </c>
-      <c r="BE84" s="221"/>
+      <c r="BE84" s="210"/>
       <c r="BF84" s="18">
         <f>(Z82*(AJ80+AJ83+AL80+AL83))+((AR84+AX84)*AB80)</f>
         <v>0</v>
       </c>
-      <c r="BG84" s="221"/>
+      <c r="BG84" s="210"/>
       <c r="BH84" s="181">
         <f t="shared" si="10"/>
         <v>4.6296296296296301E-2</v>
@@ -21359,7 +21359,7 @@
       <c r="D85" s="48"/>
       <c r="E85" s="48"/>
       <c r="F85" s="48"/>
-      <c r="G85" s="196"/>
+      <c r="G85" s="240"/>
       <c r="H85" s="84"/>
       <c r="I85" s="185"/>
       <c r="J85" s="185"/>
@@ -21372,17 +21372,17 @@
       <c r="M85" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N85" s="212" t="s">
+      <c r="N85" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O85" s="212"/>
+      <c r="O85" s="208"/>
       <c r="P85" s="5">
         <v>0</v>
       </c>
-      <c r="Q85" s="213" t="s">
+      <c r="Q85" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="R85" s="213"/>
+      <c r="R85" s="217"/>
       <c r="S85" s="5">
         <v>0</v>
       </c>
@@ -21460,7 +21460,7 @@
         <f>IFERROR(E86/P80,NA())</f>
         <v>5.4012345679012343E-2</v>
       </c>
-      <c r="G86" s="196"/>
+      <c r="G86" s="240"/>
       <c r="H86" s="84"/>
       <c r="I86" s="80"/>
       <c r="J86" s="80"/>
@@ -21543,46 +21543,46 @@
       <c r="R87" s="90"/>
       <c r="S87" s="90"/>
       <c r="T87" s="91"/>
-      <c r="V87" s="247"/>
-      <c r="W87" s="248"/>
-      <c r="X87" s="248"/>
-      <c r="Y87" s="249"/>
-      <c r="Z87" s="248"/>
-      <c r="AA87" s="248"/>
-      <c r="AB87" s="248"/>
-      <c r="AC87" s="248"/>
-      <c r="AD87" s="248"/>
-      <c r="AE87" s="248"/>
-      <c r="AF87" s="250"/>
-      <c r="AG87" s="250"/>
-      <c r="AH87" s="250"/>
-      <c r="AI87" s="250"/>
-      <c r="AJ87" s="248"/>
-      <c r="AK87" s="248"/>
-      <c r="AL87" s="248"/>
-      <c r="AM87" s="248"/>
-      <c r="AN87" s="251"/>
-      <c r="AO87" s="251"/>
-      <c r="AP87" s="251"/>
-      <c r="AQ87" s="251"/>
-      <c r="AR87" s="251"/>
-      <c r="AS87" s="251"/>
-      <c r="AT87" s="251"/>
-      <c r="AU87" s="251"/>
-      <c r="AV87" s="251"/>
-      <c r="AW87" s="251"/>
-      <c r="AX87" s="251"/>
-      <c r="AY87" s="251"/>
-      <c r="AZ87" s="251"/>
-      <c r="BA87" s="251"/>
-      <c r="BB87" s="251"/>
-      <c r="BC87" s="251"/>
-      <c r="BD87" s="251"/>
-      <c r="BE87" s="251"/>
-      <c r="BF87" s="251"/>
-      <c r="BG87" s="251"/>
-      <c r="BH87" s="251"/>
-      <c r="BI87" s="251"/>
+      <c r="V87" s="193"/>
+      <c r="W87" s="194"/>
+      <c r="X87" s="194"/>
+      <c r="Y87" s="195"/>
+      <c r="Z87" s="194"/>
+      <c r="AA87" s="194"/>
+      <c r="AB87" s="194"/>
+      <c r="AC87" s="194"/>
+      <c r="AD87" s="194"/>
+      <c r="AE87" s="194"/>
+      <c r="AF87" s="196"/>
+      <c r="AG87" s="196"/>
+      <c r="AH87" s="196"/>
+      <c r="AI87" s="196"/>
+      <c r="AJ87" s="194"/>
+      <c r="AK87" s="194"/>
+      <c r="AL87" s="194"/>
+      <c r="AM87" s="194"/>
+      <c r="AN87" s="197"/>
+      <c r="AO87" s="197"/>
+      <c r="AP87" s="197"/>
+      <c r="AQ87" s="197"/>
+      <c r="AR87" s="197"/>
+      <c r="AS87" s="197"/>
+      <c r="AT87" s="197"/>
+      <c r="AU87" s="197"/>
+      <c r="AV87" s="197"/>
+      <c r="AW87" s="197"/>
+      <c r="AX87" s="197"/>
+      <c r="AY87" s="197"/>
+      <c r="AZ87" s="197"/>
+      <c r="BA87" s="197"/>
+      <c r="BB87" s="197"/>
+      <c r="BC87" s="197"/>
+      <c r="BD87" s="197"/>
+      <c r="BE87" s="197"/>
+      <c r="BF87" s="197"/>
+      <c r="BG87" s="197"/>
+      <c r="BH87" s="197"/>
+      <c r="BI87" s="197"/>
       <c r="BJ87" s="141"/>
       <c r="BK87" s="119"/>
     </row>
@@ -21611,11 +21611,11 @@
       <c r="BW88" s="26"/>
     </row>
     <row r="89" spans="1:75" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A89" s="215" t="s">
+      <c r="A89" s="231" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="216"/>
-      <c r="C89" s="216"/>
+      <c r="B89" s="232"/>
+      <c r="C89" s="232"/>
       <c r="D89" s="96"/>
       <c r="E89" s="97" t="s">
         <v>11</v>
@@ -21623,7 +21623,7 @@
       <c r="F89" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="219"/>
+      <c r="G89" s="235"/>
       <c r="I89" s="78" t="s">
         <v>13</v>
       </c>
@@ -21636,26 +21636,26 @@
       <c r="N89" s="95"/>
       <c r="O89" s="95"/>
       <c r="U89" s="17"/>
-      <c r="V89" s="203" t="s">
+      <c r="V89" s="216" t="s">
         <v>92</v>
       </c>
-      <c r="W89" s="204"/>
-      <c r="X89" s="204"/>
-      <c r="Y89" s="204"/>
-      <c r="Z89" s="204"/>
-      <c r="AA89" s="204"/>
-      <c r="AB89" s="204"/>
-      <c r="AC89" s="204"/>
-      <c r="AD89" s="204" t="s">
+      <c r="W89" s="199"/>
+      <c r="X89" s="199"/>
+      <c r="Y89" s="199"/>
+      <c r="Z89" s="199"/>
+      <c r="AA89" s="199"/>
+      <c r="AB89" s="199"/>
+      <c r="AC89" s="199"/>
+      <c r="AD89" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="AE89" s="204"/>
-      <c r="AF89" s="204"/>
-      <c r="AG89" s="204"/>
-      <c r="AH89" s="204" t="s">
+      <c r="AE89" s="199"/>
+      <c r="AF89" s="199"/>
+      <c r="AG89" s="199"/>
+      <c r="AH89" s="199" t="s">
         <v>91</v>
       </c>
-      <c r="AI89" s="204"/>
+      <c r="AI89" s="199"/>
       <c r="BK89" s="117"/>
       <c r="BL89" s="26"/>
       <c r="BM89" s="26"/>
@@ -21671,9 +21671,9 @@
       <c r="BW89" s="26"/>
     </row>
     <row r="90" spans="1:75" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A90" s="217"/>
-      <c r="B90" s="218"/>
-      <c r="C90" s="218"/>
+      <c r="A90" s="233"/>
+      <c r="B90" s="234"/>
+      <c r="C90" s="234"/>
       <c r="D90" s="98" t="s">
         <v>1</v>
       </c>
@@ -21685,7 +21685,7 @@
         <f>IFERROR(E90/J90,NA())</f>
         <v>0</v>
       </c>
-      <c r="G90" s="220"/>
+      <c r="G90" s="236"/>
       <c r="I90" s="4"/>
       <c r="J90" s="5">
         <v>118</v>
@@ -21731,9 +21731,9 @@
       <c r="BW90" s="26"/>
     </row>
     <row r="91" spans="1:75" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A91" s="217"/>
-      <c r="B91" s="218"/>
-      <c r="C91" s="218"/>
+      <c r="A91" s="233"/>
+      <c r="B91" s="234"/>
+      <c r="C91" s="234"/>
       <c r="D91" s="98" t="s">
         <v>2</v>
       </c>
@@ -21745,7 +21745,7 @@
         <f>IFERROR(E91/J90,NA())</f>
         <v>0</v>
       </c>
-      <c r="G91" s="220"/>
+      <c r="G91" s="236"/>
       <c r="U91" s="17"/>
       <c r="V91" s="163">
         <f>SUM(IF(V35=1,IFERROR(BH30,0),0),IF(V45=1,IFERROR(BH40,0),0),IF(V55=1,IFERROR(BH50,0),0),IF(V65=1,IFERROR(BH60,0),0),IF(V75=1,IFERROR(BH70,0),0),IF(V85=1,IFERROR(BH80,0),0))</f>
@@ -21782,9 +21782,9 @@
       <c r="BW91" s="26"/>
     </row>
     <row r="92" spans="1:75" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A92" s="217"/>
-      <c r="B92" s="218"/>
-      <c r="C92" s="218"/>
+      <c r="A92" s="233"/>
+      <c r="B92" s="234"/>
+      <c r="C92" s="234"/>
       <c r="D92" s="98" t="s">
         <v>3</v>
       </c>
@@ -21796,7 +21796,7 @@
         <f>IFERROR(E92/J90,NA())</f>
         <v>0</v>
       </c>
-      <c r="G92" s="220"/>
+      <c r="G92" s="236"/>
       <c r="U92" s="17"/>
       <c r="V92" s="163">
         <f>SUM(IF(V35=1,IFERROR(BH31,0),0),IF(V45=1,IFERROR(BH41,0),0),IF(V55=1,IFERROR(BH51,0),0),IF(V65=1,IFERROR(BH61,0),0),IF(V75=1,IFERROR(BH71,0),0),IF(V85=1,IFERROR(BH81,0),0))</f>
@@ -21826,9 +21826,9 @@
       <c r="BW92" s="26"/>
     </row>
     <row r="93" spans="1:75" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A93" s="217"/>
-      <c r="B93" s="218"/>
-      <c r="C93" s="218"/>
+      <c r="A93" s="233"/>
+      <c r="B93" s="234"/>
+      <c r="C93" s="234"/>
       <c r="D93" s="98" t="s">
         <v>4</v>
       </c>
@@ -21840,7 +21840,7 @@
         <f>IFERROR(E93/J90,NA())</f>
         <v>0</v>
       </c>
-      <c r="G93" s="220"/>
+      <c r="G93" s="236"/>
       <c r="U93" s="17"/>
       <c r="V93" s="163">
         <f>SUM(IF(V35=1,IFERROR(BH32,0),0),IF(V45=1,IFERROR(BH42,0),0),IF(V55=1,IFERROR(BH52,0),0),IF(V65=1,IFERROR(BH62,0),0),IF(V75=1,IFERROR(BH72,0),0),IF(V85=1,IFERROR(BH82,0),0))</f>
@@ -21870,9 +21870,9 @@
       <c r="BW93" s="26"/>
     </row>
     <row r="94" spans="1:75" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A94" s="217"/>
-      <c r="B94" s="218"/>
-      <c r="C94" s="218"/>
+      <c r="A94" s="233"/>
+      <c r="B94" s="234"/>
+      <c r="C94" s="234"/>
       <c r="D94" s="98" t="s">
         <v>5</v>
       </c>
@@ -21884,7 +21884,7 @@
         <f>IFERROR(E94/J90,NA())</f>
         <v>0</v>
       </c>
-      <c r="G94" s="220"/>
+      <c r="G94" s="236"/>
       <c r="U94" s="17"/>
       <c r="V94" s="163">
         <f>SUM(IF(V35=1,IFERROR(BH33,0),0),IF(V45=1,IFERROR(BH43,0),0),IF(V55=1,IFERROR(BH53,0),0),IF(V65=1,IFERROR(BH63,0),0),IF(V75=1,IFERROR(BH73,0),0),IF(V85=1,IFERROR(BH83,0),0))</f>
@@ -21928,7 +21928,7 @@
         <f>IFERROR(E95/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G95" s="220"/>
+      <c r="G95" s="236"/>
       <c r="U95" s="17"/>
       <c r="V95" s="163">
         <f>SUM(IF(V35=1,IFERROR(BH34,0),0),IF(V45=1,IFERROR(BH44,0),0),IF(V55=1,IFERROR(BH54,0),0),IF(V65=1,IFERROR(BH64,0),0),IF(V75=1,IFERROR(BH74,0),0),IF(V85=1,IFERROR(BH84,0),0))</f>
@@ -21964,7 +21964,7 @@
       <c r="D96" s="98"/>
       <c r="E96" s="98"/>
       <c r="F96" s="98"/>
-      <c r="G96" s="220"/>
+      <c r="G96" s="236"/>
       <c r="U96" s="17"/>
       <c r="V96" s="116"/>
       <c r="AD96" s="18">
@@ -22009,7 +22009,7 @@
         <f>IFERROR(E97/J90,NA())</f>
         <v>0</v>
       </c>
-      <c r="G97" s="220"/>
+      <c r="G97" s="236"/>
       <c r="U97" s="17"/>
       <c r="V97" s="116"/>
       <c r="BK97" s="117"/>
@@ -22051,11 +22051,11 @@
       <c r="BW98" s="26"/>
     </row>
     <row r="99" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A99" s="205" t="s">
+      <c r="A99" s="247" t="s">
         <v>101</v>
       </c>
-      <c r="B99" s="206"/>
-      <c r="C99" s="206"/>
+      <c r="B99" s="248"/>
+      <c r="C99" s="248"/>
       <c r="D99" s="106"/>
       <c r="E99" s="107" t="s">
         <v>11</v>
@@ -22063,7 +22063,7 @@
       <c r="F99" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="209"/>
+      <c r="G99" s="251"/>
       <c r="I99" s="78" t="s">
         <v>13</v>
       </c>
@@ -22071,26 +22071,26 @@
         <v>8</v>
       </c>
       <c r="U99" s="17"/>
-      <c r="V99" s="246" t="s">
+      <c r="V99" s="205" t="s">
         <v>92</v>
       </c>
-      <c r="W99" s="240"/>
-      <c r="X99" s="240"/>
-      <c r="Y99" s="240"/>
-      <c r="Z99" s="240"/>
-      <c r="AA99" s="240"/>
-      <c r="AB99" s="240"/>
-      <c r="AC99" s="240"/>
-      <c r="AD99" s="240" t="s">
+      <c r="W99" s="206"/>
+      <c r="X99" s="206"/>
+      <c r="Y99" s="206"/>
+      <c r="Z99" s="206"/>
+      <c r="AA99" s="206"/>
+      <c r="AB99" s="206"/>
+      <c r="AC99" s="206"/>
+      <c r="AD99" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE99" s="240"/>
-      <c r="AF99" s="240"/>
-      <c r="AG99" s="240"/>
-      <c r="AH99" s="240" t="s">
+      <c r="AE99" s="206"/>
+      <c r="AF99" s="206"/>
+      <c r="AG99" s="206"/>
+      <c r="AH99" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="AI99" s="240"/>
+      <c r="AI99" s="206"/>
       <c r="AJ99" s="43"/>
       <c r="AK99" s="43"/>
       <c r="AL99" s="43"/>
@@ -22118,7 +22118,7 @@
       <c r="BH99" s="43"/>
       <c r="BI99" s="43"/>
       <c r="BJ99" s="43"/>
-      <c r="BK99" s="252"/>
+      <c r="BK99" s="198"/>
       <c r="BL99" s="26"/>
       <c r="BM99" s="26"/>
       <c r="BN99" s="26"/>
@@ -22133,9 +22133,9 @@
       <c r="BW99" s="26"/>
     </row>
     <row r="100" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A100" s="207"/>
-      <c r="B100" s="208"/>
-      <c r="C100" s="208"/>
+      <c r="A100" s="249"/>
+      <c r="B100" s="250"/>
+      <c r="C100" s="250"/>
       <c r="D100" s="108" t="s">
         <v>1</v>
       </c>
@@ -22147,7 +22147,7 @@
         <f>IFERROR(E100/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G100" s="210"/>
+      <c r="G100" s="252"/>
       <c r="I100" s="4"/>
       <c r="J100" s="5">
         <v>138</v>
@@ -22188,9 +22188,9 @@
       <c r="BW100" s="26"/>
     </row>
     <row r="101" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A101" s="207"/>
-      <c r="B101" s="208"/>
-      <c r="C101" s="208"/>
+      <c r="A101" s="249"/>
+      <c r="B101" s="250"/>
+      <c r="C101" s="250"/>
       <c r="D101" s="108" t="s">
         <v>2</v>
       </c>
@@ -22202,7 +22202,7 @@
         <f>IFERROR(E101/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G101" s="210"/>
+      <c r="G101" s="252"/>
       <c r="U101" s="17"/>
       <c r="V101" s="163">
         <f>SUM(IF(V35=2,IFERROR(BH30,0),0),IF(V45=2,IFERROR(BH40,0),0),IF(V55=2,IFERROR(BH50,0),0),IF(V65=2,IFERROR(BH60,0),0),IF(V75=2,IFERROR(BH70,0),0),IF(V85=2,IFERROR(BH80,0),0))</f>
@@ -22239,9 +22239,9 @@
       <c r="BW101" s="26"/>
     </row>
     <row r="102" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A102" s="207"/>
-      <c r="B102" s="208"/>
-      <c r="C102" s="208"/>
+      <c r="A102" s="249"/>
+      <c r="B102" s="250"/>
+      <c r="C102" s="250"/>
       <c r="D102" s="108" t="s">
         <v>3</v>
       </c>
@@ -22253,7 +22253,7 @@
         <f>IFERROR(E102/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G102" s="210"/>
+      <c r="G102" s="252"/>
       <c r="U102" s="17"/>
       <c r="V102" s="163">
         <f>SUM(IF(V35=2,IFERROR(BH31,0),0),IF(V45=2,IFERROR(BH41,0),0),IF(V55=2,IFERROR(BH51,0),0),IF(V65=2,IFERROR(BH61,0),0),IF(V75=2,IFERROR(BH71,0),0),IF(V85=2,IFERROR(BH81,0),0))</f>
@@ -22283,9 +22283,9 @@
       <c r="BW102" s="26"/>
     </row>
     <row r="103" spans="1:88" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A103" s="207"/>
-      <c r="B103" s="208"/>
-      <c r="C103" s="208"/>
+      <c r="A103" s="249"/>
+      <c r="B103" s="250"/>
+      <c r="C103" s="250"/>
       <c r="D103" s="108" t="s">
         <v>4</v>
       </c>
@@ -22297,7 +22297,7 @@
         <f>IFERROR(E103/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G103" s="210"/>
+      <c r="G103" s="252"/>
       <c r="U103" s="45"/>
       <c r="V103" s="163">
         <f>SUM(IF(V35=2,IFERROR(BH32,0),0),IF(V45=2,IFERROR(BH42,0),0),IF(V55=2,IFERROR(BH52,0),0),IF(V65=2,IFERROR(BH62,0),0),IF(V75=2,IFERROR(BH72,0),0),IF(V85=2,IFERROR(BH82,0),0))</f>
@@ -22328,9 +22328,9 @@
       <c r="CI103" s="46"/>
     </row>
     <row r="104" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A104" s="207"/>
-      <c r="B104" s="208"/>
-      <c r="C104" s="208"/>
+      <c r="A104" s="249"/>
+      <c r="B104" s="250"/>
+      <c r="C104" s="250"/>
       <c r="D104" s="108" t="s">
         <v>5</v>
       </c>
@@ -22342,7 +22342,7 @@
         <f>IFERROR(E104/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G104" s="210"/>
+      <c r="G104" s="252"/>
       <c r="U104" s="17"/>
       <c r="V104" s="163">
         <f>SUM(IF(V35=2,IFERROR(BH33,0),0),IF(V45=2,IFERROR(BH43,0),0),IF(V55=2,IFERROR(BH53,0),0),IF(V65=2,IFERROR(BH63,0),0),IF(V75=2,IFERROR(BH73,0),0),IF(V85=2,IFERROR(BH83,0),0))</f>
@@ -22389,7 +22389,7 @@
         <f>IFERROR(E105/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G105" s="210"/>
+      <c r="G105" s="252"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
@@ -22440,7 +22440,7 @@
       <c r="D106" s="108"/>
       <c r="E106" s="108"/>
       <c r="F106" s="108"/>
-      <c r="G106" s="210"/>
+      <c r="G106" s="252"/>
       <c r="I106" s="17"/>
       <c r="J106" s="26"/>
       <c r="K106" s="26"/>
@@ -22500,7 +22500,7 @@
         <f>IFERROR(E107/J100,NA())</f>
         <v>0</v>
       </c>
-      <c r="G107" s="210"/>
+      <c r="G107" s="252"/>
       <c r="I107" s="17"/>
       <c r="J107" s="26"/>
       <c r="K107" s="26"/>
@@ -22572,11 +22572,11 @@
       <c r="CJ108" s="47"/>
     </row>
     <row r="109" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A109" s="197" t="s">
+      <c r="A109" s="241" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="198"/>
-      <c r="C109" s="198"/>
+      <c r="B109" s="242"/>
+      <c r="C109" s="242"/>
       <c r="D109" s="142"/>
       <c r="E109" s="143" t="s">
         <v>11</v>
@@ -22584,7 +22584,7 @@
       <c r="F109" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="G109" s="201"/>
+      <c r="G109" s="245"/>
       <c r="I109" s="78" t="s">
         <v>13</v>
       </c>
@@ -22602,26 +22602,26 @@
       <c r="S109" s="26"/>
       <c r="T109" s="26"/>
       <c r="U109" s="17"/>
-      <c r="V109" s="246" t="s">
+      <c r="V109" s="205" t="s">
         <v>92</v>
       </c>
-      <c r="W109" s="240"/>
-      <c r="X109" s="240"/>
-      <c r="Y109" s="240"/>
-      <c r="Z109" s="240"/>
-      <c r="AA109" s="240"/>
-      <c r="AB109" s="240"/>
-      <c r="AC109" s="240"/>
-      <c r="AD109" s="240" t="s">
+      <c r="W109" s="206"/>
+      <c r="X109" s="206"/>
+      <c r="Y109" s="206"/>
+      <c r="Z109" s="206"/>
+      <c r="AA109" s="206"/>
+      <c r="AB109" s="206"/>
+      <c r="AC109" s="206"/>
+      <c r="AD109" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE109" s="240"/>
-      <c r="AF109" s="240"/>
-      <c r="AG109" s="240"/>
-      <c r="AH109" s="240" t="s">
+      <c r="AE109" s="206"/>
+      <c r="AF109" s="206"/>
+      <c r="AG109" s="206"/>
+      <c r="AH109" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="AI109" s="240"/>
+      <c r="AI109" s="206"/>
       <c r="AJ109" s="43"/>
       <c r="AK109" s="43"/>
       <c r="AL109" s="43"/>
@@ -22649,7 +22649,7 @@
       <c r="BH109" s="43"/>
       <c r="BI109" s="43"/>
       <c r="BJ109" s="43"/>
-      <c r="BK109" s="252"/>
+      <c r="BK109" s="198"/>
       <c r="BL109" s="26"/>
       <c r="BM109" s="26"/>
       <c r="BN109" s="26"/>
@@ -22667,9 +22667,9 @@
       <c r="CJ109" s="47"/>
     </row>
     <row r="110" spans="1:88" s="13" customFormat="1">
-      <c r="A110" s="199"/>
-      <c r="B110" s="200"/>
-      <c r="C110" s="200"/>
+      <c r="A110" s="243"/>
+      <c r="B110" s="244"/>
+      <c r="C110" s="244"/>
       <c r="D110" s="144" t="s">
         <v>1</v>
       </c>
@@ -22681,7 +22681,7 @@
         <f>IFERROR(E110/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G110" s="202"/>
+      <c r="G110" s="246"/>
       <c r="I110" s="4"/>
       <c r="J110" s="5">
         <v>12</v>
@@ -22732,9 +22732,9 @@
       <c r="BW110" s="26"/>
     </row>
     <row r="111" spans="1:88" s="13" customFormat="1">
-      <c r="A111" s="199"/>
-      <c r="B111" s="200"/>
-      <c r="C111" s="200"/>
+      <c r="A111" s="243"/>
+      <c r="B111" s="244"/>
+      <c r="C111" s="244"/>
       <c r="D111" s="144" t="s">
         <v>2</v>
       </c>
@@ -22746,7 +22746,7 @@
         <f>IFERROR(E111/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G111" s="202"/>
+      <c r="G111" s="246"/>
       <c r="I111" s="17"/>
       <c r="J111" s="26"/>
       <c r="K111" s="17"/>
@@ -22795,9 +22795,9 @@
       <c r="BW111" s="26"/>
     </row>
     <row r="112" spans="1:88" s="13" customFormat="1">
-      <c r="A112" s="199"/>
-      <c r="B112" s="200"/>
-      <c r="C112" s="200"/>
+      <c r="A112" s="243"/>
+      <c r="B112" s="244"/>
+      <c r="C112" s="244"/>
       <c r="D112" s="144" t="s">
         <v>3</v>
       </c>
@@ -22809,7 +22809,7 @@
         <f>IFERROR(E112/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G112" s="202"/>
+      <c r="G112" s="246"/>
       <c r="I112" s="17"/>
       <c r="J112" s="26"/>
       <c r="K112" s="17"/>
@@ -22851,9 +22851,9 @@
       <c r="BW112" s="26"/>
     </row>
     <row r="113" spans="1:75" s="13" customFormat="1">
-      <c r="A113" s="199"/>
-      <c r="B113" s="200"/>
-      <c r="C113" s="200"/>
+      <c r="A113" s="243"/>
+      <c r="B113" s="244"/>
+      <c r="C113" s="244"/>
       <c r="D113" s="144" t="s">
         <v>4</v>
       </c>
@@ -22865,7 +22865,7 @@
         <f>IFERROR(E113/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G113" s="202"/>
+      <c r="G113" s="246"/>
       <c r="I113" s="17"/>
       <c r="J113" s="26"/>
       <c r="K113" s="17"/>
@@ -22917,9 +22917,9 @@
       <c r="BW113" s="26"/>
     </row>
     <row r="114" spans="1:75" s="13" customFormat="1">
-      <c r="A114" s="199"/>
-      <c r="B114" s="200"/>
-      <c r="C114" s="200"/>
+      <c r="A114" s="243"/>
+      <c r="B114" s="244"/>
+      <c r="C114" s="244"/>
       <c r="D114" s="144" t="s">
         <v>5</v>
       </c>
@@ -22931,7 +22931,7 @@
         <f>IFERROR(E114/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G114" s="202"/>
+      <c r="G114" s="246"/>
       <c r="U114" s="17"/>
       <c r="V114" s="163">
         <f>SUM(IF(V35=3,IFERROR(BH33,0),0),IF(V45=3,IFERROR(BH43,0),0),IF(V55=3,IFERROR(BH53,0),0),IF(V65=3,IFERROR(BH63,0),0),IF(V75=3,IFERROR(BH73,0),0),IF(V85=3,IFERROR(BH83,0),0))</f>
@@ -22975,7 +22975,7 @@
         <f>IFERROR(E115/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G115" s="202"/>
+      <c r="G115" s="246"/>
       <c r="U115" s="17"/>
       <c r="V115" s="163">
         <f>SUM(IF(V35=3,IFERROR(BH34,0),0),IF(V45=3,IFERROR(BH44,0),0),IF(V55=3,IFERROR(BH54,0),0),IF(V65=3,IFERROR(BH64,0),0),IF(V75=3,IFERROR(BH74,0),0),IF(V85=3,IFERROR(BH84,0),0))</f>
@@ -23011,7 +23011,7 @@
       <c r="D116" s="144"/>
       <c r="E116" s="144"/>
       <c r="F116" s="144"/>
-      <c r="G116" s="202"/>
+      <c r="G116" s="246"/>
       <c r="U116" s="17"/>
       <c r="V116" s="116"/>
       <c r="AD116" s="18">
@@ -23056,7 +23056,7 @@
         <f>IFERROR(E117/J110,NA())</f>
         <v>0</v>
       </c>
-      <c r="G117" s="202"/>
+      <c r="G117" s="246"/>
       <c r="U117" s="17"/>
       <c r="V117" s="116"/>
       <c r="AG117" s="14"/>
@@ -23487,11 +23487,11 @@
       <c r="CC141" s="138"/>
       <c r="CI141" s="139">
         <f>IFERROR(F36,"")</f>
-        <v>-2.5925925925925925E-2</v>
+        <v>5.473251028806584E-2</v>
       </c>
       <c r="CJ141" s="139">
         <f>IFERROR(E36,"")</f>
-        <v>-0.3888888888888889</v>
+        <v>0.82098765432098764</v>
       </c>
     </row>
     <row r="142" spans="21:88" s="13" customFormat="1" ht="39" customHeight="1">
@@ -37270,164 +37270,26 @@
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="V17:AC17"/>
-    <mergeCell ref="V25:AC25"/>
-    <mergeCell ref="B28:C31"/>
-    <mergeCell ref="G28:G36"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="V28:AC28"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AJ28:AN28"/>
-    <mergeCell ref="AO28:BA28"/>
-    <mergeCell ref="BB28:BI28"/>
-    <mergeCell ref="BJ28:BK28"/>
-    <mergeCell ref="AQ29:AQ34"/>
-    <mergeCell ref="AS29:AS34"/>
-    <mergeCell ref="AU29:AU34"/>
-    <mergeCell ref="AW29:AW34"/>
-    <mergeCell ref="AY29:AY34"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="G38:G46"/>
-    <mergeCell ref="I38:S38"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="BA29:BA34"/>
-    <mergeCell ref="BC29:BC34"/>
-    <mergeCell ref="I31:S31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="V38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AJ38:AN38"/>
-    <mergeCell ref="AO38:BA38"/>
-    <mergeCell ref="BB38:BI38"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="BJ38:BK38"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="BE29:BE34"/>
-    <mergeCell ref="BG29:BG34"/>
-    <mergeCell ref="BC39:BC44"/>
-    <mergeCell ref="BE39:BE44"/>
-    <mergeCell ref="BG39:BG44"/>
-    <mergeCell ref="I41:S41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="AQ39:AQ44"/>
-    <mergeCell ref="AS39:AS44"/>
-    <mergeCell ref="AU39:AU44"/>
-    <mergeCell ref="AW39:AW44"/>
-    <mergeCell ref="AY39:AY44"/>
-    <mergeCell ref="BA39:BA44"/>
-    <mergeCell ref="B48:C51"/>
-    <mergeCell ref="G48:G56"/>
-    <mergeCell ref="I48:S48"/>
-    <mergeCell ref="V48:AC48"/>
-    <mergeCell ref="AD48:AG48"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="I51:S51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="AJ48:AN48"/>
-    <mergeCell ref="AO48:BA48"/>
-    <mergeCell ref="BB48:BI48"/>
-    <mergeCell ref="BJ48:BK48"/>
-    <mergeCell ref="AQ49:AQ54"/>
-    <mergeCell ref="AS49:AS54"/>
-    <mergeCell ref="AU49:AU54"/>
-    <mergeCell ref="AW49:AW54"/>
-    <mergeCell ref="AY49:AY54"/>
-    <mergeCell ref="BA49:BA54"/>
-    <mergeCell ref="BC49:BC54"/>
-    <mergeCell ref="BE49:BE54"/>
-    <mergeCell ref="BG49:BG54"/>
-    <mergeCell ref="B58:C61"/>
-    <mergeCell ref="G58:G66"/>
-    <mergeCell ref="I58:S58"/>
-    <mergeCell ref="V58:AC58"/>
-    <mergeCell ref="AD58:AG58"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="I61:S61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="AJ58:AN58"/>
-    <mergeCell ref="AO58:BA58"/>
-    <mergeCell ref="BB58:BI58"/>
-    <mergeCell ref="BJ58:BK58"/>
-    <mergeCell ref="AQ59:AQ64"/>
-    <mergeCell ref="AS59:AS64"/>
-    <mergeCell ref="AU59:AU64"/>
-    <mergeCell ref="AW59:AW64"/>
-    <mergeCell ref="AY59:AY64"/>
-    <mergeCell ref="BA59:BA64"/>
-    <mergeCell ref="BC59:BC64"/>
-    <mergeCell ref="BE59:BE64"/>
-    <mergeCell ref="BG59:BG64"/>
-    <mergeCell ref="BJ68:BK68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="AQ69:AQ74"/>
-    <mergeCell ref="AS69:AS74"/>
-    <mergeCell ref="AU69:AU74"/>
-    <mergeCell ref="AW69:AW74"/>
-    <mergeCell ref="AY69:AY74"/>
-    <mergeCell ref="B68:C71"/>
-    <mergeCell ref="G68:G76"/>
-    <mergeCell ref="I68:S68"/>
-    <mergeCell ref="V68:AC68"/>
-    <mergeCell ref="AD68:AG68"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="AJ78:AN78"/>
-    <mergeCell ref="AO78:BA78"/>
-    <mergeCell ref="BB78:BI78"/>
-    <mergeCell ref="AW79:AW84"/>
-    <mergeCell ref="AY79:AY84"/>
-    <mergeCell ref="BA79:BA84"/>
-    <mergeCell ref="AJ68:AN68"/>
-    <mergeCell ref="AO68:BA68"/>
-    <mergeCell ref="BB68:BI68"/>
-    <mergeCell ref="BA69:BA74"/>
-    <mergeCell ref="BC69:BC74"/>
-    <mergeCell ref="BE69:BE74"/>
-    <mergeCell ref="BG69:BG74"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="I71:S71"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="B78:C81"/>
+    <mergeCell ref="G78:G86"/>
+    <mergeCell ref="A109:C114"/>
+    <mergeCell ref="G109:G117"/>
+    <mergeCell ref="V109:AC109"/>
+    <mergeCell ref="AD109:AG109"/>
+    <mergeCell ref="AH109:AI109"/>
+    <mergeCell ref="AD89:AG89"/>
+    <mergeCell ref="AH89:AI89"/>
+    <mergeCell ref="A99:C104"/>
+    <mergeCell ref="G99:G107"/>
+    <mergeCell ref="V99:AC99"/>
+    <mergeCell ref="AD99:AG99"/>
+    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="V78:AC78"/>
+    <mergeCell ref="AD78:AG78"/>
     <mergeCell ref="BJ78:BK78"/>
     <mergeCell ref="Q74:R74"/>
     <mergeCell ref="N75:O75"/>
@@ -37452,26 +37314,164 @@
     <mergeCell ref="AQ79:AQ84"/>
     <mergeCell ref="AS79:AS84"/>
     <mergeCell ref="AU79:AU84"/>
-    <mergeCell ref="B78:C81"/>
-    <mergeCell ref="G78:G86"/>
-    <mergeCell ref="A109:C114"/>
-    <mergeCell ref="G109:G117"/>
-    <mergeCell ref="V109:AC109"/>
-    <mergeCell ref="AD109:AG109"/>
-    <mergeCell ref="AH109:AI109"/>
-    <mergeCell ref="AD89:AG89"/>
-    <mergeCell ref="AH89:AI89"/>
-    <mergeCell ref="A99:C104"/>
-    <mergeCell ref="G99:G107"/>
-    <mergeCell ref="V99:AC99"/>
-    <mergeCell ref="AD99:AG99"/>
-    <mergeCell ref="AH99:AI99"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="V78:AC78"/>
-    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="AJ78:AN78"/>
+    <mergeCell ref="AO78:BA78"/>
+    <mergeCell ref="BB78:BI78"/>
+    <mergeCell ref="AW79:AW84"/>
+    <mergeCell ref="AY79:AY84"/>
+    <mergeCell ref="BA79:BA84"/>
+    <mergeCell ref="AJ68:AN68"/>
+    <mergeCell ref="AO68:BA68"/>
+    <mergeCell ref="BB68:BI68"/>
+    <mergeCell ref="BA69:BA74"/>
+    <mergeCell ref="BC69:BC74"/>
+    <mergeCell ref="BE69:BE74"/>
+    <mergeCell ref="BG69:BG74"/>
+    <mergeCell ref="BJ68:BK68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="AQ69:AQ74"/>
+    <mergeCell ref="AS69:AS74"/>
+    <mergeCell ref="AU69:AU74"/>
+    <mergeCell ref="AW69:AW74"/>
+    <mergeCell ref="AY69:AY74"/>
+    <mergeCell ref="B68:C71"/>
+    <mergeCell ref="G68:G76"/>
+    <mergeCell ref="I68:S68"/>
+    <mergeCell ref="V68:AC68"/>
+    <mergeCell ref="AD68:AG68"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="I71:S71"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="AJ58:AN58"/>
+    <mergeCell ref="AO58:BA58"/>
+    <mergeCell ref="BB58:BI58"/>
+    <mergeCell ref="BJ58:BK58"/>
+    <mergeCell ref="AQ59:AQ64"/>
+    <mergeCell ref="AS59:AS64"/>
+    <mergeCell ref="AU59:AU64"/>
+    <mergeCell ref="AW59:AW64"/>
+    <mergeCell ref="AY59:AY64"/>
+    <mergeCell ref="BA59:BA64"/>
+    <mergeCell ref="BC59:BC64"/>
+    <mergeCell ref="BE59:BE64"/>
+    <mergeCell ref="BG59:BG64"/>
+    <mergeCell ref="B58:C61"/>
+    <mergeCell ref="G58:G66"/>
+    <mergeCell ref="I58:S58"/>
+    <mergeCell ref="V58:AC58"/>
+    <mergeCell ref="AD58:AG58"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="I61:S61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="AJ48:AN48"/>
+    <mergeCell ref="AO48:BA48"/>
+    <mergeCell ref="BB48:BI48"/>
+    <mergeCell ref="BJ48:BK48"/>
+    <mergeCell ref="AQ49:AQ54"/>
+    <mergeCell ref="AS49:AS54"/>
+    <mergeCell ref="AU49:AU54"/>
+    <mergeCell ref="AW49:AW54"/>
+    <mergeCell ref="AY49:AY54"/>
+    <mergeCell ref="BA49:BA54"/>
+    <mergeCell ref="BC49:BC54"/>
+    <mergeCell ref="BE49:BE54"/>
+    <mergeCell ref="BG49:BG54"/>
+    <mergeCell ref="B48:C51"/>
+    <mergeCell ref="G48:G56"/>
+    <mergeCell ref="I48:S48"/>
+    <mergeCell ref="V48:AC48"/>
+    <mergeCell ref="AD48:AG48"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="I51:S51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="BJ38:BK38"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="BE29:BE34"/>
+    <mergeCell ref="BG29:BG34"/>
+    <mergeCell ref="BC39:BC44"/>
+    <mergeCell ref="BE39:BE44"/>
+    <mergeCell ref="BG39:BG44"/>
+    <mergeCell ref="I41:S41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="AQ39:AQ44"/>
+    <mergeCell ref="AS39:AS44"/>
+    <mergeCell ref="AU39:AU44"/>
+    <mergeCell ref="AW39:AW44"/>
+    <mergeCell ref="AY39:AY44"/>
+    <mergeCell ref="BA39:BA44"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="G38:G46"/>
+    <mergeCell ref="I38:S38"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="BA29:BA34"/>
+    <mergeCell ref="BC29:BC34"/>
+    <mergeCell ref="I31:S31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="V38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AJ38:AN38"/>
+    <mergeCell ref="AO38:BA38"/>
+    <mergeCell ref="BB38:BI38"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AJ28:AN28"/>
+    <mergeCell ref="AO28:BA28"/>
+    <mergeCell ref="BB28:BI28"/>
+    <mergeCell ref="BJ28:BK28"/>
+    <mergeCell ref="AQ29:AQ34"/>
+    <mergeCell ref="AS29:AS34"/>
+    <mergeCell ref="AU29:AU34"/>
+    <mergeCell ref="AW29:AW34"/>
+    <mergeCell ref="AY29:AY34"/>
+    <mergeCell ref="V17:AC17"/>
+    <mergeCell ref="V25:AC25"/>
+    <mergeCell ref="B28:C31"/>
+    <mergeCell ref="G28:G36"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="V28:AC28"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36 C46 C56 C66 C76 C86">

--- a/mathhammer.xlsx
+++ b/mathhammer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdamW\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdamW\Desktop\mathhammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1236,115 +1236,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1376,6 +1271,15 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1394,11 +1298,107 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -11006,8 +11006,8 @@
           <a:chExt cx="728235" cy="3042727"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:pic>
             <xdr:nvPicPr>
               <xdr:cNvPr id="84" name="Picture 83">
@@ -11021,7 +11021,7 @@
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
                 <a:extLst>
                   <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                    <a14:cameraTool cellRange="$CN$141:$CN$149" spid="_x0000_s6461"/>
+                    <a14:cameraTool cellRange="$CN$141:$CN$149" spid="_x0000_s6465"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPicPr>
@@ -11065,7 +11065,7 @@
             </xdr:spPr>
           </xdr:pic>
         </mc:Choice>
-        <mc:Fallback/>
+        <mc:Fallback xmlns=""/>
       </mc:AlternateContent>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
@@ -13365,8 +13365,8 @@
           <a:chExt cx="728234" cy="3042727"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:pic>
             <xdr:nvPicPr>
               <xdr:cNvPr id="123" name="Picture 122">
@@ -13380,7 +13380,7 @@
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
                 <a:extLst>
                   <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                    <a14:cameraTool cellRange="$CM$141:$CM$149" spid="_x0000_s6462"/>
+                    <a14:cameraTool cellRange="$CM$141:$CM$149" spid="_x0000_s6466"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPicPr>
@@ -13424,7 +13424,7 @@
             </xdr:spPr>
           </xdr:pic>
         </mc:Choice>
-        <mc:Fallback/>
+        <mc:Fallback xmlns=""/>
       </mc:AlternateContent>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
@@ -13749,7 +13749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FE1055"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="O93" sqref="O93"/>
     </sheetView>
   </sheetViews>
@@ -14153,14 +14153,14 @@
       <c r="R17" s="183"/>
       <c r="S17" s="183"/>
       <c r="T17" s="183"/>
-      <c r="V17" s="201"/>
-      <c r="W17" s="201"/>
-      <c r="X17" s="201"/>
-      <c r="Y17" s="201"/>
-      <c r="Z17" s="201"/>
-      <c r="AA17" s="201"/>
-      <c r="AB17" s="201"/>
-      <c r="AC17" s="201"/>
+      <c r="V17" s="215"/>
+      <c r="W17" s="215"/>
+      <c r="X17" s="215"/>
+      <c r="Y17" s="215"/>
+      <c r="Z17" s="215"/>
+      <c r="AA17" s="215"/>
+      <c r="AB17" s="215"/>
+      <c r="AC17" s="215"/>
     </row>
     <row r="18" spans="1:161" hidden="1">
       <c r="A18" s="183"/>
@@ -14339,14 +14339,14 @@
       <c r="R25" s="183"/>
       <c r="S25" s="183"/>
       <c r="T25" s="183"/>
-      <c r="V25" s="201"/>
-      <c r="W25" s="201"/>
-      <c r="X25" s="201"/>
-      <c r="Y25" s="201"/>
-      <c r="Z25" s="201"/>
-      <c r="AA25" s="201"/>
-      <c r="AB25" s="201"/>
-      <c r="AC25" s="201"/>
+      <c r="V25" s="215"/>
+      <c r="W25" s="215"/>
+      <c r="X25" s="215"/>
+      <c r="Y25" s="215"/>
+      <c r="Z25" s="215"/>
+      <c r="AA25" s="215"/>
+      <c r="AB25" s="215"/>
+      <c r="AC25" s="215"/>
     </row>
     <row r="26" spans="1:161" hidden="1">
       <c r="A26" s="183"/>
@@ -14535,11 +14535,11 @@
     </row>
     <row r="28" spans="1:161" ht="15" customHeight="1">
       <c r="A28" s="121"/>
-      <c r="B28" s="202" t="str">
+      <c r="B28" s="252" t="str">
         <f>IF(I30="","",I30)</f>
         <v>Model 1</v>
       </c>
-      <c r="C28" s="202"/>
+      <c r="C28" s="252"/>
       <c r="D28" s="6"/>
       <c r="E28" s="15" t="s">
         <v>11</v>
@@ -14547,87 +14547,87 @@
       <c r="F28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="204"/>
+      <c r="G28" s="254"/>
       <c r="H28" s="82"/>
-      <c r="I28" s="206" t="str">
+      <c r="I28" s="226" t="str">
         <f>IF(I30="","",I30)</f>
         <v>Model 1</v>
       </c>
-      <c r="J28" s="206"/>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="206"/>
-      <c r="N28" s="206"/>
-      <c r="O28" s="206"/>
-      <c r="P28" s="206"/>
+      <c r="J28" s="226"/>
+      <c r="K28" s="226"/>
+      <c r="L28" s="226"/>
+      <c r="M28" s="226"/>
+      <c r="N28" s="226"/>
+      <c r="O28" s="226"/>
+      <c r="P28" s="226"/>
       <c r="Q28" s="93"/>
-      <c r="R28" s="206"/>
-      <c r="S28" s="206"/>
+      <c r="R28" s="226"/>
+      <c r="S28" s="226"/>
       <c r="T28" s="83"/>
-      <c r="V28" s="207" t="s">
+      <c r="V28" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="W28" s="208"/>
-      <c r="X28" s="208"/>
-      <c r="Y28" s="208"/>
-      <c r="Z28" s="208"/>
-      <c r="AA28" s="208"/>
-      <c r="AB28" s="208"/>
-      <c r="AC28" s="208"/>
-      <c r="AD28" s="208" t="s">
+      <c r="W28" s="214"/>
+      <c r="X28" s="214"/>
+      <c r="Y28" s="214"/>
+      <c r="Z28" s="214"/>
+      <c r="AA28" s="214"/>
+      <c r="AB28" s="214"/>
+      <c r="AC28" s="214"/>
+      <c r="AD28" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="AE28" s="208"/>
-      <c r="AF28" s="208"/>
-      <c r="AG28" s="208"/>
+      <c r="AE28" s="214"/>
+      <c r="AF28" s="214"/>
+      <c r="AG28" s="214"/>
       <c r="AH28" s="184"/>
       <c r="AI28" s="184"/>
-      <c r="AJ28" s="208" t="s">
+      <c r="AJ28" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="AK28" s="208"/>
-      <c r="AL28" s="208"/>
-      <c r="AM28" s="208"/>
-      <c r="AN28" s="208"/>
-      <c r="AO28" s="208" t="s">
+      <c r="AK28" s="214"/>
+      <c r="AL28" s="214"/>
+      <c r="AM28" s="214"/>
+      <c r="AN28" s="214"/>
+      <c r="AO28" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="AP28" s="208"/>
-      <c r="AQ28" s="208"/>
-      <c r="AR28" s="208"/>
-      <c r="AS28" s="208"/>
-      <c r="AT28" s="208"/>
-      <c r="AU28" s="208"/>
-      <c r="AV28" s="208"/>
-      <c r="AW28" s="208"/>
-      <c r="AX28" s="208"/>
-      <c r="AY28" s="208"/>
-      <c r="AZ28" s="208"/>
-      <c r="BA28" s="208"/>
+      <c r="AP28" s="214"/>
+      <c r="AQ28" s="214"/>
+      <c r="AR28" s="214"/>
+      <c r="AS28" s="214"/>
+      <c r="AT28" s="214"/>
+      <c r="AU28" s="214"/>
+      <c r="AV28" s="214"/>
+      <c r="AW28" s="214"/>
+      <c r="AX28" s="214"/>
+      <c r="AY28" s="214"/>
+      <c r="AZ28" s="214"/>
+      <c r="BA28" s="214"/>
       <c r="BB28" s="197"/>
       <c r="BC28" s="197"/>
-      <c r="BD28" s="208" t="s">
+      <c r="BD28" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="BE28" s="208"/>
-      <c r="BF28" s="208"/>
-      <c r="BG28" s="208"/>
-      <c r="BH28" s="208"/>
-      <c r="BI28" s="208"/>
-      <c r="BJ28" s="208"/>
-      <c r="BK28" s="208"/>
-      <c r="BL28" s="208"/>
-      <c r="BM28" s="208"/>
-      <c r="BN28" s="208" t="s">
+      <c r="BE28" s="214"/>
+      <c r="BF28" s="214"/>
+      <c r="BG28" s="214"/>
+      <c r="BH28" s="214"/>
+      <c r="BI28" s="214"/>
+      <c r="BJ28" s="214"/>
+      <c r="BK28" s="214"/>
+      <c r="BL28" s="214"/>
+      <c r="BM28" s="214"/>
+      <c r="BN28" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="BO28" s="211"/>
+      <c r="BO28" s="224"/>
       <c r="CN28" s="94"/>
     </row>
     <row r="29" spans="1:161" ht="15" customHeight="1">
       <c r="A29" s="122"/>
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
+      <c r="B29" s="253"/>
+      <c r="C29" s="253"/>
       <c r="D29" s="54" t="s">
         <v>1</v>
       </c>
@@ -14639,7 +14639,7 @@
         <f>IFERROR(E29/P30,NA())</f>
         <v>0.13333333333333336</v>
       </c>
-      <c r="G29" s="205"/>
+      <c r="G29" s="255"/>
       <c r="H29" s="84"/>
       <c r="I29" s="78" t="s">
         <v>13</v>
@@ -14691,7 +14691,7 @@
       <c r="AA29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AB29" s="254">
+      <c r="AB29" s="201">
         <f>IF(AF35,IF(S32="2+",5/6,IF(S32="3+",4/6,IF(S32="4+",3/6,IF(S32="5+",2/6,IF(S32="6+",1/6,IF(S32="7+",0/6)))))),0)</f>
         <v>0</v>
       </c>
@@ -14743,35 +14743,35 @@
         <f>IF(OR(AF31,AF32),AL34*AN29,AL34*AP29)</f>
         <v>2</v>
       </c>
-      <c r="AS29" s="212" t="s">
+      <c r="AS29" s="234" t="s">
         <v>66</v>
       </c>
       <c r="AT29" s="20">
         <f>IF(AF32,AL34-(AL34*AN29),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU29" s="212" t="s">
+      <c r="AU29" s="234" t="s">
         <v>60</v>
       </c>
       <c r="AV29" s="20">
-        <f>AT29*AP29</f>
-        <v>0</v>
-      </c>
-      <c r="AW29" s="212" t="s">
+        <f t="shared" ref="AV29:AV34" si="0">AT29*AP29</f>
+        <v>0</v>
+      </c>
+      <c r="AW29" s="234" t="s">
         <v>67</v>
       </c>
       <c r="AX29" s="20">
         <f>(AL34+AT29)*(IF((AB29+X30)&gt;5/6,5/6,AB29+X30))</f>
         <v>0</v>
       </c>
-      <c r="AY29" s="212" t="s">
+      <c r="AY29" s="234" t="s">
         <v>93</v>
       </c>
       <c r="AZ29" s="20">
-        <f>SUM(AR29,AV29)</f>
+        <f t="shared" ref="AZ29:AZ34" si="1">SUM(AR29,AV29)</f>
         <v>2</v>
       </c>
-      <c r="BA29" s="212" t="s">
+      <c r="BA29" s="234" t="s">
         <v>63</v>
       </c>
       <c r="BB29" s="198">
@@ -14785,28 +14785,28 @@
         <f>IF(AB32&lt;0,AX29*BB30,AX29*BB29)</f>
         <v>0</v>
       </c>
-      <c r="BE29" s="212" t="s">
+      <c r="BE29" s="234" t="s">
         <v>107</v>
       </c>
       <c r="BF29" s="198">
         <f>BD29+((AZ29-AX29)*BB29)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BG29" s="212" t="s">
+      <c r="BG29" s="234" t="s">
         <v>108</v>
       </c>
       <c r="BH29" s="18">
         <f>IF(AB31&gt;0,(BD29*AB31)+((BF29-BD29)*V34),BF29*V34)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BI29" s="212" t="s">
+      <c r="BI29" s="234" t="s">
         <v>65</v>
       </c>
       <c r="BJ29" s="18">
         <f>(AL33*Z32)+(AB30*AX29)</f>
         <v>0</v>
       </c>
-      <c r="BK29" s="212" t="s">
+      <c r="BK29" s="234" t="s">
         <v>64</v>
       </c>
       <c r="BL29" s="181">
@@ -14827,8 +14827,8 @@
     </row>
     <row r="30" spans="1:161" ht="15" customHeight="1">
       <c r="A30" s="122"/>
-      <c r="B30" s="203"/>
-      <c r="C30" s="203"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="253"/>
       <c r="D30" s="54" t="s">
         <v>2</v>
       </c>
@@ -14840,7 +14840,7 @@
         <f>IFERROR(E30/P30,NA())</f>
         <v>0.1</v>
       </c>
-      <c r="G30" s="205"/>
+      <c r="G30" s="255"/>
       <c r="H30" s="84"/>
       <c r="I30" s="5" t="s">
         <v>111</v>
@@ -14940,27 +14940,27 @@
         <f>IF(OR(AF31,AF32),AL34*AN30,AL34*AP30)</f>
         <v>1.5</v>
       </c>
-      <c r="AS30" s="212"/>
+      <c r="AS30" s="234"/>
       <c r="AT30" s="20">
         <f>IF(AF32,AL34-(AL34*AN30),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU30" s="212"/>
+      <c r="AU30" s="234"/>
       <c r="AV30" s="20">
-        <f>AT30*AP30</f>
-        <v>0</v>
-      </c>
-      <c r="AW30" s="212"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW30" s="234"/>
       <c r="AX30" s="20">
         <f>(AL34+AT30)*(IF((AB29+X30)&gt;5/6,5/6,AB29+X30))</f>
         <v>0</v>
       </c>
-      <c r="AY30" s="212"/>
+      <c r="AY30" s="234"/>
       <c r="AZ30" s="20">
-        <f>SUM(AR30,AV30)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="BA30" s="212"/>
+      <c r="BA30" s="234"/>
       <c r="BB30" s="198">
         <f>IF((1-(V29+AB32))&gt;1,1,1-(V29+AB32))</f>
         <v>0.33333333333333337</v>
@@ -14972,24 +14972,24 @@
         <f>IF(AB32&lt;0,AX30*BB30,AX30*BB29)</f>
         <v>0</v>
       </c>
-      <c r="BE30" s="212"/>
+      <c r="BE30" s="234"/>
       <c r="BF30" s="200">
         <f>BD30+((AZ30-AX30)*BB29)</f>
         <v>0.5</v>
       </c>
-      <c r="BG30" s="212"/>
+      <c r="BG30" s="234"/>
       <c r="BH30" s="18">
         <f>IF(AB31&gt;0,(BD30*AB31)+((BF30-BD30)*V34),BF30*V34)</f>
         <v>0.5</v>
       </c>
-      <c r="BI30" s="212"/>
+      <c r="BI30" s="234"/>
       <c r="BJ30" s="18">
         <f>(AL33*Z32)+(AB30*AX30)</f>
         <v>0</v>
       </c>
-      <c r="BK30" s="212"/>
+      <c r="BK30" s="234"/>
       <c r="BL30" s="181">
-        <f t="shared" ref="BL29:BL34" si="0">IF(AD30,BH30+BJ30,NA())</f>
+        <f t="shared" ref="BL30:BL34" si="2">IF(AD30,BH30+BJ30,NA())</f>
         <v>0.5</v>
       </c>
       <c r="BM30" s="124" t="s">
@@ -15006,8 +15006,8 @@
     </row>
     <row r="31" spans="1:161" ht="15" customHeight="1">
       <c r="A31" s="122"/>
-      <c r="B31" s="203"/>
-      <c r="C31" s="203"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="253"/>
       <c r="D31" s="54" t="s">
         <v>3</v>
       </c>
@@ -15019,19 +15019,19 @@
         <f>IFERROR(E31/P30,NA())</f>
         <v>6.666666666666668E-2</v>
       </c>
-      <c r="G31" s="205"/>
+      <c r="G31" s="255"/>
       <c r="H31" s="84"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="217"/>
-      <c r="K31" s="217"/>
-      <c r="L31" s="217"/>
-      <c r="M31" s="217"/>
-      <c r="N31" s="217"/>
-      <c r="O31" s="217"/>
-      <c r="P31" s="217"/>
-      <c r="Q31" s="217"/>
-      <c r="R31" s="217"/>
-      <c r="S31" s="217"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="235"/>
+      <c r="K31" s="235"/>
+      <c r="L31" s="235"/>
+      <c r="M31" s="235"/>
+      <c r="N31" s="235"/>
+      <c r="O31" s="235"/>
+      <c r="P31" s="235"/>
+      <c r="Q31" s="235"/>
+      <c r="R31" s="235"/>
+      <c r="S31" s="235"/>
       <c r="T31" s="85"/>
       <c r="V31" s="162">
         <f>(IF(L30="D3",2,IF(L30="2D3",4,IF(L30="D6",3.5,IF(L30="2D6",7,IF(L30="3D6",10.5,L30))))))</f>
@@ -15107,51 +15107,51 @@
         <f>IF(OR(AF31,AF32),AL34*AN31,AL34*AP31)</f>
         <v>1</v>
       </c>
-      <c r="AS31" s="212"/>
+      <c r="AS31" s="234"/>
       <c r="AT31" s="20">
         <f>IF(AF32,AL34-(AL34*AN31),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU31" s="212"/>
+      <c r="AU31" s="234"/>
       <c r="AV31" s="20">
-        <f>AT31*AP31</f>
-        <v>0</v>
-      </c>
-      <c r="AW31" s="212"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW31" s="234"/>
       <c r="AX31" s="20">
         <f>(AL34+AT31)*(IF((AB29+X30)&gt;5/6,5/6,AB29+X30))</f>
         <v>0</v>
       </c>
-      <c r="AY31" s="212"/>
+      <c r="AY31" s="234"/>
       <c r="AZ31" s="20">
-        <f>SUM(AR31,AV31)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BA31" s="212"/>
+      <c r="BA31" s="234"/>
       <c r="BB31" s="198"/>
       <c r="BC31" s="198"/>
       <c r="BD31" s="20">
         <f>IF(AB32&lt;0,AX31*BB30,AX31*BB29)</f>
         <v>0</v>
       </c>
-      <c r="BE31" s="212"/>
+      <c r="BE31" s="234"/>
       <c r="BF31" s="200">
         <f>BD31+((AZ31-AX31)*BB29)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG31" s="212"/>
+      <c r="BG31" s="234"/>
       <c r="BH31" s="18">
         <f>IF(AB31&gt;0,(BD31*AB31)+((BF31-BD31)*V34),BF31*V34)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI31" s="212"/>
+      <c r="BI31" s="234"/>
       <c r="BJ31" s="18">
         <f>(AL33*Z32)+(AB30*AX31)</f>
         <v>0</v>
       </c>
-      <c r="BK31" s="212"/>
+      <c r="BK31" s="234"/>
       <c r="BL31" s="181">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM31" s="124" t="s">
@@ -15174,7 +15174,7 @@
         <f>IFERROR(E32/P30,NA())</f>
         <v>6.666666666666668E-2</v>
       </c>
-      <c r="G32" s="205"/>
+      <c r="G32" s="255"/>
       <c r="H32" s="84"/>
       <c r="I32" s="185" t="str">
         <f>"+- to hit"</f>
@@ -15191,17 +15191,17 @@
       <c r="M32" s="5">
         <v>0</v>
       </c>
-      <c r="N32" s="210" t="s">
+      <c r="N32" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="O32" s="210"/>
+      <c r="O32" s="222"/>
       <c r="P32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="210" t="s">
+      <c r="Q32" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="R32" s="210"/>
+      <c r="R32" s="222"/>
       <c r="S32" s="5" t="s">
         <v>19</v>
       </c>
@@ -15280,51 +15280,51 @@
         <f>IF(OR(AF31,AF32),AL34*AN32,AL34*AP32)</f>
         <v>1</v>
       </c>
-      <c r="AS32" s="212"/>
+      <c r="AS32" s="234"/>
       <c r="AT32" s="20">
         <f>IF(AF32,AL34-(AL34*AN32),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU32" s="212"/>
+      <c r="AU32" s="234"/>
       <c r="AV32" s="20">
-        <f>AT32*AP32</f>
-        <v>0</v>
-      </c>
-      <c r="AW32" s="212"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW32" s="234"/>
       <c r="AX32" s="20">
         <f>(AL34+AT32)*(IF((AB29+X30)&gt;5/6,5/6,AB29+X30))</f>
         <v>0</v>
       </c>
-      <c r="AY32" s="212"/>
+      <c r="AY32" s="234"/>
       <c r="AZ32" s="20">
-        <f>SUM(AR32,AV32)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BA32" s="212"/>
+      <c r="BA32" s="234"/>
       <c r="BB32" s="198"/>
       <c r="BC32" s="198"/>
       <c r="BD32" s="20">
         <f>IF(AB32&lt;0,AX32*BB30,AX32*BB29)</f>
         <v>0</v>
       </c>
-      <c r="BE32" s="212"/>
+      <c r="BE32" s="234"/>
       <c r="BF32" s="200">
         <f>BD32+((AZ32-AX32)*BB29)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG32" s="212"/>
+      <c r="BG32" s="234"/>
       <c r="BH32" s="18">
         <f>IF(AB31&gt;0,(BD32*AB31)+((BF32-BD32)*V34),BF32*V34)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI32" s="212"/>
+      <c r="BI32" s="234"/>
       <c r="BJ32" s="18">
         <f>(AL33*Z32)+(AB30*AX32)</f>
         <v>0</v>
       </c>
-      <c r="BK32" s="212"/>
+      <c r="BK32" s="234"/>
       <c r="BL32" s="181">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM32" s="124" t="s">
@@ -15347,28 +15347,28 @@
         <f>IFERROR(E33/P30,NA())</f>
         <v>6.666666666666668E-2</v>
       </c>
-      <c r="G33" s="205"/>
+      <c r="G33" s="255"/>
       <c r="H33" s="87"/>
       <c r="I33" s="80"/>
       <c r="J33" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="210" t="s">
+      <c r="K33" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="210"/>
-      <c r="M33" s="210"/>
-      <c r="N33" s="210" t="s">
+      <c r="L33" s="222"/>
+      <c r="M33" s="222"/>
+      <c r="N33" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="210"/>
+      <c r="O33" s="222"/>
       <c r="P33" s="5">
         <v>0</v>
       </c>
-      <c r="Q33" s="210" t="s">
+      <c r="Q33" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="R33" s="210"/>
+      <c r="R33" s="222"/>
       <c r="S33" s="5">
         <v>0</v>
       </c>
@@ -15430,51 +15430,51 @@
         <f>IF(OR(AF31,AF32),AL34*AN33,AL34*AP33)</f>
         <v>1</v>
       </c>
-      <c r="AS33" s="212"/>
+      <c r="AS33" s="234"/>
       <c r="AT33" s="20">
         <f>IF(AF32,AL34-(AL34*AN33),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU33" s="212"/>
+      <c r="AU33" s="234"/>
       <c r="AV33" s="20">
-        <f>AT33*AP33</f>
-        <v>0</v>
-      </c>
-      <c r="AW33" s="212"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW33" s="234"/>
       <c r="AX33" s="20">
         <f>(AL34+AT33)*(IF((AB29+X30)&gt;5/6,5/6,AB29+X30))</f>
         <v>0</v>
       </c>
-      <c r="AY33" s="212"/>
+      <c r="AY33" s="234"/>
       <c r="AZ33" s="20">
-        <f>SUM(AR33,AV33)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BA33" s="212"/>
+      <c r="BA33" s="234"/>
       <c r="BB33" s="198"/>
       <c r="BC33" s="198"/>
       <c r="BD33" s="20">
         <f>IF(AB32&lt;0,AX33*BB30,AX33*BB29)</f>
         <v>0</v>
       </c>
-      <c r="BE33" s="212"/>
+      <c r="BE33" s="234"/>
       <c r="BF33" s="200">
         <f>BD33+((AZ33-AX33)*BB29)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG33" s="212"/>
+      <c r="BG33" s="234"/>
       <c r="BH33" s="18">
         <f>IF(AB31&gt;0,(BD33*AB31)+((BF33-BD33)*V34),BF33*V34)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI33" s="212"/>
+      <c r="BI33" s="234"/>
       <c r="BJ33" s="18">
         <f>(AL33*Z32)+(AB30*AX33)</f>
         <v>0</v>
       </c>
-      <c r="BK33" s="212"/>
+      <c r="BK33" s="234"/>
       <c r="BL33" s="181">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM33" s="124" t="s">
@@ -15497,28 +15497,28 @@
         <f>IFERROR(E34/P30,NA())</f>
         <v>3.333333333333334E-2</v>
       </c>
-      <c r="G34" s="205"/>
+      <c r="G34" s="255"/>
       <c r="H34" s="84"/>
-      <c r="I34" s="209" t="s">
+      <c r="I34" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="209"/>
-      <c r="K34" s="209" t="s">
+      <c r="J34" s="223"/>
+      <c r="K34" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L34" s="209"/>
-      <c r="M34" s="209"/>
-      <c r="N34" s="210" t="s">
+      <c r="L34" s="223"/>
+      <c r="M34" s="223"/>
+      <c r="N34" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="O34" s="210"/>
+      <c r="O34" s="222"/>
       <c r="P34" s="5">
         <v>0</v>
       </c>
-      <c r="Q34" s="210" t="s">
+      <c r="Q34" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="R34" s="210"/>
+      <c r="R34" s="222"/>
       <c r="S34" s="5">
         <v>0</v>
       </c>
@@ -15582,51 +15582,51 @@
         <f>IF(OR(AF31,AF32),AL34*AN34,AL34*AP34)</f>
         <v>0.5</v>
       </c>
-      <c r="AS34" s="212"/>
+      <c r="AS34" s="234"/>
       <c r="AT34" s="20">
         <f>IF(AF32,AL34-(AL34*AN34),IF(AF31,(1/6)*AL34,0))</f>
         <v>0</v>
       </c>
-      <c r="AU34" s="212"/>
+      <c r="AU34" s="234"/>
       <c r="AV34" s="20">
-        <f>AT34*AP34</f>
-        <v>0</v>
-      </c>
-      <c r="AW34" s="212"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW34" s="234"/>
       <c r="AX34" s="20">
         <f>(AL34+AT34)*(IF((AB29+X30)&gt;5/6,5/6,AB29+X30))</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="212"/>
+      <c r="AY34" s="234"/>
       <c r="AZ34" s="20">
-        <f>SUM(AR34,AV34)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="BA34" s="212"/>
+      <c r="BA34" s="234"/>
       <c r="BB34" s="198"/>
       <c r="BC34" s="198"/>
       <c r="BD34" s="20">
         <f>IF(AB32&lt;0,AX34*BB30,AX34*BB29)</f>
         <v>0</v>
       </c>
-      <c r="BE34" s="212"/>
+      <c r="BE34" s="234"/>
       <c r="BF34" s="200">
         <f>BD34+((AZ34-AX34)*BB29)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BG34" s="212"/>
+      <c r="BG34" s="234"/>
       <c r="BH34" s="18">
         <f>IF(AB31&gt;0,(BD34*AB31)+((BF34-BD34)*V34),BF34*V34)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BI34" s="212"/>
+      <c r="BI34" s="234"/>
       <c r="BJ34" s="18">
         <f>(AL33*Z32)+(AB30*AX34)</f>
         <v>0</v>
       </c>
-      <c r="BK34" s="212"/>
+      <c r="BK34" s="234"/>
       <c r="BL34" s="181">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="BM34" s="124" t="s">
@@ -15641,30 +15641,30 @@
       <c r="D35" s="53"/>
       <c r="E35" s="166"/>
       <c r="F35" s="53"/>
-      <c r="G35" s="205"/>
+      <c r="G35" s="255"/>
       <c r="H35" s="84"/>
       <c r="I35" s="185"/>
       <c r="J35" s="185"/>
-      <c r="K35" s="255" t="s">
+      <c r="K35" s="202" t="s">
         <v>72</v>
       </c>
       <c r="L35" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="M35" s="255" t="s">
+      <c r="M35" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="N35" s="210" t="s">
+      <c r="N35" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="210"/>
+      <c r="O35" s="222"/>
       <c r="P35" s="5">
         <v>0</v>
       </c>
-      <c r="Q35" s="219" t="s">
+      <c r="Q35" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="R35" s="219"/>
+      <c r="R35" s="225"/>
       <c r="S35" s="5">
         <v>0</v>
       </c>
@@ -15745,7 +15745,7 @@
         <f>IFERROR(E36/P30,NA())</f>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="G36" s="205"/>
+      <c r="G36" s="255"/>
       <c r="H36" s="84"/>
       <c r="I36" s="80"/>
       <c r="J36" s="80"/>
@@ -15880,11 +15880,11 @@
     </row>
     <row r="38" spans="1:67" ht="15" customHeight="1">
       <c r="A38" s="126"/>
-      <c r="B38" s="213" t="str">
+      <c r="B38" s="248" t="str">
         <f>IF(I40="","",I40)</f>
         <v>Model 2</v>
       </c>
-      <c r="C38" s="213"/>
+      <c r="C38" s="248"/>
       <c r="D38" s="8"/>
       <c r="E38" s="168" t="s">
         <v>11</v>
@@ -15892,86 +15892,86 @@
       <c r="F38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="215"/>
+      <c r="G38" s="250"/>
       <c r="H38" s="82"/>
-      <c r="I38" s="206" t="str">
+      <c r="I38" s="226" t="str">
         <f>IF(I40="","",I40)</f>
         <v>Model 2</v>
       </c>
-      <c r="J38" s="206"/>
-      <c r="K38" s="206"/>
-      <c r="L38" s="206"/>
-      <c r="M38" s="206"/>
-      <c r="N38" s="206"/>
-      <c r="O38" s="206"/>
-      <c r="P38" s="206"/>
-      <c r="Q38" s="206"/>
-      <c r="R38" s="206"/>
-      <c r="S38" s="206"/>
+      <c r="J38" s="226"/>
+      <c r="K38" s="226"/>
+      <c r="L38" s="226"/>
+      <c r="M38" s="226"/>
+      <c r="N38" s="226"/>
+      <c r="O38" s="226"/>
+      <c r="P38" s="226"/>
+      <c r="Q38" s="226"/>
+      <c r="R38" s="226"/>
+      <c r="S38" s="226"/>
       <c r="T38" s="83"/>
-      <c r="V38" s="207" t="s">
+      <c r="V38" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="W38" s="208"/>
-      <c r="X38" s="208"/>
-      <c r="Y38" s="208"/>
-      <c r="Z38" s="208"/>
-      <c r="AA38" s="208"/>
-      <c r="AB38" s="208"/>
-      <c r="AC38" s="208"/>
-      <c r="AD38" s="208" t="s">
+      <c r="W38" s="214"/>
+      <c r="X38" s="214"/>
+      <c r="Y38" s="214"/>
+      <c r="Z38" s="214"/>
+      <c r="AA38" s="214"/>
+      <c r="AB38" s="214"/>
+      <c r="AC38" s="214"/>
+      <c r="AD38" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="AE38" s="208"/>
-      <c r="AF38" s="208"/>
-      <c r="AG38" s="208"/>
+      <c r="AE38" s="214"/>
+      <c r="AF38" s="214"/>
+      <c r="AG38" s="214"/>
       <c r="AH38" s="199"/>
       <c r="AI38" s="199"/>
-      <c r="AJ38" s="208" t="s">
+      <c r="AJ38" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="AK38" s="208"/>
-      <c r="AL38" s="208"/>
-      <c r="AM38" s="208"/>
-      <c r="AN38" s="208"/>
-      <c r="AO38" s="208" t="s">
+      <c r="AK38" s="214"/>
+      <c r="AL38" s="214"/>
+      <c r="AM38" s="214"/>
+      <c r="AN38" s="214"/>
+      <c r="AO38" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="AP38" s="208"/>
-      <c r="AQ38" s="208"/>
-      <c r="AR38" s="208"/>
-      <c r="AS38" s="208"/>
-      <c r="AT38" s="208"/>
-      <c r="AU38" s="208"/>
-      <c r="AV38" s="208"/>
-      <c r="AW38" s="208"/>
-      <c r="AX38" s="208"/>
-      <c r="AY38" s="208"/>
-      <c r="AZ38" s="208"/>
-      <c r="BA38" s="208"/>
+      <c r="AP38" s="214"/>
+      <c r="AQ38" s="214"/>
+      <c r="AR38" s="214"/>
+      <c r="AS38" s="214"/>
+      <c r="AT38" s="214"/>
+      <c r="AU38" s="214"/>
+      <c r="AV38" s="214"/>
+      <c r="AW38" s="214"/>
+      <c r="AX38" s="214"/>
+      <c r="AY38" s="214"/>
+      <c r="AZ38" s="214"/>
+      <c r="BA38" s="214"/>
       <c r="BB38" s="199"/>
       <c r="BC38" s="199"/>
-      <c r="BD38" s="208" t="s">
+      <c r="BD38" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="BE38" s="208"/>
-      <c r="BF38" s="208"/>
-      <c r="BG38" s="208"/>
-      <c r="BH38" s="208"/>
-      <c r="BI38" s="208"/>
-      <c r="BJ38" s="208"/>
-      <c r="BK38" s="208"/>
-      <c r="BL38" s="208"/>
-      <c r="BM38" s="208"/>
-      <c r="BN38" s="208" t="s">
+      <c r="BE38" s="214"/>
+      <c r="BF38" s="214"/>
+      <c r="BG38" s="214"/>
+      <c r="BH38" s="214"/>
+      <c r="BI38" s="214"/>
+      <c r="BJ38" s="214"/>
+      <c r="BK38" s="214"/>
+      <c r="BL38" s="214"/>
+      <c r="BM38" s="214"/>
+      <c r="BN38" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="BO38" s="211"/>
+      <c r="BO38" s="224"/>
     </row>
     <row r="39" spans="1:67" ht="15" customHeight="1">
       <c r="A39" s="127"/>
-      <c r="B39" s="214"/>
-      <c r="C39" s="214"/>
+      <c r="B39" s="249"/>
+      <c r="C39" s="249"/>
       <c r="D39" s="38" t="s">
         <v>1</v>
       </c>
@@ -15983,7 +15983,7 @@
         <f>IFERROR(E39/P40,NA())</f>
         <v>6.666666666666668E-2</v>
       </c>
-      <c r="G39" s="216"/>
+      <c r="G39" s="251"/>
       <c r="H39" s="84"/>
       <c r="I39" s="78" t="s">
         <v>13</v>
@@ -16035,7 +16035,7 @@
       <c r="AA39" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AB39" s="254">
+      <c r="AB39" s="201">
         <f>IF(AF45,IF(S42="2+",5/6,IF(S42="3+",4/6,IF(S42="4+",3/6,IF(S42="5+",2/6,IF(S42="6+",1/6,IF(S42="7+",0/6)))))),0)</f>
         <v>0</v>
       </c>
@@ -16087,35 +16087,35 @@
         <f>IF(OR(AF41,AF42),AL44*AN39,AL44*AP39)</f>
         <v>2</v>
       </c>
-      <c r="AS39" s="212" t="s">
+      <c r="AS39" s="234" t="s">
         <v>66</v>
       </c>
       <c r="AT39" s="20">
         <f>IF(AF42,AL44-(AL44*AN39),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU39" s="212" t="s">
+      <c r="AU39" s="234" t="s">
         <v>60</v>
       </c>
       <c r="AV39" s="20">
-        <f>AT39*AP39</f>
-        <v>0</v>
-      </c>
-      <c r="AW39" s="212" t="s">
+        <f t="shared" ref="AV39:AV44" si="3">AT39*AP39</f>
+        <v>0</v>
+      </c>
+      <c r="AW39" s="234" t="s">
         <v>67</v>
       </c>
       <c r="AX39" s="20">
         <f>(AL44+AT39)*(IF((AB39+X40)&gt;5/6,5/6,AB39+X40))</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="212" t="s">
+      <c r="AY39" s="234" t="s">
         <v>93</v>
       </c>
       <c r="AZ39" s="20">
-        <f>SUM(AR39,AV39)</f>
+        <f t="shared" ref="AZ39:AZ44" si="4">SUM(AR39,AV39)</f>
         <v>2</v>
       </c>
-      <c r="BA39" s="212" t="s">
+      <c r="BA39" s="234" t="s">
         <v>63</v>
       </c>
       <c r="BB39" s="200">
@@ -16129,28 +16129,28 @@
         <f>IF(AB42&lt;0,AX39*BB40,AX39*BB39)</f>
         <v>0</v>
       </c>
-      <c r="BE39" s="212" t="s">
+      <c r="BE39" s="234" t="s">
         <v>107</v>
       </c>
       <c r="BF39" s="200">
         <f>BD39+((AZ39-AX39)*BB39)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BG39" s="212" t="s">
+      <c r="BG39" s="234" t="s">
         <v>108</v>
       </c>
       <c r="BH39" s="18">
         <f>IF(AB41&gt;0,(BD39*AB41)+((BF39-BD39)*V44),BF39*V44)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BI39" s="212" t="s">
+      <c r="BI39" s="234" t="s">
         <v>65</v>
       </c>
       <c r="BJ39" s="18">
         <f>(AL43*Z42)+(AB40*AX39)</f>
         <v>0</v>
       </c>
-      <c r="BK39" s="212" t="s">
+      <c r="BK39" s="234" t="s">
         <v>64</v>
       </c>
       <c r="BL39" s="200">
@@ -16170,8 +16170,8 @@
     </row>
     <row r="40" spans="1:67" ht="15" customHeight="1">
       <c r="A40" s="127"/>
-      <c r="B40" s="214"/>
-      <c r="C40" s="214"/>
+      <c r="B40" s="249"/>
+      <c r="C40" s="249"/>
       <c r="D40" s="38" t="s">
         <v>2</v>
       </c>
@@ -16183,7 +16183,7 @@
         <f>IFERROR(E40/P40,NA())</f>
         <v>0.05</v>
       </c>
-      <c r="G40" s="216"/>
+      <c r="G40" s="251"/>
       <c r="H40" s="84"/>
       <c r="I40" s="5" t="s">
         <v>112</v>
@@ -16283,27 +16283,27 @@
         <f>IF(OR(AF41,AF42),AL44*AN40,AL44*AP40)</f>
         <v>1.5</v>
       </c>
-      <c r="AS40" s="212"/>
+      <c r="AS40" s="234"/>
       <c r="AT40" s="20">
         <f>IF(AF42,AL44-(AL44*AN40),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU40" s="212"/>
+      <c r="AU40" s="234"/>
       <c r="AV40" s="20">
-        <f>AT40*AP40</f>
-        <v>0</v>
-      </c>
-      <c r="AW40" s="212"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW40" s="234"/>
       <c r="AX40" s="20">
         <f>(AL44+AT40)*(IF((AB39+X40)&gt;5/6,5/6,AB39+X40))</f>
         <v>0</v>
       </c>
-      <c r="AY40" s="212"/>
+      <c r="AY40" s="234"/>
       <c r="AZ40" s="20">
-        <f>SUM(AR40,AV40)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="BA40" s="212"/>
+      <c r="BA40" s="234"/>
       <c r="BB40" s="200">
         <f>IF((1-(V39+AB42))&gt;1,1,1-(V39+AB42))</f>
         <v>0.33333333333333337</v>
@@ -16315,24 +16315,24 @@
         <f>IF(AB42&lt;0,AX40*BB40,AX40*BB39)</f>
         <v>0</v>
       </c>
-      <c r="BE40" s="212"/>
+      <c r="BE40" s="234"/>
       <c r="BF40" s="200">
         <f>BD40+((AZ40-AX40)*BB39)</f>
         <v>0.5</v>
       </c>
-      <c r="BG40" s="212"/>
+      <c r="BG40" s="234"/>
       <c r="BH40" s="18">
         <f>IF(AB41&gt;0,(BD40*AB41)+((BF40-BD40)*V44),BF40*V44)</f>
         <v>0.5</v>
       </c>
-      <c r="BI40" s="212"/>
+      <c r="BI40" s="234"/>
       <c r="BJ40" s="18">
         <f>(AL43*Z42)+(AB40*AX40)</f>
         <v>0</v>
       </c>
-      <c r="BK40" s="212"/>
+      <c r="BK40" s="234"/>
       <c r="BL40" s="200">
-        <f t="shared" ref="BL40:BL45" si="1">IF(AD40,BH40+BJ40,NA())</f>
+        <f t="shared" ref="BL40:BL44" si="5">IF(AD40,BH40+BJ40,NA())</f>
         <v>0.5</v>
       </c>
       <c r="BM40" s="124" t="s">
@@ -16348,8 +16348,8 @@
     </row>
     <row r="41" spans="1:67" ht="15" customHeight="1">
       <c r="A41" s="127"/>
-      <c r="B41" s="214"/>
-      <c r="C41" s="214"/>
+      <c r="B41" s="249"/>
+      <c r="C41" s="249"/>
       <c r="D41" s="38" t="s">
         <v>3</v>
       </c>
@@ -16361,19 +16361,19 @@
         <f>IFERROR(E41/P40,NA())</f>
         <v>3.333333333333334E-2</v>
       </c>
-      <c r="G41" s="216"/>
+      <c r="G41" s="251"/>
       <c r="H41" s="84"/>
-      <c r="I41" s="217"/>
-      <c r="J41" s="217"/>
-      <c r="K41" s="217"/>
-      <c r="L41" s="217"/>
-      <c r="M41" s="217"/>
-      <c r="N41" s="217"/>
-      <c r="O41" s="217"/>
-      <c r="P41" s="217"/>
-      <c r="Q41" s="217"/>
-      <c r="R41" s="217"/>
-      <c r="S41" s="217"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="235"/>
+      <c r="K41" s="235"/>
+      <c r="L41" s="235"/>
+      <c r="M41" s="235"/>
+      <c r="N41" s="235"/>
+      <c r="O41" s="235"/>
+      <c r="P41" s="235"/>
+      <c r="Q41" s="235"/>
+      <c r="R41" s="235"/>
+      <c r="S41" s="235"/>
       <c r="T41" s="85"/>
       <c r="V41" s="162">
         <f>(IF(L40="D3",2,IF(L40="2D3",4,IF(L40="D6",3.5,IF(L40="2D6",7,IF(L40="3D6",10.5,L40))))))</f>
@@ -16449,51 +16449,51 @@
         <f>IF(OR(AF41,AF42),AL44*AN41,AL44*AP41)</f>
         <v>1</v>
       </c>
-      <c r="AS41" s="212"/>
+      <c r="AS41" s="234"/>
       <c r="AT41" s="20">
         <f>IF(AF42,AL44-(AL44*AN41),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU41" s="212"/>
+      <c r="AU41" s="234"/>
       <c r="AV41" s="20">
-        <f>AT41*AP41</f>
-        <v>0</v>
-      </c>
-      <c r="AW41" s="212"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW41" s="234"/>
       <c r="AX41" s="20">
         <f>(AL44+AT41)*(IF((AB39+X40)&gt;5/6,5/6,AB39+X40))</f>
         <v>0</v>
       </c>
-      <c r="AY41" s="212"/>
+      <c r="AY41" s="234"/>
       <c r="AZ41" s="20">
-        <f>SUM(AR41,AV41)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BA41" s="212"/>
+      <c r="BA41" s="234"/>
       <c r="BB41" s="200"/>
       <c r="BC41" s="200"/>
       <c r="BD41" s="20">
         <f>IF(AB42&lt;0,AX41*BB40,AX41*BB39)</f>
         <v>0</v>
       </c>
-      <c r="BE41" s="212"/>
+      <c r="BE41" s="234"/>
       <c r="BF41" s="200">
         <f>BD41+((AZ41-AX41)*BB39)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG41" s="212"/>
+      <c r="BG41" s="234"/>
       <c r="BH41" s="18">
         <f>IF(AB41&gt;0,(BD41*AB41)+((BF41-BD41)*V44),BF41*V44)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI41" s="212"/>
+      <c r="BI41" s="234"/>
       <c r="BJ41" s="18">
         <f>(AL43*Z42)+(AB40*AX41)</f>
         <v>0</v>
       </c>
-      <c r="BK41" s="212"/>
+      <c r="BK41" s="234"/>
       <c r="BL41" s="200">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM41" s="124" t="s">
@@ -16516,7 +16516,7 @@
         <f>IFERROR(E42/P40,NA())</f>
         <v>3.333333333333334E-2</v>
       </c>
-      <c r="G42" s="216"/>
+      <c r="G42" s="251"/>
       <c r="H42" s="84"/>
       <c r="I42" s="185" t="str">
         <f>"+- to hit"</f>
@@ -16533,17 +16533,17 @@
       <c r="M42" s="5">
         <v>0</v>
       </c>
-      <c r="N42" s="210" t="s">
+      <c r="N42" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="210"/>
+      <c r="O42" s="222"/>
       <c r="P42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="210" t="s">
+      <c r="Q42" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="R42" s="210"/>
+      <c r="R42" s="222"/>
       <c r="S42" s="5" t="s">
         <v>19</v>
       </c>
@@ -16622,51 +16622,51 @@
         <f>IF(OR(AF41,AF42),AL44*AN42,AL44*AP42)</f>
         <v>1</v>
       </c>
-      <c r="AS42" s="212"/>
+      <c r="AS42" s="234"/>
       <c r="AT42" s="20">
         <f>IF(AF42,AL44-(AL44*AN42),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU42" s="212"/>
+      <c r="AU42" s="234"/>
       <c r="AV42" s="20">
-        <f>AT42*AP42</f>
-        <v>0</v>
-      </c>
-      <c r="AW42" s="212"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW42" s="234"/>
       <c r="AX42" s="20">
         <f>(AL44+AT42)*(IF((AB39+X40)&gt;5/6,5/6,AB39+X40))</f>
         <v>0</v>
       </c>
-      <c r="AY42" s="212"/>
+      <c r="AY42" s="234"/>
       <c r="AZ42" s="20">
-        <f>SUM(AR42,AV42)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BA42" s="212"/>
+      <c r="BA42" s="234"/>
       <c r="BB42" s="200"/>
       <c r="BC42" s="200"/>
       <c r="BD42" s="20">
         <f>IF(AB42&lt;0,AX42*BB40,AX42*BB39)</f>
         <v>0</v>
       </c>
-      <c r="BE42" s="212"/>
+      <c r="BE42" s="234"/>
       <c r="BF42" s="200">
         <f>BD42+((AZ42-AX42)*BB39)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG42" s="212"/>
+      <c r="BG42" s="234"/>
       <c r="BH42" s="18">
         <f>IF(AB41&gt;0,(BD42*AB41)+((BF42-BD42)*V44),BF42*V44)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI42" s="212"/>
+      <c r="BI42" s="234"/>
       <c r="BJ42" s="18">
         <f>(AL43*Z42)+(AB40*AX42)</f>
         <v>0</v>
       </c>
-      <c r="BK42" s="212"/>
+      <c r="BK42" s="234"/>
       <c r="BL42" s="200">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM42" s="124" t="s">
@@ -16689,28 +16689,28 @@
         <f>IFERROR(E43/P40,NA())</f>
         <v>3.333333333333334E-2</v>
       </c>
-      <c r="G43" s="216"/>
+      <c r="G43" s="251"/>
       <c r="H43" s="87"/>
       <c r="I43" s="80"/>
       <c r="J43" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="210" t="s">
+      <c r="K43" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="210"/>
-      <c r="M43" s="210"/>
-      <c r="N43" s="210" t="s">
+      <c r="L43" s="222"/>
+      <c r="M43" s="222"/>
+      <c r="N43" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="210"/>
+      <c r="O43" s="222"/>
       <c r="P43" s="5">
         <v>0</v>
       </c>
-      <c r="Q43" s="210" t="s">
+      <c r="Q43" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="R43" s="210"/>
+      <c r="R43" s="222"/>
       <c r="S43" s="5">
         <v>1</v>
       </c>
@@ -16772,51 +16772,51 @@
         <f>IF(OR(AF41,AF42),AL44*AN43,AL44*AP43)</f>
         <v>1</v>
       </c>
-      <c r="AS43" s="212"/>
+      <c r="AS43" s="234"/>
       <c r="AT43" s="20">
         <f>IF(AF42,AL44-(AL44*AN43),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU43" s="212"/>
+      <c r="AU43" s="234"/>
       <c r="AV43" s="20">
-        <f>AT43*AP43</f>
-        <v>0</v>
-      </c>
-      <c r="AW43" s="212"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW43" s="234"/>
       <c r="AX43" s="20">
         <f>(AL44+AT43)*(IF((AB39+X40)&gt;5/6,5/6,AB39+X40))</f>
         <v>0</v>
       </c>
-      <c r="AY43" s="212"/>
+      <c r="AY43" s="234"/>
       <c r="AZ43" s="20">
-        <f>SUM(AR43,AV43)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BA43" s="212"/>
+      <c r="BA43" s="234"/>
       <c r="BB43" s="200"/>
       <c r="BC43" s="200"/>
       <c r="BD43" s="20">
         <f>IF(AB42&lt;0,AX43*BB40,AX43*BB39)</f>
         <v>0</v>
       </c>
-      <c r="BE43" s="212"/>
+      <c r="BE43" s="234"/>
       <c r="BF43" s="200">
         <f>BD43+((AZ43-AX43)*BB39)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG43" s="212"/>
+      <c r="BG43" s="234"/>
       <c r="BH43" s="18">
         <f>IF(AB41&gt;0,(BD43*AB41)+((BF43-BD43)*V44),BF43*V44)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI43" s="212"/>
+      <c r="BI43" s="234"/>
       <c r="BJ43" s="18">
         <f>(AL43*Z42)+(AB40*AX43)</f>
         <v>0</v>
       </c>
-      <c r="BK43" s="212"/>
+      <c r="BK43" s="234"/>
       <c r="BL43" s="200">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM43" s="124" t="s">
@@ -16839,28 +16839,28 @@
         <f>IFERROR(E44/P40,NA())</f>
         <v>1.666666666666667E-2</v>
       </c>
-      <c r="G44" s="216"/>
+      <c r="G44" s="251"/>
       <c r="H44" s="84"/>
-      <c r="I44" s="209" t="s">
+      <c r="I44" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="209"/>
-      <c r="K44" s="209" t="s">
+      <c r="J44" s="223"/>
+      <c r="K44" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="209"/>
-      <c r="M44" s="209"/>
-      <c r="N44" s="210" t="s">
+      <c r="L44" s="223"/>
+      <c r="M44" s="223"/>
+      <c r="N44" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="O44" s="210"/>
+      <c r="O44" s="222"/>
       <c r="P44" s="5">
         <v>0</v>
       </c>
-      <c r="Q44" s="210" t="s">
+      <c r="Q44" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="R44" s="210"/>
+      <c r="R44" s="222"/>
       <c r="S44" s="5">
         <v>0</v>
       </c>
@@ -16924,51 +16924,51 @@
         <f>IF(OR(AF41,AF42),AL44*AN44,AL44*AP44)</f>
         <v>0.5</v>
       </c>
-      <c r="AS44" s="212"/>
+      <c r="AS44" s="234"/>
       <c r="AT44" s="20">
         <f>IF(AF42,AL44-(AL44*AN44),IF(AF41,(1/6)*AL44,0))</f>
         <v>0</v>
       </c>
-      <c r="AU44" s="212"/>
+      <c r="AU44" s="234"/>
       <c r="AV44" s="20">
-        <f>AT44*AP44</f>
-        <v>0</v>
-      </c>
-      <c r="AW44" s="212"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW44" s="234"/>
       <c r="AX44" s="20">
         <f>(AL44+AT44)*(IF((AB39+X40)&gt;5/6,5/6,AB39+X40))</f>
         <v>0</v>
       </c>
-      <c r="AY44" s="212"/>
+      <c r="AY44" s="234"/>
       <c r="AZ44" s="20">
-        <f>SUM(AR44,AV44)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="BA44" s="212"/>
+      <c r="BA44" s="234"/>
       <c r="BB44" s="200"/>
       <c r="BC44" s="200"/>
       <c r="BD44" s="20">
         <f>IF(AB42&lt;0,AX44*BB40,AX44*BB39)</f>
         <v>0</v>
       </c>
-      <c r="BE44" s="212"/>
+      <c r="BE44" s="234"/>
       <c r="BF44" s="200">
         <f>BD44+((AZ44-AX44)*BB39)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BG44" s="212"/>
+      <c r="BG44" s="234"/>
       <c r="BH44" s="18">
         <f>IF(AB41&gt;0,(BD44*AB41)+((BF44-BD44)*V44),BF44*V44)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BI44" s="212"/>
+      <c r="BI44" s="234"/>
       <c r="BJ44" s="18">
         <f>(AL43*Z42)+(AB40*AX44)</f>
         <v>0</v>
       </c>
-      <c r="BK44" s="212"/>
+      <c r="BK44" s="234"/>
       <c r="BL44" s="200">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="BM44" s="124" t="s">
@@ -16983,30 +16983,30 @@
       <c r="D45" s="52"/>
       <c r="E45" s="169"/>
       <c r="F45" s="52"/>
-      <c r="G45" s="216"/>
+      <c r="G45" s="251"/>
       <c r="H45" s="84"/>
       <c r="I45" s="185"/>
       <c r="J45" s="185"/>
-      <c r="K45" s="255" t="s">
+      <c r="K45" s="202" t="s">
         <v>72</v>
       </c>
       <c r="L45" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="M45" s="255" t="s">
+      <c r="M45" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="N45" s="210" t="s">
+      <c r="N45" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="O45" s="210"/>
+      <c r="O45" s="222"/>
       <c r="P45" s="5">
         <v>0</v>
       </c>
-      <c r="Q45" s="219" t="s">
+      <c r="Q45" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="R45" s="219"/>
+      <c r="R45" s="225"/>
       <c r="S45" s="5">
         <v>0</v>
       </c>
@@ -17087,7 +17087,7 @@
         <f>IFERROR(E46/P40,NA())</f>
         <v>3.888888888888889E-2</v>
       </c>
-      <c r="G46" s="216"/>
+      <c r="G46" s="251"/>
       <c r="H46" s="84"/>
       <c r="I46" s="80"/>
       <c r="J46" s="80"/>
@@ -17222,11 +17222,11 @@
     </row>
     <row r="48" spans="1:67" ht="15" customHeight="1">
       <c r="A48" s="129"/>
-      <c r="B48" s="220" t="str">
+      <c r="B48" s="244" t="str">
         <f>IF(I50="","",I50)</f>
         <v>Model 3</v>
       </c>
-      <c r="C48" s="220"/>
+      <c r="C48" s="244"/>
       <c r="D48" s="10"/>
       <c r="E48" s="171" t="s">
         <v>11</v>
@@ -17234,86 +17234,86 @@
       <c r="F48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="222"/>
+      <c r="G48" s="246"/>
       <c r="H48" s="82"/>
-      <c r="I48" s="206" t="str">
+      <c r="I48" s="226" t="str">
         <f>IF(I50="","",I50)</f>
         <v>Model 3</v>
       </c>
-      <c r="J48" s="206"/>
-      <c r="K48" s="206"/>
-      <c r="L48" s="206"/>
-      <c r="M48" s="206"/>
-      <c r="N48" s="206"/>
-      <c r="O48" s="206"/>
-      <c r="P48" s="206"/>
-      <c r="Q48" s="206"/>
-      <c r="R48" s="206"/>
-      <c r="S48" s="206"/>
+      <c r="J48" s="226"/>
+      <c r="K48" s="226"/>
+      <c r="L48" s="226"/>
+      <c r="M48" s="226"/>
+      <c r="N48" s="226"/>
+      <c r="O48" s="226"/>
+      <c r="P48" s="226"/>
+      <c r="Q48" s="226"/>
+      <c r="R48" s="226"/>
+      <c r="S48" s="226"/>
       <c r="T48" s="83"/>
-      <c r="V48" s="207" t="s">
+      <c r="V48" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="W48" s="208"/>
-      <c r="X48" s="208"/>
-      <c r="Y48" s="208"/>
-      <c r="Z48" s="208"/>
-      <c r="AA48" s="208"/>
-      <c r="AB48" s="208"/>
-      <c r="AC48" s="208"/>
-      <c r="AD48" s="208" t="s">
+      <c r="W48" s="214"/>
+      <c r="X48" s="214"/>
+      <c r="Y48" s="214"/>
+      <c r="Z48" s="214"/>
+      <c r="AA48" s="214"/>
+      <c r="AB48" s="214"/>
+      <c r="AC48" s="214"/>
+      <c r="AD48" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="AE48" s="208"/>
-      <c r="AF48" s="208"/>
-      <c r="AG48" s="208"/>
+      <c r="AE48" s="214"/>
+      <c r="AF48" s="214"/>
+      <c r="AG48" s="214"/>
       <c r="AH48" s="199"/>
       <c r="AI48" s="199"/>
-      <c r="AJ48" s="208" t="s">
+      <c r="AJ48" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="AK48" s="208"/>
-      <c r="AL48" s="208"/>
-      <c r="AM48" s="208"/>
-      <c r="AN48" s="208"/>
-      <c r="AO48" s="208" t="s">
+      <c r="AK48" s="214"/>
+      <c r="AL48" s="214"/>
+      <c r="AM48" s="214"/>
+      <c r="AN48" s="214"/>
+      <c r="AO48" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="AP48" s="208"/>
-      <c r="AQ48" s="208"/>
-      <c r="AR48" s="208"/>
-      <c r="AS48" s="208"/>
-      <c r="AT48" s="208"/>
-      <c r="AU48" s="208"/>
-      <c r="AV48" s="208"/>
-      <c r="AW48" s="208"/>
-      <c r="AX48" s="208"/>
-      <c r="AY48" s="208"/>
-      <c r="AZ48" s="208"/>
-      <c r="BA48" s="208"/>
+      <c r="AP48" s="214"/>
+      <c r="AQ48" s="214"/>
+      <c r="AR48" s="214"/>
+      <c r="AS48" s="214"/>
+      <c r="AT48" s="214"/>
+      <c r="AU48" s="214"/>
+      <c r="AV48" s="214"/>
+      <c r="AW48" s="214"/>
+      <c r="AX48" s="214"/>
+      <c r="AY48" s="214"/>
+      <c r="AZ48" s="214"/>
+      <c r="BA48" s="214"/>
       <c r="BB48" s="199"/>
       <c r="BC48" s="199"/>
-      <c r="BD48" s="208" t="s">
+      <c r="BD48" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="BE48" s="208"/>
-      <c r="BF48" s="208"/>
-      <c r="BG48" s="208"/>
-      <c r="BH48" s="208"/>
-      <c r="BI48" s="208"/>
-      <c r="BJ48" s="208"/>
-      <c r="BK48" s="208"/>
-      <c r="BL48" s="208"/>
-      <c r="BM48" s="208"/>
-      <c r="BN48" s="208" t="s">
+      <c r="BE48" s="214"/>
+      <c r="BF48" s="214"/>
+      <c r="BG48" s="214"/>
+      <c r="BH48" s="214"/>
+      <c r="BI48" s="214"/>
+      <c r="BJ48" s="214"/>
+      <c r="BK48" s="214"/>
+      <c r="BL48" s="214"/>
+      <c r="BM48" s="214"/>
+      <c r="BN48" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="BO48" s="211"/>
+      <c r="BO48" s="224"/>
     </row>
     <row r="49" spans="1:67" ht="15" customHeight="1">
       <c r="A49" s="130"/>
-      <c r="B49" s="221"/>
-      <c r="C49" s="221"/>
+      <c r="B49" s="245"/>
+      <c r="C49" s="245"/>
       <c r="D49" s="39" t="s">
         <v>1</v>
       </c>
@@ -17325,7 +17325,7 @@
         <f>IFERROR(E49/P50,NA())</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="G49" s="223"/>
+      <c r="G49" s="247"/>
       <c r="H49" s="84"/>
       <c r="I49" s="78" t="s">
         <v>13</v>
@@ -17377,7 +17377,7 @@
       <c r="AA49" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AB49" s="254">
+      <c r="AB49" s="201">
         <f>IF(AF55,IF(S52="2+",5/6,IF(S52="3+",4/6,IF(S52="4+",3/6,IF(S52="5+",2/6,IF(S52="6+",1/6,IF(S52="7+",0/6)))))),0)</f>
         <v>0</v>
       </c>
@@ -17429,35 +17429,35 @@
         <f>IF(OR(AF51,AF52),AL54*AN49,AL54*AP49)</f>
         <v>2</v>
       </c>
-      <c r="AS49" s="212" t="s">
+      <c r="AS49" s="234" t="s">
         <v>66</v>
       </c>
       <c r="AT49" s="20">
         <f>IF(AF52,AL54-(AL54*AN49),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU49" s="212" t="s">
+      <c r="AU49" s="234" t="s">
         <v>60</v>
       </c>
       <c r="AV49" s="20">
-        <f>AT49*AP49</f>
-        <v>0</v>
-      </c>
-      <c r="AW49" s="212" t="s">
+        <f t="shared" ref="AV49:AV54" si="6">AT49*AP49</f>
+        <v>0</v>
+      </c>
+      <c r="AW49" s="234" t="s">
         <v>67</v>
       </c>
       <c r="AX49" s="20">
         <f>(AL54+AT49)*(IF((AB49+X50)&gt;5/6,5/6,AB49+X50))</f>
         <v>0</v>
       </c>
-      <c r="AY49" s="212" t="s">
+      <c r="AY49" s="234" t="s">
         <v>93</v>
       </c>
       <c r="AZ49" s="20">
-        <f>SUM(AR49,AV49)</f>
+        <f t="shared" ref="AZ49:AZ54" si="7">SUM(AR49,AV49)</f>
         <v>2</v>
       </c>
-      <c r="BA49" s="212" t="s">
+      <c r="BA49" s="234" t="s">
         <v>63</v>
       </c>
       <c r="BB49" s="200">
@@ -17471,28 +17471,28 @@
         <f>IF(AB52&lt;0,AX49*BB50,AX49*BB49)</f>
         <v>0</v>
       </c>
-      <c r="BE49" s="212" t="s">
+      <c r="BE49" s="234" t="s">
         <v>107</v>
       </c>
       <c r="BF49" s="200">
         <f>BD49+((AZ49-AX49)*BB49)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BG49" s="212" t="s">
+      <c r="BG49" s="234" t="s">
         <v>108</v>
       </c>
       <c r="BH49" s="18">
         <f>IF(AB51&gt;0,(BD49*AB51)+((BF49-BD49)*V54),BF49*V54)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BI49" s="212" t="s">
+      <c r="BI49" s="234" t="s">
         <v>65</v>
       </c>
       <c r="BJ49" s="18">
         <f>(AL53*Z52)+(AB50*AX49)</f>
         <v>0</v>
       </c>
-      <c r="BK49" s="212" t="s">
+      <c r="BK49" s="234" t="s">
         <v>64</v>
       </c>
       <c r="BL49" s="200">
@@ -17512,8 +17512,8 @@
     </row>
     <row r="50" spans="1:67" ht="15" customHeight="1">
       <c r="A50" s="130"/>
-      <c r="B50" s="221"/>
-      <c r="C50" s="221"/>
+      <c r="B50" s="245"/>
+      <c r="C50" s="245"/>
       <c r="D50" s="39" t="s">
         <v>2</v>
       </c>
@@ -17525,7 +17525,7 @@
         <f>IFERROR(E50/P50,NA())</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="G50" s="223"/>
+      <c r="G50" s="247"/>
       <c r="H50" s="84"/>
       <c r="I50" s="5" t="s">
         <v>113</v>
@@ -17625,27 +17625,27 @@
         <f>IF(OR(AF51,AF52),AL54*AN50,AL54*AP50)</f>
         <v>1.5</v>
       </c>
-      <c r="AS50" s="212"/>
+      <c r="AS50" s="234"/>
       <c r="AT50" s="20">
         <f>IF(AF52,AL54-(AL54*AN50),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU50" s="212"/>
+      <c r="AU50" s="234"/>
       <c r="AV50" s="20">
-        <f>AT50*AP50</f>
-        <v>0</v>
-      </c>
-      <c r="AW50" s="212"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AW50" s="234"/>
       <c r="AX50" s="20">
         <f>(AL54+AT50)*(IF((AB49+X50)&gt;5/6,5/6,AB49+X50))</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="212"/>
+      <c r="AY50" s="234"/>
       <c r="AZ50" s="20">
-        <f>SUM(AR50,AV50)</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="BA50" s="212"/>
+      <c r="BA50" s="234"/>
       <c r="BB50" s="200">
         <f>IF((1-(V49+AB52))&gt;1,1,1-(V49+AB52))</f>
         <v>0.33333333333333337</v>
@@ -17657,24 +17657,24 @@
         <f>IF(AB52&lt;0,AX50*BB50,AX50*BB49)</f>
         <v>0</v>
       </c>
-      <c r="BE50" s="212"/>
+      <c r="BE50" s="234"/>
       <c r="BF50" s="200">
         <f>BD50+((AZ50-AX50)*BB49)</f>
         <v>0.5</v>
       </c>
-      <c r="BG50" s="212"/>
+      <c r="BG50" s="234"/>
       <c r="BH50" s="18">
         <f>IF(AB51&gt;0,(BD50*AB51)+((BF50-BD50)*V54),BF50*V54)</f>
         <v>0.5</v>
       </c>
-      <c r="BI50" s="212"/>
+      <c r="BI50" s="234"/>
       <c r="BJ50" s="18">
         <f>(AL53*Z52)+(AB50*AX50)</f>
         <v>0</v>
       </c>
-      <c r="BK50" s="212"/>
+      <c r="BK50" s="234"/>
       <c r="BL50" s="200">
-        <f t="shared" ref="BL50:BL55" si="2">IF(AD50,BH50+BJ50,NA())</f>
+        <f t="shared" ref="BL50:BL54" si="8">IF(AD50,BH50+BJ50,NA())</f>
         <v>0.5</v>
       </c>
       <c r="BM50" s="124" t="s">
@@ -17690,8 +17690,8 @@
     </row>
     <row r="51" spans="1:67" ht="15" customHeight="1">
       <c r="A51" s="130"/>
-      <c r="B51" s="221"/>
-      <c r="C51" s="221"/>
+      <c r="B51" s="245"/>
+      <c r="C51" s="245"/>
       <c r="D51" s="39" t="s">
         <v>3</v>
       </c>
@@ -17703,19 +17703,19 @@
         <f>IFERROR(E51/P50,NA())</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G51" s="223"/>
+      <c r="G51" s="247"/>
       <c r="H51" s="84"/>
-      <c r="I51" s="217"/>
-      <c r="J51" s="217"/>
-      <c r="K51" s="217"/>
-      <c r="L51" s="217"/>
-      <c r="M51" s="217"/>
-      <c r="N51" s="217"/>
-      <c r="O51" s="217"/>
-      <c r="P51" s="217"/>
-      <c r="Q51" s="217"/>
-      <c r="R51" s="217"/>
-      <c r="S51" s="217"/>
+      <c r="I51" s="235"/>
+      <c r="J51" s="235"/>
+      <c r="K51" s="235"/>
+      <c r="L51" s="235"/>
+      <c r="M51" s="235"/>
+      <c r="N51" s="235"/>
+      <c r="O51" s="235"/>
+      <c r="P51" s="235"/>
+      <c r="Q51" s="235"/>
+      <c r="R51" s="235"/>
+      <c r="S51" s="235"/>
       <c r="T51" s="85"/>
       <c r="V51" s="162">
         <f>(IF(L50="D3",2,IF(L50="2D3",4,IF(L50="D6",3.5,IF(L50="2D6",7,IF(L50="3D6",10.5,L50))))))</f>
@@ -17791,51 +17791,51 @@
         <f>IF(OR(AF51,AF52),AL54*AN51,AL54*AP51)</f>
         <v>1</v>
       </c>
-      <c r="AS51" s="212"/>
+      <c r="AS51" s="234"/>
       <c r="AT51" s="20">
         <f>IF(AF52,AL54-(AL54*AN51),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU51" s="212"/>
+      <c r="AU51" s="234"/>
       <c r="AV51" s="20">
-        <f>AT51*AP51</f>
-        <v>0</v>
-      </c>
-      <c r="AW51" s="212"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AW51" s="234"/>
       <c r="AX51" s="20">
         <f>(AL54+AT51)*(IF((AB49+X50)&gt;5/6,5/6,AB49+X50))</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="212"/>
+      <c r="AY51" s="234"/>
       <c r="AZ51" s="20">
-        <f>SUM(AR51,AV51)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="BA51" s="212"/>
+      <c r="BA51" s="234"/>
       <c r="BB51" s="200"/>
       <c r="BC51" s="200"/>
       <c r="BD51" s="20">
         <f>IF(AB52&lt;0,AX51*BB50,AX51*BB49)</f>
         <v>0</v>
       </c>
-      <c r="BE51" s="212"/>
+      <c r="BE51" s="234"/>
       <c r="BF51" s="200">
         <f>BD51+((AZ51-AX51)*BB49)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG51" s="212"/>
+      <c r="BG51" s="234"/>
       <c r="BH51" s="18">
         <f>IF(AB51&gt;0,(BD51*AB51)+((BF51-BD51)*V54),BF51*V54)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI51" s="212"/>
+      <c r="BI51" s="234"/>
       <c r="BJ51" s="18">
         <f>(AL53*Z52)+(AB50*AX51)</f>
         <v>0</v>
       </c>
-      <c r="BK51" s="212"/>
+      <c r="BK51" s="234"/>
       <c r="BL51" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM51" s="124" t="s">
@@ -17858,7 +17858,7 @@
         <f>IFERROR(E52/P50,NA())</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G52" s="223"/>
+      <c r="G52" s="247"/>
       <c r="H52" s="84"/>
       <c r="I52" s="185" t="str">
         <f>"+- to hit"</f>
@@ -17875,17 +17875,17 @@
       <c r="M52" s="5">
         <v>0</v>
       </c>
-      <c r="N52" s="210" t="s">
+      <c r="N52" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="O52" s="210"/>
+      <c r="O52" s="222"/>
       <c r="P52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q52" s="210" t="s">
+      <c r="Q52" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="R52" s="210"/>
+      <c r="R52" s="222"/>
       <c r="S52" s="5" t="s">
         <v>18</v>
       </c>
@@ -17964,51 +17964,51 @@
         <f>IF(OR(AF51,AF52),AL54*AN52,AL54*AP52)</f>
         <v>1</v>
       </c>
-      <c r="AS52" s="212"/>
+      <c r="AS52" s="234"/>
       <c r="AT52" s="20">
         <f>IF(AF52,AL54-(AL54*AN52),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU52" s="212"/>
+      <c r="AU52" s="234"/>
       <c r="AV52" s="20">
-        <f>AT52*AP52</f>
-        <v>0</v>
-      </c>
-      <c r="AW52" s="212"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AW52" s="234"/>
       <c r="AX52" s="20">
         <f>(AL54+AT52)*(IF((AB49+X50)&gt;5/6,5/6,AB49+X50))</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="212"/>
+      <c r="AY52" s="234"/>
       <c r="AZ52" s="20">
-        <f>SUM(AR52,AV52)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="BA52" s="212"/>
+      <c r="BA52" s="234"/>
       <c r="BB52" s="200"/>
       <c r="BC52" s="200"/>
       <c r="BD52" s="20">
         <f>IF(AB52&lt;0,AX52*BB50,AX52*BB49)</f>
         <v>0</v>
       </c>
-      <c r="BE52" s="212"/>
+      <c r="BE52" s="234"/>
       <c r="BF52" s="200">
         <f>BD52+((AZ52-AX52)*BB49)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG52" s="212"/>
+      <c r="BG52" s="234"/>
       <c r="BH52" s="18">
         <f>IF(AB51&gt;0,(BD52*AB51)+((BF52-BD52)*V54),BF52*V54)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI52" s="212"/>
+      <c r="BI52" s="234"/>
       <c r="BJ52" s="18">
         <f>(AL53*Z52)+(AB50*AX52)</f>
         <v>0</v>
       </c>
-      <c r="BK52" s="212"/>
+      <c r="BK52" s="234"/>
       <c r="BL52" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM52" s="124" t="s">
@@ -18031,28 +18031,28 @@
         <f>IFERROR(E53/P50,NA())</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G53" s="223"/>
+      <c r="G53" s="247"/>
       <c r="H53" s="87"/>
       <c r="I53" s="80"/>
       <c r="J53" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K53" s="210" t="s">
+      <c r="K53" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="210"/>
-      <c r="M53" s="210"/>
-      <c r="N53" s="210" t="s">
+      <c r="L53" s="222"/>
+      <c r="M53" s="222"/>
+      <c r="N53" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="O53" s="210"/>
+      <c r="O53" s="222"/>
       <c r="P53" s="5">
         <v>0</v>
       </c>
-      <c r="Q53" s="210" t="s">
+      <c r="Q53" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="R53" s="210"/>
+      <c r="R53" s="222"/>
       <c r="S53" s="5">
         <v>0</v>
       </c>
@@ -18114,51 +18114,51 @@
         <f>IF(OR(AF51,AF52),AL54*AN53,AL54*AP53)</f>
         <v>1</v>
       </c>
-      <c r="AS53" s="212"/>
+      <c r="AS53" s="234"/>
       <c r="AT53" s="20">
         <f>IF(AF52,AL54-(AL54*AN53),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU53" s="212"/>
+      <c r="AU53" s="234"/>
       <c r="AV53" s="20">
-        <f>AT53*AP53</f>
-        <v>0</v>
-      </c>
-      <c r="AW53" s="212"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AW53" s="234"/>
       <c r="AX53" s="20">
         <f>(AL54+AT53)*(IF((AB49+X50)&gt;5/6,5/6,AB49+X50))</f>
         <v>0</v>
       </c>
-      <c r="AY53" s="212"/>
+      <c r="AY53" s="234"/>
       <c r="AZ53" s="20">
-        <f>SUM(AR53,AV53)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="BA53" s="212"/>
+      <c r="BA53" s="234"/>
       <c r="BB53" s="200"/>
       <c r="BC53" s="200"/>
       <c r="BD53" s="20">
         <f>IF(AB52&lt;0,AX53*BB50,AX53*BB49)</f>
         <v>0</v>
       </c>
-      <c r="BE53" s="212"/>
+      <c r="BE53" s="234"/>
       <c r="BF53" s="200">
         <f>BD53+((AZ53-AX53)*BB49)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG53" s="212"/>
+      <c r="BG53" s="234"/>
       <c r="BH53" s="18">
         <f>IF(AB51&gt;0,(BD53*AB51)+((BF53-BD53)*V54),BF53*V54)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI53" s="212"/>
+      <c r="BI53" s="234"/>
       <c r="BJ53" s="18">
         <f>(AL53*Z52)+(AB50*AX53)</f>
         <v>0</v>
       </c>
-      <c r="BK53" s="212"/>
+      <c r="BK53" s="234"/>
       <c r="BL53" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM53" s="124" t="s">
@@ -18181,28 +18181,28 @@
         <f>IFERROR(E54/P50,NA())</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="G54" s="223"/>
+      <c r="G54" s="247"/>
       <c r="H54" s="84"/>
-      <c r="I54" s="209" t="s">
+      <c r="I54" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="J54" s="209"/>
-      <c r="K54" s="209" t="s">
+      <c r="J54" s="223"/>
+      <c r="K54" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L54" s="209"/>
-      <c r="M54" s="209"/>
-      <c r="N54" s="210" t="s">
+      <c r="L54" s="223"/>
+      <c r="M54" s="223"/>
+      <c r="N54" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="O54" s="210"/>
+      <c r="O54" s="222"/>
       <c r="P54" s="5">
         <v>0</v>
       </c>
-      <c r="Q54" s="210" t="s">
+      <c r="Q54" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="R54" s="210"/>
+      <c r="R54" s="222"/>
       <c r="S54" s="5">
         <v>0</v>
       </c>
@@ -18266,51 +18266,51 @@
         <f>IF(OR(AF51,AF52),AL54*AN54,AL54*AP54)</f>
         <v>0.5</v>
       </c>
-      <c r="AS54" s="212"/>
+      <c r="AS54" s="234"/>
       <c r="AT54" s="20">
         <f>IF(AF52,AL54-(AL54*AN54),IF(AF51,(1/6)*AL54,0))</f>
         <v>0</v>
       </c>
-      <c r="AU54" s="212"/>
+      <c r="AU54" s="234"/>
       <c r="AV54" s="20">
-        <f>AT54*AP54</f>
-        <v>0</v>
-      </c>
-      <c r="AW54" s="212"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AW54" s="234"/>
       <c r="AX54" s="20">
         <f>(AL54+AT54)*(IF((AB49+X50)&gt;5/6,5/6,AB49+X50))</f>
         <v>0</v>
       </c>
-      <c r="AY54" s="212"/>
+      <c r="AY54" s="234"/>
       <c r="AZ54" s="20">
-        <f>SUM(AR54,AV54)</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="BA54" s="212"/>
+      <c r="BA54" s="234"/>
       <c r="BB54" s="200"/>
       <c r="BC54" s="200"/>
       <c r="BD54" s="20">
         <f>IF(AB52&lt;0,AX54*BB50,AX54*BB49)</f>
         <v>0</v>
       </c>
-      <c r="BE54" s="212"/>
+      <c r="BE54" s="234"/>
       <c r="BF54" s="200">
         <f>BD54+((AZ54-AX54)*BB49)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BG54" s="212"/>
+      <c r="BG54" s="234"/>
       <c r="BH54" s="18">
         <f>IF(AB51&gt;0,(BD54*AB51)+((BF54-BD54)*V54),BF54*V54)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BI54" s="212"/>
+      <c r="BI54" s="234"/>
       <c r="BJ54" s="18">
         <f>(AL53*Z52)+(AB50*AX54)</f>
         <v>0</v>
       </c>
-      <c r="BK54" s="212"/>
+      <c r="BK54" s="234"/>
       <c r="BL54" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="BM54" s="124" t="s">
@@ -18325,7 +18325,7 @@
       <c r="D55" s="50"/>
       <c r="E55" s="172"/>
       <c r="F55" s="50"/>
-      <c r="G55" s="223"/>
+      <c r="G55" s="247"/>
       <c r="H55" s="84"/>
       <c r="I55" s="185"/>
       <c r="J55" s="185"/>
@@ -18338,17 +18338,17 @@
       <c r="M55" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N55" s="210" t="s">
+      <c r="N55" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="O55" s="210"/>
+      <c r="O55" s="222"/>
       <c r="P55" s="5">
         <v>0</v>
       </c>
-      <c r="Q55" s="219" t="s">
+      <c r="Q55" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="R55" s="219"/>
+      <c r="R55" s="225"/>
       <c r="S55" s="5">
         <v>0</v>
       </c>
@@ -18429,7 +18429,7 @@
         <f>IFERROR(E56/P50,NA())</f>
         <v>2.5925925925925925E-2</v>
       </c>
-      <c r="G56" s="223"/>
+      <c r="G56" s="247"/>
       <c r="H56" s="84"/>
       <c r="I56" s="80"/>
       <c r="J56" s="80"/>
@@ -18564,11 +18564,11 @@
     </row>
     <row r="58" spans="1:67" ht="15" customHeight="1">
       <c r="A58" s="132"/>
-      <c r="B58" s="224" t="str">
+      <c r="B58" s="240" t="str">
         <f>IF(I60="","",I60)</f>
         <v>Model 4</v>
       </c>
-      <c r="C58" s="224"/>
+      <c r="C58" s="240"/>
       <c r="D58" s="32"/>
       <c r="E58" s="174" t="s">
         <v>11</v>
@@ -18576,86 +18576,86 @@
       <c r="F58" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="226"/>
+      <c r="G58" s="242"/>
       <c r="H58" s="82"/>
-      <c r="I58" s="206" t="str">
+      <c r="I58" s="226" t="str">
         <f>IF(I60="","",I60)</f>
         <v>Model 4</v>
       </c>
-      <c r="J58" s="206"/>
-      <c r="K58" s="206"/>
-      <c r="L58" s="206"/>
-      <c r="M58" s="206"/>
-      <c r="N58" s="206"/>
-      <c r="O58" s="206"/>
-      <c r="P58" s="206"/>
-      <c r="Q58" s="206"/>
-      <c r="R58" s="206"/>
-      <c r="S58" s="206"/>
+      <c r="J58" s="226"/>
+      <c r="K58" s="226"/>
+      <c r="L58" s="226"/>
+      <c r="M58" s="226"/>
+      <c r="N58" s="226"/>
+      <c r="O58" s="226"/>
+      <c r="P58" s="226"/>
+      <c r="Q58" s="226"/>
+      <c r="R58" s="226"/>
+      <c r="S58" s="226"/>
       <c r="T58" s="83"/>
-      <c r="V58" s="207" t="s">
+      <c r="V58" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="W58" s="208"/>
-      <c r="X58" s="208"/>
-      <c r="Y58" s="208"/>
-      <c r="Z58" s="208"/>
-      <c r="AA58" s="208"/>
-      <c r="AB58" s="208"/>
-      <c r="AC58" s="208"/>
-      <c r="AD58" s="208" t="s">
+      <c r="W58" s="214"/>
+      <c r="X58" s="214"/>
+      <c r="Y58" s="214"/>
+      <c r="Z58" s="214"/>
+      <c r="AA58" s="214"/>
+      <c r="AB58" s="214"/>
+      <c r="AC58" s="214"/>
+      <c r="AD58" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="AE58" s="208"/>
-      <c r="AF58" s="208"/>
-      <c r="AG58" s="208"/>
+      <c r="AE58" s="214"/>
+      <c r="AF58" s="214"/>
+      <c r="AG58" s="214"/>
       <c r="AH58" s="199"/>
       <c r="AI58" s="199"/>
-      <c r="AJ58" s="208" t="s">
+      <c r="AJ58" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="AK58" s="208"/>
-      <c r="AL58" s="208"/>
-      <c r="AM58" s="208"/>
-      <c r="AN58" s="208"/>
-      <c r="AO58" s="208" t="s">
+      <c r="AK58" s="214"/>
+      <c r="AL58" s="214"/>
+      <c r="AM58" s="214"/>
+      <c r="AN58" s="214"/>
+      <c r="AO58" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="AP58" s="208"/>
-      <c r="AQ58" s="208"/>
-      <c r="AR58" s="208"/>
-      <c r="AS58" s="208"/>
-      <c r="AT58" s="208"/>
-      <c r="AU58" s="208"/>
-      <c r="AV58" s="208"/>
-      <c r="AW58" s="208"/>
-      <c r="AX58" s="208"/>
-      <c r="AY58" s="208"/>
-      <c r="AZ58" s="208"/>
-      <c r="BA58" s="208"/>
+      <c r="AP58" s="214"/>
+      <c r="AQ58" s="214"/>
+      <c r="AR58" s="214"/>
+      <c r="AS58" s="214"/>
+      <c r="AT58" s="214"/>
+      <c r="AU58" s="214"/>
+      <c r="AV58" s="214"/>
+      <c r="AW58" s="214"/>
+      <c r="AX58" s="214"/>
+      <c r="AY58" s="214"/>
+      <c r="AZ58" s="214"/>
+      <c r="BA58" s="214"/>
       <c r="BB58" s="199"/>
       <c r="BC58" s="199"/>
-      <c r="BD58" s="208" t="s">
+      <c r="BD58" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="BE58" s="208"/>
-      <c r="BF58" s="208"/>
-      <c r="BG58" s="208"/>
-      <c r="BH58" s="208"/>
-      <c r="BI58" s="208"/>
-      <c r="BJ58" s="208"/>
-      <c r="BK58" s="208"/>
-      <c r="BL58" s="208"/>
-      <c r="BM58" s="208"/>
-      <c r="BN58" s="208" t="s">
+      <c r="BE58" s="214"/>
+      <c r="BF58" s="214"/>
+      <c r="BG58" s="214"/>
+      <c r="BH58" s="214"/>
+      <c r="BI58" s="214"/>
+      <c r="BJ58" s="214"/>
+      <c r="BK58" s="214"/>
+      <c r="BL58" s="214"/>
+      <c r="BM58" s="214"/>
+      <c r="BN58" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="BO58" s="211"/>
+      <c r="BO58" s="224"/>
     </row>
     <row r="59" spans="1:67" ht="15" customHeight="1">
       <c r="A59" s="133"/>
-      <c r="B59" s="225"/>
-      <c r="C59" s="225"/>
+      <c r="B59" s="241"/>
+      <c r="C59" s="241"/>
       <c r="D59" s="40" t="s">
         <v>1</v>
       </c>
@@ -18667,7 +18667,7 @@
         <f>IFERROR(E59/P60,NA())</f>
         <v>3.333333333333334E-2</v>
       </c>
-      <c r="G59" s="227"/>
+      <c r="G59" s="243"/>
       <c r="H59" s="84"/>
       <c r="I59" s="78" t="s">
         <v>13</v>
@@ -18719,7 +18719,7 @@
       <c r="AA59" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AB59" s="254">
+      <c r="AB59" s="201">
         <f>IF(AF65,IF(S62="2+",5/6,IF(S62="3+",4/6,IF(S62="4+",3/6,IF(S62="5+",2/6,IF(S62="6+",1/6,IF(S62="7+",0/6)))))),0)</f>
         <v>0</v>
       </c>
@@ -18771,35 +18771,35 @@
         <f>IF(OR(AF61,AF62),AL64*AN59,AL64*AP59)</f>
         <v>2</v>
       </c>
-      <c r="AS59" s="212" t="s">
+      <c r="AS59" s="234" t="s">
         <v>66</v>
       </c>
       <c r="AT59" s="20">
         <f>IF(AF62,AL64-(AL64*AN59),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU59" s="212" t="s">
+      <c r="AU59" s="234" t="s">
         <v>60</v>
       </c>
       <c r="AV59" s="20">
-        <f>AT59*AP59</f>
-        <v>0</v>
-      </c>
-      <c r="AW59" s="212" t="s">
+        <f t="shared" ref="AV59:AV64" si="9">AT59*AP59</f>
+        <v>0</v>
+      </c>
+      <c r="AW59" s="234" t="s">
         <v>67</v>
       </c>
       <c r="AX59" s="20">
         <f>(AL64+AT59)*(IF((AB59+X60)&gt;5/6,5/6,AB59+X60))</f>
         <v>0</v>
       </c>
-      <c r="AY59" s="212" t="s">
+      <c r="AY59" s="234" t="s">
         <v>93</v>
       </c>
       <c r="AZ59" s="20">
-        <f>SUM(AR59,AV59)</f>
+        <f t="shared" ref="AZ59:AZ64" si="10">SUM(AR59,AV59)</f>
         <v>2</v>
       </c>
-      <c r="BA59" s="212" t="s">
+      <c r="BA59" s="234" t="s">
         <v>63</v>
       </c>
       <c r="BB59" s="200">
@@ -18813,28 +18813,28 @@
         <f>IF(AB62&lt;0,AX59*BB60,AX59*BB59)</f>
         <v>0</v>
       </c>
-      <c r="BE59" s="212" t="s">
+      <c r="BE59" s="234" t="s">
         <v>107</v>
       </c>
       <c r="BF59" s="200">
         <f>BD59+((AZ59-AX59)*BB59)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BG59" s="212" t="s">
+      <c r="BG59" s="234" t="s">
         <v>108</v>
       </c>
       <c r="BH59" s="18">
         <f>IF(AB61&gt;0,(BD59*AB61)+((BF59-BD59)*V64),BF59*V64)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BI59" s="212" t="s">
+      <c r="BI59" s="234" t="s">
         <v>65</v>
       </c>
       <c r="BJ59" s="18">
         <f>(AL63*Z62)+(AB60*AX59)</f>
         <v>0</v>
       </c>
-      <c r="BK59" s="212" t="s">
+      <c r="BK59" s="234" t="s">
         <v>64</v>
       </c>
       <c r="BL59" s="200">
@@ -18854,8 +18854,8 @@
     </row>
     <row r="60" spans="1:67" ht="15" customHeight="1">
       <c r="A60" s="133"/>
-      <c r="B60" s="225"/>
-      <c r="C60" s="225"/>
+      <c r="B60" s="241"/>
+      <c r="C60" s="241"/>
       <c r="D60" s="40" t="s">
         <v>2</v>
       </c>
@@ -18867,7 +18867,7 @@
         <f>IFERROR(E60/P60,NA())</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G60" s="227"/>
+      <c r="G60" s="243"/>
       <c r="H60" s="84"/>
       <c r="I60" s="5" t="s">
         <v>114</v>
@@ -18967,27 +18967,27 @@
         <f>IF(OR(AF61,AF62),AL64*AN60,AL64*AP60)</f>
         <v>1.5</v>
       </c>
-      <c r="AS60" s="212"/>
+      <c r="AS60" s="234"/>
       <c r="AT60" s="20">
         <f>IF(AF62,AL64-(AL64*AN60),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU60" s="212"/>
+      <c r="AU60" s="234"/>
       <c r="AV60" s="20">
-        <f>AT60*AP60</f>
-        <v>0</v>
-      </c>
-      <c r="AW60" s="212"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AW60" s="234"/>
       <c r="AX60" s="20">
         <f>(AL64+AT60)*(IF((AB59+X60)&gt;5/6,5/6,AB59+X60))</f>
         <v>0</v>
       </c>
-      <c r="AY60" s="212"/>
+      <c r="AY60" s="234"/>
       <c r="AZ60" s="20">
-        <f>SUM(AR60,AV60)</f>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
-      <c r="BA60" s="212"/>
+      <c r="BA60" s="234"/>
       <c r="BB60" s="200">
         <f>IF((1-(V59+AB62))&gt;1,1,1-(V59+AB62))</f>
         <v>0.33333333333333337</v>
@@ -18999,24 +18999,24 @@
         <f>IF(AB62&lt;0,AX60*BB60,AX60*BB59)</f>
         <v>0</v>
       </c>
-      <c r="BE60" s="212"/>
+      <c r="BE60" s="234"/>
       <c r="BF60" s="200">
         <f>BD60+((AZ60-AX60)*BB59)</f>
         <v>0.5</v>
       </c>
-      <c r="BG60" s="212"/>
+      <c r="BG60" s="234"/>
       <c r="BH60" s="18">
         <f>IF(AB61&gt;0,(BD60*AB61)+((BF60-BD60)*V64),BF60*V64)</f>
         <v>0.5</v>
       </c>
-      <c r="BI60" s="212"/>
+      <c r="BI60" s="234"/>
       <c r="BJ60" s="18">
         <f>(AL63*Z62)+(AB60*AX60)</f>
         <v>0</v>
       </c>
-      <c r="BK60" s="212"/>
+      <c r="BK60" s="234"/>
       <c r="BL60" s="200">
-        <f t="shared" ref="BL60:BL65" si="3">IF(AD60,BH60+BJ60,NA())</f>
+        <f t="shared" ref="BL60:BL64" si="11">IF(AD60,BH60+BJ60,NA())</f>
         <v>0.5</v>
       </c>
       <c r="BM60" s="124" t="s">
@@ -19032,8 +19032,8 @@
     </row>
     <row r="61" spans="1:67" ht="15" customHeight="1">
       <c r="A61" s="133"/>
-      <c r="B61" s="225"/>
-      <c r="C61" s="225"/>
+      <c r="B61" s="241"/>
+      <c r="C61" s="241"/>
       <c r="D61" s="40" t="s">
         <v>3</v>
       </c>
@@ -19045,19 +19045,19 @@
         <f>IFERROR(E61/P60,NA())</f>
         <v>1.666666666666667E-2</v>
       </c>
-      <c r="G61" s="227"/>
+      <c r="G61" s="243"/>
       <c r="H61" s="84"/>
-      <c r="I61" s="217"/>
-      <c r="J61" s="217"/>
-      <c r="K61" s="217"/>
-      <c r="L61" s="217"/>
-      <c r="M61" s="217"/>
-      <c r="N61" s="217"/>
-      <c r="O61" s="217"/>
-      <c r="P61" s="217"/>
-      <c r="Q61" s="217"/>
-      <c r="R61" s="217"/>
-      <c r="S61" s="217"/>
+      <c r="I61" s="235"/>
+      <c r="J61" s="235"/>
+      <c r="K61" s="235"/>
+      <c r="L61" s="235"/>
+      <c r="M61" s="235"/>
+      <c r="N61" s="235"/>
+      <c r="O61" s="235"/>
+      <c r="P61" s="235"/>
+      <c r="Q61" s="235"/>
+      <c r="R61" s="235"/>
+      <c r="S61" s="235"/>
       <c r="T61" s="85"/>
       <c r="V61" s="162">
         <f>(IF(L60="D3",2,IF(L60="2D3",4,IF(L60="D6",3.5,IF(L60="2D6",7,IF(L60="3D6",10.5,L60))))))</f>
@@ -19133,51 +19133,51 @@
         <f>IF(OR(AF61,AF62),AL64*AN61,AL64*AP61)</f>
         <v>1</v>
       </c>
-      <c r="AS61" s="212"/>
+      <c r="AS61" s="234"/>
       <c r="AT61" s="20">
         <f>IF(AF62,AL64-(AL64*AN61),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU61" s="212"/>
+      <c r="AU61" s="234"/>
       <c r="AV61" s="20">
-        <f>AT61*AP61</f>
-        <v>0</v>
-      </c>
-      <c r="AW61" s="212"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AW61" s="234"/>
       <c r="AX61" s="20">
         <f>(AL64+AT61)*(IF((AB59+X60)&gt;5/6,5/6,AB59+X60))</f>
         <v>0</v>
       </c>
-      <c r="AY61" s="212"/>
+      <c r="AY61" s="234"/>
       <c r="AZ61" s="20">
-        <f>SUM(AR61,AV61)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="BA61" s="212"/>
+      <c r="BA61" s="234"/>
       <c r="BB61" s="200"/>
       <c r="BC61" s="200"/>
       <c r="BD61" s="20">
         <f>IF(AB62&lt;0,AX61*BB60,AX61*BB59)</f>
         <v>0</v>
       </c>
-      <c r="BE61" s="212"/>
+      <c r="BE61" s="234"/>
       <c r="BF61" s="200">
         <f>BD61+((AZ61-AX61)*BB59)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG61" s="212"/>
+      <c r="BG61" s="234"/>
       <c r="BH61" s="18">
         <f>IF(AB61&gt;0,(BD61*AB61)+((BF61-BD61)*V64),BF61*V64)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI61" s="212"/>
+      <c r="BI61" s="234"/>
       <c r="BJ61" s="18">
         <f>(AL63*Z62)+(AB60*AX61)</f>
         <v>0</v>
       </c>
-      <c r="BK61" s="212"/>
+      <c r="BK61" s="234"/>
       <c r="BL61" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM61" s="124" t="s">
@@ -19200,7 +19200,7 @@
         <f>IFERROR(E62/P60,NA())</f>
         <v>1.666666666666667E-2</v>
       </c>
-      <c r="G62" s="227"/>
+      <c r="G62" s="243"/>
       <c r="H62" s="84"/>
       <c r="I62" s="185" t="str">
         <f>"+- to hit"</f>
@@ -19217,17 +19217,17 @@
       <c r="M62" s="5">
         <v>0</v>
       </c>
-      <c r="N62" s="210" t="s">
+      <c r="N62" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="O62" s="210"/>
+      <c r="O62" s="222"/>
       <c r="P62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q62" s="210" t="s">
+      <c r="Q62" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="R62" s="210"/>
+      <c r="R62" s="222"/>
       <c r="S62" s="5" t="s">
         <v>19</v>
       </c>
@@ -19306,51 +19306,51 @@
         <f>IF(OR(AF61,AF62),AL64*AN62,AL64*AP62)</f>
         <v>1</v>
       </c>
-      <c r="AS62" s="212"/>
+      <c r="AS62" s="234"/>
       <c r="AT62" s="20">
         <f>IF(AF62,AL64-(AL64*AN62),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU62" s="212"/>
+      <c r="AU62" s="234"/>
       <c r="AV62" s="20">
-        <f>AT62*AP62</f>
-        <v>0</v>
-      </c>
-      <c r="AW62" s="212"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AW62" s="234"/>
       <c r="AX62" s="20">
         <f>(AL64+AT62)*(IF((AB59+X60)&gt;5/6,5/6,AB59+X60))</f>
         <v>0</v>
       </c>
-      <c r="AY62" s="212"/>
+      <c r="AY62" s="234"/>
       <c r="AZ62" s="20">
-        <f>SUM(AR62,AV62)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="BA62" s="212"/>
+      <c r="BA62" s="234"/>
       <c r="BB62" s="200"/>
       <c r="BC62" s="200"/>
       <c r="BD62" s="20">
         <f>IF(AB62&lt;0,AX62*BB60,AX62*BB59)</f>
         <v>0</v>
       </c>
-      <c r="BE62" s="212"/>
+      <c r="BE62" s="234"/>
       <c r="BF62" s="200">
         <f>BD62+((AZ62-AX62)*BB59)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG62" s="212"/>
+      <c r="BG62" s="234"/>
       <c r="BH62" s="18">
         <f>IF(AB61&gt;0,(BD62*AB61)+((BF62-BD62)*V64),BF62*V64)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI62" s="212"/>
+      <c r="BI62" s="234"/>
       <c r="BJ62" s="18">
         <f>(AL63*Z62)+(AB60*AX62)</f>
         <v>0</v>
       </c>
-      <c r="BK62" s="212"/>
+      <c r="BK62" s="234"/>
       <c r="BL62" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM62" s="124" t="s">
@@ -19373,28 +19373,28 @@
         <f>IFERROR(E63/P60,NA())</f>
         <v>1.666666666666667E-2</v>
       </c>
-      <c r="G63" s="227"/>
+      <c r="G63" s="243"/>
       <c r="H63" s="87"/>
       <c r="I63" s="80"/>
       <c r="J63" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K63" s="210" t="s">
+      <c r="K63" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="L63" s="210"/>
-      <c r="M63" s="210"/>
-      <c r="N63" s="210" t="s">
+      <c r="L63" s="222"/>
+      <c r="M63" s="222"/>
+      <c r="N63" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="O63" s="210"/>
+      <c r="O63" s="222"/>
       <c r="P63" s="5">
         <v>0</v>
       </c>
-      <c r="Q63" s="210" t="s">
+      <c r="Q63" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="210"/>
+      <c r="R63" s="222"/>
       <c r="S63" s="5">
         <v>0</v>
       </c>
@@ -19456,51 +19456,51 @@
         <f>IF(OR(AF61,AF62),AL64*AN63,AL64*AP63)</f>
         <v>1</v>
       </c>
-      <c r="AS63" s="212"/>
+      <c r="AS63" s="234"/>
       <c r="AT63" s="20">
         <f>IF(AF62,AL64-(AL64*AN63),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU63" s="212"/>
+      <c r="AU63" s="234"/>
       <c r="AV63" s="20">
-        <f>AT63*AP63</f>
-        <v>0</v>
-      </c>
-      <c r="AW63" s="212"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AW63" s="234"/>
       <c r="AX63" s="20">
         <f>(AL64+AT63)*(IF((AB59+X60)&gt;5/6,5/6,AB59+X60))</f>
         <v>0</v>
       </c>
-      <c r="AY63" s="212"/>
+      <c r="AY63" s="234"/>
       <c r="AZ63" s="20">
-        <f>SUM(AR63,AV63)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="BA63" s="212"/>
+      <c r="BA63" s="234"/>
       <c r="BB63" s="200"/>
       <c r="BC63" s="200"/>
       <c r="BD63" s="20">
         <f>IF(AB62&lt;0,AX63*BB60,AX63*BB59)</f>
         <v>0</v>
       </c>
-      <c r="BE63" s="212"/>
+      <c r="BE63" s="234"/>
       <c r="BF63" s="200">
         <f>BD63+((AZ63-AX63)*BB59)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG63" s="212"/>
+      <c r="BG63" s="234"/>
       <c r="BH63" s="18">
         <f>IF(AB61&gt;0,(BD63*AB61)+((BF63-BD63)*V64),BF63*V64)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI63" s="212"/>
+      <c r="BI63" s="234"/>
       <c r="BJ63" s="18">
         <f>(AL63*Z62)+(AB60*AX63)</f>
         <v>0</v>
       </c>
-      <c r="BK63" s="212"/>
+      <c r="BK63" s="234"/>
       <c r="BL63" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM63" s="124" t="s">
@@ -19523,28 +19523,28 @@
         <f>IFERROR(E64/P60,NA())</f>
         <v>8.333333333333335E-3</v>
       </c>
-      <c r="G64" s="227"/>
+      <c r="G64" s="243"/>
       <c r="H64" s="84"/>
-      <c r="I64" s="209" t="s">
+      <c r="I64" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="J64" s="209"/>
-      <c r="K64" s="209" t="s">
+      <c r="J64" s="223"/>
+      <c r="K64" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L64" s="209"/>
-      <c r="M64" s="209"/>
-      <c r="N64" s="210" t="s">
+      <c r="L64" s="223"/>
+      <c r="M64" s="223"/>
+      <c r="N64" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="O64" s="210"/>
+      <c r="O64" s="222"/>
       <c r="P64" s="5">
         <v>0</v>
       </c>
-      <c r="Q64" s="210" t="s">
+      <c r="Q64" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="R64" s="210"/>
+      <c r="R64" s="222"/>
       <c r="S64" s="5">
         <v>0</v>
       </c>
@@ -19608,51 +19608,51 @@
         <f>IF(OR(AF61,AF62),AL64*AN64,AL64*AP64)</f>
         <v>0.5</v>
       </c>
-      <c r="AS64" s="212"/>
+      <c r="AS64" s="234"/>
       <c r="AT64" s="20">
         <f>IF(AF62,AL64-(AL64*AN64),IF(AF61,(1/6)*AL64,0))</f>
         <v>0</v>
       </c>
-      <c r="AU64" s="212"/>
+      <c r="AU64" s="234"/>
       <c r="AV64" s="20">
-        <f>AT64*AP64</f>
-        <v>0</v>
-      </c>
-      <c r="AW64" s="212"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AW64" s="234"/>
       <c r="AX64" s="20">
         <f>(AL64+AT64)*(IF((AB59+X60)&gt;5/6,5/6,AB59+X60))</f>
         <v>0</v>
       </c>
-      <c r="AY64" s="212"/>
+      <c r="AY64" s="234"/>
       <c r="AZ64" s="20">
-        <f>SUM(AR64,AV64)</f>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="BA64" s="212"/>
+      <c r="BA64" s="234"/>
       <c r="BB64" s="200"/>
       <c r="BC64" s="200"/>
       <c r="BD64" s="20">
         <f>IF(AB62&lt;0,AX64*BB60,AX64*BB59)</f>
         <v>0</v>
       </c>
-      <c r="BE64" s="212"/>
+      <c r="BE64" s="234"/>
       <c r="BF64" s="200">
         <f>BD64+((AZ64-AX64)*BB59)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BG64" s="212"/>
+      <c r="BG64" s="234"/>
       <c r="BH64" s="18">
         <f>IF(AB61&gt;0,(BD64*AB61)+((BF64-BD64)*V64),BF64*V64)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BI64" s="212"/>
+      <c r="BI64" s="234"/>
       <c r="BJ64" s="18">
         <f>(AL63*Z62)+(AB60*AX64)</f>
         <v>0</v>
       </c>
-      <c r="BK64" s="212"/>
+      <c r="BK64" s="234"/>
       <c r="BL64" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="BM64" s="124" t="s">
@@ -19667,7 +19667,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="175"/>
       <c r="F65" s="51"/>
-      <c r="G65" s="227"/>
+      <c r="G65" s="243"/>
       <c r="H65" s="84"/>
       <c r="I65" s="185"/>
       <c r="J65" s="185"/>
@@ -19680,17 +19680,17 @@
       <c r="M65" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N65" s="210" t="s">
+      <c r="N65" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="O65" s="210"/>
+      <c r="O65" s="222"/>
       <c r="P65" s="5">
         <v>0</v>
       </c>
-      <c r="Q65" s="219" t="s">
+      <c r="Q65" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="R65" s="219"/>
+      <c r="R65" s="225"/>
       <c r="S65" s="5">
         <v>0</v>
       </c>
@@ -19771,7 +19771,7 @@
         <f>IFERROR(E66/P60,NA())</f>
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="G66" s="227"/>
+      <c r="G66" s="243"/>
       <c r="H66" s="84"/>
       <c r="I66" s="80"/>
       <c r="J66" s="80"/>
@@ -19906,11 +19906,11 @@
     </row>
     <row r="68" spans="1:67" ht="15" customHeight="1">
       <c r="A68" s="152"/>
-      <c r="B68" s="228" t="str">
+      <c r="B68" s="236" t="str">
         <f>IF(I70="","",I70)</f>
         <v>Model 5</v>
       </c>
-      <c r="C68" s="228"/>
+      <c r="C68" s="236"/>
       <c r="D68" s="34"/>
       <c r="E68" s="177" t="s">
         <v>11</v>
@@ -19918,86 +19918,86 @@
       <c r="F68" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G68" s="230"/>
+      <c r="G68" s="238"/>
       <c r="H68" s="82"/>
-      <c r="I68" s="206" t="str">
+      <c r="I68" s="226" t="str">
         <f>IF(I70="","",I70)</f>
         <v>Model 5</v>
       </c>
-      <c r="J68" s="206"/>
-      <c r="K68" s="206"/>
-      <c r="L68" s="206"/>
-      <c r="M68" s="206"/>
-      <c r="N68" s="206"/>
-      <c r="O68" s="206"/>
-      <c r="P68" s="206"/>
-      <c r="Q68" s="206"/>
-      <c r="R68" s="206"/>
-      <c r="S68" s="206"/>
+      <c r="J68" s="226"/>
+      <c r="K68" s="226"/>
+      <c r="L68" s="226"/>
+      <c r="M68" s="226"/>
+      <c r="N68" s="226"/>
+      <c r="O68" s="226"/>
+      <c r="P68" s="226"/>
+      <c r="Q68" s="226"/>
+      <c r="R68" s="226"/>
+      <c r="S68" s="226"/>
       <c r="T68" s="83"/>
-      <c r="V68" s="207" t="s">
+      <c r="V68" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="W68" s="208"/>
-      <c r="X68" s="208"/>
-      <c r="Y68" s="208"/>
-      <c r="Z68" s="208"/>
-      <c r="AA68" s="208"/>
-      <c r="AB68" s="208"/>
-      <c r="AC68" s="208"/>
-      <c r="AD68" s="208" t="s">
+      <c r="W68" s="214"/>
+      <c r="X68" s="214"/>
+      <c r="Y68" s="214"/>
+      <c r="Z68" s="214"/>
+      <c r="AA68" s="214"/>
+      <c r="AB68" s="214"/>
+      <c r="AC68" s="214"/>
+      <c r="AD68" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="AE68" s="208"/>
-      <c r="AF68" s="208"/>
-      <c r="AG68" s="208"/>
+      <c r="AE68" s="214"/>
+      <c r="AF68" s="214"/>
+      <c r="AG68" s="214"/>
       <c r="AH68" s="199"/>
       <c r="AI68" s="199"/>
-      <c r="AJ68" s="208" t="s">
+      <c r="AJ68" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="AK68" s="208"/>
-      <c r="AL68" s="208"/>
-      <c r="AM68" s="208"/>
-      <c r="AN68" s="208"/>
-      <c r="AO68" s="208" t="s">
+      <c r="AK68" s="214"/>
+      <c r="AL68" s="214"/>
+      <c r="AM68" s="214"/>
+      <c r="AN68" s="214"/>
+      <c r="AO68" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="AP68" s="208"/>
-      <c r="AQ68" s="208"/>
-      <c r="AR68" s="208"/>
-      <c r="AS68" s="208"/>
-      <c r="AT68" s="208"/>
-      <c r="AU68" s="208"/>
-      <c r="AV68" s="208"/>
-      <c r="AW68" s="208"/>
-      <c r="AX68" s="208"/>
-      <c r="AY68" s="208"/>
-      <c r="AZ68" s="208"/>
-      <c r="BA68" s="208"/>
+      <c r="AP68" s="214"/>
+      <c r="AQ68" s="214"/>
+      <c r="AR68" s="214"/>
+      <c r="AS68" s="214"/>
+      <c r="AT68" s="214"/>
+      <c r="AU68" s="214"/>
+      <c r="AV68" s="214"/>
+      <c r="AW68" s="214"/>
+      <c r="AX68" s="214"/>
+      <c r="AY68" s="214"/>
+      <c r="AZ68" s="214"/>
+      <c r="BA68" s="214"/>
       <c r="BB68" s="199"/>
       <c r="BC68" s="199"/>
-      <c r="BD68" s="208" t="s">
+      <c r="BD68" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="BE68" s="208"/>
-      <c r="BF68" s="208"/>
-      <c r="BG68" s="208"/>
-      <c r="BH68" s="208"/>
-      <c r="BI68" s="208"/>
-      <c r="BJ68" s="208"/>
-      <c r="BK68" s="208"/>
-      <c r="BL68" s="208"/>
-      <c r="BM68" s="208"/>
-      <c r="BN68" s="208" t="s">
+      <c r="BE68" s="214"/>
+      <c r="BF68" s="214"/>
+      <c r="BG68" s="214"/>
+      <c r="BH68" s="214"/>
+      <c r="BI68" s="214"/>
+      <c r="BJ68" s="214"/>
+      <c r="BK68" s="214"/>
+      <c r="BL68" s="214"/>
+      <c r="BM68" s="214"/>
+      <c r="BN68" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="BO68" s="211"/>
+      <c r="BO68" s="224"/>
     </row>
     <row r="69" spans="1:67" ht="15" customHeight="1">
       <c r="A69" s="153"/>
-      <c r="B69" s="229"/>
-      <c r="C69" s="229"/>
+      <c r="B69" s="237"/>
+      <c r="C69" s="237"/>
       <c r="D69" s="41" t="s">
         <v>1</v>
       </c>
@@ -20009,7 +20009,7 @@
         <f>IFERROR(E69/P70,NA())</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="G69" s="231"/>
+      <c r="G69" s="239"/>
       <c r="H69" s="84"/>
       <c r="I69" s="78" t="s">
         <v>13</v>
@@ -20035,8 +20035,8 @@
       <c r="P69" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Q69" s="210"/>
-      <c r="R69" s="210"/>
+      <c r="Q69" s="222"/>
+      <c r="R69" s="222"/>
       <c r="S69" s="79"/>
       <c r="T69" s="85"/>
       <c r="V69" s="160">
@@ -20061,7 +20061,7 @@
       <c r="AA69" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AB69" s="254">
+      <c r="AB69" s="201">
         <f>IF(AF75,IF(S72="2+",5/6,IF(S72="3+",4/6,IF(S72="4+",3/6,IF(S72="5+",2/6,IF(S72="6+",1/6,IF(S72="7+",0/6)))))),0)</f>
         <v>0</v>
       </c>
@@ -20113,35 +20113,35 @@
         <f>IF(OR(AF71,AF72),AL74*AN69,AL74*AP69)</f>
         <v>2</v>
       </c>
-      <c r="AS69" s="212" t="s">
+      <c r="AS69" s="234" t="s">
         <v>66</v>
       </c>
       <c r="AT69" s="20">
         <f>IF(AF72,AL74-(AL74*AN69),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU69" s="212" t="s">
+      <c r="AU69" s="234" t="s">
         <v>60</v>
       </c>
       <c r="AV69" s="20">
-        <f>AT69*AP69</f>
-        <v>0</v>
-      </c>
-      <c r="AW69" s="212" t="s">
+        <f t="shared" ref="AV69:AV74" si="12">AT69*AP69</f>
+        <v>0</v>
+      </c>
+      <c r="AW69" s="234" t="s">
         <v>67</v>
       </c>
       <c r="AX69" s="20">
         <f>(AL74+AT69)*(IF((AB69+X70)&gt;5/6,5/6,AB69+X70))</f>
         <v>0</v>
       </c>
-      <c r="AY69" s="212" t="s">
+      <c r="AY69" s="234" t="s">
         <v>93</v>
       </c>
       <c r="AZ69" s="20">
-        <f>SUM(AR69,AV69)</f>
+        <f t="shared" ref="AZ69:AZ74" si="13">SUM(AR69,AV69)</f>
         <v>2</v>
       </c>
-      <c r="BA69" s="212" t="s">
+      <c r="BA69" s="234" t="s">
         <v>63</v>
       </c>
       <c r="BB69" s="200">
@@ -20155,28 +20155,28 @@
         <f>IF(AB72&lt;0,AX69*BB70,AX69*BB69)</f>
         <v>0</v>
       </c>
-      <c r="BE69" s="212" t="s">
+      <c r="BE69" s="234" t="s">
         <v>107</v>
       </c>
       <c r="BF69" s="200">
         <f>BD69+((AZ69-AX69)*BB69)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BG69" s="212" t="s">
+      <c r="BG69" s="234" t="s">
         <v>108</v>
       </c>
       <c r="BH69" s="18">
         <f>IF(AB71&gt;0,(BD69*AB71)+((BF69-BD69)*V74),BF69*V74)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BI69" s="212" t="s">
+      <c r="BI69" s="234" t="s">
         <v>65</v>
       </c>
       <c r="BJ69" s="18">
         <f>(AL73*Z72)+(AB70*AX69)</f>
         <v>0</v>
       </c>
-      <c r="BK69" s="212" t="s">
+      <c r="BK69" s="234" t="s">
         <v>64</v>
       </c>
       <c r="BL69" s="200">
@@ -20196,8 +20196,8 @@
     </row>
     <row r="70" spans="1:67" ht="15" customHeight="1">
       <c r="A70" s="153"/>
-      <c r="B70" s="229"/>
-      <c r="C70" s="229"/>
+      <c r="B70" s="237"/>
+      <c r="C70" s="237"/>
       <c r="D70" s="41" t="s">
         <v>2</v>
       </c>
@@ -20209,7 +20209,7 @@
         <f>IFERROR(E70/P70,NA())</f>
         <v>0.02</v>
       </c>
-      <c r="G70" s="231"/>
+      <c r="G70" s="239"/>
       <c r="H70" s="84"/>
       <c r="I70" s="5" t="s">
         <v>115</v>
@@ -20235,8 +20235,8 @@
       <c r="P70" s="5">
         <v>25</v>
       </c>
-      <c r="Q70" s="210"/>
-      <c r="R70" s="210"/>
+      <c r="Q70" s="222"/>
+      <c r="R70" s="222"/>
       <c r="S70" s="79"/>
       <c r="T70" s="85"/>
       <c r="V70" s="160">
@@ -20309,27 +20309,27 @@
         <f>IF(OR(AF71,AF72),AL74*AN70,AL74*AP70)</f>
         <v>1.5</v>
       </c>
-      <c r="AS70" s="212"/>
+      <c r="AS70" s="234"/>
       <c r="AT70" s="20">
         <f>IF(AF72,AL74-(AL74*AN70),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU70" s="212"/>
+      <c r="AU70" s="234"/>
       <c r="AV70" s="20">
-        <f>AT70*AP70</f>
-        <v>0</v>
-      </c>
-      <c r="AW70" s="212"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW70" s="234"/>
       <c r="AX70" s="20">
         <f>(AL74+AT70)*(IF((AB69+X70)&gt;5/6,5/6,AB69+X70))</f>
         <v>0</v>
       </c>
-      <c r="AY70" s="212"/>
+      <c r="AY70" s="234"/>
       <c r="AZ70" s="20">
-        <f>SUM(AR70,AV70)</f>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
-      <c r="BA70" s="212"/>
+      <c r="BA70" s="234"/>
       <c r="BB70" s="200">
         <f>IF((1-(V69+AB72))&gt;1,1,1-(V69+AB72))</f>
         <v>0.33333333333333337</v>
@@ -20341,24 +20341,24 @@
         <f>IF(AB72&lt;0,AX70*BB70,AX70*BB69)</f>
         <v>0</v>
       </c>
-      <c r="BE70" s="212"/>
+      <c r="BE70" s="234"/>
       <c r="BF70" s="200">
         <f>BD70+((AZ70-AX70)*BB69)</f>
         <v>0.5</v>
       </c>
-      <c r="BG70" s="212"/>
+      <c r="BG70" s="234"/>
       <c r="BH70" s="18">
         <f>IF(AB71&gt;0,(BD70*AB71)+((BF70-BD70)*V74),BF70*V74)</f>
         <v>0.5</v>
       </c>
-      <c r="BI70" s="212"/>
+      <c r="BI70" s="234"/>
       <c r="BJ70" s="18">
         <f>(AL73*Z72)+(AB70*AX70)</f>
         <v>0</v>
       </c>
-      <c r="BK70" s="212"/>
+      <c r="BK70" s="234"/>
       <c r="BL70" s="200">
-        <f t="shared" ref="BL70:BL75" si="4">IF(AD70,BH70+BJ70,NA())</f>
+        <f t="shared" ref="BL70:BL74" si="14">IF(AD70,BH70+BJ70,NA())</f>
         <v>0.5</v>
       </c>
       <c r="BM70" s="124" t="s">
@@ -20374,8 +20374,8 @@
     </row>
     <row r="71" spans="1:67" ht="15" customHeight="1">
       <c r="A71" s="153"/>
-      <c r="B71" s="229"/>
-      <c r="C71" s="229"/>
+      <c r="B71" s="237"/>
+      <c r="C71" s="237"/>
       <c r="D71" s="41" t="s">
         <v>3</v>
       </c>
@@ -20387,19 +20387,19 @@
         <f>IFERROR(E71/P70,NA())</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="G71" s="231"/>
+      <c r="G71" s="239"/>
       <c r="H71" s="84"/>
-      <c r="I71" s="217"/>
-      <c r="J71" s="217"/>
-      <c r="K71" s="217"/>
-      <c r="L71" s="217"/>
-      <c r="M71" s="217"/>
-      <c r="N71" s="217"/>
-      <c r="O71" s="217"/>
-      <c r="P71" s="217"/>
-      <c r="Q71" s="217"/>
-      <c r="R71" s="217"/>
-      <c r="S71" s="217"/>
+      <c r="I71" s="235"/>
+      <c r="J71" s="235"/>
+      <c r="K71" s="235"/>
+      <c r="L71" s="235"/>
+      <c r="M71" s="235"/>
+      <c r="N71" s="235"/>
+      <c r="O71" s="235"/>
+      <c r="P71" s="235"/>
+      <c r="Q71" s="235"/>
+      <c r="R71" s="235"/>
+      <c r="S71" s="235"/>
       <c r="T71" s="85"/>
       <c r="V71" s="162">
         <f>(IF(L70="D3",2,IF(L70="2D3",4,IF(L70="D6",3.5,IF(L70="2D6",7,IF(L70="3D6",10.5,L70))))))</f>
@@ -20475,51 +20475,51 @@
         <f>IF(OR(AF71,AF72),AL74*AN71,AL74*AP71)</f>
         <v>1</v>
       </c>
-      <c r="AS71" s="212"/>
+      <c r="AS71" s="234"/>
       <c r="AT71" s="20">
         <f>IF(AF72,AL74-(AL74*AN71),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU71" s="212"/>
+      <c r="AU71" s="234"/>
       <c r="AV71" s="20">
-        <f>AT71*AP71</f>
-        <v>0</v>
-      </c>
-      <c r="AW71" s="212"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW71" s="234"/>
       <c r="AX71" s="20">
         <f>(AL74+AT71)*(IF((AB69+X70)&gt;5/6,5/6,AB69+X70))</f>
         <v>0</v>
       </c>
-      <c r="AY71" s="212"/>
+      <c r="AY71" s="234"/>
       <c r="AZ71" s="20">
-        <f>SUM(AR71,AV71)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="BA71" s="212"/>
+      <c r="BA71" s="234"/>
       <c r="BB71" s="200"/>
       <c r="BC71" s="200"/>
       <c r="BD71" s="20">
         <f>IF(AB72&lt;0,AX71*BB70,AX71*BB69)</f>
         <v>0</v>
       </c>
-      <c r="BE71" s="212"/>
+      <c r="BE71" s="234"/>
       <c r="BF71" s="200">
         <f>BD71+((AZ71-AX71)*BB69)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG71" s="212"/>
+      <c r="BG71" s="234"/>
       <c r="BH71" s="18">
         <f>IF(AB71&gt;0,(BD71*AB71)+((BF71-BD71)*V74),BF71*V74)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI71" s="212"/>
+      <c r="BI71" s="234"/>
       <c r="BJ71" s="18">
         <f>(AL73*Z72)+(AB70*AX71)</f>
         <v>0</v>
       </c>
-      <c r="BK71" s="212"/>
+      <c r="BK71" s="234"/>
       <c r="BL71" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM71" s="124" t="s">
@@ -20542,7 +20542,7 @@
         <f>IFERROR(E72/P70,NA())</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="G72" s="231"/>
+      <c r="G72" s="239"/>
       <c r="H72" s="84"/>
       <c r="I72" s="185" t="str">
         <f>"+- to hit"</f>
@@ -20559,17 +20559,17 @@
       <c r="M72" s="5">
         <v>0</v>
       </c>
-      <c r="N72" s="210" t="s">
+      <c r="N72" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="O72" s="210"/>
+      <c r="O72" s="222"/>
       <c r="P72" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q72" s="210" t="s">
+      <c r="Q72" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="R72" s="210"/>
+      <c r="R72" s="222"/>
       <c r="S72" s="5" t="s">
         <v>19</v>
       </c>
@@ -20648,51 +20648,51 @@
         <f>IF(OR(AF71,AF72),AL74*AN72,AL74*AP72)</f>
         <v>1</v>
       </c>
-      <c r="AS72" s="212"/>
+      <c r="AS72" s="234"/>
       <c r="AT72" s="20">
         <f>IF(AF72,AL74-(AL74*AN72),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU72" s="212"/>
+      <c r="AU72" s="234"/>
       <c r="AV72" s="20">
-        <f>AT72*AP72</f>
-        <v>0</v>
-      </c>
-      <c r="AW72" s="212"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW72" s="234"/>
       <c r="AX72" s="20">
         <f>(AL74+AT72)*(IF((AB69+X70)&gt;5/6,5/6,AB69+X70))</f>
         <v>0</v>
       </c>
-      <c r="AY72" s="212"/>
+      <c r="AY72" s="234"/>
       <c r="AZ72" s="20">
-        <f>SUM(AR72,AV72)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="BA72" s="212"/>
+      <c r="BA72" s="234"/>
       <c r="BB72" s="200"/>
       <c r="BC72" s="200"/>
       <c r="BD72" s="20">
         <f>IF(AB72&lt;0,AX72*BB70,AX72*BB69)</f>
         <v>0</v>
       </c>
-      <c r="BE72" s="212"/>
+      <c r="BE72" s="234"/>
       <c r="BF72" s="200">
         <f>BD72+((AZ72-AX72)*BB69)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG72" s="212"/>
+      <c r="BG72" s="234"/>
       <c r="BH72" s="18">
         <f>IF(AB71&gt;0,(BD72*AB71)+((BF72-BD72)*V74),BF72*V74)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI72" s="212"/>
+      <c r="BI72" s="234"/>
       <c r="BJ72" s="18">
         <f>(AL73*Z72)+(AB70*AX72)</f>
         <v>0</v>
       </c>
-      <c r="BK72" s="212"/>
+      <c r="BK72" s="234"/>
       <c r="BL72" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM72" s="124" t="s">
@@ -20715,28 +20715,28 @@
         <f>IFERROR(E73/P70,NA())</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="G73" s="231"/>
+      <c r="G73" s="239"/>
       <c r="H73" s="87"/>
       <c r="I73" s="80"/>
       <c r="J73" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K73" s="210" t="s">
+      <c r="K73" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="L73" s="210"/>
-      <c r="M73" s="210"/>
-      <c r="N73" s="210" t="s">
+      <c r="L73" s="222"/>
+      <c r="M73" s="222"/>
+      <c r="N73" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="O73" s="210"/>
+      <c r="O73" s="222"/>
       <c r="P73" s="5">
         <v>0</v>
       </c>
-      <c r="Q73" s="210" t="s">
+      <c r="Q73" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="R73" s="210"/>
+      <c r="R73" s="222"/>
       <c r="S73" s="5">
         <v>0</v>
       </c>
@@ -20798,51 +20798,51 @@
         <f>IF(OR(AF71,AF72),AL74*AN73,AL74*AP73)</f>
         <v>1</v>
       </c>
-      <c r="AS73" s="212"/>
+      <c r="AS73" s="234"/>
       <c r="AT73" s="20">
         <f>IF(AF72,AL74-(AL74*AN73),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU73" s="212"/>
+      <c r="AU73" s="234"/>
       <c r="AV73" s="20">
-        <f>AT73*AP73</f>
-        <v>0</v>
-      </c>
-      <c r="AW73" s="212"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW73" s="234"/>
       <c r="AX73" s="20">
         <f>(AL74+AT73)*(IF((AB69+X70)&gt;5/6,5/6,AB69+X70))</f>
         <v>0</v>
       </c>
-      <c r="AY73" s="212"/>
+      <c r="AY73" s="234"/>
       <c r="AZ73" s="20">
-        <f>SUM(AR73,AV73)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="BA73" s="212"/>
+      <c r="BA73" s="234"/>
       <c r="BB73" s="200"/>
       <c r="BC73" s="200"/>
       <c r="BD73" s="20">
         <f>IF(AB72&lt;0,AX73*BB70,AX73*BB69)</f>
         <v>0</v>
       </c>
-      <c r="BE73" s="212"/>
+      <c r="BE73" s="234"/>
       <c r="BF73" s="200">
         <f>BD73+((AZ73-AX73)*BB69)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG73" s="212"/>
+      <c r="BG73" s="234"/>
       <c r="BH73" s="18">
         <f>IF(AB71&gt;0,(BD73*AB71)+((BF73-BD73)*V74),BF73*V74)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI73" s="212"/>
+      <c r="BI73" s="234"/>
       <c r="BJ73" s="18">
         <f>(AL73*Z72)+(AB70*AX73)</f>
         <v>0</v>
       </c>
-      <c r="BK73" s="212"/>
+      <c r="BK73" s="234"/>
       <c r="BL73" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM73" s="124" t="s">
@@ -20865,28 +20865,28 @@
         <f>IFERROR(E74/P70,NA())</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G74" s="231"/>
+      <c r="G74" s="239"/>
       <c r="H74" s="84"/>
-      <c r="I74" s="209" t="s">
+      <c r="I74" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="J74" s="209"/>
-      <c r="K74" s="209" t="s">
+      <c r="J74" s="223"/>
+      <c r="K74" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L74" s="209"/>
-      <c r="M74" s="209"/>
-      <c r="N74" s="210" t="s">
+      <c r="L74" s="223"/>
+      <c r="M74" s="223"/>
+      <c r="N74" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="O74" s="210"/>
+      <c r="O74" s="222"/>
       <c r="P74" s="5">
         <v>0</v>
       </c>
-      <c r="Q74" s="210" t="s">
+      <c r="Q74" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="R74" s="210"/>
+      <c r="R74" s="222"/>
       <c r="S74" s="5">
         <v>0</v>
       </c>
@@ -20950,51 +20950,51 @@
         <f>IF(OR(AF71,AF72),AL74*AN74,AL74*AP74)</f>
         <v>0.5</v>
       </c>
-      <c r="AS74" s="212"/>
+      <c r="AS74" s="234"/>
       <c r="AT74" s="20">
         <f>IF(AF72,AL74-(AL74*AN74),IF(AF71,(1/6)*AL74,0))</f>
         <v>0</v>
       </c>
-      <c r="AU74" s="212"/>
+      <c r="AU74" s="234"/>
       <c r="AV74" s="20">
-        <f>AT74*AP74</f>
-        <v>0</v>
-      </c>
-      <c r="AW74" s="212"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW74" s="234"/>
       <c r="AX74" s="20">
         <f>(AL74+AT74)*(IF((AB69+X70)&gt;5/6,5/6,AB69+X70))</f>
         <v>0</v>
       </c>
-      <c r="AY74" s="212"/>
+      <c r="AY74" s="234"/>
       <c r="AZ74" s="20">
-        <f>SUM(AR74,AV74)</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="BA74" s="212"/>
+      <c r="BA74" s="234"/>
       <c r="BB74" s="200"/>
       <c r="BC74" s="200"/>
       <c r="BD74" s="20">
         <f>IF(AB72&lt;0,AX74*BB70,AX74*BB69)</f>
         <v>0</v>
       </c>
-      <c r="BE74" s="212"/>
+      <c r="BE74" s="234"/>
       <c r="BF74" s="200">
         <f>BD74+((AZ74-AX74)*BB69)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BG74" s="212"/>
+      <c r="BG74" s="234"/>
       <c r="BH74" s="18">
         <f>IF(AB71&gt;0,(BD74*AB71)+((BF74-BD74)*V74),BF74*V74)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BI74" s="212"/>
+      <c r="BI74" s="234"/>
       <c r="BJ74" s="18">
         <f>(AL73*Z72)+(AB70*AX74)</f>
         <v>0</v>
       </c>
-      <c r="BK74" s="212"/>
+      <c r="BK74" s="234"/>
       <c r="BL74" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="BM74" s="124" t="s">
@@ -21009,7 +21009,7 @@
       <c r="D75" s="49"/>
       <c r="E75" s="178"/>
       <c r="F75" s="49"/>
-      <c r="G75" s="231"/>
+      <c r="G75" s="239"/>
       <c r="H75" s="84"/>
       <c r="I75" s="185"/>
       <c r="J75" s="185"/>
@@ -21022,17 +21022,17 @@
       <c r="M75" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N75" s="210" t="s">
+      <c r="N75" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="O75" s="210"/>
+      <c r="O75" s="222"/>
       <c r="P75" s="5">
         <v>0</v>
       </c>
-      <c r="Q75" s="219" t="s">
+      <c r="Q75" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="R75" s="219"/>
+      <c r="R75" s="225"/>
       <c r="S75" s="5">
         <v>0</v>
       </c>
@@ -21113,7 +21113,7 @@
         <f>IFERROR(E76/P70,NA())</f>
         <v>1.5555555555555555E-2</v>
       </c>
-      <c r="G76" s="231"/>
+      <c r="G76" s="239"/>
       <c r="H76" s="84"/>
       <c r="I76" s="80"/>
       <c r="J76" s="80"/>
@@ -21248,11 +21248,11 @@
     </row>
     <row r="78" spans="1:67" ht="15" customHeight="1">
       <c r="A78" s="155"/>
-      <c r="B78" s="238" t="str">
+      <c r="B78" s="203" t="str">
         <f>IF(I80="","",I80)</f>
         <v>Model 6</v>
       </c>
-      <c r="C78" s="238"/>
+      <c r="C78" s="203"/>
       <c r="D78" s="36"/>
       <c r="E78" s="37" t="s">
         <v>11</v>
@@ -21260,86 +21260,86 @@
       <c r="F78" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="240"/>
+      <c r="G78" s="205"/>
       <c r="H78" s="82"/>
-      <c r="I78" s="206" t="str">
+      <c r="I78" s="226" t="str">
         <f>IF(I80="","",I80)</f>
         <v>Model 6</v>
       </c>
-      <c r="J78" s="206"/>
-      <c r="K78" s="206"/>
-      <c r="L78" s="206"/>
-      <c r="M78" s="206"/>
-      <c r="N78" s="206"/>
-      <c r="O78" s="206"/>
-      <c r="P78" s="206"/>
-      <c r="Q78" s="206"/>
-      <c r="R78" s="206"/>
-      <c r="S78" s="206"/>
+      <c r="J78" s="226"/>
+      <c r="K78" s="226"/>
+      <c r="L78" s="226"/>
+      <c r="M78" s="226"/>
+      <c r="N78" s="226"/>
+      <c r="O78" s="226"/>
+      <c r="P78" s="226"/>
+      <c r="Q78" s="226"/>
+      <c r="R78" s="226"/>
+      <c r="S78" s="226"/>
       <c r="T78" s="83"/>
-      <c r="V78" s="207" t="s">
+      <c r="V78" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="W78" s="208"/>
-      <c r="X78" s="208"/>
-      <c r="Y78" s="208"/>
-      <c r="Z78" s="208"/>
-      <c r="AA78" s="208"/>
-      <c r="AB78" s="208"/>
-      <c r="AC78" s="208"/>
-      <c r="AD78" s="208" t="s">
+      <c r="W78" s="214"/>
+      <c r="X78" s="214"/>
+      <c r="Y78" s="214"/>
+      <c r="Z78" s="214"/>
+      <c r="AA78" s="214"/>
+      <c r="AB78" s="214"/>
+      <c r="AC78" s="214"/>
+      <c r="AD78" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="AE78" s="208"/>
-      <c r="AF78" s="208"/>
-      <c r="AG78" s="208"/>
+      <c r="AE78" s="214"/>
+      <c r="AF78" s="214"/>
+      <c r="AG78" s="214"/>
       <c r="AH78" s="199"/>
       <c r="AI78" s="199"/>
-      <c r="AJ78" s="208" t="s">
+      <c r="AJ78" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="AK78" s="208"/>
-      <c r="AL78" s="208"/>
-      <c r="AM78" s="208"/>
-      <c r="AN78" s="208"/>
-      <c r="AO78" s="208" t="s">
+      <c r="AK78" s="214"/>
+      <c r="AL78" s="214"/>
+      <c r="AM78" s="214"/>
+      <c r="AN78" s="214"/>
+      <c r="AO78" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="AP78" s="208"/>
-      <c r="AQ78" s="208"/>
-      <c r="AR78" s="208"/>
-      <c r="AS78" s="208"/>
-      <c r="AT78" s="208"/>
-      <c r="AU78" s="208"/>
-      <c r="AV78" s="208"/>
-      <c r="AW78" s="208"/>
-      <c r="AX78" s="208"/>
-      <c r="AY78" s="208"/>
-      <c r="AZ78" s="208"/>
-      <c r="BA78" s="208"/>
+      <c r="AP78" s="214"/>
+      <c r="AQ78" s="214"/>
+      <c r="AR78" s="214"/>
+      <c r="AS78" s="214"/>
+      <c r="AT78" s="214"/>
+      <c r="AU78" s="214"/>
+      <c r="AV78" s="214"/>
+      <c r="AW78" s="214"/>
+      <c r="AX78" s="214"/>
+      <c r="AY78" s="214"/>
+      <c r="AZ78" s="214"/>
+      <c r="BA78" s="214"/>
       <c r="BB78" s="199"/>
       <c r="BC78" s="199"/>
-      <c r="BD78" s="208" t="s">
+      <c r="BD78" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="BE78" s="208"/>
-      <c r="BF78" s="208"/>
-      <c r="BG78" s="208"/>
-      <c r="BH78" s="208"/>
-      <c r="BI78" s="208"/>
-      <c r="BJ78" s="208"/>
-      <c r="BK78" s="208"/>
-      <c r="BL78" s="208"/>
-      <c r="BM78" s="208"/>
-      <c r="BN78" s="208" t="s">
+      <c r="BE78" s="214"/>
+      <c r="BF78" s="214"/>
+      <c r="BG78" s="214"/>
+      <c r="BH78" s="214"/>
+      <c r="BI78" s="214"/>
+      <c r="BJ78" s="214"/>
+      <c r="BK78" s="214"/>
+      <c r="BL78" s="214"/>
+      <c r="BM78" s="214"/>
+      <c r="BN78" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="BO78" s="211"/>
+      <c r="BO78" s="224"/>
     </row>
     <row r="79" spans="1:67" ht="15" customHeight="1">
       <c r="A79" s="156"/>
-      <c r="B79" s="239"/>
-      <c r="C79" s="239"/>
+      <c r="B79" s="204"/>
+      <c r="C79" s="204"/>
       <c r="D79" s="48" t="s">
         <v>1</v>
       </c>
@@ -21351,7 +21351,7 @@
         <f>IFERROR(E79/P80,NA())</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G79" s="241"/>
+      <c r="G79" s="206"/>
       <c r="H79" s="84"/>
       <c r="I79" s="78" t="s">
         <v>13</v>
@@ -21377,8 +21377,8 @@
       <c r="P79" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Q79" s="210"/>
-      <c r="R79" s="210"/>
+      <c r="Q79" s="222"/>
+      <c r="R79" s="222"/>
       <c r="S79" s="79"/>
       <c r="T79" s="85"/>
       <c r="V79" s="160">
@@ -21403,7 +21403,7 @@
       <c r="AA79" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AB79" s="254">
+      <c r="AB79" s="201">
         <f>IF(AF85,IF(S82="2+",5/6,IF(S82="3+",4/6,IF(S82="4+",3/6,IF(S82="5+",2/6,IF(S82="6+",1/6,IF(S82="7+",0/6)))))),0)</f>
         <v>0</v>
       </c>
@@ -21455,35 +21455,35 @@
         <f>IF(OR(AF81,AF82),AL84*AN79,AL84*AP79)</f>
         <v>2</v>
       </c>
-      <c r="AS79" s="212" t="s">
+      <c r="AS79" s="234" t="s">
         <v>66</v>
       </c>
       <c r="AT79" s="20">
         <f>IF(AF82,AL84-(AL84*AN79),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU79" s="212" t="s">
+      <c r="AU79" s="234" t="s">
         <v>60</v>
       </c>
       <c r="AV79" s="20">
-        <f>AT79*AP79</f>
-        <v>0</v>
-      </c>
-      <c r="AW79" s="212" t="s">
+        <f t="shared" ref="AV79:AV84" si="15">AT79*AP79</f>
+        <v>0</v>
+      </c>
+      <c r="AW79" s="234" t="s">
         <v>67</v>
       </c>
       <c r="AX79" s="20">
         <f>(AL84+AT79)*(IF((AB79+X80)&gt;5/6,5/6,AB79+X80))</f>
         <v>0</v>
       </c>
-      <c r="AY79" s="212" t="s">
+      <c r="AY79" s="234" t="s">
         <v>93</v>
       </c>
       <c r="AZ79" s="20">
-        <f>SUM(AR79,AV79)</f>
+        <f t="shared" ref="AZ79:AZ84" si="16">SUM(AR79,AV79)</f>
         <v>2</v>
       </c>
-      <c r="BA79" s="212" t="s">
+      <c r="BA79" s="234" t="s">
         <v>63</v>
       </c>
       <c r="BB79" s="200">
@@ -21497,28 +21497,28 @@
         <f>IF(AB82&lt;0,AX79*BB80,AX79*BB79)</f>
         <v>0</v>
       </c>
-      <c r="BE79" s="212" t="s">
+      <c r="BE79" s="234" t="s">
         <v>107</v>
       </c>
       <c r="BF79" s="200">
         <f>BD79+((AZ79-AX79)*BB79)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BG79" s="212" t="s">
+      <c r="BG79" s="234" t="s">
         <v>108</v>
       </c>
       <c r="BH79" s="18">
         <f>IF(AB81&gt;0,(BD79*AB81)+((BF79-BD79)*V84),BF79*V84)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="BI79" s="212" t="s">
+      <c r="BI79" s="234" t="s">
         <v>65</v>
       </c>
       <c r="BJ79" s="18">
         <f>(AL83*Z82)+(AB80*AX79)</f>
         <v>0</v>
       </c>
-      <c r="BK79" s="212" t="s">
+      <c r="BK79" s="234" t="s">
         <v>64</v>
       </c>
       <c r="BL79" s="200">
@@ -21538,8 +21538,8 @@
     </row>
     <row r="80" spans="1:67" ht="15" customHeight="1">
       <c r="A80" s="156"/>
-      <c r="B80" s="239"/>
-      <c r="C80" s="239"/>
+      <c r="B80" s="204"/>
+      <c r="C80" s="204"/>
       <c r="D80" s="48" t="s">
         <v>2</v>
       </c>
@@ -21551,7 +21551,7 @@
         <f>IFERROR(E80/P80,NA())</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G80" s="241"/>
+      <c r="G80" s="206"/>
       <c r="H80" s="84"/>
       <c r="I80" s="5" t="s">
         <v>116</v>
@@ -21577,8 +21577,8 @@
       <c r="P80" s="5">
         <v>30</v>
       </c>
-      <c r="Q80" s="210"/>
-      <c r="R80" s="210"/>
+      <c r="Q80" s="222"/>
+      <c r="R80" s="222"/>
       <c r="S80" s="79"/>
       <c r="T80" s="85"/>
       <c r="V80" s="160">
@@ -21651,27 +21651,27 @@
         <f>IF(OR(AF81,AF82),AL84*AN80,AL84*AP80)</f>
         <v>1.5</v>
       </c>
-      <c r="AS80" s="212"/>
+      <c r="AS80" s="234"/>
       <c r="AT80" s="20">
         <f>IF(AF82,AL84-(AL84*AN80),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU80" s="212"/>
+      <c r="AU80" s="234"/>
       <c r="AV80" s="20">
-        <f>AT80*AP80</f>
-        <v>0</v>
-      </c>
-      <c r="AW80" s="212"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW80" s="234"/>
       <c r="AX80" s="20">
         <f>(AL84+AT80)*(IF((AB79+X80)&gt;5/6,5/6,AB79+X80))</f>
         <v>0</v>
       </c>
-      <c r="AY80" s="212"/>
+      <c r="AY80" s="234"/>
       <c r="AZ80" s="20">
-        <f>SUM(AR80,AV80)</f>
+        <f t="shared" si="16"/>
         <v>1.5</v>
       </c>
-      <c r="BA80" s="212"/>
+      <c r="BA80" s="234"/>
       <c r="BB80" s="200">
         <f>IF((1-(V79+AB82))&gt;1,1,1-(V79+AB82))</f>
         <v>0.33333333333333337</v>
@@ -21683,24 +21683,24 @@
         <f>IF(AB82&lt;0,AX80*BB80,AX80*BB79)</f>
         <v>0</v>
       </c>
-      <c r="BE80" s="212"/>
+      <c r="BE80" s="234"/>
       <c r="BF80" s="200">
         <f>BD80+((AZ80-AX80)*BB79)</f>
         <v>0.5</v>
       </c>
-      <c r="BG80" s="212"/>
+      <c r="BG80" s="234"/>
       <c r="BH80" s="18">
         <f>IF(AB81&gt;0,(BD80*AB81)+((BF80-BD80)*V84),BF80*V84)</f>
         <v>0.5</v>
       </c>
-      <c r="BI80" s="212"/>
+      <c r="BI80" s="234"/>
       <c r="BJ80" s="18">
         <f>(AL83*Z82)+(AB80*AX80)</f>
         <v>0</v>
       </c>
-      <c r="BK80" s="212"/>
+      <c r="BK80" s="234"/>
       <c r="BL80" s="200">
-        <f t="shared" ref="BL80:BL85" si="5">IF(AD80,BH80+BJ80,NA())</f>
+        <f t="shared" ref="BL80:BL84" si="17">IF(AD80,BH80+BJ80,NA())</f>
         <v>0.5</v>
       </c>
       <c r="BM80" s="124" t="s">
@@ -21716,8 +21716,8 @@
     </row>
     <row r="81" spans="1:79" ht="15" customHeight="1">
       <c r="A81" s="156"/>
-      <c r="B81" s="239"/>
-      <c r="C81" s="239"/>
+      <c r="B81" s="204"/>
+      <c r="C81" s="204"/>
       <c r="D81" s="48" t="s">
         <v>3</v>
       </c>
@@ -21729,19 +21729,19 @@
         <f>IFERROR(E81/P80,NA())</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="G81" s="241"/>
+      <c r="G81" s="206"/>
       <c r="H81" s="84"/>
-      <c r="I81" s="217"/>
-      <c r="J81" s="217"/>
-      <c r="K81" s="217"/>
-      <c r="L81" s="217"/>
-      <c r="M81" s="217"/>
-      <c r="N81" s="217"/>
-      <c r="O81" s="217"/>
-      <c r="P81" s="217"/>
-      <c r="Q81" s="217"/>
-      <c r="R81" s="217"/>
-      <c r="S81" s="217"/>
+      <c r="I81" s="235"/>
+      <c r="J81" s="235"/>
+      <c r="K81" s="235"/>
+      <c r="L81" s="235"/>
+      <c r="M81" s="235"/>
+      <c r="N81" s="235"/>
+      <c r="O81" s="235"/>
+      <c r="P81" s="235"/>
+      <c r="Q81" s="235"/>
+      <c r="R81" s="235"/>
+      <c r="S81" s="235"/>
       <c r="T81" s="85"/>
       <c r="V81" s="162">
         <f>(IF(L80="D3",2,IF(L80="2D3",4,IF(L80="D6",3.5,IF(L80="2D6",7,IF(L80="3D6",10.5,L80))))))</f>
@@ -21817,51 +21817,51 @@
         <f>IF(OR(AF81,AF82),AL84*AN81,AL84*AP81)</f>
         <v>1</v>
       </c>
-      <c r="AS81" s="212"/>
+      <c r="AS81" s="234"/>
       <c r="AT81" s="20">
         <f>IF(AF82,AL84-(AL84*AN81),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU81" s="212"/>
+      <c r="AU81" s="234"/>
       <c r="AV81" s="20">
-        <f>AT81*AP81</f>
-        <v>0</v>
-      </c>
-      <c r="AW81" s="212"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW81" s="234"/>
       <c r="AX81" s="20">
         <f>(AL84+AT81)*(IF((AB79+X80)&gt;5/6,5/6,AB79+X80))</f>
         <v>0</v>
       </c>
-      <c r="AY81" s="212"/>
+      <c r="AY81" s="234"/>
       <c r="AZ81" s="20">
-        <f>SUM(AR81,AV81)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="BA81" s="212"/>
+      <c r="BA81" s="234"/>
       <c r="BB81" s="200"/>
       <c r="BC81" s="200"/>
       <c r="BD81" s="20">
         <f>IF(AB82&lt;0,AX81*BB80,AX81*BB79)</f>
         <v>0</v>
       </c>
-      <c r="BE81" s="212"/>
+      <c r="BE81" s="234"/>
       <c r="BF81" s="200">
         <f>BD81+((AZ81-AX81)*BB79)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG81" s="212"/>
+      <c r="BG81" s="234"/>
       <c r="BH81" s="18">
         <f>IF(AB81&gt;0,(BD81*AB81)+((BF81-BD81)*V84),BF81*V84)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI81" s="212"/>
+      <c r="BI81" s="234"/>
       <c r="BJ81" s="18">
         <f>(AL83*Z82)+(AB80*AX81)</f>
         <v>0</v>
       </c>
-      <c r="BK81" s="212"/>
+      <c r="BK81" s="234"/>
       <c r="BL81" s="200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM81" s="124" t="s">
@@ -21884,7 +21884,7 @@
         <f>IFERROR(E82/P80,NA())</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="G82" s="241"/>
+      <c r="G82" s="206"/>
       <c r="H82" s="84"/>
       <c r="I82" s="185" t="str">
         <f>"+- to hit"</f>
@@ -21901,17 +21901,17 @@
       <c r="M82" s="5">
         <v>0</v>
       </c>
-      <c r="N82" s="210" t="s">
+      <c r="N82" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="O82" s="210"/>
+      <c r="O82" s="222"/>
       <c r="P82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q82" s="210" t="s">
+      <c r="Q82" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="R82" s="210"/>
+      <c r="R82" s="222"/>
       <c r="S82" s="5" t="s">
         <v>19</v>
       </c>
@@ -21990,51 +21990,51 @@
         <f>IF(OR(AF81,AF82),AL84*AN82,AL84*AP82)</f>
         <v>1</v>
       </c>
-      <c r="AS82" s="212"/>
+      <c r="AS82" s="234"/>
       <c r="AT82" s="20">
         <f>IF(AF82,AL84-(AL84*AN82),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU82" s="212"/>
+      <c r="AU82" s="234"/>
       <c r="AV82" s="20">
-        <f>AT82*AP82</f>
-        <v>0</v>
-      </c>
-      <c r="AW82" s="212"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW82" s="234"/>
       <c r="AX82" s="20">
         <f>(AL84+AT82)*(IF((AB79+X80)&gt;5/6,5/6,AB79+X80))</f>
         <v>0</v>
       </c>
-      <c r="AY82" s="212"/>
+      <c r="AY82" s="234"/>
       <c r="AZ82" s="20">
-        <f>SUM(AR82,AV82)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="BA82" s="212"/>
+      <c r="BA82" s="234"/>
       <c r="BB82" s="200"/>
       <c r="BC82" s="200"/>
       <c r="BD82" s="20">
         <f>IF(AB82&lt;0,AX82*BB80,AX82*BB79)</f>
         <v>0</v>
       </c>
-      <c r="BE82" s="212"/>
+      <c r="BE82" s="234"/>
       <c r="BF82" s="200">
         <f>BD82+((AZ82-AX82)*BB79)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG82" s="212"/>
+      <c r="BG82" s="234"/>
       <c r="BH82" s="18">
         <f>IF(AB81&gt;0,(BD82*AB81)+((BF82-BD82)*V84),BF82*V84)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI82" s="212"/>
+      <c r="BI82" s="234"/>
       <c r="BJ82" s="18">
         <f>(AL83*Z82)+(AB80*AX82)</f>
         <v>0</v>
       </c>
-      <c r="BK82" s="212"/>
+      <c r="BK82" s="234"/>
       <c r="BL82" s="200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM82" s="124" t="s">
@@ -22057,28 +22057,28 @@
         <f>IFERROR(E83/P80,NA())</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="G83" s="241"/>
+      <c r="G83" s="206"/>
       <c r="H83" s="87"/>
       <c r="I83" s="80"/>
       <c r="J83" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="210" t="s">
+      <c r="K83" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="L83" s="210"/>
-      <c r="M83" s="210"/>
-      <c r="N83" s="210" t="s">
+      <c r="L83" s="222"/>
+      <c r="M83" s="222"/>
+      <c r="N83" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="O83" s="210"/>
+      <c r="O83" s="222"/>
       <c r="P83" s="5">
         <v>0</v>
       </c>
-      <c r="Q83" s="210" t="s">
+      <c r="Q83" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="R83" s="210"/>
+      <c r="R83" s="222"/>
       <c r="S83" s="5">
         <v>0</v>
       </c>
@@ -22140,51 +22140,51 @@
         <f>IF(OR(AF81,AF82),AL84*AN83,AL84*AP83)</f>
         <v>1</v>
       </c>
-      <c r="AS83" s="212"/>
+      <c r="AS83" s="234"/>
       <c r="AT83" s="20">
         <f>IF(AF82,AL84-(AL84*AN83),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU83" s="212"/>
+      <c r="AU83" s="234"/>
       <c r="AV83" s="20">
-        <f>AT83*AP83</f>
-        <v>0</v>
-      </c>
-      <c r="AW83" s="212"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW83" s="234"/>
       <c r="AX83" s="20">
         <f>(AL84+AT83)*(IF((AB79+X80)&gt;5/6,5/6,AB79+X80))</f>
         <v>0</v>
       </c>
-      <c r="AY83" s="212"/>
+      <c r="AY83" s="234"/>
       <c r="AZ83" s="20">
-        <f>SUM(AR83,AV83)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="BA83" s="212"/>
+      <c r="BA83" s="234"/>
       <c r="BB83" s="200"/>
       <c r="BC83" s="200"/>
       <c r="BD83" s="20">
         <f>IF(AB82&lt;0,AX83*BB80,AX83*BB79)</f>
         <v>0</v>
       </c>
-      <c r="BE83" s="212"/>
+      <c r="BE83" s="234"/>
       <c r="BF83" s="200">
         <f>BD83+((AZ83-AX83)*BB79)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BG83" s="212"/>
+      <c r="BG83" s="234"/>
       <c r="BH83" s="18">
         <f>IF(AB81&gt;0,(BD83*AB81)+((BF83-BD83)*V84),BF83*V84)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="BI83" s="212"/>
+      <c r="BI83" s="234"/>
       <c r="BJ83" s="18">
         <f>(AL83*Z82)+(AB80*AX83)</f>
         <v>0</v>
       </c>
-      <c r="BK83" s="212"/>
+      <c r="BK83" s="234"/>
       <c r="BL83" s="200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="BM83" s="124" t="s">
@@ -22207,28 +22207,28 @@
         <f>IFERROR(E84/P80,NA())</f>
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="G84" s="241"/>
+      <c r="G84" s="206"/>
       <c r="H84" s="84"/>
-      <c r="I84" s="209" t="s">
+      <c r="I84" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="J84" s="209"/>
-      <c r="K84" s="209" t="s">
+      <c r="J84" s="223"/>
+      <c r="K84" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L84" s="209"/>
-      <c r="M84" s="209"/>
-      <c r="N84" s="210" t="s">
+      <c r="L84" s="223"/>
+      <c r="M84" s="223"/>
+      <c r="N84" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="O84" s="210"/>
+      <c r="O84" s="222"/>
       <c r="P84" s="5">
         <v>0</v>
       </c>
-      <c r="Q84" s="210" t="s">
+      <c r="Q84" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="R84" s="210"/>
+      <c r="R84" s="222"/>
       <c r="S84" s="5">
         <v>0</v>
       </c>
@@ -22292,51 +22292,51 @@
         <f>IF(OR(AF81,AF82),AL84*AN84,AL84*AP84)</f>
         <v>0.5</v>
       </c>
-      <c r="AS84" s="212"/>
+      <c r="AS84" s="234"/>
       <c r="AT84" s="20">
         <f>IF(AF82,AL84-(AL84*AN84),IF(AF81,(1/6)*AL84,0))</f>
         <v>0</v>
       </c>
-      <c r="AU84" s="212"/>
+      <c r="AU84" s="234"/>
       <c r="AV84" s="20">
-        <f>AT84*AP84</f>
-        <v>0</v>
-      </c>
-      <c r="AW84" s="212"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW84" s="234"/>
       <c r="AX84" s="20">
         <f>(AL84+AT84)*(IF((AB79+X80)&gt;5/6,5/6,AB79+X80))</f>
         <v>0</v>
       </c>
-      <c r="AY84" s="212"/>
+      <c r="AY84" s="234"/>
       <c r="AZ84" s="20">
-        <f>SUM(AR84,AV84)</f>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="BA84" s="212"/>
+      <c r="BA84" s="234"/>
       <c r="BB84" s="200"/>
       <c r="BC84" s="200"/>
       <c r="BD84" s="20">
         <f>IF(AB82&lt;0,AX84*BB80,AX84*BB79)</f>
         <v>0</v>
       </c>
-      <c r="BE84" s="212"/>
+      <c r="BE84" s="234"/>
       <c r="BF84" s="200">
         <f>BD84+((AZ84-AX84)*BB79)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BG84" s="212"/>
+      <c r="BG84" s="234"/>
       <c r="BH84" s="18">
         <f>IF(AB81&gt;0,(BD84*AB81)+((BF84-BD84)*V84),BF84*V84)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="BI84" s="212"/>
+      <c r="BI84" s="234"/>
       <c r="BJ84" s="18">
         <f>(AL83*Z82)+(AB80*AX84)</f>
         <v>0</v>
       </c>
-      <c r="BK84" s="212"/>
+      <c r="BK84" s="234"/>
       <c r="BL84" s="200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="BM84" s="124" t="s">
@@ -22351,7 +22351,7 @@
       <c r="D85" s="48"/>
       <c r="E85" s="48"/>
       <c r="F85" s="48"/>
-      <c r="G85" s="241"/>
+      <c r="G85" s="206"/>
       <c r="H85" s="84"/>
       <c r="I85" s="185"/>
       <c r="J85" s="185"/>
@@ -22364,17 +22364,17 @@
       <c r="M85" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N85" s="210" t="s">
+      <c r="N85" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="O85" s="210"/>
+      <c r="O85" s="222"/>
       <c r="P85" s="5">
         <v>0</v>
       </c>
-      <c r="Q85" s="219" t="s">
+      <c r="Q85" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="R85" s="219"/>
+      <c r="R85" s="225"/>
       <c r="S85" s="5">
         <v>0</v>
       </c>
@@ -22455,7 +22455,7 @@
         <f>IFERROR(E86/P80,NA())</f>
         <v>1.2962962962962963E-2</v>
       </c>
-      <c r="G86" s="241"/>
+      <c r="G86" s="206"/>
       <c r="H86" s="84"/>
       <c r="I86" s="80"/>
       <c r="J86" s="80"/>
@@ -22613,11 +22613,11 @@
       <c r="CA88" s="26"/>
     </row>
     <row r="89" spans="1:79" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A89" s="232" t="s">
+      <c r="A89" s="227" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="233"/>
-      <c r="C89" s="233"/>
+      <c r="B89" s="228"/>
+      <c r="C89" s="228"/>
       <c r="D89" s="96"/>
       <c r="E89" s="97" t="s">
         <v>11</v>
@@ -22625,7 +22625,7 @@
       <c r="F89" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="236"/>
+      <c r="G89" s="231"/>
       <c r="I89" s="78" t="s">
         <v>13</v>
       </c>
@@ -22638,26 +22638,26 @@
       <c r="N89" s="95"/>
       <c r="O89" s="95"/>
       <c r="U89" s="17"/>
-      <c r="V89" s="218" t="s">
+      <c r="V89" s="233" t="s">
         <v>81</v>
       </c>
-      <c r="W89" s="201"/>
-      <c r="X89" s="201"/>
-      <c r="Y89" s="201"/>
-      <c r="Z89" s="201"/>
-      <c r="AA89" s="201"/>
-      <c r="AB89" s="201"/>
-      <c r="AC89" s="201"/>
-      <c r="AD89" s="201" t="s">
+      <c r="W89" s="215"/>
+      <c r="X89" s="215"/>
+      <c r="Y89" s="215"/>
+      <c r="Z89" s="215"/>
+      <c r="AA89" s="215"/>
+      <c r="AB89" s="215"/>
+      <c r="AC89" s="215"/>
+      <c r="AD89" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="AE89" s="201"/>
-      <c r="AF89" s="201"/>
-      <c r="AG89" s="201"/>
-      <c r="AH89" s="201" t="s">
+      <c r="AE89" s="215"/>
+      <c r="AF89" s="215"/>
+      <c r="AG89" s="215"/>
+      <c r="AH89" s="215" t="s">
         <v>80</v>
       </c>
-      <c r="AI89" s="201"/>
+      <c r="AI89" s="215"/>
       <c r="BO89" s="117"/>
       <c r="BP89" s="26"/>
       <c r="BQ89" s="26"/>
@@ -22673,9 +22673,9 @@
       <c r="CA89" s="26"/>
     </row>
     <row r="90" spans="1:79" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A90" s="234"/>
-      <c r="B90" s="235"/>
-      <c r="C90" s="235"/>
+      <c r="A90" s="229"/>
+      <c r="B90" s="230"/>
+      <c r="C90" s="230"/>
       <c r="D90" s="98" t="s">
         <v>1</v>
       </c>
@@ -22687,7 +22687,7 @@
         <f>IFERROR(E90/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G90" s="237"/>
+      <c r="G90" s="232"/>
       <c r="I90" s="4"/>
       <c r="J90" s="5"/>
       <c r="K90" s="95"/>
@@ -22731,9 +22731,9 @@
       <c r="CA90" s="26"/>
     </row>
     <row r="91" spans="1:79" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A91" s="234"/>
-      <c r="B91" s="235"/>
-      <c r="C91" s="235"/>
+      <c r="A91" s="229"/>
+      <c r="B91" s="230"/>
+      <c r="C91" s="230"/>
       <c r="D91" s="98" t="s">
         <v>2</v>
       </c>
@@ -22745,7 +22745,7 @@
         <f>IFERROR(E91/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G91" s="237"/>
+      <c r="G91" s="232"/>
       <c r="U91" s="17"/>
       <c r="V91" s="163">
         <f>SUM(IF(V35=1,IFERROR(BL30,0),0),IF(V45=1,IFERROR(BL40,0),0),IF(V55=1,IFERROR(BL50,0),0),IF(V65=1,IFERROR(BL60,0),0),IF(V75=1,IFERROR(BL70,0),0),IF(V85=1,IFERROR(BL80,0),0))</f>
@@ -22782,9 +22782,9 @@
       <c r="CA91" s="26"/>
     </row>
     <row r="92" spans="1:79" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A92" s="234"/>
-      <c r="B92" s="235"/>
-      <c r="C92" s="235"/>
+      <c r="A92" s="229"/>
+      <c r="B92" s="230"/>
+      <c r="C92" s="230"/>
       <c r="D92" s="98" t="s">
         <v>3</v>
       </c>
@@ -22796,7 +22796,7 @@
         <f>IFERROR(E92/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G92" s="237"/>
+      <c r="G92" s="232"/>
       <c r="U92" s="17"/>
       <c r="V92" s="163">
         <f>SUM(IF(V35=1,IFERROR(BL31,0),0),IF(V45=1,IFERROR(BL41,0),0),IF(V55=1,IFERROR(BL51,0),0),IF(V65=1,IFERROR(BL61,0),0),IF(V75=1,IFERROR(BL71,0),0),IF(V85=1,IFERROR(BL81,0),0))</f>
@@ -22826,9 +22826,9 @@
       <c r="CA92" s="26"/>
     </row>
     <row r="93" spans="1:79" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A93" s="234"/>
-      <c r="B93" s="235"/>
-      <c r="C93" s="235"/>
+      <c r="A93" s="229"/>
+      <c r="B93" s="230"/>
+      <c r="C93" s="230"/>
       <c r="D93" s="98" t="s">
         <v>4</v>
       </c>
@@ -22840,7 +22840,7 @@
         <f>IFERROR(E93/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G93" s="237"/>
+      <c r="G93" s="232"/>
       <c r="U93" s="17"/>
       <c r="V93" s="163">
         <f>SUM(IF(V35=1,IFERROR(BL32,0),0),IF(V45=1,IFERROR(BL42,0),0),IF(V55=1,IFERROR(BL52,0),0),IF(V65=1,IFERROR(BL62,0),0),IF(V75=1,IFERROR(BL72,0),0),IF(V85=1,IFERROR(BL82,0),0))</f>
@@ -22870,9 +22870,9 @@
       <c r="CA93" s="26"/>
     </row>
     <row r="94" spans="1:79" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A94" s="234"/>
-      <c r="B94" s="235"/>
-      <c r="C94" s="235"/>
+      <c r="A94" s="229"/>
+      <c r="B94" s="230"/>
+      <c r="C94" s="230"/>
       <c r="D94" s="98" t="s">
         <v>5</v>
       </c>
@@ -22884,7 +22884,7 @@
         <f>IFERROR(E94/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G94" s="237"/>
+      <c r="G94" s="232"/>
       <c r="U94" s="17"/>
       <c r="V94" s="163">
         <f>SUM(IF(V35=1,IFERROR(BL33,0),0),IF(V45=1,IFERROR(BL43,0),0),IF(V55=1,IFERROR(BL53,0),0),IF(V65=1,IFERROR(BL63,0),0),IF(V75=1,IFERROR(BL73,0),0),IF(V85=1,IFERROR(BL83,0),0))</f>
@@ -22928,7 +22928,7 @@
         <f>IFERROR(E95/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G95" s="237"/>
+      <c r="G95" s="232"/>
       <c r="U95" s="17"/>
       <c r="V95" s="163">
         <f>SUM(IF(V35=1,IFERROR(BL34,0),0),IF(V45=1,IFERROR(BL44,0),0),IF(V55=1,IFERROR(BL54,0),0),IF(V65=1,IFERROR(BL64,0),0),IF(V75=1,IFERROR(BL74,0),0),IF(V85=1,IFERROR(BL84,0),0))</f>
@@ -22964,7 +22964,7 @@
       <c r="D96" s="98"/>
       <c r="E96" s="98"/>
       <c r="F96" s="98"/>
-      <c r="G96" s="237"/>
+      <c r="G96" s="232"/>
       <c r="U96" s="17"/>
       <c r="V96" s="116"/>
       <c r="AD96" s="18">
@@ -23009,7 +23009,7 @@
         <f>IFERROR(E97/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G97" s="237"/>
+      <c r="G97" s="232"/>
       <c r="U97" s="17"/>
       <c r="V97" s="116"/>
       <c r="BO97" s="117"/>
@@ -23051,11 +23051,11 @@
       <c r="CA98" s="26"/>
     </row>
     <row r="99" spans="1:92" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A99" s="248" t="s">
+      <c r="A99" s="216" t="s">
         <v>90</v>
       </c>
-      <c r="B99" s="249"/>
-      <c r="C99" s="249"/>
+      <c r="B99" s="217"/>
+      <c r="C99" s="217"/>
       <c r="D99" s="106"/>
       <c r="E99" s="107" t="s">
         <v>11</v>
@@ -23063,7 +23063,7 @@
       <c r="F99" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="252"/>
+      <c r="G99" s="220"/>
       <c r="I99" s="78" t="s">
         <v>13</v>
       </c>
@@ -23071,26 +23071,26 @@
         <v>8</v>
       </c>
       <c r="U99" s="17"/>
-      <c r="V99" s="207" t="s">
+      <c r="V99" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="W99" s="208"/>
-      <c r="X99" s="208"/>
-      <c r="Y99" s="208"/>
-      <c r="Z99" s="208"/>
-      <c r="AA99" s="208"/>
-      <c r="AB99" s="208"/>
-      <c r="AC99" s="208"/>
-      <c r="AD99" s="208" t="s">
+      <c r="W99" s="214"/>
+      <c r="X99" s="214"/>
+      <c r="Y99" s="214"/>
+      <c r="Z99" s="214"/>
+      <c r="AA99" s="214"/>
+      <c r="AB99" s="214"/>
+      <c r="AC99" s="214"/>
+      <c r="AD99" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="AE99" s="208"/>
-      <c r="AF99" s="208"/>
-      <c r="AG99" s="208"/>
-      <c r="AH99" s="208" t="s">
+      <c r="AE99" s="214"/>
+      <c r="AF99" s="214"/>
+      <c r="AG99" s="214"/>
+      <c r="AH99" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="AI99" s="208"/>
+      <c r="AI99" s="214"/>
       <c r="AJ99" s="43"/>
       <c r="AK99" s="43"/>
       <c r="AL99" s="43"/>
@@ -23137,9 +23137,9 @@
       <c r="CA99" s="26"/>
     </row>
     <row r="100" spans="1:92" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A100" s="250"/>
-      <c r="B100" s="251"/>
-      <c r="C100" s="251"/>
+      <c r="A100" s="218"/>
+      <c r="B100" s="219"/>
+      <c r="C100" s="219"/>
       <c r="D100" s="108" t="s">
         <v>1</v>
       </c>
@@ -23151,7 +23151,7 @@
         <f>IFERROR(E100/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G100" s="253"/>
+      <c r="G100" s="221"/>
       <c r="I100" s="4"/>
       <c r="J100" s="5"/>
       <c r="U100" s="17"/>
@@ -23190,9 +23190,9 @@
       <c r="CA100" s="26"/>
     </row>
     <row r="101" spans="1:92" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A101" s="250"/>
-      <c r="B101" s="251"/>
-      <c r="C101" s="251"/>
+      <c r="A101" s="218"/>
+      <c r="B101" s="219"/>
+      <c r="C101" s="219"/>
       <c r="D101" s="108" t="s">
         <v>2</v>
       </c>
@@ -23204,7 +23204,7 @@
         <f>IFERROR(E101/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G101" s="253"/>
+      <c r="G101" s="221"/>
       <c r="U101" s="17"/>
       <c r="V101" s="163">
         <f>SUM(IF(V35=2,IFERROR(BL30,0),0),IF(V45=2,IFERROR(BL40,0),0),IF(V55=2,IFERROR(BL50,0),0),IF(V65=2,IFERROR(BL60,0),0),IF(V75=2,IFERROR(BL70,0),0),IF(V85=2,IFERROR(BL80,0),0))</f>
@@ -23241,9 +23241,9 @@
       <c r="CA101" s="26"/>
     </row>
     <row r="102" spans="1:92" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A102" s="250"/>
-      <c r="B102" s="251"/>
-      <c r="C102" s="251"/>
+      <c r="A102" s="218"/>
+      <c r="B102" s="219"/>
+      <c r="C102" s="219"/>
       <c r="D102" s="108" t="s">
         <v>3</v>
       </c>
@@ -23255,7 +23255,7 @@
         <f>IFERROR(E102/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G102" s="253"/>
+      <c r="G102" s="221"/>
       <c r="U102" s="17"/>
       <c r="V102" s="163">
         <f>SUM(IF(V35=2,IFERROR(BL31,0),0),IF(V45=2,IFERROR(BL41,0),0),IF(V55=2,IFERROR(BL51,0),0),IF(V65=2,IFERROR(BL61,0),0),IF(V75=2,IFERROR(BL71,0),0),IF(V85=2,IFERROR(BL81,0),0))</f>
@@ -23285,9 +23285,9 @@
       <c r="CA102" s="26"/>
     </row>
     <row r="103" spans="1:92" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A103" s="250"/>
-      <c r="B103" s="251"/>
-      <c r="C103" s="251"/>
+      <c r="A103" s="218"/>
+      <c r="B103" s="219"/>
+      <c r="C103" s="219"/>
       <c r="D103" s="108" t="s">
         <v>4</v>
       </c>
@@ -23299,7 +23299,7 @@
         <f>IFERROR(E103/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G103" s="253"/>
+      <c r="G103" s="221"/>
       <c r="U103" s="45"/>
       <c r="V103" s="163">
         <f>SUM(IF(V35=2,IFERROR(BL32,0),0),IF(V45=2,IFERROR(BL42,0),0),IF(V55=2,IFERROR(BL52,0),0),IF(V65=2,IFERROR(BL62,0),0),IF(V75=2,IFERROR(BL72,0),0),IF(V85=2,IFERROR(BL82,0),0))</f>
@@ -23330,9 +23330,9 @@
       <c r="CM103" s="46"/>
     </row>
     <row r="104" spans="1:92" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A104" s="250"/>
-      <c r="B104" s="251"/>
-      <c r="C104" s="251"/>
+      <c r="A104" s="218"/>
+      <c r="B104" s="219"/>
+      <c r="C104" s="219"/>
       <c r="D104" s="108" t="s">
         <v>5</v>
       </c>
@@ -23344,7 +23344,7 @@
         <f>IFERROR(E104/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G104" s="253"/>
+      <c r="G104" s="221"/>
       <c r="U104" s="17"/>
       <c r="V104" s="163">
         <f>SUM(IF(V35=2,IFERROR(BL33,0),0),IF(V45=2,IFERROR(BL43,0),0),IF(V55=2,IFERROR(BL53,0),0),IF(V65=2,IFERROR(BL63,0),0),IF(V75=2,IFERROR(BL73,0),0),IF(V85=2,IFERROR(BL83,0),0))</f>
@@ -23391,7 +23391,7 @@
         <f>IFERROR(E105/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G105" s="253"/>
+      <c r="G105" s="221"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
@@ -23442,7 +23442,7 @@
       <c r="D106" s="108"/>
       <c r="E106" s="108"/>
       <c r="F106" s="108"/>
-      <c r="G106" s="253"/>
+      <c r="G106" s="221"/>
       <c r="I106" s="17"/>
       <c r="J106" s="26"/>
       <c r="K106" s="26"/>
@@ -23502,7 +23502,7 @@
         <f>IFERROR(E107/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G107" s="253"/>
+      <c r="G107" s="221"/>
       <c r="I107" s="17"/>
       <c r="J107" s="26"/>
       <c r="K107" s="26"/>
@@ -23574,11 +23574,11 @@
       <c r="CN108" s="47"/>
     </row>
     <row r="109" spans="1:92" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A109" s="242" t="s">
+      <c r="A109" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="B109" s="243"/>
-      <c r="C109" s="243"/>
+      <c r="B109" s="208"/>
+      <c r="C109" s="208"/>
       <c r="D109" s="142"/>
       <c r="E109" s="143" t="s">
         <v>11</v>
@@ -23586,7 +23586,7 @@
       <c r="F109" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="G109" s="246"/>
+      <c r="G109" s="211"/>
       <c r="I109" s="78" t="s">
         <v>13</v>
       </c>
@@ -23604,26 +23604,26 @@
       <c r="S109" s="26"/>
       <c r="T109" s="26"/>
       <c r="U109" s="17"/>
-      <c r="V109" s="207" t="s">
+      <c r="V109" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="W109" s="208"/>
-      <c r="X109" s="208"/>
-      <c r="Y109" s="208"/>
-      <c r="Z109" s="208"/>
-      <c r="AA109" s="208"/>
-      <c r="AB109" s="208"/>
-      <c r="AC109" s="208"/>
-      <c r="AD109" s="208" t="s">
+      <c r="W109" s="214"/>
+      <c r="X109" s="214"/>
+      <c r="Y109" s="214"/>
+      <c r="Z109" s="214"/>
+      <c r="AA109" s="214"/>
+      <c r="AB109" s="214"/>
+      <c r="AC109" s="214"/>
+      <c r="AD109" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="AE109" s="208"/>
-      <c r="AF109" s="208"/>
-      <c r="AG109" s="208"/>
-      <c r="AH109" s="208" t="s">
+      <c r="AE109" s="214"/>
+      <c r="AF109" s="214"/>
+      <c r="AG109" s="214"/>
+      <c r="AH109" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="AI109" s="208"/>
+      <c r="AI109" s="214"/>
       <c r="AJ109" s="43"/>
       <c r="AK109" s="43"/>
       <c r="AL109" s="43"/>
@@ -23673,9 +23673,9 @@
       <c r="CN109" s="47"/>
     </row>
     <row r="110" spans="1:92" s="13" customFormat="1">
-      <c r="A110" s="244"/>
-      <c r="B110" s="245"/>
-      <c r="C110" s="245"/>
+      <c r="A110" s="209"/>
+      <c r="B110" s="210"/>
+      <c r="C110" s="210"/>
       <c r="D110" s="144" t="s">
         <v>1</v>
       </c>
@@ -23687,7 +23687,7 @@
         <f>IFERROR(E110/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G110" s="247"/>
+      <c r="G110" s="212"/>
       <c r="I110" s="4"/>
       <c r="J110" s="5"/>
       <c r="K110" s="17"/>
@@ -23736,9 +23736,9 @@
       <c r="CA110" s="26"/>
     </row>
     <row r="111" spans="1:92" s="13" customFormat="1">
-      <c r="A111" s="244"/>
-      <c r="B111" s="245"/>
-      <c r="C111" s="245"/>
+      <c r="A111" s="209"/>
+      <c r="B111" s="210"/>
+      <c r="C111" s="210"/>
       <c r="D111" s="144" t="s">
         <v>2</v>
       </c>
@@ -23750,7 +23750,7 @@
         <f>IFERROR(E111/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G111" s="247"/>
+      <c r="G111" s="212"/>
       <c r="I111" s="17"/>
       <c r="J111" s="26"/>
       <c r="K111" s="17"/>
@@ -23799,9 +23799,9 @@
       <c r="CA111" s="26"/>
     </row>
     <row r="112" spans="1:92" s="13" customFormat="1">
-      <c r="A112" s="244"/>
-      <c r="B112" s="245"/>
-      <c r="C112" s="245"/>
+      <c r="A112" s="209"/>
+      <c r="B112" s="210"/>
+      <c r="C112" s="210"/>
       <c r="D112" s="144" t="s">
         <v>3</v>
       </c>
@@ -23813,7 +23813,7 @@
         <f>IFERROR(E112/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G112" s="247"/>
+      <c r="G112" s="212"/>
       <c r="I112" s="17"/>
       <c r="J112" s="26"/>
       <c r="K112" s="17"/>
@@ -23855,9 +23855,9 @@
       <c r="CA112" s="26"/>
     </row>
     <row r="113" spans="1:79" s="13" customFormat="1">
-      <c r="A113" s="244"/>
-      <c r="B113" s="245"/>
-      <c r="C113" s="245"/>
+      <c r="A113" s="209"/>
+      <c r="B113" s="210"/>
+      <c r="C113" s="210"/>
       <c r="D113" s="144" t="s">
         <v>4</v>
       </c>
@@ -23869,7 +23869,7 @@
         <f>IFERROR(E113/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G113" s="247"/>
+      <c r="G113" s="212"/>
       <c r="I113" s="17"/>
       <c r="J113" s="26"/>
       <c r="K113" s="17"/>
@@ -23921,9 +23921,9 @@
       <c r="CA113" s="26"/>
     </row>
     <row r="114" spans="1:79" s="13" customFormat="1">
-      <c r="A114" s="244"/>
-      <c r="B114" s="245"/>
-      <c r="C114" s="245"/>
+      <c r="A114" s="209"/>
+      <c r="B114" s="210"/>
+      <c r="C114" s="210"/>
       <c r="D114" s="144" t="s">
         <v>5</v>
       </c>
@@ -23935,7 +23935,7 @@
         <f>IFERROR(E114/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G114" s="247"/>
+      <c r="G114" s="212"/>
       <c r="U114" s="17"/>
       <c r="V114" s="163">
         <f>SUM(IF(V35=3,IFERROR(BL33,0),0),IF(V45=3,IFERROR(BL43,0),0),IF(V55=3,IFERROR(BL53,0),0),IF(V65=3,IFERROR(BL63,0),0),IF(V75=3,IFERROR(BL73,0),0),IF(V85=3,IFERROR(BL83,0),0))</f>
@@ -23979,7 +23979,7 @@
         <f>IFERROR(E115/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G115" s="247"/>
+      <c r="G115" s="212"/>
       <c r="U115" s="17"/>
       <c r="V115" s="163">
         <f>SUM(IF(V35=3,IFERROR(BL34,0),0),IF(V45=3,IFERROR(BL44,0),0),IF(V55=3,IFERROR(BL54,0),0),IF(V65=3,IFERROR(BL64,0),0),IF(V75=3,IFERROR(BL74,0),0),IF(V85=3,IFERROR(BL84,0),0))</f>
@@ -24015,7 +24015,7 @@
       <c r="D116" s="144"/>
       <c r="E116" s="144"/>
       <c r="F116" s="144"/>
-      <c r="G116" s="247"/>
+      <c r="G116" s="212"/>
       <c r="U116" s="17"/>
       <c r="V116" s="116"/>
       <c r="AD116" s="18">
@@ -24060,7 +24060,7 @@
         <f>IFERROR(E117/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G117" s="247"/>
+      <c r="G117" s="212"/>
       <c r="U117" s="17"/>
       <c r="V117" s="116"/>
       <c r="AG117" s="14"/>
@@ -38278,26 +38278,164 @@
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="B78:C81"/>
-    <mergeCell ref="G78:G86"/>
-    <mergeCell ref="A109:C114"/>
-    <mergeCell ref="G109:G117"/>
-    <mergeCell ref="V109:AC109"/>
-    <mergeCell ref="AD109:AG109"/>
-    <mergeCell ref="AH109:AI109"/>
-    <mergeCell ref="AD89:AG89"/>
-    <mergeCell ref="AH89:AI89"/>
-    <mergeCell ref="A99:C104"/>
-    <mergeCell ref="G99:G107"/>
-    <mergeCell ref="V99:AC99"/>
-    <mergeCell ref="AD99:AG99"/>
-    <mergeCell ref="AH99:AI99"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="V78:AC78"/>
-    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="V17:AC17"/>
+    <mergeCell ref="V25:AC25"/>
+    <mergeCell ref="B28:C31"/>
+    <mergeCell ref="G28:G36"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="V28:AC28"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AJ28:AN28"/>
+    <mergeCell ref="AO28:BA28"/>
+    <mergeCell ref="BD28:BM28"/>
+    <mergeCell ref="BN28:BO28"/>
+    <mergeCell ref="AS29:AS34"/>
+    <mergeCell ref="AU29:AU34"/>
+    <mergeCell ref="AW29:AW34"/>
+    <mergeCell ref="AY29:AY34"/>
+    <mergeCell ref="BG29:BG34"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="G38:G46"/>
+    <mergeCell ref="I38:S38"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="BA29:BA34"/>
+    <mergeCell ref="BE29:BE34"/>
+    <mergeCell ref="I31:S31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="V38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AJ38:AN38"/>
+    <mergeCell ref="AO38:BA38"/>
+    <mergeCell ref="BD38:BM38"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="BN38:BO38"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="BI29:BI34"/>
+    <mergeCell ref="BK29:BK34"/>
+    <mergeCell ref="BE39:BE44"/>
+    <mergeCell ref="BI39:BI44"/>
+    <mergeCell ref="BK39:BK44"/>
+    <mergeCell ref="I41:S41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="AS39:AS44"/>
+    <mergeCell ref="AU39:AU44"/>
+    <mergeCell ref="AW39:AW44"/>
+    <mergeCell ref="AY39:AY44"/>
+    <mergeCell ref="BA39:BA44"/>
+    <mergeCell ref="BG39:BG44"/>
+    <mergeCell ref="B48:C51"/>
+    <mergeCell ref="G48:G56"/>
+    <mergeCell ref="I48:S48"/>
+    <mergeCell ref="V48:AC48"/>
+    <mergeCell ref="AD48:AG48"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="I51:S51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="AJ48:AN48"/>
+    <mergeCell ref="AO48:BA48"/>
+    <mergeCell ref="BD48:BM48"/>
+    <mergeCell ref="BN48:BO48"/>
+    <mergeCell ref="AS49:AS54"/>
+    <mergeCell ref="AU49:AU54"/>
+    <mergeCell ref="AW49:AW54"/>
+    <mergeCell ref="AY49:AY54"/>
+    <mergeCell ref="BA49:BA54"/>
+    <mergeCell ref="BE49:BE54"/>
+    <mergeCell ref="BI49:BI54"/>
+    <mergeCell ref="BK49:BK54"/>
+    <mergeCell ref="BG49:BG54"/>
+    <mergeCell ref="B58:C61"/>
+    <mergeCell ref="G58:G66"/>
+    <mergeCell ref="I58:S58"/>
+    <mergeCell ref="V58:AC58"/>
+    <mergeCell ref="AD58:AG58"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="I61:S61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="AJ58:AN58"/>
+    <mergeCell ref="AO58:BA58"/>
+    <mergeCell ref="BD58:BM58"/>
+    <mergeCell ref="BN58:BO58"/>
+    <mergeCell ref="AS59:AS64"/>
+    <mergeCell ref="AU59:AU64"/>
+    <mergeCell ref="AW59:AW64"/>
+    <mergeCell ref="AY59:AY64"/>
+    <mergeCell ref="BA59:BA64"/>
+    <mergeCell ref="BE59:BE64"/>
+    <mergeCell ref="BI59:BI64"/>
+    <mergeCell ref="BK59:BK64"/>
+    <mergeCell ref="BG59:BG64"/>
+    <mergeCell ref="BN68:BO68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="AS69:AS74"/>
+    <mergeCell ref="AU69:AU74"/>
+    <mergeCell ref="AW69:AW74"/>
+    <mergeCell ref="AY69:AY74"/>
+    <mergeCell ref="B68:C71"/>
+    <mergeCell ref="G68:G76"/>
+    <mergeCell ref="I68:S68"/>
+    <mergeCell ref="V68:AC68"/>
+    <mergeCell ref="AD68:AG68"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="I71:S71"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="AJ78:AN78"/>
+    <mergeCell ref="AO78:BA78"/>
+    <mergeCell ref="BD78:BM78"/>
+    <mergeCell ref="AY79:AY84"/>
+    <mergeCell ref="BA79:BA84"/>
+    <mergeCell ref="AJ68:AN68"/>
+    <mergeCell ref="AO68:BA68"/>
+    <mergeCell ref="BD68:BM68"/>
+    <mergeCell ref="BA69:BA74"/>
+    <mergeCell ref="BE69:BE74"/>
+    <mergeCell ref="BI69:BI74"/>
+    <mergeCell ref="BK69:BK74"/>
+    <mergeCell ref="BG69:BG74"/>
+    <mergeCell ref="BG79:BG84"/>
     <mergeCell ref="BN78:BO78"/>
     <mergeCell ref="Q74:R74"/>
     <mergeCell ref="N75:O75"/>
@@ -38322,164 +38460,26 @@
     <mergeCell ref="AS79:AS84"/>
     <mergeCell ref="AU79:AU84"/>
     <mergeCell ref="AW79:AW84"/>
-    <mergeCell ref="AJ78:AN78"/>
-    <mergeCell ref="AO78:BA78"/>
-    <mergeCell ref="BD78:BM78"/>
-    <mergeCell ref="AY79:AY84"/>
-    <mergeCell ref="BA79:BA84"/>
-    <mergeCell ref="AJ68:AN68"/>
-    <mergeCell ref="AO68:BA68"/>
-    <mergeCell ref="BD68:BM68"/>
-    <mergeCell ref="BA69:BA74"/>
-    <mergeCell ref="BE69:BE74"/>
-    <mergeCell ref="BI69:BI74"/>
-    <mergeCell ref="BK69:BK74"/>
-    <mergeCell ref="BG69:BG74"/>
-    <mergeCell ref="BG79:BG84"/>
-    <mergeCell ref="BN68:BO68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="AS69:AS74"/>
-    <mergeCell ref="AU69:AU74"/>
-    <mergeCell ref="AW69:AW74"/>
-    <mergeCell ref="AY69:AY74"/>
-    <mergeCell ref="B68:C71"/>
-    <mergeCell ref="G68:G76"/>
-    <mergeCell ref="I68:S68"/>
-    <mergeCell ref="V68:AC68"/>
-    <mergeCell ref="AD68:AG68"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="I71:S71"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="AJ58:AN58"/>
-    <mergeCell ref="AO58:BA58"/>
-    <mergeCell ref="BD58:BM58"/>
-    <mergeCell ref="BN58:BO58"/>
-    <mergeCell ref="AS59:AS64"/>
-    <mergeCell ref="AU59:AU64"/>
-    <mergeCell ref="AW59:AW64"/>
-    <mergeCell ref="AY59:AY64"/>
-    <mergeCell ref="BA59:BA64"/>
-    <mergeCell ref="BE59:BE64"/>
-    <mergeCell ref="BI59:BI64"/>
-    <mergeCell ref="BK59:BK64"/>
-    <mergeCell ref="BG59:BG64"/>
-    <mergeCell ref="B58:C61"/>
-    <mergeCell ref="G58:G66"/>
-    <mergeCell ref="I58:S58"/>
-    <mergeCell ref="V58:AC58"/>
-    <mergeCell ref="AD58:AG58"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="I61:S61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="AJ48:AN48"/>
-    <mergeCell ref="AO48:BA48"/>
-    <mergeCell ref="BD48:BM48"/>
-    <mergeCell ref="BN48:BO48"/>
-    <mergeCell ref="AS49:AS54"/>
-    <mergeCell ref="AU49:AU54"/>
-    <mergeCell ref="AW49:AW54"/>
-    <mergeCell ref="AY49:AY54"/>
-    <mergeCell ref="BA49:BA54"/>
-    <mergeCell ref="BE49:BE54"/>
-    <mergeCell ref="BI49:BI54"/>
-    <mergeCell ref="BK49:BK54"/>
-    <mergeCell ref="BG49:BG54"/>
-    <mergeCell ref="B48:C51"/>
-    <mergeCell ref="G48:G56"/>
-    <mergeCell ref="I48:S48"/>
-    <mergeCell ref="V48:AC48"/>
-    <mergeCell ref="AD48:AG48"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="I51:S51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="BN38:BO38"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="BI29:BI34"/>
-    <mergeCell ref="BK29:BK34"/>
-    <mergeCell ref="BE39:BE44"/>
-    <mergeCell ref="BI39:BI44"/>
-    <mergeCell ref="BK39:BK44"/>
-    <mergeCell ref="I41:S41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="AS39:AS44"/>
-    <mergeCell ref="AU39:AU44"/>
-    <mergeCell ref="AW39:AW44"/>
-    <mergeCell ref="AY39:AY44"/>
-    <mergeCell ref="BA39:BA44"/>
-    <mergeCell ref="BG39:BG44"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="G38:G46"/>
-    <mergeCell ref="I38:S38"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="BA29:BA34"/>
-    <mergeCell ref="BE29:BE34"/>
-    <mergeCell ref="I31:S31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="V38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AJ38:AN38"/>
-    <mergeCell ref="AO38:BA38"/>
-    <mergeCell ref="BD38:BM38"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AJ28:AN28"/>
-    <mergeCell ref="AO28:BA28"/>
-    <mergeCell ref="BD28:BM28"/>
-    <mergeCell ref="BN28:BO28"/>
-    <mergeCell ref="AS29:AS34"/>
-    <mergeCell ref="AU29:AU34"/>
-    <mergeCell ref="AW29:AW34"/>
-    <mergeCell ref="AY29:AY34"/>
-    <mergeCell ref="BG29:BG34"/>
-    <mergeCell ref="V17:AC17"/>
-    <mergeCell ref="V25:AC25"/>
-    <mergeCell ref="B28:C31"/>
-    <mergeCell ref="G28:G36"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="V28:AC28"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B78:C81"/>
+    <mergeCell ref="G78:G86"/>
+    <mergeCell ref="A109:C114"/>
+    <mergeCell ref="G109:G117"/>
+    <mergeCell ref="V109:AC109"/>
+    <mergeCell ref="AD109:AG109"/>
+    <mergeCell ref="AH109:AI109"/>
+    <mergeCell ref="AD89:AG89"/>
+    <mergeCell ref="AH89:AI89"/>
+    <mergeCell ref="A99:C104"/>
+    <mergeCell ref="G99:G107"/>
+    <mergeCell ref="V99:AC99"/>
+    <mergeCell ref="AD99:AG99"/>
+    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="V78:AC78"/>
+    <mergeCell ref="AD78:AG78"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36 C46 C56 C66 C76 C86">

--- a/mathhammer.xlsx
+++ b/mathhammer.xlsx
@@ -395,16 +395,16 @@
     <t>wounds2</t>
   </si>
   <si>
-    <t>Model 1</t>
+    <t>Falchions</t>
   </si>
   <si>
-    <t>Model 2</t>
+    <t>Crowe v. T3</t>
   </si>
   <si>
-    <t>Model 3</t>
+    <t>Crowe v. T4</t>
   </si>
   <si>
-    <t>Model 4</t>
+    <t>Crowe v. T5</t>
   </si>
 </sst>
 </file>
@@ -1264,22 +1264,19 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1288,32 +1285,74 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1336,15 +1375,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1357,70 +1387,40 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1552,7 +1552,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 1</c:v>
+                  <c:v>Falchions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1615,22 +1615,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.2592592592592605E-3</c:v>
+                  <c:v>3.2592592592592597E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9444444444444458E-3</c:v>
+                  <c:v>2.6074074074074072E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6296296296296302E-3</c:v>
+                  <c:v>1.9555555555555559E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6296296296296302E-3</c:v>
+                  <c:v>1.9555555555555559E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6296296296296302E-3</c:v>
+                  <c:v>1.9555555555555559E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3148148148148151E-3</c:v>
+                  <c:v>1.3037037037037036E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,7 +1651,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 2</c:v>
+                  <c:v>Crowe v. T3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1714,22 +1714,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.2407407407407413E-2</c:v>
+                  <c:v>2.3484135802469136E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5925925925925925E-2</c:v>
+                  <c:v>2.0721296296296297E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5925925925925925E-2</c:v>
+                  <c:v>1.6577037037037036E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5925925925925925E-2</c:v>
+                  <c:v>1.6577037037037036E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9444444444444445E-2</c:v>
+                  <c:v>1.6577037037037036E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2962962962962963E-2</c:v>
+                  <c:v>1.1051358024691359E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1750,7 +1750,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 3</c:v>
+                  <c:v>Crowe v. T4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1813,22 +1813,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>2.2159465020576138E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.9552469135802476E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.5641975308641982E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.5641975308641982E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.5641975308641982E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0427983539094653E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,7 +1849,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 4</c:v>
+                  <c:v>Crowe v. T5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1912,22 +1912,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>2.0176131687242797E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.7802469135802471E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.4241975308641975E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.4241975308641975E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.4241975308641975E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.494650205761318E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2856,7 +2856,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 1</c:v>
+                  <c:v>Falchions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2919,22 +2919,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.666666666666667</c:v>
+                  <c:v>4.0740740740740744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2500000000000002</c:v>
+                  <c:v>3.2592592592592591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333333333333348</c:v>
+                  <c:v>2.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83333333333333348</c:v>
+                  <c:v>2.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83333333333333348</c:v>
+                  <c:v>2.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41666666666666674</c:v>
+                  <c:v>1.6296296296296295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2955,7 +2955,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 2</c:v>
+                  <c:v>Crowe v. T3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3018,22 +3018,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.4814814814814827</c:v>
+                  <c:v>2.9355169753086421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1851851851851851</c:v>
+                  <c:v>2.5901620370370373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1851851851851851</c:v>
+                  <c:v>2.0721296296296297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1851851851851851</c:v>
+                  <c:v>2.0721296296296297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8888888888888893</c:v>
+                  <c:v>2.0721296296296297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5925925925925926</c:v>
+                  <c:v>1.3814197530864198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3054,7 +3054,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 3</c:v>
+                  <c:v>Crowe v. T4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3124,22 +3124,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>2.7699331275720174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>2.4440586419753094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.9552469135802477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.9552469135802477</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.9552469135802477</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.3034979423868316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3160,7 +3160,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Model 4</c:v>
+                  <c:v>Crowe v. T5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3231,22 +3231,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>2.5220164609053497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>2.225308641975309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.780246913580247</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.780246913580247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.780246913580247</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.1868312757201647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5313,7 +5313,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AF$34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AF$34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5357,7 +5357,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AF$30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AF$30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5373,11 +5373,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AF$42" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AF$42" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AF$44" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AF$44" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5429,11 +5429,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AF$52" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AF$52" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AF$54" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AF$54" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5485,7 +5485,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AF$62" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AF$62" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5493,7 +5493,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AF$64" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AF$64" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5629,11 +5629,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AF$66" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AF$66" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AF$56" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AF$56" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6390,8 +6390,8 @@
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>7055</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7261,8 +7261,8 @@
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>7055</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8132,8 +8132,8 @@
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>7055</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9003,8 +9003,8 @@
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>7055</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9874,8 +9874,8 @@
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>7055</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10745,8 +10745,8 @@
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>7055</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10962,8 +10962,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9904132" y="138357"/>
-          <a:ext cx="10793405" cy="11020702"/>
+          <a:off x="10085107" y="147882"/>
+          <a:ext cx="10993430" cy="11077852"/>
           <a:chOff x="-18764956" y="81810603"/>
           <a:chExt cx="11454441" cy="11020377"/>
         </a:xfrm>
@@ -11027,8 +11027,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>80</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>4586</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11094,8 +11094,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>70</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>4586</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11161,8 +11161,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>4586</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11228,8 +11228,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>4586</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11295,8 +11295,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>4586</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11362,8 +11362,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>4586</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12903,8 +12903,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>75</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>4586</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13102,8 +13102,8 @@
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>7056</xdr:colOff>
           <xdr:row>105</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -13494,8 +13494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FI1055"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="CQ37" sqref="CQ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -13898,14 +13898,14 @@
       <c r="R17" s="190"/>
       <c r="S17" s="190"/>
       <c r="T17" s="190"/>
-      <c r="V17" s="208"/>
-      <c r="W17" s="208"/>
-      <c r="X17" s="208"/>
-      <c r="Y17" s="208"/>
-      <c r="Z17" s="208"/>
-      <c r="AA17" s="208"/>
-      <c r="AB17" s="208"/>
-      <c r="AC17" s="208"/>
+      <c r="V17" s="200"/>
+      <c r="W17" s="200"/>
+      <c r="X17" s="200"/>
+      <c r="Y17" s="200"/>
+      <c r="Z17" s="200"/>
+      <c r="AA17" s="200"/>
+      <c r="AB17" s="200"/>
+      <c r="AC17" s="200"/>
     </row>
     <row r="18" spans="1:165" hidden="1">
       <c r="A18" s="190"/>
@@ -14084,14 +14084,14 @@
       <c r="R25" s="190"/>
       <c r="S25" s="190"/>
       <c r="T25" s="190"/>
-      <c r="V25" s="208"/>
-      <c r="W25" s="208"/>
-      <c r="X25" s="208"/>
-      <c r="Y25" s="208"/>
-      <c r="Z25" s="208"/>
-      <c r="AA25" s="208"/>
-      <c r="AB25" s="208"/>
-      <c r="AC25" s="208"/>
+      <c r="V25" s="200"/>
+      <c r="W25" s="200"/>
+      <c r="X25" s="200"/>
+      <c r="Y25" s="200"/>
+      <c r="Z25" s="200"/>
+      <c r="AA25" s="200"/>
+      <c r="AB25" s="200"/>
+      <c r="AC25" s="200"/>
     </row>
     <row r="26" spans="1:165" hidden="1">
       <c r="A26" s="190"/>
@@ -14284,11 +14284,11 @@
     </row>
     <row r="28" spans="1:165" ht="15" customHeight="1">
       <c r="A28" s="120"/>
-      <c r="B28" s="249" t="str">
+      <c r="B28" s="201" t="str">
         <f>IF(I30="","",I30)</f>
-        <v>Model 1</v>
-      </c>
-      <c r="C28" s="249"/>
+        <v>Falchions</v>
+      </c>
+      <c r="C28" s="201"/>
       <c r="D28" s="6"/>
       <c r="E28" s="15" t="s">
         <v>11</v>
@@ -14296,103 +14296,103 @@
       <c r="F28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="251"/>
+      <c r="G28" s="203"/>
       <c r="H28" s="82"/>
-      <c r="I28" s="231" t="str">
+      <c r="I28" s="209" t="str">
         <f>IF(I30="","",I30)</f>
-        <v>Model 1</v>
-      </c>
-      <c r="J28" s="231"/>
-      <c r="K28" s="231"/>
-      <c r="L28" s="231"/>
-      <c r="M28" s="231"/>
-      <c r="N28" s="231"/>
-      <c r="O28" s="231"/>
-      <c r="P28" s="231"/>
-      <c r="Q28" s="231"/>
-      <c r="R28" s="231"/>
-      <c r="S28" s="231"/>
+        <v>Falchions</v>
+      </c>
+      <c r="J28" s="209"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="209"/>
+      <c r="M28" s="209"/>
+      <c r="N28" s="209"/>
+      <c r="O28" s="209"/>
+      <c r="P28" s="209"/>
+      <c r="Q28" s="209"/>
+      <c r="R28" s="209"/>
+      <c r="S28" s="209"/>
       <c r="T28" s="83"/>
-      <c r="V28" s="206" t="s">
+      <c r="V28" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="W28" s="207"/>
-      <c r="X28" s="207"/>
-      <c r="Y28" s="207"/>
-      <c r="Z28" s="207"/>
-      <c r="AA28" s="207"/>
-      <c r="AB28" s="207"/>
-      <c r="AC28" s="207"/>
-      <c r="AD28" s="207" t="s">
+      <c r="W28" s="206"/>
+      <c r="X28" s="206"/>
+      <c r="Y28" s="206"/>
+      <c r="Z28" s="206"/>
+      <c r="AA28" s="206"/>
+      <c r="AB28" s="206"/>
+      <c r="AC28" s="206"/>
+      <c r="AD28" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE28" s="207"/>
-      <c r="AF28" s="207"/>
-      <c r="AG28" s="207"/>
+      <c r="AE28" s="206"/>
+      <c r="AF28" s="206"/>
+      <c r="AG28" s="206"/>
       <c r="AH28" s="189"/>
       <c r="AI28" s="189"/>
-      <c r="AJ28" s="207" t="s">
+      <c r="AJ28" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="AK28" s="207"/>
-      <c r="AL28" s="207"/>
-      <c r="AM28" s="207"/>
-      <c r="AN28" s="207"/>
-      <c r="AO28" s="207" t="s">
+      <c r="AK28" s="206"/>
+      <c r="AL28" s="206"/>
+      <c r="AM28" s="206"/>
+      <c r="AN28" s="206"/>
+      <c r="AO28" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="AP28" s="207"/>
-      <c r="AQ28" s="207"/>
-      <c r="AR28" s="207"/>
-      <c r="AS28" s="207"/>
-      <c r="AT28" s="207"/>
-      <c r="AU28" s="207"/>
-      <c r="AV28" s="207"/>
-      <c r="AW28" s="207"/>
-      <c r="AX28" s="207"/>
-      <c r="AY28" s="207"/>
-      <c r="AZ28" s="207"/>
-      <c r="BA28" s="207"/>
-      <c r="BB28" s="207"/>
-      <c r="BC28" s="207"/>
-      <c r="BD28" s="207"/>
-      <c r="BE28" s="207"/>
+      <c r="AP28" s="206"/>
+      <c r="AQ28" s="206"/>
+      <c r="AR28" s="206"/>
+      <c r="AS28" s="206"/>
+      <c r="AT28" s="206"/>
+      <c r="AU28" s="206"/>
+      <c r="AV28" s="206"/>
+      <c r="AW28" s="206"/>
+      <c r="AX28" s="206"/>
+      <c r="AY28" s="206"/>
+      <c r="AZ28" s="206"/>
+      <c r="BA28" s="206"/>
+      <c r="BB28" s="206"/>
+      <c r="BC28" s="206"/>
+      <c r="BD28" s="206"/>
+      <c r="BE28" s="206"/>
       <c r="BF28" s="189"/>
       <c r="BG28" s="189"/>
-      <c r="BH28" s="207" t="s">
+      <c r="BH28" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="BI28" s="207"/>
-      <c r="BJ28" s="207"/>
-      <c r="BK28" s="207"/>
-      <c r="BL28" s="207"/>
-      <c r="BM28" s="207"/>
-      <c r="BN28" s="207"/>
-      <c r="BO28" s="207"/>
-      <c r="BP28" s="207"/>
-      <c r="BQ28" s="207"/>
-      <c r="BR28" s="207" t="s">
+      <c r="BI28" s="206"/>
+      <c r="BJ28" s="206"/>
+      <c r="BK28" s="206"/>
+      <c r="BL28" s="206"/>
+      <c r="BM28" s="206"/>
+      <c r="BN28" s="206"/>
+      <c r="BO28" s="206"/>
+      <c r="BP28" s="206"/>
+      <c r="BQ28" s="206"/>
+      <c r="BR28" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="BS28" s="226"/>
+      <c r="BS28" s="210"/>
       <c r="CR28" s="93"/>
     </row>
     <row r="29" spans="1:165" ht="15" customHeight="1">
       <c r="A29" s="121"/>
-      <c r="B29" s="250"/>
-      <c r="C29" s="250"/>
+      <c r="B29" s="202"/>
+      <c r="C29" s="202"/>
       <c r="D29" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="164">
         <f>IF(AND(AD29,AF36),BL29+BN29,NA())</f>
-        <v>1.666666666666667</v>
+        <v>4.0740740740740744</v>
       </c>
       <c r="F29" s="30">
         <f>IFERROR(E29/P30,NA())</f>
-        <v>9.2592592592592605E-3</v>
-      </c>
-      <c r="G29" s="252"/>
+        <v>3.2592592592592597E-2</v>
+      </c>
+      <c r="G29" s="204"/>
       <c r="H29" s="84"/>
       <c r="I29" s="78" t="s">
         <v>13</v>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="X29" s="12">
         <f>IF(V30=1,0,IF(J32="D3",5/6,IF(J32="2D3",3/6,IF(J32="D6",3.5/6,IF(J32="2D6",1,J32/6)))))</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="14" t="str">
         <f>"+- to hit rolls"</f>
@@ -14439,7 +14439,7 @@
       </c>
       <c r="Z29" s="22">
         <f>IF(AF34,IF(P32="2+",5/6,IF(P32="3+",4/6,IF(P32="4+",3/6,IF(P32="5+",2/6,IF(P32="6+",1/6,IF(P32="7+",0/6)))))),0)</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="19" t="s">
         <v>57</v>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="AL29" s="20">
         <f>IF(AND(AF30,X29&gt;=0),AJ36*V30,AJ36*AJ29)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="20" t="s">
         <v>114</v>
@@ -14492,63 +14492,63 @@
       </c>
       <c r="AP29" s="20">
         <f>IF((AN29+X30)&gt;5/6,5/6,AN29+X30)</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="AQ29" s="20" t="s">
         <v>96</v>
       </c>
       <c r="AR29" s="21">
         <f>IF(AND(AF32,X30&gt;=0),AL35*AN29,AL35*AP29)</f>
-        <v>5</v>
-      </c>
-      <c r="AS29" s="224" t="s">
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="AS29" s="211" t="s">
         <v>121</v>
       </c>
       <c r="AT29" s="199">
         <f>IF(AND(AN29&lt;AP36,AF32),AB29*AL35,AP36*AL35)</f>
         <v>0</v>
       </c>
-      <c r="AU29" s="224" t="s">
+      <c r="AU29" s="211" t="s">
         <v>109</v>
       </c>
       <c r="AV29" s="20">
         <f>IF(AF32,AL35-(AL35*AN29),IF(AF31,(1/6)*AL35,0))</f>
         <v>0</v>
       </c>
-      <c r="AW29" s="224" t="s">
+      <c r="AW29" s="211" t="s">
         <v>60</v>
       </c>
       <c r="AX29" s="20">
-        <f>AV29*AP29</f>
-        <v>0</v>
-      </c>
-      <c r="AY29" s="224" t="s">
+        <f t="shared" ref="AX29:AX34" si="0">AV29*AP29</f>
+        <v>0</v>
+      </c>
+      <c r="AY29" s="211" t="s">
         <v>122</v>
       </c>
       <c r="AZ29" s="20">
         <f>AV29*AP36</f>
         <v>0</v>
       </c>
-      <c r="BA29" s="224" t="s">
+      <c r="BA29" s="211" t="s">
         <v>110</v>
       </c>
       <c r="BB29" s="199">
-        <f>AT29+AZ29</f>
-        <v>0</v>
-      </c>
-      <c r="BC29" s="224" t="s">
+        <f t="shared" ref="BB29:BB34" si="1">AT29+AZ29</f>
+        <v>0</v>
+      </c>
+      <c r="BC29" s="211" t="s">
         <v>117</v>
       </c>
       <c r="BD29" s="20">
-        <f>SUM(AR29,AX29)</f>
-        <v>5</v>
-      </c>
-      <c r="BE29" s="224" t="s">
+        <f t="shared" ref="BD29:BD34" si="2">SUM(AR29,AX29)</f>
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="BE29" s="211" t="s">
         <v>63</v>
       </c>
       <c r="BF29" s="192">
         <f>IF((1-(V29+V33))&gt;1,1,1-(V29+V33))</f>
-        <v>0.33333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="BG29" s="192" t="s">
         <v>105</v>
@@ -14557,40 +14557,40 @@
         <f>IF(AB32&lt;0,BB29*BF30,BB29*BF29)</f>
         <v>0</v>
       </c>
-      <c r="BI29" s="224" t="s">
+      <c r="BI29" s="211" t="s">
         <v>102</v>
       </c>
       <c r="BJ29" s="192">
         <f>BH29+((BD29-BB29)*BF29)</f>
-        <v>1.666666666666667</v>
-      </c>
-      <c r="BK29" s="224" t="s">
+        <v>4.0740740740740744</v>
+      </c>
+      <c r="BK29" s="211" t="s">
         <v>103</v>
       </c>
       <c r="BL29" s="18">
         <f>IF(AB31&gt;0,(BH29*AB31)+((BJ29-BH29)*V34),BJ29*V34)</f>
-        <v>1.666666666666667</v>
-      </c>
-      <c r="BM29" s="224" t="s">
+        <v>4.0740740740740744</v>
+      </c>
+      <c r="BM29" s="211" t="s">
         <v>65</v>
       </c>
       <c r="BN29" s="18">
         <f>(AL34*Z32)+(AB30*BB29)</f>
         <v>0</v>
       </c>
-      <c r="BO29" s="224" t="s">
+      <c r="BO29" s="211" t="s">
         <v>64</v>
       </c>
       <c r="BP29" s="192">
         <f>IF(AD29,BL29+BN29,NA())</f>
-        <v>1.666666666666667</v>
+        <v>4.0740740740740744</v>
       </c>
       <c r="BQ29" s="123" t="s">
         <v>46</v>
       </c>
       <c r="BR29" s="18">
         <f>IFERROR(IF(AD29,BP29,0)+IF(AD30,BP30,0)+IF(AD31,BP31,0)+IF(AD32,BP32,0)+IF(AD33,BP33,0)+IF(AD34,BP34,0),NA())</f>
-        <v>5.8333333333333348</v>
+        <v>16.296296296296298</v>
       </c>
       <c r="BS29" s="160" t="s">
         <v>67</v>
@@ -14599,20 +14599,20 @@
     </row>
     <row r="30" spans="1:165" ht="15" customHeight="1">
       <c r="A30" s="121"/>
-      <c r="B30" s="250"/>
-      <c r="C30" s="250"/>
+      <c r="B30" s="202"/>
+      <c r="C30" s="202"/>
       <c r="D30" s="54" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="164">
         <f>IF(AND(AD30,AF36),BL30+BN30,NA())</f>
-        <v>1.2500000000000002</v>
+        <v>3.2592592592592591</v>
       </c>
       <c r="F30" s="30">
         <f>IFERROR(E30/P30,NA())</f>
-        <v>6.9444444444444458E-3</v>
-      </c>
-      <c r="G30" s="252"/>
+        <v>2.6074074074074072E-2</v>
+      </c>
+      <c r="G30" s="204"/>
       <c r="H30" s="84"/>
       <c r="I30" s="5" t="s">
         <v>123</v>
@@ -14621,22 +14621,22 @@
         <v>20</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L30" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M30" s="5">
         <v>4</v>
       </c>
       <c r="N30" s="5">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O30" s="5">
         <v>1</v>
       </c>
       <c r="P30" s="5">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="Q30" s="77"/>
       <c r="R30" s="13"/>
@@ -14644,14 +14644,14 @@
       <c r="T30" s="85"/>
       <c r="V30" s="159">
         <f>(IF(K30="D3",5/6,IF(K30="2D3",3/6,IF(K30="D6",3.5/6,IF(K30="Auto Hit",1,IF(K30="2+",5/6,IF(K30="3+",4/6,IF(K30="4+",3/6,IF(K30="5+",2/6,IF(K30="6+",1/6,0))))))))))</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W30" s="12" t="s">
         <v>35</v>
       </c>
       <c r="X30" s="12">
         <f>IF(M32="D3",5/6,IF(M32="2D3",3/6,IF(M32="D6",3.5/6,IF(M32="2D6",1,M32/6))))</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Y30" s="14" t="str">
         <f>"+- to wound rolls"</f>
@@ -14659,7 +14659,7 @@
       </c>
       <c r="Z30" s="22">
         <f>IF(AF34,IF(P33="D3",2,IF(P33="2D3",4,IF(P33="D6",3.5,IF(P33="2D6",7,P33)))),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="14" t="s">
         <v>41</v>
@@ -14678,28 +14678,28 @@
         <v>47</v>
       </c>
       <c r="AF30" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="14" t="s">
         <v>54</v>
       </c>
       <c r="AH30" s="14" t="b">
         <f>(AND(NOT(AF29),NOT(AF30)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="14" t="s">
         <v>119</v>
       </c>
       <c r="AJ30" s="20">
         <f>IF(Z29=0,0,IF((Z29+X29)&gt;5/6,5/6,Z29+X29))</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="20" t="s">
         <v>118</v>
       </c>
       <c r="AL30" s="20">
         <f>IF(AND(V30&lt;AJ30,AF30),Z29*AJ36,AJ30*AJ36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="20" t="s">
         <v>116</v>
@@ -14713,46 +14713,46 @@
       </c>
       <c r="AP30" s="20">
         <f>IF((AN30+X30)&gt;5/6,5/6,AN30+X30)</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ30" s="20" t="s">
         <v>97</v>
       </c>
       <c r="AR30" s="21">
         <f>IF(AND(AF32,X30&gt;=0),AL35*AN30,AL35*AP30)</f>
-        <v>3.75</v>
-      </c>
-      <c r="AS30" s="224"/>
+        <v>4.8888888888888884</v>
+      </c>
+      <c r="AS30" s="211"/>
       <c r="AT30" s="199">
         <f>IF(AND(AN30&lt;AP36,AF32),AB29*AL35,AP36*AL35)</f>
         <v>0</v>
       </c>
-      <c r="AU30" s="224"/>
+      <c r="AU30" s="211"/>
       <c r="AV30" s="20">
         <f>IF(AF32,AL35-(AL35*AN30),IF(AF31,(1/6)*AL35,0))</f>
         <v>0</v>
       </c>
-      <c r="AW30" s="224"/>
+      <c r="AW30" s="211"/>
       <c r="AX30" s="20">
-        <f>AV30*AP30</f>
-        <v>0</v>
-      </c>
-      <c r="AY30" s="224"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY30" s="211"/>
       <c r="AZ30" s="20">
         <f>AV30*AP36</f>
         <v>0</v>
       </c>
-      <c r="BA30" s="224"/>
+      <c r="BA30" s="211"/>
       <c r="BB30" s="199">
-        <f>AT30+AZ30</f>
-        <v>0</v>
-      </c>
-      <c r="BC30" s="224"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC30" s="211"/>
       <c r="BD30" s="20">
-        <f>SUM(AR30,AX30)</f>
-        <v>3.75</v>
-      </c>
-      <c r="BE30" s="224"/>
+        <f t="shared" si="2"/>
+        <v>4.8888888888888884</v>
+      </c>
+      <c r="BE30" s="211"/>
       <c r="BF30" s="192">
         <f>IF((1-(V29+AB32))&gt;1,1,1-(V29+AB32))</f>
         <v>0.33333333333333337</v>
@@ -14764,32 +14764,32 @@
         <f>IF(AB32&lt;0,BB30*BF30,BB30*BF29)</f>
         <v>0</v>
       </c>
-      <c r="BI30" s="224"/>
+      <c r="BI30" s="211"/>
       <c r="BJ30" s="192">
         <f>BH30+((BD30-BB30)*BF29)</f>
-        <v>1.2500000000000002</v>
-      </c>
-      <c r="BK30" s="224"/>
+        <v>3.2592592592592591</v>
+      </c>
+      <c r="BK30" s="211"/>
       <c r="BL30" s="18">
         <f>IF(AB31&gt;0,(BH30*AB31)+((BJ30-BH30)*V34),BJ30*V34)</f>
-        <v>1.2500000000000002</v>
-      </c>
-      <c r="BM30" s="224"/>
+        <v>3.2592592592592591</v>
+      </c>
+      <c r="BM30" s="211"/>
       <c r="BN30" s="18">
         <f>(AL34*Z32)+(AB30*BB30)</f>
         <v>0</v>
       </c>
-      <c r="BO30" s="224"/>
+      <c r="BO30" s="211"/>
       <c r="BP30" s="192">
-        <f t="shared" ref="BP30:BP34" si="0">IF(AD30,BL30+BN30,NA())</f>
-        <v>1.2500000000000002</v>
+        <f t="shared" ref="BP30:BP34" si="3">IF(AD30,BL30+BN30,NA())</f>
+        <v>3.2592592592592591</v>
       </c>
       <c r="BQ30" s="123" t="s">
         <v>47</v>
       </c>
       <c r="BR30" s="18">
         <f>IFERROR(BR29/AD35,NA())</f>
-        <v>0.97222222222222243</v>
+        <v>2.7160493827160495</v>
       </c>
       <c r="BS30" s="160" t="s">
         <v>11</v>
@@ -14798,36 +14798,36 @@
     </row>
     <row r="31" spans="1:165" ht="15" customHeight="1">
       <c r="A31" s="121"/>
-      <c r="B31" s="250"/>
-      <c r="C31" s="250"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="202"/>
       <c r="D31" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="164">
         <f>IF(AND(AD31,AF36),BL31+BN31,NA())</f>
-        <v>0.83333333333333348</v>
+        <v>2.4444444444444446</v>
       </c>
       <c r="F31" s="30">
         <f>IFERROR(E31/P30,NA())</f>
-        <v>4.6296296296296302E-3</v>
-      </c>
-      <c r="G31" s="252"/>
+        <v>1.9555555555555559E-2</v>
+      </c>
+      <c r="G31" s="204"/>
       <c r="H31" s="84"/>
-      <c r="I31" s="225"/>
-      <c r="J31" s="225"/>
-      <c r="K31" s="225"/>
-      <c r="L31" s="225"/>
-      <c r="M31" s="225"/>
-      <c r="N31" s="225"/>
-      <c r="O31" s="225"/>
-      <c r="P31" s="225"/>
-      <c r="Q31" s="225"/>
-      <c r="R31" s="225"/>
-      <c r="S31" s="225"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="216"/>
+      <c r="L31" s="216"/>
+      <c r="M31" s="216"/>
+      <c r="N31" s="216"/>
+      <c r="O31" s="216"/>
+      <c r="P31" s="216"/>
+      <c r="Q31" s="216"/>
+      <c r="R31" s="216"/>
+      <c r="S31" s="216"/>
       <c r="T31" s="85"/>
       <c r="V31" s="161">
         <f>(IF(L30="D3",2,IF(L30="2D3",4,IF(L30="D6",3.5,IF(L30="2D6",7,IF(L30="3D6",10.5,L30))))))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W31" s="12" t="s">
         <v>36</v>
@@ -14874,14 +14874,14 @@
       </c>
       <c r="AJ31" s="20">
         <f>IF(AND(AF30,X29&gt;=0),V31*V30,V31*AJ29)</f>
-        <v>3</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AK31" s="20" t="s">
         <v>112</v>
       </c>
       <c r="AL31" s="20">
         <f>IF(OR(AF29,AF30),IF(AF30,AJ36-(V30*AJ36),(1/6)*AJ36),0)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="20" t="s">
         <v>61</v>
@@ -14895,71 +14895,71 @@
       </c>
       <c r="AP31" s="20">
         <f>IF((AN31+X30)&gt;5/6,5/6,AN31+X30)</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AQ31" s="20" t="s">
         <v>98</v>
       </c>
       <c r="AR31" s="21">
         <f>IF(AND(AF32,X30&gt;=0),AL35*AN31,AL35*AP31)</f>
-        <v>2.5</v>
-      </c>
-      <c r="AS31" s="224"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AS31" s="211"/>
       <c r="AT31" s="199">
         <f>IF(AND(AN31&lt;AP36,AF32),AB29*AL35,AP36*AL35)</f>
         <v>0</v>
       </c>
-      <c r="AU31" s="224"/>
+      <c r="AU31" s="211"/>
       <c r="AV31" s="20">
         <f>IF(AF32,AL35-(AL35*AN31),IF(AF31,(1/6)*AL35,0))</f>
         <v>0</v>
       </c>
-      <c r="AW31" s="224"/>
+      <c r="AW31" s="211"/>
       <c r="AX31" s="20">
-        <f>AV31*AP31</f>
-        <v>0</v>
-      </c>
-      <c r="AY31" s="224"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY31" s="211"/>
       <c r="AZ31" s="20">
         <f>AV31*AP36</f>
         <v>0</v>
       </c>
-      <c r="BA31" s="224"/>
+      <c r="BA31" s="211"/>
       <c r="BB31" s="199">
-        <f>AT31+AZ31</f>
-        <v>0</v>
-      </c>
-      <c r="BC31" s="224"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC31" s="211"/>
       <c r="BD31" s="20">
-        <f>SUM(AR31,AX31)</f>
-        <v>2.5</v>
-      </c>
-      <c r="BE31" s="224"/>
+        <f t="shared" si="2"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BE31" s="211"/>
       <c r="BF31" s="192"/>
       <c r="BG31" s="192"/>
       <c r="BH31" s="20">
         <f>IF(AB32&lt;0,BB31*BF30,BB31*BF29)</f>
         <v>0</v>
       </c>
-      <c r="BI31" s="224"/>
+      <c r="BI31" s="211"/>
       <c r="BJ31" s="192">
         <f>BH31+((BD31-BB31)*BF29)</f>
-        <v>0.83333333333333348</v>
-      </c>
-      <c r="BK31" s="224"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="BK31" s="211"/>
       <c r="BL31" s="18">
         <f>IF(AB31&gt;0,(BH31*AB31)+((BJ31-BH31)*V34),BJ31*V34)</f>
-        <v>0.83333333333333348</v>
-      </c>
-      <c r="BM31" s="224"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="BM31" s="211"/>
       <c r="BN31" s="18">
         <f>(AL34*Z32)+(AB30*BB31)</f>
         <v>0</v>
       </c>
-      <c r="BO31" s="224"/>
+      <c r="BO31" s="211"/>
       <c r="BP31" s="192">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333348</v>
+        <f t="shared" si="3"/>
+        <v>2.4444444444444446</v>
       </c>
       <c r="BQ31" s="123" t="s">
         <v>48</v>
@@ -14975,20 +14975,20 @@
       </c>
       <c r="E32" s="164">
         <f>IF(AND(AD32,AF36),BL32+BN32,NA())</f>
-        <v>0.83333333333333348</v>
+        <v>2.4444444444444446</v>
       </c>
       <c r="F32" s="30">
         <f>IFERROR(E32/P30,NA())</f>
-        <v>4.6296296296296302E-3</v>
-      </c>
-      <c r="G32" s="252"/>
+        <v>1.9555555555555559E-2</v>
+      </c>
+      <c r="G32" s="204"/>
       <c r="H32" s="84"/>
       <c r="I32" s="191" t="str">
         <f>"+- to hit"</f>
         <v>+- to hit</v>
       </c>
       <c r="J32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="79"/>
       <c r="L32" s="191" t="str">
@@ -14996,19 +14996,19 @@
         <v>+- to wound</v>
       </c>
       <c r="M32" s="5">
-        <v>0</v>
-      </c>
-      <c r="N32" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="O32" s="215"/>
+      <c r="O32" s="208"/>
       <c r="P32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="215" t="s">
+      <c r="Q32" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R32" s="215"/>
+      <c r="R32" s="208"/>
       <c r="S32" s="5" t="s">
         <v>19</v>
       </c>
@@ -15057,14 +15057,14 @@
       <c r="AI32" s="14"/>
       <c r="AJ32" s="20">
         <f>IF(AND(V30&lt;AJ30,AF30),Z29*V31,AJ30*V31)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="20" t="s">
         <v>109</v>
       </c>
       <c r="AL32" s="22">
         <f>AL31*AJ29</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="12" t="s">
         <v>115</v>
@@ -15078,71 +15078,71 @@
       </c>
       <c r="AP32" s="20">
         <f>IF((AN32+X30)&gt;5/6,5/6,AN32+X30)</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AQ32" s="20" t="s">
         <v>99</v>
       </c>
       <c r="AR32" s="21">
         <f>IF(AND(AF32,X30&gt;=0),AL35*AN32,AL35*AP32)</f>
-        <v>2.5</v>
-      </c>
-      <c r="AS32" s="224"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AS32" s="211"/>
       <c r="AT32" s="199">
         <f>IF(AND(AN32&lt;AP36,AF32),AB29*AL35,AP36*AL35)</f>
         <v>0</v>
       </c>
-      <c r="AU32" s="224"/>
+      <c r="AU32" s="211"/>
       <c r="AV32" s="20">
         <f>IF(AF32,AL35-(AL35*AN32),IF(AF31,(1/6)*AL35,0))</f>
         <v>0</v>
       </c>
-      <c r="AW32" s="224"/>
+      <c r="AW32" s="211"/>
       <c r="AX32" s="20">
-        <f>AV32*AP32</f>
-        <v>0</v>
-      </c>
-      <c r="AY32" s="224"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY32" s="211"/>
       <c r="AZ32" s="20">
         <f>AV32*AP36</f>
         <v>0</v>
       </c>
-      <c r="BA32" s="224"/>
+      <c r="BA32" s="211"/>
       <c r="BB32" s="199">
-        <f>AT32+AZ32</f>
-        <v>0</v>
-      </c>
-      <c r="BC32" s="224"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC32" s="211"/>
       <c r="BD32" s="20">
-        <f>SUM(AR32,AX32)</f>
-        <v>2.5</v>
-      </c>
-      <c r="BE32" s="224"/>
+        <f t="shared" si="2"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BE32" s="211"/>
       <c r="BF32" s="192"/>
       <c r="BG32" s="192"/>
       <c r="BH32" s="20">
         <f>IF(AB32&lt;0,BB32*BF30,BB32*BF29)</f>
         <v>0</v>
       </c>
-      <c r="BI32" s="224"/>
+      <c r="BI32" s="211"/>
       <c r="BJ32" s="192">
         <f>BH32+((BD32-BB32)*BF29)</f>
-        <v>0.83333333333333348</v>
-      </c>
-      <c r="BK32" s="224"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="BK32" s="211"/>
       <c r="BL32" s="18">
         <f>IF(AB31&gt;0,(BH32*AB31)+((BJ32-BH32)*V34),BJ32*V34)</f>
-        <v>0.83333333333333348</v>
-      </c>
-      <c r="BM32" s="224"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="BM32" s="211"/>
       <c r="BN32" s="18">
         <f>(AL34*Z32)+(AB30*BB32)</f>
         <v>0</v>
       </c>
-      <c r="BO32" s="224"/>
+      <c r="BO32" s="211"/>
       <c r="BP32" s="192">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333348</v>
+        <f t="shared" si="3"/>
+        <v>2.4444444444444446</v>
       </c>
       <c r="BQ32" s="123" t="s">
         <v>49</v>
@@ -15158,41 +15158,41 @@
       </c>
       <c r="E33" s="164">
         <f>IF(AND(AD33,AF36),BL33+BN33,NA())</f>
-        <v>0.83333333333333348</v>
+        <v>2.4444444444444446</v>
       </c>
       <c r="F33" s="30">
         <f>IFERROR(E33/P30,NA())</f>
-        <v>4.6296296296296302E-3</v>
-      </c>
-      <c r="G33" s="252"/>
+        <v>1.9555555555555559E-2</v>
+      </c>
+      <c r="G33" s="204"/>
       <c r="H33" s="87"/>
       <c r="I33" s="80"/>
       <c r="J33" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="215" t="s">
+      <c r="K33" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="215"/>
-      <c r="M33" s="215"/>
-      <c r="N33" s="215" t="s">
+      <c r="L33" s="208"/>
+      <c r="M33" s="208"/>
+      <c r="N33" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="215"/>
+      <c r="O33" s="208"/>
       <c r="P33" s="5">
         <v>1</v>
       </c>
-      <c r="Q33" s="215" t="s">
+      <c r="Q33" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="R33" s="215"/>
+      <c r="R33" s="208"/>
       <c r="S33" s="5">
         <v>0</v>
       </c>
       <c r="T33" s="86"/>
       <c r="V33" s="161">
         <f>IF(N30="D3",-2/6,IF(N30="2D3",-4/6,IF(N30="D6",-3.5/6,IF(N30="2D6",-7/6,N30/6))))</f>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="W33" s="12" t="s">
         <v>37</v>
@@ -15217,14 +15217,14 @@
       <c r="AI33" s="14"/>
       <c r="AJ33" s="20">
         <f>IF(AF30,V31-(V30*V31),IF(AF29,(1/6)*V31,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="20" t="s">
         <v>60</v>
       </c>
       <c r="AL33" s="24">
         <f>AL31*AJ30</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="25" t="s">
         <v>111</v>
@@ -15238,71 +15238,71 @@
       </c>
       <c r="AP33" s="20">
         <f>IF((AN33+X30)&gt;5/6,5/6,AN33+X30)</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AQ33" s="20" t="s">
         <v>100</v>
       </c>
       <c r="AR33" s="21">
         <f>IF(AND(AF32,X30&gt;=0),AL35*AN33,AL35*AP33)</f>
-        <v>2.5</v>
-      </c>
-      <c r="AS33" s="224"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AS33" s="211"/>
       <c r="AT33" s="199">
         <f>IF(AND(AN33&lt;AP36,AF32),AB29*AL35,AP36*AL35)</f>
         <v>0</v>
       </c>
-      <c r="AU33" s="224"/>
+      <c r="AU33" s="211"/>
       <c r="AV33" s="20">
         <f>IF(AF32,AL35-(AL35*AN33),IF(AF31,(1/6)*AL35,0))</f>
         <v>0</v>
       </c>
-      <c r="AW33" s="224"/>
+      <c r="AW33" s="211"/>
       <c r="AX33" s="20">
-        <f>AV33*AP33</f>
-        <v>0</v>
-      </c>
-      <c r="AY33" s="224"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY33" s="211"/>
       <c r="AZ33" s="20">
         <f>AV33*AP36</f>
         <v>0</v>
       </c>
-      <c r="BA33" s="224"/>
+      <c r="BA33" s="211"/>
       <c r="BB33" s="199">
-        <f>AT33+AZ33</f>
-        <v>0</v>
-      </c>
-      <c r="BC33" s="224"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC33" s="211"/>
       <c r="BD33" s="20">
-        <f>SUM(AR33,AX33)</f>
-        <v>2.5</v>
-      </c>
-      <c r="BE33" s="224"/>
+        <f t="shared" si="2"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BE33" s="211"/>
       <c r="BF33" s="192"/>
       <c r="BG33" s="192"/>
       <c r="BH33" s="20">
         <f>IF(AB32&lt;0,BB33*BF30,BB33*BF29)</f>
         <v>0</v>
       </c>
-      <c r="BI33" s="224"/>
+      <c r="BI33" s="211"/>
       <c r="BJ33" s="192">
         <f>BH33+((BD33-BB33)*BF29)</f>
-        <v>0.83333333333333348</v>
-      </c>
-      <c r="BK33" s="224"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="BK33" s="211"/>
       <c r="BL33" s="18">
         <f>IF(AB31&gt;0,(BH33*AB31)+((BJ33-BH33)*V34),BJ33*V34)</f>
-        <v>0.83333333333333348</v>
-      </c>
-      <c r="BM33" s="224"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="BM33" s="211"/>
       <c r="BN33" s="18">
         <f>(AL34*Z32)+(AB30*BB33)</f>
         <v>0</v>
       </c>
-      <c r="BO33" s="224"/>
+      <c r="BO33" s="211"/>
       <c r="BP33" s="192">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333348</v>
+        <f t="shared" si="3"/>
+        <v>2.4444444444444446</v>
       </c>
       <c r="BQ33" s="123" t="s">
         <v>50</v>
@@ -15318,34 +15318,34 @@
       </c>
       <c r="E34" s="164">
         <f>IF(AND(AD34,AF36),BL34+BN34,NA())</f>
-        <v>0.41666666666666674</v>
+        <v>1.6296296296296295</v>
       </c>
       <c r="F34" s="30">
         <f>IFERROR(E34/P30,NA())</f>
-        <v>2.3148148148148151E-3</v>
-      </c>
-      <c r="G34" s="252"/>
+        <v>1.3037037037037036E-2</v>
+      </c>
+      <c r="G34" s="204"/>
       <c r="H34" s="84"/>
-      <c r="I34" s="232" t="s">
+      <c r="I34" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="232"/>
-      <c r="K34" s="232" t="s">
+      <c r="J34" s="207"/>
+      <c r="K34" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="L34" s="232"/>
-      <c r="M34" s="232"/>
-      <c r="N34" s="215" t="s">
+      <c r="L34" s="207"/>
+      <c r="M34" s="207"/>
+      <c r="N34" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="O34" s="215"/>
+      <c r="O34" s="208"/>
       <c r="P34" s="5">
         <v>0</v>
       </c>
-      <c r="Q34" s="215" t="s">
+      <c r="Q34" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="R34" s="215"/>
+      <c r="R34" s="208"/>
       <c r="S34" s="5">
         <v>0</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>51</v>
       </c>
       <c r="AF34" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="19" t="s">
         <v>57</v>
@@ -15378,14 +15378,14 @@
       <c r="AI34" s="19"/>
       <c r="AJ34" s="20">
         <f>AJ33*AJ29</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="14" t="s">
         <v>113</v>
       </c>
       <c r="AL34" s="20">
         <f>SUM(AJ32,AJ35,AL30,AL33)</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="25" t="s">
         <v>117</v>
@@ -15399,71 +15399,71 @@
       </c>
       <c r="AP34" s="20">
         <f>IF((AN34+X30)&gt;5/6,5/6,AN34+X30)</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AQ34" s="20" t="s">
         <v>101</v>
       </c>
       <c r="AR34" s="20">
         <f>IF(AND(AF32,X30&gt;=0),AL35*AN34,AL35*AP34)</f>
-        <v>1.25</v>
-      </c>
-      <c r="AS34" s="224"/>
+        <v>2.4444444444444442</v>
+      </c>
+      <c r="AS34" s="211"/>
       <c r="AT34" s="199">
         <f>IF(AND(AN34&lt;AP36,AF32),AB29*AL35,AP36*AL35)</f>
         <v>0</v>
       </c>
-      <c r="AU34" s="224"/>
+      <c r="AU34" s="211"/>
       <c r="AV34" s="20">
         <f>IF(AF32,AL35-(AL35*AN34),IF(AF31,(1/6)*AL35,0))</f>
         <v>0</v>
       </c>
-      <c r="AW34" s="224"/>
+      <c r="AW34" s="211"/>
       <c r="AX34" s="20">
-        <f>AV34*AP34</f>
-        <v>0</v>
-      </c>
-      <c r="AY34" s="224"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY34" s="211"/>
       <c r="AZ34" s="20">
         <f>AV34*AP36</f>
         <v>0</v>
       </c>
-      <c r="BA34" s="224"/>
+      <c r="BA34" s="211"/>
       <c r="BB34" s="199">
-        <f>AT34+AZ34</f>
-        <v>0</v>
-      </c>
-      <c r="BC34" s="224"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC34" s="211"/>
       <c r="BD34" s="20">
-        <f>SUM(AR34,AX34)</f>
-        <v>1.25</v>
-      </c>
-      <c r="BE34" s="224"/>
+        <f t="shared" si="2"/>
+        <v>2.4444444444444442</v>
+      </c>
+      <c r="BE34" s="211"/>
       <c r="BF34" s="192"/>
       <c r="BG34" s="192"/>
       <c r="BH34" s="20">
         <f>IF(AB32&lt;0,BB34*BF30,BB34*BF29)</f>
         <v>0</v>
       </c>
-      <c r="BI34" s="224"/>
+      <c r="BI34" s="211"/>
       <c r="BJ34" s="192">
         <f>BH34+((BD34-BB34)*BF29)</f>
-        <v>0.41666666666666674</v>
-      </c>
-      <c r="BK34" s="224"/>
+        <v>1.6296296296296295</v>
+      </c>
+      <c r="BK34" s="211"/>
       <c r="BL34" s="18">
         <f>IF(AB31&gt;0,(BH34*AB31)+((BJ34-BH34)*V34),BJ34*V34)</f>
-        <v>0.41666666666666674</v>
-      </c>
-      <c r="BM34" s="224"/>
+        <v>1.6296296296296295</v>
+      </c>
+      <c r="BM34" s="211"/>
       <c r="BN34" s="18">
         <f>(AL34*Z32)+(AB30*BB34)</f>
         <v>0</v>
       </c>
-      <c r="BO34" s="224"/>
+      <c r="BO34" s="211"/>
       <c r="BP34" s="192">
-        <f t="shared" si="0"/>
-        <v>0.41666666666666674</v>
+        <f t="shared" si="3"/>
+        <v>1.6296296296296295</v>
       </c>
       <c r="BQ34" s="123" t="s">
         <v>51</v>
@@ -15477,7 +15477,7 @@
       <c r="D35" s="53"/>
       <c r="E35" s="165"/>
       <c r="F35" s="53"/>
-      <c r="G35" s="252"/>
+      <c r="G35" s="204"/>
       <c r="H35" s="84"/>
       <c r="I35" s="191"/>
       <c r="J35" s="191"/>
@@ -15490,17 +15490,17 @@
       <c r="M35" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="N35" s="215" t="s">
+      <c r="N35" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="215"/>
+      <c r="O35" s="208"/>
       <c r="P35" s="5">
         <v>0</v>
       </c>
-      <c r="Q35" s="216" t="s">
+      <c r="Q35" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="R35" s="216"/>
+      <c r="R35" s="217"/>
       <c r="S35" s="5">
         <v>0</v>
       </c>
@@ -15534,14 +15534,14 @@
       <c r="AI35" s="14"/>
       <c r="AJ35" s="20">
         <f>AJ30*AJ33</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="20" t="s">
         <v>110</v>
       </c>
       <c r="AL35" s="20">
         <f>IF(V30=1,V31,SUM(AJ31,AJ34,AL29,AL32)+(Z31*AL34)-(Z32*AL34))</f>
-        <v>7.5</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AM35" s="20" t="s">
         <v>62</v>
@@ -15589,13 +15589,13 @@
       </c>
       <c r="E36" s="179">
         <f>IFERROR(BR30,NA())</f>
-        <v>0.97222222222222243</v>
+        <v>2.7160493827160495</v>
       </c>
       <c r="F36" s="3">
         <f>IFERROR(E36/P30,NA())</f>
-        <v>5.401234567901236E-3</v>
-      </c>
-      <c r="G36" s="252"/>
+        <v>2.1728395061728394E-2</v>
+      </c>
+      <c r="G36" s="204"/>
       <c r="H36" s="84"/>
       <c r="I36" s="80"/>
       <c r="J36" s="80"/>
@@ -15632,7 +15632,7 @@
       <c r="AI36" s="14"/>
       <c r="AJ36" s="20">
         <f>Z30*(AJ32+AJ35)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="20" t="str">
         <f>"+attacks"</f>
@@ -15749,11 +15749,11 @@
     </row>
     <row r="38" spans="1:71" ht="15" customHeight="1">
       <c r="A38" s="125"/>
-      <c r="B38" s="245" t="str">
+      <c r="B38" s="212" t="str">
         <f>IF(I40="","",I40)</f>
-        <v>Model 2</v>
-      </c>
-      <c r="C38" s="245"/>
+        <v>Crowe v. T3</v>
+      </c>
+      <c r="C38" s="212"/>
       <c r="D38" s="8"/>
       <c r="E38" s="167" t="s">
         <v>11</v>
@@ -15761,102 +15761,102 @@
       <c r="F38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="247"/>
+      <c r="G38" s="214"/>
       <c r="H38" s="82"/>
-      <c r="I38" s="231" t="str">
+      <c r="I38" s="209" t="str">
         <f>IF(I40="","",I40)</f>
-        <v>Model 2</v>
-      </c>
-      <c r="J38" s="231"/>
-      <c r="K38" s="231"/>
-      <c r="L38" s="231"/>
-      <c r="M38" s="231"/>
-      <c r="N38" s="231"/>
-      <c r="O38" s="231"/>
-      <c r="P38" s="231"/>
-      <c r="Q38" s="231"/>
-      <c r="R38" s="231"/>
-      <c r="S38" s="231"/>
+        <v>Crowe v. T3</v>
+      </c>
+      <c r="J38" s="209"/>
+      <c r="K38" s="209"/>
+      <c r="L38" s="209"/>
+      <c r="M38" s="209"/>
+      <c r="N38" s="209"/>
+      <c r="O38" s="209"/>
+      <c r="P38" s="209"/>
+      <c r="Q38" s="209"/>
+      <c r="R38" s="209"/>
+      <c r="S38" s="209"/>
       <c r="T38" s="83"/>
-      <c r="V38" s="206" t="s">
+      <c r="V38" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="W38" s="207"/>
-      <c r="X38" s="207"/>
-      <c r="Y38" s="207"/>
-      <c r="Z38" s="207"/>
-      <c r="AA38" s="207"/>
-      <c r="AB38" s="207"/>
-      <c r="AC38" s="207"/>
-      <c r="AD38" s="207" t="s">
+      <c r="W38" s="206"/>
+      <c r="X38" s="206"/>
+      <c r="Y38" s="206"/>
+      <c r="Z38" s="206"/>
+      <c r="AA38" s="206"/>
+      <c r="AB38" s="206"/>
+      <c r="AC38" s="206"/>
+      <c r="AD38" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE38" s="207"/>
-      <c r="AF38" s="207"/>
-      <c r="AG38" s="207"/>
+      <c r="AE38" s="206"/>
+      <c r="AF38" s="206"/>
+      <c r="AG38" s="206"/>
       <c r="AH38" s="198"/>
       <c r="AI38" s="198"/>
-      <c r="AJ38" s="207" t="s">
+      <c r="AJ38" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="AK38" s="207"/>
-      <c r="AL38" s="207"/>
-      <c r="AM38" s="207"/>
-      <c r="AN38" s="207"/>
-      <c r="AO38" s="207" t="s">
+      <c r="AK38" s="206"/>
+      <c r="AL38" s="206"/>
+      <c r="AM38" s="206"/>
+      <c r="AN38" s="206"/>
+      <c r="AO38" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="AP38" s="207"/>
-      <c r="AQ38" s="207"/>
-      <c r="AR38" s="207"/>
-      <c r="AS38" s="207"/>
-      <c r="AT38" s="207"/>
-      <c r="AU38" s="207"/>
-      <c r="AV38" s="207"/>
-      <c r="AW38" s="207"/>
-      <c r="AX38" s="207"/>
-      <c r="AY38" s="207"/>
-      <c r="AZ38" s="207"/>
-      <c r="BA38" s="207"/>
-      <c r="BB38" s="207"/>
-      <c r="BC38" s="207"/>
-      <c r="BD38" s="207"/>
-      <c r="BE38" s="207"/>
+      <c r="AP38" s="206"/>
+      <c r="AQ38" s="206"/>
+      <c r="AR38" s="206"/>
+      <c r="AS38" s="206"/>
+      <c r="AT38" s="206"/>
+      <c r="AU38" s="206"/>
+      <c r="AV38" s="206"/>
+      <c r="AW38" s="206"/>
+      <c r="AX38" s="206"/>
+      <c r="AY38" s="206"/>
+      <c r="AZ38" s="206"/>
+      <c r="BA38" s="206"/>
+      <c r="BB38" s="206"/>
+      <c r="BC38" s="206"/>
+      <c r="BD38" s="206"/>
+      <c r="BE38" s="206"/>
       <c r="BF38" s="198"/>
       <c r="BG38" s="198"/>
-      <c r="BH38" s="207" t="s">
+      <c r="BH38" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="BI38" s="207"/>
-      <c r="BJ38" s="207"/>
-      <c r="BK38" s="207"/>
-      <c r="BL38" s="207"/>
-      <c r="BM38" s="207"/>
-      <c r="BN38" s="207"/>
-      <c r="BO38" s="207"/>
-      <c r="BP38" s="207"/>
-      <c r="BQ38" s="207"/>
-      <c r="BR38" s="207" t="s">
+      <c r="BI38" s="206"/>
+      <c r="BJ38" s="206"/>
+      <c r="BK38" s="206"/>
+      <c r="BL38" s="206"/>
+      <c r="BM38" s="206"/>
+      <c r="BN38" s="206"/>
+      <c r="BO38" s="206"/>
+      <c r="BP38" s="206"/>
+      <c r="BQ38" s="206"/>
+      <c r="BR38" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="BS38" s="226"/>
+      <c r="BS38" s="210"/>
     </row>
     <row r="39" spans="1:71" ht="15" customHeight="1">
       <c r="A39" s="126"/>
-      <c r="B39" s="246"/>
-      <c r="C39" s="246"/>
+      <c r="B39" s="213"/>
+      <c r="C39" s="213"/>
       <c r="D39" s="38" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="164">
         <f>IF(AND(AD39,AF46),BL39+BN39,NA())</f>
-        <v>6.4814814814814827</v>
+        <v>2.9355169753086421</v>
       </c>
       <c r="F39" s="30">
         <f>IFERROR(E39/P40,NA())</f>
-        <v>3.2407407407407413E-2</v>
-      </c>
-      <c r="G39" s="248"/>
+        <v>2.3484135802469136E-2</v>
+      </c>
+      <c r="G39" s="215"/>
       <c r="H39" s="84"/>
       <c r="I39" s="78" t="s">
         <v>13</v>
@@ -15903,7 +15903,7 @@
       </c>
       <c r="Z39" s="22">
         <f>IF(AF44,IF(P42="2+",5/6,IF(P42="3+",4/6,IF(P42="4+",3/6,IF(P42="5+",2/6,IF(P42="6+",1/6,IF(P42="7+",0/6)))))),0)</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="19" t="s">
         <v>57</v>
@@ -15949,70 +15949,70 @@
       </c>
       <c r="AN39" s="20">
         <f>IF(X41&gt;0,X41,IF(AND(X42&gt;0,3&gt;V42),X42,IF(V42&gt;=2*3,5/6,IF(V42&gt;3,4/6,IF(V42=3,3/6,IF(V42&lt;=3/2,1/6,IF(V42&lt;3,2/6)))))))</f>
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AO39" s="20" t="s">
         <v>90</v>
       </c>
       <c r="AP39" s="20">
         <f>IF((AN39+X40)&gt;5/6,5/6,AN39+X40)</f>
-        <v>0.83333333333333337</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="AQ39" s="20" t="s">
         <v>96</v>
       </c>
       <c r="AR39" s="21">
         <f>IF(AND(AF42,X40&gt;=0),AL45*AN39,AL45*AP39)</f>
-        <v>3.2407407407407409</v>
-      </c>
-      <c r="AS39" s="224" t="s">
+        <v>6.2163888888888881</v>
+      </c>
+      <c r="AS39" s="211" t="s">
         <v>121</v>
       </c>
       <c r="AT39" s="199">
         <f>IF(AND(AN39&lt;AP46,AF42),AB39*AL45,AP46*AL45)</f>
         <v>0</v>
       </c>
-      <c r="AU39" s="224" t="s">
+      <c r="AU39" s="211" t="s">
         <v>109</v>
       </c>
       <c r="AV39" s="20">
         <f>IF(AF42,AL45-(AL45*AN39),IF(AF41,(1/6)*AL45,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW39" s="224" t="s">
+        <v>3.1081944444444449</v>
+      </c>
+      <c r="AW39" s="211" t="s">
         <v>60</v>
       </c>
       <c r="AX39" s="20">
-        <f>AV39*AP39</f>
-        <v>0</v>
-      </c>
-      <c r="AY39" s="224" t="s">
+        <f t="shared" ref="AX39:AX44" si="4">AV39*AP39</f>
+        <v>2.5901620370370373</v>
+      </c>
+      <c r="AY39" s="211" t="s">
         <v>122</v>
       </c>
       <c r="AZ39" s="20">
         <f>AV39*AP46</f>
         <v>0</v>
       </c>
-      <c r="BA39" s="224" t="s">
+      <c r="BA39" s="211" t="s">
         <v>110</v>
       </c>
       <c r="BB39" s="199">
-        <f>AT39+AZ39</f>
-        <v>0</v>
-      </c>
-      <c r="BC39" s="224" t="s">
+        <f t="shared" ref="BB39:BB44" si="5">AT39+AZ39</f>
+        <v>0</v>
+      </c>
+      <c r="BC39" s="211" t="s">
         <v>117</v>
       </c>
       <c r="BD39" s="20">
-        <f>SUM(AR39,AX39)</f>
-        <v>3.2407407407407409</v>
-      </c>
-      <c r="BE39" s="224" t="s">
+        <f t="shared" ref="BD39:BD44" si="6">SUM(AR39,AX39)</f>
+        <v>8.8065509259259258</v>
+      </c>
+      <c r="BE39" s="211" t="s">
         <v>63</v>
       </c>
       <c r="BF39" s="199">
         <f>IF((1-(V39+V43))&gt;1,1,1-(V39+V43))</f>
-        <v>0.66666666666666674</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="BG39" s="199" t="s">
         <v>105</v>
@@ -16021,40 +16021,40 @@
         <f>IF(AB42&lt;0,BB39*BF40,BB39*BF39)</f>
         <v>0</v>
       </c>
-      <c r="BI39" s="224" t="s">
+      <c r="BI39" s="211" t="s">
         <v>102</v>
       </c>
       <c r="BJ39" s="199">
         <f>BH39+((BD39-BB39)*BF39)</f>
-        <v>2.1604938271604941</v>
-      </c>
-      <c r="BK39" s="224" t="s">
+        <v>2.9355169753086421</v>
+      </c>
+      <c r="BK39" s="211" t="s">
         <v>103</v>
       </c>
       <c r="BL39" s="18">
         <f>IF(AB41&gt;0,(BH39*AB41)+((BJ39-BH39)*V44),BJ39*V44)</f>
-        <v>6.4814814814814827</v>
-      </c>
-      <c r="BM39" s="224" t="s">
+        <v>2.9355169753086421</v>
+      </c>
+      <c r="BM39" s="211" t="s">
         <v>65</v>
       </c>
       <c r="BN39" s="18">
         <f>(AL44*Z42)+(AB40*BB39)</f>
         <v>0</v>
       </c>
-      <c r="BO39" s="224" t="s">
+      <c r="BO39" s="211" t="s">
         <v>64</v>
       </c>
       <c r="BP39" s="199">
         <f>IF(AD39,BL39+BN39,NA())</f>
-        <v>6.4814814814814827</v>
+        <v>2.9355169753086421</v>
       </c>
       <c r="BQ39" s="123" t="s">
         <v>46</v>
       </c>
       <c r="BR39" s="18">
         <f>IFERROR(IF(AD39,BP39,0)+IF(AD40,BP40,0)+IF(AD41,BP41,0)+IF(AD42,BP42,0)+IF(AD43,BP43,0)+IF(AD44,BP44,0),NA())</f>
-        <v>28.518518518518519</v>
+        <v>13.123487654320986</v>
       </c>
       <c r="BS39" s="160" t="s">
         <v>67</v>
@@ -16062,20 +16062,20 @@
     </row>
     <row r="40" spans="1:71" ht="15" customHeight="1">
       <c r="A40" s="126"/>
-      <c r="B40" s="246"/>
-      <c r="C40" s="246"/>
+      <c r="B40" s="213"/>
+      <c r="C40" s="213"/>
       <c r="D40" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="164">
         <f>IF(AND(AD40,AF46),BL40+BN40,NA())</f>
-        <v>5.1851851851851851</v>
+        <v>2.5901620370370373</v>
       </c>
       <c r="F40" s="30">
         <f>IFERROR(E40/P40,NA())</f>
-        <v>2.5925925925925925E-2</v>
-      </c>
-      <c r="G40" s="248"/>
+        <v>2.0721296296296297E-2</v>
+      </c>
+      <c r="G40" s="215"/>
       <c r="H40" s="84"/>
       <c r="I40" s="5" t="s">
         <v>124</v>
@@ -16087,19 +16087,19 @@
         <v>108</v>
       </c>
       <c r="L40" s="5">
+        <v>9.5909999999999993</v>
+      </c>
+      <c r="M40" s="5">
         <v>4</v>
       </c>
-      <c r="M40" s="5">
-        <v>7</v>
-      </c>
       <c r="N40" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O40" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P40" s="5">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="Q40" s="77"/>
       <c r="R40" s="13"/>
@@ -16114,7 +16114,7 @@
       </c>
       <c r="X40" s="12">
         <f>IF(M42="D3",5/6,IF(M42="2D3",3/6,IF(M42="D6",3.5/6,IF(M42="2D6",1,M42/6))))</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Y40" s="14" t="str">
         <f>"+- to wound rolls"</f>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="AJ40" s="20">
         <f>IF(Z39=0,0,IF((Z39+X39)&gt;5/6,5/6,Z39+X39))</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="20" t="s">
         <v>118</v>
@@ -16169,7 +16169,7 @@
       </c>
       <c r="AN40" s="20">
         <f>IF(X41&gt;0,X41,IF(AND(X42&gt;0,4&gt;V42),X42,IF(V42&gt;=2*4,5/6,IF(V42&gt;4,4/6,IF(V42=4,3/6,IF(V42&lt;=4/2,1/6,IF(V42&lt;4,2/6)))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AO40" s="20" t="s">
         <v>91</v>
@@ -16183,39 +16183,39 @@
       </c>
       <c r="AR40" s="21">
         <f>IF(AND(AF42,X40&gt;=0),AL45*AN40,AL45*AP40)</f>
-        <v>2.5925925925925926</v>
-      </c>
-      <c r="AS40" s="224"/>
+        <v>4.6622916666666665</v>
+      </c>
+      <c r="AS40" s="211"/>
       <c r="AT40" s="199">
         <f>IF(AND(AN40&lt;AP46,AF42),AB39*AL45,AP46*AL45)</f>
         <v>0</v>
       </c>
-      <c r="AU40" s="224"/>
+      <c r="AU40" s="211"/>
       <c r="AV40" s="20">
         <f>IF(AF42,AL45-(AL45*AN40),IF(AF41,(1/6)*AL45,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW40" s="224"/>
+        <v>4.6622916666666665</v>
+      </c>
+      <c r="AW40" s="211"/>
       <c r="AX40" s="20">
-        <f>AV40*AP40</f>
-        <v>0</v>
-      </c>
-      <c r="AY40" s="224"/>
+        <f t="shared" si="4"/>
+        <v>3.108194444444444</v>
+      </c>
+      <c r="AY40" s="211"/>
       <c r="AZ40" s="20">
         <f>AV40*AP46</f>
         <v>0</v>
       </c>
-      <c r="BA40" s="224"/>
+      <c r="BA40" s="211"/>
       <c r="BB40" s="199">
-        <f>AT40+AZ40</f>
-        <v>0</v>
-      </c>
-      <c r="BC40" s="224"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC40" s="211"/>
       <c r="BD40" s="20">
-        <f>SUM(AR40,AX40)</f>
-        <v>2.5925925925925926</v>
-      </c>
-      <c r="BE40" s="224"/>
+        <f t="shared" si="6"/>
+        <v>7.7704861111111105</v>
+      </c>
+      <c r="BE40" s="211"/>
       <c r="BF40" s="199">
         <f>IF((1-(V39+AB42))&gt;1,1,1-(V39+AB42))</f>
         <v>0.33333333333333337</v>
@@ -16227,32 +16227,32 @@
         <f>IF(AB42&lt;0,BB40*BF40,BB40*BF39)</f>
         <v>0</v>
       </c>
-      <c r="BI40" s="224"/>
+      <c r="BI40" s="211"/>
       <c r="BJ40" s="199">
         <f>BH40+((BD40-BB40)*BF39)</f>
-        <v>1.7283950617283952</v>
-      </c>
-      <c r="BK40" s="224"/>
+        <v>2.5901620370370373</v>
+      </c>
+      <c r="BK40" s="211"/>
       <c r="BL40" s="18">
         <f>IF(AB41&gt;0,(BH40*AB41)+((BJ40-BH40)*V44),BJ40*V44)</f>
-        <v>5.1851851851851851</v>
-      </c>
-      <c r="BM40" s="224"/>
+        <v>2.5901620370370373</v>
+      </c>
+      <c r="BM40" s="211"/>
       <c r="BN40" s="18">
         <f>(AL44*Z42)+(AB40*BB40)</f>
         <v>0</v>
       </c>
-      <c r="BO40" s="224"/>
+      <c r="BO40" s="211"/>
       <c r="BP40" s="199">
-        <f t="shared" ref="BP40:BP44" si="1">IF(AD40,BL40+BN40,NA())</f>
-        <v>5.1851851851851851</v>
+        <f t="shared" ref="BP40:BP44" si="7">IF(AD40,BL40+BN40,NA())</f>
+        <v>2.5901620370370373</v>
       </c>
       <c r="BQ40" s="123" t="s">
         <v>47</v>
       </c>
       <c r="BR40" s="18">
         <f>IFERROR(BR39/AD45,NA())</f>
-        <v>4.7530864197530862</v>
+        <v>2.187247942386831</v>
       </c>
       <c r="BS40" s="160" t="s">
         <v>11</v>
@@ -16260,36 +16260,36 @@
     </row>
     <row r="41" spans="1:71" ht="15" customHeight="1">
       <c r="A41" s="126"/>
-      <c r="B41" s="246"/>
-      <c r="C41" s="246"/>
+      <c r="B41" s="213"/>
+      <c r="C41" s="213"/>
       <c r="D41" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="164">
         <f>IF(AND(AD41,AF46),BL41+BN41,NA())</f>
-        <v>5.1851851851851851</v>
+        <v>2.0721296296296297</v>
       </c>
       <c r="F41" s="30">
         <f>IFERROR(E41/P40,NA())</f>
-        <v>2.5925925925925925E-2</v>
-      </c>
-      <c r="G41" s="248"/>
+        <v>1.6577037037037036E-2</v>
+      </c>
+      <c r="G41" s="215"/>
       <c r="H41" s="84"/>
-      <c r="I41" s="225"/>
-      <c r="J41" s="225"/>
-      <c r="K41" s="225"/>
-      <c r="L41" s="225"/>
-      <c r="M41" s="225"/>
-      <c r="N41" s="225"/>
-      <c r="O41" s="225"/>
-      <c r="P41" s="225"/>
-      <c r="Q41" s="225"/>
-      <c r="R41" s="225"/>
-      <c r="S41" s="225"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="216"/>
+      <c r="L41" s="216"/>
+      <c r="M41" s="216"/>
+      <c r="N41" s="216"/>
+      <c r="O41" s="216"/>
+      <c r="P41" s="216"/>
+      <c r="Q41" s="216"/>
+      <c r="R41" s="216"/>
+      <c r="S41" s="216"/>
       <c r="T41" s="85"/>
       <c r="V41" s="161">
         <f>(IF(L40="D3",2,IF(L40="2D3",4,IF(L40="D6",3.5,IF(L40="2D6",7,IF(L40="3D6",10.5,L40))))))</f>
-        <v>4</v>
+        <v>9.5909999999999993</v>
       </c>
       <c r="W41" s="12" t="s">
         <v>36</v>
@@ -16329,14 +16329,14 @@
       </c>
       <c r="AH41" s="14" t="b">
         <f>(AND(NOT(AF41),NOT(AF42)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="14" t="s">
         <v>120</v>
       </c>
       <c r="AJ41" s="20">
         <f>IF(AND(AF40,X39&gt;=0),V41*V40,V41*AJ39)</f>
-        <v>3.3333333333333335</v>
+        <v>7.9924999999999997</v>
       </c>
       <c r="AK41" s="20" t="s">
         <v>112</v>
@@ -16350,78 +16350,78 @@
       </c>
       <c r="AN41" s="20">
         <f>IF(X41&gt;0,X41,IF(AND(X42&gt;0,5&gt;V42),X42,IF(V42&gt;=2*5,5/6,IF(V42&gt;5,4/6,IF(V42=5,3/6,IF(V42&lt;=5/2,1/6,IF(V42&lt;5,2/6)))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AO41" s="20" t="s">
         <v>92</v>
       </c>
       <c r="AP41" s="20">
         <f>IF((AN41+X40)&gt;5/6,5/6,AN41+X40)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AQ41" s="20" t="s">
         <v>98</v>
       </c>
       <c r="AR41" s="21">
         <f>IF(AND(AF42,X40&gt;=0),AL45*AN41,AL45*AP41)</f>
-        <v>2.5925925925925926</v>
-      </c>
-      <c r="AS41" s="224"/>
+        <v>3.108194444444444</v>
+      </c>
+      <c r="AS41" s="211"/>
       <c r="AT41" s="199">
         <f>IF(AND(AN41&lt;AP46,AF42),AB39*AL45,AP46*AL45)</f>
         <v>0</v>
       </c>
-      <c r="AU41" s="224"/>
+      <c r="AU41" s="211"/>
       <c r="AV41" s="20">
         <f>IF(AF42,AL45-(AL45*AN41),IF(AF41,(1/6)*AL45,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW41" s="224"/>
+        <v>6.216388888888889</v>
+      </c>
+      <c r="AW41" s="211"/>
       <c r="AX41" s="20">
-        <f>AV41*AP41</f>
-        <v>0</v>
-      </c>
-      <c r="AY41" s="224"/>
+        <f t="shared" si="4"/>
+        <v>3.1081944444444445</v>
+      </c>
+      <c r="AY41" s="211"/>
       <c r="AZ41" s="20">
         <f>AV41*AP46</f>
         <v>0</v>
       </c>
-      <c r="BA41" s="224"/>
+      <c r="BA41" s="211"/>
       <c r="BB41" s="199">
-        <f>AT41+AZ41</f>
-        <v>0</v>
-      </c>
-      <c r="BC41" s="224"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC41" s="211"/>
       <c r="BD41" s="20">
-        <f>SUM(AR41,AX41)</f>
-        <v>2.5925925925925926</v>
-      </c>
-      <c r="BE41" s="224"/>
+        <f t="shared" si="6"/>
+        <v>6.2163888888888881</v>
+      </c>
+      <c r="BE41" s="211"/>
       <c r="BF41" s="199"/>
       <c r="BG41" s="199"/>
       <c r="BH41" s="20">
         <f>IF(AB42&lt;0,BB41*BF40,BB41*BF39)</f>
         <v>0</v>
       </c>
-      <c r="BI41" s="224"/>
+      <c r="BI41" s="211"/>
       <c r="BJ41" s="199">
         <f>BH41+((BD41-BB41)*BF39)</f>
-        <v>1.7283950617283952</v>
-      </c>
-      <c r="BK41" s="224"/>
+        <v>2.0721296296296297</v>
+      </c>
+      <c r="BK41" s="211"/>
       <c r="BL41" s="18">
         <f>IF(AB41&gt;0,(BH41*AB41)+((BJ41-BH41)*V44),BJ41*V44)</f>
-        <v>5.1851851851851851</v>
-      </c>
-      <c r="BM41" s="224"/>
+        <v>2.0721296296296297</v>
+      </c>
+      <c r="BM41" s="211"/>
       <c r="BN41" s="18">
         <f>(AL44*Z42)+(AB40*BB41)</f>
         <v>0</v>
       </c>
-      <c r="BO41" s="224"/>
+      <c r="BO41" s="211"/>
       <c r="BP41" s="199">
-        <f t="shared" si="1"/>
-        <v>5.1851851851851851</v>
+        <f t="shared" si="7"/>
+        <v>2.0721296296296297</v>
       </c>
       <c r="BQ41" s="123" t="s">
         <v>48</v>
@@ -16437,13 +16437,13 @@
       </c>
       <c r="E42" s="164">
         <f>IF(AND(AD42,AF46),BL42+BN42,NA())</f>
-        <v>5.1851851851851851</v>
+        <v>2.0721296296296297</v>
       </c>
       <c r="F42" s="30">
         <f>IFERROR(E42/P40,NA())</f>
-        <v>2.5925925925925925E-2</v>
-      </c>
-      <c r="G42" s="248"/>
+        <v>1.6577037037037036E-2</v>
+      </c>
+      <c r="G42" s="215"/>
       <c r="H42" s="84"/>
       <c r="I42" s="191" t="str">
         <f>"+- to hit"</f>
@@ -16458,26 +16458,26 @@
         <v>+- to wound</v>
       </c>
       <c r="M42" s="5">
-        <v>0</v>
-      </c>
-      <c r="N42" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="215"/>
+      <c r="O42" s="208"/>
       <c r="P42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="215" t="s">
+      <c r="Q42" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R42" s="215"/>
+      <c r="R42" s="208"/>
       <c r="S42" s="5" t="s">
         <v>19</v>
       </c>
       <c r="T42" s="86"/>
       <c r="V42" s="161">
         <f>IF(M40="D3",2,IF(M40="2D3",4,IF(M40="D6",3.5,IF(M40="2D6",7,M40))))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W42" s="12" t="s">
         <v>38</v>
@@ -16510,7 +16510,7 @@
         <v>49</v>
       </c>
       <c r="AF42" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42" s="14" t="s">
         <v>55</v>
@@ -16519,7 +16519,7 @@
       <c r="AI42" s="14"/>
       <c r="AJ42" s="20">
         <f>IF(AND(V40&lt;AJ40,AF40),Z39*V41,AJ40*V41)</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="20" t="s">
         <v>109</v>
@@ -16533,78 +16533,78 @@
       </c>
       <c r="AN42" s="20">
         <f>IF(X41&gt;0,X41,IF(AND(X42&gt;0,6&gt;V42),X42,IF(V42&gt;=2*6,5/6,IF(V42&gt;6,4/6,IF(V42=6,3/6,IF(V42&lt;=6/2,1/6,IF(V42&lt;6,2/6)))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AO42" s="20" t="s">
         <v>93</v>
       </c>
       <c r="AP42" s="20">
         <f>IF((AN42+X40)&gt;5/6,5/6,AN42+X40)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AQ42" s="20" t="s">
         <v>99</v>
       </c>
       <c r="AR42" s="21">
         <f>IF(AND(AF42,X40&gt;=0),AL45*AN42,AL45*AP42)</f>
-        <v>2.5925925925925926</v>
-      </c>
-      <c r="AS42" s="224"/>
+        <v>3.108194444444444</v>
+      </c>
+      <c r="AS42" s="211"/>
       <c r="AT42" s="199">
         <f>IF(AND(AN42&lt;AP46,AF42),AB39*AL45,AP46*AL45)</f>
         <v>0</v>
       </c>
-      <c r="AU42" s="224"/>
+      <c r="AU42" s="211"/>
       <c r="AV42" s="20">
         <f>IF(AF42,AL45-(AL45*AN42),IF(AF41,(1/6)*AL45,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW42" s="224"/>
+        <v>6.216388888888889</v>
+      </c>
+      <c r="AW42" s="211"/>
       <c r="AX42" s="20">
-        <f>AV42*AP42</f>
-        <v>0</v>
-      </c>
-      <c r="AY42" s="224"/>
+        <f t="shared" si="4"/>
+        <v>3.1081944444444445</v>
+      </c>
+      <c r="AY42" s="211"/>
       <c r="AZ42" s="20">
         <f>AV42*AP46</f>
         <v>0</v>
       </c>
-      <c r="BA42" s="224"/>
+      <c r="BA42" s="211"/>
       <c r="BB42" s="199">
-        <f>AT42+AZ42</f>
-        <v>0</v>
-      </c>
-      <c r="BC42" s="224"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC42" s="211"/>
       <c r="BD42" s="20">
-        <f>SUM(AR42,AX42)</f>
-        <v>2.5925925925925926</v>
-      </c>
-      <c r="BE42" s="224"/>
+        <f t="shared" si="6"/>
+        <v>6.2163888888888881</v>
+      </c>
+      <c r="BE42" s="211"/>
       <c r="BF42" s="199"/>
       <c r="BG42" s="199"/>
       <c r="BH42" s="20">
         <f>IF(AB42&lt;0,BB42*BF40,BB42*BF39)</f>
         <v>0</v>
       </c>
-      <c r="BI42" s="224"/>
+      <c r="BI42" s="211"/>
       <c r="BJ42" s="199">
         <f>BH42+((BD42-BB42)*BF39)</f>
-        <v>1.7283950617283952</v>
-      </c>
-      <c r="BK42" s="224"/>
+        <v>2.0721296296296297</v>
+      </c>
+      <c r="BK42" s="211"/>
       <c r="BL42" s="18">
         <f>IF(AB41&gt;0,(BH42*AB41)+((BJ42-BH42)*V44),BJ42*V44)</f>
-        <v>5.1851851851851851</v>
-      </c>
-      <c r="BM42" s="224"/>
+        <v>2.0721296296296297</v>
+      </c>
+      <c r="BM42" s="211"/>
       <c r="BN42" s="18">
         <f>(AL44*Z42)+(AB40*BB42)</f>
         <v>0</v>
       </c>
-      <c r="BO42" s="224"/>
+      <c r="BO42" s="211"/>
       <c r="BP42" s="199">
-        <f t="shared" si="1"/>
-        <v>5.1851851851851851</v>
+        <f t="shared" si="7"/>
+        <v>2.0721296296296297</v>
       </c>
       <c r="BQ42" s="123" t="s">
         <v>49</v>
@@ -16620,41 +16620,41 @@
       </c>
       <c r="E43" s="164">
         <f>IF(AND(AD43,AF46),BL43+BN43,NA())</f>
-        <v>3.8888888888888893</v>
+        <v>2.0721296296296297</v>
       </c>
       <c r="F43" s="30">
         <f>IFERROR(E43/P40,NA())</f>
-        <v>1.9444444444444445E-2</v>
-      </c>
-      <c r="G43" s="248"/>
+        <v>1.6577037037037036E-2</v>
+      </c>
+      <c r="G43" s="215"/>
       <c r="H43" s="87"/>
       <c r="I43" s="80"/>
       <c r="J43" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="215" t="s">
+      <c r="K43" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="215"/>
-      <c r="M43" s="215"/>
-      <c r="N43" s="215" t="s">
+      <c r="L43" s="208"/>
+      <c r="M43" s="208"/>
+      <c r="N43" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="215"/>
+      <c r="O43" s="208"/>
       <c r="P43" s="5">
         <v>0</v>
       </c>
-      <c r="Q43" s="215" t="s">
+      <c r="Q43" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="R43" s="215"/>
+      <c r="R43" s="208"/>
       <c r="S43" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="86"/>
       <c r="V43" s="161">
         <f>IF(N40="D3",-2/6,IF(N40="2D3",-4/6,IF(N40="D6",-3.5/6,IF(N40="2D6",-7/6,N40/6))))</f>
-        <v>-0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W43" s="12" t="s">
         <v>37</v>
@@ -16679,7 +16679,7 @@
       <c r="AI43" s="14"/>
       <c r="AJ43" s="20">
         <f>IF(AF40,V41-(V40*V41),IF(AF39,(1/6)*V41,0))</f>
-        <v>0.66666666666666652</v>
+        <v>1.5984999999999996</v>
       </c>
       <c r="AK43" s="20" t="s">
         <v>60</v>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="AN43" s="20">
         <f>IF(X41&gt;0,X41,IF(AND(X42&gt;0,7&gt;V42),X42,IF(V42&gt;=2*7,5/6,IF(V42&gt;7,4/6,IF(V42=7,3/6,IF(V42&lt;=7/2,1/6,IF(V42&lt;7,2/6)))))))</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AO43" s="20" t="s">
         <v>94</v>
@@ -16707,64 +16707,64 @@
       </c>
       <c r="AR43" s="21">
         <f>IF(AND(AF42,X40&gt;=0),AL45*AN43,AL45*AP43)</f>
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="AS43" s="224"/>
+        <v>3.108194444444444</v>
+      </c>
+      <c r="AS43" s="211"/>
       <c r="AT43" s="199">
         <f>IF(AND(AN43&lt;AP46,AF42),AB39*AL45,AP46*AL45)</f>
         <v>0</v>
       </c>
-      <c r="AU43" s="224"/>
+      <c r="AU43" s="211"/>
       <c r="AV43" s="20">
         <f>IF(AF42,AL45-(AL45*AN43),IF(AF41,(1/6)*AL45,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW43" s="224"/>
+        <v>6.216388888888889</v>
+      </c>
+      <c r="AW43" s="211"/>
       <c r="AX43" s="20">
-        <f>AV43*AP43</f>
-        <v>0</v>
-      </c>
-      <c r="AY43" s="224"/>
+        <f t="shared" si="4"/>
+        <v>3.1081944444444445</v>
+      </c>
+      <c r="AY43" s="211"/>
       <c r="AZ43" s="20">
         <f>AV43*AP46</f>
         <v>0</v>
       </c>
-      <c r="BA43" s="224"/>
+      <c r="BA43" s="211"/>
       <c r="BB43" s="199">
-        <f>AT43+AZ43</f>
-        <v>0</v>
-      </c>
-      <c r="BC43" s="224"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC43" s="211"/>
       <c r="BD43" s="20">
-        <f>SUM(AR43,AX43)</f>
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="BE43" s="224"/>
+        <f t="shared" si="6"/>
+        <v>6.2163888888888881</v>
+      </c>
+      <c r="BE43" s="211"/>
       <c r="BF43" s="199"/>
       <c r="BG43" s="199"/>
       <c r="BH43" s="20">
         <f>IF(AB42&lt;0,BB43*BF40,BB43*BF39)</f>
         <v>0</v>
       </c>
-      <c r="BI43" s="224"/>
+      <c r="BI43" s="211"/>
       <c r="BJ43" s="199">
         <f>BH43+((BD43-BB43)*BF39)</f>
-        <v>1.2962962962962965</v>
-      </c>
-      <c r="BK43" s="224"/>
+        <v>2.0721296296296297</v>
+      </c>
+      <c r="BK43" s="211"/>
       <c r="BL43" s="18">
         <f>IF(AB41&gt;0,(BH43*AB41)+((BJ43-BH43)*V44),BJ43*V44)</f>
-        <v>3.8888888888888893</v>
-      </c>
-      <c r="BM43" s="224"/>
+        <v>2.0721296296296297</v>
+      </c>
+      <c r="BM43" s="211"/>
       <c r="BN43" s="18">
         <f>(AL44*Z42)+(AB40*BB43)</f>
         <v>0</v>
       </c>
-      <c r="BO43" s="224"/>
+      <c r="BO43" s="211"/>
       <c r="BP43" s="199">
-        <f t="shared" si="1"/>
-        <v>3.8888888888888893</v>
+        <f t="shared" si="7"/>
+        <v>2.0721296296296297</v>
       </c>
       <c r="BQ43" s="123" t="s">
         <v>50</v>
@@ -16780,41 +16780,41 @@
       </c>
       <c r="E44" s="164">
         <f>IF(AND(AD44,AF46),BL44+BN44,NA())</f>
-        <v>2.5925925925925926</v>
+        <v>1.3814197530864198</v>
       </c>
       <c r="F44" s="30">
         <f>IFERROR(E44/P40,NA())</f>
-        <v>1.2962962962962963E-2</v>
-      </c>
-      <c r="G44" s="248"/>
+        <v>1.1051358024691359E-2</v>
+      </c>
+      <c r="G44" s="215"/>
       <c r="H44" s="84"/>
-      <c r="I44" s="232" t="s">
+      <c r="I44" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="232"/>
-      <c r="K44" s="232" t="s">
+      <c r="J44" s="207"/>
+      <c r="K44" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="232"/>
-      <c r="M44" s="232"/>
-      <c r="N44" s="215" t="s">
+      <c r="L44" s="207"/>
+      <c r="M44" s="207"/>
+      <c r="N44" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="O44" s="215"/>
+      <c r="O44" s="208"/>
       <c r="P44" s="5">
         <v>0</v>
       </c>
-      <c r="Q44" s="215" t="s">
+      <c r="Q44" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="R44" s="215"/>
+      <c r="R44" s="208"/>
       <c r="S44" s="5">
         <v>0</v>
       </c>
       <c r="T44" s="86"/>
       <c r="V44" s="161">
         <f>IF(O40="D3",2,IF(O40="2D3",4,IF(O40="D6",3.5,IF(O40="2D6",7,IF(O40="2D6 pick highest",161/36,IF(O40="Less than 3 counts as 3",4,O40))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W44" s="12" t="s">
         <v>23</v>
@@ -16831,7 +16831,7 @@
         <v>51</v>
       </c>
       <c r="AF44" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="19" t="s">
         <v>57</v>
@@ -16840,21 +16840,21 @@
       <c r="AI44" s="19"/>
       <c r="AJ44" s="20">
         <f>AJ43*AJ39</f>
-        <v>0.55555555555555547</v>
+        <v>1.3320833333333331</v>
       </c>
       <c r="AK44" s="14" t="s">
         <v>113</v>
       </c>
       <c r="AL44" s="20">
         <f>SUM(AJ42,AJ45,AL40,AL43)</f>
-        <v>0.77777777777777768</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="25" t="s">
         <v>117</v>
       </c>
       <c r="AN44" s="20">
         <f>IF(X41&gt;0,X41,IF(AND(X42&gt;0,8&gt;V42),X42,IF(V42&gt;=2*8,5/6,IF(V42&gt;8,4/6,IF(V42=8,3/6,IF(V42&lt;=8/2,1/6,IF(V42&lt;8,2/6)))))))</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AO44" s="20" t="s">
         <v>95</v>
@@ -16868,64 +16868,64 @@
       </c>
       <c r="AR44" s="20">
         <f>IF(AND(AF42,X40&gt;=0),AL45*AN44,AL45*AP44)</f>
-        <v>1.2962962962962963</v>
-      </c>
-      <c r="AS44" s="224"/>
+        <v>1.554097222222222</v>
+      </c>
+      <c r="AS44" s="211"/>
       <c r="AT44" s="199">
         <f>IF(AND(AN44&lt;AP46,AF42),AB39*AL45,AP46*AL45)</f>
         <v>0</v>
       </c>
-      <c r="AU44" s="224"/>
+      <c r="AU44" s="211"/>
       <c r="AV44" s="20">
         <f>IF(AF42,AL45-(AL45*AN44),IF(AF41,(1/6)*AL45,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW44" s="224"/>
+        <v>7.7704861111111114</v>
+      </c>
+      <c r="AW44" s="211"/>
       <c r="AX44" s="20">
-        <f>AV44*AP44</f>
-        <v>0</v>
-      </c>
-      <c r="AY44" s="224"/>
+        <f t="shared" si="4"/>
+        <v>2.5901620370370368</v>
+      </c>
+      <c r="AY44" s="211"/>
       <c r="AZ44" s="20">
         <f>AV44*AP46</f>
         <v>0</v>
       </c>
-      <c r="BA44" s="224"/>
+      <c r="BA44" s="211"/>
       <c r="BB44" s="199">
-        <f>AT44+AZ44</f>
-        <v>0</v>
-      </c>
-      <c r="BC44" s="224"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC44" s="211"/>
       <c r="BD44" s="20">
-        <f>SUM(AR44,AX44)</f>
-        <v>1.2962962962962963</v>
-      </c>
-      <c r="BE44" s="224"/>
+        <f t="shared" si="6"/>
+        <v>4.1442592592592593</v>
+      </c>
+      <c r="BE44" s="211"/>
       <c r="BF44" s="199"/>
       <c r="BG44" s="199"/>
       <c r="BH44" s="20">
         <f>IF(AB42&lt;0,BB44*BF40,BB44*BF39)</f>
         <v>0</v>
       </c>
-      <c r="BI44" s="224"/>
+      <c r="BI44" s="211"/>
       <c r="BJ44" s="199">
         <f>BH44+((BD44-BB44)*BF39)</f>
-        <v>0.86419753086419759</v>
-      </c>
-      <c r="BK44" s="224"/>
+        <v>1.3814197530864198</v>
+      </c>
+      <c r="BK44" s="211"/>
       <c r="BL44" s="18">
         <f>IF(AB41&gt;0,(BH44*AB41)+((BJ44-BH44)*V44),BJ44*V44)</f>
-        <v>2.5925925925925926</v>
-      </c>
-      <c r="BM44" s="224"/>
+        <v>1.3814197530864198</v>
+      </c>
+      <c r="BM44" s="211"/>
       <c r="BN44" s="18">
         <f>(AL44*Z42)+(AB40*BB44)</f>
         <v>0</v>
       </c>
-      <c r="BO44" s="224"/>
+      <c r="BO44" s="211"/>
       <c r="BP44" s="199">
-        <f t="shared" si="1"/>
-        <v>2.5925925925925926</v>
+        <f t="shared" si="7"/>
+        <v>1.3814197530864198</v>
       </c>
       <c r="BQ44" s="123" t="s">
         <v>51</v>
@@ -16939,7 +16939,7 @@
       <c r="D45" s="52"/>
       <c r="E45" s="168"/>
       <c r="F45" s="52"/>
-      <c r="G45" s="248"/>
+      <c r="G45" s="215"/>
       <c r="H45" s="84"/>
       <c r="I45" s="191"/>
       <c r="J45" s="191"/>
@@ -16952,17 +16952,17 @@
       <c r="M45" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="N45" s="215" t="s">
+      <c r="N45" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O45" s="215"/>
+      <c r="O45" s="208"/>
       <c r="P45" s="5">
         <v>0</v>
       </c>
-      <c r="Q45" s="216" t="s">
+      <c r="Q45" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="R45" s="216"/>
+      <c r="R45" s="217"/>
       <c r="S45" s="5">
         <v>0</v>
       </c>
@@ -16996,14 +16996,14 @@
       <c r="AI45" s="14"/>
       <c r="AJ45" s="20">
         <f>AJ40*AJ43</f>
-        <v>0.11111111111111108</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="20" t="s">
         <v>110</v>
       </c>
       <c r="AL45" s="20">
         <f>IF(V40=1,V41,SUM(AJ41,AJ44,AL39,AL42)+(Z41*AL44)-(Z42*AL44))</f>
-        <v>3.8888888888888888</v>
+        <v>9.324583333333333</v>
       </c>
       <c r="AM45" s="20" t="s">
         <v>62</v>
@@ -17051,13 +17051,13 @@
       </c>
       <c r="E46" s="179">
         <f>IFERROR(BR40,NA())</f>
-        <v>4.7530864197530862</v>
+        <v>2.187247942386831</v>
       </c>
       <c r="F46" s="3">
         <f>IFERROR(E46/P40,NA())</f>
-        <v>2.3765432098765429E-2</v>
-      </c>
-      <c r="G46" s="248"/>
+        <v>1.7497983539094649E-2</v>
+      </c>
+      <c r="G46" s="215"/>
       <c r="H46" s="84"/>
       <c r="I46" s="80"/>
       <c r="J46" s="80"/>
@@ -17211,11 +17211,11 @@
     </row>
     <row r="48" spans="1:71" ht="15" customHeight="1">
       <c r="A48" s="128"/>
-      <c r="B48" s="241" t="str">
+      <c r="B48" s="218" t="str">
         <f>IF(I50="","",I50)</f>
-        <v>Model 3</v>
-      </c>
-      <c r="C48" s="241"/>
+        <v>Crowe v. T4</v>
+      </c>
+      <c r="C48" s="218"/>
       <c r="D48" s="10"/>
       <c r="E48" s="170" t="s">
         <v>11</v>
@@ -17223,102 +17223,102 @@
       <c r="F48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="243"/>
+      <c r="G48" s="220"/>
       <c r="H48" s="82"/>
-      <c r="I48" s="231" t="str">
+      <c r="I48" s="209" t="str">
         <f>IF(I50="","",I50)</f>
-        <v>Model 3</v>
-      </c>
-      <c r="J48" s="231"/>
-      <c r="K48" s="231"/>
-      <c r="L48" s="231"/>
-      <c r="M48" s="231"/>
-      <c r="N48" s="231"/>
-      <c r="O48" s="231"/>
-      <c r="P48" s="231"/>
-      <c r="Q48" s="231"/>
-      <c r="R48" s="231"/>
-      <c r="S48" s="231"/>
+        <v>Crowe v. T4</v>
+      </c>
+      <c r="J48" s="209"/>
+      <c r="K48" s="209"/>
+      <c r="L48" s="209"/>
+      <c r="M48" s="209"/>
+      <c r="N48" s="209"/>
+      <c r="O48" s="209"/>
+      <c r="P48" s="209"/>
+      <c r="Q48" s="209"/>
+      <c r="R48" s="209"/>
+      <c r="S48" s="209"/>
       <c r="T48" s="83"/>
-      <c r="V48" s="206" t="s">
+      <c r="V48" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="W48" s="207"/>
-      <c r="X48" s="207"/>
-      <c r="Y48" s="207"/>
-      <c r="Z48" s="207"/>
-      <c r="AA48" s="207"/>
-      <c r="AB48" s="207"/>
-      <c r="AC48" s="207"/>
-      <c r="AD48" s="207" t="s">
+      <c r="W48" s="206"/>
+      <c r="X48" s="206"/>
+      <c r="Y48" s="206"/>
+      <c r="Z48" s="206"/>
+      <c r="AA48" s="206"/>
+      <c r="AB48" s="206"/>
+      <c r="AC48" s="206"/>
+      <c r="AD48" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE48" s="207"/>
-      <c r="AF48" s="207"/>
-      <c r="AG48" s="207"/>
+      <c r="AE48" s="206"/>
+      <c r="AF48" s="206"/>
+      <c r="AG48" s="206"/>
       <c r="AH48" s="198"/>
       <c r="AI48" s="198"/>
-      <c r="AJ48" s="207" t="s">
+      <c r="AJ48" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="AK48" s="207"/>
-      <c r="AL48" s="207"/>
-      <c r="AM48" s="207"/>
-      <c r="AN48" s="207"/>
-      <c r="AO48" s="207" t="s">
+      <c r="AK48" s="206"/>
+      <c r="AL48" s="206"/>
+      <c r="AM48" s="206"/>
+      <c r="AN48" s="206"/>
+      <c r="AO48" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="AP48" s="207"/>
-      <c r="AQ48" s="207"/>
-      <c r="AR48" s="207"/>
-      <c r="AS48" s="207"/>
-      <c r="AT48" s="207"/>
-      <c r="AU48" s="207"/>
-      <c r="AV48" s="207"/>
-      <c r="AW48" s="207"/>
-      <c r="AX48" s="207"/>
-      <c r="AY48" s="207"/>
-      <c r="AZ48" s="207"/>
-      <c r="BA48" s="207"/>
-      <c r="BB48" s="207"/>
-      <c r="BC48" s="207"/>
-      <c r="BD48" s="207"/>
-      <c r="BE48" s="207"/>
+      <c r="AP48" s="206"/>
+      <c r="AQ48" s="206"/>
+      <c r="AR48" s="206"/>
+      <c r="AS48" s="206"/>
+      <c r="AT48" s="206"/>
+      <c r="AU48" s="206"/>
+      <c r="AV48" s="206"/>
+      <c r="AW48" s="206"/>
+      <c r="AX48" s="206"/>
+      <c r="AY48" s="206"/>
+      <c r="AZ48" s="206"/>
+      <c r="BA48" s="206"/>
+      <c r="BB48" s="206"/>
+      <c r="BC48" s="206"/>
+      <c r="BD48" s="206"/>
+      <c r="BE48" s="206"/>
       <c r="BF48" s="198"/>
       <c r="BG48" s="198"/>
-      <c r="BH48" s="207" t="s">
+      <c r="BH48" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="BI48" s="207"/>
-      <c r="BJ48" s="207"/>
-      <c r="BK48" s="207"/>
-      <c r="BL48" s="207"/>
-      <c r="BM48" s="207"/>
-      <c r="BN48" s="207"/>
-      <c r="BO48" s="207"/>
-      <c r="BP48" s="207"/>
-      <c r="BQ48" s="207"/>
-      <c r="BR48" s="207" t="s">
+      <c r="BI48" s="206"/>
+      <c r="BJ48" s="206"/>
+      <c r="BK48" s="206"/>
+      <c r="BL48" s="206"/>
+      <c r="BM48" s="206"/>
+      <c r="BN48" s="206"/>
+      <c r="BO48" s="206"/>
+      <c r="BP48" s="206"/>
+      <c r="BQ48" s="206"/>
+      <c r="BR48" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="BS48" s="226"/>
+      <c r="BS48" s="210"/>
     </row>
     <row r="49" spans="1:71" ht="15" customHeight="1">
       <c r="A49" s="129"/>
-      <c r="B49" s="242"/>
-      <c r="C49" s="242"/>
+      <c r="B49" s="219"/>
+      <c r="C49" s="219"/>
       <c r="D49" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="164" t="e">
+      <c r="E49" s="164">
         <f>IF(AND(AD49,AF56),BL49+BN49,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F49" s="30" t="e">
+        <v>2.7699331275720174</v>
+      </c>
+      <c r="F49" s="30">
         <f>IFERROR(E49/P50,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G49" s="244"/>
+        <v>2.2159465020576138E-2</v>
+      </c>
+      <c r="G49" s="221"/>
       <c r="H49" s="84"/>
       <c r="I49" s="78" t="s">
         <v>13</v>
@@ -17365,7 +17365,7 @@
       </c>
       <c r="Z49" s="22">
         <f>IF(AF54,IF(P52="2+",5/6,IF(P52="3+",4/6,IF(P52="4+",3/6,IF(P52="5+",2/6,IF(P52="6+",1/6,IF(P52="7+",0/6)))))),0)</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="19" t="s">
         <v>57</v>
@@ -17411,70 +17411,70 @@
       </c>
       <c r="AN49" s="20">
         <f>IF(X51&gt;0,X51,IF(AND(X52&gt;0,3&gt;V52),X52,IF(V52&gt;=2*3,5/6,IF(V52&gt;3,4/6,IF(V52=3,3/6,IF(V52&lt;=3/2,1/6,IF(V52&lt;3,2/6)))))))</f>
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AO49" s="20" t="s">
         <v>90</v>
       </c>
       <c r="AP49" s="20">
         <f>IF((AN49+X50)&gt;5/6,5/6,AN49+X50)</f>
-        <v>0.83333333333333337</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="AQ49" s="20" t="s">
         <v>96</v>
       </c>
       <c r="AR49" s="21">
         <f>IF(AND(AF52,X50&gt;=0),AL55*AN49,AL55*AP49)</f>
-        <v>0.81018518518518523</v>
-      </c>
-      <c r="AS49" s="224" t="s">
+        <v>5.8657407407407414</v>
+      </c>
+      <c r="AS49" s="211" t="s">
         <v>121</v>
       </c>
       <c r="AT49" s="199">
         <f>IF(AND(AN49&lt;AP56,AF52),AB49*AL55,AP56*AL55)</f>
         <v>0</v>
       </c>
-      <c r="AU49" s="224" t="s">
+      <c r="AU49" s="211" t="s">
         <v>109</v>
       </c>
       <c r="AV49" s="20">
         <f>IF(AF52,AL55-(AL55*AN49),IF(AF51,(1/6)*AL55,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW49" s="224" t="s">
+        <v>2.9328703703703711</v>
+      </c>
+      <c r="AW49" s="211" t="s">
         <v>60</v>
       </c>
       <c r="AX49" s="20">
-        <f>AV49*AP49</f>
-        <v>0</v>
-      </c>
-      <c r="AY49" s="224" t="s">
+        <f t="shared" ref="AX49:AX54" si="8">AV49*AP49</f>
+        <v>2.444058641975309</v>
+      </c>
+      <c r="AY49" s="211" t="s">
         <v>122</v>
       </c>
       <c r="AZ49" s="20">
         <f>AV49*AP56</f>
         <v>0</v>
       </c>
-      <c r="BA49" s="224" t="s">
+      <c r="BA49" s="211" t="s">
         <v>110</v>
       </c>
       <c r="BB49" s="199">
-        <f>AT49+AZ49</f>
-        <v>0</v>
-      </c>
-      <c r="BC49" s="224" t="s">
+        <f t="shared" ref="BB49:BB54" si="9">AT49+AZ49</f>
+        <v>0</v>
+      </c>
+      <c r="BC49" s="211" t="s">
         <v>117</v>
       </c>
       <c r="BD49" s="20">
-        <f>SUM(AR49,AX49)</f>
-        <v>0.81018518518518523</v>
-      </c>
-      <c r="BE49" s="224" t="s">
+        <f t="shared" ref="BD49:BD54" si="10">SUM(AR49,AX49)</f>
+        <v>8.3097993827160508</v>
+      </c>
+      <c r="BE49" s="211" t="s">
         <v>63</v>
       </c>
       <c r="BF49" s="199">
         <f>IF((1-(V49+V53))&gt;1,1,1-(V49+V53))</f>
-        <v>0.66666666666666674</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="BG49" s="199" t="s">
         <v>105</v>
@@ -17483,40 +17483,40 @@
         <f>IF(AB52&lt;0,BB49*BF50,BB49*BF49)</f>
         <v>0</v>
       </c>
-      <c r="BI49" s="224" t="s">
+      <c r="BI49" s="211" t="s">
         <v>102</v>
       </c>
       <c r="BJ49" s="199">
         <f>BH49+((BD49-BB49)*BF49)</f>
-        <v>0.54012345679012352</v>
-      </c>
-      <c r="BK49" s="224" t="s">
+        <v>2.7699331275720174</v>
+      </c>
+      <c r="BK49" s="211" t="s">
         <v>103</v>
       </c>
       <c r="BL49" s="18">
         <f>IF(AB51&gt;0,(BH49*AB51)+((BJ49-BH49)*V54),BJ49*V54)</f>
-        <v>1.080246913580247</v>
-      </c>
-      <c r="BM49" s="224" t="s">
+        <v>2.7699331275720174</v>
+      </c>
+      <c r="BM49" s="211" t="s">
         <v>65</v>
       </c>
       <c r="BN49" s="18">
         <f>(AL54*Z52)+(AB50*BB49)</f>
         <v>0</v>
       </c>
-      <c r="BO49" s="224" t="s">
+      <c r="BO49" s="211" t="s">
         <v>64</v>
       </c>
       <c r="BP49" s="199">
         <f>IF(AD49,BL49+BN49,NA())</f>
-        <v>1.080246913580247</v>
+        <v>2.7699331275720174</v>
       </c>
       <c r="BQ49" s="123" t="s">
         <v>46</v>
       </c>
       <c r="BR49" s="18">
         <f>IFERROR(IF(AD49,BP49,0)+IF(AD50,BP50,0)+IF(AD51,BP51,0)+IF(AD52,BP52,0)+IF(AD53,BP53,0)+IF(AD54,BP54,0),NA())</f>
-        <v>4.7530864197530871</v>
+        <v>12.383230452674903</v>
       </c>
       <c r="BS49" s="160" t="s">
         <v>67</v>
@@ -17524,20 +17524,20 @@
     </row>
     <row r="50" spans="1:71" ht="15" customHeight="1">
       <c r="A50" s="129"/>
-      <c r="B50" s="242"/>
-      <c r="C50" s="242"/>
+      <c r="B50" s="219"/>
+      <c r="C50" s="219"/>
       <c r="D50" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="164" t="e">
+      <c r="E50" s="164">
         <f>IF(AND(AD50,AF56),BL50+BN50,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F50" s="30" t="e">
+        <v>2.4440586419753094</v>
+      </c>
+      <c r="F50" s="30">
         <f>IFERROR(E50/P50,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G50" s="244"/>
+        <v>1.9552469135802476E-2</v>
+      </c>
+      <c r="G50" s="221"/>
       <c r="H50" s="84"/>
       <c r="I50" s="5" t="s">
         <v>125</v>
@@ -17549,18 +17549,20 @@
         <v>108</v>
       </c>
       <c r="L50" s="5">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="M50" s="5">
+        <v>4</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
         <v>1</v>
       </c>
-      <c r="M50" s="5">
-        <v>7</v>
-      </c>
-      <c r="N50" s="5">
-        <v>-2</v>
-      </c>
-      <c r="O50" s="5">
-        <v>2</v>
-      </c>
-      <c r="P50" s="5"/>
+      <c r="P50" s="5">
+        <v>125</v>
+      </c>
       <c r="Q50" s="77"/>
       <c r="R50" s="13"/>
       <c r="S50" s="93"/>
@@ -17574,7 +17576,7 @@
       </c>
       <c r="X50" s="12">
         <f>IF(M52="D3",5/6,IF(M52="2D3",3/6,IF(M52="D6",3.5/6,IF(M52="2D6",1,M52/6))))</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Y50" s="14" t="str">
         <f>"+- to wound rolls"</f>
@@ -17615,7 +17617,7 @@
       </c>
       <c r="AJ50" s="20">
         <f>IF(Z49=0,0,IF((Z49+X49)&gt;5/6,5/6,Z49+X49))</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="20" t="s">
         <v>118</v>
@@ -17629,7 +17631,7 @@
       </c>
       <c r="AN50" s="20">
         <f>IF(X51&gt;0,X51,IF(AND(X52&gt;0,4&gt;V52),X52,IF(V52&gt;=2*4,5/6,IF(V52&gt;4,4/6,IF(V52=4,3/6,IF(V52&lt;=4/2,1/6,IF(V52&lt;4,2/6)))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AO50" s="20" t="s">
         <v>91</v>
@@ -17643,39 +17645,39 @@
       </c>
       <c r="AR50" s="21">
         <f>IF(AND(AF52,X50&gt;=0),AL55*AN50,AL55*AP50)</f>
-        <v>0.64814814814814814</v>
-      </c>
-      <c r="AS50" s="224"/>
+        <v>4.3993055555555562</v>
+      </c>
+      <c r="AS50" s="211"/>
       <c r="AT50" s="199">
         <f>IF(AND(AN50&lt;AP56,AF52),AB49*AL55,AP56*AL55)</f>
         <v>0</v>
       </c>
-      <c r="AU50" s="224"/>
+      <c r="AU50" s="211"/>
       <c r="AV50" s="20">
         <f>IF(AF52,AL55-(AL55*AN50),IF(AF51,(1/6)*AL55,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW50" s="224"/>
+        <v>4.3993055555555562</v>
+      </c>
+      <c r="AW50" s="211"/>
       <c r="AX50" s="20">
-        <f>AV50*AP50</f>
-        <v>0</v>
-      </c>
-      <c r="AY50" s="224"/>
+        <f t="shared" si="8"/>
+        <v>2.9328703703703707</v>
+      </c>
+      <c r="AY50" s="211"/>
       <c r="AZ50" s="20">
         <f>AV50*AP56</f>
         <v>0</v>
       </c>
-      <c r="BA50" s="224"/>
+      <c r="BA50" s="211"/>
       <c r="BB50" s="199">
-        <f>AT50+AZ50</f>
-        <v>0</v>
-      </c>
-      <c r="BC50" s="224"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BC50" s="211"/>
       <c r="BD50" s="20">
-        <f>SUM(AR50,AX50)</f>
-        <v>0.64814814814814814</v>
-      </c>
-      <c r="BE50" s="224"/>
+        <f t="shared" si="10"/>
+        <v>7.3321759259259274</v>
+      </c>
+      <c r="BE50" s="211"/>
       <c r="BF50" s="199">
         <f>IF((1-(V49+AB52))&gt;1,1,1-(V49+AB52))</f>
         <v>0.33333333333333337</v>
@@ -17687,32 +17689,32 @@
         <f>IF(AB52&lt;0,BB50*BF50,BB50*BF49)</f>
         <v>0</v>
       </c>
-      <c r="BI50" s="224"/>
+      <c r="BI50" s="211"/>
       <c r="BJ50" s="199">
         <f>BH50+((BD50-BB50)*BF49)</f>
-        <v>0.4320987654320988</v>
-      </c>
-      <c r="BK50" s="224"/>
+        <v>2.4440586419753094</v>
+      </c>
+      <c r="BK50" s="211"/>
       <c r="BL50" s="18">
         <f>IF(AB51&gt;0,(BH50*AB51)+((BJ50-BH50)*V54),BJ50*V54)</f>
-        <v>0.86419753086419759</v>
-      </c>
-      <c r="BM50" s="224"/>
+        <v>2.4440586419753094</v>
+      </c>
+      <c r="BM50" s="211"/>
       <c r="BN50" s="18">
         <f>(AL54*Z52)+(AB50*BB50)</f>
         <v>0</v>
       </c>
-      <c r="BO50" s="224"/>
+      <c r="BO50" s="211"/>
       <c r="BP50" s="199">
-        <f t="shared" ref="BP50:BP54" si="2">IF(AD50,BL50+BN50,NA())</f>
-        <v>0.86419753086419759</v>
+        <f t="shared" ref="BP50:BP54" si="11">IF(AD50,BL50+BN50,NA())</f>
+        <v>2.4440586419753094</v>
       </c>
       <c r="BQ50" s="123" t="s">
         <v>47</v>
       </c>
       <c r="BR50" s="18">
         <f>IFERROR(BR49/AD55,NA())</f>
-        <v>0.79218106995884785</v>
+        <v>2.0638717421124837</v>
       </c>
       <c r="BS50" s="160" t="s">
         <v>11</v>
@@ -17720,36 +17722,36 @@
     </row>
     <row r="51" spans="1:71" ht="15" customHeight="1">
       <c r="A51" s="129"/>
-      <c r="B51" s="242"/>
-      <c r="C51" s="242"/>
+      <c r="B51" s="219"/>
+      <c r="C51" s="219"/>
       <c r="D51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="164" t="e">
+      <c r="E51" s="164">
         <f>IF(AND(AD51,AF56),BL51+BN51,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F51" s="30" t="e">
+        <v>1.9552469135802477</v>
+      </c>
+      <c r="F51" s="30">
         <f>IFERROR(E51/P50,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G51" s="244"/>
+        <v>1.5641975308641982E-2</v>
+      </c>
+      <c r="G51" s="221"/>
       <c r="H51" s="84"/>
-      <c r="I51" s="225"/>
-      <c r="J51" s="225"/>
-      <c r="K51" s="225"/>
-      <c r="L51" s="225"/>
-      <c r="M51" s="225"/>
-      <c r="N51" s="225"/>
-      <c r="O51" s="225"/>
-      <c r="P51" s="225"/>
-      <c r="Q51" s="225"/>
-      <c r="R51" s="225"/>
-      <c r="S51" s="225"/>
+      <c r="I51" s="216"/>
+      <c r="J51" s="216"/>
+      <c r="K51" s="216"/>
+      <c r="L51" s="216"/>
+      <c r="M51" s="216"/>
+      <c r="N51" s="216"/>
+      <c r="O51" s="216"/>
+      <c r="P51" s="216"/>
+      <c r="Q51" s="216"/>
+      <c r="R51" s="216"/>
+      <c r="S51" s="216"/>
       <c r="T51" s="85"/>
       <c r="V51" s="161">
         <f>(IF(L50="D3",2,IF(L50="2D3",4,IF(L50="D6",3.5,IF(L50="2D6",7,IF(L50="3D6",10.5,L50))))))</f>
-        <v>1</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="W51" s="12" t="s">
         <v>36</v>
@@ -17789,14 +17791,14 @@
       </c>
       <c r="AH51" s="14" t="b">
         <f>(AND(NOT(AF51),NOT(AF52)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="14" t="s">
         <v>120</v>
       </c>
       <c r="AJ51" s="20">
         <f>IF(AND(AF50,X49&gt;=0),V51*V50,V51*AJ49)</f>
-        <v>0.83333333333333337</v>
+        <v>7.5416666666666679</v>
       </c>
       <c r="AK51" s="20" t="s">
         <v>112</v>
@@ -17810,78 +17812,78 @@
       </c>
       <c r="AN51" s="20">
         <f>IF(X51&gt;0,X51,IF(AND(X52&gt;0,5&gt;V52),X52,IF(V52&gt;=2*5,5/6,IF(V52&gt;5,4/6,IF(V52=5,3/6,IF(V52&lt;=5/2,1/6,IF(V52&lt;5,2/6)))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AO51" s="20" t="s">
         <v>92</v>
       </c>
       <c r="AP51" s="20">
         <f>IF((AN51+X50)&gt;5/6,5/6,AN51+X50)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AQ51" s="20" t="s">
         <v>98</v>
       </c>
       <c r="AR51" s="21">
         <f>IF(AND(AF52,X50&gt;=0),AL55*AN51,AL55*AP51)</f>
-        <v>0.64814814814814814</v>
-      </c>
-      <c r="AS51" s="224"/>
+        <v>2.9328703703703707</v>
+      </c>
+      <c r="AS51" s="211"/>
       <c r="AT51" s="199">
         <f>IF(AND(AN51&lt;AP56,AF52),AB49*AL55,AP56*AL55)</f>
         <v>0</v>
       </c>
-      <c r="AU51" s="224"/>
+      <c r="AU51" s="211"/>
       <c r="AV51" s="20">
         <f>IF(AF52,AL55-(AL55*AN51),IF(AF51,(1/6)*AL55,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW51" s="224"/>
+        <v>5.8657407407407423</v>
+      </c>
+      <c r="AW51" s="211"/>
       <c r="AX51" s="20">
-        <f>AV51*AP51</f>
-        <v>0</v>
-      </c>
-      <c r="AY51" s="224"/>
+        <f t="shared" si="8"/>
+        <v>2.9328703703703711</v>
+      </c>
+      <c r="AY51" s="211"/>
       <c r="AZ51" s="20">
         <f>AV51*AP56</f>
         <v>0</v>
       </c>
-      <c r="BA51" s="224"/>
+      <c r="BA51" s="211"/>
       <c r="BB51" s="199">
-        <f>AT51+AZ51</f>
-        <v>0</v>
-      </c>
-      <c r="BC51" s="224"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BC51" s="211"/>
       <c r="BD51" s="20">
-        <f>SUM(AR51,AX51)</f>
-        <v>0.64814814814814814</v>
-      </c>
-      <c r="BE51" s="224"/>
+        <f t="shared" si="10"/>
+        <v>5.8657407407407423</v>
+      </c>
+      <c r="BE51" s="211"/>
       <c r="BF51" s="199"/>
       <c r="BG51" s="199"/>
       <c r="BH51" s="20">
         <f>IF(AB52&lt;0,BB51*BF50,BB51*BF49)</f>
         <v>0</v>
       </c>
-      <c r="BI51" s="224"/>
+      <c r="BI51" s="211"/>
       <c r="BJ51" s="199">
         <f>BH51+((BD51-BB51)*BF49)</f>
-        <v>0.4320987654320988</v>
-      </c>
-      <c r="BK51" s="224"/>
+        <v>1.9552469135802477</v>
+      </c>
+      <c r="BK51" s="211"/>
       <c r="BL51" s="18">
         <f>IF(AB51&gt;0,(BH51*AB51)+((BJ51-BH51)*V54),BJ51*V54)</f>
-        <v>0.86419753086419759</v>
-      </c>
-      <c r="BM51" s="224"/>
+        <v>1.9552469135802477</v>
+      </c>
+      <c r="BM51" s="211"/>
       <c r="BN51" s="18">
         <f>(AL54*Z52)+(AB50*BB51)</f>
         <v>0</v>
       </c>
-      <c r="BO51" s="224"/>
+      <c r="BO51" s="211"/>
       <c r="BP51" s="199">
-        <f t="shared" si="2"/>
-        <v>0.86419753086419759</v>
+        <f t="shared" si="11"/>
+        <v>1.9552469135802477</v>
       </c>
       <c r="BQ51" s="123" t="s">
         <v>48</v>
@@ -17895,15 +17897,15 @@
       <c r="D52" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="164" t="e">
+      <c r="E52" s="164">
         <f>IF(AND(AD52,AF56),BL52+BN52,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F52" s="30" t="e">
+        <v>1.9552469135802477</v>
+      </c>
+      <c r="F52" s="30">
         <f>IFERROR(E52/P50,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G52" s="244"/>
+        <v>1.5641975308641982E-2</v>
+      </c>
+      <c r="G52" s="221"/>
       <c r="H52" s="84"/>
       <c r="I52" s="191" t="str">
         <f>"+- to hit"</f>
@@ -17918,26 +17920,26 @@
         <v>+- to wound</v>
       </c>
       <c r="M52" s="5">
-        <v>0</v>
-      </c>
-      <c r="N52" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="N52" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="O52" s="215"/>
+      <c r="O52" s="208"/>
       <c r="P52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q52" s="215" t="s">
+      <c r="Q52" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R52" s="215"/>
+      <c r="R52" s="208"/>
       <c r="S52" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T52" s="86"/>
       <c r="V52" s="161">
         <f>IF(M50="D3",2,IF(M50="2D3",4,IF(M50="D6",3.5,IF(M50="2D6",7,M50))))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W52" s="12" t="s">
         <v>38</v>
@@ -17970,7 +17972,7 @@
         <v>49</v>
       </c>
       <c r="AF52" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG52" s="14" t="s">
         <v>55</v>
@@ -17979,7 +17981,7 @@
       <c r="AI52" s="14"/>
       <c r="AJ52" s="20">
         <f>IF(AND(V50&lt;AJ50,AF50),Z49*V51,AJ50*V51)</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="20" t="s">
         <v>109</v>
@@ -17993,78 +17995,78 @@
       </c>
       <c r="AN52" s="20">
         <f>IF(X51&gt;0,X51,IF(AND(X52&gt;0,6&gt;V52),X52,IF(V52&gt;=2*6,5/6,IF(V52&gt;6,4/6,IF(V52=6,3/6,IF(V52&lt;=6/2,1/6,IF(V52&lt;6,2/6)))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AO52" s="20" t="s">
         <v>93</v>
       </c>
       <c r="AP52" s="20">
         <f>IF((AN52+X50)&gt;5/6,5/6,AN52+X50)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AQ52" s="20" t="s">
         <v>99</v>
       </c>
       <c r="AR52" s="21">
         <f>IF(AND(AF52,X50&gt;=0),AL55*AN52,AL55*AP52)</f>
-        <v>0.64814814814814814</v>
-      </c>
-      <c r="AS52" s="224"/>
+        <v>2.9328703703703707</v>
+      </c>
+      <c r="AS52" s="211"/>
       <c r="AT52" s="199">
         <f>IF(AND(AN52&lt;AP56,AF52),AB49*AL55,AP56*AL55)</f>
         <v>0</v>
       </c>
-      <c r="AU52" s="224"/>
+      <c r="AU52" s="211"/>
       <c r="AV52" s="20">
         <f>IF(AF52,AL55-(AL55*AN52),IF(AF51,(1/6)*AL55,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW52" s="224"/>
+        <v>5.8657407407407423</v>
+      </c>
+      <c r="AW52" s="211"/>
       <c r="AX52" s="20">
-        <f>AV52*AP52</f>
-        <v>0</v>
-      </c>
-      <c r="AY52" s="224"/>
+        <f t="shared" si="8"/>
+        <v>2.9328703703703711</v>
+      </c>
+      <c r="AY52" s="211"/>
       <c r="AZ52" s="20">
         <f>AV52*AP56</f>
         <v>0</v>
       </c>
-      <c r="BA52" s="224"/>
+      <c r="BA52" s="211"/>
       <c r="BB52" s="199">
-        <f>AT52+AZ52</f>
-        <v>0</v>
-      </c>
-      <c r="BC52" s="224"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BC52" s="211"/>
       <c r="BD52" s="20">
-        <f>SUM(AR52,AX52)</f>
-        <v>0.64814814814814814</v>
-      </c>
-      <c r="BE52" s="224"/>
+        <f t="shared" si="10"/>
+        <v>5.8657407407407423</v>
+      </c>
+      <c r="BE52" s="211"/>
       <c r="BF52" s="199"/>
       <c r="BG52" s="199"/>
       <c r="BH52" s="20">
         <f>IF(AB52&lt;0,BB52*BF50,BB52*BF49)</f>
         <v>0</v>
       </c>
-      <c r="BI52" s="224"/>
+      <c r="BI52" s="211"/>
       <c r="BJ52" s="199">
         <f>BH52+((BD52-BB52)*BF49)</f>
-        <v>0.4320987654320988</v>
-      </c>
-      <c r="BK52" s="224"/>
+        <v>1.9552469135802477</v>
+      </c>
+      <c r="BK52" s="211"/>
       <c r="BL52" s="18">
         <f>IF(AB51&gt;0,(BH52*AB51)+((BJ52-BH52)*V54),BJ52*V54)</f>
-        <v>0.86419753086419759</v>
-      </c>
-      <c r="BM52" s="224"/>
+        <v>1.9552469135802477</v>
+      </c>
+      <c r="BM52" s="211"/>
       <c r="BN52" s="18">
         <f>(AL54*Z52)+(AB50*BB52)</f>
         <v>0</v>
       </c>
-      <c r="BO52" s="224"/>
+      <c r="BO52" s="211"/>
       <c r="BP52" s="199">
-        <f t="shared" si="2"/>
-        <v>0.86419753086419759</v>
+        <f t="shared" si="11"/>
+        <v>1.9552469135802477</v>
       </c>
       <c r="BQ52" s="123" t="s">
         <v>49</v>
@@ -18078,43 +18080,43 @@
       <c r="D53" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="164" t="e">
+      <c r="E53" s="164">
         <f>IF(AND(AD53,AF56),BL53+BN53,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F53" s="30" t="e">
+        <v>1.9552469135802477</v>
+      </c>
+      <c r="F53" s="30">
         <f>IFERROR(E53/P50,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G53" s="244"/>
+        <v>1.5641975308641982E-2</v>
+      </c>
+      <c r="G53" s="221"/>
       <c r="H53" s="87"/>
       <c r="I53" s="80"/>
       <c r="J53" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="K53" s="215" t="s">
+      <c r="K53" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="215"/>
-      <c r="M53" s="215"/>
-      <c r="N53" s="215" t="s">
+      <c r="L53" s="208"/>
+      <c r="M53" s="208"/>
+      <c r="N53" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O53" s="215"/>
+      <c r="O53" s="208"/>
       <c r="P53" s="5">
         <v>0</v>
       </c>
-      <c r="Q53" s="215" t="s">
+      <c r="Q53" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="R53" s="215"/>
+      <c r="R53" s="208"/>
       <c r="S53" s="5">
         <v>0</v>
       </c>
       <c r="T53" s="86"/>
       <c r="V53" s="161">
         <f>IF(N50="D3",-2/6,IF(N50="2D3",-4/6,IF(N50="D6",-3.5/6,IF(N50="2D6",-7/6,N50/6))))</f>
-        <v>-0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W53" s="12" t="s">
         <v>37</v>
@@ -18139,7 +18141,7 @@
       <c r="AI53" s="14"/>
       <c r="AJ53" s="20">
         <f>IF(AF50,V51-(V50*V51),IF(AF49,(1/6)*V51,0))</f>
-        <v>0.16666666666666663</v>
+        <v>1.5083333333333329</v>
       </c>
       <c r="AK53" s="20" t="s">
         <v>60</v>
@@ -18153,7 +18155,7 @@
       </c>
       <c r="AN53" s="20">
         <f>IF(X51&gt;0,X51,IF(AND(X52&gt;0,7&gt;V52),X52,IF(V52&gt;=2*7,5/6,IF(V52&gt;7,4/6,IF(V52=7,3/6,IF(V52&lt;=7/2,1/6,IF(V52&lt;7,2/6)))))))</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AO53" s="20" t="s">
         <v>94</v>
@@ -18167,64 +18169,64 @@
       </c>
       <c r="AR53" s="21">
         <f>IF(AND(AF52,X50&gt;=0),AL55*AN53,AL55*AP53)</f>
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="AS53" s="224"/>
+        <v>2.9328703703703707</v>
+      </c>
+      <c r="AS53" s="211"/>
       <c r="AT53" s="199">
         <f>IF(AND(AN53&lt;AP56,AF52),AB49*AL55,AP56*AL55)</f>
         <v>0</v>
       </c>
-      <c r="AU53" s="224"/>
+      <c r="AU53" s="211"/>
       <c r="AV53" s="20">
         <f>IF(AF52,AL55-(AL55*AN53),IF(AF51,(1/6)*AL55,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW53" s="224"/>
+        <v>5.8657407407407423</v>
+      </c>
+      <c r="AW53" s="211"/>
       <c r="AX53" s="20">
-        <f>AV53*AP53</f>
-        <v>0</v>
-      </c>
-      <c r="AY53" s="224"/>
+        <f t="shared" si="8"/>
+        <v>2.9328703703703711</v>
+      </c>
+      <c r="AY53" s="211"/>
       <c r="AZ53" s="20">
         <f>AV53*AP56</f>
         <v>0</v>
       </c>
-      <c r="BA53" s="224"/>
+      <c r="BA53" s="211"/>
       <c r="BB53" s="199">
-        <f>AT53+AZ53</f>
-        <v>0</v>
-      </c>
-      <c r="BC53" s="224"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BC53" s="211"/>
       <c r="BD53" s="20">
-        <f>SUM(AR53,AX53)</f>
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="BE53" s="224"/>
+        <f t="shared" si="10"/>
+        <v>5.8657407407407423</v>
+      </c>
+      <c r="BE53" s="211"/>
       <c r="BF53" s="199"/>
       <c r="BG53" s="199"/>
       <c r="BH53" s="20">
         <f>IF(AB52&lt;0,BB53*BF50,BB53*BF49)</f>
         <v>0</v>
       </c>
-      <c r="BI53" s="224"/>
+      <c r="BI53" s="211"/>
       <c r="BJ53" s="199">
         <f>BH53+((BD53-BB53)*BF49)</f>
-        <v>0.32407407407407413</v>
-      </c>
-      <c r="BK53" s="224"/>
+        <v>1.9552469135802477</v>
+      </c>
+      <c r="BK53" s="211"/>
       <c r="BL53" s="18">
         <f>IF(AB51&gt;0,(BH53*AB51)+((BJ53-BH53)*V54),BJ53*V54)</f>
-        <v>0.64814814814814825</v>
-      </c>
-      <c r="BM53" s="224"/>
+        <v>1.9552469135802477</v>
+      </c>
+      <c r="BM53" s="211"/>
       <c r="BN53" s="18">
         <f>(AL54*Z52)+(AB50*BB53)</f>
         <v>0</v>
       </c>
-      <c r="BO53" s="224"/>
+      <c r="BO53" s="211"/>
       <c r="BP53" s="199">
-        <f t="shared" si="2"/>
-        <v>0.64814814814814825</v>
+        <f t="shared" si="11"/>
+        <v>1.9552469135802477</v>
       </c>
       <c r="BQ53" s="123" t="s">
         <v>50</v>
@@ -18238,43 +18240,43 @@
       <c r="D54" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="164" t="e">
+      <c r="E54" s="164">
         <f>IF(AND(AD54,AF56),BL54+BN54,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F54" s="30" t="e">
+        <v>1.3034979423868316</v>
+      </c>
+      <c r="F54" s="30">
         <f>IFERROR(E54/P50,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G54" s="244"/>
+        <v>1.0427983539094653E-2</v>
+      </c>
+      <c r="G54" s="221"/>
       <c r="H54" s="84"/>
-      <c r="I54" s="232" t="s">
+      <c r="I54" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="J54" s="232"/>
-      <c r="K54" s="232" t="s">
+      <c r="J54" s="207"/>
+      <c r="K54" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="L54" s="232"/>
-      <c r="M54" s="232"/>
-      <c r="N54" s="215" t="s">
+      <c r="L54" s="207"/>
+      <c r="M54" s="207"/>
+      <c r="N54" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="O54" s="215"/>
+      <c r="O54" s="208"/>
       <c r="P54" s="5">
         <v>0</v>
       </c>
-      <c r="Q54" s="215" t="s">
+      <c r="Q54" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="R54" s="215"/>
+      <c r="R54" s="208"/>
       <c r="S54" s="5">
         <v>0</v>
       </c>
       <c r="T54" s="86"/>
       <c r="V54" s="161">
         <f>IF(O50="D3",2,IF(O50="2D3",4,IF(O50="D6",3.5,IF(O50="2D6",7,IF(O50="2D6 pick highest",161/36,IF(O50="Less than 3 counts as 3",4,O50))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W54" s="12" t="s">
         <v>23</v>
@@ -18291,7 +18293,7 @@
         <v>51</v>
       </c>
       <c r="AF54" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="19" t="s">
         <v>57</v>
@@ -18300,21 +18302,21 @@
       <c r="AI54" s="19"/>
       <c r="AJ54" s="20">
         <f>AJ53*AJ49</f>
-        <v>0.13888888888888887</v>
+        <v>1.2569444444444442</v>
       </c>
       <c r="AK54" s="14" t="s">
         <v>113</v>
       </c>
       <c r="AL54" s="20">
         <f>SUM(AJ52,AJ55,AL50,AL53)</f>
-        <v>0.19444444444444442</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="25" t="s">
         <v>117</v>
       </c>
       <c r="AN54" s="20">
         <f>IF(X51&gt;0,X51,IF(AND(X52&gt;0,8&gt;V52),X52,IF(V52&gt;=2*8,5/6,IF(V52&gt;8,4/6,IF(V52=8,3/6,IF(V52&lt;=8/2,1/6,IF(V52&lt;8,2/6)))))))</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AO54" s="20" t="s">
         <v>95</v>
@@ -18328,64 +18330,64 @@
       </c>
       <c r="AR54" s="20">
         <f>IF(AND(AF52,X50&gt;=0),AL55*AN54,AL55*AP54)</f>
-        <v>0.32407407407407407</v>
-      </c>
-      <c r="AS54" s="224"/>
+        <v>1.4664351851851853</v>
+      </c>
+      <c r="AS54" s="211"/>
       <c r="AT54" s="199">
         <f>IF(AND(AN54&lt;AP56,AF52),AB49*AL55,AP56*AL55)</f>
         <v>0</v>
       </c>
-      <c r="AU54" s="224"/>
+      <c r="AU54" s="211"/>
       <c r="AV54" s="20">
         <f>IF(AF52,AL55-(AL55*AN54),IF(AF51,(1/6)*AL55,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW54" s="224"/>
+        <v>7.3321759259259274</v>
+      </c>
+      <c r="AW54" s="211"/>
       <c r="AX54" s="20">
-        <f>AV54*AP54</f>
-        <v>0</v>
-      </c>
-      <c r="AY54" s="224"/>
+        <f t="shared" si="8"/>
+        <v>2.444058641975309</v>
+      </c>
+      <c r="AY54" s="211"/>
       <c r="AZ54" s="20">
         <f>AV54*AP56</f>
         <v>0</v>
       </c>
-      <c r="BA54" s="224"/>
+      <c r="BA54" s="211"/>
       <c r="BB54" s="199">
-        <f>AT54+AZ54</f>
-        <v>0</v>
-      </c>
-      <c r="BC54" s="224"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BC54" s="211"/>
       <c r="BD54" s="20">
-        <f>SUM(AR54,AX54)</f>
-        <v>0.32407407407407407</v>
-      </c>
-      <c r="BE54" s="224"/>
+        <f t="shared" si="10"/>
+        <v>3.9104938271604945</v>
+      </c>
+      <c r="BE54" s="211"/>
       <c r="BF54" s="199"/>
       <c r="BG54" s="199"/>
       <c r="BH54" s="20">
         <f>IF(AB52&lt;0,BB54*BF50,BB54*BF49)</f>
         <v>0</v>
       </c>
-      <c r="BI54" s="224"/>
+      <c r="BI54" s="211"/>
       <c r="BJ54" s="199">
         <f>BH54+((BD54-BB54)*BF49)</f>
-        <v>0.2160493827160494</v>
-      </c>
-      <c r="BK54" s="224"/>
+        <v>1.3034979423868316</v>
+      </c>
+      <c r="BK54" s="211"/>
       <c r="BL54" s="18">
         <f>IF(AB51&gt;0,(BH54*AB51)+((BJ54-BH54)*V54),BJ54*V54)</f>
-        <v>0.4320987654320988</v>
-      </c>
-      <c r="BM54" s="224"/>
+        <v>1.3034979423868316</v>
+      </c>
+      <c r="BM54" s="211"/>
       <c r="BN54" s="18">
         <f>(AL54*Z52)+(AB50*BB54)</f>
         <v>0</v>
       </c>
-      <c r="BO54" s="224"/>
+      <c r="BO54" s="211"/>
       <c r="BP54" s="199">
-        <f t="shared" si="2"/>
-        <v>0.4320987654320988</v>
+        <f t="shared" si="11"/>
+        <v>1.3034979423868316</v>
       </c>
       <c r="BQ54" s="123" t="s">
         <v>51</v>
@@ -18399,7 +18401,7 @@
       <c r="D55" s="50"/>
       <c r="E55" s="171"/>
       <c r="F55" s="50"/>
-      <c r="G55" s="244"/>
+      <c r="G55" s="221"/>
       <c r="H55" s="84"/>
       <c r="I55" s="191"/>
       <c r="J55" s="191"/>
@@ -18412,17 +18414,17 @@
       <c r="M55" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N55" s="215" t="s">
+      <c r="N55" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O55" s="215"/>
+      <c r="O55" s="208"/>
       <c r="P55" s="5">
         <v>0</v>
       </c>
-      <c r="Q55" s="216" t="s">
+      <c r="Q55" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="R55" s="216"/>
+      <c r="R55" s="217"/>
       <c r="S55" s="5">
         <v>0</v>
       </c>
@@ -18456,14 +18458,14 @@
       <c r="AI55" s="14"/>
       <c r="AJ55" s="20">
         <f>AJ50*AJ53</f>
-        <v>2.7777777777777769E-2</v>
+        <v>0</v>
       </c>
       <c r="AK55" s="20" t="s">
         <v>110</v>
       </c>
       <c r="AL55" s="20">
         <f>IF(V50=1,V51,SUM(AJ51,AJ54,AL49,AL52)+(Z51*AL54)-(Z52*AL54))</f>
-        <v>0.97222222222222221</v>
+        <v>8.7986111111111125</v>
       </c>
       <c r="AM55" s="20" t="s">
         <v>62</v>
@@ -18511,13 +18513,13 @@
       </c>
       <c r="E56" s="179">
         <f>IFERROR(BR50,NA())</f>
-        <v>0.79218106995884785</v>
-      </c>
-      <c r="F56" s="3" t="e">
+        <v>2.0638717421124837</v>
+      </c>
+      <c r="F56" s="3">
         <f>IFERROR(E56/P50,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G56" s="244"/>
+        <v>1.6510973936899868E-2</v>
+      </c>
+      <c r="G56" s="221"/>
       <c r="H56" s="84"/>
       <c r="I56" s="80"/>
       <c r="J56" s="80"/>
@@ -18545,7 +18547,7 @@
         <v>70</v>
       </c>
       <c r="AF56" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG56" s="14" t="s">
         <v>71</v>
@@ -18671,11 +18673,11 @@
     </row>
     <row r="58" spans="1:71" ht="15" customHeight="1">
       <c r="A58" s="131"/>
-      <c r="B58" s="237" t="str">
+      <c r="B58" s="222" t="str">
         <f>IF(I60="","",I60)</f>
-        <v>Model 4</v>
-      </c>
-      <c r="C58" s="237"/>
+        <v>Crowe v. T5</v>
+      </c>
+      <c r="C58" s="222"/>
       <c r="D58" s="32"/>
       <c r="E58" s="173" t="s">
         <v>11</v>
@@ -18683,102 +18685,102 @@
       <c r="F58" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="239"/>
+      <c r="G58" s="224"/>
       <c r="H58" s="82"/>
-      <c r="I58" s="231" t="str">
+      <c r="I58" s="209" t="str">
         <f>IF(I60="","",I60)</f>
-        <v>Model 4</v>
-      </c>
-      <c r="J58" s="231"/>
-      <c r="K58" s="231"/>
-      <c r="L58" s="231"/>
-      <c r="M58" s="231"/>
-      <c r="N58" s="231"/>
-      <c r="O58" s="231"/>
-      <c r="P58" s="231"/>
-      <c r="Q58" s="231"/>
-      <c r="R58" s="231"/>
-      <c r="S58" s="231"/>
+        <v>Crowe v. T5</v>
+      </c>
+      <c r="J58" s="209"/>
+      <c r="K58" s="209"/>
+      <c r="L58" s="209"/>
+      <c r="M58" s="209"/>
+      <c r="N58" s="209"/>
+      <c r="O58" s="209"/>
+      <c r="P58" s="209"/>
+      <c r="Q58" s="209"/>
+      <c r="R58" s="209"/>
+      <c r="S58" s="209"/>
       <c r="T58" s="83"/>
-      <c r="V58" s="206" t="s">
+      <c r="V58" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="W58" s="207"/>
-      <c r="X58" s="207"/>
-      <c r="Y58" s="207"/>
-      <c r="Z58" s="207"/>
-      <c r="AA58" s="207"/>
-      <c r="AB58" s="207"/>
-      <c r="AC58" s="207"/>
-      <c r="AD58" s="207" t="s">
+      <c r="W58" s="206"/>
+      <c r="X58" s="206"/>
+      <c r="Y58" s="206"/>
+      <c r="Z58" s="206"/>
+      <c r="AA58" s="206"/>
+      <c r="AB58" s="206"/>
+      <c r="AC58" s="206"/>
+      <c r="AD58" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE58" s="207"/>
-      <c r="AF58" s="207"/>
-      <c r="AG58" s="207"/>
+      <c r="AE58" s="206"/>
+      <c r="AF58" s="206"/>
+      <c r="AG58" s="206"/>
       <c r="AH58" s="198"/>
       <c r="AI58" s="198"/>
-      <c r="AJ58" s="207" t="s">
+      <c r="AJ58" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="AK58" s="207"/>
-      <c r="AL58" s="207"/>
-      <c r="AM58" s="207"/>
-      <c r="AN58" s="207"/>
-      <c r="AO58" s="207" t="s">
+      <c r="AK58" s="206"/>
+      <c r="AL58" s="206"/>
+      <c r="AM58" s="206"/>
+      <c r="AN58" s="206"/>
+      <c r="AO58" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="AP58" s="207"/>
-      <c r="AQ58" s="207"/>
-      <c r="AR58" s="207"/>
-      <c r="AS58" s="207"/>
-      <c r="AT58" s="207"/>
-      <c r="AU58" s="207"/>
-      <c r="AV58" s="207"/>
-      <c r="AW58" s="207"/>
-      <c r="AX58" s="207"/>
-      <c r="AY58" s="207"/>
-      <c r="AZ58" s="207"/>
-      <c r="BA58" s="207"/>
-      <c r="BB58" s="207"/>
-      <c r="BC58" s="207"/>
-      <c r="BD58" s="207"/>
-      <c r="BE58" s="207"/>
+      <c r="AP58" s="206"/>
+      <c r="AQ58" s="206"/>
+      <c r="AR58" s="206"/>
+      <c r="AS58" s="206"/>
+      <c r="AT58" s="206"/>
+      <c r="AU58" s="206"/>
+      <c r="AV58" s="206"/>
+      <c r="AW58" s="206"/>
+      <c r="AX58" s="206"/>
+      <c r="AY58" s="206"/>
+      <c r="AZ58" s="206"/>
+      <c r="BA58" s="206"/>
+      <c r="BB58" s="206"/>
+      <c r="BC58" s="206"/>
+      <c r="BD58" s="206"/>
+      <c r="BE58" s="206"/>
       <c r="BF58" s="198"/>
       <c r="BG58" s="198"/>
-      <c r="BH58" s="207" t="s">
+      <c r="BH58" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="BI58" s="207"/>
-      <c r="BJ58" s="207"/>
-      <c r="BK58" s="207"/>
-      <c r="BL58" s="207"/>
-      <c r="BM58" s="207"/>
-      <c r="BN58" s="207"/>
-      <c r="BO58" s="207"/>
-      <c r="BP58" s="207"/>
-      <c r="BQ58" s="207"/>
-      <c r="BR58" s="207" t="s">
+      <c r="BI58" s="206"/>
+      <c r="BJ58" s="206"/>
+      <c r="BK58" s="206"/>
+      <c r="BL58" s="206"/>
+      <c r="BM58" s="206"/>
+      <c r="BN58" s="206"/>
+      <c r="BO58" s="206"/>
+      <c r="BP58" s="206"/>
+      <c r="BQ58" s="206"/>
+      <c r="BR58" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="BS58" s="226"/>
+      <c r="BS58" s="210"/>
     </row>
     <row r="59" spans="1:71" ht="15" customHeight="1">
       <c r="A59" s="132"/>
-      <c r="B59" s="238"/>
-      <c r="C59" s="238"/>
+      <c r="B59" s="223"/>
+      <c r="C59" s="223"/>
       <c r="D59" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="164" t="e">
+      <c r="E59" s="164">
         <f>IF(AND(AD59,AF66),BL59+BN59,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F59" s="30" t="e">
+        <v>2.5220164609053497</v>
+      </c>
+      <c r="F59" s="30">
         <f>IFERROR(E59/P60,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G59" s="240"/>
+        <v>2.0176131687242797E-2</v>
+      </c>
+      <c r="G59" s="225"/>
       <c r="H59" s="84"/>
       <c r="I59" s="78" t="s">
         <v>13</v>
@@ -18817,7 +18819,7 @@
       </c>
       <c r="X59" s="12">
         <f>IF(V60=1,0,IF(J62="D3",5/6,IF(J62="2D3",3/6,IF(J62="D6",3.5/6,IF(J62="2D6",1,J62/6)))))</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="14" t="str">
         <f>"+- to hit rolls"</f>
@@ -18825,7 +18827,7 @@
       </c>
       <c r="Z59" s="22">
         <f>IF(AF64,IF(P62="2+",5/6,IF(P62="3+",4/6,IF(P62="4+",3/6,IF(P62="5+",2/6,IF(P62="6+",1/6,IF(P62="7+",0/6)))))),0)</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="19" t="s">
         <v>57</v>
@@ -18857,7 +18859,7 @@
       </c>
       <c r="AJ59" s="20">
         <f>IF((V60+X59)&gt;5/6,5/6,V60+X59)</f>
-        <v>0.33333333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AK59" s="20" t="s">
         <v>89</v>
@@ -18871,70 +18873,70 @@
       </c>
       <c r="AN59" s="20">
         <f>IF(X61&gt;0,X61,IF(AND(X62&gt;0,3&gt;V62),X62,IF(V62&gt;=2*3,5/6,IF(V62&gt;3,4/6,IF(V62=3,3/6,IF(V62&lt;=3/2,1/6,IF(V62&lt;3,2/6)))))))</f>
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AO59" s="20" t="s">
         <v>90</v>
       </c>
       <c r="AP59" s="20">
         <f>IF((AN59+X60)&gt;5/6,5/6,AN59+X60)</f>
-        <v>0.83333333333333337</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="AQ59" s="20" t="s">
         <v>96</v>
       </c>
       <c r="AR59" s="21">
         <f>IF(AND(AF62,X60&gt;=0),AL65*AN59,AL65*AP59)</f>
-        <v>1.4814814814814814</v>
-      </c>
-      <c r="AS59" s="224" t="s">
+        <v>5.3407407407407401</v>
+      </c>
+      <c r="AS59" s="211" t="s">
         <v>121</v>
       </c>
       <c r="AT59" s="199">
         <f>IF(AND(AN59&lt;AP66,AF62),AB59*AL65,AP66*AL65)</f>
         <v>0</v>
       </c>
-      <c r="AU59" s="224" t="s">
+      <c r="AU59" s="211" t="s">
         <v>109</v>
       </c>
       <c r="AV59" s="20">
         <f>IF(AF62,AL65-(AL65*AN59),IF(AF61,(1/6)*AL65,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW59" s="224" t="s">
+        <v>2.6703703703703709</v>
+      </c>
+      <c r="AW59" s="211" t="s">
         <v>60</v>
       </c>
       <c r="AX59" s="20">
-        <f>AV59*AP59</f>
-        <v>0</v>
-      </c>
-      <c r="AY59" s="224" t="s">
+        <f t="shared" ref="AX59:AX64" si="12">AV59*AP59</f>
+        <v>2.225308641975309</v>
+      </c>
+      <c r="AY59" s="211" t="s">
         <v>122</v>
       </c>
       <c r="AZ59" s="20">
         <f>AV59*AP66</f>
         <v>0</v>
       </c>
-      <c r="BA59" s="224" t="s">
+      <c r="BA59" s="211" t="s">
         <v>110</v>
       </c>
       <c r="BB59" s="199">
-        <f>AT59+AZ59</f>
-        <v>0</v>
-      </c>
-      <c r="BC59" s="224" t="s">
+        <f t="shared" ref="BB59:BB64" si="13">AT59+AZ59</f>
+        <v>0</v>
+      </c>
+      <c r="BC59" s="211" t="s">
         <v>117</v>
       </c>
       <c r="BD59" s="20">
-        <f>SUM(AR59,AX59)</f>
-        <v>1.4814814814814814</v>
-      </c>
-      <c r="BE59" s="224" t="s">
+        <f t="shared" ref="BD59:BD64" si="14">SUM(AR59,AX59)</f>
+        <v>7.5660493827160487</v>
+      </c>
+      <c r="BE59" s="211" t="s">
         <v>63</v>
       </c>
       <c r="BF59" s="199">
         <f>IF((1-(V59+V63))&gt;1,1,1-(V59+V63))</f>
-        <v>0.83333333333333337</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="BG59" s="199" t="s">
         <v>105</v>
@@ -18943,40 +18945,40 @@
         <f>IF(AB62&lt;0,BB59*BF60,BB59*BF59)</f>
         <v>0</v>
       </c>
-      <c r="BI59" s="224" t="s">
+      <c r="BI59" s="211" t="s">
         <v>102</v>
       </c>
       <c r="BJ59" s="199">
         <f>BH59+((BD59-BB59)*BF59)</f>
-        <v>1.2345679012345678</v>
-      </c>
-      <c r="BK59" s="224" t="s">
+        <v>2.5220164609053497</v>
+      </c>
+      <c r="BK59" s="211" t="s">
         <v>103</v>
       </c>
       <c r="BL59" s="18">
         <f>IF(AB61&gt;0,(BH59*AB61)+((BJ59-BH59)*V64),BJ59*V64)</f>
-        <v>3.7037037037037033</v>
-      </c>
-      <c r="BM59" s="224" t="s">
+        <v>2.5220164609053497</v>
+      </c>
+      <c r="BM59" s="211" t="s">
         <v>65</v>
       </c>
       <c r="BN59" s="18">
         <f>(AL64*Z62)+(AB60*BB59)</f>
         <v>0</v>
       </c>
-      <c r="BO59" s="224" t="s">
+      <c r="BO59" s="211" t="s">
         <v>64</v>
       </c>
       <c r="BP59" s="199">
         <f>IF(AD59,BL59+BN59,NA())</f>
-        <v>3.7037037037037033</v>
+        <v>2.5220164609053497</v>
       </c>
       <c r="BQ59" s="123" t="s">
         <v>46</v>
       </c>
       <c r="BR59" s="18">
         <f>IFERROR(IF(AD59,BP59,0)+IF(AD60,BP60,0)+IF(AD61,BP61,0)+IF(AD62,BP62,0)+IF(AD63,BP63,0)+IF(AD64,BP64,0),NA())</f>
-        <v>18.518518518518515</v>
+        <v>11.274897119341565</v>
       </c>
       <c r="BS59" s="160" t="s">
         <v>67</v>
@@ -18984,20 +18986,20 @@
     </row>
     <row r="60" spans="1:71" ht="15" customHeight="1">
       <c r="A60" s="132"/>
-      <c r="B60" s="238"/>
-      <c r="C60" s="238"/>
+      <c r="B60" s="223"/>
+      <c r="C60" s="223"/>
       <c r="D60" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="164" t="e">
+      <c r="E60" s="164">
         <f>IF(AND(AD60,AF66),BL60+BN60,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F60" s="30" t="e">
+        <v>2.225308641975309</v>
+      </c>
+      <c r="F60" s="30">
         <f>IFERROR(E60/P60,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G60" s="240"/>
+        <v>1.7802469135802471E-2</v>
+      </c>
+      <c r="G60" s="225"/>
       <c r="H60" s="84"/>
       <c r="I60" s="5" t="s">
         <v>126</v>
@@ -19006,35 +19008,37 @@
         <v>20</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="L60" s="5">
+        <v>8.24</v>
+      </c>
+      <c r="M60" s="5">
         <v>4</v>
       </c>
-      <c r="M60" s="5">
-        <v>8</v>
-      </c>
       <c r="N60" s="5">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O60" s="5">
-        <v>3</v>
-      </c>
-      <c r="P60" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="P60" s="5">
+        <v>125</v>
+      </c>
       <c r="Q60" s="77"/>
       <c r="R60" s="13"/>
       <c r="S60" s="93"/>
       <c r="T60" s="85"/>
       <c r="V60" s="159">
         <f>(IF(K60="D3",5/6,IF(K60="2D3",3/6,IF(K60="D6",3.5/6,IF(K60="Auto Hit",1,IF(K60="2+",5/6,IF(K60="3+",4/6,IF(K60="4+",3/6,IF(K60="5+",2/6,IF(K60="6+",1/6,0))))))))))</f>
-        <v>0.16666666666666666</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W60" s="12" t="s">
         <v>35</v>
       </c>
       <c r="X60" s="12">
         <f>IF(M62="D3",5/6,IF(M62="2D3",3/6,IF(M62="D6",3.5/6,IF(M62="2D6",1,M62/6))))</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Y60" s="14" t="str">
         <f>"+- to wound rolls"</f>
@@ -19075,7 +19079,7 @@
       </c>
       <c r="AJ60" s="20">
         <f>IF(Z59=0,0,IF((Z59+X59)&gt;5/6,5/6,Z59+X59))</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AK60" s="20" t="s">
         <v>118</v>
@@ -19089,53 +19093,53 @@
       </c>
       <c r="AN60" s="20">
         <f>IF(X61&gt;0,X61,IF(AND(X62&gt;0,4&gt;V62),X62,IF(V62&gt;=2*4,5/6,IF(V62&gt;4,4/6,IF(V62=4,3/6,IF(V62&lt;=4/2,1/6,IF(V62&lt;4,2/6)))))))</f>
-        <v>0.83333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="AO60" s="20" t="s">
         <v>91</v>
       </c>
       <c r="AP60" s="20">
         <f>IF((AN60+X60)&gt;5/6,5/6,AN60+X60)</f>
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ60" s="20" t="s">
         <v>97</v>
       </c>
       <c r="AR60" s="21">
         <f>IF(AND(AF62,X60&gt;=0),AL65*AN60,AL65*AP60)</f>
-        <v>1.4814814814814814</v>
-      </c>
-      <c r="AS60" s="224"/>
+        <v>4.0055555555555555</v>
+      </c>
+      <c r="AS60" s="211"/>
       <c r="AT60" s="199">
         <f>IF(AND(AN60&lt;AP66,AF62),AB59*AL65,AP66*AL65)</f>
         <v>0</v>
       </c>
-      <c r="AU60" s="224"/>
+      <c r="AU60" s="211"/>
       <c r="AV60" s="20">
         <f>IF(AF62,AL65-(AL65*AN60),IF(AF61,(1/6)*AL65,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW60" s="224"/>
+        <v>4.0055555555555555</v>
+      </c>
+      <c r="AW60" s="211"/>
       <c r="AX60" s="20">
-        <f>AV60*AP60</f>
-        <v>0</v>
-      </c>
-      <c r="AY60" s="224"/>
+        <f t="shared" si="12"/>
+        <v>2.6703703703703701</v>
+      </c>
+      <c r="AY60" s="211"/>
       <c r="AZ60" s="20">
         <f>AV60*AP66</f>
         <v>0</v>
       </c>
-      <c r="BA60" s="224"/>
+      <c r="BA60" s="211"/>
       <c r="BB60" s="199">
-        <f>AT60+AZ60</f>
-        <v>0</v>
-      </c>
-      <c r="BC60" s="224"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BC60" s="211"/>
       <c r="BD60" s="20">
-        <f>SUM(AR60,AX60)</f>
-        <v>1.4814814814814814</v>
-      </c>
-      <c r="BE60" s="224"/>
+        <f t="shared" si="14"/>
+        <v>6.6759259259259256</v>
+      </c>
+      <c r="BE60" s="211"/>
       <c r="BF60" s="199">
         <f>IF((1-(V59+AB62))&gt;1,1,1-(V59+AB62))</f>
         <v>0.33333333333333337</v>
@@ -19147,32 +19151,32 @@
         <f>IF(AB62&lt;0,BB60*BF60,BB60*BF59)</f>
         <v>0</v>
       </c>
-      <c r="BI60" s="224"/>
+      <c r="BI60" s="211"/>
       <c r="BJ60" s="199">
         <f>BH60+((BD60-BB60)*BF59)</f>
-        <v>1.2345679012345678</v>
-      </c>
-      <c r="BK60" s="224"/>
+        <v>2.225308641975309</v>
+      </c>
+      <c r="BK60" s="211"/>
       <c r="BL60" s="18">
         <f>IF(AB61&gt;0,(BH60*AB61)+((BJ60-BH60)*V64),BJ60*V64)</f>
-        <v>3.7037037037037033</v>
-      </c>
-      <c r="BM60" s="224"/>
+        <v>2.225308641975309</v>
+      </c>
+      <c r="BM60" s="211"/>
       <c r="BN60" s="18">
         <f>(AL64*Z62)+(AB60*BB60)</f>
         <v>0</v>
       </c>
-      <c r="BO60" s="224"/>
+      <c r="BO60" s="211"/>
       <c r="BP60" s="199">
-        <f t="shared" ref="BP60:BP64" si="3">IF(AD60,BL60+BN60,NA())</f>
-        <v>3.7037037037037033</v>
+        <f t="shared" ref="BP60:BP64" si="15">IF(AD60,BL60+BN60,NA())</f>
+        <v>2.225308641975309</v>
       </c>
       <c r="BQ60" s="123" t="s">
         <v>47</v>
       </c>
       <c r="BR60" s="18">
         <f>IFERROR(BR59/AD65,NA())</f>
-        <v>3.0864197530864192</v>
+        <v>1.8791495198902608</v>
       </c>
       <c r="BS60" s="160" t="s">
         <v>11</v>
@@ -19180,36 +19184,36 @@
     </row>
     <row r="61" spans="1:71" ht="15" customHeight="1">
       <c r="A61" s="132"/>
-      <c r="B61" s="238"/>
-      <c r="C61" s="238"/>
+      <c r="B61" s="223"/>
+      <c r="C61" s="223"/>
       <c r="D61" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="164" t="e">
+      <c r="E61" s="164">
         <f>IF(AND(AD61,AF66),BL61+BN61,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F61" s="30" t="e">
+        <v>1.780246913580247</v>
+      </c>
+      <c r="F61" s="30">
         <f>IFERROR(E61/P60,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G61" s="240"/>
+        <v>1.4241975308641975E-2</v>
+      </c>
+      <c r="G61" s="225"/>
       <c r="H61" s="84"/>
-      <c r="I61" s="225"/>
-      <c r="J61" s="225"/>
-      <c r="K61" s="225"/>
-      <c r="L61" s="225"/>
-      <c r="M61" s="225"/>
-      <c r="N61" s="225"/>
-      <c r="O61" s="225"/>
-      <c r="P61" s="225"/>
-      <c r="Q61" s="225"/>
-      <c r="R61" s="225"/>
-      <c r="S61" s="225"/>
+      <c r="I61" s="216"/>
+      <c r="J61" s="216"/>
+      <c r="K61" s="216"/>
+      <c r="L61" s="216"/>
+      <c r="M61" s="216"/>
+      <c r="N61" s="216"/>
+      <c r="O61" s="216"/>
+      <c r="P61" s="216"/>
+      <c r="Q61" s="216"/>
+      <c r="R61" s="216"/>
+      <c r="S61" s="216"/>
       <c r="T61" s="85"/>
       <c r="V61" s="161">
         <f>(IF(L60="D3",2,IF(L60="2D3",4,IF(L60="D6",3.5,IF(L60="2D6",7,IF(L60="3D6",10.5,L60))))))</f>
-        <v>4</v>
+        <v>8.24</v>
       </c>
       <c r="W61" s="12" t="s">
         <v>36</v>
@@ -19249,14 +19253,14 @@
       </c>
       <c r="AH61" s="14" t="b">
         <f>(AND(NOT(AF61),NOT(AF62)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="14" t="s">
         <v>120</v>
       </c>
       <c r="AJ61" s="20">
         <f>IF(AND(AF60,X59&gt;=0),V61*V60,V61*AJ59)</f>
-        <v>0.66666666666666663</v>
+        <v>6.8666666666666671</v>
       </c>
       <c r="AK61" s="20" t="s">
         <v>112</v>
@@ -19270,78 +19274,78 @@
       </c>
       <c r="AN61" s="20">
         <f>IF(X61&gt;0,X61,IF(AND(X62&gt;0,5&gt;V62),X62,IF(V62&gt;=2*5,5/6,IF(V62&gt;5,4/6,IF(V62=5,3/6,IF(V62&lt;=5/2,1/6,IF(V62&lt;5,2/6)))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AO61" s="20" t="s">
         <v>92</v>
       </c>
       <c r="AP61" s="20">
         <f>IF((AN61+X60)&gt;5/6,5/6,AN61+X60)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AQ61" s="20" t="s">
         <v>98</v>
       </c>
       <c r="AR61" s="21">
         <f>IF(AND(AF62,X60&gt;=0),AL65*AN61,AL65*AP61)</f>
-        <v>1.1851851851851851</v>
-      </c>
-      <c r="AS61" s="224"/>
+        <v>2.6703703703703701</v>
+      </c>
+      <c r="AS61" s="211"/>
       <c r="AT61" s="199">
         <f>IF(AND(AN61&lt;AP66,AF62),AB59*AL65,AP66*AL65)</f>
         <v>0</v>
       </c>
-      <c r="AU61" s="224"/>
+      <c r="AU61" s="211"/>
       <c r="AV61" s="20">
         <f>IF(AF62,AL65-(AL65*AN61),IF(AF61,(1/6)*AL65,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW61" s="224"/>
+        <v>5.340740740740741</v>
+      </c>
+      <c r="AW61" s="211"/>
       <c r="AX61" s="20">
-        <f>AV61*AP61</f>
-        <v>0</v>
-      </c>
-      <c r="AY61" s="224"/>
+        <f t="shared" si="12"/>
+        <v>2.6703703703703705</v>
+      </c>
+      <c r="AY61" s="211"/>
       <c r="AZ61" s="20">
         <f>AV61*AP66</f>
         <v>0</v>
       </c>
-      <c r="BA61" s="224"/>
+      <c r="BA61" s="211"/>
       <c r="BB61" s="199">
-        <f>AT61+AZ61</f>
-        <v>0</v>
-      </c>
-      <c r="BC61" s="224"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BC61" s="211"/>
       <c r="BD61" s="20">
-        <f>SUM(AR61,AX61)</f>
-        <v>1.1851851851851851</v>
-      </c>
-      <c r="BE61" s="224"/>
+        <f t="shared" si="14"/>
+        <v>5.3407407407407401</v>
+      </c>
+      <c r="BE61" s="211"/>
       <c r="BF61" s="199"/>
       <c r="BG61" s="199"/>
       <c r="BH61" s="20">
         <f>IF(AB62&lt;0,BB61*BF60,BB61*BF59)</f>
         <v>0</v>
       </c>
-      <c r="BI61" s="224"/>
+      <c r="BI61" s="211"/>
       <c r="BJ61" s="199">
         <f>BH61+((BD61-BB61)*BF59)</f>
-        <v>0.98765432098765427</v>
-      </c>
-      <c r="BK61" s="224"/>
+        <v>1.780246913580247</v>
+      </c>
+      <c r="BK61" s="211"/>
       <c r="BL61" s="18">
         <f>IF(AB61&gt;0,(BH61*AB61)+((BJ61-BH61)*V64),BJ61*V64)</f>
-        <v>2.9629629629629628</v>
-      </c>
-      <c r="BM61" s="224"/>
+        <v>1.780246913580247</v>
+      </c>
+      <c r="BM61" s="211"/>
       <c r="BN61" s="18">
         <f>(AL64*Z62)+(AB60*BB61)</f>
         <v>0</v>
       </c>
-      <c r="BO61" s="224"/>
+      <c r="BO61" s="211"/>
       <c r="BP61" s="199">
-        <f t="shared" si="3"/>
-        <v>2.9629629629629628</v>
+        <f t="shared" si="15"/>
+        <v>1.780246913580247</v>
       </c>
       <c r="BQ61" s="123" t="s">
         <v>48</v>
@@ -19355,22 +19359,22 @@
       <c r="D62" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="164" t="e">
+      <c r="E62" s="164">
         <f>IF(AND(AD62,AF66),BL62+BN62,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F62" s="30" t="e">
+        <v>1.780246913580247</v>
+      </c>
+      <c r="F62" s="30">
         <f>IFERROR(E62/P60,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G62" s="240"/>
+        <v>1.4241975308641975E-2</v>
+      </c>
+      <c r="G62" s="225"/>
       <c r="H62" s="84"/>
       <c r="I62" s="191" t="str">
         <f>"+- to hit"</f>
         <v>+- to hit</v>
       </c>
       <c r="J62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="79"/>
       <c r="L62" s="191" t="str">
@@ -19378,26 +19382,26 @@
         <v>+- to wound</v>
       </c>
       <c r="M62" s="5">
-        <v>0</v>
-      </c>
-      <c r="N62" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="N62" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="O62" s="215"/>
+      <c r="O62" s="208"/>
       <c r="P62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q62" s="215" t="s">
+      <c r="Q62" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R62" s="215"/>
+      <c r="R62" s="208"/>
       <c r="S62" s="5" t="s">
         <v>19</v>
       </c>
       <c r="T62" s="86"/>
       <c r="V62" s="161">
         <f>IF(M60="D3",2,IF(M60="2D3",4,IF(M60="D6",3.5,IF(M60="2D6",7,M60))))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W62" s="12" t="s">
         <v>38</v>
@@ -19430,7 +19434,7 @@
         <v>49</v>
       </c>
       <c r="AF62" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG62" s="14" t="s">
         <v>55</v>
@@ -19439,7 +19443,7 @@
       <c r="AI62" s="14"/>
       <c r="AJ62" s="20">
         <f>IF(AND(V60&lt;AJ60,AF60),Z59*V61,AJ60*V61)</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="20" t="s">
         <v>109</v>
@@ -19453,78 +19457,78 @@
       </c>
       <c r="AN62" s="20">
         <f>IF(X61&gt;0,X61,IF(AND(X62&gt;0,6&gt;V62),X62,IF(V62&gt;=2*6,5/6,IF(V62&gt;6,4/6,IF(V62=6,3/6,IF(V62&lt;=6/2,1/6,IF(V62&lt;6,2/6)))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AO62" s="20" t="s">
         <v>93</v>
       </c>
       <c r="AP62" s="20">
         <f>IF((AN62+X60)&gt;5/6,5/6,AN62+X60)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AQ62" s="20" t="s">
         <v>99</v>
       </c>
       <c r="AR62" s="21">
         <f>IF(AND(AF62,X60&gt;=0),AL65*AN62,AL65*AP62)</f>
-        <v>1.1851851851851851</v>
-      </c>
-      <c r="AS62" s="224"/>
+        <v>2.6703703703703701</v>
+      </c>
+      <c r="AS62" s="211"/>
       <c r="AT62" s="199">
         <f>IF(AND(AN62&lt;AP66,AF62),AB59*AL65,AP66*AL65)</f>
         <v>0</v>
       </c>
-      <c r="AU62" s="224"/>
+      <c r="AU62" s="211"/>
       <c r="AV62" s="20">
         <f>IF(AF62,AL65-(AL65*AN62),IF(AF61,(1/6)*AL65,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW62" s="224"/>
+        <v>5.340740740740741</v>
+      </c>
+      <c r="AW62" s="211"/>
       <c r="AX62" s="20">
-        <f>AV62*AP62</f>
-        <v>0</v>
-      </c>
-      <c r="AY62" s="224"/>
+        <f t="shared" si="12"/>
+        <v>2.6703703703703705</v>
+      </c>
+      <c r="AY62" s="211"/>
       <c r="AZ62" s="20">
         <f>AV62*AP66</f>
         <v>0</v>
       </c>
-      <c r="BA62" s="224"/>
+      <c r="BA62" s="211"/>
       <c r="BB62" s="199">
-        <f>AT62+AZ62</f>
-        <v>0</v>
-      </c>
-      <c r="BC62" s="224"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BC62" s="211"/>
       <c r="BD62" s="20">
-        <f>SUM(AR62,AX62)</f>
-        <v>1.1851851851851851</v>
-      </c>
-      <c r="BE62" s="224"/>
+        <f t="shared" si="14"/>
+        <v>5.3407407407407401</v>
+      </c>
+      <c r="BE62" s="211"/>
       <c r="BF62" s="199"/>
       <c r="BG62" s="199"/>
       <c r="BH62" s="20">
         <f>IF(AB62&lt;0,BB62*BF60,BB62*BF59)</f>
         <v>0</v>
       </c>
-      <c r="BI62" s="224"/>
+      <c r="BI62" s="211"/>
       <c r="BJ62" s="199">
         <f>BH62+((BD62-BB62)*BF59)</f>
-        <v>0.98765432098765427</v>
-      </c>
-      <c r="BK62" s="224"/>
+        <v>1.780246913580247</v>
+      </c>
+      <c r="BK62" s="211"/>
       <c r="BL62" s="18">
         <f>IF(AB61&gt;0,(BH62*AB61)+((BJ62-BH62)*V64),BJ62*V64)</f>
-        <v>2.9629629629629628</v>
-      </c>
-      <c r="BM62" s="224"/>
+        <v>1.780246913580247</v>
+      </c>
+      <c r="BM62" s="211"/>
       <c r="BN62" s="18">
         <f>(AL64*Z62)+(AB60*BB62)</f>
         <v>0</v>
       </c>
-      <c r="BO62" s="224"/>
+      <c r="BO62" s="211"/>
       <c r="BP62" s="199">
-        <f t="shared" si="3"/>
-        <v>2.9629629629629628</v>
+        <f t="shared" si="15"/>
+        <v>1.780246913580247</v>
       </c>
       <c r="BQ62" s="123" t="s">
         <v>49</v>
@@ -19538,43 +19542,43 @@
       <c r="D63" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="164" t="e">
+      <c r="E63" s="164">
         <f>IF(AND(AD63,AF66),BL63+BN63,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F63" s="30" t="e">
+        <v>1.780246913580247</v>
+      </c>
+      <c r="F63" s="30">
         <f>IFERROR(E63/P60,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G63" s="240"/>
+        <v>1.4241975308641975E-2</v>
+      </c>
+      <c r="G63" s="225"/>
       <c r="H63" s="87"/>
       <c r="I63" s="80"/>
       <c r="J63" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="K63" s="215" t="s">
+      <c r="K63" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="L63" s="215"/>
-      <c r="M63" s="215"/>
-      <c r="N63" s="215" t="s">
+      <c r="L63" s="208"/>
+      <c r="M63" s="208"/>
+      <c r="N63" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O63" s="215"/>
+      <c r="O63" s="208"/>
       <c r="P63" s="5">
         <v>0</v>
       </c>
-      <c r="Q63" s="215" t="s">
+      <c r="Q63" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="215"/>
+      <c r="R63" s="208"/>
       <c r="S63" s="5">
         <v>0</v>
       </c>
       <c r="T63" s="86"/>
       <c r="V63" s="161">
         <f>IF(N60="D3",-2/6,IF(N60="2D3",-4/6,IF(N60="D6",-3.5/6,IF(N60="2D6",-7/6,N60/6))))</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="W63" s="12" t="s">
         <v>37</v>
@@ -19599,7 +19603,7 @@
       <c r="AI63" s="14"/>
       <c r="AJ63" s="20">
         <f>IF(AF60,V61-(V60*V61),IF(AF59,(1/6)*V61,0))</f>
-        <v>3.3333333333333335</v>
+        <v>1.3733333333333331</v>
       </c>
       <c r="AK63" s="20" t="s">
         <v>60</v>
@@ -19613,78 +19617,78 @@
       </c>
       <c r="AN63" s="20">
         <f>IF(X61&gt;0,X61,IF(AND(X62&gt;0,7&gt;V62),X62,IF(V62&gt;=2*7,5/6,IF(V62&gt;7,4/6,IF(V62=7,3/6,IF(V62&lt;=7/2,1/6,IF(V62&lt;7,2/6)))))))</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AO63" s="20" t="s">
         <v>94</v>
       </c>
       <c r="AP63" s="20">
         <f>IF((AN63+X60)&gt;5/6,5/6,AN63+X60)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AQ63" s="20" t="s">
         <v>100</v>
       </c>
       <c r="AR63" s="21">
         <f>IF(AND(AF62,X60&gt;=0),AL65*AN63,AL65*AP63)</f>
-        <v>1.1851851851851851</v>
-      </c>
-      <c r="AS63" s="224"/>
+        <v>2.6703703703703701</v>
+      </c>
+      <c r="AS63" s="211"/>
       <c r="AT63" s="199">
         <f>IF(AND(AN63&lt;AP66,AF62),AB59*AL65,AP66*AL65)</f>
         <v>0</v>
       </c>
-      <c r="AU63" s="224"/>
+      <c r="AU63" s="211"/>
       <c r="AV63" s="20">
         <f>IF(AF62,AL65-(AL65*AN63),IF(AF61,(1/6)*AL65,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW63" s="224"/>
+        <v>5.340740740740741</v>
+      </c>
+      <c r="AW63" s="211"/>
       <c r="AX63" s="20">
-        <f>AV63*AP63</f>
-        <v>0</v>
-      </c>
-      <c r="AY63" s="224"/>
+        <f t="shared" si="12"/>
+        <v>2.6703703703703705</v>
+      </c>
+      <c r="AY63" s="211"/>
       <c r="AZ63" s="20">
         <f>AV63*AP66</f>
         <v>0</v>
       </c>
-      <c r="BA63" s="224"/>
+      <c r="BA63" s="211"/>
       <c r="BB63" s="199">
-        <f>AT63+AZ63</f>
-        <v>0</v>
-      </c>
-      <c r="BC63" s="224"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BC63" s="211"/>
       <c r="BD63" s="20">
-        <f>SUM(AR63,AX63)</f>
-        <v>1.1851851851851851</v>
-      </c>
-      <c r="BE63" s="224"/>
+        <f t="shared" si="14"/>
+        <v>5.3407407407407401</v>
+      </c>
+      <c r="BE63" s="211"/>
       <c r="BF63" s="199"/>
       <c r="BG63" s="199"/>
       <c r="BH63" s="20">
         <f>IF(AB62&lt;0,BB63*BF60,BB63*BF59)</f>
         <v>0</v>
       </c>
-      <c r="BI63" s="224"/>
+      <c r="BI63" s="211"/>
       <c r="BJ63" s="199">
         <f>BH63+((BD63-BB63)*BF59)</f>
-        <v>0.98765432098765427</v>
-      </c>
-      <c r="BK63" s="224"/>
+        <v>1.780246913580247</v>
+      </c>
+      <c r="BK63" s="211"/>
       <c r="BL63" s="18">
         <f>IF(AB61&gt;0,(BH63*AB61)+((BJ63-BH63)*V64),BJ63*V64)</f>
-        <v>2.9629629629629628</v>
-      </c>
-      <c r="BM63" s="224"/>
+        <v>1.780246913580247</v>
+      </c>
+      <c r="BM63" s="211"/>
       <c r="BN63" s="18">
         <f>(AL64*Z62)+(AB60*BB63)</f>
         <v>0</v>
       </c>
-      <c r="BO63" s="224"/>
+      <c r="BO63" s="211"/>
       <c r="BP63" s="199">
-        <f t="shared" si="3"/>
-        <v>2.9629629629629628</v>
+        <f t="shared" si="15"/>
+        <v>1.780246913580247</v>
       </c>
       <c r="BQ63" s="123" t="s">
         <v>50</v>
@@ -19698,43 +19702,43 @@
       <c r="D64" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="164" t="e">
+      <c r="E64" s="164">
         <f>IF(AND(AD64,AF66),BL64+BN64,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F64" s="30" t="e">
+        <v>1.1868312757201647</v>
+      </c>
+      <c r="F64" s="30">
         <f>IFERROR(E64/P60,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G64" s="240"/>
+        <v>9.494650205761318E-3</v>
+      </c>
+      <c r="G64" s="225"/>
       <c r="H64" s="84"/>
-      <c r="I64" s="232" t="s">
+      <c r="I64" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="J64" s="232"/>
-      <c r="K64" s="232" t="s">
+      <c r="J64" s="207"/>
+      <c r="K64" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="L64" s="232"/>
-      <c r="M64" s="232"/>
-      <c r="N64" s="215" t="s">
+      <c r="L64" s="207"/>
+      <c r="M64" s="207"/>
+      <c r="N64" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="O64" s="215"/>
+      <c r="O64" s="208"/>
       <c r="P64" s="5">
         <v>0</v>
       </c>
-      <c r="Q64" s="215" t="s">
+      <c r="Q64" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="R64" s="215"/>
+      <c r="R64" s="208"/>
       <c r="S64" s="5">
         <v>0</v>
       </c>
       <c r="T64" s="86"/>
       <c r="V64" s="161">
         <f>IF(O60="D3",2,IF(O60="2D3",4,IF(O60="D6",3.5,IF(O60="2D6",7,IF(O60="2D6 pick highest",161/36,IF(O60="Less than 3 counts as 3",4,O60))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W64" s="12" t="s">
         <v>23</v>
@@ -19751,7 +19755,7 @@
         <v>51</v>
       </c>
       <c r="AF64" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="19" t="s">
         <v>57</v>
@@ -19760,92 +19764,92 @@
       <c r="AI64" s="19"/>
       <c r="AJ64" s="20">
         <f>AJ63*AJ59</f>
-        <v>1.1111111111111112</v>
+        <v>1.1444444444444444</v>
       </c>
       <c r="AK64" s="14" t="s">
         <v>113</v>
       </c>
       <c r="AL64" s="20">
         <f>SUM(AJ62,AJ65,AL60,AL63)</f>
-        <v>1.7777777777777777</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="25" t="s">
         <v>117</v>
       </c>
       <c r="AN64" s="20">
         <f>IF(X61&gt;0,X61,IF(AND(X62&gt;0,8&gt;V62),X62,IF(V62&gt;=2*8,5/6,IF(V62&gt;8,4/6,IF(V62=8,3/6,IF(V62&lt;=8/2,1/6,IF(V62&lt;8,2/6)))))))</f>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AO64" s="20" t="s">
         <v>95</v>
       </c>
       <c r="AP64" s="20">
         <f>IF((AN64+X60)&gt;5/6,5/6,AN64+X60)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AQ64" s="20" t="s">
         <v>101</v>
       </c>
       <c r="AR64" s="20">
         <f>IF(AND(AF62,X60&gt;=0),AL65*AN64,AL65*AP64)</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="AS64" s="224"/>
+        <v>1.335185185185185</v>
+      </c>
+      <c r="AS64" s="211"/>
       <c r="AT64" s="199">
         <f>IF(AND(AN64&lt;AP66,AF62),AB59*AL65,AP66*AL65)</f>
         <v>0</v>
       </c>
-      <c r="AU64" s="224"/>
+      <c r="AU64" s="211"/>
       <c r="AV64" s="20">
         <f>IF(AF62,AL65-(AL65*AN64),IF(AF61,(1/6)*AL65,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AW64" s="224"/>
+        <v>6.6759259259259256</v>
+      </c>
+      <c r="AW64" s="211"/>
       <c r="AX64" s="20">
-        <f>AV64*AP64</f>
-        <v>0</v>
-      </c>
-      <c r="AY64" s="224"/>
+        <f t="shared" si="12"/>
+        <v>2.2253086419753085</v>
+      </c>
+      <c r="AY64" s="211"/>
       <c r="AZ64" s="20">
         <f>AV64*AP66</f>
         <v>0</v>
       </c>
-      <c r="BA64" s="224"/>
+      <c r="BA64" s="211"/>
       <c r="BB64" s="199">
-        <f>AT64+AZ64</f>
-        <v>0</v>
-      </c>
-      <c r="BC64" s="224"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BC64" s="211"/>
       <c r="BD64" s="20">
-        <f>SUM(AR64,AX64)</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="BE64" s="224"/>
+        <f t="shared" si="14"/>
+        <v>3.5604938271604936</v>
+      </c>
+      <c r="BE64" s="211"/>
       <c r="BF64" s="199"/>
       <c r="BG64" s="199"/>
       <c r="BH64" s="20">
         <f>IF(AB62&lt;0,BB64*BF60,BB64*BF59)</f>
         <v>0</v>
       </c>
-      <c r="BI64" s="224"/>
+      <c r="BI64" s="211"/>
       <c r="BJ64" s="199">
         <f>BH64+((BD64-BB64)*BF59)</f>
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="BK64" s="224"/>
+        <v>1.1868312757201647</v>
+      </c>
+      <c r="BK64" s="211"/>
       <c r="BL64" s="18">
         <f>IF(AB61&gt;0,(BH64*AB61)+((BJ64-BH64)*V64),BJ64*V64)</f>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="BM64" s="224"/>
+        <v>1.1868312757201647</v>
+      </c>
+      <c r="BM64" s="211"/>
       <c r="BN64" s="18">
         <f>(AL64*Z62)+(AB60*BB64)</f>
         <v>0</v>
       </c>
-      <c r="BO64" s="224"/>
+      <c r="BO64" s="211"/>
       <c r="BP64" s="199">
-        <f t="shared" si="3"/>
-        <v>2.2222222222222223</v>
+        <f t="shared" si="15"/>
+        <v>1.1868312757201647</v>
       </c>
       <c r="BQ64" s="123" t="s">
         <v>51</v>
@@ -19859,7 +19863,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="174"/>
       <c r="F65" s="51"/>
-      <c r="G65" s="240"/>
+      <c r="G65" s="225"/>
       <c r="H65" s="84"/>
       <c r="I65" s="191"/>
       <c r="J65" s="191"/>
@@ -19872,17 +19876,17 @@
       <c r="M65" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N65" s="215" t="s">
+      <c r="N65" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O65" s="215"/>
+      <c r="O65" s="208"/>
       <c r="P65" s="5">
         <v>0</v>
       </c>
-      <c r="Q65" s="216" t="s">
+      <c r="Q65" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="R65" s="216"/>
+      <c r="R65" s="217"/>
       <c r="S65" s="5">
         <v>0</v>
       </c>
@@ -19916,14 +19920,14 @@
       <c r="AI65" s="14"/>
       <c r="AJ65" s="20">
         <f>AJ60*AJ63</f>
-        <v>1.1111111111111112</v>
+        <v>0</v>
       </c>
       <c r="AK65" s="20" t="s">
         <v>110</v>
       </c>
       <c r="AL65" s="20">
         <f>IF(V60=1,V61,SUM(AJ61,AJ64,AL59,AL62)+(Z61*AL64)-(Z62*AL64))</f>
-        <v>1.7777777777777777</v>
+        <v>8.0111111111111111</v>
       </c>
       <c r="AM65" s="20" t="s">
         <v>62</v>
@@ -19971,13 +19975,13 @@
       </c>
       <c r="E66" s="179">
         <f>IFERROR(BR60,NA())</f>
-        <v>3.0864197530864192</v>
-      </c>
-      <c r="F66" s="3" t="e">
+        <v>1.8791495198902608</v>
+      </c>
+      <c r="F66" s="3">
         <f>IFERROR(E66/P60,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G66" s="240"/>
+        <v>1.5033196159122086E-2</v>
+      </c>
+      <c r="G66" s="225"/>
       <c r="H66" s="84"/>
       <c r="I66" s="80"/>
       <c r="J66" s="80"/>
@@ -20005,7 +20009,7 @@
         <v>70</v>
       </c>
       <c r="AF66" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG66" s="14" t="s">
         <v>71</v>
@@ -20131,11 +20135,11 @@
     </row>
     <row r="68" spans="1:71" ht="15" customHeight="1">
       <c r="A68" s="151"/>
-      <c r="B68" s="233" t="str">
+      <c r="B68" s="226" t="str">
         <f>IF(I70="","",I70)</f>
         <v>Model 5</v>
       </c>
-      <c r="C68" s="233"/>
+      <c r="C68" s="226"/>
       <c r="D68" s="34"/>
       <c r="E68" s="176" t="s">
         <v>11</v>
@@ -20143,90 +20147,90 @@
       <c r="F68" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G68" s="235"/>
+      <c r="G68" s="228"/>
       <c r="H68" s="82"/>
-      <c r="I68" s="231" t="str">
+      <c r="I68" s="209" t="str">
         <f>IF(I70="","",I70)</f>
         <v>Model 5</v>
       </c>
-      <c r="J68" s="231"/>
-      <c r="K68" s="231"/>
-      <c r="L68" s="231"/>
-      <c r="M68" s="231"/>
-      <c r="N68" s="231"/>
-      <c r="O68" s="231"/>
-      <c r="P68" s="231"/>
-      <c r="Q68" s="231"/>
-      <c r="R68" s="231"/>
-      <c r="S68" s="231"/>
+      <c r="J68" s="209"/>
+      <c r="K68" s="209"/>
+      <c r="L68" s="209"/>
+      <c r="M68" s="209"/>
+      <c r="N68" s="209"/>
+      <c r="O68" s="209"/>
+      <c r="P68" s="209"/>
+      <c r="Q68" s="209"/>
+      <c r="R68" s="209"/>
+      <c r="S68" s="209"/>
       <c r="T68" s="83"/>
-      <c r="V68" s="206" t="s">
+      <c r="V68" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="W68" s="207"/>
-      <c r="X68" s="207"/>
-      <c r="Y68" s="207"/>
-      <c r="Z68" s="207"/>
-      <c r="AA68" s="207"/>
-      <c r="AB68" s="207"/>
-      <c r="AC68" s="207"/>
-      <c r="AD68" s="207" t="s">
+      <c r="W68" s="206"/>
+      <c r="X68" s="206"/>
+      <c r="Y68" s="206"/>
+      <c r="Z68" s="206"/>
+      <c r="AA68" s="206"/>
+      <c r="AB68" s="206"/>
+      <c r="AC68" s="206"/>
+      <c r="AD68" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE68" s="207"/>
-      <c r="AF68" s="207"/>
-      <c r="AG68" s="207"/>
+      <c r="AE68" s="206"/>
+      <c r="AF68" s="206"/>
+      <c r="AG68" s="206"/>
       <c r="AH68" s="198"/>
       <c r="AI68" s="198"/>
-      <c r="AJ68" s="207" t="s">
+      <c r="AJ68" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="AK68" s="207"/>
-      <c r="AL68" s="207"/>
-      <c r="AM68" s="207"/>
-      <c r="AN68" s="207"/>
-      <c r="AO68" s="207" t="s">
+      <c r="AK68" s="206"/>
+      <c r="AL68" s="206"/>
+      <c r="AM68" s="206"/>
+      <c r="AN68" s="206"/>
+      <c r="AO68" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="AP68" s="207"/>
-      <c r="AQ68" s="207"/>
-      <c r="AR68" s="207"/>
-      <c r="AS68" s="207"/>
-      <c r="AT68" s="207"/>
-      <c r="AU68" s="207"/>
-      <c r="AV68" s="207"/>
-      <c r="AW68" s="207"/>
-      <c r="AX68" s="207"/>
-      <c r="AY68" s="207"/>
-      <c r="AZ68" s="207"/>
-      <c r="BA68" s="207"/>
-      <c r="BB68" s="207"/>
-      <c r="BC68" s="207"/>
-      <c r="BD68" s="207"/>
-      <c r="BE68" s="207"/>
+      <c r="AP68" s="206"/>
+      <c r="AQ68" s="206"/>
+      <c r="AR68" s="206"/>
+      <c r="AS68" s="206"/>
+      <c r="AT68" s="206"/>
+      <c r="AU68" s="206"/>
+      <c r="AV68" s="206"/>
+      <c r="AW68" s="206"/>
+      <c r="AX68" s="206"/>
+      <c r="AY68" s="206"/>
+      <c r="AZ68" s="206"/>
+      <c r="BA68" s="206"/>
+      <c r="BB68" s="206"/>
+      <c r="BC68" s="206"/>
+      <c r="BD68" s="206"/>
+      <c r="BE68" s="206"/>
       <c r="BF68" s="198"/>
       <c r="BG68" s="198"/>
-      <c r="BH68" s="207" t="s">
+      <c r="BH68" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="BI68" s="207"/>
-      <c r="BJ68" s="207"/>
-      <c r="BK68" s="207"/>
-      <c r="BL68" s="207"/>
-      <c r="BM68" s="207"/>
-      <c r="BN68" s="207"/>
-      <c r="BO68" s="207"/>
-      <c r="BP68" s="207"/>
-      <c r="BQ68" s="207"/>
-      <c r="BR68" s="207" t="s">
+      <c r="BI68" s="206"/>
+      <c r="BJ68" s="206"/>
+      <c r="BK68" s="206"/>
+      <c r="BL68" s="206"/>
+      <c r="BM68" s="206"/>
+      <c r="BN68" s="206"/>
+      <c r="BO68" s="206"/>
+      <c r="BP68" s="206"/>
+      <c r="BQ68" s="206"/>
+      <c r="BR68" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="BS68" s="226"/>
+      <c r="BS68" s="210"/>
     </row>
     <row r="69" spans="1:71" ht="15" customHeight="1">
       <c r="A69" s="152"/>
-      <c r="B69" s="234"/>
-      <c r="C69" s="234"/>
+      <c r="B69" s="227"/>
+      <c r="C69" s="227"/>
       <c r="D69" s="41" t="s">
         <v>1</v>
       </c>
@@ -20238,7 +20242,7 @@
         <f>IFERROR(E69/P70,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G69" s="236"/>
+      <c r="G69" s="229"/>
       <c r="H69" s="84"/>
       <c r="I69" s="78" t="s">
         <v>13</v>
@@ -20264,8 +20268,8 @@
       <c r="P69" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Q69" s="215"/>
-      <c r="R69" s="215"/>
+      <c r="Q69" s="208"/>
+      <c r="R69" s="208"/>
       <c r="S69" s="79"/>
       <c r="T69" s="85"/>
       <c r="V69" s="159">
@@ -20347,49 +20351,49 @@
         <f>IF(AND(AF72,X70&gt;=0),AL75*AN69,AL75*AP69)</f>
         <v>3</v>
       </c>
-      <c r="AS69" s="224" t="s">
+      <c r="AS69" s="211" t="s">
         <v>121</v>
       </c>
       <c r="AT69" s="199">
         <f>IF(AND(AN69&lt;AP76,AF72),AB69*AL75,AP76*AL75)</f>
         <v>0</v>
       </c>
-      <c r="AU69" s="224" t="s">
+      <c r="AU69" s="211" t="s">
         <v>109</v>
       </c>
       <c r="AV69" s="20">
         <f>IF(AF72,AL75-(AL75*AN69),IF(AF71,(1/6)*AL75,0))</f>
         <v>0</v>
       </c>
-      <c r="AW69" s="224" t="s">
+      <c r="AW69" s="211" t="s">
         <v>60</v>
       </c>
       <c r="AX69" s="20">
-        <f>AV69*AP69</f>
-        <v>0</v>
-      </c>
-      <c r="AY69" s="224" t="s">
+        <f t="shared" ref="AX69:AX74" si="16">AV69*AP69</f>
+        <v>0</v>
+      </c>
+      <c r="AY69" s="211" t="s">
         <v>122</v>
       </c>
       <c r="AZ69" s="20">
         <f>AV69*AP76</f>
         <v>0</v>
       </c>
-      <c r="BA69" s="224" t="s">
+      <c r="BA69" s="211" t="s">
         <v>110</v>
       </c>
       <c r="BB69" s="199">
-        <f>AT69+AZ69</f>
-        <v>0</v>
-      </c>
-      <c r="BC69" s="224" t="s">
+        <f t="shared" ref="BB69:BB74" si="17">AT69+AZ69</f>
+        <v>0</v>
+      </c>
+      <c r="BC69" s="211" t="s">
         <v>117</v>
       </c>
       <c r="BD69" s="20">
-        <f>SUM(AR69,AX69)</f>
+        <f t="shared" ref="BD69:BD74" si="18">SUM(AR69,AX69)</f>
         <v>3</v>
       </c>
-      <c r="BE69" s="224" t="s">
+      <c r="BE69" s="211" t="s">
         <v>63</v>
       </c>
       <c r="BF69" s="199">
@@ -20403,28 +20407,28 @@
         <f>IF(AB72&lt;0,BB69*BF70,BB69*BF69)</f>
         <v>0</v>
       </c>
-      <c r="BI69" s="224" t="s">
+      <c r="BI69" s="211" t="s">
         <v>102</v>
       </c>
       <c r="BJ69" s="199">
         <f>BH69+((BD69-BB69)*BF69)</f>
         <v>1</v>
       </c>
-      <c r="BK69" s="224" t="s">
+      <c r="BK69" s="211" t="s">
         <v>103</v>
       </c>
       <c r="BL69" s="18">
         <f>IF(AB71&gt;0,(BH69*AB71)+((BJ69-BH69)*V74),BJ69*V74)</f>
         <v>1</v>
       </c>
-      <c r="BM69" s="224" t="s">
+      <c r="BM69" s="211" t="s">
         <v>65</v>
       </c>
       <c r="BN69" s="18">
         <f>(AL74*Z72)+(AB70*BB69)</f>
         <v>0</v>
       </c>
-      <c r="BO69" s="224" t="s">
+      <c r="BO69" s="211" t="s">
         <v>64</v>
       </c>
       <c r="BP69" s="199">
@@ -20444,8 +20448,8 @@
     </row>
     <row r="70" spans="1:71" ht="15" customHeight="1">
       <c r="A70" s="152"/>
-      <c r="B70" s="234"/>
-      <c r="C70" s="234"/>
+      <c r="B70" s="227"/>
+      <c r="C70" s="227"/>
       <c r="D70" s="41" t="s">
         <v>2</v>
       </c>
@@ -20457,7 +20461,7 @@
         <f>IFERROR(E70/P70,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G70" s="236"/>
+      <c r="G70" s="229"/>
       <c r="H70" s="84"/>
       <c r="I70" s="5" t="s">
         <v>106</v>
@@ -20483,8 +20487,8 @@
       <c r="P70" s="5">
         <v>25</v>
       </c>
-      <c r="Q70" s="215"/>
-      <c r="R70" s="215"/>
+      <c r="Q70" s="208"/>
+      <c r="R70" s="208"/>
       <c r="S70" s="79"/>
       <c r="T70" s="85"/>
       <c r="V70" s="159">
@@ -20567,37 +20571,37 @@
         <f>IF(AND(AF72,X70&gt;=0),AL75*AN70,AL75*AP70)</f>
         <v>2.25</v>
       </c>
-      <c r="AS70" s="224"/>
+      <c r="AS70" s="211"/>
       <c r="AT70" s="199">
         <f>IF(AND(AN70&lt;AP76,AF72),AB69*AL75,AP76*AL75)</f>
         <v>0</v>
       </c>
-      <c r="AU70" s="224"/>
+      <c r="AU70" s="211"/>
       <c r="AV70" s="20">
         <f>IF(AF72,AL75-(AL75*AN70),IF(AF71,(1/6)*AL75,0))</f>
         <v>0</v>
       </c>
-      <c r="AW70" s="224"/>
+      <c r="AW70" s="211"/>
       <c r="AX70" s="20">
-        <f>AV70*AP70</f>
-        <v>0</v>
-      </c>
-      <c r="AY70" s="224"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AY70" s="211"/>
       <c r="AZ70" s="20">
         <f>AV70*AP76</f>
         <v>0</v>
       </c>
-      <c r="BA70" s="224"/>
+      <c r="BA70" s="211"/>
       <c r="BB70" s="199">
-        <f>AT70+AZ70</f>
-        <v>0</v>
-      </c>
-      <c r="BC70" s="224"/>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BC70" s="211"/>
       <c r="BD70" s="20">
-        <f>SUM(AR70,AX70)</f>
+        <f t="shared" si="18"/>
         <v>2.25</v>
       </c>
-      <c r="BE70" s="224"/>
+      <c r="BE70" s="211"/>
       <c r="BF70" s="199">
         <f>IF((1-(V69+AB72))&gt;1,1,1-(V69+AB72))</f>
         <v>0.33333333333333337</v>
@@ -20609,24 +20613,24 @@
         <f>IF(AB72&lt;0,BB70*BF70,BB70*BF69)</f>
         <v>0</v>
       </c>
-      <c r="BI70" s="224"/>
+      <c r="BI70" s="211"/>
       <c r="BJ70" s="199">
         <f>BH70+((BD70-BB70)*BF69)</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="BK70" s="224"/>
+      <c r="BK70" s="211"/>
       <c r="BL70" s="18">
         <f>IF(AB71&gt;0,(BH70*AB71)+((BJ70-BH70)*V74),BJ70*V74)</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="BM70" s="224"/>
+      <c r="BM70" s="211"/>
       <c r="BN70" s="18">
         <f>(AL74*Z72)+(AB70*BB70)</f>
         <v>0</v>
       </c>
-      <c r="BO70" s="224"/>
+      <c r="BO70" s="211"/>
       <c r="BP70" s="199">
-        <f t="shared" ref="BP70:BP74" si="4">IF(AD70,BL70+BN70,NA())</f>
+        <f t="shared" ref="BP70:BP74" si="19">IF(AD70,BL70+BN70,NA())</f>
         <v>0.75000000000000011</v>
       </c>
       <c r="BQ70" s="123" t="s">
@@ -20642,8 +20646,8 @@
     </row>
     <row r="71" spans="1:71" ht="15" customHeight="1">
       <c r="A71" s="152"/>
-      <c r="B71" s="234"/>
-      <c r="C71" s="234"/>
+      <c r="B71" s="227"/>
+      <c r="C71" s="227"/>
       <c r="D71" s="41" t="s">
         <v>3</v>
       </c>
@@ -20655,19 +20659,19 @@
         <f>IFERROR(E71/P70,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G71" s="236"/>
+      <c r="G71" s="229"/>
       <c r="H71" s="84"/>
-      <c r="I71" s="225"/>
-      <c r="J71" s="225"/>
-      <c r="K71" s="225"/>
-      <c r="L71" s="225"/>
-      <c r="M71" s="225"/>
-      <c r="N71" s="225"/>
-      <c r="O71" s="225"/>
-      <c r="P71" s="225"/>
-      <c r="Q71" s="225"/>
-      <c r="R71" s="225"/>
-      <c r="S71" s="225"/>
+      <c r="I71" s="216"/>
+      <c r="J71" s="216"/>
+      <c r="K71" s="216"/>
+      <c r="L71" s="216"/>
+      <c r="M71" s="216"/>
+      <c r="N71" s="216"/>
+      <c r="O71" s="216"/>
+      <c r="P71" s="216"/>
+      <c r="Q71" s="216"/>
+      <c r="R71" s="216"/>
+      <c r="S71" s="216"/>
       <c r="T71" s="85"/>
       <c r="V71" s="161">
         <f>(IF(L70="D3",2,IF(L70="2D3",4,IF(L70="D6",3.5,IF(L70="2D6",7,IF(L70="3D6",10.5,L70))))))</f>
@@ -20748,61 +20752,61 @@
         <f>IF(AND(AF72,X70&gt;=0),AL75*AN71,AL75*AP71)</f>
         <v>1.5</v>
       </c>
-      <c r="AS71" s="224"/>
+      <c r="AS71" s="211"/>
       <c r="AT71" s="199">
         <f>IF(AND(AN71&lt;AP76,AF72),AB69*AL75,AP76*AL75)</f>
         <v>0</v>
       </c>
-      <c r="AU71" s="224"/>
+      <c r="AU71" s="211"/>
       <c r="AV71" s="20">
         <f>IF(AF72,AL75-(AL75*AN71),IF(AF71,(1/6)*AL75,0))</f>
         <v>0</v>
       </c>
-      <c r="AW71" s="224"/>
+      <c r="AW71" s="211"/>
       <c r="AX71" s="20">
-        <f>AV71*AP71</f>
-        <v>0</v>
-      </c>
-      <c r="AY71" s="224"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AY71" s="211"/>
       <c r="AZ71" s="20">
         <f>AV71*AP76</f>
         <v>0</v>
       </c>
-      <c r="BA71" s="224"/>
+      <c r="BA71" s="211"/>
       <c r="BB71" s="199">
-        <f>AT71+AZ71</f>
-        <v>0</v>
-      </c>
-      <c r="BC71" s="224"/>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BC71" s="211"/>
       <c r="BD71" s="20">
-        <f>SUM(AR71,AX71)</f>
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
-      <c r="BE71" s="224"/>
+      <c r="BE71" s="211"/>
       <c r="BF71" s="199"/>
       <c r="BG71" s="199"/>
       <c r="BH71" s="20">
         <f>IF(AB72&lt;0,BB71*BF70,BB71*BF69)</f>
         <v>0</v>
       </c>
-      <c r="BI71" s="224"/>
+      <c r="BI71" s="211"/>
       <c r="BJ71" s="199">
         <f>BH71+((BD71-BB71)*BF69)</f>
         <v>0.5</v>
       </c>
-      <c r="BK71" s="224"/>
+      <c r="BK71" s="211"/>
       <c r="BL71" s="18">
         <f>IF(AB71&gt;0,(BH71*AB71)+((BJ71-BH71)*V74),BJ71*V74)</f>
         <v>0.5</v>
       </c>
-      <c r="BM71" s="224"/>
+      <c r="BM71" s="211"/>
       <c r="BN71" s="18">
         <f>(AL74*Z72)+(AB70*BB71)</f>
         <v>0</v>
       </c>
-      <c r="BO71" s="224"/>
+      <c r="BO71" s="211"/>
       <c r="BP71" s="199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="BQ71" s="123" t="s">
@@ -20825,7 +20829,7 @@
         <f>IFERROR(E72/P70,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G72" s="236"/>
+      <c r="G72" s="229"/>
       <c r="H72" s="84"/>
       <c r="I72" s="191" t="str">
         <f>"+- to hit"</f>
@@ -20842,17 +20846,17 @@
       <c r="M72" s="5">
         <v>0</v>
       </c>
-      <c r="N72" s="215" t="s">
+      <c r="N72" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="O72" s="215"/>
+      <c r="O72" s="208"/>
       <c r="P72" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q72" s="215" t="s">
+      <c r="Q72" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R72" s="215"/>
+      <c r="R72" s="208"/>
       <c r="S72" s="5" t="s">
         <v>19</v>
       </c>
@@ -20931,61 +20935,61 @@
         <f>IF(AND(AF72,X70&gt;=0),AL75*AN72,AL75*AP72)</f>
         <v>1.5</v>
       </c>
-      <c r="AS72" s="224"/>
+      <c r="AS72" s="211"/>
       <c r="AT72" s="199">
         <f>IF(AND(AN72&lt;AP76,AF72),AB69*AL75,AP76*AL75)</f>
         <v>0</v>
       </c>
-      <c r="AU72" s="224"/>
+      <c r="AU72" s="211"/>
       <c r="AV72" s="20">
         <f>IF(AF72,AL75-(AL75*AN72),IF(AF71,(1/6)*AL75,0))</f>
         <v>0</v>
       </c>
-      <c r="AW72" s="224"/>
+      <c r="AW72" s="211"/>
       <c r="AX72" s="20">
-        <f>AV72*AP72</f>
-        <v>0</v>
-      </c>
-      <c r="AY72" s="224"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AY72" s="211"/>
       <c r="AZ72" s="20">
         <f>AV72*AP76</f>
         <v>0</v>
       </c>
-      <c r="BA72" s="224"/>
+      <c r="BA72" s="211"/>
       <c r="BB72" s="199">
-        <f>AT72+AZ72</f>
-        <v>0</v>
-      </c>
-      <c r="BC72" s="224"/>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BC72" s="211"/>
       <c r="BD72" s="20">
-        <f>SUM(AR72,AX72)</f>
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
-      <c r="BE72" s="224"/>
+      <c r="BE72" s="211"/>
       <c r="BF72" s="199"/>
       <c r="BG72" s="199"/>
       <c r="BH72" s="20">
         <f>IF(AB72&lt;0,BB72*BF70,BB72*BF69)</f>
         <v>0</v>
       </c>
-      <c r="BI72" s="224"/>
+      <c r="BI72" s="211"/>
       <c r="BJ72" s="199">
         <f>BH72+((BD72-BB72)*BF69)</f>
         <v>0.5</v>
       </c>
-      <c r="BK72" s="224"/>
+      <c r="BK72" s="211"/>
       <c r="BL72" s="18">
         <f>IF(AB71&gt;0,(BH72*AB71)+((BJ72-BH72)*V74),BJ72*V74)</f>
         <v>0.5</v>
       </c>
-      <c r="BM72" s="224"/>
+      <c r="BM72" s="211"/>
       <c r="BN72" s="18">
         <f>(AL74*Z72)+(AB70*BB72)</f>
         <v>0</v>
       </c>
-      <c r="BO72" s="224"/>
+      <c r="BO72" s="211"/>
       <c r="BP72" s="199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="BQ72" s="123" t="s">
@@ -21008,28 +21012,28 @@
         <f>IFERROR(E73/P70,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G73" s="236"/>
+      <c r="G73" s="229"/>
       <c r="H73" s="87"/>
       <c r="I73" s="80"/>
       <c r="J73" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="K73" s="215" t="s">
+      <c r="K73" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="L73" s="215"/>
-      <c r="M73" s="215"/>
-      <c r="N73" s="215" t="s">
+      <c r="L73" s="208"/>
+      <c r="M73" s="208"/>
+      <c r="N73" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O73" s="215"/>
+      <c r="O73" s="208"/>
       <c r="P73" s="5">
         <v>0</v>
       </c>
-      <c r="Q73" s="215" t="s">
+      <c r="Q73" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="R73" s="215"/>
+      <c r="R73" s="208"/>
       <c r="S73" s="5">
         <v>0</v>
       </c>
@@ -21091,61 +21095,61 @@
         <f>IF(AND(AF72,X70&gt;=0),AL75*AN73,AL75*AP73)</f>
         <v>1.5</v>
       </c>
-      <c r="AS73" s="224"/>
+      <c r="AS73" s="211"/>
       <c r="AT73" s="199">
         <f>IF(AND(AN73&lt;AP76,AF72),AB69*AL75,AP76*AL75)</f>
         <v>0</v>
       </c>
-      <c r="AU73" s="224"/>
+      <c r="AU73" s="211"/>
       <c r="AV73" s="20">
         <f>IF(AF72,AL75-(AL75*AN73),IF(AF71,(1/6)*AL75,0))</f>
         <v>0</v>
       </c>
-      <c r="AW73" s="224"/>
+      <c r="AW73" s="211"/>
       <c r="AX73" s="20">
-        <f>AV73*AP73</f>
-        <v>0</v>
-      </c>
-      <c r="AY73" s="224"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AY73" s="211"/>
       <c r="AZ73" s="20">
         <f>AV73*AP76</f>
         <v>0</v>
       </c>
-      <c r="BA73" s="224"/>
+      <c r="BA73" s="211"/>
       <c r="BB73" s="199">
-        <f>AT73+AZ73</f>
-        <v>0</v>
-      </c>
-      <c r="BC73" s="224"/>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BC73" s="211"/>
       <c r="BD73" s="20">
-        <f>SUM(AR73,AX73)</f>
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
-      <c r="BE73" s="224"/>
+      <c r="BE73" s="211"/>
       <c r="BF73" s="199"/>
       <c r="BG73" s="199"/>
       <c r="BH73" s="20">
         <f>IF(AB72&lt;0,BB73*BF70,BB73*BF69)</f>
         <v>0</v>
       </c>
-      <c r="BI73" s="224"/>
+      <c r="BI73" s="211"/>
       <c r="BJ73" s="199">
         <f>BH73+((BD73-BB73)*BF69)</f>
         <v>0.5</v>
       </c>
-      <c r="BK73" s="224"/>
+      <c r="BK73" s="211"/>
       <c r="BL73" s="18">
         <f>IF(AB71&gt;0,(BH73*AB71)+((BJ73-BH73)*V74),BJ73*V74)</f>
         <v>0.5</v>
       </c>
-      <c r="BM73" s="224"/>
+      <c r="BM73" s="211"/>
       <c r="BN73" s="18">
         <f>(AL74*Z72)+(AB70*BB73)</f>
         <v>0</v>
       </c>
-      <c r="BO73" s="224"/>
+      <c r="BO73" s="211"/>
       <c r="BP73" s="199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="BQ73" s="123" t="s">
@@ -21168,28 +21172,28 @@
         <f>IFERROR(E74/P70,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G74" s="236"/>
+      <c r="G74" s="229"/>
       <c r="H74" s="84"/>
-      <c r="I74" s="232" t="s">
+      <c r="I74" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="J74" s="232"/>
-      <c r="K74" s="232" t="s">
+      <c r="J74" s="207"/>
+      <c r="K74" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="L74" s="232"/>
-      <c r="M74" s="232"/>
-      <c r="N74" s="215" t="s">
+      <c r="L74" s="207"/>
+      <c r="M74" s="207"/>
+      <c r="N74" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="O74" s="215"/>
+      <c r="O74" s="208"/>
       <c r="P74" s="5">
         <v>0</v>
       </c>
-      <c r="Q74" s="215" t="s">
+      <c r="Q74" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="R74" s="215"/>
+      <c r="R74" s="208"/>
       <c r="S74" s="5">
         <v>0</v>
       </c>
@@ -21252,61 +21256,61 @@
         <f>IF(AND(AF72,X70&gt;=0),AL75*AN74,AL75*AP74)</f>
         <v>0.75</v>
       </c>
-      <c r="AS74" s="224"/>
+      <c r="AS74" s="211"/>
       <c r="AT74" s="199">
         <f>IF(AND(AN74&lt;AP76,AF72),AB69*AL75,AP76*AL75)</f>
         <v>0</v>
       </c>
-      <c r="AU74" s="224"/>
+      <c r="AU74" s="211"/>
       <c r="AV74" s="20">
         <f>IF(AF72,AL75-(AL75*AN74),IF(AF71,(1/6)*AL75,0))</f>
         <v>0</v>
       </c>
-      <c r="AW74" s="224"/>
+      <c r="AW74" s="211"/>
       <c r="AX74" s="20">
-        <f>AV74*AP74</f>
-        <v>0</v>
-      </c>
-      <c r="AY74" s="224"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AY74" s="211"/>
       <c r="AZ74" s="20">
         <f>AV74*AP76</f>
         <v>0</v>
       </c>
-      <c r="BA74" s="224"/>
+      <c r="BA74" s="211"/>
       <c r="BB74" s="199">
-        <f>AT74+AZ74</f>
-        <v>0</v>
-      </c>
-      <c r="BC74" s="224"/>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BC74" s="211"/>
       <c r="BD74" s="20">
-        <f>SUM(AR74,AX74)</f>
+        <f t="shared" si="18"/>
         <v>0.75</v>
       </c>
-      <c r="BE74" s="224"/>
+      <c r="BE74" s="211"/>
       <c r="BF74" s="199"/>
       <c r="BG74" s="199"/>
       <c r="BH74" s="20">
         <f>IF(AB72&lt;0,BB74*BF70,BB74*BF69)</f>
         <v>0</v>
       </c>
-      <c r="BI74" s="224"/>
+      <c r="BI74" s="211"/>
       <c r="BJ74" s="199">
         <f>BH74+((BD74-BB74)*BF69)</f>
         <v>0.25</v>
       </c>
-      <c r="BK74" s="224"/>
+      <c r="BK74" s="211"/>
       <c r="BL74" s="18">
         <f>IF(AB71&gt;0,(BH74*AB71)+((BJ74-BH74)*V74),BJ74*V74)</f>
         <v>0.25</v>
       </c>
-      <c r="BM74" s="224"/>
+      <c r="BM74" s="211"/>
       <c r="BN74" s="18">
         <f>(AL74*Z72)+(AB70*BB74)</f>
         <v>0</v>
       </c>
-      <c r="BO74" s="224"/>
+      <c r="BO74" s="211"/>
       <c r="BP74" s="199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
       <c r="BQ74" s="123" t="s">
@@ -21321,7 +21325,7 @@
       <c r="D75" s="49"/>
       <c r="E75" s="177"/>
       <c r="F75" s="49"/>
-      <c r="G75" s="236"/>
+      <c r="G75" s="229"/>
       <c r="H75" s="84"/>
       <c r="I75" s="191"/>
       <c r="J75" s="191"/>
@@ -21334,17 +21338,17 @@
       <c r="M75" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N75" s="215" t="s">
+      <c r="N75" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O75" s="215"/>
+      <c r="O75" s="208"/>
       <c r="P75" s="5">
         <v>0</v>
       </c>
-      <c r="Q75" s="216" t="s">
+      <c r="Q75" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="R75" s="216"/>
+      <c r="R75" s="217"/>
       <c r="S75" s="5">
         <v>0</v>
       </c>
@@ -21439,7 +21443,7 @@
         <f>IFERROR(E76/P70,NA())</f>
         <v>2.3333333333333334E-2</v>
       </c>
-      <c r="G76" s="236"/>
+      <c r="G76" s="229"/>
       <c r="H76" s="84"/>
       <c r="I76" s="80"/>
       <c r="J76" s="80"/>
@@ -21593,11 +21597,11 @@
     </row>
     <row r="78" spans="1:71" ht="15" customHeight="1">
       <c r="A78" s="154"/>
-      <c r="B78" s="227" t="str">
+      <c r="B78" s="237" t="str">
         <f>IF(I80="","",I80)</f>
         <v>Model 6</v>
       </c>
-      <c r="C78" s="227"/>
+      <c r="C78" s="237"/>
       <c r="D78" s="36"/>
       <c r="E78" s="37" t="s">
         <v>11</v>
@@ -21605,90 +21609,90 @@
       <c r="F78" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="229"/>
+      <c r="G78" s="239"/>
       <c r="H78" s="82"/>
-      <c r="I78" s="231" t="str">
+      <c r="I78" s="209" t="str">
         <f>IF(I80="","",I80)</f>
         <v>Model 6</v>
       </c>
-      <c r="J78" s="231"/>
-      <c r="K78" s="231"/>
-      <c r="L78" s="231"/>
-      <c r="M78" s="231"/>
-      <c r="N78" s="231"/>
-      <c r="O78" s="231"/>
-      <c r="P78" s="231"/>
-      <c r="Q78" s="231"/>
-      <c r="R78" s="231"/>
-      <c r="S78" s="231"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="209"/>
+      <c r="N78" s="209"/>
+      <c r="O78" s="209"/>
+      <c r="P78" s="209"/>
+      <c r="Q78" s="209"/>
+      <c r="R78" s="209"/>
+      <c r="S78" s="209"/>
       <c r="T78" s="83"/>
-      <c r="V78" s="206" t="s">
+      <c r="V78" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="W78" s="207"/>
-      <c r="X78" s="207"/>
-      <c r="Y78" s="207"/>
-      <c r="Z78" s="207"/>
-      <c r="AA78" s="207"/>
-      <c r="AB78" s="207"/>
-      <c r="AC78" s="207"/>
-      <c r="AD78" s="207" t="s">
+      <c r="W78" s="206"/>
+      <c r="X78" s="206"/>
+      <c r="Y78" s="206"/>
+      <c r="Z78" s="206"/>
+      <c r="AA78" s="206"/>
+      <c r="AB78" s="206"/>
+      <c r="AC78" s="206"/>
+      <c r="AD78" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE78" s="207"/>
-      <c r="AF78" s="207"/>
-      <c r="AG78" s="207"/>
+      <c r="AE78" s="206"/>
+      <c r="AF78" s="206"/>
+      <c r="AG78" s="206"/>
       <c r="AH78" s="198"/>
       <c r="AI78" s="198"/>
-      <c r="AJ78" s="207" t="s">
+      <c r="AJ78" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="AK78" s="207"/>
-      <c r="AL78" s="207"/>
-      <c r="AM78" s="207"/>
-      <c r="AN78" s="207"/>
-      <c r="AO78" s="207" t="s">
+      <c r="AK78" s="206"/>
+      <c r="AL78" s="206"/>
+      <c r="AM78" s="206"/>
+      <c r="AN78" s="206"/>
+      <c r="AO78" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="AP78" s="207"/>
-      <c r="AQ78" s="207"/>
-      <c r="AR78" s="207"/>
-      <c r="AS78" s="207"/>
-      <c r="AT78" s="207"/>
-      <c r="AU78" s="207"/>
-      <c r="AV78" s="207"/>
-      <c r="AW78" s="207"/>
-      <c r="AX78" s="207"/>
-      <c r="AY78" s="207"/>
-      <c r="AZ78" s="207"/>
-      <c r="BA78" s="207"/>
-      <c r="BB78" s="207"/>
-      <c r="BC78" s="207"/>
-      <c r="BD78" s="207"/>
-      <c r="BE78" s="207"/>
+      <c r="AP78" s="206"/>
+      <c r="AQ78" s="206"/>
+      <c r="AR78" s="206"/>
+      <c r="AS78" s="206"/>
+      <c r="AT78" s="206"/>
+      <c r="AU78" s="206"/>
+      <c r="AV78" s="206"/>
+      <c r="AW78" s="206"/>
+      <c r="AX78" s="206"/>
+      <c r="AY78" s="206"/>
+      <c r="AZ78" s="206"/>
+      <c r="BA78" s="206"/>
+      <c r="BB78" s="206"/>
+      <c r="BC78" s="206"/>
+      <c r="BD78" s="206"/>
+      <c r="BE78" s="206"/>
       <c r="BF78" s="198"/>
       <c r="BG78" s="198"/>
-      <c r="BH78" s="207" t="s">
+      <c r="BH78" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="BI78" s="207"/>
-      <c r="BJ78" s="207"/>
-      <c r="BK78" s="207"/>
-      <c r="BL78" s="207"/>
-      <c r="BM78" s="207"/>
-      <c r="BN78" s="207"/>
-      <c r="BO78" s="207"/>
-      <c r="BP78" s="207"/>
-      <c r="BQ78" s="207"/>
-      <c r="BR78" s="207" t="s">
+      <c r="BI78" s="206"/>
+      <c r="BJ78" s="206"/>
+      <c r="BK78" s="206"/>
+      <c r="BL78" s="206"/>
+      <c r="BM78" s="206"/>
+      <c r="BN78" s="206"/>
+      <c r="BO78" s="206"/>
+      <c r="BP78" s="206"/>
+      <c r="BQ78" s="206"/>
+      <c r="BR78" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="BS78" s="226"/>
+      <c r="BS78" s="210"/>
     </row>
     <row r="79" spans="1:71" ht="15" customHeight="1">
       <c r="A79" s="155"/>
-      <c r="B79" s="228"/>
-      <c r="C79" s="228"/>
+      <c r="B79" s="238"/>
+      <c r="C79" s="238"/>
       <c r="D79" s="48" t="s">
         <v>1</v>
       </c>
@@ -21700,7 +21704,7 @@
         <f>IFERROR(E79/P80,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G79" s="230"/>
+      <c r="G79" s="240"/>
       <c r="H79" s="84"/>
       <c r="I79" s="78" t="s">
         <v>13</v>
@@ -21726,8 +21730,8 @@
       <c r="P79" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Q79" s="215"/>
-      <c r="R79" s="215"/>
+      <c r="Q79" s="208"/>
+      <c r="R79" s="208"/>
       <c r="S79" s="79"/>
       <c r="T79" s="85"/>
       <c r="V79" s="159">
@@ -21809,49 +21813,49 @@
         <f>IF(AND(AF82,X80&gt;=0),AL85*AN79,AL85*AP79)</f>
         <v>3</v>
       </c>
-      <c r="AS79" s="224" t="s">
+      <c r="AS79" s="211" t="s">
         <v>121</v>
       </c>
       <c r="AT79" s="199">
         <f>IF(AND(AN79&lt;AP86,AF82),AB79*AL85,AP86*AL85)</f>
         <v>0</v>
       </c>
-      <c r="AU79" s="224" t="s">
+      <c r="AU79" s="211" t="s">
         <v>109</v>
       </c>
       <c r="AV79" s="20">
         <f>IF(AF82,AL85-(AL85*AN79),IF(AF81,(1/6)*AL85,0))</f>
         <v>0</v>
       </c>
-      <c r="AW79" s="224" t="s">
+      <c r="AW79" s="211" t="s">
         <v>60</v>
       </c>
       <c r="AX79" s="20">
-        <f>AV79*AP79</f>
-        <v>0</v>
-      </c>
-      <c r="AY79" s="224" t="s">
+        <f t="shared" ref="AX79:AX84" si="20">AV79*AP79</f>
+        <v>0</v>
+      </c>
+      <c r="AY79" s="211" t="s">
         <v>122</v>
       </c>
       <c r="AZ79" s="20">
         <f>AV79*AP86</f>
         <v>0</v>
       </c>
-      <c r="BA79" s="224" t="s">
+      <c r="BA79" s="211" t="s">
         <v>110</v>
       </c>
       <c r="BB79" s="199">
-        <f>AT79+AZ79</f>
-        <v>0</v>
-      </c>
-      <c r="BC79" s="224" t="s">
+        <f t="shared" ref="BB79:BB84" si="21">AT79+AZ79</f>
+        <v>0</v>
+      </c>
+      <c r="BC79" s="211" t="s">
         <v>117</v>
       </c>
       <c r="BD79" s="20">
-        <f>SUM(AR79,AX79)</f>
+        <f t="shared" ref="BD79:BD84" si="22">SUM(AR79,AX79)</f>
         <v>3</v>
       </c>
-      <c r="BE79" s="224" t="s">
+      <c r="BE79" s="211" t="s">
         <v>63</v>
       </c>
       <c r="BF79" s="199">
@@ -21865,28 +21869,28 @@
         <f>IF(AB82&lt;0,BB79*BF80,BB79*BF79)</f>
         <v>0</v>
       </c>
-      <c r="BI79" s="224" t="s">
+      <c r="BI79" s="211" t="s">
         <v>102</v>
       </c>
       <c r="BJ79" s="199">
         <f>BH79+((BD79-BB79)*BF79)</f>
         <v>1</v>
       </c>
-      <c r="BK79" s="224" t="s">
+      <c r="BK79" s="211" t="s">
         <v>103</v>
       </c>
       <c r="BL79" s="18">
         <f>IF(AB81&gt;0,(BH79*AB81)+((BJ79-BH79)*V84),BJ79*V84)</f>
         <v>1</v>
       </c>
-      <c r="BM79" s="224" t="s">
+      <c r="BM79" s="211" t="s">
         <v>65</v>
       </c>
       <c r="BN79" s="18">
         <f>(AL84*Z82)+(AB80*BB79)</f>
         <v>0</v>
       </c>
-      <c r="BO79" s="224" t="s">
+      <c r="BO79" s="211" t="s">
         <v>64</v>
       </c>
       <c r="BP79" s="199">
@@ -21906,8 +21910,8 @@
     </row>
     <row r="80" spans="1:71" ht="15" customHeight="1">
       <c r="A80" s="155"/>
-      <c r="B80" s="228"/>
-      <c r="C80" s="228"/>
+      <c r="B80" s="238"/>
+      <c r="C80" s="238"/>
       <c r="D80" s="48" t="s">
         <v>2</v>
       </c>
@@ -21919,7 +21923,7 @@
         <f>IFERROR(E80/P80,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G80" s="230"/>
+      <c r="G80" s="240"/>
       <c r="H80" s="84"/>
       <c r="I80" s="5" t="s">
         <v>107</v>
@@ -21945,8 +21949,8 @@
       <c r="P80" s="5">
         <v>30</v>
       </c>
-      <c r="Q80" s="215"/>
-      <c r="R80" s="215"/>
+      <c r="Q80" s="208"/>
+      <c r="R80" s="208"/>
       <c r="S80" s="79"/>
       <c r="T80" s="85"/>
       <c r="V80" s="159">
@@ -22029,37 +22033,37 @@
         <f>IF(AND(AF82,X80&gt;=0),AL85*AN80,AL85*AP80)</f>
         <v>2.25</v>
       </c>
-      <c r="AS80" s="224"/>
+      <c r="AS80" s="211"/>
       <c r="AT80" s="199">
         <f>IF(AND(AN80&lt;AP86,AF82),AB79*AL85,AP86*AL85)</f>
         <v>0</v>
       </c>
-      <c r="AU80" s="224"/>
+      <c r="AU80" s="211"/>
       <c r="AV80" s="20">
         <f>IF(AF82,AL85-(AL85*AN80),IF(AF81,(1/6)*AL85,0))</f>
         <v>0</v>
       </c>
-      <c r="AW80" s="224"/>
+      <c r="AW80" s="211"/>
       <c r="AX80" s="20">
-        <f>AV80*AP80</f>
-        <v>0</v>
-      </c>
-      <c r="AY80" s="224"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AY80" s="211"/>
       <c r="AZ80" s="20">
         <f>AV80*AP86</f>
         <v>0</v>
       </c>
-      <c r="BA80" s="224"/>
+      <c r="BA80" s="211"/>
       <c r="BB80" s="199">
-        <f>AT80+AZ80</f>
-        <v>0</v>
-      </c>
-      <c r="BC80" s="224"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BC80" s="211"/>
       <c r="BD80" s="20">
-        <f>SUM(AR80,AX80)</f>
+        <f t="shared" si="22"/>
         <v>2.25</v>
       </c>
-      <c r="BE80" s="224"/>
+      <c r="BE80" s="211"/>
       <c r="BF80" s="199">
         <f>IF((1-(V79+AB82))&gt;1,1,1-(V79+AB82))</f>
         <v>0.33333333333333337</v>
@@ -22071,24 +22075,24 @@
         <f>IF(AB82&lt;0,BB80*BF80,BB80*BF79)</f>
         <v>0</v>
       </c>
-      <c r="BI80" s="224"/>
+      <c r="BI80" s="211"/>
       <c r="BJ80" s="199">
         <f>BH80+((BD80-BB80)*BF79)</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="BK80" s="224"/>
+      <c r="BK80" s="211"/>
       <c r="BL80" s="18">
         <f>IF(AB81&gt;0,(BH80*AB81)+((BJ80-BH80)*V84),BJ80*V84)</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="BM80" s="224"/>
+      <c r="BM80" s="211"/>
       <c r="BN80" s="18">
         <f>(AL84*Z82)+(AB80*BB80)</f>
         <v>0</v>
       </c>
-      <c r="BO80" s="224"/>
+      <c r="BO80" s="211"/>
       <c r="BP80" s="199">
-        <f t="shared" ref="BP80:BP84" si="5">IF(AD80,BL80+BN80,NA())</f>
+        <f t="shared" ref="BP80:BP84" si="23">IF(AD80,BL80+BN80,NA())</f>
         <v>0.75000000000000011</v>
       </c>
       <c r="BQ80" s="123" t="s">
@@ -22104,8 +22108,8 @@
     </row>
     <row r="81" spans="1:83" ht="15" customHeight="1">
       <c r="A81" s="155"/>
-      <c r="B81" s="228"/>
-      <c r="C81" s="228"/>
+      <c r="B81" s="238"/>
+      <c r="C81" s="238"/>
       <c r="D81" s="48" t="s">
         <v>3</v>
       </c>
@@ -22117,19 +22121,19 @@
         <f>IFERROR(E81/P80,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G81" s="230"/>
+      <c r="G81" s="240"/>
       <c r="H81" s="84"/>
-      <c r="I81" s="225"/>
-      <c r="J81" s="225"/>
-      <c r="K81" s="225"/>
-      <c r="L81" s="225"/>
-      <c r="M81" s="225"/>
-      <c r="N81" s="225"/>
-      <c r="O81" s="225"/>
-      <c r="P81" s="225"/>
-      <c r="Q81" s="225"/>
-      <c r="R81" s="225"/>
-      <c r="S81" s="225"/>
+      <c r="I81" s="216"/>
+      <c r="J81" s="216"/>
+      <c r="K81" s="216"/>
+      <c r="L81" s="216"/>
+      <c r="M81" s="216"/>
+      <c r="N81" s="216"/>
+      <c r="O81" s="216"/>
+      <c r="P81" s="216"/>
+      <c r="Q81" s="216"/>
+      <c r="R81" s="216"/>
+      <c r="S81" s="216"/>
       <c r="T81" s="85"/>
       <c r="V81" s="161">
         <f>(IF(L80="D3",2,IF(L80="2D3",4,IF(L80="D6",3.5,IF(L80="2D6",7,IF(L80="3D6",10.5,L80))))))</f>
@@ -22210,61 +22214,61 @@
         <f>IF(AND(AF82,X80&gt;=0),AL85*AN81,AL85*AP81)</f>
         <v>1.5</v>
       </c>
-      <c r="AS81" s="224"/>
+      <c r="AS81" s="211"/>
       <c r="AT81" s="199">
         <f>IF(AND(AN81&lt;AP86,AF82),AB79*AL85,AP86*AL85)</f>
         <v>0</v>
       </c>
-      <c r="AU81" s="224"/>
+      <c r="AU81" s="211"/>
       <c r="AV81" s="20">
         <f>IF(AF82,AL85-(AL85*AN81),IF(AF81,(1/6)*AL85,0))</f>
         <v>0</v>
       </c>
-      <c r="AW81" s="224"/>
+      <c r="AW81" s="211"/>
       <c r="AX81" s="20">
-        <f>AV81*AP81</f>
-        <v>0</v>
-      </c>
-      <c r="AY81" s="224"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AY81" s="211"/>
       <c r="AZ81" s="20">
         <f>AV81*AP86</f>
         <v>0</v>
       </c>
-      <c r="BA81" s="224"/>
+      <c r="BA81" s="211"/>
       <c r="BB81" s="199">
-        <f>AT81+AZ81</f>
-        <v>0</v>
-      </c>
-      <c r="BC81" s="224"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BC81" s="211"/>
       <c r="BD81" s="20">
-        <f>SUM(AR81,AX81)</f>
+        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
-      <c r="BE81" s="224"/>
+      <c r="BE81" s="211"/>
       <c r="BF81" s="199"/>
       <c r="BG81" s="199"/>
       <c r="BH81" s="20">
         <f>IF(AB82&lt;0,BB81*BF80,BB81*BF79)</f>
         <v>0</v>
       </c>
-      <c r="BI81" s="224"/>
+      <c r="BI81" s="211"/>
       <c r="BJ81" s="199">
         <f>BH81+((BD81-BB81)*BF79)</f>
         <v>0.5</v>
       </c>
-      <c r="BK81" s="224"/>
+      <c r="BK81" s="211"/>
       <c r="BL81" s="18">
         <f>IF(AB81&gt;0,(BH81*AB81)+((BJ81-BH81)*V84),BJ81*V84)</f>
         <v>0.5</v>
       </c>
-      <c r="BM81" s="224"/>
+      <c r="BM81" s="211"/>
       <c r="BN81" s="18">
         <f>(AL84*Z82)+(AB80*BB81)</f>
         <v>0</v>
       </c>
-      <c r="BO81" s="224"/>
+      <c r="BO81" s="211"/>
       <c r="BP81" s="199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="BQ81" s="123" t="s">
@@ -22287,7 +22291,7 @@
         <f>IFERROR(E82/P80,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G82" s="230"/>
+      <c r="G82" s="240"/>
       <c r="H82" s="84"/>
       <c r="I82" s="191" t="str">
         <f>"+- to hit"</f>
@@ -22304,17 +22308,17 @@
       <c r="M82" s="5">
         <v>0</v>
       </c>
-      <c r="N82" s="215" t="s">
+      <c r="N82" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="O82" s="215"/>
+      <c r="O82" s="208"/>
       <c r="P82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q82" s="215" t="s">
+      <c r="Q82" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R82" s="215"/>
+      <c r="R82" s="208"/>
       <c r="S82" s="5" t="s">
         <v>19</v>
       </c>
@@ -22393,61 +22397,61 @@
         <f>IF(AND(AF82,X80&gt;=0),AL85*AN82,AL85*AP82)</f>
         <v>1.5</v>
       </c>
-      <c r="AS82" s="224"/>
+      <c r="AS82" s="211"/>
       <c r="AT82" s="199">
         <f>IF(AND(AN82&lt;AP86,AF82),AB79*AL85,AP86*AL85)</f>
         <v>0</v>
       </c>
-      <c r="AU82" s="224"/>
+      <c r="AU82" s="211"/>
       <c r="AV82" s="20">
         <f>IF(AF82,AL85-(AL85*AN82),IF(AF81,(1/6)*AL85,0))</f>
         <v>0</v>
       </c>
-      <c r="AW82" s="224"/>
+      <c r="AW82" s="211"/>
       <c r="AX82" s="20">
-        <f>AV82*AP82</f>
-        <v>0</v>
-      </c>
-      <c r="AY82" s="224"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AY82" s="211"/>
       <c r="AZ82" s="20">
         <f>AV82*AP86</f>
         <v>0</v>
       </c>
-      <c r="BA82" s="224"/>
+      <c r="BA82" s="211"/>
       <c r="BB82" s="199">
-        <f>AT82+AZ82</f>
-        <v>0</v>
-      </c>
-      <c r="BC82" s="224"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BC82" s="211"/>
       <c r="BD82" s="20">
-        <f>SUM(AR82,AX82)</f>
+        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
-      <c r="BE82" s="224"/>
+      <c r="BE82" s="211"/>
       <c r="BF82" s="199"/>
       <c r="BG82" s="199"/>
       <c r="BH82" s="20">
         <f>IF(AB82&lt;0,BB82*BF80,BB82*BF79)</f>
         <v>0</v>
       </c>
-      <c r="BI82" s="224"/>
+      <c r="BI82" s="211"/>
       <c r="BJ82" s="199">
         <f>BH82+((BD82-BB82)*BF79)</f>
         <v>0.5</v>
       </c>
-      <c r="BK82" s="224"/>
+      <c r="BK82" s="211"/>
       <c r="BL82" s="18">
         <f>IF(AB81&gt;0,(BH82*AB81)+((BJ82-BH82)*V84),BJ82*V84)</f>
         <v>0.5</v>
       </c>
-      <c r="BM82" s="224"/>
+      <c r="BM82" s="211"/>
       <c r="BN82" s="18">
         <f>(AL84*Z82)+(AB80*BB82)</f>
         <v>0</v>
       </c>
-      <c r="BO82" s="224"/>
+      <c r="BO82" s="211"/>
       <c r="BP82" s="199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="BQ82" s="123" t="s">
@@ -22470,28 +22474,28 @@
         <f>IFERROR(E83/P80,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G83" s="230"/>
+      <c r="G83" s="240"/>
       <c r="H83" s="87"/>
       <c r="I83" s="80"/>
       <c r="J83" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="215" t="s">
+      <c r="K83" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="L83" s="215"/>
-      <c r="M83" s="215"/>
-      <c r="N83" s="215" t="s">
+      <c r="L83" s="208"/>
+      <c r="M83" s="208"/>
+      <c r="N83" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O83" s="215"/>
+      <c r="O83" s="208"/>
       <c r="P83" s="5">
         <v>0</v>
       </c>
-      <c r="Q83" s="215" t="s">
+      <c r="Q83" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="R83" s="215"/>
+      <c r="R83" s="208"/>
       <c r="S83" s="5">
         <v>0</v>
       </c>
@@ -22553,61 +22557,61 @@
         <f>IF(AND(AF82,X80&gt;=0),AL85*AN83,AL85*AP83)</f>
         <v>1.5</v>
       </c>
-      <c r="AS83" s="224"/>
+      <c r="AS83" s="211"/>
       <c r="AT83" s="199">
         <f>IF(AND(AN83&lt;AP86,AF82),AB79*AL85,AP86*AL85)</f>
         <v>0</v>
       </c>
-      <c r="AU83" s="224"/>
+      <c r="AU83" s="211"/>
       <c r="AV83" s="20">
         <f>IF(AF82,AL85-(AL85*AN83),IF(AF81,(1/6)*AL85,0))</f>
         <v>0</v>
       </c>
-      <c r="AW83" s="224"/>
+      <c r="AW83" s="211"/>
       <c r="AX83" s="20">
-        <f>AV83*AP83</f>
-        <v>0</v>
-      </c>
-      <c r="AY83" s="224"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AY83" s="211"/>
       <c r="AZ83" s="20">
         <f>AV83*AP86</f>
         <v>0</v>
       </c>
-      <c r="BA83" s="224"/>
+      <c r="BA83" s="211"/>
       <c r="BB83" s="199">
-        <f>AT83+AZ83</f>
-        <v>0</v>
-      </c>
-      <c r="BC83" s="224"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BC83" s="211"/>
       <c r="BD83" s="20">
-        <f>SUM(AR83,AX83)</f>
+        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
-      <c r="BE83" s="224"/>
+      <c r="BE83" s="211"/>
       <c r="BF83" s="199"/>
       <c r="BG83" s="199"/>
       <c r="BH83" s="20">
         <f>IF(AB82&lt;0,BB83*BF80,BB83*BF79)</f>
         <v>0</v>
       </c>
-      <c r="BI83" s="224"/>
+      <c r="BI83" s="211"/>
       <c r="BJ83" s="199">
         <f>BH83+((BD83-BB83)*BF79)</f>
         <v>0.5</v>
       </c>
-      <c r="BK83" s="224"/>
+      <c r="BK83" s="211"/>
       <c r="BL83" s="18">
         <f>IF(AB81&gt;0,(BH83*AB81)+((BJ83-BH83)*V84),BJ83*V84)</f>
         <v>0.5</v>
       </c>
-      <c r="BM83" s="224"/>
+      <c r="BM83" s="211"/>
       <c r="BN83" s="18">
         <f>(AL84*Z82)+(AB80*BB83)</f>
         <v>0</v>
       </c>
-      <c r="BO83" s="224"/>
+      <c r="BO83" s="211"/>
       <c r="BP83" s="199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="BQ83" s="123" t="s">
@@ -22630,28 +22634,28 @@
         <f>IFERROR(E84/P80,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G84" s="230"/>
+      <c r="G84" s="240"/>
       <c r="H84" s="84"/>
-      <c r="I84" s="232" t="s">
+      <c r="I84" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="J84" s="232"/>
-      <c r="K84" s="232" t="s">
+      <c r="J84" s="207"/>
+      <c r="K84" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="L84" s="232"/>
-      <c r="M84" s="232"/>
-      <c r="N84" s="215" t="s">
+      <c r="L84" s="207"/>
+      <c r="M84" s="207"/>
+      <c r="N84" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="O84" s="215"/>
+      <c r="O84" s="208"/>
       <c r="P84" s="5">
         <v>0</v>
       </c>
-      <c r="Q84" s="215" t="s">
+      <c r="Q84" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="R84" s="215"/>
+      <c r="R84" s="208"/>
       <c r="S84" s="5">
         <v>0</v>
       </c>
@@ -22714,61 +22718,61 @@
         <f>IF(AND(AF82,X80&gt;=0),AL85*AN84,AL85*AP84)</f>
         <v>0.75</v>
       </c>
-      <c r="AS84" s="224"/>
+      <c r="AS84" s="211"/>
       <c r="AT84" s="199">
         <f>IF(AND(AN84&lt;AP86,AF82),AB79*AL85,AP86*AL85)</f>
         <v>0</v>
       </c>
-      <c r="AU84" s="224"/>
+      <c r="AU84" s="211"/>
       <c r="AV84" s="20">
         <f>IF(AF82,AL85-(AL85*AN84),IF(AF81,(1/6)*AL85,0))</f>
         <v>0</v>
       </c>
-      <c r="AW84" s="224"/>
+      <c r="AW84" s="211"/>
       <c r="AX84" s="20">
-        <f>AV84*AP84</f>
-        <v>0</v>
-      </c>
-      <c r="AY84" s="224"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AY84" s="211"/>
       <c r="AZ84" s="20">
         <f>AV84*AP86</f>
         <v>0</v>
       </c>
-      <c r="BA84" s="224"/>
+      <c r="BA84" s="211"/>
       <c r="BB84" s="199">
-        <f>AT84+AZ84</f>
-        <v>0</v>
-      </c>
-      <c r="BC84" s="224"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BC84" s="211"/>
       <c r="BD84" s="20">
-        <f>SUM(AR84,AX84)</f>
+        <f t="shared" si="22"/>
         <v>0.75</v>
       </c>
-      <c r="BE84" s="224"/>
+      <c r="BE84" s="211"/>
       <c r="BF84" s="199"/>
       <c r="BG84" s="199"/>
       <c r="BH84" s="20">
         <f>IF(AB82&lt;0,BB84*BF80,BB84*BF79)</f>
         <v>0</v>
       </c>
-      <c r="BI84" s="224"/>
+      <c r="BI84" s="211"/>
       <c r="BJ84" s="199">
         <f>BH84+((BD84-BB84)*BF79)</f>
         <v>0.25</v>
       </c>
-      <c r="BK84" s="224"/>
+      <c r="BK84" s="211"/>
       <c r="BL84" s="18">
         <f>IF(AB81&gt;0,(BH84*AB81)+((BJ84-BH84)*V84),BJ84*V84)</f>
         <v>0.25</v>
       </c>
-      <c r="BM84" s="224"/>
+      <c r="BM84" s="211"/>
       <c r="BN84" s="18">
         <f>(AL84*Z82)+(AB80*BB84)</f>
         <v>0</v>
       </c>
-      <c r="BO84" s="224"/>
+      <c r="BO84" s="211"/>
       <c r="BP84" s="199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.25</v>
       </c>
       <c r="BQ84" s="123" t="s">
@@ -22783,7 +22787,7 @@
       <c r="D85" s="48"/>
       <c r="E85" s="48"/>
       <c r="F85" s="48"/>
-      <c r="G85" s="230"/>
+      <c r="G85" s="240"/>
       <c r="H85" s="84"/>
       <c r="I85" s="191"/>
       <c r="J85" s="191"/>
@@ -22796,17 +22800,17 @@
       <c r="M85" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N85" s="215" t="s">
+      <c r="N85" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O85" s="215"/>
+      <c r="O85" s="208"/>
       <c r="P85" s="5">
         <v>0</v>
       </c>
-      <c r="Q85" s="216" t="s">
+      <c r="Q85" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="R85" s="216"/>
+      <c r="R85" s="217"/>
       <c r="S85" s="5">
         <v>0</v>
       </c>
@@ -22901,7 +22905,7 @@
         <f>IFERROR(E86/P80,NA())</f>
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="G86" s="230"/>
+      <c r="G86" s="240"/>
       <c r="H86" s="84"/>
       <c r="I86" s="80"/>
       <c r="J86" s="80"/>
@@ -23078,11 +23082,11 @@
       <c r="CE88" s="26"/>
     </row>
     <row r="89" spans="1:83" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A89" s="217" t="s">
+      <c r="A89" s="230" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="218"/>
-      <c r="C89" s="218"/>
+      <c r="B89" s="231"/>
+      <c r="C89" s="231"/>
       <c r="D89" s="95"/>
       <c r="E89" s="96" t="s">
         <v>11</v>
@@ -23090,7 +23094,7 @@
       <c r="F89" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="221"/>
+      <c r="G89" s="234"/>
       <c r="I89" s="78" t="s">
         <v>13</v>
       </c>
@@ -23103,26 +23107,26 @@
       <c r="N89" s="94"/>
       <c r="O89" s="94"/>
       <c r="U89" s="17"/>
-      <c r="V89" s="223" t="s">
+      <c r="V89" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="W89" s="208"/>
-      <c r="X89" s="208"/>
-      <c r="Y89" s="208"/>
-      <c r="Z89" s="208"/>
-      <c r="AA89" s="208"/>
-      <c r="AB89" s="208"/>
-      <c r="AC89" s="208"/>
-      <c r="AD89" s="208" t="s">
+      <c r="W89" s="200"/>
+      <c r="X89" s="200"/>
+      <c r="Y89" s="200"/>
+      <c r="Z89" s="200"/>
+      <c r="AA89" s="200"/>
+      <c r="AB89" s="200"/>
+      <c r="AC89" s="200"/>
+      <c r="AD89" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="AE89" s="208"/>
-      <c r="AF89" s="208"/>
-      <c r="AG89" s="208"/>
-      <c r="AH89" s="208" t="s">
+      <c r="AE89" s="200"/>
+      <c r="AF89" s="200"/>
+      <c r="AG89" s="200"/>
+      <c r="AH89" s="200" t="s">
         <v>76</v>
       </c>
-      <c r="AI89" s="208"/>
+      <c r="AI89" s="200"/>
       <c r="BS89" s="116"/>
       <c r="BT89" s="26"/>
       <c r="BU89" s="26"/>
@@ -23138,9 +23142,9 @@
       <c r="CE89" s="26"/>
     </row>
     <row r="90" spans="1:83" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A90" s="219"/>
-      <c r="B90" s="220"/>
-      <c r="C90" s="220"/>
+      <c r="A90" s="232"/>
+      <c r="B90" s="233"/>
+      <c r="C90" s="233"/>
       <c r="D90" s="97" t="s">
         <v>1</v>
       </c>
@@ -23152,7 +23156,7 @@
         <f>IFERROR(E90/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G90" s="222"/>
+      <c r="G90" s="235"/>
       <c r="I90" s="4" t="s">
         <v>85</v>
       </c>
@@ -23200,9 +23204,9 @@
       <c r="CE90" s="26"/>
     </row>
     <row r="91" spans="1:83" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A91" s="219"/>
-      <c r="B91" s="220"/>
-      <c r="C91" s="220"/>
+      <c r="A91" s="232"/>
+      <c r="B91" s="233"/>
+      <c r="C91" s="233"/>
       <c r="D91" s="97" t="s">
         <v>2</v>
       </c>
@@ -23214,7 +23218,7 @@
         <f>IFERROR(E91/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G91" s="222"/>
+      <c r="G91" s="235"/>
       <c r="U91" s="17"/>
       <c r="V91" s="162">
         <f>SUM(IF(V35=1,IFERROR(BP30,0),0),IF(V45=1,IFERROR(BP40,0),0),IF(V55=1,IFERROR(BP50,0),0),IF(V65=1,IFERROR(BP60,0),0),IF(V75=1,IFERROR(BP70,0),0),IF(V85=1,IFERROR(BP80,0),0))</f>
@@ -23251,9 +23255,9 @@
       <c r="CE91" s="26"/>
     </row>
     <row r="92" spans="1:83" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A92" s="219"/>
-      <c r="B92" s="220"/>
-      <c r="C92" s="220"/>
+      <c r="A92" s="232"/>
+      <c r="B92" s="233"/>
+      <c r="C92" s="233"/>
       <c r="D92" s="97" t="s">
         <v>3</v>
       </c>
@@ -23265,7 +23269,7 @@
         <f>IFERROR(E92/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G92" s="222"/>
+      <c r="G92" s="235"/>
       <c r="U92" s="17"/>
       <c r="V92" s="162">
         <f>SUM(IF(V35=1,IFERROR(BP31,0),0),IF(V45=1,IFERROR(BP41,0),0),IF(V55=1,IFERROR(BP51,0),0),IF(V65=1,IFERROR(BP61,0),0),IF(V75=1,IFERROR(BP71,0),0),IF(V85=1,IFERROR(BP81,0),0))</f>
@@ -23295,9 +23299,9 @@
       <c r="CE92" s="26"/>
     </row>
     <row r="93" spans="1:83" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A93" s="219"/>
-      <c r="B93" s="220"/>
-      <c r="C93" s="220"/>
+      <c r="A93" s="232"/>
+      <c r="B93" s="233"/>
+      <c r="C93" s="233"/>
       <c r="D93" s="97" t="s">
         <v>4</v>
       </c>
@@ -23309,7 +23313,7 @@
         <f>IFERROR(E93/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G93" s="222"/>
+      <c r="G93" s="235"/>
       <c r="U93" s="17"/>
       <c r="V93" s="162">
         <f>SUM(IF(V35=1,IFERROR(BP32,0),0),IF(V45=1,IFERROR(BP42,0),0),IF(V55=1,IFERROR(BP52,0),0),IF(V65=1,IFERROR(BP62,0),0),IF(V75=1,IFERROR(BP72,0),0),IF(V85=1,IFERROR(BP82,0),0))</f>
@@ -23339,9 +23343,9 @@
       <c r="CE93" s="26"/>
     </row>
     <row r="94" spans="1:83" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A94" s="219"/>
-      <c r="B94" s="220"/>
-      <c r="C94" s="220"/>
+      <c r="A94" s="232"/>
+      <c r="B94" s="233"/>
+      <c r="C94" s="233"/>
       <c r="D94" s="97" t="s">
         <v>5</v>
       </c>
@@ -23353,7 +23357,7 @@
         <f>IFERROR(E94/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G94" s="222"/>
+      <c r="G94" s="235"/>
       <c r="U94" s="17"/>
       <c r="V94" s="162">
         <f>SUM(IF(V35=1,IFERROR(BP33,0),0),IF(V45=1,IFERROR(BP43,0),0),IF(V55=1,IFERROR(BP53,0),0),IF(V65=1,IFERROR(BP63,0),0),IF(V75=1,IFERROR(BP73,0),0),IF(V85=1,IFERROR(BP83,0),0))</f>
@@ -23397,7 +23401,7 @@
         <f>IFERROR(E95/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G95" s="222"/>
+      <c r="G95" s="235"/>
       <c r="U95" s="17"/>
       <c r="V95" s="162">
         <f>SUM(IF(V35=1,IFERROR(BP34,0),0),IF(V45=1,IFERROR(BP44,0),0),IF(V55=1,IFERROR(BP54,0),0),IF(V65=1,IFERROR(BP64,0),0),IF(V75=1,IFERROR(BP74,0),0),IF(V85=1,IFERROR(BP84,0),0))</f>
@@ -23433,7 +23437,7 @@
       <c r="D96" s="97"/>
       <c r="E96" s="97"/>
       <c r="F96" s="97"/>
-      <c r="G96" s="222"/>
+      <c r="G96" s="235"/>
       <c r="U96" s="17"/>
       <c r="V96" s="115"/>
       <c r="AD96" s="18">
@@ -23478,7 +23482,7 @@
         <f>IFERROR(E97/J90,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G97" s="222"/>
+      <c r="G97" s="235"/>
       <c r="U97" s="17"/>
       <c r="V97" s="115"/>
       <c r="BS97" s="116"/>
@@ -23520,11 +23524,11 @@
       <c r="CE98" s="26"/>
     </row>
     <row r="99" spans="1:96" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A99" s="209" t="s">
+      <c r="A99" s="247" t="s">
         <v>86</v>
       </c>
-      <c r="B99" s="210"/>
-      <c r="C99" s="210"/>
+      <c r="B99" s="248"/>
+      <c r="C99" s="248"/>
       <c r="D99" s="105"/>
       <c r="E99" s="106" t="s">
         <v>11</v>
@@ -23532,7 +23536,7 @@
       <c r="F99" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="213"/>
+      <c r="G99" s="251"/>
       <c r="I99" s="78" t="s">
         <v>13</v>
       </c>
@@ -23540,26 +23544,26 @@
         <v>8</v>
       </c>
       <c r="U99" s="17"/>
-      <c r="V99" s="206" t="s">
+      <c r="V99" s="205" t="s">
         <v>77</v>
       </c>
-      <c r="W99" s="207"/>
-      <c r="X99" s="207"/>
-      <c r="Y99" s="207"/>
-      <c r="Z99" s="207"/>
-      <c r="AA99" s="207"/>
-      <c r="AB99" s="207"/>
-      <c r="AC99" s="207"/>
-      <c r="AD99" s="207" t="s">
+      <c r="W99" s="206"/>
+      <c r="X99" s="206"/>
+      <c r="Y99" s="206"/>
+      <c r="Z99" s="206"/>
+      <c r="AA99" s="206"/>
+      <c r="AB99" s="206"/>
+      <c r="AC99" s="206"/>
+      <c r="AD99" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE99" s="207"/>
-      <c r="AF99" s="207"/>
-      <c r="AG99" s="207"/>
-      <c r="AH99" s="207" t="s">
+      <c r="AE99" s="206"/>
+      <c r="AF99" s="206"/>
+      <c r="AG99" s="206"/>
+      <c r="AH99" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="AI99" s="207"/>
+      <c r="AI99" s="206"/>
       <c r="AJ99" s="43"/>
       <c r="AK99" s="43"/>
       <c r="AL99" s="43"/>
@@ -23610,9 +23614,9 @@
       <c r="CE99" s="26"/>
     </row>
     <row r="100" spans="1:96" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A100" s="211"/>
-      <c r="B100" s="212"/>
-      <c r="C100" s="212"/>
+      <c r="A100" s="249"/>
+      <c r="B100" s="250"/>
+      <c r="C100" s="250"/>
       <c r="D100" s="107" t="s">
         <v>1</v>
       </c>
@@ -23624,7 +23628,7 @@
         <f>IFERROR(E100/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G100" s="214"/>
+      <c r="G100" s="252"/>
       <c r="I100" s="4" t="s">
         <v>86</v>
       </c>
@@ -23667,9 +23671,9 @@
       <c r="CE100" s="26"/>
     </row>
     <row r="101" spans="1:96" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A101" s="211"/>
-      <c r="B101" s="212"/>
-      <c r="C101" s="212"/>
+      <c r="A101" s="249"/>
+      <c r="B101" s="250"/>
+      <c r="C101" s="250"/>
       <c r="D101" s="107" t="s">
         <v>2</v>
       </c>
@@ -23681,7 +23685,7 @@
         <f>IFERROR(E101/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G101" s="214"/>
+      <c r="G101" s="252"/>
       <c r="U101" s="17"/>
       <c r="V101" s="162">
         <f>SUM(IF(V35=2,IFERROR(BP30,0),0),IF(V45=2,IFERROR(BP40,0),0),IF(V55=2,IFERROR(BP50,0),0),IF(V65=2,IFERROR(BP60,0),0),IF(V75=2,IFERROR(BP70,0),0),IF(V85=2,IFERROR(BP80,0),0))</f>
@@ -23718,9 +23722,9 @@
       <c r="CE101" s="26"/>
     </row>
     <row r="102" spans="1:96" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A102" s="211"/>
-      <c r="B102" s="212"/>
-      <c r="C102" s="212"/>
+      <c r="A102" s="249"/>
+      <c r="B102" s="250"/>
+      <c r="C102" s="250"/>
       <c r="D102" s="107" t="s">
         <v>3</v>
       </c>
@@ -23732,7 +23736,7 @@
         <f>IFERROR(E102/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G102" s="214"/>
+      <c r="G102" s="252"/>
       <c r="U102" s="17"/>
       <c r="V102" s="162">
         <f>SUM(IF(V35=2,IFERROR(BP31,0),0),IF(V45=2,IFERROR(BP41,0),0),IF(V55=2,IFERROR(BP51,0),0),IF(V65=2,IFERROR(BP61,0),0),IF(V75=2,IFERROR(BP71,0),0),IF(V85=2,IFERROR(BP81,0),0))</f>
@@ -23762,9 +23766,9 @@
       <c r="CE102" s="26"/>
     </row>
     <row r="103" spans="1:96" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A103" s="211"/>
-      <c r="B103" s="212"/>
-      <c r="C103" s="212"/>
+      <c r="A103" s="249"/>
+      <c r="B103" s="250"/>
+      <c r="C103" s="250"/>
       <c r="D103" s="107" t="s">
         <v>4</v>
       </c>
@@ -23776,7 +23780,7 @@
         <f>IFERROR(E103/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G103" s="214"/>
+      <c r="G103" s="252"/>
       <c r="U103" s="45"/>
       <c r="V103" s="162">
         <f>SUM(IF(V35=2,IFERROR(BP32,0),0),IF(V45=2,IFERROR(BP42,0),0),IF(V55=2,IFERROR(BP52,0),0),IF(V65=2,IFERROR(BP62,0),0),IF(V75=2,IFERROR(BP72,0),0),IF(V85=2,IFERROR(BP82,0),0))</f>
@@ -23807,9 +23811,9 @@
       <c r="CQ103" s="46"/>
     </row>
     <row r="104" spans="1:96" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A104" s="211"/>
-      <c r="B104" s="212"/>
-      <c r="C104" s="212"/>
+      <c r="A104" s="249"/>
+      <c r="B104" s="250"/>
+      <c r="C104" s="250"/>
       <c r="D104" s="107" t="s">
         <v>5</v>
       </c>
@@ -23821,7 +23825,7 @@
         <f>IFERROR(E104/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G104" s="214"/>
+      <c r="G104" s="252"/>
       <c r="U104" s="17"/>
       <c r="V104" s="162">
         <f>SUM(IF(V35=2,IFERROR(BP33,0),0),IF(V45=2,IFERROR(BP43,0),0),IF(V55=2,IFERROR(BP53,0),0),IF(V65=2,IFERROR(BP63,0),0),IF(V75=2,IFERROR(BP73,0),0),IF(V85=2,IFERROR(BP83,0),0))</f>
@@ -23868,7 +23872,7 @@
         <f>IFERROR(E105/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G105" s="214"/>
+      <c r="G105" s="252"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
@@ -23919,7 +23923,7 @@
       <c r="D106" s="107"/>
       <c r="E106" s="107"/>
       <c r="F106" s="107"/>
-      <c r="G106" s="214"/>
+      <c r="G106" s="252"/>
       <c r="I106" s="17"/>
       <c r="J106" s="26"/>
       <c r="K106" s="26"/>
@@ -23979,7 +23983,7 @@
         <f>IFERROR(E107/J100,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G107" s="214"/>
+      <c r="G107" s="252"/>
       <c r="I107" s="17"/>
       <c r="J107" s="26"/>
       <c r="K107" s="26"/>
@@ -24051,11 +24055,11 @@
       <c r="CR108" s="47"/>
     </row>
     <row r="109" spans="1:96" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A109" s="200" t="s">
+      <c r="A109" s="241" t="s">
         <v>87</v>
       </c>
-      <c r="B109" s="201"/>
-      <c r="C109" s="201"/>
+      <c r="B109" s="242"/>
+      <c r="C109" s="242"/>
       <c r="D109" s="141"/>
       <c r="E109" s="142" t="s">
         <v>11</v>
@@ -24063,7 +24067,7 @@
       <c r="F109" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="G109" s="204"/>
+      <c r="G109" s="245"/>
       <c r="I109" s="78" t="s">
         <v>13</v>
       </c>
@@ -24081,26 +24085,26 @@
       <c r="S109" s="26"/>
       <c r="T109" s="26"/>
       <c r="U109" s="17"/>
-      <c r="V109" s="206" t="s">
+      <c r="V109" s="205" t="s">
         <v>77</v>
       </c>
-      <c r="W109" s="207"/>
-      <c r="X109" s="207"/>
-      <c r="Y109" s="207"/>
-      <c r="Z109" s="207"/>
-      <c r="AA109" s="207"/>
-      <c r="AB109" s="207"/>
-      <c r="AC109" s="207"/>
-      <c r="AD109" s="207" t="s">
+      <c r="W109" s="206"/>
+      <c r="X109" s="206"/>
+      <c r="Y109" s="206"/>
+      <c r="Z109" s="206"/>
+      <c r="AA109" s="206"/>
+      <c r="AB109" s="206"/>
+      <c r="AC109" s="206"/>
+      <c r="AD109" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="AE109" s="207"/>
-      <c r="AF109" s="207"/>
-      <c r="AG109" s="207"/>
-      <c r="AH109" s="207" t="s">
+      <c r="AE109" s="206"/>
+      <c r="AF109" s="206"/>
+      <c r="AG109" s="206"/>
+      <c r="AH109" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="AI109" s="207"/>
+      <c r="AI109" s="206"/>
       <c r="AJ109" s="43"/>
       <c r="AK109" s="43"/>
       <c r="AL109" s="43"/>
@@ -24154,9 +24158,9 @@
       <c r="CR109" s="47"/>
     </row>
     <row r="110" spans="1:96" s="13" customFormat="1">
-      <c r="A110" s="202"/>
-      <c r="B110" s="203"/>
-      <c r="C110" s="203"/>
+      <c r="A110" s="243"/>
+      <c r="B110" s="244"/>
+      <c r="C110" s="244"/>
       <c r="D110" s="143" t="s">
         <v>1</v>
       </c>
@@ -24168,7 +24172,7 @@
         <f>IFERROR(E110/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G110" s="205"/>
+      <c r="G110" s="246"/>
       <c r="I110" s="4" t="s">
         <v>87</v>
       </c>
@@ -24219,9 +24223,9 @@
       <c r="CE110" s="26"/>
     </row>
     <row r="111" spans="1:96" s="13" customFormat="1">
-      <c r="A111" s="202"/>
-      <c r="B111" s="203"/>
-      <c r="C111" s="203"/>
+      <c r="A111" s="243"/>
+      <c r="B111" s="244"/>
+      <c r="C111" s="244"/>
       <c r="D111" s="143" t="s">
         <v>2</v>
       </c>
@@ -24233,7 +24237,7 @@
         <f>IFERROR(E111/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G111" s="205"/>
+      <c r="G111" s="246"/>
       <c r="I111" s="17"/>
       <c r="J111" s="26"/>
       <c r="K111" s="17"/>
@@ -24282,9 +24286,9 @@
       <c r="CE111" s="26"/>
     </row>
     <row r="112" spans="1:96" s="13" customFormat="1">
-      <c r="A112" s="202"/>
-      <c r="B112" s="203"/>
-      <c r="C112" s="203"/>
+      <c r="A112" s="243"/>
+      <c r="B112" s="244"/>
+      <c r="C112" s="244"/>
       <c r="D112" s="143" t="s">
         <v>3</v>
       </c>
@@ -24296,7 +24300,7 @@
         <f>IFERROR(E112/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G112" s="205"/>
+      <c r="G112" s="246"/>
       <c r="I112" s="17"/>
       <c r="J112" s="26"/>
       <c r="K112" s="17"/>
@@ -24338,9 +24342,9 @@
       <c r="CE112" s="26"/>
     </row>
     <row r="113" spans="1:83" s="13" customFormat="1">
-      <c r="A113" s="202"/>
-      <c r="B113" s="203"/>
-      <c r="C113" s="203"/>
+      <c r="A113" s="243"/>
+      <c r="B113" s="244"/>
+      <c r="C113" s="244"/>
       <c r="D113" s="143" t="s">
         <v>4</v>
       </c>
@@ -24352,7 +24356,7 @@
         <f>IFERROR(E113/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G113" s="205"/>
+      <c r="G113" s="246"/>
       <c r="I113" s="17"/>
       <c r="J113" s="26"/>
       <c r="K113" s="17"/>
@@ -24404,9 +24408,9 @@
       <c r="CE113" s="26"/>
     </row>
     <row r="114" spans="1:83" s="13" customFormat="1">
-      <c r="A114" s="202"/>
-      <c r="B114" s="203"/>
-      <c r="C114" s="203"/>
+      <c r="A114" s="243"/>
+      <c r="B114" s="244"/>
+      <c r="C114" s="244"/>
       <c r="D114" s="143" t="s">
         <v>5</v>
       </c>
@@ -24418,7 +24422,7 @@
         <f>IFERROR(E114/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G114" s="205"/>
+      <c r="G114" s="246"/>
       <c r="U114" s="17"/>
       <c r="V114" s="162">
         <f>SUM(IF(V35=3,IFERROR(BP33,0),0),IF(V45=3,IFERROR(BP43,0),0),IF(V55=3,IFERROR(BP53,0),0),IF(V65=3,IFERROR(BP63,0),0),IF(V75=3,IFERROR(BP73,0),0),IF(V85=3,IFERROR(BP83,0),0))</f>
@@ -24462,7 +24466,7 @@
         <f>IFERROR(E115/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G115" s="205"/>
+      <c r="G115" s="246"/>
       <c r="U115" s="17"/>
       <c r="V115" s="162">
         <f>SUM(IF(V35=3,IFERROR(BP34,0),0),IF(V45=3,IFERROR(BP44,0),0),IF(V55=3,IFERROR(BP54,0),0),IF(V65=3,IFERROR(BP64,0),0),IF(V75=3,IFERROR(BP74,0),0),IF(V85=3,IFERROR(BP84,0),0))</f>
@@ -24498,7 +24502,7 @@
       <c r="D116" s="143"/>
       <c r="E116" s="143"/>
       <c r="F116" s="143"/>
-      <c r="G116" s="205"/>
+      <c r="G116" s="246"/>
       <c r="U116" s="17"/>
       <c r="V116" s="115"/>
       <c r="AD116" s="18">
@@ -24543,7 +24547,7 @@
         <f>IFERROR(E117/J110,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G117" s="205"/>
+      <c r="G117" s="246"/>
       <c r="U117" s="17"/>
       <c r="V117" s="115"/>
       <c r="AG117" s="14"/>
@@ -24982,11 +24986,11 @@
       <c r="CK141" s="137"/>
       <c r="CQ141" s="138">
         <f>IFERROR(F36,"")</f>
-        <v>5.401234567901236E-3</v>
+        <v>2.1728395061728394E-2</v>
       </c>
       <c r="CR141" s="138">
         <f>IFERROR(E36,"")</f>
-        <v>0.97222222222222243</v>
+        <v>2.7160493827160495</v>
       </c>
     </row>
     <row r="142" spans="21:96" s="13" customFormat="1" ht="39" customHeight="1">
@@ -25005,11 +25009,11 @@
       <c r="CE142" s="26"/>
       <c r="CQ142" s="138">
         <f>IFERROR(F46,"")</f>
-        <v>2.3765432098765429E-2</v>
+        <v>1.7497983539094649E-2</v>
       </c>
       <c r="CR142" s="138">
         <f>IFERROR(E46,"")</f>
-        <v>4.7530864197530862</v>
+        <v>2.187247942386831</v>
       </c>
     </row>
     <row r="143" spans="21:96" s="13" customFormat="1" ht="39" customHeight="1">
@@ -25026,13 +25030,13 @@
       <c r="CC143" s="26"/>
       <c r="CD143" s="26"/>
       <c r="CE143" s="26"/>
-      <c r="CQ143" s="138" t="str">
+      <c r="CQ143" s="138">
         <f>IFERROR(F56,"")</f>
-        <v/>
+        <v>1.6510973936899868E-2</v>
       </c>
       <c r="CR143" s="138">
         <f>IFERROR(E56,"")</f>
-        <v>0.79218106995884785</v>
+        <v>2.0638717421124837</v>
       </c>
     </row>
     <row r="144" spans="21:96" s="13" customFormat="1" ht="39" customHeight="1">
@@ -25049,13 +25053,13 @@
       <c r="CC144" s="26"/>
       <c r="CD144" s="26"/>
       <c r="CE144" s="26"/>
-      <c r="CQ144" s="138" t="str">
+      <c r="CQ144" s="138">
         <f>IFERROR(F66,"")</f>
-        <v/>
+        <v>1.5033196159122086E-2</v>
       </c>
       <c r="CR144" s="138">
         <f>IFERROR(E66,"")</f>
-        <v>3.0864197530864192</v>
+        <v>1.8791495198902608</v>
       </c>
     </row>
     <row r="145" spans="21:96" s="13" customFormat="1" ht="39" customHeight="1">
@@ -38765,178 +38769,20 @@
     </row>
   </sheetData>
   <mergeCells count="213">
-    <mergeCell ref="V17:AC17"/>
-    <mergeCell ref="V25:AC25"/>
-    <mergeCell ref="B28:C31"/>
-    <mergeCell ref="G28:G36"/>
-    <mergeCell ref="V28:AC28"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="I28:S28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AJ28:AN28"/>
-    <mergeCell ref="AO28:BE28"/>
-    <mergeCell ref="BH28:BQ28"/>
-    <mergeCell ref="BR28:BS28"/>
-    <mergeCell ref="AS29:AS34"/>
-    <mergeCell ref="AW29:AW34"/>
-    <mergeCell ref="AY29:AY34"/>
-    <mergeCell ref="BA29:BA34"/>
-    <mergeCell ref="BE29:BE34"/>
-    <mergeCell ref="AU29:AU34"/>
-    <mergeCell ref="BC29:BC34"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="G38:G46"/>
-    <mergeCell ref="I38:S38"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="BI29:BI34"/>
-    <mergeCell ref="BK29:BK34"/>
-    <mergeCell ref="I31:S31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="AU39:AU44"/>
-    <mergeCell ref="BC39:BC44"/>
-    <mergeCell ref="V38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AJ38:AN38"/>
-    <mergeCell ref="AO38:BE38"/>
-    <mergeCell ref="BH38:BQ38"/>
-    <mergeCell ref="BR38:BS38"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="BM29:BM34"/>
-    <mergeCell ref="BO29:BO34"/>
-    <mergeCell ref="BK39:BK44"/>
-    <mergeCell ref="BM39:BM44"/>
-    <mergeCell ref="BO39:BO44"/>
-    <mergeCell ref="I41:S41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="AS39:AS44"/>
-    <mergeCell ref="AW39:AW44"/>
-    <mergeCell ref="AY39:AY44"/>
-    <mergeCell ref="BA39:BA44"/>
-    <mergeCell ref="BE39:BE44"/>
-    <mergeCell ref="BI39:BI44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="B48:C51"/>
-    <mergeCell ref="G48:G56"/>
-    <mergeCell ref="I48:S48"/>
-    <mergeCell ref="V48:AC48"/>
-    <mergeCell ref="AD48:AG48"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="AJ48:AN48"/>
-    <mergeCell ref="AO48:BE48"/>
-    <mergeCell ref="BH48:BQ48"/>
-    <mergeCell ref="BR48:BS48"/>
-    <mergeCell ref="AS49:AS54"/>
-    <mergeCell ref="AW49:AW54"/>
-    <mergeCell ref="AY49:AY54"/>
-    <mergeCell ref="BA49:BA54"/>
-    <mergeCell ref="BE49:BE54"/>
-    <mergeCell ref="BI49:BI54"/>
-    <mergeCell ref="AU49:AU54"/>
-    <mergeCell ref="BC49:BC54"/>
-    <mergeCell ref="BK49:BK54"/>
-    <mergeCell ref="BM49:BM54"/>
-    <mergeCell ref="BO49:BO54"/>
-    <mergeCell ref="I51:S51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="B58:C61"/>
-    <mergeCell ref="G58:G66"/>
-    <mergeCell ref="I58:S58"/>
-    <mergeCell ref="V58:AC58"/>
-    <mergeCell ref="AD58:AG58"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="AJ58:AN58"/>
-    <mergeCell ref="AO58:BE58"/>
-    <mergeCell ref="BH58:BQ58"/>
-    <mergeCell ref="BR58:BS58"/>
-    <mergeCell ref="AS59:AS64"/>
-    <mergeCell ref="AW59:AW64"/>
-    <mergeCell ref="AY59:AY64"/>
-    <mergeCell ref="BA59:BA64"/>
-    <mergeCell ref="BE59:BE64"/>
-    <mergeCell ref="BI59:BI64"/>
-    <mergeCell ref="AU59:AU64"/>
-    <mergeCell ref="BC59:BC64"/>
-    <mergeCell ref="BK59:BK64"/>
-    <mergeCell ref="BM59:BM64"/>
-    <mergeCell ref="BO59:BO64"/>
-    <mergeCell ref="I61:S61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="B68:C71"/>
-    <mergeCell ref="G68:G76"/>
-    <mergeCell ref="I68:S68"/>
-    <mergeCell ref="V68:AC68"/>
-    <mergeCell ref="AD68:AG68"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="AJ68:AN68"/>
-    <mergeCell ref="AO68:BE68"/>
-    <mergeCell ref="BH68:BQ68"/>
-    <mergeCell ref="BR68:BS68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="AS69:AS74"/>
-    <mergeCell ref="AW69:AW74"/>
-    <mergeCell ref="AY69:AY74"/>
-    <mergeCell ref="BA69:BA74"/>
-    <mergeCell ref="BE69:BE74"/>
-    <mergeCell ref="AU69:AU74"/>
-    <mergeCell ref="BC69:BC74"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="BI69:BI74"/>
-    <mergeCell ref="BK69:BK74"/>
-    <mergeCell ref="BM69:BM74"/>
-    <mergeCell ref="BO69:BO74"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="I71:S71"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="AU79:AU84"/>
-    <mergeCell ref="BC79:BC84"/>
-    <mergeCell ref="V78:AC78"/>
-    <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="AJ78:AN78"/>
-    <mergeCell ref="AO78:BE78"/>
-    <mergeCell ref="BH78:BQ78"/>
+    <mergeCell ref="B78:C81"/>
+    <mergeCell ref="G78:G86"/>
+    <mergeCell ref="A109:C114"/>
+    <mergeCell ref="G109:G117"/>
+    <mergeCell ref="V109:AC109"/>
+    <mergeCell ref="AD109:AG109"/>
+    <mergeCell ref="AH109:AI109"/>
+    <mergeCell ref="AD89:AG89"/>
+    <mergeCell ref="AH89:AI89"/>
+    <mergeCell ref="A99:C104"/>
+    <mergeCell ref="G99:G107"/>
+    <mergeCell ref="V99:AC99"/>
+    <mergeCell ref="AD99:AG99"/>
+    <mergeCell ref="AH99:AI99"/>
     <mergeCell ref="BR78:BS78"/>
     <mergeCell ref="Q74:R74"/>
     <mergeCell ref="N75:O75"/>
@@ -38961,23 +38807,181 @@
     <mergeCell ref="AS79:AS84"/>
     <mergeCell ref="AW79:AW84"/>
     <mergeCell ref="AY79:AY84"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="BI69:BI74"/>
+    <mergeCell ref="BK69:BK74"/>
+    <mergeCell ref="BM69:BM74"/>
+    <mergeCell ref="BO69:BO74"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="I71:S71"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="AU79:AU84"/>
+    <mergeCell ref="BC79:BC84"/>
+    <mergeCell ref="V78:AC78"/>
+    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="AJ78:AN78"/>
+    <mergeCell ref="AO78:BE78"/>
+    <mergeCell ref="BH78:BQ78"/>
     <mergeCell ref="BA79:BA84"/>
     <mergeCell ref="BE79:BE84"/>
     <mergeCell ref="BI79:BI84"/>
-    <mergeCell ref="B78:C81"/>
-    <mergeCell ref="G78:G86"/>
-    <mergeCell ref="A109:C114"/>
-    <mergeCell ref="G109:G117"/>
-    <mergeCell ref="V109:AC109"/>
-    <mergeCell ref="AD109:AG109"/>
-    <mergeCell ref="AH109:AI109"/>
-    <mergeCell ref="AD89:AG89"/>
-    <mergeCell ref="AH89:AI89"/>
-    <mergeCell ref="A99:C104"/>
-    <mergeCell ref="G99:G107"/>
-    <mergeCell ref="V99:AC99"/>
-    <mergeCell ref="AD99:AG99"/>
-    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="AJ68:AN68"/>
+    <mergeCell ref="AO68:BE68"/>
+    <mergeCell ref="BH68:BQ68"/>
+    <mergeCell ref="BR68:BS68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="AS69:AS74"/>
+    <mergeCell ref="AW69:AW74"/>
+    <mergeCell ref="AY69:AY74"/>
+    <mergeCell ref="BA69:BA74"/>
+    <mergeCell ref="BE69:BE74"/>
+    <mergeCell ref="AU69:AU74"/>
+    <mergeCell ref="BC69:BC74"/>
+    <mergeCell ref="B68:C71"/>
+    <mergeCell ref="G68:G76"/>
+    <mergeCell ref="I68:S68"/>
+    <mergeCell ref="V68:AC68"/>
+    <mergeCell ref="AD68:AG68"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="AJ58:AN58"/>
+    <mergeCell ref="AO58:BE58"/>
+    <mergeCell ref="BH58:BQ58"/>
+    <mergeCell ref="BR58:BS58"/>
+    <mergeCell ref="AS59:AS64"/>
+    <mergeCell ref="AW59:AW64"/>
+    <mergeCell ref="AY59:AY64"/>
+    <mergeCell ref="BA59:BA64"/>
+    <mergeCell ref="BE59:BE64"/>
+    <mergeCell ref="BI59:BI64"/>
+    <mergeCell ref="AU59:AU64"/>
+    <mergeCell ref="BC59:BC64"/>
+    <mergeCell ref="BK59:BK64"/>
+    <mergeCell ref="BM59:BM64"/>
+    <mergeCell ref="BO59:BO64"/>
+    <mergeCell ref="B58:C61"/>
+    <mergeCell ref="G58:G66"/>
+    <mergeCell ref="I58:S58"/>
+    <mergeCell ref="V58:AC58"/>
+    <mergeCell ref="AD58:AG58"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="I61:S61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="AJ48:AN48"/>
+    <mergeCell ref="AO48:BE48"/>
+    <mergeCell ref="BH48:BQ48"/>
+    <mergeCell ref="BR48:BS48"/>
+    <mergeCell ref="AS49:AS54"/>
+    <mergeCell ref="AW49:AW54"/>
+    <mergeCell ref="AY49:AY54"/>
+    <mergeCell ref="BA49:BA54"/>
+    <mergeCell ref="BE49:BE54"/>
+    <mergeCell ref="BI49:BI54"/>
+    <mergeCell ref="AU49:AU54"/>
+    <mergeCell ref="BC49:BC54"/>
+    <mergeCell ref="BK49:BK54"/>
+    <mergeCell ref="BM49:BM54"/>
+    <mergeCell ref="BO49:BO54"/>
+    <mergeCell ref="B48:C51"/>
+    <mergeCell ref="G48:G56"/>
+    <mergeCell ref="I48:S48"/>
+    <mergeCell ref="V48:AC48"/>
+    <mergeCell ref="AD48:AG48"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="I51:S51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="BR38:BS38"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="BM29:BM34"/>
+    <mergeCell ref="BO29:BO34"/>
+    <mergeCell ref="BK39:BK44"/>
+    <mergeCell ref="BM39:BM44"/>
+    <mergeCell ref="BO39:BO44"/>
+    <mergeCell ref="I41:S41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="AS39:AS44"/>
+    <mergeCell ref="AW39:AW44"/>
+    <mergeCell ref="AY39:AY44"/>
+    <mergeCell ref="BA39:BA44"/>
+    <mergeCell ref="BE39:BE44"/>
+    <mergeCell ref="BI39:BI44"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="G38:G46"/>
+    <mergeCell ref="I38:S38"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="BI29:BI34"/>
+    <mergeCell ref="BK29:BK34"/>
+    <mergeCell ref="I31:S31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="AU39:AU44"/>
+    <mergeCell ref="BC39:BC44"/>
+    <mergeCell ref="V38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AJ38:AN38"/>
+    <mergeCell ref="AO38:BE38"/>
+    <mergeCell ref="BH38:BQ38"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AJ28:AN28"/>
+    <mergeCell ref="AO28:BE28"/>
+    <mergeCell ref="BH28:BQ28"/>
+    <mergeCell ref="BR28:BS28"/>
+    <mergeCell ref="AS29:AS34"/>
+    <mergeCell ref="AW29:AW34"/>
+    <mergeCell ref="AY29:AY34"/>
+    <mergeCell ref="BA29:BA34"/>
+    <mergeCell ref="BE29:BE34"/>
+    <mergeCell ref="AU29:AU34"/>
+    <mergeCell ref="BC29:BC34"/>
+    <mergeCell ref="V17:AC17"/>
+    <mergeCell ref="V25:AC25"/>
+    <mergeCell ref="B28:C31"/>
+    <mergeCell ref="G28:G36"/>
+    <mergeCell ref="V28:AC28"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="I28:S28"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K30 K40 K50 K60 K70 K80">
